--- a/data/02_intermediate/cleaned_Heuss_lEnfoiré_songs.xlsx
+++ b/data/02_intermediate/cleaned_Heuss_lEnfoiré_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Khapta, stenda, khapta, stenda Hé, hé Khapta, stenda, salope, te-boî, chot-ca, tel-hô, te-car Midi, départ, Paris, Neymar, Nasser, Qatar, voiture très rare Benda, j'démarre, esprit, Lemon, Cheezy, DZ, flexy, Djezzy Khalis, pressing, musique, streaming, bouteille, parking J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis dans ma khapta, yah, yah, yah j'suis en esprit J'suis dans ma khapta, yah, yah, yah en moula J'suis dans ma khapta, yah, yah, yah j'suis en esprit J'suis dans ma khapta, yah, yah, yah en yah yah You might also like Je sais tirer, je sais pas dire je t'aime, Affranchis contrôle le game Embrouilles XL, terrain, ficelles, khapta, Saint-Ouen, j'vois des pixels, hé Nous, c'est les grands du quartier ouais, nous, c'est les grands d'la tess Problèmes, balek, Brésil, Sadek, bénèf', chenef, Philippe Patek J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis dans ma khapta, yah, yah, yah j'suis en esprit J'suis dans ma khapta, yah, yah, yah en moula J'suis dans ma khapta, yah, yah, yah j'suis en esprit J'suis dans ma khapta, yah, yah, yah en yah yah La re-pu, la sse-pre, la casserole est magique Tartin génial, police spéciale, Safrane, Mégane, Stomy vegan J'régale Ciroc, Belvé', Grey Goose, végé' Re-pu séchée, Dolce, Versace, c'est léger Gaufrette, pétage fichée, garde à v', dépôt bien équipé J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis dans ma khapta, yah, yah, yah j'suis en esprit J'suis dans ma khapta, yah, yah, yah en moula J'suis dans ma khapta, yah, yah, yah j'suis en esprit J'suis dans ma khapta, yah, yah, yah en yah yah3</t>
+          <t>Khapta, stenda, khapta, stenda Hé, hé Khapta, stenda, salope, te-boî, chot-ca, tel-hô, te-car Midi, départ, Paris, Neymar, Nasser, Qatar, voiture très rare Benda, j'démarre, esprit, Lemon, Cheezy, DZ, flexy, Djezzy Khalis, pressing, musique, streaming, bouteille, parking J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis dans ma khapta, yah, yah, yah j'suis en esprit J'suis dans ma khapta, yah, yah, yah en moula J'suis dans ma khapta, yah, yah, yah j'suis en esprit J'suis dans ma khapta, yah, yah, yah en yah yah Je sais tirer, je sais pas dire je t'aime, Affranchis contrôle le game Embrouilles XL, terrain, ficelles, khapta, Saint-Ouen, j'vois des pixels, hé Nous, c'est les grands du quartier ouais, nous, c'est les grands d'la tess Problèmes, balek, Brésil, Sadek, bénèf', chenef, Philippe Patek J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis dans ma khapta, yah, yah, yah j'suis en esprit J'suis dans ma khapta, yah, yah, yah en moula J'suis dans ma khapta, yah, yah, yah j'suis en esprit J'suis dans ma khapta, yah, yah, yah en yah yah La re-pu, la sse-pre, la casserole est magique Tartin génial, police spéciale, Safrane, Mégane, Stomy vegan J'régale Ciroc, Belvé', Grey Goose, végé' Re-pu séchée, Dolce, Versace, c'est léger Gaufrette, pétage fichée, garde à v', dépôt bien équipé J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis dans ma khapta, yah, yah, yah j'suis en esprit J'suis dans ma khapta, yah, yah, yah en moula J'suis dans ma khapta, yah, yah, yah j'suis en esprit J'suis dans ma khapta, yah, yah, yah en yah yah3</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Skch, Sheguey Skch, Sheguey Skch, Sheguey Bae, ne reviens pas Prends tes affaires, rentre chez toi Sheguey Non, ne reviens pas Prends tes affaires, rentre chez toi Skch Bae, ne reviens pas Prends tes affaires, rentre chez toi Sheguey Non, ne reviens pas Prends tes affaires, rentre chez toi Oui, c'est nous les grosses moulas Et y a dla weed, y a du Jack, j'suis fonce-dé toute la night Et na-na-ni, na-na-na, m'raconte pas tes salades Cest soit tu viens, soit tu t'tailles On va pas parler thaï Y a des Shegueys, d'la moula La p'tite est fraîche, donc j'l'ai mis d'côté Ouais, faut du biff pour la piloter Ouais Elle s'enjaille toute la nuit, elle claque toute ton ardoise, han Jai mis trente bouteilles sur la table, donc forcément, elle mdonne son Snap Que des moulas dans l'carré, jvais finir bourré Tu t'es vue avec moi Nan mais c'était qu'un rêve Cétait qu'un rêve Tellement de folles, tellement d'oseille, depuis qu'j'suis célèbre Depuis qu'j'suis célèbre La boîte ne m'appartient pas Nan, si je veux, je l'achète Skch, skch Faut qu'tu coopères, si tu veux pas, bah, prends ton Uber You might also like Bae, ne reviens pas Prends tes affaires, rentre chez toi Sheguey Non, ne reviens pas Prends tes affaires, rentre chez toi Skch Bae, ne reviens pas Prends tes affaires, rentre chez toi Sheguey Non, ne reviens pas Prends tes affaires, rentre chez toi Oui, c'est nous les grosses moulas Et y a d'la weed, y a du Jack, j'suis fonce-dé toute la night Et na-na-ni, na-na-na, m'raconte pas tes salades C'est soit tu viens, soit tu t'tailles On va pas parler thaï Y a des Shegueys, d'la moula Heuss L'enfoiré, tu m'reconnois, j'les connais Ils m'connaissent les Gaulois Han, han, han Les bouteilles de cool-al, violent comme Conan, Myriam ou Morgane Han, han, han J'l'ai chargée en Mégane, j'repars en bécane J'ai pris la Russe et j'ai viré la gitane Skch, skch, skch, skch, skch Jamais en paganne, toujours en bénéf', deux heures après, on retourne la capitale Bébé, s'te plaît, reviens pas Nan, t'façon, j'ai d'jà benda Nan Ça y est, tu reconnois Nan, c'est l'Sheguey, la moula La khoula, les zoulas, bébé, non, ne les écoute pas Nan J'l'ai baisée, j'suis coupable Han, introuvable comme Sosa Bae, ne reviens pas Prends tes affaires, rentre chez toi Sheguey Non, ne reviens pas Prends tes affaires, rentre chez toi Skch Bae, ne reviens pas Prends tes affaires, rentre chez toi Sheguey Non, ne reviens pas Prends tes affaires, rentre chez toi Oui, c'est nous les grosses moulas Et y a d'la weed, y a du Jack, j'suis fonce-dé toute la night Et na-na-ni, na-na-na, m'raconte pas tes salades C'est soit tu viens, soit tu t'tailles On va pas parler thaï Y a des Shegueys, d'la moula Oui, c'est nous les grosses moulas Et y a d'la weed, y a du Jack, j'suis fonce-dé toute la night Et na-na-ni, na-na-na M'raconte pas tes salades, c'est soit tu viens, soit tu t'tailles On va pas parler thaï Y a des Shegueys, d'la moula Khapta stenda, khapta stenda Y a des Shegueys, d'la moula Khapta stenda, khapta stenda Y a des Shegueys, d'la moula Khapta stenda, khapta stenda Y a des Shegueys, d'la moula Khapta stenda, khapta stenda Y a des Shegueys, d'la moula2</t>
+          <t>Skch, Sheguey Skch, Sheguey Skch, Sheguey Bae, ne reviens pas Prends tes affaires, rentre chez toi Sheguey Non, ne reviens pas Prends tes affaires, rentre chez toi Skch Bae, ne reviens pas Prends tes affaires, rentre chez toi Sheguey Non, ne reviens pas Prends tes affaires, rentre chez toi Oui, c'est nous les grosses moulas Et y a dla weed, y a du Jack, j'suis fonce-dé toute la night Et na-na-ni, na-na-na, m'raconte pas tes salades Cest soit tu viens, soit tu t'tailles On va pas parler thaï Y a des Shegueys, d'la moula La p'tite est fraîche, donc j'l'ai mis d'côté Ouais, faut du biff pour la piloter Ouais Elle s'enjaille toute la nuit, elle claque toute ton ardoise, han Jai mis trente bouteilles sur la table, donc forcément, elle mdonne son Snap Que des moulas dans l'carré, jvais finir bourré Tu t'es vue avec moi Nan mais c'était qu'un rêve Cétait qu'un rêve Tellement de folles, tellement d'oseille, depuis qu'j'suis célèbre Depuis qu'j'suis célèbre La boîte ne m'appartient pas Nan, si je veux, je l'achète Skch, skch Faut qu'tu coopères, si tu veux pas, bah, prends ton Uber Bae, ne reviens pas Prends tes affaires, rentre chez toi Sheguey Non, ne reviens pas Prends tes affaires, rentre chez toi Skch Bae, ne reviens pas Prends tes affaires, rentre chez toi Sheguey Non, ne reviens pas Prends tes affaires, rentre chez toi Oui, c'est nous les grosses moulas Et y a d'la weed, y a du Jack, j'suis fonce-dé toute la night Et na-na-ni, na-na-na, m'raconte pas tes salades C'est soit tu viens, soit tu t'tailles On va pas parler thaï Y a des Shegueys, d'la moula Heuss L'enfoiré, tu m'reconnois, j'les connais Ils m'connaissent les Gaulois Han, han, han Les bouteilles de cool-al, violent comme Conan, Myriam ou Morgane Han, han, han J'l'ai chargée en Mégane, j'repars en bécane J'ai pris la Russe et j'ai viré la gitane Skch, skch, skch, skch, skch Jamais en paganne, toujours en bénéf', deux heures après, on retourne la capitale Bébé, s'te plaît, reviens pas Nan, t'façon, j'ai d'jà benda Nan Ça y est, tu reconnois Nan, c'est l'Sheguey, la moula La khoula, les zoulas, bébé, non, ne les écoute pas Nan J'l'ai baisée, j'suis coupable Han, introuvable comme Sosa Bae, ne reviens pas Prends tes affaires, rentre chez toi Sheguey Non, ne reviens pas Prends tes affaires, rentre chez toi Skch Bae, ne reviens pas Prends tes affaires, rentre chez toi Sheguey Non, ne reviens pas Prends tes affaires, rentre chez toi Oui, c'est nous les grosses moulas Et y a d'la weed, y a du Jack, j'suis fonce-dé toute la night Et na-na-ni, na-na-na, m'raconte pas tes salades C'est soit tu viens, soit tu t'tailles On va pas parler thaï Y a des Shegueys, d'la moula Oui, c'est nous les grosses moulas Et y a d'la weed, y a du Jack, j'suis fonce-dé toute la night Et na-na-ni, na-na-na M'raconte pas tes salades, c'est soit tu viens, soit tu t'tailles On va pas parler thaï Y a des Shegueys, d'la moula Khapta stenda, khapta stenda Y a des Shegueys, d'la moula Khapta stenda, khapta stenda Y a des Shegueys, d'la moula Khapta stenda, khapta stenda Y a des Shegueys, d'la moula Khapta stenda, khapta stenda Y a des Shegueys, d'la moula2</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Double verre de whisky Frappe tah Lewandowski Tu la verras pas venir Comme quand ça tire Tah Vladimir Eh, tu l'verras pas venir comme quand ça tire C'est l'histoire d'un mec qui veut s'refaire comme Vladimir Mais ça va mal finir, c'est les cités, c'est pas des gamineries Bicrave des grammes de matchitchi, fait pas d'graffiti Dans sa tête, c'est GTA San Andreas ou bien Vice City Comportement d'OG, respecté comme CJ La rue l'identifie, les délits samplifient Les ients-cli l'enrichissent mais délaissent vite le shit pour liquider d'la coke Faire tapiner des putes et la re-su des autres Quarante trois Marocchi, jamais très loin d'ses côtes Tu vois j'te parle de quel genre de mec Il traîne avec Zepek mais c'est pas Travis Scott, il aime la rue d'Aerschot Et les assiettes scampis, en 2012, au placard, il cantine Bé-tom jamais pour des centimes, plus rien peut l'attendrir Il baisera pas Sandrine, il baissera pas son jean J'avoue c'est gore mais la prison le rend d'plus en plus fort Distribue que d'la mort dès qu'il dit qu'il sogort, il fera pire encore Trois ans plus tard, il rebé-tom, rebelote à Nanterre Mais crois pas qu'il s'endort, son blase est légendaire Avant sa mort, juste avant qu'on l'enterre Il veut d'l'or et s'repentir pour pas goûter l'Enfer La rue et les affaires lui ramènent fort d'la prison ferme Encule tous les conseils, bats les couilles des grands frères Pour récupérer du gent-ar, l'esprit sait comment faire, fais ça sans commentaire Mentalité d'gangster, y a que des fils de putes qui lui souhaitent le cancer Toujours dans les transferts, de Villeneuve à Saint-Ouen, il a fait des pleins phares Y a que d'vant l'commissaire qu'il est plus très bavard Remets tout à plus tard, respecte tous les bus-bar, il arrive quand tu pars Y a qu'en promenade ou dans les cités que t'as déjà dû l'voir C'est un Arabe au cur noir, moitié Kosovar, un Mexicain notoire Moi, j'sais qu'il aime trop boire et rester en attaque Il connaît toutes les plaques des équipes de la dép' et les mecs de la BAC La police le débecte mais faut bien qu'il s'adapte C'est au placard que les jours se répètent J'l'ai déjà vu faire des grammes de zipette à l'aveuglette Dernièrement, j'l'ai vu d'mes yeux, il crossait son voisin Apparemment, c'est son cousin qui braque les magasins Calcule pas les vagins vu qu'il aime trop l'argent Cousine, il a pas l'temps, c'est un vrai attaquant, que dans les déplacements Essaye pas d'le cher-bran, il s'est déjà lé-bran, tu sais bien qu'il est grand Lui dis pas qu'il est temps d'arrêter tout ça, c'est un pur yakuza, il peut mourir pour ça Et baiser la Cosa, faire une Totò Riina avec Provenzano Généralement, il baise des putes et il mange au McDo', il possède pas d'château, c'est pas El Chapo C'est juste un vrai charo', tu vois déjà l'tableau Il fait jamais d'cadeau, que des khapta au Jack pour mieux se rétablir Ses plans sont établis, j'te raconte toute sa vie Tu peux la faire à d'autres ici rien est gratuit, il supporte que Paris Pour lui, tout est carré comme le Nord d'la Corée La rue, même la maison d'arrêt, il aime trop les cités Il nettoie son tard-pé toujours dans son quartier, c'est Medellín Cartel Il fonce à l'Île-Saint-Denis, bicrave ça comme Barksdale Avec tous les esprits, la police l'interpelle Il revient d'Eindhoven ou bien d'Antwerpen Les esprits sont bres-som, c'est pas un socialiste ni un franc-maçon C'est juste un grand garçon qui boit des rres-ve d'Whisky sans glaçon Hé, ma grande, s'te plaît, fais pas la belle, s'il t'a ken au Timhotel, t'auras pas d'prix Nobel J'te donne deux-trois conseils pour faire un peu d'oseille Prends ta chienne, mets-la sur VivaStreet ou sur SexModel Achète-lui six phones-tel', tu vas faire un bordel Paris, c'est pas L.A., c'est Mexico et Medellin Cartel Vincent, c'est Vin Diesel sur le périphérique Et Loulou, c'est Derrick, la départementale bosse comme en Amérique Y a beaucoup d'gens qui flippent, la moitié savent que ça peut aller vite C'est nous, les rats des villes, c'est pas une tragédie Many, j'le cace-dédi, les autres se travestissent Pendant qu'on investit sur la bonne machichi, quitte à ber-tom l'été Le charbon, c'est l'métier, le jargon bien salé pour sortir d'un guêpier Ici, c'est les cités et j'te déconseille d'y mettre les pieds d'y mettre les pieds, d'y mettre les pieds, d'y mettre les piedsYou might also like4</t>
+          <t>Double verre de whisky Frappe tah Lewandowski Tu la verras pas venir Comme quand ça tire Tah Vladimir Eh, tu l'verras pas venir comme quand ça tire C'est l'histoire d'un mec qui veut s'refaire comme Vladimir Mais ça va mal finir, c'est les cités, c'est pas des gamineries Bicrave des grammes de matchitchi, fait pas d'graffiti Dans sa tête, c'est GTA San Andreas ou bien Vice City Comportement d'OG, respecté comme CJ La rue l'identifie, les délits samplifient Les ients-cli l'enrichissent mais délaissent vite le shit pour liquider d'la coke Faire tapiner des putes et la re-su des autres Quarante trois Marocchi, jamais très loin d'ses côtes Tu vois j'te parle de quel genre de mec Il traîne avec Zepek mais c'est pas Travis Scott, il aime la rue d'Aerschot Et les assiettes scampis, en 2012, au placard, il cantine Bé-tom jamais pour des centimes, plus rien peut l'attendrir Il baisera pas Sandrine, il baissera pas son jean J'avoue c'est gore mais la prison le rend d'plus en plus fort Distribue que d'la mort dès qu'il dit qu'il sogort, il fera pire encore Trois ans plus tard, il rebé-tom, rebelote à Nanterre Mais crois pas qu'il s'endort, son blase est légendaire Avant sa mort, juste avant qu'on l'enterre Il veut d'l'or et s'repentir pour pas goûter l'Enfer La rue et les affaires lui ramènent fort d'la prison ferme Encule tous les conseils, bats les couilles des grands frères Pour récupérer du gent-ar, l'esprit sait comment faire, fais ça sans commentaire Mentalité d'gangster, y a que des fils de putes qui lui souhaitent le cancer Toujours dans les transferts, de Villeneuve à Saint-Ouen, il a fait des pleins phares Y a que d'vant l'commissaire qu'il est plus très bavard Remets tout à plus tard, respecte tous les bus-bar, il arrive quand tu pars Y a qu'en promenade ou dans les cités que t'as déjà dû l'voir C'est un Arabe au cur noir, moitié Kosovar, un Mexicain notoire Moi, j'sais qu'il aime trop boire et rester en attaque Il connaît toutes les plaques des équipes de la dép' et les mecs de la BAC La police le débecte mais faut bien qu'il s'adapte C'est au placard que les jours se répètent J'l'ai déjà vu faire des grammes de zipette à l'aveuglette Dernièrement, j'l'ai vu d'mes yeux, il crossait son voisin Apparemment, c'est son cousin qui braque les magasins Calcule pas les vagins vu qu'il aime trop l'argent Cousine, il a pas l'temps, c'est un vrai attaquant, que dans les déplacements Essaye pas d'le cher-bran, il s'est déjà lé-bran, tu sais bien qu'il est grand Lui dis pas qu'il est temps d'arrêter tout ça, c'est un pur yakuza, il peut mourir pour ça Et baiser la Cosa, faire une Totò Riina avec Provenzano Généralement, il baise des putes et il mange au McDo', il possède pas d'château, c'est pas El Chapo C'est juste un vrai charo', tu vois déjà l'tableau Il fait jamais d'cadeau, que des khapta au Jack pour mieux se rétablir Ses plans sont établis, j'te raconte toute sa vie Tu peux la faire à d'autres ici rien est gratuit, il supporte que Paris Pour lui, tout est carré comme le Nord d'la Corée La rue, même la maison d'arrêt, il aime trop les cités Il nettoie son tard-pé toujours dans son quartier, c'est Medellín Cartel Il fonce à l'Île-Saint-Denis, bicrave ça comme Barksdale Avec tous les esprits, la police l'interpelle Il revient d'Eindhoven ou bien d'Antwerpen Les esprits sont bres-som, c'est pas un socialiste ni un franc-maçon C'est juste un grand garçon qui boit des rres-ve d'Whisky sans glaçon Hé, ma grande, s'te plaît, fais pas la belle, s'il t'a ken au Timhotel, t'auras pas d'prix Nobel J'te donne deux-trois conseils pour faire un peu d'oseille Prends ta chienne, mets-la sur VivaStreet ou sur SexModel Achète-lui six phones-tel', tu vas faire un bordel Paris, c'est pas L.A., c'est Mexico et Medellin Cartel Vincent, c'est Vin Diesel sur le périphérique Et Loulou, c'est Derrick, la départementale bosse comme en Amérique Y a beaucoup d'gens qui flippent, la moitié savent que ça peut aller vite C'est nous, les rats des villes, c'est pas une tragédie Many, j'le cace-dédi, les autres se travestissent Pendant qu'on investit sur la bonne machichi, quitte à ber-tom l'été Le charbon, c'est l'métier, le jargon bien salé pour sortir d'un guêpier Ici, c'est les cités et j'te déconseille d'y mettre les pieds d'y mettre les pieds, d'y mettre les pieds, d'y mettre les pieds4</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Et elle est où, la moulaga, la moulaga ? Grosse moula tah Bogotá, et elle est où ? Elle est où la moulaga, la moulaga ? Grosse moula tah Bogotá fais-moi la bise comme un aristocrate Aristocrate, fais-moi la bise comme un aristocrate Aristocrate, fais-moi la bise comme un aristocrate J'veux du menders, que du menders, que du menders, que du menders Jfais une sortie, deux cents bangers, quatre cents bangers, six cents bangers J'ai envie d'menfumer, faut du menders, si t'as les poches vides, il t'faut des bangers J'passe à la cité, récupère des bangers, le menders est jaune comme l'équipe des Lakers C'est la khapta, 2 500 bangers, celle qui avoisine les un kilo d'menders C'est la khapta, 2 500 bangers, celle qui avoisine les un kilo de menders Midi-midi, menders, que des plein phares pour des bangers La moula, cest du menders, menders, menders, menders Et elle est où, la moulaga, la moulaga ? Grosse moula tah Bogotá, et elle est où ? Elle est où la moulaga, la moulaga ? Grosse moula tah Bogotá fais-moi la bise comme un aristocrate You might also like Aristocrate, fais-moi la bise comme un aristocrate Aristocrate, fais-moi la bise comme un aristocrate Jveux du menders, que du menders, que du menders, que du menders J'fais une sortie, deux cents bangers, quatre cents bangers, six cents bangers Khapta yah, yah, yah yah yah, jsuis à Salvador de Bahia Jack Da' yah, yah, yah yah yah, calibré comme la Mara Khapta yah, yah, yah yah yah, menders, bangers, benda benda Toute ma vie, c'est le carnage, j'arrive dans lclub en Dolce Gabbana Et elle est où, la moulaga, la moulaga ? Grosse moula tah Bogotá, et elle est où ? Elle est où la moulaga, la moulaga ? Grosse moula tah Bogotá fais-moi la bise comme un aristocrate Aristocrate, fais-moi la bise comme un aristocrate Aristocrate, fais-moi la bise comme un aristocrate J'veux du menders, que du menders, que du menders, que du menders J'fais une sortie, deux cents bangers, quatre cents bangers, six cents bangers</t>
+          <t>Et elle est où, la moulaga, la moulaga ? Grosse moula tah Bogotá, et elle est où ? Elle est où la moulaga, la moulaga ? Grosse moula tah Bogotá fais-moi la bise comme un aristocrate Aristocrate, fais-moi la bise comme un aristocrate Aristocrate, fais-moi la bise comme un aristocrate J'veux du menders, que du menders, que du menders, que du menders Jfais une sortie, deux cents bangers, quatre cents bangers, six cents bangers J'ai envie d'menfumer, faut du menders, si t'as les poches vides, il t'faut des bangers J'passe à la cité, récupère des bangers, le menders est jaune comme l'équipe des Lakers C'est la khapta, 2 500 bangers, celle qui avoisine les un kilo d'menders C'est la khapta, 2 500 bangers, celle qui avoisine les un kilo de menders Midi-midi, menders, que des plein phares pour des bangers La moula, cest du menders, menders, menders, menders Et elle est où, la moulaga, la moulaga ? Grosse moula tah Bogotá, et elle est où ? Elle est où la moulaga, la moulaga ? Grosse moula tah Bogotá fais-moi la bise comme un aristocrate Aristocrate, fais-moi la bise comme un aristocrate Aristocrate, fais-moi la bise comme un aristocrate Jveux du menders, que du menders, que du menders, que du menders J'fais une sortie, deux cents bangers, quatre cents bangers, six cents bangers Khapta yah, yah, yah yah yah, jsuis à Salvador de Bahia Jack Da' yah, yah, yah yah yah, calibré comme la Mara Khapta yah, yah, yah yah yah, menders, bangers, benda benda Toute ma vie, c'est le carnage, j'arrive dans lclub en Dolce Gabbana Et elle est où, la moulaga, la moulaga ? Grosse moula tah Bogotá, et elle est où ? Elle est où la moulaga, la moulaga ? Grosse moula tah Bogotá fais-moi la bise comme un aristocrate Aristocrate, fais-moi la bise comme un aristocrate Aristocrate, fais-moi la bise comme un aristocrate J'veux du menders, que du menders, que du menders, que du menders J'fais une sortie, deux cents bangers, quatre cents bangers, six cents bangers</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tout est Woah, tout est Woah Sous la cagoule, tout est gang Tout est Woah, tout est Wouh 93 Empire, tout est Woah Tout est Woah, tout est Woah Sous la cagoule, tout est gang Tout est Woah, tout est Woah 93 Empire, tout est sauvage, sauvage Check Nouveau chhh, paire de Woah Drive-by, BM, Double Woah Tout est Woah C'est l'9-Woah Le Prince rafale sur le Roi, j'sors le Woah Tout l'monde Woah Hermès, Dolce Gaba-Woah Y a les Woah, gyro chhhh Mes frères détaillent de la Woah Peine de Woah, charge le Woah On les bagarre, on les Woah You might also like J'rentre chez skch J'récupère mon Woah J'rappelle mon gars qui m'ramène de la Woah J'vais sur le rrain-Woah Faire une sortie comme Woah Mokri me dit qu'aujourd'hui, c'est gang J'l'écoute même pas, j'me sers un verre de Woah J'demande aux Tartins juste d'écrire mon se-Woah Heuss l'Enfoiré, c'est moi, la grosse mou-Woah Envoie des mandats à tous les mecs au card-Woah Ça sent la tate-pa, j'tape une dernière Kha-Woah J'suis dans les cités, j'travaille comme un ar-sauvage Artena, PI skch, le dealer s'est fait Woah avec des kilos, des quettes-pla de ppe-Woah C'est encore le baveux, celui qui porte la ki-Woah Qui sort du re-shta pour une maxi kich- Woah Tout est Woah, tout est Woah Sous la cagoule, tout est gang Tout est Woah, tout est Wouh 93 Empire, tout est Woah Tout est Woah, tout est Woah Sous la cagoule, tout est gang Tout est Woah, tout est Woah 93 Empire, tout est sauvage, sauvage Elle, moi, c'est comme Heuss et Anita J't'aime pas mais j'vais rester sympa Mais Kala et Moha, j'pense pas Par où j'suis passé, c'est comme un trou noir À l'époque, personne voulait de moi Mais moi, moi, moi, j'ai pas perdu la mémoire gang, gang Veni vici, ce putain d'combat T'es qui ? T'as fait quoi ? J'm'en bats De Beriz à Kouba, tous mes DZ sont cor-da Tout est carré, pas besoin d'ce-for Fallait donner avant Woah, Woah Maintenant, c'est d'la suce, mon pote Un SMIC et demi sur la teille, Woah Trois 9 milli sur la schnek, Woah Si tu la montes, tu la payes, Woah 9-3, empire du racket, Woah 9-3 Empire sur la tape, Woah 9-3 Empire sur la stèle, Woah 9-3, en pire ou en mieux, Woah Ouais, neuf grammes en shit ou en beuh ? Woah Y a du sang français sous la sape italienne, mi-capitaliste, mi-alien Mi-Super Saiyen, mi-gosse, mi-menace iranienne Mon écuyer chargeait l'Cayenne C'est Many, l'ami trahi, qui manie la mitraillette sauvage, sauvage J'écris des chansons hardcore, mi-sataniques, mi-païennes wouh Tout est Woah, tout est Woah Sous la cagoule, tout est gang Tout est Woah, tout est Wouh 93 Empire, tout est Woah Tout est Woah, tout est Woah Sous la cagoule, tout est gang Tout est Woah, tout est Woah 93 Empire, tout est sauvage, sauvage J'm'endors et j'me réveille dans de la literie en soie Woah, Woah, Woah Ma sur fait pas la pute, elle fait des études en droit J'ai mon VVS avec un banquier hongrois Woah, Woah Dans les bons moments, dans les meilleurs endroits Faites pas les Zampa, on va vous laisser en croix Woah, Woah J'ai la coupe à Goku, demande à Boka La moitié d'mon repas, c'est ton revenu du mois Woah Ils ont mis des micros, ils ont failli m'avoir Woah Le moteur du GLE a couvert l'son de ma voix Woah Passe à Las Vegas, j'ai pas croisé un baqueux Que des gérants d'four et des mecs du 9-3 Woah Ouais, des mecs de chez moi Sauvage Vie de scar-la, négro, dans Triple S, Balenciaga Woah, Woah Sur un casse, personne arrive en retard Ça va streamer ce soir comme une hagra Woah Une légende qui vient pour faire du carnage avec un flingue à barillet, pah-pah Woah Chacun son délire, comme Vald, moi, j'casse la démarche, tah le Glock qui fait clic-clac Tah le Glock qui fait clic-clac Tah le Glock qui fait clic-clac Tah le Glock qui fait clic-clac Tah le Glock qui fait clic-clac Vie de scar-la, négro, dans Triple S, Balenciaga hé, hé Sur un casse, personne arrive en retard Ça va streamer ce soir comme une hagra Tout est Woah, tout est Woah Sous la cagoule, tout est gang Tout est Woah, tout est Wouh 93 Empire, tout est Woah Tout est Woah, tout est Woah Sous la cagoule, tout est gang Tout est Woah, tout est Woah 93 Empire, tout est sauvage, sauvagerie9</t>
+          <t>Tout est Woah, tout est Woah Sous la cagoule, tout est gang Tout est Woah, tout est Wouh 93 Empire, tout est Woah Tout est Woah, tout est Woah Sous la cagoule, tout est gang Tout est Woah, tout est Woah 93 Empire, tout est sauvage, sauvage Check Nouveau chhh, paire de Woah Drive-by, BM, Double Woah Tout est Woah C'est l'9-Woah Le Prince rafale sur le Roi, j'sors le Woah Tout l'monde Woah Hermès, Dolce Gaba-Woah Y a les Woah, gyro chhhh Mes frères détaillent de la Woah Peine de Woah, charge le Woah On les bagarre, on les Woah J'rentre chez skch J'récupère mon Woah J'rappelle mon gars qui m'ramène de la Woah J'vais sur le rrain-Woah Faire une sortie comme Woah Mokri me dit qu'aujourd'hui, c'est gang J'l'écoute même pas, j'me sers un verre de Woah J'demande aux Tartins juste d'écrire mon se-Woah Heuss l'Enfoiré, c'est moi, la grosse mou-Woah Envoie des mandats à tous les mecs au card-Woah Ça sent la tate-pa, j'tape une dernière Kha-Woah J'suis dans les cités, j'travaille comme un ar-sauvage Artena, PI skch, le dealer s'est fait Woah avec des kilos, des quettes-pla de ppe-Woah C'est encore le baveux, celui qui porte la ki-Woah Qui sort du re-shta pour une maxi kich- Woah Tout est Woah, tout est Woah Sous la cagoule, tout est gang Tout est Woah, tout est Wouh 93 Empire, tout est Woah Tout est Woah, tout est Woah Sous la cagoule, tout est gang Tout est Woah, tout est Woah 93 Empire, tout est sauvage, sauvage Elle, moi, c'est comme Heuss et Anita J't'aime pas mais j'vais rester sympa Mais Kala et Moha, j'pense pas Par où j'suis passé, c'est comme un trou noir À l'époque, personne voulait de moi Mais moi, moi, moi, j'ai pas perdu la mémoire gang, gang Veni vici, ce putain d'combat T'es qui ? T'as fait quoi ? J'm'en bats De Beriz à Kouba, tous mes DZ sont cor-da Tout est carré, pas besoin d'ce-for Fallait donner avant Woah, Woah Maintenant, c'est d'la suce, mon pote Un SMIC et demi sur la teille, Woah Trois 9 milli sur la schnek, Woah Si tu la montes, tu la payes, Woah 9-3, empire du racket, Woah 9-3 Empire sur la tape, Woah 9-3 Empire sur la stèle, Woah 9-3, en pire ou en mieux, Woah Ouais, neuf grammes en shit ou en beuh ? Woah Y a du sang français sous la sape italienne, mi-capitaliste, mi-alien Mi-Super Saiyen, mi-gosse, mi-menace iranienne Mon écuyer chargeait l'Cayenne C'est Many, l'ami trahi, qui manie la mitraillette sauvage, sauvage J'écris des chansons hardcore, mi-sataniques, mi-païennes wouh Tout est Woah, tout est Woah Sous la cagoule, tout est gang Tout est Woah, tout est Wouh 93 Empire, tout est Woah Tout est Woah, tout est Woah Sous la cagoule, tout est gang Tout est Woah, tout est Woah 93 Empire, tout est sauvage, sauvage J'm'endors et j'me réveille dans de la literie en soie Woah, Woah, Woah Ma sur fait pas la pute, elle fait des études en droit J'ai mon VVS avec un banquier hongrois Woah, Woah Dans les bons moments, dans les meilleurs endroits Faites pas les Zampa, on va vous laisser en croix Woah, Woah J'ai la coupe à Goku, demande à Boka La moitié d'mon repas, c'est ton revenu du mois Woah Ils ont mis des micros, ils ont failli m'avoir Woah Le moteur du GLE a couvert l'son de ma voix Woah Passe à Las Vegas, j'ai pas croisé un baqueux Que des gérants d'four et des mecs du 9-3 Woah Ouais, des mecs de chez moi Sauvage Vie de scar-la, négro, dans Triple S, Balenciaga Woah, Woah Sur un casse, personne arrive en retard Ça va streamer ce soir comme une hagra Woah Une légende qui vient pour faire du carnage avec un flingue à barillet, pah-pah Woah Chacun son délire, comme Vald, moi, j'casse la démarche, tah le Glock qui fait clic-clac Tah le Glock qui fait clic-clac Tah le Glock qui fait clic-clac Tah le Glock qui fait clic-clac Tah le Glock qui fait clic-clac Vie de scar-la, négro, dans Triple S, Balenciaga hé, hé Sur un casse, personne arrive en retard Ça va streamer ce soir comme une hagra Tout est Woah, tout est Woah Sous la cagoule, tout est gang Tout est Woah, tout est Wouh 93 Empire, tout est Woah Tout est Woah, tout est Woah Sous la cagoule, tout est gang Tout est Woah, tout est Woah 93 Empire, tout est sauvage, sauvagerie9</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Zeg P on the track Wiils Productions D'la moulaga, donnez-moi d'la moulaga Donnez, do-do-donnez Donnez-moi d'la moulaga Donnez, do-do-donnez Donnez-moi d'la moulaga Donnez, do-do-donnez Donnez-moi d'la moulaga Donnez, do-do-donnez Donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga D'la moulaga, eh, donnez moi d'la moulaga J'ai dit, j'ai dit Donnez-moi d'la moula Ouais la mou-mou J'ai dit, j'ai dit Donnez-moi d'la moula Ju-Ju-JuL Ganté comme Soulax En esprit, j'fume que d'la moulax En esprit BG sur T-Max En esprit, le rétro gauche nique ma Rolex En esprit J'suis tellement une moula qu'elle veut que j'la casse Cinq piges que j'nique le game, putain, le temps passe Checke, checke, checke You might also like Donnez, do-do-donnez Donnez-moi d'la moulaga Donnez, do-do-donnez Donnez-moi d'la moulaga Donnez, do-do-donnez Donnez-moi d'la moulaga Donnez, do-do-donnez Donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga D'la moulaga, eh, donnez moi d'la moulaga J'me rallume un zoula, j'récupère d'la moula, j'ai même pas dé-saoulé Heuss L'enfoiré, les méchants, tu m'reconnois, les tes-boî, les showcases, les tain-p' et d'la monnaie Skch, skch Donnez-moi d'la moula, une bouteille de cool-al, j'ai même pas décollé Skch, skch Kichta compressée, c'est pour mieux décompresser, demande au V, c'est pas du rap de caissiers Les aristocrates sont là que pour encaisser, caissier encaissé, je sens qu'j'vais tout casser Totò Riina juste avant son décès, guitarisé comme un mec d'ACDC Donnez, do-do-donnez Donnez-moi d'la moulaga Donnez, do-do-donnez Donnez-moi d'la moulaga Donnez, do-do-donnez Donnez-moi d'la moulaga Donnez, do-do-donnez Donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga D'la moulaga, eh, donnez moi d'la moulaga En survêt' dans l'carré, on est sous moulax Ju-JuL, Heuss L'enfoiré, que des grosses moulax En survêt' dans l'carré, on est sous moulax Ju-JuL, Heuss L'enfoiré, que des grosses moulax Eh, d'la moulaga, d'la moulaga Eh, d'la moulaga, donnez-moi d'la moulaga Eh, d'la moulaga, d'la moulaga Eh, d'la moulaga, donnez-moi d'la moulaga</t>
+          <t>Zeg P on the track Wiils Productions D'la moulaga, donnez-moi d'la moulaga Donnez, do-do-donnez Donnez-moi d'la moulaga Donnez, do-do-donnez Donnez-moi d'la moulaga Donnez, do-do-donnez Donnez-moi d'la moulaga Donnez, do-do-donnez Donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga D'la moulaga, eh, donnez moi d'la moulaga J'ai dit, j'ai dit Donnez-moi d'la moula Ouais la mou-mou J'ai dit, j'ai dit Donnez-moi d'la moula Ju-Ju-JuL Ganté comme Soulax En esprit, j'fume que d'la moulax En esprit BG sur T-Max En esprit, le rétro gauche nique ma Rolex En esprit J'suis tellement une moula qu'elle veut que j'la casse Cinq piges que j'nique le game, putain, le temps passe Checke, checke, checke Donnez, do-do-donnez Donnez-moi d'la moulaga Donnez, do-do-donnez Donnez-moi d'la moulaga Donnez, do-do-donnez Donnez-moi d'la moulaga Donnez, do-do-donnez Donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga D'la moulaga, eh, donnez moi d'la moulaga J'me rallume un zoula, j'récupère d'la moula, j'ai même pas dé-saoulé Heuss L'enfoiré, les méchants, tu m'reconnois, les tes-boî, les showcases, les tain-p' et d'la monnaie Skch, skch Donnez-moi d'la moula, une bouteille de cool-al, j'ai même pas décollé Skch, skch Kichta compressée, c'est pour mieux décompresser, demande au V, c'est pas du rap de caissiers Les aristocrates sont là que pour encaisser, caissier encaissé, je sens qu'j'vais tout casser Totò Riina juste avant son décès, guitarisé comme un mec d'ACDC Donnez, do-do-donnez Donnez-moi d'la moulaga Donnez, do-do-donnez Donnez-moi d'la moulaga Donnez, do-do-donnez Donnez-moi d'la moulaga Donnez, do-do-donnez Donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga D'la moulaga, eh, donnez moi d'la moulaga En survêt' dans l'carré, on est sous moulax Ju-JuL, Heuss L'enfoiré, que des grosses moulax En survêt' dans l'carré, on est sous moulax Ju-JuL, Heuss L'enfoiré, que des grosses moulax Eh, d'la moulaga, d'la moulaga Eh, d'la moulaga, donnez-moi d'la moulaga Eh, d'la moulaga, d'la moulaga Eh, d'la moulaga, donnez-moi d'la moulaga</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yippie yo, yippie yay yippie yo, yippie yay Yippie yo, yippie yay yippie yo, yippie yay Houla-ouh, bla-bla skch, skch, skch, houla-ouh, bla-bla Ça dit quoi le sang, on s'pète à quelle heure ? à quelle heure ? J'suis dans l'douzième, j'fais partir des douzes des douzes Bosse comme un boss, bosse comme un boss yah J'suis avec La Poisse, pousse, fais la passe bra J'fais des tic-tac, j'arrive en tac-tac tac-tac Hier, j'étais dans le bus pourtant, j'ai grave du buzz ouh, nan J'attends ma SACEM, pour l'instant, les soucis les soucis Elles veulent toutes sucer depuis la salsa Ouh, ma wife wife Deux-trois clopes, un teh de salade salade Sur Paname, j'me balade balade J'm'en ressers un et j'pense à toi à toi Ouh, ma wife wife Deux-trois clopes, un teh de salade salade Sur Paname, j'me balade balade J'm'en ressers un et j'pense à toi à toi You might also like J'suis dans l'bât', on fait un aqua eh, eh J'suis pompette et j'repense à toi skch, skch Là, j'suis dans l'espace yah, là, j'suis dans l'espace Et après, tu m'ressers à moi à moi, et après, j'te ressers à toi à toi Là, j'suis dans l'espace, là, j'suis dans l'espace La gue-dro est ramenée sous bonne escorte skch, skch Elle est bonne et forte ouais, t'as ma parole d'escroc nan Heuss L'enfoiré, Carlos Gambi' au micro skch, skch J'vais tout baiser comme les événements d'récemment eh, eh Chef d'établissement dans l'appartement nan On connaît le maniement de l'armement ouais Manuellement, automatiquement skch, skch Probablement PDG du bâtiment Ouh, ma wife ma wife Deux-trois clopes, un teh de salade salade Sur Paname, j'me balade J'me ressers et j'pense à toi Ouh, ma wife ma wife Deux-trois clopes, un teh de salade Sur Paname, j'me balade J'me ressers et j'pense à toi J'suis dans l'bât', on fait un aqua J'suis pompette et j'repense à toi Là, j'suis dans l'espace yah, là, j'suis dans l'espace Et après, tu m'ressers à moi à moi, et après, j'te ressers à toi à toi Là, j'suis dans l'espace, là, j'suis dans l'espace Manuellement skch, automatiquement skch Bosse comme un boss, bosse comme un boss Manuellement skch, automatiquement skch, yah Bosse comme un boss, bosse comme un boss Manuellement skch, automatiquement skch, yah Bosse comme un boss, bosse comme un boss Manuellement skch, automatiquement skch, yah Bosse comme un boss, bosse comme un boss J'suis dans l'bât', on fait un aqua J'suis pompette et j'repense à toi Là, j'suis dans l'espace yah, là, j'suis dans l'espace Et après, tu m'ressers à moi à moi, et après, j'te ressers à toi à toi Là, j'suis dans l'espace yah, là, j'suis dans l'espace Habibi, habibi J'pense à toi toute la nuit J'suis khapta-a-a-a</t>
+          <t>Yippie yo, yippie yay yippie yo, yippie yay Yippie yo, yippie yay yippie yo, yippie yay Houla-ouh, bla-bla skch, skch, skch, houla-ouh, bla-bla Ça dit quoi le sang, on s'pète à quelle heure ? à quelle heure ? J'suis dans l'douzième, j'fais partir des douzes des douzes Bosse comme un boss, bosse comme un boss yah J'suis avec La Poisse, pousse, fais la passe bra J'fais des tic-tac, j'arrive en tac-tac tac-tac Hier, j'étais dans le bus pourtant, j'ai grave du buzz ouh, nan J'attends ma SACEM, pour l'instant, les soucis les soucis Elles veulent toutes sucer depuis la salsa Ouh, ma wife wife Deux-trois clopes, un teh de salade salade Sur Paname, j'me balade balade J'm'en ressers un et j'pense à toi à toi Ouh, ma wife wife Deux-trois clopes, un teh de salade salade Sur Paname, j'me balade balade J'm'en ressers un et j'pense à toi à toi J'suis dans l'bât', on fait un aqua eh, eh J'suis pompette et j'repense à toi skch, skch Là, j'suis dans l'espace yah, là, j'suis dans l'espace Et après, tu m'ressers à moi à moi, et après, j'te ressers à toi à toi Là, j'suis dans l'espace, là, j'suis dans l'espace La gue-dro est ramenée sous bonne escorte skch, skch Elle est bonne et forte ouais, t'as ma parole d'escroc nan Heuss L'enfoiré, Carlos Gambi' au micro skch, skch J'vais tout baiser comme les événements d'récemment eh, eh Chef d'établissement dans l'appartement nan On connaît le maniement de l'armement ouais Manuellement, automatiquement skch, skch Probablement PDG du bâtiment Ouh, ma wife ma wife Deux-trois clopes, un teh de salade salade Sur Paname, j'me balade J'me ressers et j'pense à toi Ouh, ma wife ma wife Deux-trois clopes, un teh de salade Sur Paname, j'me balade J'me ressers et j'pense à toi J'suis dans l'bât', on fait un aqua J'suis pompette et j'repense à toi Là, j'suis dans l'espace yah, là, j'suis dans l'espace Et après, tu m'ressers à moi à moi, et après, j'te ressers à toi à toi Là, j'suis dans l'espace, là, j'suis dans l'espace Manuellement skch, automatiquement skch Bosse comme un boss, bosse comme un boss Manuellement skch, automatiquement skch, yah Bosse comme un boss, bosse comme un boss Manuellement skch, automatiquement skch, yah Bosse comme un boss, bosse comme un boss Manuellement skch, automatiquement skch, yah Bosse comme un boss, bosse comme un boss J'suis dans l'bât', on fait un aqua J'suis pompette et j'repense à toi Là, j'suis dans l'espace yah, là, j'suis dans l'espace Et après, tu m'ressers à moi à moi, et après, j'te ressers à toi à toi Là, j'suis dans l'espace yah, là, j'suis dans l'espace Habibi, habibi J'pense à toi toute la nuit J'suis khapta-a-a-a</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Hey, Heuss L'enfoiré Hey, libérez Many bande d'enfoirés Le cul d'ta meuf on l'a déjà tapé On est des attaquants comme Mbappé J'suis dans la street, j'suis pas sur Booska P J'vais tout casser même si j'sais pas rapper Impossible de m'rater, t'auras beau faire des prises de karaté J'compte le gen-ar, j'le cellophane, Many t'allume après Dans le début de l'aprem, tu savais pas J'possède la meilleure crème, 0.9 en moyenne La came est bolivienne, on est des hayawanes Ramène des Russes, des Hawaïennes Paris 2017, c'est l'ambiance des sirènes Les fourgons cellulaires, les contrôles judiciaires J'encule le commissaire et tous les inspecteurs C'est les cités, dis-moi pourquoi t'as peur ? On est pas des acteurs Dis à l'ingé' qu'il coupe le vocodeur, moi j'en ai dans l'moteur J'commets des actes et c'est bien moi l'auteur J'traîne toujours avec des revendeurs J'étais chez moi, j'regardais The Wire Une fois dehors, la série continue J'ai rendez-vous avec un geush, et j'le fais dans la rue derrière les caméras Et si j'me fais cramer, j'ressors d'prison comme Mandela J'mérite de faire un opéra, là-bas jusqu'à la Jonquera Ou dans l'trou d'balle de madame Taubira Une salope m'a dit tu verras, un jour tu m'oublieras Et elle avait raison, Heuss L'enfoiré toujours dans la maison Quand j'envoie des sons, j'fais vibrer les caissons, j'réveille le tiekson C'est moi le grand patron mais j't'en dirai pas trop Respecte les narcos, les braquos, les nouveaux maquereaux La gue-dro chée-ca dans la vago, en bas du lavabo Hey petit crasseux, travaille tes abdos mais travaille-les bien Nous ramène pas ta go, ramène des litrons d'héro' par cargo J'suis dans Paris, j't'en mets plein les narines Dans la chatte à Marine, c'est pas cher la farine 25 euros le gramme de cocaïne J'annonce les taros et c'est pas des sardines Mon ventre il crie famine, faudrait qu'on m'examine Ramène-nous pas le chien tah la brigade canine Quand j'fais des sons ma gueule, toute la cité valide A moi tout seul j'suis l'Real de Madrid Redemande à Many, l'salaire de Jean II Makoun J'connais des mecs dans l'Nord mais c'est pas Dany Boon Ny-Ma fait des zooms à Bergen op Zoom, Antwerpen c'est pas Cancún Y'a v'là les machins qui s'écoulent, meilleure beuher au prix discount Passe-moi l'micro, j'vais leur faire un discours Quand y'a les keufs on fait pas demi-tour, on fait juste un détour J'connais Nanterre, moi aussi j'ai né-tour C'est la rue, la prison, puis la télévision La juge prépare une sale exécution Fais gaffe aux ham cachés dans les buissons J'oublierai pas d'terminer ma boisson, dédicacer poisson Faire des célébrations, quoiqu'il arrive j'reste un mauvais garçon Gros fumeur de gare-ci, j'recommande un cocktail et j'nahass à l'hôtel Après ce morceau j'vais casser mon phone-tel Libérez Boulakov et tous les trafiquants d'cocaine Ces fils de pute veulent me tèj en promenade Faut que j'bombarde à la Kingsley Coman J'sais pas si c'est normal, le shit, les putes et les verres de cool-al Mauvais récital, la rue, la prison, puis lhôpital Algérie, Maroc, Mali, Sénégal, c'est vraiment illégal J'suis dans mon délire un peu sale Les Mexicains, les Yakuzas, mon cousin chez nous y'a tout ça Si tu m'crois pas, demande à Moussa J'vous souhaite un joyeux Hanoukka You might also like Brrrrrrrr Brrrrrrrr1</t>
+          <t>Hey, Heuss L'enfoiré Hey, libérez Many bande d'enfoirés Le cul d'ta meuf on l'a déjà tapé On est des attaquants comme Mbappé J'suis dans la street, j'suis pas sur Booska P J'vais tout casser même si j'sais pas rapper Impossible de m'rater, t'auras beau faire des prises de karaté J'compte le gen-ar, j'le cellophane, Many t'allume après Dans le début de l'aprem, tu savais pas J'possède la meilleure crème, 0.9 en moyenne La came est bolivienne, on est des hayawanes Ramène des Russes, des Hawaïennes Paris 2017, c'est l'ambiance des sirènes Les fourgons cellulaires, les contrôles judiciaires J'encule le commissaire et tous les inspecteurs C'est les cités, dis-moi pourquoi t'as peur ? On est pas des acteurs Dis à l'ingé' qu'il coupe le vocodeur, moi j'en ai dans l'moteur J'commets des actes et c'est bien moi l'auteur J'traîne toujours avec des revendeurs J'étais chez moi, j'regardais The Wire Une fois dehors, la série continue J'ai rendez-vous avec un geush, et j'le fais dans la rue derrière les caméras Et si j'me fais cramer, j'ressors d'prison comme Mandela J'mérite de faire un opéra, là-bas jusqu'à la Jonquera Ou dans l'trou d'balle de madame Taubira Une salope m'a dit tu verras, un jour tu m'oublieras Et elle avait raison, Heuss L'enfoiré toujours dans la maison Quand j'envoie des sons, j'fais vibrer les caissons, j'réveille le tiekson C'est moi le grand patron mais j't'en dirai pas trop Respecte les narcos, les braquos, les nouveaux maquereaux La gue-dro chée-ca dans la vago, en bas du lavabo Hey petit crasseux, travaille tes abdos mais travaille-les bien Nous ramène pas ta go, ramène des litrons d'héro' par cargo J'suis dans Paris, j't'en mets plein les narines Dans la chatte à Marine, c'est pas cher la farine 25 euros le gramme de cocaïne J'annonce les taros et c'est pas des sardines Mon ventre il crie famine, faudrait qu'on m'examine Ramène-nous pas le chien tah la brigade canine Quand j'fais des sons ma gueule, toute la cité valide A moi tout seul j'suis l'Real de Madrid Redemande à Many, l'salaire de Jean II Makoun J'connais des mecs dans l'Nord mais c'est pas Dany Boon Ny-Ma fait des zooms à Bergen op Zoom, Antwerpen c'est pas Cancún Y'a v'là les machins qui s'écoulent, meilleure beuher au prix discount Passe-moi l'micro, j'vais leur faire un discours Quand y'a les keufs on fait pas demi-tour, on fait juste un détour J'connais Nanterre, moi aussi j'ai né-tour C'est la rue, la prison, puis la télévision La juge prépare une sale exécution Fais gaffe aux ham cachés dans les buissons J'oublierai pas d'terminer ma boisson, dédicacer poisson Faire des célébrations, quoiqu'il arrive j'reste un mauvais garçon Gros fumeur de gare-ci, j'recommande un cocktail et j'nahass à l'hôtel Après ce morceau j'vais casser mon phone-tel Libérez Boulakov et tous les trafiquants d'cocaine Ces fils de pute veulent me tèj en promenade Faut que j'bombarde à la Kingsley Coman J'sais pas si c'est normal, le shit, les putes et les verres de cool-al Mauvais récital, la rue, la prison, puis lhôpital Algérie, Maroc, Mali, Sénégal, c'est vraiment illégal J'suis dans mon délire un peu sale Les Mexicains, les Yakuzas, mon cousin chez nous y'a tout ça Si tu m'crois pas, demande à Moussa J'vous souhaite un joyeux Hanoukka Brrrrrrrr Brrrrrrrr1</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Zeg P on the track, bitch RDS Hé, hé, la grosse moula poursuivie par les méchants Les méchants, les mé, les mé, les méchants Dis-moi comment ça va, on s'est d'jà vus là-bas, tu t'rappelles de moi, c'est moi, la grosse moula J't'ai déjà ché-bran avec ta copine Anita, c'est pas Yves Montand qui m'a fait monter Bandit, khaliss, Many, valise, perquis', shérif Pardon, chérie, fais tes valises, Rotter' - Venise Soit tu m'suis ou on s'revoit dans dix piges Tu connais, tu connais, tu connais, en étant détendu, tout c'que j'ai compté J'fais passer la re-pu dans le cul d'un poney, au bigo j'f'rais mieux d'parler en japonais Hé, hé, la grosse moula poursuivie par les méchants Les méchants, les mé, les mé, les méchants Grosse moula, voiture noire c'est les méchants La grosse moula, cette vie-là l'a pas gé-chan J'me barre à la cité, j'en ai pas pour longtemps, bébé, je t'aime et tout mais j'ai besoin d'argent J'ai v'là les sentiments mais y a d'jà les méchants, là je prends la fuite, on s'revoit dans dix ans Les méchants, les méchants, les méchants Les méchants, les méchants, les méchants Les méchants, les méchants, les méchants Les méchants, les méchants, les méchants Dans mon département, ça v'-esqui les méchants, les p'tits d'chez moi, chez moi, vi-ser les clients T'inquiète même pas, billets récents, de temps en temps, j'sors d'la que-ban You might also like Hé, hé, la grosse moula poursuivie par les méchants Les méchants, les mé, les mé, les méchants Grosse moula, voiture noire c'est les méchants La grosse moula, cette vie-là l'a pas gé-chan Y a les méchants, ouais, ouais Il faut harbat, ouais, ouais Y a les méchants, ouais, ouais Il faut harbater , eh ouais Grosse moula, y a les méchants, y a les méchants, hé Grosse moula, y a les méchants, hé Grosse moula, y a les méchants, y a les méchants, hé C'est la grosse moula, y a les méchants, y a les méchants, hé, ouais C'est la grosse moula, y a les méchants, y a les méchants Grosse moula, y a les méchants, y a les méchants, hé C'est la grosse moula C'est la grosse moula C'est la grosse moula1</t>
+          <t>Zeg P on the track, bitch RDS Hé, hé, la grosse moula poursuivie par les méchants Les méchants, les mé, les mé, les méchants Dis-moi comment ça va, on s'est d'jà vus là-bas, tu t'rappelles de moi, c'est moi, la grosse moula J't'ai déjà ché-bran avec ta copine Anita, c'est pas Yves Montand qui m'a fait monter Bandit, khaliss, Many, valise, perquis', shérif Pardon, chérie, fais tes valises, Rotter' - Venise Soit tu m'suis ou on s'revoit dans dix piges Tu connais, tu connais, tu connais, en étant détendu, tout c'que j'ai compté J'fais passer la re-pu dans le cul d'un poney, au bigo j'f'rais mieux d'parler en japonais Hé, hé, la grosse moula poursuivie par les méchants Les méchants, les mé, les mé, les méchants Grosse moula, voiture noire c'est les méchants La grosse moula, cette vie-là l'a pas gé-chan J'me barre à la cité, j'en ai pas pour longtemps, bébé, je t'aime et tout mais j'ai besoin d'argent J'ai v'là les sentiments mais y a d'jà les méchants, là je prends la fuite, on s'revoit dans dix ans Les méchants, les méchants, les méchants Les méchants, les méchants, les méchants Les méchants, les méchants, les méchants Les méchants, les méchants, les méchants Dans mon département, ça v'-esqui les méchants, les p'tits d'chez moi, chez moi, vi-ser les clients T'inquiète même pas, billets récents, de temps en temps, j'sors d'la que-ban Hé, hé, la grosse moula poursuivie par les méchants Les méchants, les mé, les mé, les méchants Grosse moula, voiture noire c'est les méchants La grosse moula, cette vie-là l'a pas gé-chan Y a les méchants, ouais, ouais Il faut harbat, ouais, ouais Y a les méchants, ouais, ouais Il faut harbater , eh ouais Grosse moula, y a les méchants, y a les méchants, hé Grosse moula, y a les méchants, hé Grosse moula, y a les méchants, y a les méchants, hé C'est la grosse moula, y a les méchants, y a les méchants, hé, ouais C'est la grosse moula, y a les méchants, y a les méchants Grosse moula, y a les méchants, y a les méchants, hé C'est la grosse moula C'est la grosse moula C'est la grosse moula1</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>J'connais ma mission plus jamais d'frisson devant l'addition Heuss l'Enfoiré, Valentin J'connais ma mission plus jamais d'frisson devant l'addition la Sablière, Boute-en-Train J'connais ma mission plus jamais d'frisson devant l'addition Aulnay-Sous-Bois, VLG J'connais ma mission plus jamais d'frisson devant l'addition V.A.L.D qualifié, c'est carré comme le sexe tarifé Je connais les rouages, les modalités tellement d'oseille, j'fais des mondanités Arrêtez donc toute cette bestialité, 's êtes des YouTubeurs, des dessins animés Cassez-vous l'cul pour qu'ils puissent hériter, et qu'ils puissent se déchirer comme les Hallyday J'suis dans cette merde tu peux lexaminer, file voir ta mère transmets mes amitiés J'fais grimper l'cachet c'est ma spécialité, j'ai pas d'autre qualité, je n'sais pas câliner Planche à billets est la mentalité, pas l'temps d'viber, j'étais en bas hier Mon flow vanillé va les envahir et j'vais finir par comploter en Bavière, frère Demain, je monte mon label en Lettonie, je l'appelle quand même la casa de papel C'est tous des thos-my derrière le cro-mi, ça joue les Tony, ça gratte les APL Pas d'Clyde et Bonnie le jour de la SACEM, tous au château en peignoir de PN Devant un gros biff, je ne suis pas l'même, regard dans le vide, j'ai le sourire de BN Je cherche la paix, le calme et la sagesse mais j'ai pulsions meurtrières passagères Frérot, remballe ton canif, ta machette, on peut tous s'aimer, je l'ai vu sur la tablette J'refuse d'être mauvais, pour ça, je fais des efforts J'refuse d'être pauvre et pour ça, je vais péter le score C'est pas venu d'un coup, gros, j'ai répété fort J'ai plus fait mes devoirs, j'ai moins traîné dehors You might also like J'connais ma mission plus jamais d'frisson devant l'addition nan J'connais ma mission plus jamais d'frisson devant l'addition nan J'connais ma mission plus jamais d'frisson devant l'addition nan J'connais ma mission plus jamais d'frisson devant l'addition sksh, sksh, sksh V.A.L.D roule un spliff de skunk, j'possède la danse, tah les hits de funk Double tarif, on les plie en deux, ramène ta copine qu'on la pine un peu On ira la chercher dans un Clio II, j'arrive en équipe, on les baise, on est quitte J'repars en esprit, et j'les pare en despi double tarif, double verre de whisky J'repartirai d'ici que le tre-ven rempli, ramène la re-pu du cousin des Antilles Je t'avais déjà dit qu'on est pas des gentils, quand je suis défoncé, tu peux parler tchèque Je vais à Zanzibar ou à Charm el-Cheikh, double tarif, faut ramasser des chèques Et les sicarios t'écarteront les fesses Et les sicarios t'écarteront les fesses J'me roule un gros joint pure de qualité, jesquive les voitures toutes banalisées Là, je suis en vacances, demain dans les cités, ramène ton oreille que j'te la dépucèle Je fonce à Bruxelles, c'est pas des pucelles, j'écoute du Jacques Brel et j'bois du Jack miel Je suis dans mon cartel, j'vais graille chez Kamel, j'écoute du Jacques Brel et j'bois du Jack miel J'connais ma mission plus jamais d'frisson devant l'addition nan J'connais ma mission plus jamais d'frisson devant l'addition nan J'connais ma mission plus jamais d'frisson devant l'addition nan J'connais ma mission plus jamais d'frisson devant l'addition sksh, sksh, sksh J'transforme l'écart en haine, j'effrite le Carambar Je transforme les K en M, dans les poches, ça rentre pas J'repense à à l'ancienne, y avait pas d'Samantha Sur ma pauvre âme en peine, sa vieille chatte attendra Je transforme la came en vert, deux trois-verres de Jack Da' Quand je suis dans ma khapta, j'ai cassé Cassandra La dép' nous attendra à six heures trente en bas Tout l'argent qu'j'ai compté, préviens toute la compta' Ça bicrave à côté, d'la résine, d'la coca' Je transforme la came en vert, deux-trois verres de Jack Da' J'connais ma mission plus jamais d'frisson devant l'addition nan J'connais ma mission plus jamais d'frisson devant l'addition nan J'connais ma mission plus jamais d'frisson devant l'addition nan J'connais ma mission plus jamais d'frisson devant l'addition sksh, sksh, sksh J'connais ma mission plus jamais d'frisson devant l'addition nan J'connais ma mission plus jamais d'frisson devant l'addition nan J'connais ma mission plus jamais d'frisson devant l'addition J'connais ma mission plus jamais d'frisson devant l'addition, ouais3</t>
+          <t>J'connais ma mission plus jamais d'frisson devant l'addition Heuss l'Enfoiré, Valentin J'connais ma mission plus jamais d'frisson devant l'addition la Sablière, Boute-en-Train J'connais ma mission plus jamais d'frisson devant l'addition Aulnay-Sous-Bois, VLG J'connais ma mission plus jamais d'frisson devant l'addition V.A.L.D qualifié, c'est carré comme le sexe tarifé Je connais les rouages, les modalités tellement d'oseille, j'fais des mondanités Arrêtez donc toute cette bestialité, 's êtes des YouTubeurs, des dessins animés Cassez-vous l'cul pour qu'ils puissent hériter, et qu'ils puissent se déchirer comme les Hallyday J'suis dans cette merde tu peux lexaminer, file voir ta mère transmets mes amitiés J'fais grimper l'cachet c'est ma spécialité, j'ai pas d'autre qualité, je n'sais pas câliner Planche à billets est la mentalité, pas l'temps d'viber, j'étais en bas hier Mon flow vanillé va les envahir et j'vais finir par comploter en Bavière, frère Demain, je monte mon label en Lettonie, je l'appelle quand même la casa de papel C'est tous des thos-my derrière le cro-mi, ça joue les Tony, ça gratte les APL Pas d'Clyde et Bonnie le jour de la SACEM, tous au château en peignoir de PN Devant un gros biff, je ne suis pas l'même, regard dans le vide, j'ai le sourire de BN Je cherche la paix, le calme et la sagesse mais j'ai pulsions meurtrières passagères Frérot, remballe ton canif, ta machette, on peut tous s'aimer, je l'ai vu sur la tablette J'refuse d'être mauvais, pour ça, je fais des efforts J'refuse d'être pauvre et pour ça, je vais péter le score C'est pas venu d'un coup, gros, j'ai répété fort J'ai plus fait mes devoirs, j'ai moins traîné dehors J'connais ma mission plus jamais d'frisson devant l'addition nan J'connais ma mission plus jamais d'frisson devant l'addition nan J'connais ma mission plus jamais d'frisson devant l'addition nan J'connais ma mission plus jamais d'frisson devant l'addition sksh, sksh, sksh V.A.L.D roule un spliff de skunk, j'possède la danse, tah les hits de funk Double tarif, on les plie en deux, ramène ta copine qu'on la pine un peu On ira la chercher dans un Clio II, j'arrive en équipe, on les baise, on est quitte J'repars en esprit, et j'les pare en despi double tarif, double verre de whisky J'repartirai d'ici que le tre-ven rempli, ramène la re-pu du cousin des Antilles Je t'avais déjà dit qu'on est pas des gentils, quand je suis défoncé, tu peux parler tchèque Je vais à Zanzibar ou à Charm el-Cheikh, double tarif, faut ramasser des chèques Et les sicarios t'écarteront les fesses Et les sicarios t'écarteront les fesses J'me roule un gros joint pure de qualité, jesquive les voitures toutes banalisées Là, je suis en vacances, demain dans les cités, ramène ton oreille que j'te la dépucèle Je fonce à Bruxelles, c'est pas des pucelles, j'écoute du Jacques Brel et j'bois du Jack miel Je suis dans mon cartel, j'vais graille chez Kamel, j'écoute du Jacques Brel et j'bois du Jack miel J'connais ma mission plus jamais d'frisson devant l'addition nan J'connais ma mission plus jamais d'frisson devant l'addition nan J'connais ma mission plus jamais d'frisson devant l'addition nan J'connais ma mission plus jamais d'frisson devant l'addition sksh, sksh, sksh J'transforme l'écart en haine, j'effrite le Carambar Je transforme les K en M, dans les poches, ça rentre pas J'repense à à l'ancienne, y avait pas d'Samantha Sur ma pauvre âme en peine, sa vieille chatte attendra Je transforme la came en vert, deux trois-verres de Jack Da' Quand je suis dans ma khapta, j'ai cassé Cassandra La dép' nous attendra à six heures trente en bas Tout l'argent qu'j'ai compté, préviens toute la compta' Ça bicrave à côté, d'la résine, d'la coca' Je transforme la came en vert, deux-trois verres de Jack Da' J'connais ma mission plus jamais d'frisson devant l'addition nan J'connais ma mission plus jamais d'frisson devant l'addition nan J'connais ma mission plus jamais d'frisson devant l'addition nan J'connais ma mission plus jamais d'frisson devant l'addition sksh, sksh, sksh J'connais ma mission plus jamais d'frisson devant l'addition nan J'connais ma mission plus jamais d'frisson devant l'addition nan J'connais ma mission plus jamais d'frisson devant l'addition J'connais ma mission plus jamais d'frisson devant l'addition, ouais3</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Moi, j'm'appelle Emilio, j'traîne avec Ze Pequeno Colombie, Medellín, Brésil, Rio de Janeiro J'réapparais mais j'suis traficanté, Heuss L'enfoiré Les affaires pimentées, le réseau démantelé Laisse le rain-té pour les petits d'la cité J'récupegère l'aggapart des Apès Deux mille seigeize j'suis avec Los PEPES 2017, Reyes d'Los Angeles De Villefranche à Nanterre, j'encule tous les hessess, j'régale toute la jeunesse Y'a peut-être ta soeur sur un site à Genève 2009, 2010, j'suis avec mes complices J'les ai vi-ser dans l'dos'zer d'la police J'fais que des sons mais c'est que des bains d'sang J'te fais zouker tout comme Franky Vincent Dis aux petits d'la cité qu'ils rabattent les passants Faut faire partir tous les pavots d'Afghan T'as reçu le colis, là faut payer Pauli Demande à Manny, on est pas très polis comme en Italie Respecte les affranchis, les mafiosis, Mafia tah Napoli Là j'suis dans le manoir, si ça tenait qu'à moi Au téléphone j'aurais parlé Danois, Japonais ou Chinois C'est bon j'connais l'schéma, j'ai le machin chez moi Comme les gars d'la Mara, c'est bien nous les nouveaux parrains J'encule fort tes parents 92 département, les bicraveurs d'élite posés dans l'bâtiment Ça ressemble fort à Baltimore, la que-BA s'est rée-ga Le dealeur s'est rré-ba, les deps se sont rié-ma, les tits-pe nous téma C'est la remontada qui commencera par ton pénave La départementale essaye d'faire le ménage J'te conseille de benda harbat dans les étages Faudrait qu'on s'organise pour faigaire un dabiste Le nécessaire pour un maximum de khaliss Respecte les frères, ceux qui portent le qamis Un jour dans l'din et l'autre dans l'deal, litrons de cannabis Vends toutes les drogues, n'écoute pas c'qu'on t'a dit J'encule la mélodie juste avant Elodie Tu connais pas nos vies mais j't'arrange sur les prix Dans la gue-dro j'ai toutes les panoplies Je sais pas si t'as compris On est pas des gentils on est des vrais bandits Moi j'ai jamais menti, me dis pas qu'est-ce t'en dis ? Tu sais pas c'que j'ai vendu et revendu en étant détendu Y a d'la me-ca en jeu, c'est dangereux, faut pas jurer sur Dieu Tout c'que j'raconte devrait être censuré Respecte les frères, ce qu'ils ont enduré J'suis vraiment chaud pourtant j'envoie pas la purée C'est dans la street que j'ai mué, commencé à fumer Heuss l'enfoiré, bande d'enfoiré mais ça va pas durer Heuss l'enfoiré, bande d'enfoiré mais ça va pas durerYou might also like2</t>
+          <t>Moi, j'm'appelle Emilio, j'traîne avec Ze Pequeno Colombie, Medellín, Brésil, Rio de Janeiro J'réapparais mais j'suis traficanté, Heuss L'enfoiré Les affaires pimentées, le réseau démantelé Laisse le rain-té pour les petits d'la cité J'récupegère l'aggapart des Apès Deux mille seigeize j'suis avec Los PEPES 2017, Reyes d'Los Angeles De Villefranche à Nanterre, j'encule tous les hessess, j'régale toute la jeunesse Y'a peut-être ta soeur sur un site à Genève 2009, 2010, j'suis avec mes complices J'les ai vi-ser dans l'dos'zer d'la police J'fais que des sons mais c'est que des bains d'sang J'te fais zouker tout comme Franky Vincent Dis aux petits d'la cité qu'ils rabattent les passants Faut faire partir tous les pavots d'Afghan T'as reçu le colis, là faut payer Pauli Demande à Manny, on est pas très polis comme en Italie Respecte les affranchis, les mafiosis, Mafia tah Napoli Là j'suis dans le manoir, si ça tenait qu'à moi Au téléphone j'aurais parlé Danois, Japonais ou Chinois C'est bon j'connais l'schéma, j'ai le machin chez moi Comme les gars d'la Mara, c'est bien nous les nouveaux parrains J'encule fort tes parents 92 département, les bicraveurs d'élite posés dans l'bâtiment Ça ressemble fort à Baltimore, la que-BA s'est rée-ga Le dealeur s'est rré-ba, les deps se sont rié-ma, les tits-pe nous téma C'est la remontada qui commencera par ton pénave La départementale essaye d'faire le ménage J'te conseille de benda harbat dans les étages Faudrait qu'on s'organise pour faigaire un dabiste Le nécessaire pour un maximum de khaliss Respecte les frères, ceux qui portent le qamis Un jour dans l'din et l'autre dans l'deal, litrons de cannabis Vends toutes les drogues, n'écoute pas c'qu'on t'a dit J'encule la mélodie juste avant Elodie Tu connais pas nos vies mais j't'arrange sur les prix Dans la gue-dro j'ai toutes les panoplies Je sais pas si t'as compris On est pas des gentils on est des vrais bandits Moi j'ai jamais menti, me dis pas qu'est-ce t'en dis ? Tu sais pas c'que j'ai vendu et revendu en étant détendu Y a d'la me-ca en jeu, c'est dangereux, faut pas jurer sur Dieu Tout c'que j'raconte devrait être censuré Respecte les frères, ce qu'ils ont enduré J'suis vraiment chaud pourtant j'envoie pas la purée C'est dans la street que j'ai mué, commencé à fumer Heuss l'enfoiré, bande d'enfoiré mais ça va pas durer Heuss l'enfoiré, bande d'enfoiré mais ça va pas durer2</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>J'me barre là-bas, à Malaga Malaga, Granada Tu m'as déjà vu sur l'avenue de Bangla L'avenue de Bangla, en choupeta Ou au bâtiment 2, en promenade au card-pla En promenade au card-pla, au bâtiment A Il doit des lovés mais il est même pas là Il est même pas là, il a déjà benda J'ai déjà pris mon billet pour Amsterdam Amsterdam, Amsterdam Tu m'as déjà aperçu à Bab El Oued Dans les rues de seille-Mar ou les rues de Paname Il te doit des lovés et il est même pas là Si tu me cherches, j'suis plus là J'suis dans les rues de Wahran en Impala Ou une Aventador, ça fait vroum, vroum, rhla Si tu l'cherches, il est plus là yeah Il a déjà benda yeah yeah yeah Sur l'avenue de Bangla rapapap Il a fait une khapta, il s'en rappelle même pas Y en a plein qui l'aiment pas, il encule le tempo Il a v'là les blèmes-pro, il fait bosser à té-cô Il refait la déco', il finit au dépôt Trois heures après, il est en mandat d'dépôt Il fumera toute sa peine, il sortira costaud Il fumera toute sa peine, il sortira pas costaud Sous l'effet d'la khapta, il viendra d'accoster rapapap-pa You might also like J'me barre là-bas, à Malaga Malaga, Granada Tu m'as déjà vu sur l'avenue de Bangla L'avenue de Bangla en choupeta Ou au bâtiment 2, en promenade au card-pla En promenade au card-pla, au bâtiment A Il doit des lovés mais il est même pas là Il est même pas là, il a déjà benda J'ai déjà pris mon billet pour Amsterdam Amsterdam, Amsterdam Tu m'as déjà aperçu à Bab El Oued Dans les rues de seille-Mar ou les rues de Paname Il te doit des lovés et il est même pas là Si tu me cherches, j'suis plus là J'suis dans les rues de Wahran en Impala Ou une Aventador, ça fait vroum, vroum, rhla Petit hermano veut devenir El Capitaine Il s'inspire des grands bandidos d'sa cité Sa mama lui a dit Fais attention aux 3afrit ! Il côtoie des mecs qui font les crimes tarifés Sous son lit six-coups, barillet De midi à midi, il est là d'puis hier Plus de illets-bi et moins de manières Même en cellule, ouais, ouais, ouais Hey hey, hey hey Ga3 ytkayfou pour oublier Hey hey, hey hey Jour de paye, envoie la bouteille J'me barre là-bas, à Malaga Malaga, Granada Tu m'as déjà vu sur l'avenue de Bangla L'avenue de Bangla en choupeta Ou au bâtiment 2, en promenade au card-pla En promenade au card-pla, au bâtiment A Il doit des lovés mais il est même pas là Il est même pas là, il a déjà benda J'ai déjà pris mon billet pour Amsterdam Amsterdam, Amsterdam Tu m'as déjà aperçu à Bab El Oued Dans les rues de seille-Mar ou les rues de Paname Il te doit des lovés et il est même pas là Si tu me cherches, j'suis plus là J'suis dans les rues de Wahran en Impala Ou une Aventador, ça fait vroum, vroum, rhla Hey, hey hey Si tu me cherches, j'suis plus là Hey, hey hey J'suis sur l'avenue de Bangla en choupeta Hey, hey hey Amsterdam, Amsterdam Hey, hey hey J'suis à Malaga ou à Granada2</t>
+          <t>J'me barre là-bas, à Malaga Malaga, Granada Tu m'as déjà vu sur l'avenue de Bangla L'avenue de Bangla, en choupeta Ou au bâtiment 2, en promenade au card-pla En promenade au card-pla, au bâtiment A Il doit des lovés mais il est même pas là Il est même pas là, il a déjà benda J'ai déjà pris mon billet pour Amsterdam Amsterdam, Amsterdam Tu m'as déjà aperçu à Bab El Oued Dans les rues de seille-Mar ou les rues de Paname Il te doit des lovés et il est même pas là Si tu me cherches, j'suis plus là J'suis dans les rues de Wahran en Impala Ou une Aventador, ça fait vroum, vroum, rhla Si tu l'cherches, il est plus là yeah Il a déjà benda yeah yeah yeah Sur l'avenue de Bangla rapapap Il a fait une khapta, il s'en rappelle même pas Y en a plein qui l'aiment pas, il encule le tempo Il a v'là les blèmes-pro, il fait bosser à té-cô Il refait la déco', il finit au dépôt Trois heures après, il est en mandat d'dépôt Il fumera toute sa peine, il sortira costaud Il fumera toute sa peine, il sortira pas costaud Sous l'effet d'la khapta, il viendra d'accoster rapapap-pa J'me barre là-bas, à Malaga Malaga, Granada Tu m'as déjà vu sur l'avenue de Bangla L'avenue de Bangla en choupeta Ou au bâtiment 2, en promenade au card-pla En promenade au card-pla, au bâtiment A Il doit des lovés mais il est même pas là Il est même pas là, il a déjà benda J'ai déjà pris mon billet pour Amsterdam Amsterdam, Amsterdam Tu m'as déjà aperçu à Bab El Oued Dans les rues de seille-Mar ou les rues de Paname Il te doit des lovés et il est même pas là Si tu me cherches, j'suis plus là J'suis dans les rues de Wahran en Impala Ou une Aventador, ça fait vroum, vroum, rhla Petit hermano veut devenir El Capitaine Il s'inspire des grands bandidos d'sa cité Sa mama lui a dit Fais attention aux 3afrit ! Il côtoie des mecs qui font les crimes tarifés Sous son lit six-coups, barillet De midi à midi, il est là d'puis hier Plus de illets-bi et moins de manières Même en cellule, ouais, ouais, ouais Hey hey, hey hey Ga3 ytkayfou pour oublier Hey hey, hey hey Jour de paye, envoie la bouteille J'me barre là-bas, à Malaga Malaga, Granada Tu m'as déjà vu sur l'avenue de Bangla L'avenue de Bangla en choupeta Ou au bâtiment 2, en promenade au card-pla En promenade au card-pla, au bâtiment A Il doit des lovés mais il est même pas là Il est même pas là, il a déjà benda J'ai déjà pris mon billet pour Amsterdam Amsterdam, Amsterdam Tu m'as déjà aperçu à Bab El Oued Dans les rues de seille-Mar ou les rues de Paname Il te doit des lovés et il est même pas là Si tu me cherches, j'suis plus là J'suis dans les rues de Wahran en Impala Ou une Aventador, ça fait vroum, vroum, rhla Hey, hey hey Si tu me cherches, j'suis plus là Hey, hey hey J'suis sur l'avenue de Bangla en choupeta Hey, hey hey Amsterdam, Amsterdam Hey, hey hey J'suis à Malaga ou à Granada2</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yasser, Islem Heuss L'enfoiré, bande d'enfoirés, Suarez, Mahrez, James, Suarez, Mahrez Suarez, Mahrez, James, Pablo, Riina Totò, Chapo, Pablo, Riina Totò, sélection d'la Seleção, skch Pablo, Riina Totò, Pablo, Riina Totò, Chapo, Seleção Hé, hé Tous les esprits font le topo Y'a pas longtemps, ils ont strangulé Capo Nanterre B1, j'mets mon drapeau Keusti Fleury, D2 charo Six à Osny derrière les barreaux Jason à Fresnes que pour les euros Cargo d'héro' dans tous les scénarios Les ients-cli sont servis, les délits sont permis Villeneuve et L'Île-Saint-Denis, les cités mon ami Tu lèves ta bécane, tu fais pas mieux qu'Sami Gé-char dans la gov', qui conduit c'est Khalid, on prend la voie rapide Sans croiser la canine, on veut que du khaliss skch, skch, skch, skch Ils sont où, les caïds ? Moi aussi, j'ai un Maroki 43 gros calibre Joue au con, fils de pute, on t'allume, en esprit, ça veut dire sur la Lune skch, skch J'aime que les thunes, dans mon jean, j'ai d'la fume J'suis concentré max, j'fais mes calculs N.Y.M.A, faut bien qu'on l'évacue J'suis dans la rue, dans les faits d'l'actu' J'l'ai baiséguée, j'ai pas payé d'matu Tu sais très bien qu'on est des matures You might also like Heuss L'enfoiré, bande d'enfoirés Suarez, Mahrez, James, Pablo, Chapo, Riina Totò Sélection d'la Seleção, en esprit Heuss L'enfoiré, bande d'enfoirés Suarez, Mahrez, James, Pablo, Chapo, Riina Totò Sélection d'la Seleção, en esprit Heuss L'enfoiré, bande d'enfoirés Suarez, Mahrez, James, Pablo, Chapo, Riina Totò Sélection d'la Seleção, en esprit Heuss L'enfoiré, bande d'enfoirés Midi-midi, faut pas foirer, en esprit Le machinteau sous la ceinture De quoi refaire toute la peinture T'as vu nos clips, on a pas fait teinture Tous les manchus sont dans la même voiture On va faire notre peine dans l'même placard Fleury, Nanterre, Fresnes ou Bois-d'Ar' Ramène les rappeurs, j'vais les boigare The Wire, Baltimore, dans le radar Récupéguère tous les loves du Qatar Paris, c'est pas seille-Mar, y a Nasser et Neymar Devant l'commissaire, on est pas très bavards BX Land partie one, c'est un carnage Que des bâtards, The Wire, Baltimore, dans le radar Les keufs nous ont raté, Many les a braqués Récupère le rrain-té, distribue d'la synthé' Ramène ta re-su, j'ramène des me-je, régale tous les nes-jeu Compare pas avec eux, on est des grands monsieurs, département 9.2 skch, skch Dis-moi juste qui dit mieux, c'est Medellín en beuh Le re-pu fait rer-pleu, la re-pu fait rer-pleu, la re-pu fait rer-pleu En esprit Heuss L'enfoiré, bande d'enfoirés Suarez, Mahrez, James, Pablo, Chapo, Riina Totò Sélection d'la Seleção, en esprit Heuss L'enfoiré, bande d'enfoirés Suarez, Mahrez, James, Pablo, Chapo, Riina Totò Sélection d'la Seleção, en esprit Heuss L'enfoiré, bande d'enfoirés Suarez, Mahrez, James, Pablo, Chapo, Riina Totò Sélection d'la Seleção, en esprit Heuss L'enfoiré, bande d'enfoirés Suarez, Mahrez, James, Pablo, Chapo, Riina Totò Sélection d'la Seleção, en esprit Heuss L'enfoiré, bande d'enfoirés Suarez, Mahrez, James, Pablo, Chapo, Riina Totò Sélection d'la Seleção, en esprit Heuss L'enfoiré, bande d'enfoirés Midi-midi, faut pas foirer, en esprit</t>
+          <t>Yasser, Islem Heuss L'enfoiré, bande d'enfoirés, Suarez, Mahrez, James, Suarez, Mahrez Suarez, Mahrez, James, Pablo, Riina Totò, Chapo, Pablo, Riina Totò, sélection d'la Seleção, skch Pablo, Riina Totò, Pablo, Riina Totò, Chapo, Seleção Hé, hé Tous les esprits font le topo Y'a pas longtemps, ils ont strangulé Capo Nanterre B1, j'mets mon drapeau Keusti Fleury, D2 charo Six à Osny derrière les barreaux Jason à Fresnes que pour les euros Cargo d'héro' dans tous les scénarios Les ients-cli sont servis, les délits sont permis Villeneuve et L'Île-Saint-Denis, les cités mon ami Tu lèves ta bécane, tu fais pas mieux qu'Sami Gé-char dans la gov', qui conduit c'est Khalid, on prend la voie rapide Sans croiser la canine, on veut que du khaliss skch, skch, skch, skch Ils sont où, les caïds ? Moi aussi, j'ai un Maroki 43 gros calibre Joue au con, fils de pute, on t'allume, en esprit, ça veut dire sur la Lune skch, skch J'aime que les thunes, dans mon jean, j'ai d'la fume J'suis concentré max, j'fais mes calculs N.Y.M.A, faut bien qu'on l'évacue J'suis dans la rue, dans les faits d'l'actu' J'l'ai baiséguée, j'ai pas payé d'matu Tu sais très bien qu'on est des matures Heuss L'enfoiré, bande d'enfoirés Suarez, Mahrez, James, Pablo, Chapo, Riina Totò Sélection d'la Seleção, en esprit Heuss L'enfoiré, bande d'enfoirés Suarez, Mahrez, James, Pablo, Chapo, Riina Totò Sélection d'la Seleção, en esprit Heuss L'enfoiré, bande d'enfoirés Suarez, Mahrez, James, Pablo, Chapo, Riina Totò Sélection d'la Seleção, en esprit Heuss L'enfoiré, bande d'enfoirés Midi-midi, faut pas foirer, en esprit Le machinteau sous la ceinture De quoi refaire toute la peinture T'as vu nos clips, on a pas fait teinture Tous les manchus sont dans la même voiture On va faire notre peine dans l'même placard Fleury, Nanterre, Fresnes ou Bois-d'Ar' Ramène les rappeurs, j'vais les boigare The Wire, Baltimore, dans le radar Récupéguère tous les loves du Qatar Paris, c'est pas seille-Mar, y a Nasser et Neymar Devant l'commissaire, on est pas très bavards BX Land partie one, c'est un carnage Que des bâtards, The Wire, Baltimore, dans le radar Les keufs nous ont raté, Many les a braqués Récupère le rrain-té, distribue d'la synthé' Ramène ta re-su, j'ramène des me-je, régale tous les nes-jeu Compare pas avec eux, on est des grands monsieurs, département 9.2 skch, skch Dis-moi juste qui dit mieux, c'est Medellín en beuh Le re-pu fait rer-pleu, la re-pu fait rer-pleu, la re-pu fait rer-pleu En esprit Heuss L'enfoiré, bande d'enfoirés Suarez, Mahrez, James, Pablo, Chapo, Riina Totò Sélection d'la Seleção, en esprit Heuss L'enfoiré, bande d'enfoirés Suarez, Mahrez, James, Pablo, Chapo, Riina Totò Sélection d'la Seleção, en esprit Heuss L'enfoiré, bande d'enfoirés Suarez, Mahrez, James, Pablo, Chapo, Riina Totò Sélection d'la Seleção, en esprit Heuss L'enfoiré, bande d'enfoirés Suarez, Mahrez, James, Pablo, Chapo, Riina Totò Sélection d'la Seleção, en esprit Heuss L'enfoiré, bande d'enfoirés Suarez, Mahrez, James, Pablo, Chapo, Riina Totò Sélection d'la Seleção, en esprit Heuss L'enfoiré, bande d'enfoirés Midi-midi, faut pas foirer, en esprit</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Ya-Yasser Eh, Heuss L'enfoiré, bande d'enfoirés Hiza-Guruma, Maroqui 43 C'est carré comme en Corée du Nord Skch, eh Eh, Heuss L'enfoiré, bande d'enfoirés Skch, eh, libérez Many, N.Y.M.A, Hiza-Guruma Eh, l'instru est salée, j'vais la boire, sa mère J'vais la boire, sa mère, N.Y.M.A J'vais la boire, sa mère skch, skch, eh L'instru est salée, j'vais la boire sa mère, on est dans les affaires et ça date pas d'hier J'm'envoie du whisky, j'te khalass ta bière, Algérie, Colombie, Sénégal, Cap-Vert BX land Faut j'me ressers entre trois et quatre verres ouais, j'vais les vi-ser bien avant la frontière Breda, Rotter', Valenciennes, Quimper Sablière J'fais des affaires avec tous mes compères, six heures du matin, j'ai v'-esqui leur vieux pétage Verre de whisky, j'ai dormi chez ta pétasse La famille fait des eu', prend tout l'argent des gues-sh mais c'est que des sous dégueus J'sais pas c'est quoi dégun, j'suis qu'une moula du Paris-Saint-Germain Transfert de l'AC Milan, j'refais l'bilan comme Elodie Bilan C'est l'quatre-vingt ze-dou en 82 coups, Maroqui 43, c'est même pas d'la pe-cou La zipette, la pesette dans l'appui-tête, j'attends les ients-cli à la tirette Les mecs comme moi font que des sous direct et la Batmobile cherche ma cachette J'reçois des coups d'fil, c'est encore des rackets, j'm'en bas les couilles d'toutes tes raclis J'fais que des sous comme mon sin-cou Many, t'rappelles de nous comme la Yougoslavie Une affaire de famille, 43 Maroqui, j'suis toujours en esprit, j'sais pas ter-chan mais j'sais comment rer-ti C'est nous les méchants, tu veux commander qui ? Frappe de Lewandoski, double verre de whisky J'entends midi-minuit, nous, c'est midi-midi, on n'a jamais fini, l'rrain-te à l'infini Bicrave d'la Matiti, on ne fait pas d'chichi départementale Qu'est-c't'es venu chercher ? Un 10C ou un 10g, d'la coke ou du shit ? Pleins phares, bout-en-train Bicrave d'la Matiti, on ne fait pas d'chichi Saint-Ouen, Villeneuve-La-Garenne Qu'est-c't'es venu chercher ? Un 10C ou un 10g, d'la coke ou du shit ? Sablière, bout-en-train You might also like J'entends midi-minuit, nous, c'est midi-midi, on n'a jamais fini, l'rrain-te à l'infini Ça va toquer, j'entends d'jà les talkies mais l'équipe est toka, préviens les avocats la dép' Fianso m'a dit Range les tards-pé, che-ca tous les teaux-cou Innocent comme Tookie, 43 Maroqui Dans la fosse, y a des grosses et des fausses moulas moulas J'sais pas c'est qui Bella, j'la connais pas celle-là, 25 euros le meu-geu de selha C'est les taros d'chez moi, paye déjà la tié-moi, c'est les taros d'chez moi, paye déjà la tié-moi Valenciennes-Paname, tout dans l'semi-remorque, j'vous laisse dans vos go-fasts, la concurrence est morte morte, morte La drogue est bonne et forte, ramenée sous bonne escorte Surveille ta meuf, j'surveille que ma porte, l'argent d'la ue-r, t'sais c'que ça rapporte J'ai baisé la dernière Lara Croft Croft, j'ai tout misé sur Maxime Guyon, Christophe Soumillon Heuss L'enfoiré, bande d'enfoirés, buteur à la Suarez Suarez J'sors du placard, j'pète les esprits, Zepek, Mosko, Thams et Bandit Nock-pi, Zeg P, Heuss L'enfoiré, bande d'enfoirés, j'récupère tous les loyers J'suis Laurent Boyer, c'est Medellín en beuh, la re-pu fait rer-pleu Travaille jamais, vingt-cinq balais, flow qui balaye, j'te rends la pareille pareille 2018, c'est mon année, c'est pas pareil jamais pareil Libérez Many, N.Y.M.A Les enfoirés, Hiza-Guruma2</t>
+          <t>Ya-Yasser Eh, Heuss L'enfoiré, bande d'enfoirés Hiza-Guruma, Maroqui 43 C'est carré comme en Corée du Nord Skch, eh Eh, Heuss L'enfoiré, bande d'enfoirés Skch, eh, libérez Many, N.Y.M.A, Hiza-Guruma Eh, l'instru est salée, j'vais la boire, sa mère J'vais la boire, sa mère, N.Y.M.A J'vais la boire, sa mère skch, skch, eh L'instru est salée, j'vais la boire sa mère, on est dans les affaires et ça date pas d'hier J'm'envoie du whisky, j'te khalass ta bière, Algérie, Colombie, Sénégal, Cap-Vert BX land Faut j'me ressers entre trois et quatre verres ouais, j'vais les vi-ser bien avant la frontière Breda, Rotter', Valenciennes, Quimper Sablière J'fais des affaires avec tous mes compères, six heures du matin, j'ai v'-esqui leur vieux pétage Verre de whisky, j'ai dormi chez ta pétasse La famille fait des eu', prend tout l'argent des gues-sh mais c'est que des sous dégueus J'sais pas c'est quoi dégun, j'suis qu'une moula du Paris-Saint-Germain Transfert de l'AC Milan, j'refais l'bilan comme Elodie Bilan C'est l'quatre-vingt ze-dou en 82 coups, Maroqui 43, c'est même pas d'la pe-cou La zipette, la pesette dans l'appui-tête, j'attends les ients-cli à la tirette Les mecs comme moi font que des sous direct et la Batmobile cherche ma cachette J'reçois des coups d'fil, c'est encore des rackets, j'm'en bas les couilles d'toutes tes raclis J'fais que des sous comme mon sin-cou Many, t'rappelles de nous comme la Yougoslavie Une affaire de famille, 43 Maroqui, j'suis toujours en esprit, j'sais pas ter-chan mais j'sais comment rer-ti C'est nous les méchants, tu veux commander qui ? Frappe de Lewandoski, double verre de whisky J'entends midi-minuit, nous, c'est midi-midi, on n'a jamais fini, l'rrain-te à l'infini Bicrave d'la Matiti, on ne fait pas d'chichi départementale Qu'est-c't'es venu chercher ? Un 10C ou un 10g, d'la coke ou du shit ? Pleins phares, bout-en-train Bicrave d'la Matiti, on ne fait pas d'chichi Saint-Ouen, Villeneuve-La-Garenne Qu'est-c't'es venu chercher ? Un 10C ou un 10g, d'la coke ou du shit ? Sablière, bout-en-train J'entends midi-minuit, nous, c'est midi-midi, on n'a jamais fini, l'rrain-te à l'infini Ça va toquer, j'entends d'jà les talkies mais l'équipe est toka, préviens les avocats la dép' Fianso m'a dit Range les tards-pé, che-ca tous les teaux-cou Innocent comme Tookie, 43 Maroqui Dans la fosse, y a des grosses et des fausses moulas moulas J'sais pas c'est qui Bella, j'la connais pas celle-là, 25 euros le meu-geu de selha C'est les taros d'chez moi, paye déjà la tié-moi, c'est les taros d'chez moi, paye déjà la tié-moi Valenciennes-Paname, tout dans l'semi-remorque, j'vous laisse dans vos go-fasts, la concurrence est morte morte, morte La drogue est bonne et forte, ramenée sous bonne escorte Surveille ta meuf, j'surveille que ma porte, l'argent d'la ue-r, t'sais c'que ça rapporte J'ai baisé la dernière Lara Croft Croft, j'ai tout misé sur Maxime Guyon, Christophe Soumillon Heuss L'enfoiré, bande d'enfoirés, buteur à la Suarez Suarez J'sors du placard, j'pète les esprits, Zepek, Mosko, Thams et Bandit Nock-pi, Zeg P, Heuss L'enfoiré, bande d'enfoirés, j'récupère tous les loyers J'suis Laurent Boyer, c'est Medellín en beuh, la re-pu fait rer-pleu Travaille jamais, vingt-cinq balais, flow qui balaye, j'te rends la pareille pareille 2018, c'est mon année, c'est pas pareil jamais pareil Libérez Many, N.Y.M.A Les enfoirés, Hiza-Guruma2</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Ouais allô ? Ouais, PLK ? Ouais, on m'a dit tu cherchais un saxo à la cité Ouais, mais attend, vas-y, Jimmy Sax, il allume à mort poto Là, c'est Walid Sax, frère ! Du saxo et d'la d'menek T'es chaud ou pas ? C'est parti Une bouteille de Grey G'z, un lourd en espèces Fiche de recherche, en vale-ca Elle m'appelle tous les jours, pourtant, moi, j'veux juste la wet Elle m'chante des chansons douces, du genre Chandon et Moët Moi, j'suis dans l'after, khabat, y a personne qui m'arrête Bédo sur bédo, j'ai fumégué toute la plaquette Et ça fait eh, oh, on sort le seille-o Après l'show, j'suis au tel-hô Quoi ? Eh, oh, on sort le seille-o, après l'show, j'suis au tel-hô Eh, oh, on sort le seille-o, après l'show, j'suis au tel-hô Eh, oh, on sort le seille-o, après l'show j'suis au tel-hô Fais doucement, poussin doucement C'est pas un boule, c'est un coussin j'dors dessus Khabat, j'ai plus de soucis, demain, c'est férié comme la Toussaint Tout ça, c'est pour toutes celles, tous ceux fonces-dé Trois grammes, champagne, mousseux, tel-hô, showcase J'la casse en deux, ouh, les baveux, jamais d'aveux ouh, oui You might also like Elle m'appelle tous les jours, pourtant, moi, j'veux juste la wet Elle m'chante des chansons douces, du genre Chandon et Moët Moi, j'suis dans l'after, khabat, y a personne qui m'arrête Bédo sur bédo, j'ai fumégué toute la plaquette Et ça fait eh, oh, on sort le seille-o Après l'show, j'suis au tel-hô Quoi ? Eh, oh, on sort le seille-o, après l'show, j'suis au tel-hô Eh, oh, on sort le seille-o, après l'show, j'suis au tel-hô Eh, oh, on, sort le seille-o, après l'show, j'suis au tel-hô Heuss L'enfoiré, PLK dans le Bescherelle C'est les Hauts-de-Seine, j'suis à 12 heures des Seychelles Contrôle pile quand j'la squé-ma sous mes aisselles Bébé, j'fais de l'argent, s'te plait, fais-moi la vaisselle Faut que je vide la vessie, arrête le vaisseau Trop de keufs en vil-ci, GSO veut ter-sau J'm'arrache en VTC avec tous les pesos J'gère le rrain-té, la boutique et les bastos Elle m'appelle tous les jours, pourtant, moi, j'veux juste la wet Elle m'chante des chansons douces, du genre Chandon et Moët Moi, j'suis dans l'after, khabat, y a personne qui m'arrête Bédo sur bédo, j'ai fumégué toute la plaquette Et ça fait eh, oh, on sort le seille-o Après l'show, j'suis au tel-hô Quoi ? Eh, oh, on sort le seille-o, après l'show, j'suis au tel-hô Eh, oh, on sort le seille-o, après l'show, j'suis au tel-hô Eh, oh, on sort le seille-o, après l'show j'suis au tel-hô Une bouteille de Grey G'z, un lourd en espèces Fiche de recherche, en vale-ca Une bouteille de Grey G'z, un lourd en espèces Fiche de recherche, en vale-ca Elle m'appelle tous les jours, pourtant, moi, j'veux juste la wet Elle m'chante des chansons douces, du genre Chandon et Moët Moi, j'suis dans l'after, khabat, y a personne qui m'arrête Bédo sur bédo, j'ai fumégué toute la plaquette Et ça fait eh, oh, on sort le seille-o Après l'show, j'suis au tel-hô Quoi ? Eh, oh, on sort le seille-o, après l'show, j'suis au tel-hô Eh, oh, on sort le seille-o, après l'show, j'suis au tel-hô Eh, oh, on sort le seille-o, après l'show j'suis au tel-hô Alors, t'as kiffé ou pas ? J't'avais dit, poto, j'fais du saxo et tout Coupe pas, coupe pas, coupe pas ! J'ai un pote à moi, il fait sauter les amendes, ouais, ajoutez-le en masse jmarretepasauxbarrages95 Attends, attends, attends, parce que j'ai un autre pote aussi, il vend des miels d'amour Ajoutez-le aussi en masse, en masse, ouais bullterrierdanslcaleçon924</t>
+          <t>Ouais allô ? Ouais, PLK ? Ouais, on m'a dit tu cherchais un saxo à la cité Ouais, mais attend, vas-y, Jimmy Sax, il allume à mort poto Là, c'est Walid Sax, frère ! Du saxo et d'la d'menek T'es chaud ou pas ? C'est parti Une bouteille de Grey G'z, un lourd en espèces Fiche de recherche, en vale-ca Elle m'appelle tous les jours, pourtant, moi, j'veux juste la wet Elle m'chante des chansons douces, du genre Chandon et Moët Moi, j'suis dans l'after, khabat, y a personne qui m'arrête Bédo sur bédo, j'ai fumégué toute la plaquette Et ça fait eh, oh, on sort le seille-o Après l'show, j'suis au tel-hô Quoi ? Eh, oh, on sort le seille-o, après l'show, j'suis au tel-hô Eh, oh, on sort le seille-o, après l'show, j'suis au tel-hô Eh, oh, on sort le seille-o, après l'show j'suis au tel-hô Fais doucement, poussin doucement C'est pas un boule, c'est un coussin j'dors dessus Khabat, j'ai plus de soucis, demain, c'est férié comme la Toussaint Tout ça, c'est pour toutes celles, tous ceux fonces-dé Trois grammes, champagne, mousseux, tel-hô, showcase J'la casse en deux, ouh, les baveux, jamais d'aveux ouh, oui Elle m'appelle tous les jours, pourtant, moi, j'veux juste la wet Elle m'chante des chansons douces, du genre Chandon et Moët Moi, j'suis dans l'after, khabat, y a personne qui m'arrête Bédo sur bédo, j'ai fumégué toute la plaquette Et ça fait eh, oh, on sort le seille-o Après l'show, j'suis au tel-hô Quoi ? Eh, oh, on sort le seille-o, après l'show, j'suis au tel-hô Eh, oh, on sort le seille-o, après l'show, j'suis au tel-hô Eh, oh, on, sort le seille-o, après l'show, j'suis au tel-hô Heuss L'enfoiré, PLK dans le Bescherelle C'est les Hauts-de-Seine, j'suis à 12 heures des Seychelles Contrôle pile quand j'la squé-ma sous mes aisselles Bébé, j'fais de l'argent, s'te plait, fais-moi la vaisselle Faut que je vide la vessie, arrête le vaisseau Trop de keufs en vil-ci, GSO veut ter-sau J'm'arrache en VTC avec tous les pesos J'gère le rrain-té, la boutique et les bastos Elle m'appelle tous les jours, pourtant, moi, j'veux juste la wet Elle m'chante des chansons douces, du genre Chandon et Moët Moi, j'suis dans l'after, khabat, y a personne qui m'arrête Bédo sur bédo, j'ai fumégué toute la plaquette Et ça fait eh, oh, on sort le seille-o Après l'show, j'suis au tel-hô Quoi ? Eh, oh, on sort le seille-o, après l'show, j'suis au tel-hô Eh, oh, on sort le seille-o, après l'show, j'suis au tel-hô Eh, oh, on sort le seille-o, après l'show j'suis au tel-hô Une bouteille de Grey G'z, un lourd en espèces Fiche de recherche, en vale-ca Une bouteille de Grey G'z, un lourd en espèces Fiche de recherche, en vale-ca Elle m'appelle tous les jours, pourtant, moi, j'veux juste la wet Elle m'chante des chansons douces, du genre Chandon et Moët Moi, j'suis dans l'after, khabat, y a personne qui m'arrête Bédo sur bédo, j'ai fumégué toute la plaquette Et ça fait eh, oh, on sort le seille-o Après l'show, j'suis au tel-hô Quoi ? Eh, oh, on sort le seille-o, après l'show, j'suis au tel-hô Eh, oh, on sort le seille-o, après l'show, j'suis au tel-hô Eh, oh, on sort le seille-o, après l'show j'suis au tel-hô Alors, t'as kiffé ou pas ? J't'avais dit, poto, j'fais du saxo et tout Coupe pas, coupe pas, coupe pas ! J'ai un pote à moi, il fait sauter les amendes, ouais, ajoutez-le en masse jmarretepasauxbarrages95 Attends, attends, attends, parce que j'ai un autre pote aussi, il vend des miels d'amour Ajoutez-le aussi en masse, en masse, ouais bullterrierdanslcaleçon924</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Tromatiz Production Eh, eh HRNN to the top man M.I.L.S tres, binks Et j'irai p't-être la chercher en Espagne ou a Rotter', mmh Skch Ouais Et j'irai p't-être la chercher Ouais en Espagne ou a Rotter' Binks Ma pétasse parle en espagnol Oh la la, j'ai toujours kiffé l'commerce J'ai jamais fumé d'commerciale Nan, transac' dans l'centre commercial Ouais Midi-midi, illégale Ouais, tout dans l'Clio initial Ouais On voulait le monde comme Tony M mais ces chiens ne veulent pas le donner Eh-eh, eh-eh On arrive en Max-T calibré, que des grosses moulas, tu connais Poh, poh, poh J'ai que des idées noires Eh, j'vais relever les compteurs Binks Gros salaire de chanteur Binks, kichta de revendeur Binks, on n'est pas des menteurs Eh On n'est pas des menteurs, si tu crois pas, demande-leurs Shu Dans tous les tiroirs, j'ai pris l'or, j'suis le méchant de l'épisode Eh, un enfoiré qui t'vend la mort Un enfoiré qui vend la mort Eh en direct de Baltimore, trop souvent, j'ai manqué d'amour Poh Surveille les alentours Binks, tête-à-queue, y a les porcs, j'fais un demi-tour Direct You might also like Et j'irai p't-être la chercher Ouais en Espagne ou a Rotter' Binks Ma pétasse parle en espagnol Oh la la, j'ai toujours kiffé l'commerce Eh J'ai jamais fumé d'commerciale, transac' dans l'centre commercial Midi-midi, illégale Ouais, tout dans l'Clio initial Ouais Sors la monnaie cash, j'sors des marécages Train d'vie d'Monégasque, Arai est le casque Rah, rah, rah, rah Le AK-47 va te faire un kiss, zéro chien d'la casse Que des loups garous dans la Subaru, envie d'se barrer, ouais mais dis-moi, où ? On est préparés, appelle le sin-cou, zipette en caillou, six coups au cas-où J'ai la beugueuh de Rotterdam, d'Amsterdam, de Roosendaal Et ta pétasse dit Guttentag, le AMG fait trop d'bruit J'ai la beugueuh de Rotterdam, d'Amsterdam, de Roosendaal Et ta pétasse dit Guttentag, le AMG fait trop d'bruit Et j'irai p't-être la chercher Ouais en Espagne ou a Rotter' Binks Ma pétasse parle en espagnol Oh la la, j'ai toujours kiffé l'commerce J'ai jamais fumé d'commerciale Ouais, transac' dans l'centre commercial Ouais Midi-midi, illégale Ouais, tout dans l'Clio initial Ouais Et j'irai p't-être la chercher La chercher en Espagne ou a Rotter' Binks Ma pétasse parle en espagnol Oh la la, j'ai toujours kiffé l'commerce J'ai jamais fumé d'commerciale Ouais, transac' dans l'centre commercial Ouais Midi-midi, illégale Ouais, tout dans l'Clio initial Bin-binks Heuss L'Enfoiré, bande d'enfoirés N.I, N.I Hey, hey, hey Hey, hey, hey, hey</t>
+          <t>Tromatiz Production Eh, eh HRNN to the top man M.I.L.S tres, binks Et j'irai p't-être la chercher en Espagne ou a Rotter', mmh Skch Ouais Et j'irai p't-être la chercher Ouais en Espagne ou a Rotter' Binks Ma pétasse parle en espagnol Oh la la, j'ai toujours kiffé l'commerce J'ai jamais fumé d'commerciale Nan, transac' dans l'centre commercial Ouais Midi-midi, illégale Ouais, tout dans l'Clio initial Ouais On voulait le monde comme Tony M mais ces chiens ne veulent pas le donner Eh-eh, eh-eh On arrive en Max-T calibré, que des grosses moulas, tu connais Poh, poh, poh J'ai que des idées noires Eh, j'vais relever les compteurs Binks Gros salaire de chanteur Binks, kichta de revendeur Binks, on n'est pas des menteurs Eh On n'est pas des menteurs, si tu crois pas, demande-leurs Shu Dans tous les tiroirs, j'ai pris l'or, j'suis le méchant de l'épisode Eh, un enfoiré qui t'vend la mort Un enfoiré qui vend la mort Eh en direct de Baltimore, trop souvent, j'ai manqué d'amour Poh Surveille les alentours Binks, tête-à-queue, y a les porcs, j'fais un demi-tour Direct Et j'irai p't-être la chercher Ouais en Espagne ou a Rotter' Binks Ma pétasse parle en espagnol Oh la la, j'ai toujours kiffé l'commerce Eh J'ai jamais fumé d'commerciale, transac' dans l'centre commercial Midi-midi, illégale Ouais, tout dans l'Clio initial Ouais Sors la monnaie cash, j'sors des marécages Train d'vie d'Monégasque, Arai est le casque Rah, rah, rah, rah Le AK-47 va te faire un kiss, zéro chien d'la casse Que des loups garous dans la Subaru, envie d'se barrer, ouais mais dis-moi, où ? On est préparés, appelle le sin-cou, zipette en caillou, six coups au cas-où J'ai la beugueuh de Rotterdam, d'Amsterdam, de Roosendaal Et ta pétasse dit Guttentag, le AMG fait trop d'bruit J'ai la beugueuh de Rotterdam, d'Amsterdam, de Roosendaal Et ta pétasse dit Guttentag, le AMG fait trop d'bruit Et j'irai p't-être la chercher Ouais en Espagne ou a Rotter' Binks Ma pétasse parle en espagnol Oh la la, j'ai toujours kiffé l'commerce J'ai jamais fumé d'commerciale Ouais, transac' dans l'centre commercial Ouais Midi-midi, illégale Ouais, tout dans l'Clio initial Ouais Et j'irai p't-être la chercher La chercher en Espagne ou a Rotter' Binks Ma pétasse parle en espagnol Oh la la, j'ai toujours kiffé l'commerce J'ai jamais fumé d'commerciale Ouais, transac' dans l'centre commercial Ouais Midi-midi, illégale Ouais, tout dans l'Clio initial Bin-binks Heuss L'Enfoiré, bande d'enfoirés N.I, N.I Hey, hey, hey Hey, hey, hey, hey</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Paw Ton armée, c'est larmée des morts quand mon armée démarre Quand mon armée débarque Prenez 39.5, payez le gouvernement vu qu'mon art fait débat Fuck la première, je vais casser les marches, faciliter l'accès aux handicapés On veut pas sadapter, bitch, on veut palper, enlève ton rap de 'dale-pé', mets du Val' D Val' D, yeah Les, les experts m'ont pas encore remonté J'suis déjà en vu, je veux plus m montrer, le temps n'xiste pas mais ça fait longuet Ca fait longuet Hé Hé, indépendant, pas dépossédé-gué Jtiens les manettes, cest moi, j'contrôle le V, vaisseau sanguin plein de composés V Et, jme perds jamais comme le vélo Yeah J'reste dans ma tête comme la mélo' Yeah, j'fais même pas genre jviens du ghetto Non J'veux voir tout l'monde sur un bédo Bédo, mais faites gaffe avec les mégots Faut croire en tes rêves, mon frérot Yeah, on r'met des Oscars à des pédos Wow Ça dit quoi, le V, d'puis NQNT ? J'suis rentré par derrière comme le USB J'ai fait des M, t'as fait du RT Quoi ?, j'ai fait des M, t'as fait du RT J'veux encore tout baiser, c'est la puberté Ah, c'est pas d'ta faute, t'es un super P Je cherche en moi pour trouver la paix, j'me fais violence, c'monde est violent Hahaha J'attends l'retour du Royal Cheese, j'attends qu'on paye mes royalties Va t'en comprendre, c'est déloyal, bitch, va t'en comprendre, c'est déloyal, bitch Skch, skch J'suis dans l'aquarium comme la 'nnaie-mo', comme Némo, fais-la en VF Fuck la VO, j'suis dans la B.O., D-O-Ré-Mi-Fa-Sol-La-Si-D-O You might also like So Stavo, merci Roger pour les travaux, j'peux faire des cadeaux À quatre anneaux, je peux décaler ta dent dès l'intro', j'suis pas décalé Rappeur décalé ? J'mets que des K.O., ça sent les carences et le manque de câlins Même dans le refrain Choqué, eh ouais, frérot, 700k CD, c'est combien de k eu' ? DLAV, ce n'est pas eux, enfoiré, j'suis F, j'suis pas E J'sors pas du studio, j'suis d'autant plus pâle, elle m'demande Quand est-ce que tu rentres ?, j'suis comme J'sais pas, euh... J'fais des étincelles dans l'jerrican Brr, je flex à mort pour tous ceux qui ricanaient Ouais, j'vais les régaler Paw, je vais les canner Paw et les re-canner Paw comme San Goku Paw On peut faire face même s'ils sont beaucoup Ahou, mentalité 300 300 Fiscalité croissante Croissante, où est la rivalité ? Absente Ça charbonne la nuit en attendant les beaux jours, marche comme un zombie au milieu des vautours Ah, drrrr C'est un festival ou un gros four ? Ding Merci tout le monde, j'ai tout donné même plus grâce à la cortisone MC conservateur, je tue pas le rap français, je le saucissonne Un clone qui clone un clone qui clone un autre qui copiecolle Quoi ? C'est la faute à ces putains d'radios, mais aussi la playlist éclatos du copilote Allô ? J'arrive en Dassault, fais d'la place, faut que je stationne La faucheuse en vaisseau spatial, tu 'ves-qui'-ras pas, même v'là high Trop d'vampires, j'dors sur un tas d'ail, aucune story dans laquelle Vlad die Pas d'sentiment pendant la bataille, le port du masque est obligatoire, bats-toi Paw J'attends l'retour du Royal Cheese, j'attends qu'on paye mes royalties Va t'en comprendre, c'est déloyal, bitch, va t'en comprendre, c'est déloyal, bitch Skch, skch J'suis dans l'aquarium comme la 'nnaie-mo', comme Némo, fais-la en VF Fuck la VO, j'suis dans la B.O., D-O-Ré-Mi-Fa-Sol-La-Si-D-O</t>
+          <t>Paw Ton armée, c'est larmée des morts quand mon armée démarre Quand mon armée débarque Prenez 39.5, payez le gouvernement vu qu'mon art fait débat Fuck la première, je vais casser les marches, faciliter l'accès aux handicapés On veut pas sadapter, bitch, on veut palper, enlève ton rap de 'dale-pé', mets du Val' D Val' D, yeah Les, les experts m'ont pas encore remonté J'suis déjà en vu, je veux plus m montrer, le temps n'xiste pas mais ça fait longuet Ca fait longuet Hé Hé, indépendant, pas dépossédé-gué Jtiens les manettes, cest moi, j'contrôle le V, vaisseau sanguin plein de composés V Et, jme perds jamais comme le vélo Yeah J'reste dans ma tête comme la mélo' Yeah, j'fais même pas genre jviens du ghetto Non J'veux voir tout l'monde sur un bédo Bédo, mais faites gaffe avec les mégots Faut croire en tes rêves, mon frérot Yeah, on r'met des Oscars à des pédos Wow Ça dit quoi, le V, d'puis NQNT ? J'suis rentré par derrière comme le USB J'ai fait des M, t'as fait du RT Quoi ?, j'ai fait des M, t'as fait du RT J'veux encore tout baiser, c'est la puberté Ah, c'est pas d'ta faute, t'es un super P Je cherche en moi pour trouver la paix, j'me fais violence, c'monde est violent Hahaha J'attends l'retour du Royal Cheese, j'attends qu'on paye mes royalties Va t'en comprendre, c'est déloyal, bitch, va t'en comprendre, c'est déloyal, bitch Skch, skch J'suis dans l'aquarium comme la 'nnaie-mo', comme Némo, fais-la en VF Fuck la VO, j'suis dans la B.O., D-O-Ré-Mi-Fa-Sol-La-Si-D-O So Stavo, merci Roger pour les travaux, j'peux faire des cadeaux À quatre anneaux, je peux décaler ta dent dès l'intro', j'suis pas décalé Rappeur décalé ? J'mets que des K.O., ça sent les carences et le manque de câlins Même dans le refrain Choqué, eh ouais, frérot, 700k CD, c'est combien de k eu' ? DLAV, ce n'est pas eux, enfoiré, j'suis F, j'suis pas E J'sors pas du studio, j'suis d'autant plus pâle, elle m'demande Quand est-ce que tu rentres ?, j'suis comme J'sais pas, euh... J'fais des étincelles dans l'jerrican Brr, je flex à mort pour tous ceux qui ricanaient Ouais, j'vais les régaler Paw, je vais les canner Paw et les re-canner Paw comme San Goku Paw On peut faire face même s'ils sont beaucoup Ahou, mentalité 300 300 Fiscalité croissante Croissante, où est la rivalité ? Absente Ça charbonne la nuit en attendant les beaux jours, marche comme un zombie au milieu des vautours Ah, drrrr C'est un festival ou un gros four ? Ding Merci tout le monde, j'ai tout donné même plus grâce à la cortisone MC conservateur, je tue pas le rap français, je le saucissonne Un clone qui clone un clone qui clone un autre qui copiecolle Quoi ? C'est la faute à ces putains d'radios, mais aussi la playlist éclatos du copilote Allô ? J'arrive en Dassault, fais d'la place, faut que je stationne La faucheuse en vaisseau spatial, tu 'ves-qui'-ras pas, même v'là high Trop d'vampires, j'dors sur un tas d'ail, aucune story dans laquelle Vlad die Pas d'sentiment pendant la bataille, le port du masque est obligatoire, bats-toi Paw J'attends l'retour du Royal Cheese, j'attends qu'on paye mes royalties Va t'en comprendre, c'est déloyal, bitch, va t'en comprendre, c'est déloyal, bitch Skch, skch J'suis dans l'aquarium comme la 'nnaie-mo', comme Némo, fais-la en VF Fuck la VO, j'suis dans la B.O., D-O-Ré-Mi-Fa-Sol-La-Si-D-O</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Hé, Heuss l'enfoiré BX Land partie 3, BX land partie X Libérez Six, hé N.Y.M.A, Kata Guruma, Hiza Guruma, Maroki 43 Zeg P on the track Mafia ta3 Napoli Trafic de putes, grammes de coke, deux-trois kilos d'shit Ferme ta chatte et achète, y'a aussi des outils et pas mal de broutilles Paris c'est Brooklyn, des fois c'est l'Argentine Tu peux mappeler Hocine, Hassan ou Poutine Heuss L'enfoiré, cousine, héroïne et résine Demande à la voisine, c'est la Chine et l'usine La police hallucine, Georges Brassens, Roch Voisine Khabta max, j'bois du Jack, effets secondaires On va t'gifler ton père, respect quoi ? J'ai pas fini mon verre J'fais du sale pour pas finir au sol J'te régale, j'sors de taule, c'est la nouvelle école Ça rentre pour un demi-kil', ça ressogort pour re-ché-chère une tonne Pour faire des sommes, faut des hommes et la bonne méthode Pour mon bien j'fais du mal Argent sale, mon cousin fait ça propre, les keufs derrière la porte yah, yah 9.2.3.9.0, mets-le sur l'écusson yah, yah Le truc sort d'la casserole, la grande distribution yah, yah BX Land partie 3, c'est la réédition yah, yah La rue est à l'écoute, j'ai toute son attention yah, yah 9.2.3.9.0, mets-le sur l'écusson yah, yah Le truc sort d'la casserole, la grande distribution yah, yah BX Land partie 3, c'est la réédition yah, yah La rue est à l'écoute, j'ai toute son attention yah, yah You might also like L'argent d'ta chatte, j'sais combien ça rapporte J'entends l'bruit des menottes, demain j'me téléporte T'façon j'encule la concurrence, ma bite dans ton cul rentre Algérie, Mauritanie, Colombie, Bolivie C'est ça la symphonie, là j'suis dans ma folie Axelle Red, Liane Foly, Hélène et Caroline D'la pisse et du vomi, dis-moi c'est qui qui gère Hiza Guruma, Kata Guruma, faudra pas te laisser faire J'encule le commissaire, j'prends ma commission J'ai pas quatorze ans pour aller en mission BX Land partie 3, c'est la réédition T'as fait des sous, garde-les bien pour toi J'connais des gens qui rentrent chez toi, qui sont sans foi ni loi C'est la Sinaloa, Dieu pour tous mais c'est chacun pour soi J'suis dans la rue des putes comme un Bruxellois Antwerpen, Anderlecht, attends j'appelle Isma yah, yah 9.2.3.9.0, mets-le sur l'écusson yah, yah Le truc sort d'la casserole, la grande distribution yah, yah BX Land partie 3, c'est la réédition yah, yah La rue est à l'écoute, j'ai toute son attention yah, yah 9.2.3.9.0, mets-le sur l'écusson yah, yah Le truc sort d'la casserole, la grande distribution yah, yah BX Land partie 3, c'est la réédition yah, yah La rue est à l'écoute, j'ai toute son attention yah, yah La re-pu d'Colombie, d'la cavale jusqu'à la cabane J'regessogort, j'récupère d'la gue-dro dans un canal Mais tout ça c'est banal et bienvenue sur Paname Rotterdam envoie des monnaies, grammes, y a v'là les kilogrammes, hé Roosendaal et Manny vendent des armes Fais-moi des signes si y'a les hams, j'roule sans casque et sans plaque J'convertis ça en balle, j'suis totalement khabat J'vais à la rate, y'a plus rien qui m'arrête Lève le compèt' et la police enquête Les petits d'la tess veulent la recette, ils ont d'l'argent en tête Il faut qu't'achètes ou ça t'rackette, c'est pas cher la plaquette Y aussi d'la zipette à des tarots nickels Ça prend les comptes Nickel, PCS jusqu'au Minitel Mandats d'dépôt, ça devient criminel Les keufs nous interpellent, les citadelles ça devient des cartels Y'a mes paluches sur le keussa du tos-ma ta3 la veille Appelle Sabban-Cohen pour régler mes problèmes yah, yah 9.2.3.9.0, mets-le sur l'écusson yah, yah Le truc sort d'la casserole, la grande distribution yah, yah BX Land partie 3, c'est la réédition yah, yah La rue est à l'écoute, j'ai toute son attention yah, yah 9.2.3.9.0, mets-le sur l'écusson yah, yah Le truc sort d'la casserole, la grande distribution yah, yah BX Land partie 3, c'est la réédition yah, yah La rue est à l'écoute, j'ai toute son attention yah, yah Heuss L'enfoiré, bande d'enfoirés Suárez, Mahrez, James skchh1</t>
+          <t>Hé, Heuss l'enfoiré BX Land partie 3, BX land partie X Libérez Six, hé N.Y.M.A, Kata Guruma, Hiza Guruma, Maroki 43 Zeg P on the track Mafia ta3 Napoli Trafic de putes, grammes de coke, deux-trois kilos d'shit Ferme ta chatte et achète, y'a aussi des outils et pas mal de broutilles Paris c'est Brooklyn, des fois c'est l'Argentine Tu peux mappeler Hocine, Hassan ou Poutine Heuss L'enfoiré, cousine, héroïne et résine Demande à la voisine, c'est la Chine et l'usine La police hallucine, Georges Brassens, Roch Voisine Khabta max, j'bois du Jack, effets secondaires On va t'gifler ton père, respect quoi ? J'ai pas fini mon verre J'fais du sale pour pas finir au sol J'te régale, j'sors de taule, c'est la nouvelle école Ça rentre pour un demi-kil', ça ressogort pour re-ché-chère une tonne Pour faire des sommes, faut des hommes et la bonne méthode Pour mon bien j'fais du mal Argent sale, mon cousin fait ça propre, les keufs derrière la porte yah, yah 9.2.3.9.0, mets-le sur l'écusson yah, yah Le truc sort d'la casserole, la grande distribution yah, yah BX Land partie 3, c'est la réédition yah, yah La rue est à l'écoute, j'ai toute son attention yah, yah 9.2.3.9.0, mets-le sur l'écusson yah, yah Le truc sort d'la casserole, la grande distribution yah, yah BX Land partie 3, c'est la réédition yah, yah La rue est à l'écoute, j'ai toute son attention yah, yah L'argent d'ta chatte, j'sais combien ça rapporte J'entends l'bruit des menottes, demain j'me téléporte T'façon j'encule la concurrence, ma bite dans ton cul rentre Algérie, Mauritanie, Colombie, Bolivie C'est ça la symphonie, là j'suis dans ma folie Axelle Red, Liane Foly, Hélène et Caroline D'la pisse et du vomi, dis-moi c'est qui qui gère Hiza Guruma, Kata Guruma, faudra pas te laisser faire J'encule le commissaire, j'prends ma commission J'ai pas quatorze ans pour aller en mission BX Land partie 3, c'est la réédition T'as fait des sous, garde-les bien pour toi J'connais des gens qui rentrent chez toi, qui sont sans foi ni loi C'est la Sinaloa, Dieu pour tous mais c'est chacun pour soi J'suis dans la rue des putes comme un Bruxellois Antwerpen, Anderlecht, attends j'appelle Isma yah, yah 9.2.3.9.0, mets-le sur l'écusson yah, yah Le truc sort d'la casserole, la grande distribution yah, yah BX Land partie 3, c'est la réédition yah, yah La rue est à l'écoute, j'ai toute son attention yah, yah 9.2.3.9.0, mets-le sur l'écusson yah, yah Le truc sort d'la casserole, la grande distribution yah, yah BX Land partie 3, c'est la réédition yah, yah La rue est à l'écoute, j'ai toute son attention yah, yah La re-pu d'Colombie, d'la cavale jusqu'à la cabane J'regessogort, j'récupère d'la gue-dro dans un canal Mais tout ça c'est banal et bienvenue sur Paname Rotterdam envoie des monnaies, grammes, y a v'là les kilogrammes, hé Roosendaal et Manny vendent des armes Fais-moi des signes si y'a les hams, j'roule sans casque et sans plaque J'convertis ça en balle, j'suis totalement khabat J'vais à la rate, y'a plus rien qui m'arrête Lève le compèt' et la police enquête Les petits d'la tess veulent la recette, ils ont d'l'argent en tête Il faut qu't'achètes ou ça t'rackette, c'est pas cher la plaquette Y aussi d'la zipette à des tarots nickels Ça prend les comptes Nickel, PCS jusqu'au Minitel Mandats d'dépôt, ça devient criminel Les keufs nous interpellent, les citadelles ça devient des cartels Y'a mes paluches sur le keussa du tos-ma ta3 la veille Appelle Sabban-Cohen pour régler mes problèmes yah, yah 9.2.3.9.0, mets-le sur l'écusson yah, yah Le truc sort d'la casserole, la grande distribution yah, yah BX Land partie 3, c'est la réédition yah, yah La rue est à l'écoute, j'ai toute son attention yah, yah 9.2.3.9.0, mets-le sur l'écusson yah, yah Le truc sort d'la casserole, la grande distribution yah, yah BX Land partie 3, c'est la réédition yah, yah La rue est à l'écoute, j'ai toute son attention yah, yah Heuss L'enfoiré, bande d'enfoirés Suárez, Mahrez, James skchh1</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Eh De la B Gang Mes esprits ont tchimba, lahnoucha, lembila Oui On s'est v'-esqui là-bas, on a pas choisi cette vie-là Gang T'as vu les grosses moulas ? C'est 'Koro et Heuss Laga Ouh T'inquiète même pas pour nous, rassure-toi, on a plus que toi, Gang, gang, gang Mes esprits ont tchimba, lahnoucha, lembila Oui On s'est v'-esqui là-bas, on a pas choisi cette vie-là Gang T'as vu les grosses moulas ? C'est 'Koro et Heuss Laga Ouh T'inquiète même pas pour nous, rassure-toi, on a plus que toi Fuck les pipelettes, abats les porcs Abats les porcs, ils connaissent ma silhouette, j'suis rodave sous le bloc Oui Heuss L'enfoiré, gang Gang, Zifu' met la moula Fumer C'est pour tous les zonards, chacal, All Eyes On Me Gang Des années, des années, désormais, c'est fini le premier qui bouge, il finira désarmé Finira désarmé Dans l'9.2, c'est méchant, c'est midi à midi, y a pas l'temps de fermer Y a pas l'temps de fermer À Évry, tu connais, si tu viens pas d'chez nous, tu vas t'faire cerner Tu vas te faire cerner On connait ton vécu de chercheur de canettes, arrête de faire ble3ni Gang You might also like Zebi, donne-moi juste le nom, demain, j'leur rends visite Ah Dans la suite, j'fume mon spliff pendant qu'Eva lèche mon zizi Suce J'fais d'la maille, quand j'regarde mon compte, je danse comme P. Diddy Money Chacal, tu vois c'que j'veux dire ? Ah J'suis l'préféré d'ton DJ Mes esprits ont tchimba, lahnoucha, lembila Les keufs On s'est v'-esqui là-bas, on a pas choisi cette vie-là Tapette T'as vu les grosses moulas ? C'est 'Koro et Heuss Laga Ouh T'inquiète même pas pour nous, rassure-toi, on a plus que toi Gang, gang, gang Mes esprits ont tchimba, lahnoucha, lembila Oui On s'est v'-esqui là-bas, on a pas choisi cette vie-là Tapette T'as vu les grosses moulas ? C'est 'Koro et Heuss Laga Gang T'inquiète même pas pour nous, rassure-toi, on a plus que toi Eh, mon cousin c'est Manny, j'écoute bien tous les conseils qu'il m'a dit Faut du papier pour faire la guerre ou s'barrer en première aux Maldives Heuss L'enfoiré, Zifukoro, midi midi, y a que des charos Pleins les potos derrière les barreaux, tu connais déjà le scénario Y a la police, y a les sicarios, ici, l'patron, c'est Carlos Gambinos J'ai trop tisé, j'suis matrixé, nan, vraiment, j'sais même plus c'que j'disais J'te laisse la pute et l'terrain d'C, tous les ients-cli relancés Sablière, Meddelín, Charlie Delta, comment c'est ? Eh, j'ai pas pété les plombs, j'ai juste coupé les ponts Joue pas au con, attends vite fait, j'fais les tes-comp T'aimerais savoir vraiment tout c'qu'on a mit d'té-cô En tout cas, rassure-toi ma gueule, ouais, on a deux fois plus que toi Mes esprits ont tchimba, lahnoucha, lembila Les keufs On s'est v'-esqui là-bas, on a pas choisi cette vie-là, Tapette T'as vu les grosses moulas ? C'est 'Koro et Heuss Laga Oui T'inquiète même pas pour nous, rassure-toi, on a plus que toi Gang, gang, gang Mes esprits ont tchimba, lahnoucha, lembila Les keuf On s'est v'-eesqui là-bas, on a pas choisi cette vie-là, Tapette T'as vu les grosses moulas ? C'est 'Koro et Heuss Laga Oui T'inquiète même pas pour nous Oui, rassure-toi, on a plus que toi De la B De la B</t>
+          <t>Eh De la B Gang Mes esprits ont tchimba, lahnoucha, lembila Oui On s'est v'-esqui là-bas, on a pas choisi cette vie-là Gang T'as vu les grosses moulas ? C'est 'Koro et Heuss Laga Ouh T'inquiète même pas pour nous, rassure-toi, on a plus que toi, Gang, gang, gang Mes esprits ont tchimba, lahnoucha, lembila Oui On s'est v'-esqui là-bas, on a pas choisi cette vie-là Gang T'as vu les grosses moulas ? C'est 'Koro et Heuss Laga Ouh T'inquiète même pas pour nous, rassure-toi, on a plus que toi Fuck les pipelettes, abats les porcs Abats les porcs, ils connaissent ma silhouette, j'suis rodave sous le bloc Oui Heuss L'enfoiré, gang Gang, Zifu' met la moula Fumer C'est pour tous les zonards, chacal, All Eyes On Me Gang Des années, des années, désormais, c'est fini le premier qui bouge, il finira désarmé Finira désarmé Dans l'9.2, c'est méchant, c'est midi à midi, y a pas l'temps de fermer Y a pas l'temps de fermer À Évry, tu connais, si tu viens pas d'chez nous, tu vas t'faire cerner Tu vas te faire cerner On connait ton vécu de chercheur de canettes, arrête de faire ble3ni Gang Zebi, donne-moi juste le nom, demain, j'leur rends visite Ah Dans la suite, j'fume mon spliff pendant qu'Eva lèche mon zizi Suce J'fais d'la maille, quand j'regarde mon compte, je danse comme P. Diddy Money Chacal, tu vois c'que j'veux dire ? Ah J'suis l'préféré d'ton DJ Mes esprits ont tchimba, lahnoucha, lembila Les keufs On s'est v'-esqui là-bas, on a pas choisi cette vie-là Tapette T'as vu les grosses moulas ? C'est 'Koro et Heuss Laga Ouh T'inquiète même pas pour nous, rassure-toi, on a plus que toi Gang, gang, gang Mes esprits ont tchimba, lahnoucha, lembila Oui On s'est v'-esqui là-bas, on a pas choisi cette vie-là Tapette T'as vu les grosses moulas ? C'est 'Koro et Heuss Laga Gang T'inquiète même pas pour nous, rassure-toi, on a plus que toi Eh, mon cousin c'est Manny, j'écoute bien tous les conseils qu'il m'a dit Faut du papier pour faire la guerre ou s'barrer en première aux Maldives Heuss L'enfoiré, Zifukoro, midi midi, y a que des charos Pleins les potos derrière les barreaux, tu connais déjà le scénario Y a la police, y a les sicarios, ici, l'patron, c'est Carlos Gambinos J'ai trop tisé, j'suis matrixé, nan, vraiment, j'sais même plus c'que j'disais J'te laisse la pute et l'terrain d'C, tous les ients-cli relancés Sablière, Meddelín, Charlie Delta, comment c'est ? Eh, j'ai pas pété les plombs, j'ai juste coupé les ponts Joue pas au con, attends vite fait, j'fais les tes-comp T'aimerais savoir vraiment tout c'qu'on a mit d'té-cô En tout cas, rassure-toi ma gueule, ouais, on a deux fois plus que toi Mes esprits ont tchimba, lahnoucha, lembila Les keufs On s'est v'-esqui là-bas, on a pas choisi cette vie-là, Tapette T'as vu les grosses moulas ? C'est 'Koro et Heuss Laga Oui T'inquiète même pas pour nous, rassure-toi, on a plus que toi Gang, gang, gang Mes esprits ont tchimba, lahnoucha, lembila Les keuf On s'est v'-eesqui là-bas, on a pas choisi cette vie-là, Tapette T'as vu les grosses moulas ? C'est 'Koro et Heuss Laga Oui T'inquiète même pas pour nous Oui, rassure-toi, on a plus que toi De la B De la B</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Heuss L'enfoiré, bande d'enfoirés, hé En esprit Heuss L'enfoiré, tah la honda, ST clique, grosse équipe Les bicraveurs d'élite, j'vous dis ésalut, ciao, saluteé Écoute comment le seize est salé, niquez vos mères, bande de salopes La BAC, la dep, les bleus qui galopent Stop, pull-up, j'zlot un bolosse Parole de Tres Puntos, j'trahis pas la honda, ganks comme un Vatos Demande à Coste, y aura sûrement d'la casse Cesc Fàbregas pour finir dans un palace, mes gars À la ganks depuis l'époque d'la SEGA Ici, y a d'la segue, c'est une saga, les keufs le sagavent Bref, j'abrège, tout droit dans l'trou d'balle à Nadège À force de baiser à Bruxelles, j'attrape l'accent belge Grosse moula, grosse moula J'suis sur l'terrain, tout comme Hakan ükür ouh, ouh Artena !, ça court, cherche une issue d'secours paw, paw, paw La rue, la prison, j'ai parloir deuxième tour Les grosses poucaves, j'les vois pas dans la cour ouh, ouh Moi, j'suis là pour d'la pure ouh, ouh, une affaire qui dugure J'suis sur l'terrain, tout comme Hakan ükür paw Artena !, ça court, cherche une issue d'secours La rue, la prison, j'ai parloir deuxième tour ouh, ouh Les grosses poucaves, j'les vois pas dans la cour Moi, j'suis là pour d'la pure, une affaire qui dugure You might also like Tous les jours, j'né-tour avec pas mal d'ordures J'côtoie des mecs tah Dodo la Saumure À c'qu'il paraît, la sortie, c'est du sûr J'suis entouré d'filles sûres, j'suis pas seul, j'te rassure J'passerai l'été dans le cur de la tess Devant le binks, moi, j'ferai le hess En plein hiver, j'me réchauffe dans la caisse Heuss L'enfoiré dans l'appart' des Apès, j'suis avec Los Pepes La pure de Medellín, la coupe et puis la presse J'ai rendez-vous à L'Île dans l'93 J'vais nehass dans l'92, aujourd'hui j'leur ai vi-ser plus d'80 doses Mais c'est juste pour la cause J'me dois d'faire des ous-s et gonfler ma trousse Aller sans retour Rotter', ça vaut p't-être le détour J'suis sur l'terrain, tout comme Hakan ükür ouh, ouh Artena !, ça court, cherche une issue d'secours paw, paw, paw La rue, la prison, j'ai parloir deuxième tour Les grosses poucaves, j'les vois pas dans la cour ouh, ouh Moi, j'suis là pour d'la pure ouh, ouh, une affaire qui dugure J'suis sur l'terrain, tout comme Hakan ükür paw Artena !, ça court, cherche une issue d'secours La rue, la prison, j'ai parloir deuxième tour ouh, ouh Les grosses poucaves, j'les vois pas dans la cour Moi, j'suis là pour d'la pure, une affaire qui dugure J'te mens pas, j'suis balourd dans ça Heuss L'enfoiré, bande d'enfoirés, eh En esprit</t>
+          <t>Heuss L'enfoiré, bande d'enfoirés, hé En esprit Heuss L'enfoiré, tah la honda, ST clique, grosse équipe Les bicraveurs d'élite, j'vous dis ésalut, ciao, saluteé Écoute comment le seize est salé, niquez vos mères, bande de salopes La BAC, la dep, les bleus qui galopent Stop, pull-up, j'zlot un bolosse Parole de Tres Puntos, j'trahis pas la honda, ganks comme un Vatos Demande à Coste, y aura sûrement d'la casse Cesc Fàbregas pour finir dans un palace, mes gars À la ganks depuis l'époque d'la SEGA Ici, y a d'la segue, c'est une saga, les keufs le sagavent Bref, j'abrège, tout droit dans l'trou d'balle à Nadège À force de baiser à Bruxelles, j'attrape l'accent belge Grosse moula, grosse moula J'suis sur l'terrain, tout comme Hakan ükür ouh, ouh Artena !, ça court, cherche une issue d'secours paw, paw, paw La rue, la prison, j'ai parloir deuxième tour Les grosses poucaves, j'les vois pas dans la cour ouh, ouh Moi, j'suis là pour d'la pure ouh, ouh, une affaire qui dugure J'suis sur l'terrain, tout comme Hakan ükür paw Artena !, ça court, cherche une issue d'secours La rue, la prison, j'ai parloir deuxième tour ouh, ouh Les grosses poucaves, j'les vois pas dans la cour Moi, j'suis là pour d'la pure, une affaire qui dugure Tous les jours, j'né-tour avec pas mal d'ordures J'côtoie des mecs tah Dodo la Saumure À c'qu'il paraît, la sortie, c'est du sûr J'suis entouré d'filles sûres, j'suis pas seul, j'te rassure J'passerai l'été dans le cur de la tess Devant le binks, moi, j'ferai le hess En plein hiver, j'me réchauffe dans la caisse Heuss L'enfoiré dans l'appart' des Apès, j'suis avec Los Pepes La pure de Medellín, la coupe et puis la presse J'ai rendez-vous à L'Île dans l'93 J'vais nehass dans l'92, aujourd'hui j'leur ai vi-ser plus d'80 doses Mais c'est juste pour la cause J'me dois d'faire des ous-s et gonfler ma trousse Aller sans retour Rotter', ça vaut p't-être le détour J'suis sur l'terrain, tout comme Hakan ükür ouh, ouh Artena !, ça court, cherche une issue d'secours paw, paw, paw La rue, la prison, j'ai parloir deuxième tour Les grosses poucaves, j'les vois pas dans la cour ouh, ouh Moi, j'suis là pour d'la pure ouh, ouh, une affaire qui dugure J'suis sur l'terrain, tout comme Hakan ükür paw Artena !, ça court, cherche une issue d'secours La rue, la prison, j'ai parloir deuxième tour ouh, ouh Les grosses poucaves, j'les vois pas dans la cour Moi, j'suis là pour d'la pure, une affaire qui dugure J'te mens pas, j'suis balourd dans ça Heuss L'enfoiré, bande d'enfoirés, eh En esprit</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>It's a NuDeal shit 93, 92 Lartiste babe Heuss L'enfoiré V8 bi-turbo, j'fais péter les pots Tu crois qu'le p'tit rebeu allait péter les plombs ? J'suis un thug, j'suis un roi, pas un prince J'suis un chleuh, j'suis une pince et j'vais crever comme un gangst' Soleil toute l'année alors je décapote Viens avec une copine, moi, j'ai aucun pote Petite sotte, j'suis polygame et polyglotte C'est one night, one time, two bitches, one shot Bitch veut ma monnaie, oui, elle veut ma monnaie Bitch fait la groupie, elle est même pas abonnée Bitch veut la peau du lion, elle veut braconner Mais tu connais, pour m'détrôner, faut d'ja frôler mes cojones J'ai pas chômé d'puis des années, c'est pas c't'année qu'j'vais commencer Tu veux le succès sans sucer ? Signe avec moi, tu verras comment c'est De voir ton oseille augmenter J'suis un Marocain, oui, mais de France J'crois qu'j'ai immigré dans les deux sens J'ai réussi tout seul, non, j'n'ai pas eu de chance J'profite de mes gosses car, moi, j'ai pas eu d'enfance Et j'peux les tuer, m'habituer, à mains nues Comme un serial killer, les gyros comme seule lueur S'il vous plaît, un peu d'respect, j'suis ni d'l'ancienne ni de l'actuelle Moi, j'arrive du 93, classez-moi avec les tueurs You might also like A tika, a tikawa Marrakech, gros bédo, p'tit kahwa A tika, a tikawa Tu fais l'mariole, on r'trouve ton corps à Chichaoua A tika, a tikawa, a tika, a tikawa A tika, a tikawa, a tika, a tikawa Au cas où, si j'suis KO, j'revendrai d'la gue-dro J'fais bosser ta sse-gro, j'suis d'la Seleção C'est nous les Mexicains, DZ et Marocains, les nouveaux musiciens 92 département, y a v'là les magiciens skch, skch Respecte les frères qui font la prière J'te dis pas c'que j'ai fait hier, inspi' meurtrière N.Y.M.A fait des freins à main dans tous les ronds-points Traite avec des Cubains, tu repars le cul plein J'suis à 'kech, j'gaspille du cash, on connaît pas la hess Zanzibar, Paris, Phuket, on m'appelle Le Heuss Cousin, j'suis pas tout seul, crois pas qu'on est tout jeunes Paris - Eindhoven avec d'l'argent d'la jaune Accompagné d'une chatte pour déposer une boîte, vif et riche Demande à Viviche, double kich', double vie d'artiste 92, feu d'artifice, fais deux-trois sacrifices Christian, Versace, Dolce pendant la crise Demande à Lartiste le salaire de Kylie Jenner Tout c'que ça génère, tonnes de re-pu dans un container Du mal à m'contenir, à nous maintenir Des fois, quand ça tire et ça dégénère T'as vu l'été, l'hiver, la police judiciaire et quelques faits divers J'kicke à la vitesse d'un bolide allemand, efficace Normalement, tous mes gars, j'les dédicace GP800 béguère, j'prends la route sans casque A tika, a tikawa Marrakech, gros bédo, p'tit kahwa A tika, a tikawa Tu fais l'mariole, on r'trouve ton corps à Chichaoua A tika, a tikawa, a tika, a tikawa A tika, a tikawa, a tika, a tikawa</t>
+          <t>It's a NuDeal shit 93, 92 Lartiste babe Heuss L'enfoiré V8 bi-turbo, j'fais péter les pots Tu crois qu'le p'tit rebeu allait péter les plombs ? J'suis un thug, j'suis un roi, pas un prince J'suis un chleuh, j'suis une pince et j'vais crever comme un gangst' Soleil toute l'année alors je décapote Viens avec une copine, moi, j'ai aucun pote Petite sotte, j'suis polygame et polyglotte C'est one night, one time, two bitches, one shot Bitch veut ma monnaie, oui, elle veut ma monnaie Bitch fait la groupie, elle est même pas abonnée Bitch veut la peau du lion, elle veut braconner Mais tu connais, pour m'détrôner, faut d'ja frôler mes cojones J'ai pas chômé d'puis des années, c'est pas c't'année qu'j'vais commencer Tu veux le succès sans sucer ? Signe avec moi, tu verras comment c'est De voir ton oseille augmenter J'suis un Marocain, oui, mais de France J'crois qu'j'ai immigré dans les deux sens J'ai réussi tout seul, non, j'n'ai pas eu de chance J'profite de mes gosses car, moi, j'ai pas eu d'enfance Et j'peux les tuer, m'habituer, à mains nues Comme un serial killer, les gyros comme seule lueur S'il vous plaît, un peu d'respect, j'suis ni d'l'ancienne ni de l'actuelle Moi, j'arrive du 93, classez-moi avec les tueurs A tika, a tikawa Marrakech, gros bédo, p'tit kahwa A tika, a tikawa Tu fais l'mariole, on r'trouve ton corps à Chichaoua A tika, a tikawa, a tika, a tikawa A tika, a tikawa, a tika, a tikawa Au cas où, si j'suis KO, j'revendrai d'la gue-dro J'fais bosser ta sse-gro, j'suis d'la Seleção C'est nous les Mexicains, DZ et Marocains, les nouveaux musiciens 92 département, y a v'là les magiciens skch, skch Respecte les frères qui font la prière J'te dis pas c'que j'ai fait hier, inspi' meurtrière N.Y.M.A fait des freins à main dans tous les ronds-points Traite avec des Cubains, tu repars le cul plein J'suis à 'kech, j'gaspille du cash, on connaît pas la hess Zanzibar, Paris, Phuket, on m'appelle Le Heuss Cousin, j'suis pas tout seul, crois pas qu'on est tout jeunes Paris - Eindhoven avec d'l'argent d'la jaune Accompagné d'une chatte pour déposer une boîte, vif et riche Demande à Viviche, double kich', double vie d'artiste 92, feu d'artifice, fais deux-trois sacrifices Christian, Versace, Dolce pendant la crise Demande à Lartiste le salaire de Kylie Jenner Tout c'que ça génère, tonnes de re-pu dans un container Du mal à m'contenir, à nous maintenir Des fois, quand ça tire et ça dégénère T'as vu l'été, l'hiver, la police judiciaire et quelques faits divers J'kicke à la vitesse d'un bolide allemand, efficace Normalement, tous mes gars, j'les dédicace GP800 béguère, j'prends la route sans casque A tika, a tikawa Marrakech, gros bédo, p'tit kahwa A tika, a tikawa Tu fais l'mariole, on r'trouve ton corps à Chichaoua A tika, a tikawa, a tika, a tikawa A tika, a tikawa, a tika, a tikawa</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Khapta, j'fais Marseille-Paname, y a vingt mille dans la banane Moula violette d'Amsterdam, en showcase à Rotterdam okay Elle était là pour le buzz, j'suis à Phucket avec Heuss Au Chivas, j'oublie la hess, blunt à la vanille, j'fume ma kush On peut s'arranger tekass, c'est toi qui m'a dit ma kanch En attendant, le temps, il passe, faut qu'j'enregistre à Marrakech Oh mi amore, j'vais bouger vers un pays plus coloré Rappelle-toi bien, on s'était dit qu'on l'aurait Le disque d'or et faire le million d'euros, oh mi amore Oh mi amore, j'vais bouger vers un pays plus coloré Rappelle-toi bien, on s'était dit qu'on l'aurait Le disque d'or et faire le million d'euros, oh mi amore Oh mi amore J'me prends pas pour un autre nan, la nuit, j'écris sous khapta ouais Ils veulent te mettre les menottes ou bien te voir avec ton paquetage skch, skch J'me prends pas pour un autre, j'suis en claquettes, short à Pattaya ouais Hôtel Regency Hyatt ouais, on a grandi dans l'3yat C'est la mafia tah Napoli, c'est l'43 Marroqui Tout le hazi a pris feu, le tartin est garanti Nourri, ça part de repli, ça revient pour tout péter On t'laissera jamais tout compter mais tu peux dealer, guetter Ok, c'est la grosse moula, attends, j'rallume un zoula Tu t'es trompé ce coup-là, j'ai des contacts au goulag J'récupère le que-sa, toute façon, j'ai que ça Deux-trois verres de cke-Ja et l'Marroqui 43 You might also like Oh mi amore, j'vais bouger vers un pays plus coloré Rappelle-toi bien, on s'était dit qu'on l'aurait Le disque d'or et faire le million d'euros, oh mi amore Oh mi amore, j'vais bouger vers un pays plus coloré Rappelle-toi bien, on s'était dit qu'on l'aurait Le disque d'or et faire le million d'euros, oh mi amore Oh mi amore Rappelle-toi bien, on s'était dit qu'on l'aurait Le disque d'or et faire le million d'euros Le disque d'or et faire le million d'euros, oh mi amore Oh mi amore, j'vais bouger vers un pays plus coloré Rappelle-toi bien, on s'était dit qu'on l'aurait Le disque d'or et faire le million d'euros, oh mi amore Oh mi amore, j'vais bouger vers un pays plus coloré Rappelle-toi bien, on s'était dit qu'on l'aurait Le disque d'or et faire le million d'euros, oh mi amore Oh mi amore1</t>
+          <t>Khapta, j'fais Marseille-Paname, y a vingt mille dans la banane Moula violette d'Amsterdam, en showcase à Rotterdam okay Elle était là pour le buzz, j'suis à Phucket avec Heuss Au Chivas, j'oublie la hess, blunt à la vanille, j'fume ma kush On peut s'arranger tekass, c'est toi qui m'a dit ma kanch En attendant, le temps, il passe, faut qu'j'enregistre à Marrakech Oh mi amore, j'vais bouger vers un pays plus coloré Rappelle-toi bien, on s'était dit qu'on l'aurait Le disque d'or et faire le million d'euros, oh mi amore Oh mi amore, j'vais bouger vers un pays plus coloré Rappelle-toi bien, on s'était dit qu'on l'aurait Le disque d'or et faire le million d'euros, oh mi amore Oh mi amore J'me prends pas pour un autre nan, la nuit, j'écris sous khapta ouais Ils veulent te mettre les menottes ou bien te voir avec ton paquetage skch, skch J'me prends pas pour un autre, j'suis en claquettes, short à Pattaya ouais Hôtel Regency Hyatt ouais, on a grandi dans l'3yat C'est la mafia tah Napoli, c'est l'43 Marroqui Tout le hazi a pris feu, le tartin est garanti Nourri, ça part de repli, ça revient pour tout péter On t'laissera jamais tout compter mais tu peux dealer, guetter Ok, c'est la grosse moula, attends, j'rallume un zoula Tu t'es trompé ce coup-là, j'ai des contacts au goulag J'récupère le que-sa, toute façon, j'ai que ça Deux-trois verres de cke-Ja et l'Marroqui 43 Oh mi amore, j'vais bouger vers un pays plus coloré Rappelle-toi bien, on s'était dit qu'on l'aurait Le disque d'or et faire le million d'euros, oh mi amore Oh mi amore, j'vais bouger vers un pays plus coloré Rappelle-toi bien, on s'était dit qu'on l'aurait Le disque d'or et faire le million d'euros, oh mi amore Oh mi amore Rappelle-toi bien, on s'était dit qu'on l'aurait Le disque d'or et faire le million d'euros Le disque d'or et faire le million d'euros, oh mi amore Oh mi amore, j'vais bouger vers un pays plus coloré Rappelle-toi bien, on s'était dit qu'on l'aurait Le disque d'or et faire le million d'euros, oh mi amore Oh mi amore, j'vais bouger vers un pays plus coloré Rappelle-toi bien, on s'était dit qu'on l'aurait Le disque d'or et faire le million d'euros, oh mi amore Oh mi amore1</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Zeg P on the track beat La moula moula, la monnaie monnaie et l'argent sale nous a maudit maudit La moula moula, la monnaie, jdevais sortir de chez moi avant midi besoin La rue m'a appris d'pas faire confiance et de me mêler que de mes affaires de mes affaires Toujours rester à npas faire le fier et pour en avoir plus, faut faire plus d'efforts encore Travaillant depuis l'époque du seum et j'vis plus les intrusions en soum J'ai pas percé tard, Audi 2018 S3 full options tout noir 'vec un pétard Ne pas s'faire péter, gonfler le butin, finir riche quoi qu'il arrive même si jen bute un Seize heures, jrécupère, vingt heures, j'récupère et jvais tout arrêter que si j'suis en perte que si j'suis en perte D'la moula moula, dla monnaie monnaie L'argent, dans c'bas monde, a pris l'dessus dessus D'la moula moula, d'la monnaie monnaie Si tu montes trop vite, tu t'fais descendre bang Crois-moi, l'être humain est hypocrite Et ça, ça provoque beaucoup de quiproquos de quiproquos Donc t'es obligé de montrer que Celui qui s'avance, tu l'allumes à l'AK, oh D'la moula moula, d'la monnaie monnaie L'argent, dans c'bas monde, a pris l'dessus dessus D'la moula moula, d'la monnaie monnaie Si tu montes trop vite, tu t'fais descendre bang D'la moula moula, d'la monnaie monnaie L'argent, dans c'bas monde, a pris l'dessus dessus D'la moula moula, d'la monnaie monnaie Si tu montes trop vite, tu t'fais descendre You might also like hé D'la moula moula, d'la monnaie monnaie J'm'y remets, tu m'remets un rre-ve J'la remets, j'suis repeint, j'suis refait, mon re-fré George Moulaga des Hauts-d'-Seine, tu connais hé J'propose d'la moula affichée au menu Tu reconnais ma tenue, langage est soutenu skch Le gang est torse velu, cette vie-là, mes gars l'ont tous voulu skch Mes esprits ont timba la hnoucha, j'ai benda Standa, j'suis réglo, c'est réglé hé Viens en Europe, y a d'la drogue et du bénéf', béné', béné', bénéfices D'la re-pu, d'la végé' passent par les PDG Le tarot, c'est léger, Versace et DG, Orly ou CDG J'me barre et j'me gare juste avant d'me faire crever P'tite sur, passe ton bac, ton Master ou ton brevet J'ramasse tous les lovés, les lovés, les lovés George Moulaga, d'la moula et d'la monnaie, béné', béné', bénéfices D'la moula moula, d'la monnaie monnaie L'argent, dans c'bas monde, a pris l'dessus dessus D'la moula moula, d'la monnaie monnaie Si tu montes trop vite, tu t'fais descendre bang D'la moula moula, d'la monnaie monnaie L'argent, dans c'bas monde, a pris l'dessus dessus D'la moula moula, d'la monnaie monnaie Si tu montes trop vite, tu t'fais descendre bang Heuss L'enfoiré, bande d'enfoirés Hé, George Moula, gars d'la moula et d'la monnaie Béné', béné', bénéfices Skch3</t>
+          <t>Zeg P on the track beat La moula moula, la monnaie monnaie et l'argent sale nous a maudit maudit La moula moula, la monnaie, jdevais sortir de chez moi avant midi besoin La rue m'a appris d'pas faire confiance et de me mêler que de mes affaires de mes affaires Toujours rester à npas faire le fier et pour en avoir plus, faut faire plus d'efforts encore Travaillant depuis l'époque du seum et j'vis plus les intrusions en soum J'ai pas percé tard, Audi 2018 S3 full options tout noir 'vec un pétard Ne pas s'faire péter, gonfler le butin, finir riche quoi qu'il arrive même si jen bute un Seize heures, jrécupère, vingt heures, j'récupère et jvais tout arrêter que si j'suis en perte que si j'suis en perte D'la moula moula, dla monnaie monnaie L'argent, dans c'bas monde, a pris l'dessus dessus D'la moula moula, d'la monnaie monnaie Si tu montes trop vite, tu t'fais descendre bang Crois-moi, l'être humain est hypocrite Et ça, ça provoque beaucoup de quiproquos de quiproquos Donc t'es obligé de montrer que Celui qui s'avance, tu l'allumes à l'AK, oh D'la moula moula, d'la monnaie monnaie L'argent, dans c'bas monde, a pris l'dessus dessus D'la moula moula, d'la monnaie monnaie Si tu montes trop vite, tu t'fais descendre bang D'la moula moula, d'la monnaie monnaie L'argent, dans c'bas monde, a pris l'dessus dessus D'la moula moula, d'la monnaie monnaie Si tu montes trop vite, tu t'fais descendre hé D'la moula moula, d'la monnaie monnaie J'm'y remets, tu m'remets un rre-ve J'la remets, j'suis repeint, j'suis refait, mon re-fré George Moulaga des Hauts-d'-Seine, tu connais hé J'propose d'la moula affichée au menu Tu reconnais ma tenue, langage est soutenu skch Le gang est torse velu, cette vie-là, mes gars l'ont tous voulu skch Mes esprits ont timba la hnoucha, j'ai benda Standa, j'suis réglo, c'est réglé hé Viens en Europe, y a d'la drogue et du bénéf', béné', béné', bénéfices D'la re-pu, d'la végé' passent par les PDG Le tarot, c'est léger, Versace et DG, Orly ou CDG J'me barre et j'me gare juste avant d'me faire crever P'tite sur, passe ton bac, ton Master ou ton brevet J'ramasse tous les lovés, les lovés, les lovés George Moulaga, d'la moula et d'la monnaie, béné', béné', bénéfices D'la moula moula, d'la monnaie monnaie L'argent, dans c'bas monde, a pris l'dessus dessus D'la moula moula, d'la monnaie monnaie Si tu montes trop vite, tu t'fais descendre bang D'la moula moula, d'la monnaie monnaie L'argent, dans c'bas monde, a pris l'dessus dessus D'la moula moula, d'la monnaie monnaie Si tu montes trop vite, tu t'fais descendre bang Heuss L'enfoiré, bande d'enfoirés Hé, George Moula, gars d'la moula et d'la monnaie Béné', béné', bénéfices Skch3</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Zeg P on the track, bitch! J't'ai eu sans l'vouloir et sans faire de magie, j'saurai jamais comment tu souffres mais je l'imagine Tout fragile, ton cur en argile, elle veut des bisous sur la che-bou mais j'suis trop agile Faut qu'tu t'en fasses pour eux, babe, t'en fais pas pour oi-m, même si tu t'habilles mal, babe, j'ai assez d'flow pour nous deux Quand tu m'demandes si j'peux rester encore un peu mais t'as mouillé tout l'pieu, j'veux pas qu'tu tombes amoureus Du ice et de l'or, gun près du corps, l'argnt d'la mort, jeune moula qui sort Au volant du Cayenne, une blonde comme un Saiyan, j'crois qu'c'est un alien mais j'en veux encore Du ice et de l'or, gun près du corps, l'argent d'la mort, jeune moula qui sort Au volant du Cayenne, une blonde comme un Saiyan, j'crois qu'c'est un alien mais j'en veux encore Elle a les ch'veux dorés et la peau bien bronzée, elle boit du Daïquiri, elle m'appelle Mon chéri On va pas finir l'année, on va se séparer, sur moi, t'as tout misé mais j'suis qu'un enfoiré Temps en temps, j'te mentais, j'te disais qu'tu m'manquais, j'ai pas fini d'chanter, à tout moment, j'peux sauter On se tue la santé, j'té-ma la fille à côté, mais pas envie d'l'accoster, j'ai mis mon cur de côté Du ice et de l'or, gun près du corps, l'argent d'la mort, jeune moula qui sort Au volant du Cayenne, une blonde comme un Saiyan, j'crois qu'c'est un alien mais j'en veux encore Du ice et de l'or, gun près du corps, l'argent d'la mort, jeune moula qui sort Au volant du Cayenne, une blonde comme un Saiyan, j'crois qu'c'est un alien mais j'en veux encore You might also like Du ice et de l'or, gun près du corps, l'argent d'la mort, jeune moula qui sort Au volant du Cayenne, une blonde comme un Saiyan, j'crois qu'c'est un alien mais j'en veux encore1</t>
+          <t>Zeg P on the track, bitch! J't'ai eu sans l'vouloir et sans faire de magie, j'saurai jamais comment tu souffres mais je l'imagine Tout fragile, ton cur en argile, elle veut des bisous sur la che-bou mais j'suis trop agile Faut qu'tu t'en fasses pour eux, babe, t'en fais pas pour oi-m, même si tu t'habilles mal, babe, j'ai assez d'flow pour nous deux Quand tu m'demandes si j'peux rester encore un peu mais t'as mouillé tout l'pieu, j'veux pas qu'tu tombes amoureus Du ice et de l'or, gun près du corps, l'argnt d'la mort, jeune moula qui sort Au volant du Cayenne, une blonde comme un Saiyan, j'crois qu'c'est un alien mais j'en veux encore Du ice et de l'or, gun près du corps, l'argent d'la mort, jeune moula qui sort Au volant du Cayenne, une blonde comme un Saiyan, j'crois qu'c'est un alien mais j'en veux encore Elle a les ch'veux dorés et la peau bien bronzée, elle boit du Daïquiri, elle m'appelle Mon chéri On va pas finir l'année, on va se séparer, sur moi, t'as tout misé mais j'suis qu'un enfoiré Temps en temps, j'te mentais, j'te disais qu'tu m'manquais, j'ai pas fini d'chanter, à tout moment, j'peux sauter On se tue la santé, j'té-ma la fille à côté, mais pas envie d'l'accoster, j'ai mis mon cur de côté Du ice et de l'or, gun près du corps, l'argent d'la mort, jeune moula qui sort Au volant du Cayenne, une blonde comme un Saiyan, j'crois qu'c'est un alien mais j'en veux encore Du ice et de l'or, gun près du corps, l'argent d'la mort, jeune moula qui sort Au volant du Cayenne, une blonde comme un Saiyan, j'crois qu'c'est un alien mais j'en veux encore Du ice et de l'or, gun près du corps, l'argent d'la mort, jeune moula qui sort Au volant du Cayenne, une blonde comme un Saiyan, j'crois qu'c'est un alien mais j'en veux encore1</t>
         </is>
       </c>
     </row>
@@ -871,7 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Hé, l'instru est salée, j'vais la boire sa mère J'vais la boire, sa mère Reviens, p'tit frère, j'vais pas t'taper Grosse mula t'fermera l'clapet C'est l'heure, tu déconnes, garde la Schweppes Lemon Deux-trois Pokemon à rattraper Fianso, j'crois qu'tout est plié, trinque J'ai plus d'frappe, j'retourne piller l'zinc J'les tue tout seul, normal qu'ils toussent Qu'ils foutent le seum comme un billet d'cinq J'suis l'incendie, t'es l'feu d'briquet On va pas s'battre pour deux criquets J'connais mes p'tits et ma pesette J'vais recompter toute la recette En attaque y'a pas d'poste vacant Nique ta grand-mère en Porsche Macan Fais pas confiance à celui qui Tient la sacoche, j'l'ai cramé là çui-gui En scre-gued, quand ça kicke du stud' En Quechua qui trafique du stup' J'appelle Patrick si j'fais mon hat-trick Benda, j'me coffre en Afrique du Sud La rue rien qu'taleur j'y étais, Bobigny dépôt J.L.D Triple platine, j'esquive une peine Bouton rouge, appelle Steve Ruben 9.3 Libye So Kadhafi J'vais v'là l'embrouille, prête-moi ta vie J'repense aux frères devant La Poste Mort sous pillave en bas Lacoste Dispositif encerclé, fonce Touche pas mes fils, touche pas ma cons' Les bout', la honda, les esprits Si c'est bénef, c'était écrit, ouais You might also like C'est nous, les mecs des cités d'Île-de-France Dans toutes les branches on distribue d'la blanche Dans tous les bails et toutes les manigances J'encule la douane ainsi qu'ses conséquences C'est qui les mecs des cités d'Île-de-France ? C'est nous, les mecs des cités d'Île-de-France C'est qui les mecs des cités d'Île-de-France ? C'est nous, les mecs des cités d'Île-de-France C'est nous, les mecs des cités d'Île-de-France Dans toutes les branches on distribue d'la blanche Dans tous les bails et toutes les manigances J'encule la douane ainsi qu'ses conséquences C'est qui les mecs des cités d'Île-de-France ? C'est nous, les mecs des cités d'Île-de-France C'est qui les mecs des cités d'Île-de-France ? C'est nous, les mecs des cités d'Île-de-France Bx land, Affranchis, on est venu d'ailleurs Artena, ça court, t'as ressenti la chaleur J'suis vraiment pour de vrai dans les cités J'prend l'argent-gant des Shlags-ags épuisés J'vais l'gaspiller là-bas chez l'épicier J'fais que naviguer, trafiquer Les keufs me reconnaissent comme Marvin Gaye J'crois qu'ils sont matrixés mais ils ont pas idée Tout ce que j'ai liquidé, c'est l'argent des cités On prend ton uc, on l'met sur Vivas... Argent d'... investi dans du... shhh J'ai rendez-vous en plein cur de Paname J'planifie ça, man Ils ont eu Oussama, Kadhafi et Saddam Surveille ta fille, ta reu-seu et ta femme J'récupéguère le keussa dans l'canal Heuss L'enfoiré, j'envoie d'la nouveauté Bande d'enfoirés, tout est cellophané Tous les mois, toute l'année, les ienclis vont caner Manny investi dans une Maserati C'est l'heure du me-cri sur la montre Bulgari J'me fais crever par une bande de képis en plein coeur de Ri-pa J'appelle l'avocat, celui qui porte la kipa J'ressors aussi tôt, vous inquiétez même pas J'ai tout laissé dans la chatte d'Anita J'rentre chez moi, gars, j'reste dans l'anonymat Dans les cités, c'est la loca vida J'demande aux reufs d'la Jungle Africa C'est pas du cinéma, j'ai que des idées noires En esprit-gui, j'suis une vraie moula, gars Grosse moulaga, ta3 Bogota Un enfoiré comme moi, dans les quotas Comme Fianso-go, mon équipe est toka Mon équipe est toka Mon équipe est toka C'est nous, les mecs des cités d'Île-de-France Dans toutes les branches on distribue d'la blanche Dans tous les bails et toutes les manigances J'encule la douane ainsi qu'ses conséquences C'est qui les mecs des cités d'Île-de-France ? C'est nous, les mecs des cités d'Île-de-France C'est qui les mecs des cités d'Île-de-France ? C'est nous, les mecs des cités d'Île-de-France C'est nous, les mecs des cités d'Île-de-France Dans toutes les branches on distribue d'la blanche Dans tous les bails et toutes les manigances J'encule la douane ainsi qu'ses conséquences C'est qui les mecs des cités d'Île-de-France ? C'est nous, les mecs des cités d'Île-de-France C'est qui les mecs des cités d'Île-de-France ? C'est nous, les mecs des cités d'Île-de-France2</t>
+          <t>Hé, l'instru est salée, j'vais la boire sa mère J'vais la boire, sa mère Reviens, p'tit frère, j'vais pas t'taper Grosse mula t'fermera l'clapet C'est l'heure, tu déconnes, garde la Schweppes Lemon Deux-trois Pokemon à rattraper Fianso, j'crois qu'tout est plié, trinque J'ai plus d'frappe, j'retourne piller l'zinc J'les tue tout seul, normal qu'ils toussent Qu'ils foutent le seum comme un billet d'cinq J'suis l'incendie, t'es l'feu d'briquet On va pas s'battre pour deux criquets J'connais mes p'tits et ma pesette J'vais recompter toute la recette En attaque y'a pas d'poste vacant Nique ta grand-mère en Porsche Macan Fais pas confiance à celui qui Tient la sacoche, j'l'ai cramé là çui-gui En scre-gued, quand ça kicke du stud' En Quechua qui trafique du stup' J'appelle Patrick si j'fais mon hat-trick Benda, j'me coffre en Afrique du Sud La rue rien qu'taleur j'y étais, Bobigny dépôt J.L.D Triple platine, j'esquive une peine Bouton rouge, appelle Steve Ruben 9.3 Libye So Kadhafi J'vais v'là l'embrouille, prête-moi ta vie J'repense aux frères devant La Poste Mort sous pillave en bas Lacoste Dispositif encerclé, fonce Touche pas mes fils, touche pas ma cons' Les bout', la honda, les esprits Si c'est bénef, c'était écrit, ouais C'est nous, les mecs des cités d'Île-de-France Dans toutes les branches on distribue d'la blanche Dans tous les bails et toutes les manigances J'encule la douane ainsi qu'ses conséquences C'est qui les mecs des cités d'Île-de-France ? C'est nous, les mecs des cités d'Île-de-France C'est qui les mecs des cités d'Île-de-France ? C'est nous, les mecs des cités d'Île-de-France C'est nous, les mecs des cités d'Île-de-France Dans toutes les branches on distribue d'la blanche Dans tous les bails et toutes les manigances J'encule la douane ainsi qu'ses conséquences C'est qui les mecs des cités d'Île-de-France ? C'est nous, les mecs des cités d'Île-de-France C'est qui les mecs des cités d'Île-de-France ? C'est nous, les mecs des cités d'Île-de-France Bx land, Affranchis, on est venu d'ailleurs Artena, ça court, t'as ressenti la chaleur J'suis vraiment pour de vrai dans les cités J'prend l'argent-gant des Shlags-ags épuisés J'vais l'gaspiller là-bas chez l'épicier J'fais que naviguer, trafiquer Les keufs me reconnaissent comme Marvin Gaye J'crois qu'ils sont matrixés mais ils ont pas idée Tout ce que j'ai liquidé, c'est l'argent des cités On prend ton uc, on l'met sur Vivas... Argent d'... investi dans du... shhh J'ai rendez-vous en plein cur de Paname J'planifie ça, man Ils ont eu Oussama, Kadhafi et Saddam Surveille ta fille, ta reu-seu et ta femme J'récupéguère le keussa dans l'canal Heuss L'enfoiré, j'envoie d'la nouveauté Bande d'enfoirés, tout est cellophané Tous les mois, toute l'année, les ienclis vont caner Manny investi dans une Maserati C'est l'heure du me-cri sur la montre Bulgari J'me fais crever par une bande de képis en plein coeur de Ri-pa J'appelle l'avocat, celui qui porte la kipa J'ressors aussi tôt, vous inquiétez même pas J'ai tout laissé dans la chatte d'Anita J'rentre chez moi, gars, j'reste dans l'anonymat Dans les cités, c'est la loca vida J'demande aux reufs d'la Jungle Africa C'est pas du cinéma, j'ai que des idées noires En esprit-gui, j'suis une vraie moula, gars Grosse moulaga, ta3 Bogota Un enfoiré comme moi, dans les quotas Comme Fianso-go, mon équipe est toka Mon équipe est toka Mon équipe est toka C'est nous, les mecs des cités d'Île-de-France Dans toutes les branches on distribue d'la blanche Dans tous les bails et toutes les manigances J'encule la douane ainsi qu'ses conséquences C'est qui les mecs des cités d'Île-de-France ? C'est nous, les mecs des cités d'Île-de-France C'est qui les mecs des cités d'Île-de-France ? C'est nous, les mecs des cités d'Île-de-France C'est nous, les mecs des cités d'Île-de-France Dans toutes les branches on distribue d'la blanche Dans tous les bails et toutes les manigances J'encule la douane ainsi qu'ses conséquences C'est qui les mecs des cités d'Île-de-France ? C'est nous, les mecs des cités d'Île-de-France C'est qui les mecs des cités d'Île-de-France ? C'est nous, les mecs des cités d'Île-de-France2</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tout lmonde, tout lmonde, tout lmonde Ça fait des dingueries pour des euros dans la ville Ça fait des dingueries pour des euros dans la ville Ça fait des dingueries pour des euros dans la ville Ça fait des dingueries pour des euros dans la ville Askip, on refait le monde avec des si Ouais, on veut tous se refaire à la té-ci Venus tout péter, pas du tout indécis Restez tous forts, des Baumettes à Bois dArcy Pas les mêmes potos debout et par terre À ce moment-là tu vois cest qui tes vrais frères Je sais que tu serres que tas pas à ten faire Dêtre solo si touvres les yeux grand frère Tu parles de moi jte vois vaffanculo Bats les couilles jsuis là jai le puro Ça tlève ton teum-teum au culot Culot, culot, culot enculé Tas parlé de moi enculé ? Viens me voir je suis en face enculé Dans ton coin tu râles enculé Regarde-toi dans la glace enculé On na pas bougé, ça voulait te XXX Tas volé avec nous, rien de plus Là-bas ouais vers larrêt dbus Jte respecte tes chaud en plus, brefons Jarrive comme une claquette sur le font, une gifle de ton daron Tiens-toi à carreau, toujours préparé, comme un petit filou Jai le flow qui tape, jai le flow dAlaba Les clients tu rabats, les kilos dans lappart, la frappe ça rapporte Je passe les rapports, TB sur le Vieux Port, ya les civ cest trop tard Petite poursuite, tas pris la fuite, est-cquils tauront tôt ou tard ? Na na na eh oh, tas le monstre tu me ris au nez Na na na eh oh, dans la zone côté passager Na na na eh oh, partout ça sillonnait You might also like x3 Ça fait des dingueries pour des euros dans la ville Ça fait des dingueries pour des euros dans la ville Ça fait des dingueries pour des euros dans la ville Ça fait des dingueries pour des euros dans la ville Et merci bien Moubarak Mouba, Mouba Merci à tous ceux qui nous écoutent hein Et merci bien Chaud Ce mec de la rue Ce mec de la rue Ce mec de la rue Gros classique Écoute Ce mec de la rue, écoute Jte parle de ce mec dla rue qui prend sa teille et son morceau Au lieu quil sort à jeun de chez lui à la chaud Il a déjà fait le go, peut-être arraché ganté Braqué, il est discret et on sait pas trop ce quil fait Il aime trop se poser au quartier Avec les potos partir en fou rire et sclasher Si ya un problème il va pas se cacher Ça dit quil est chargé, prêt, kalashé Ce mec, il aime bien les miss Il fait des tours, il cherche Alice pour quça puisse La ramener entre deux voitures ou la ramener à Ibis Quand il faut il est nerveux mais en temps normal il est peace Il veut des sous il veut du cash, il tle dis cash Cest réel il a faim il veut pas qulavenir le couche Sur un salaire de misère même pas il crache Il règle ses soucis quand en bas ça cloche Déçus par certains, déçus par certains Des fois il vers des larmes le soir, lumière éteinte Il reste fort, il le dit à dégun, pour sa mère gros, il a béguin En cmoment il gamberge trop, il veut monter sur un coup, très chaud Il veut tous les quer-cho, quand il a rien dans la poche il voit personne Tu peux le voir à pieds, en Scooter ou en Clio 2 Des fois il a la haine, il veut en griller deux Un kilo de jaloux, et de faux dans le dos Il serre jcrois bien quil veut sortir le métaux Il taide au maximum, il a bon cur Toujours déterminer tu vas pas avoir peur Tranquille dans son coin il fait pas le frappeur Aussi il aime pas les agrippeurs Calé au bar ou dans son zoo-zoo Il emboucane aucun petit à faire des sous,-sous Il voit des petits raser les murs, faire le tour- tour Vers les liasses il court-court Il a pas envie dcouler Pour éviter une frappe il sait quil doit sgrouiller Pas voir voir des potos couiller Putain il a fini écoute jsais qutu connais Jsais qutu connais x2 Ce soir ça va pas, il sretrouve seul-seul Nuit blanche il attend le sun-sun Il a vu plein de proches dans le cercueil Il se sent seul XXX et la Merco Eh gros, il dit quil a les crocs, quici cest trop Lessentiel cest dassumer, interdit dêtre lâche Va-t-il rester ou bien prendre le large ? Il voit des frères entrer, il doit serrer, missionner Cest la loi du quartier, ça va parachuter En bas de ta maison ou en bas de ta tour Tu lsais que cest chacun son tour Tu lsais que cest chacun son tour x3 Ce mec de la rue, il évite les faux Tu laimes avec ses défauts Il est là pour toi quand il faut Ce mec de la rue, il aime pas la polizia Chez toi pour faire une razzia Ce mec de la rue, ce mec de la rue Ce mec de la rue, ce mec de la rue Ce mec de la rue, ce mec de la rue Ce mec de la rue, ce mec de la rue Il aime pas la polizia Ce mec de la rue, ce mec de la rue Chez toi pour faire une razzia Ce mec de la rue, ce mec de la rue Merci beaucoup, merci à Jul Merci à tous ceux qui écoutent, merci à Skyrock Merci à tout lmonde, merci à tout le quartier Et merci la zone hein Merci ça fait plaisir Classique hein, un petit classique Moubzer À Norey, Norey Ok, ya du niveau dans la zone tas capté ? Treize-cinq zoo, ok Ça fait Cest pas une promenade quon fait quand on sretrouve gantés Avec mes brigantés ya, sur peu dgens jpeux compter Cest ma vie qujraconte et cest pas celle de Conte Trop peu de gens sont là quand tas besoin deux Ils sont bons quà sucer pour venir prendre le vingt-deux On a la haine gros et on la pas quun peu Quils ne croient pas qujai besoin parcque je nai pas besoin deux Et puis jen rallume un dbeuh, pépère posé dans ma cité Personne ma incité, jme suis mis à voler parcque tout ça mexcitait Des textes jvais réciter, en tous cas jessaye de mappliquer La musique ma piqué, 22 long rifle pour répliquer Et fils de pute dans mon dos Jentends qutu parles de moi de toute façon jte vois venir Et jcrois qujvais arrêter lalcool jpense que ce sera mieux pour avenir XXX et contresens dans lavenue Pétage de porte pour augmenter les revenus Quand vous verrez cque jsuis devenu les gars un peu dfierté et de retenue La seule chose à retenir de mes textes cest que les vrais ils sont reconnus Et autour de moi ya toujours des inconnus Merci mes potos qui sont là depuis le début Merci les mauvais com et les fils de pute Sans effort que lon vise le but, ouais On est pt-être débiles et à laffût des billets Si tas un plan poto on arrive outillé Parler parler pour rien on lfait même pas quillé Lève-toi du milieu, rabta jpeux te killer La rime dégoupillée jla lance dans ltas elle touche tout lmonde Et si tu me dis pourquoi tu les écoutes plus ? Parcque jsais que tous mentent Dans la zone ya des talents cachés, yas des talents gâchés Dautres, doigt sur la gâchette, prêts à agir si tu comptes les fâcher Et pour les fachos, en toute franchise Jvous baise, jtiens à cque vous lsachiez Faites gaffes aux faux traîtres, ils XXX mettre en sachet Ta tête et ton corps ils peuvent aussi yaller Retrouvés dans un sac ils seront signalés Allez vous cacher jsuis avec tous mes tarés Elle a pas changé depuis tant dannées Léquipe a pas changé depuis tant dannées, ça fait Depuis petits on traîne en bas des blocs, devant les portes, sale époque Jsuis dans lzoo accompagné de la miss et tous mes potes On en a marre de voir les shmitts galérer cest pas des LOL Les gars ça pète XXX tout lHexagone Ah les gars, on sarrête là hein Et merci bien Norey Norey, Norey, Norey, Norey, Norey Et merci bien Et merci Badjoe Tu parles trop mais rien à foutre Docteur Badjologue, Ba-Ba-Ba-Badjoe Ça fait Tu parles trop mais rien à foutre On a les crocs mais rien à foutre Jveux men sortir, lreste rien à foutre Rien à, rien à, rien à, rien à, rien à foutre Rien à rien à foutre Ok tout lmonde x2 Tu parles trop mais rien à foutre On a les crocs mais rien à foutre Jveux men sortir, lreste rien à foutre Les jaloux ouais rien à foutre Rien à, rien à, rien à, rien à, rien à foutre Rien à, rien à, rien à, rien à, rien à foutre Rien à, rien à, rien à, rien à, rien à foutre Rien à, rien à foutre, rien à, rien à foutre Ok, jfais cque jai a faire léquipe, pour linstant confiance est llée-gri Plus rien nest parfait, jviens dcroiser lbonheur en béquilles Jveux pas dtes conseils, non, jte respecte mais tu nes guignol Tattends dsavoir cque pensent les gens pour avoir un opinion On bosse dure, ça na pas changé, la routine nous fait galérer Toujours déter joublie pas les frères, 135 petit comité Cque tu penses mest égal Jsuis dans lombre, bien loin à lécart-cart On veut tout de suite, jvais pas faire plus de détail Cest la catastrophe ouais cest la catastrophe Les gens toublient, les gens te zappent après ils frappent à ta porte Cest la catastrophe ouais cest la catastrophe Ce que je XXX pas mais jte fais pour la daronne x2 Tu parles trop mais rien à foutre On a les crocs mais rien à foutre Jveux men sortir, lreste rien à foutre Les jaloux ouais rien à foutre Rien à, rien à, rien à, rien à, rien à foutre Rien à, rien à, rien à, rien à, rien à foutre Rien à, rien à, rien à, rien à, rien à foutre Rien à, rien à foutre, rien à, rien à foutre Yeah ok, ces hypocrites sont plus les mêmes pour du liquide Fais tes bails tout en scred-scred comme team anonyme Ici plus rien à perdre, mon père est déjà à lagonie Jai vu ce petit quitter lécole, ce petit péter quelques portes Ces petits frapper du décor, tou-toujours fidèles au poste Ce petit quen fait des tonnes, à la recherche dor Trop dambition, et ce petit quest en taule Business après business cest dur pour lui ddire basta À quoi ça sert quon parle ? Il faut quon staille Fuck la nana, elles font semblant dêtre malades Lépoque javance on est là, demande à Amada x2 Tu parles trop mais rien à foutre On a les crocs mais rien à foutre Jveux men sortir, lreste rien à foutre Les jaloux ouais rien à foutre x2 Rien à, rien à, rien à, rien à, rien à foutre Rien à, rien à, rien à, rien à, rien à foutre Rien à, rien à, rien à, rien à, rien à foutre Rien à, rien à foutre, rien à, rien à foutre Jpars en impro, jen ai rien à foutre Jpars en impro-pro, jen ai rien à foutre En direct de Skyrock, rien à, rien à foutre Merci le J, J, rien à, rien à foutre Ya trop de pu, pu, rien à, rien à foutre Linspi continue on arrive et oui ya a rien à foutre XXX, les traîtres allez vous faire foutre Merci, merci Et merci bien Badjoe hein Merci la zone La Puenta, et merci Et merci bien Badjoe Et vous êtes chauds ou pas ? Et merci Hors-Ligne Jsuis pas un gamin donc fais pas la gamine Pose ton cul sur lVespa car jai pas de gamos Là cest le burro, tester qui pourrait ? Allez remballez, remballez vos rappeurs tout pourris Embrouille tu courais On dirait tas taffé toute ta vie à Courir Le flow est chromé, on a les crocs miss On veut juste goumer ne crois pas nos promesses Elle fait la folle on va la goumer Il fait le fou on va le goumer La concu on va la goumer La sique-mu on va la goumer Un-trois-cinq on va vous goumer Les goumer, les goumer Les goumer, les goumer Les goumer, les goumer Les goumer, les goumer, les goumer Sur lgrand-père à Yves on va les goumer Les goumer, les goumer, les goumer Sur lgrand-père à Yves on va les goumer Les goumer, les goumer, les goumer Sur lgrand-père à Yves on va les goumer Elle, on va la goumer, lui, on va le goumer Eux, on va les goumer Les goumer, les goumer, les goumer 1-3-5 carats, tas beau être paro Tout lmonde est paro donc surveille ta parole Surveille ta parole, ils ont tous la rage pourtant jfais que rimer Putain cest chaud comme faire la bise à Jack Daniels XXX, elle fait la fraîche mais meskin, ses orteils font d'la muscu On va te goumer On vient pour tout prendre sur lgrand-père à Yves On est trop gourmands Le videur il ta recale, il a parlé dla daronne Il a touché le petit reuf, il a mangé toutes tes frites Les goumer, les goumer, les goumer Sur lgrand-père à Yves on va les goumer Les goumer, les goumer, les goumer Sur lgrand-père à Yves on va les goumer Elle, on va la goumer, lui, on va le goumer Eux, on va les goumer Les goumer, les goumer, les goumer On met la gomme on les goume Jveux être connu comme un Salam Aleykum On vient tout gâter, là cest cerise sur lgâteau Jviens tout emballer, tiens ça cest cadeau Petite, petite, on veut coller à petite Mais elle a rigolé dton engin tout petit Tu las goumé, elle a pas mal Mais quest-ctu mparles de love ? Elle veut juste des loves, normal tas vu ta ganache ? Elle est pleine de chichis, traîne de chicha en chicha Elle fait la belle, mais elle sent le fish, poisson Les goumer, les goumer, les goumer Sur lgrand-père à Yves on va les goumer Les goumer, les goumer, les goumer Sur lgrand-père à Yves on va les goumer Elle, on va la goumer, lui, on va le goumer Eux, on va les goumer Les goumer, les goumer, les goumer On va vous goumer Skyrock, on va vous goumer Skyrock, on va vous goumer Un-trois-cinq on va vous goumer Hors-Ligne, Hors-Ligne Et merci bien Hors-Ligne Et merci On va les goumestre hein On va les goumestre hein Ouais ouais Mehdiyz135 sur Instagram Abonne-toi, abonne-toi Des frissons, des frissons, la prison, les missions Les tés-ci, les Mama et leurs visions Imbécile on vise haut, imbécile on vise haut On a tout tenté nous on fonce dans ltas On préfère tplanter, fuck le full contact Même les payots dMarseille font des cambus gantés Arah, cest le cri du guetteur Linspecteur en Clio, lgérant en gros moteur Arah, ils sont venus à vingt-deux Fais fumer le 22, jsuis devant lbloc 22 Arah, jsuis calé sur lsynthé Font les voyous, vitres teintées Sur ma mère cest des dingues Eh, Mandela comme Nelson Mon ami pour une somme, ya pas one ça tassomme Arah, jai des amis Uber Qui rendent service très tard, jappelle ça des Ub'zer Et lève toi vite dla photo Jsuis avec mes potos, on a vieilli trop tôt Jraconte ma life à personne, toi tes bon quà parler Tu répètes cquil a dit Moi jte dis quon ma dit que cest une folle ta gadji Arah, moi du malheur jsuis lassé Les shmitts chassent, alors jresserre mes lacets Arah, et nos Mamans deviennent pâles Comme une fleur sans pétale, comme le monde sans pétrole On fait pas une guerre seul Dis pas qutas besoin de personne, personne senterre seul Moi jcroque la vie à pleines dents Jen connais quont des dons et qui se sont mis dedans Moi jfais mes courses à lalim Elle elle pue de lhaleine et elle me fait la maline Vas-y démarre au starter, cest le bruit du vroum-vroum numero limé dans l'carter Ça fume des blondes à treize piges Un casier de treize pages dans du grand banditisme Ça fume des blondes à treize piges Un casier de treize pages dans du grand banditisme Arah, arah, arah, arah ya les bleus Arah, cest lalerte pas win ya les bleus Arah, cest lalerte pas win ya les bleus Fais genre il taime bien il donne même pas un bleu Elle veut mon Snap mais sur ma mère elle est trop guinte Même en état divresse jpense pas que jlaurais ken Ils critiquent tous, mais sur ma mère jen ricane Du Ricard les supporters boivent, cest des hooligans Oh les gars faudrait penser à se ranger Depuis tout jeune, attiré, tenté par ldanger Jsuis léwé, jai trop bu jtape une miss au gros cul Ça carte fort, ça veut la one one Frérot file le pécule, on sen fout dton vécu Force aux détenus quont pas one Arah, les petits ont grandi si vite Vas-y arrête tes ces-vi on baise dans lHonda Civic On a fait poursuite dans les champs Rien dalléchant, on nest pas des méchants Dans lrespect, jsuis numéro un On fume que des gros pét, on fait du Vélib Jai baisé des gadjis bêtement Sans capuche, boule au ventre à lavortement Gadji jlui dis qujmappelle Raoul Showcase de mahboul, vas-y fais le signe JuL Arah, poursuite, et ouais ça va vite Jai la gigit à jeun, jamais jhésite Il fait lfou au centre commercial jvais ltanker, jfais pas dlart martial On cherche tous un peu des armes Qui a tord, qui a raison, à Marseille cest ldésordre Toi tes quun suceur de bite Raconte pas des rumeurs tes quun suceur de Moi jdonne des sous à ma mère Moi jfais pas la mala, moi jfais pas dmarche arrière Toi, on va tniquer ta mère On a trop bu ce soir, ça part sur un coup dtête Là cest pour Amidou et Fred Comité réduit, gros doigt, on fuck les traîtres Jfume dla beuh jsuis dans le quinzième Jrentre au quartier, direction le cinquième Arah, arah ya les képis Tout lmonde les gars Planète Rap on est àl, arah Planète Rap on est àl, arah Planète Rap on est àl, arah Planète Rap on est àl, arah Planète Rap on est àl, arah Planète Rap on est àl, arah Voilà les hommes Par contre jai des dédicaces moi Et cest bon et merci la zone Et merci Heuss Lenfoiré Et merci bien Bout-en-train, bout-en-train Villeneuve la Garonne Sablier, allez per-cho lalbum de Fianso le 29 aussi Eh ça bouge même pas Non vraiment dans la maison S.T, Heuss, Hek Tout lmonde dans la maison On est ensemble les frères Cest carré, cest carré Eh, jsuis dans Laurent Gerra, eh, eh 9-2-3-9-0 jsuis dans Laurent Gerra et Hélène Segara La que-Ba sest garée, le gérant sest barré XXX dCC en Sebago, jdemande à Zepek Cest pas du gâteau tantôt jsuis dans le wagon Jme fais crever bien avant Mâcon 9-2-3-9 innocent comme Tookie Cro Cop jvisser des low-kicks Mes-gra, lokis, etcetera nique les poukis et les gothiques Heuss lenfoiré dans la boutique Comparer devant la Juge pour des broutilles Jressors innocent, indemne, Vladimir Poutine Cousine, gazinière, coca, résine Jles ai visser gamin visser, hiver, printemps, été, hiver Les ients-cli mont dit tous ci-mer, ci-mer Sans Valérie moi et mon équipe on refait la déco Comme Ze Pequeno, Marlo ou Pablo Esco Au micro cest Heuss là sur la route BX land deuxième round, j'sais combien ça coûte Zine, appelle-moi Ze, tah le Brésil Toujours dans la zone, près dla surface, Mesut Özil Demande à Scott, jrepars dla rue dAscott Les couilles vides et le ventre rempli, assiette scampi Jsuis vraiment chaud dans ces amplis Jcrois qujai pas idée ou tas pas tilté quest-cque jdisais Le A0 cest pas les dessins animés WAllah ya Frank de Villlefranche ils ont pas acquitté Heuss Lenfoiré putain Suarez Eh, cest pas les keufs quont Cest pas les keufs quont fait la prise dans la cave à Soda Les vrais sreconnaîtront cest quune prise de kamasoutra Dailleurs XXX Omar dans The Wire A toujours un pompe sous lbras, malgré quce soit un XXX Jplanifie mes plans comme Marlo, laiguille tinformera XXX Elle veut mes jetons et ma sauce pita Jai tout laissé dans la chatte dAnitta Jrentre chez moi jreste dans lanonymat Dans les cités cest la loca vida Jdemande aux reufs la jungle Africa Cest pas du cinéma, jai que des idées noires Et Heuss Lenfoiré la famille fort, fort, fort Ça bouge même pas Et merci Jul, eh Jul dans la maison ça bouge même pas Et merci à toi le sang Ç bouge même pas on est ensemble le frère Ça fait plaisir Et faites un maximum de bruit pour Heuss Et merci bien la zone, merci bien le frangin Ok, ok Jsuis à deux doigts, de leur dire cque je pense Dinsulter tous ceux qui mont fait des coups de crasse je vous oublie pas Ya dquoi péter un boulon, ya dquoi serrer sur ccoup-là Juge pas le mec à sa couleur, parle pas de moi quand jsuis plus là Pendant quça investit dans la guerre, moi jveux investir dans la pierre Jfais des aquariums dans lappart, et jfais des boulettes par terre Jsuis à deux doigts de tous vous oublier Yen a pas beaucoup qui mappellent Yen a pas beaucoup qui viennent me sonner Cest bien, au moins maintenant jvois comment vous fonctionnez Jme sens comme Tony devant son pote en train dsfaire tronçonner Jsuis à deux doigts de venir te parler, mais bon pour mo Cest toi qui tes manqué, cest toi qui doit venir mparler Foutez-moi la paix, jfume le calumet, jfais qule rallumer Jsuis à des années lumière dans la Voix Lactée Jsuis à deux doigts de prendre mon RS3, dfaire tout droit Mais bon il reste quatre mois et pour Azzedine jespère aussi Jfais attention à mon pote même si je sens quil maime bien Jdéveloppe mes cinq sens, the sentinelle Jsuis à deux doigts darrêter le shit De faire en sorte de gérer ma carrière, de mpréparer à la chute Certains mont déçu, déçu, tout ça pour des sous le sang Tes dans la merde, ça sest su, jespère quça tservira dleçon Jsuis à deux doigts de tout laisser, tout quitter Mais à chaque fois jrelance quand jvois la France danser sur Tchikita On mdit Quest-ctas ? Tes fané, jréponds ça ma scanné Donne pas le go, donne pas le go, Genaro Savastano Cest pour les petits en et les grands dans lAudi A3 Attends ya trop dsalopes, pas maintenant jte dis après Le cur balafré, jsuis à deux doigts de croire que cest pas vrai Elle était belle, elle ta plus, tu devais la revoir, ça sest pas fait Et jsuis pas fou, pour faire la star moi jsuis pas fait Jai gaffé cest humain et après tout personne nest parfait Jsuis à deux doigts de macheter un arsenal Parcque les connards se mêlent, me jugent à mon survêt dArsenal Cest infernal, bâtard, toi taimes faire mal À cquil paraît toi tu skies mais pas que pendant les périodes hivernales Jsuis à deux doigts dfaire un gros doigt aux poulets Tinquiète jai besoin ddégun mais touche la famille jdirai troue-les Jvoulais vous dire que je suis cool mais dites-moi le si je coule Que jai pris un coup et que je soule ouais Jsuis à deux doigts de devenir insolent Faut qujme taille voir lsoleil parcquici ya rien de passionnant Émotionnel, jmalcoolise cest occasionnel Jveux pas finir comme John Lennon, mourir dun crime passionnel Seul face au maire, jassume mes erreurs, comme un bon qui balance pas Des fois jsuis déboussolé comme ce jeune suivi par XXX Jétais à deux doigts dtout niquer, on sest fait péter broliqués Des fois les shmits veulent à manger comme un chien veut ses Frolic Jétais à deux doigts de percer au foot Jai vu trop djalousie, ça ma dégouté, jen avais plus rien à foutre Jnai jamais crié à laide, même quand jnavais plus rien à mmettre Mon quartier cest trois chiffres, moi cest lrappeur à trois lettres Sous boucan jai fumé trois lattes, jétais pas bien jai bu trois litres Jaime bien lbruit du 3 litres 2, quand elles sont teintées les vitres Jétais à deux doigts dpasser la troisième en lair Mais jbloque en deux, et jvoulais vous dire jai ralenti la beuh Jai pas besoin deux, jfais tout seul jsuis en indé Certains diront qujferai pas long feu Mais jleur souhaite quand même meilleurs vux Jétais à deux doigts de changer de vie Frérot jsuis trop cramé ça servirait à rien dchanger de ville Oui, jai des problèmes de vie, oui, jai des problèmes de vue Sois attentif quand je me fie, qui cest le traître ? Bah devine Jai lboucan, jsuis à deux doigts daller toucher Elle te touche le paquet, jcrois quelle veut sfaire enfourcher Tu me jures jsuis un loucheur, jlève même si elle est tordu la fourche Jrappe pour ceux qui zont pas win pour mettre lessence alors ça pousse Quand tas poussé, ça yest tas des couilles, la barbe a poussé Tes voulu lui faire un boussa, dla bouche elle sentait Sambuca Et tas toussé, quand tu as fumé ta moula Et arrête de faire des pers, fais tourner, fais vourra Jsuis à deux doigts de faire ma chambre en disques dor À dire qujai cinq albums, jsuis à deux doigts dfaire rupter ldisque dur Jregarde Top Boy, jfume un dix et jdors Faut quje creuse moi jévite les shtars Jme fais rare et jdors, jmen fous dêtre une star Jétais à deux doigts dattraper un fou rire Quand les shmitts sest rayave tellement jnarrivais plus à courir Jai une famille à nourrir, cest pour ça qujme couche à laurore Et on mdit à loreille que tas pas respecté lhoraire Le travail cest la clef, largent cest la classe Toi tu fais le clown au fond dla classe Tu sens qutu glisses quand tu tvois dans la glace Tu fais lcon avec ta go, tu tfais passer pour un mec dla tess Tu pistes pas le tableau, tu préférais pister lboule de la maîtresse Commission rogatoire, fais gaffe lenquêteur tsuit à la trace Il voit avec qui tu traînes, il tsuit partout, il repère tes adresses Dans lsecteur, cest bizarre, fais gaffe à qui tu tadresses Jétais à deux doigts de croire qutu travaillais pour les Tres Puntos Les jeunes sont fous se croient dans Counter Strike Chez moi faire du son cest dlart ouais cest tout un style Ça fait longtemps quma mère dans mes bras jlai pas serrée Vous mmanquez mes potes incarcérés La Juge vous a pas manqué mais vous sortirez tôt ou tard cest rien Jsuis à deux doigts, jsuis à deux doigts Jsuis à deux doigts, de faire des conneries Jsuis à deux doigts, de mtailler loin dici Jsuis à deux doigts, de venir tvoir, jentends des choses Jsuis à deux doigts, daller macheter un flash Jsuis à deux doigts, de fouetter les lâches Jsuis à deux doigts, dsavoir si tes un vrai Jsuis à deux doigts, de savoir si tes un traître Jsuis à deux doigts, de fumer un gros pét Jsuis à deux doigts, mais jpeux pas les petits mregardent Jsuis à deux doigts, de mtailler loin dici Jsuis à deux doigts, de venir tvoir, jentends des choses Jsuis à deux doigts, daller macheter un flash Jsuis à deux doigts, de fouetter les lâches Jsuis à deux doigts, de savoir si tes un vrai Jsuis à deux doigts, de savoir si tes un traître Grosse dédicace à ma mère que jaime et à mon frère que jaime aussi Grosse dédicace à Hocine et Azzedine Grosse à toutes les prisons Baumettes, Luynes, Salon, Pontet Grosse dédicace à vous Une grosse dédicace pour Keke Kelum de la Viste, Baisé de la Castellane Malo, Hamza de Saint GiIlles, Nono au cachot Et grosse dédi pour Caporal Garcia, Salons Bâtiment B et merci bien la zone</t>
+          <t>Tout lmonde, tout lmonde, tout lmonde Ça fait des dingueries pour des euros dans la ville Ça fait des dingueries pour des euros dans la ville Ça fait des dingueries pour des euros dans la ville Ça fait des dingueries pour des euros dans la ville Askip, on refait le monde avec des si Ouais, on veut tous se refaire à la té-ci Venus tout péter, pas du tout indécis Restez tous forts, des Baumettes à Bois dArcy Pas les mêmes potos debout et par terre À ce moment-là tu vois cest qui tes vrais frères Je sais que tu serres que tas pas à ten faire Dêtre solo si touvres les yeux grand frère Tu parles de moi jte vois vaffanculo Bats les couilles jsuis là jai le puro Ça tlève ton teum-teum au culot Culot, culot, culot enculé Tas parlé de moi enculé ? Viens me voir je suis en face enculé Dans ton coin tu râles enculé Regarde-toi dans la glace enculé On na pas bougé, ça voulait te XXX Tas volé avec nous, rien de plus Là-bas ouais vers larrêt dbus Jte respecte tes chaud en plus, brefons Jarrive comme une claquette sur le font, une gifle de ton daron Tiens-toi à carreau, toujours préparé, comme un petit filou Jai le flow qui tape, jai le flow dAlaba Les clients tu rabats, les kilos dans lappart, la frappe ça rapporte Je passe les rapports, TB sur le Vieux Port, ya les civ cest trop tard Petite poursuite, tas pris la fuite, est-cquils tauront tôt ou tard ? Na na na eh oh, tas le monstre tu me ris au nez Na na na eh oh, dans la zone côté passager Na na na eh oh, partout ça sillonnait x3 Ça fait des dingueries pour des euros dans la ville Ça fait des dingueries pour des euros dans la ville Ça fait des dingueries pour des euros dans la ville Ça fait des dingueries pour des euros dans la ville Et merci bien Moubarak Mouba, Mouba Merci à tous ceux qui nous écoutent hein Et merci bien Chaud Ce mec de la rue Ce mec de la rue Ce mec de la rue Gros classique Écoute Ce mec de la rue, écoute Jte parle de ce mec dla rue qui prend sa teille et son morceau Au lieu quil sort à jeun de chez lui à la chaud Il a déjà fait le go, peut-être arraché ganté Braqué, il est discret et on sait pas trop ce quil fait Il aime trop se poser au quartier Avec les potos partir en fou rire et sclasher Si ya un problème il va pas se cacher Ça dit quil est chargé, prêt, kalashé Ce mec, il aime bien les miss Il fait des tours, il cherche Alice pour quça puisse La ramener entre deux voitures ou la ramener à Ibis Quand il faut il est nerveux mais en temps normal il est peace Il veut des sous il veut du cash, il tle dis cash Cest réel il a faim il veut pas qulavenir le couche Sur un salaire de misère même pas il crache Il règle ses soucis quand en bas ça cloche Déçus par certains, déçus par certains Des fois il vers des larmes le soir, lumière éteinte Il reste fort, il le dit à dégun, pour sa mère gros, il a béguin En cmoment il gamberge trop, il veut monter sur un coup, très chaud Il veut tous les quer-cho, quand il a rien dans la poche il voit personne Tu peux le voir à pieds, en Scooter ou en Clio 2 Des fois il a la haine, il veut en griller deux Un kilo de jaloux, et de faux dans le dos Il serre jcrois bien quil veut sortir le métaux Il taide au maximum, il a bon cur Toujours déterminer tu vas pas avoir peur Tranquille dans son coin il fait pas le frappeur Aussi il aime pas les agrippeurs Calé au bar ou dans son zoo-zoo Il emboucane aucun petit à faire des sous,-sous Il voit des petits raser les murs, faire le tour- tour Vers les liasses il court-court Il a pas envie dcouler Pour éviter une frappe il sait quil doit sgrouiller Pas voir voir des potos couiller Putain il a fini écoute jsais qutu connais Jsais qutu connais x2 Ce soir ça va pas, il sretrouve seul-seul Nuit blanche il attend le sun-sun Il a vu plein de proches dans le cercueil Il se sent seul XXX et la Merco Eh gros, il dit quil a les crocs, quici cest trop Lessentiel cest dassumer, interdit dêtre lâche Va-t-il rester ou bien prendre le large ? Il voit des frères entrer, il doit serrer, missionner Cest la loi du quartier, ça va parachuter En bas de ta maison ou en bas de ta tour Tu lsais que cest chacun son tour Tu lsais que cest chacun son tour x3 Ce mec de la rue, il évite les faux Tu laimes avec ses défauts Il est là pour toi quand il faut Ce mec de la rue, il aime pas la polizia Chez toi pour faire une razzia Ce mec de la rue, ce mec de la rue Ce mec de la rue, ce mec de la rue Ce mec de la rue, ce mec de la rue Ce mec de la rue, ce mec de la rue Il aime pas la polizia Ce mec de la rue, ce mec de la rue Chez toi pour faire une razzia Ce mec de la rue, ce mec de la rue Merci beaucoup, merci à Jul Merci à tous ceux qui écoutent, merci à Skyrock Merci à tout lmonde, merci à tout le quartier Et merci la zone hein Merci ça fait plaisir Classique hein, un petit classique Moubzer À Norey, Norey Ok, ya du niveau dans la zone tas capté ? Treize-cinq zoo, ok Ça fait Cest pas une promenade quon fait quand on sretrouve gantés Avec mes brigantés ya, sur peu dgens jpeux compter Cest ma vie qujraconte et cest pas celle de Conte Trop peu de gens sont là quand tas besoin deux Ils sont bons quà sucer pour venir prendre le vingt-deux On a la haine gros et on la pas quun peu Quils ne croient pas qujai besoin parcque je nai pas besoin deux Et puis jen rallume un dbeuh, pépère posé dans ma cité Personne ma incité, jme suis mis à voler parcque tout ça mexcitait Des textes jvais réciter, en tous cas jessaye de mappliquer La musique ma piqué, 22 long rifle pour répliquer Et fils de pute dans mon dos Jentends qutu parles de moi de toute façon jte vois venir Et jcrois qujvais arrêter lalcool jpense que ce sera mieux pour avenir XXX et contresens dans lavenue Pétage de porte pour augmenter les revenus Quand vous verrez cque jsuis devenu les gars un peu dfierté et de retenue La seule chose à retenir de mes textes cest que les vrais ils sont reconnus Et autour de moi ya toujours des inconnus Merci mes potos qui sont là depuis le début Merci les mauvais com et les fils de pute Sans effort que lon vise le but, ouais On est pt-être débiles et à laffût des billets Si tas un plan poto on arrive outillé Parler parler pour rien on lfait même pas quillé Lève-toi du milieu, rabta jpeux te killer La rime dégoupillée jla lance dans ltas elle touche tout lmonde Et si tu me dis pourquoi tu les écoutes plus ? Parcque jsais que tous mentent Dans la zone ya des talents cachés, yas des talents gâchés Dautres, doigt sur la gâchette, prêts à agir si tu comptes les fâcher Et pour les fachos, en toute franchise Jvous baise, jtiens à cque vous lsachiez Faites gaffes aux faux traîtres, ils XXX mettre en sachet Ta tête et ton corps ils peuvent aussi yaller Retrouvés dans un sac ils seront signalés Allez vous cacher jsuis avec tous mes tarés Elle a pas changé depuis tant dannées Léquipe a pas changé depuis tant dannées, ça fait Depuis petits on traîne en bas des blocs, devant les portes, sale époque Jsuis dans lzoo accompagné de la miss et tous mes potes On en a marre de voir les shmitts galérer cest pas des LOL Les gars ça pète XXX tout lHexagone Ah les gars, on sarrête là hein Et merci bien Norey Norey, Norey, Norey, Norey, Norey Et merci bien Et merci Badjoe Tu parles trop mais rien à foutre Docteur Badjologue, Ba-Ba-Ba-Badjoe Ça fait Tu parles trop mais rien à foutre On a les crocs mais rien à foutre Jveux men sortir, lreste rien à foutre Rien à, rien à, rien à, rien à, rien à foutre Rien à rien à foutre Ok tout lmonde x2 Tu parles trop mais rien à foutre On a les crocs mais rien à foutre Jveux men sortir, lreste rien à foutre Les jaloux ouais rien à foutre Rien à, rien à, rien à, rien à, rien à foutre Rien à, rien à, rien à, rien à, rien à foutre Rien à, rien à, rien à, rien à, rien à foutre Rien à, rien à foutre, rien à, rien à foutre Ok, jfais cque jai a faire léquipe, pour linstant confiance est llée-gri Plus rien nest parfait, jviens dcroiser lbonheur en béquilles Jveux pas dtes conseils, non, jte respecte mais tu nes guignol Tattends dsavoir cque pensent les gens pour avoir un opinion On bosse dure, ça na pas changé, la routine nous fait galérer Toujours déter joublie pas les frères, 135 petit comité Cque tu penses mest égal Jsuis dans lombre, bien loin à lécart-cart On veut tout de suite, jvais pas faire plus de détail Cest la catastrophe ouais cest la catastrophe Les gens toublient, les gens te zappent après ils frappent à ta porte Cest la catastrophe ouais cest la catastrophe Ce que je XXX pas mais jte fais pour la daronne x2 Tu parles trop mais rien à foutre On a les crocs mais rien à foutre Jveux men sortir, lreste rien à foutre Les jaloux ouais rien à foutre Rien à, rien à, rien à, rien à, rien à foutre Rien à, rien à, rien à, rien à, rien à foutre Rien à, rien à, rien à, rien à, rien à foutre Rien à, rien à foutre, rien à, rien à foutre Yeah ok, ces hypocrites sont plus les mêmes pour du liquide Fais tes bails tout en scred-scred comme team anonyme Ici plus rien à perdre, mon père est déjà à lagonie Jai vu ce petit quitter lécole, ce petit péter quelques portes Ces petits frapper du décor, tou-toujours fidèles au poste Ce petit quen fait des tonnes, à la recherche dor Trop dambition, et ce petit quest en taule Business après business cest dur pour lui ddire basta À quoi ça sert quon parle ? Il faut quon staille Fuck la nana, elles font semblant dêtre malades Lépoque javance on est là, demande à Amada x2 Tu parles trop mais rien à foutre On a les crocs mais rien à foutre Jveux men sortir, lreste rien à foutre Les jaloux ouais rien à foutre x2 Rien à, rien à, rien à, rien à, rien à foutre Rien à, rien à, rien à, rien à, rien à foutre Rien à, rien à, rien à, rien à, rien à foutre Rien à, rien à foutre, rien à, rien à foutre Jpars en impro, jen ai rien à foutre Jpars en impro-pro, jen ai rien à foutre En direct de Skyrock, rien à, rien à foutre Merci le J, J, rien à, rien à foutre Ya trop de pu, pu, rien à, rien à foutre Linspi continue on arrive et oui ya a rien à foutre XXX, les traîtres allez vous faire foutre Merci, merci Et merci bien Badjoe hein Merci la zone La Puenta, et merci Et merci bien Badjoe Et vous êtes chauds ou pas ? Et merci Hors-Ligne Jsuis pas un gamin donc fais pas la gamine Pose ton cul sur lVespa car jai pas de gamos Là cest le burro, tester qui pourrait ? Allez remballez, remballez vos rappeurs tout pourris Embrouille tu courais On dirait tas taffé toute ta vie à Courir Le flow est chromé, on a les crocs miss On veut juste goumer ne crois pas nos promesses Elle fait la folle on va la goumer Il fait le fou on va le goumer La concu on va la goumer La sique-mu on va la goumer Un-trois-cinq on va vous goumer Les goumer, les goumer Les goumer, les goumer Les goumer, les goumer Les goumer, les goumer, les goumer Sur lgrand-père à Yves on va les goumer Les goumer, les goumer, les goumer Sur lgrand-père à Yves on va les goumer Les goumer, les goumer, les goumer Sur lgrand-père à Yves on va les goumer Elle, on va la goumer, lui, on va le goumer Eux, on va les goumer Les goumer, les goumer, les goumer 1-3-5 carats, tas beau être paro Tout lmonde est paro donc surveille ta parole Surveille ta parole, ils ont tous la rage pourtant jfais que rimer Putain cest chaud comme faire la bise à Jack Daniels XXX, elle fait la fraîche mais meskin, ses orteils font d'la muscu On va te goumer On vient pour tout prendre sur lgrand-père à Yves On est trop gourmands Le videur il ta recale, il a parlé dla daronne Il a touché le petit reuf, il a mangé toutes tes frites Les goumer, les goumer, les goumer Sur lgrand-père à Yves on va les goumer Les goumer, les goumer, les goumer Sur lgrand-père à Yves on va les goumer Elle, on va la goumer, lui, on va le goumer Eux, on va les goumer Les goumer, les goumer, les goumer On met la gomme on les goume Jveux être connu comme un Salam Aleykum On vient tout gâter, là cest cerise sur lgâteau Jviens tout emballer, tiens ça cest cadeau Petite, petite, on veut coller à petite Mais elle a rigolé dton engin tout petit Tu las goumé, elle a pas mal Mais quest-ctu mparles de love ? Elle veut juste des loves, normal tas vu ta ganache ? Elle est pleine de chichis, traîne de chicha en chicha Elle fait la belle, mais elle sent le fish, poisson Les goumer, les goumer, les goumer Sur lgrand-père à Yves on va les goumer Les goumer, les goumer, les goumer Sur lgrand-père à Yves on va les goumer Elle, on va la goumer, lui, on va le goumer Eux, on va les goumer Les goumer, les goumer, les goumer On va vous goumer Skyrock, on va vous goumer Skyrock, on va vous goumer Un-trois-cinq on va vous goumer Hors-Ligne, Hors-Ligne Et merci bien Hors-Ligne Et merci On va les goumestre hein On va les goumestre hein Ouais ouais Mehdiyz135 sur Instagram Abonne-toi, abonne-toi Des frissons, des frissons, la prison, les missions Les tés-ci, les Mama et leurs visions Imbécile on vise haut, imbécile on vise haut On a tout tenté nous on fonce dans ltas On préfère tplanter, fuck le full contact Même les payots dMarseille font des cambus gantés Arah, cest le cri du guetteur Linspecteur en Clio, lgérant en gros moteur Arah, ils sont venus à vingt-deux Fais fumer le 22, jsuis devant lbloc 22 Arah, jsuis calé sur lsynthé Font les voyous, vitres teintées Sur ma mère cest des dingues Eh, Mandela comme Nelson Mon ami pour une somme, ya pas one ça tassomme Arah, jai des amis Uber Qui rendent service très tard, jappelle ça des Ub'zer Et lève toi vite dla photo Jsuis avec mes potos, on a vieilli trop tôt Jraconte ma life à personne, toi tes bon quà parler Tu répètes cquil a dit Moi jte dis quon ma dit que cest une folle ta gadji Arah, moi du malheur jsuis lassé Les shmitts chassent, alors jresserre mes lacets Arah, et nos Mamans deviennent pâles Comme une fleur sans pétale, comme le monde sans pétrole On fait pas une guerre seul Dis pas qutas besoin de personne, personne senterre seul Moi jcroque la vie à pleines dents Jen connais quont des dons et qui se sont mis dedans Moi jfais mes courses à lalim Elle elle pue de lhaleine et elle me fait la maline Vas-y démarre au starter, cest le bruit du vroum-vroum numero limé dans l'carter Ça fume des blondes à treize piges Un casier de treize pages dans du grand banditisme Ça fume des blondes à treize piges Un casier de treize pages dans du grand banditisme Arah, arah, arah, arah ya les bleus Arah, cest lalerte pas win ya les bleus Arah, cest lalerte pas win ya les bleus Fais genre il taime bien il donne même pas un bleu Elle veut mon Snap mais sur ma mère elle est trop guinte Même en état divresse jpense pas que jlaurais ken Ils critiquent tous, mais sur ma mère jen ricane Du Ricard les supporters boivent, cest des hooligans Oh les gars faudrait penser à se ranger Depuis tout jeune, attiré, tenté par ldanger Jsuis léwé, jai trop bu jtape une miss au gros cul Ça carte fort, ça veut la one one Frérot file le pécule, on sen fout dton vécu Force aux détenus quont pas one Arah, les petits ont grandi si vite Vas-y arrête tes ces-vi on baise dans lHonda Civic On a fait poursuite dans les champs Rien dalléchant, on nest pas des méchants Dans lrespect, jsuis numéro un On fume que des gros pét, on fait du Vélib Jai baisé des gadjis bêtement Sans capuche, boule au ventre à lavortement Gadji jlui dis qujmappelle Raoul Showcase de mahboul, vas-y fais le signe JuL Arah, poursuite, et ouais ça va vite Jai la gigit à jeun, jamais jhésite Il fait lfou au centre commercial jvais ltanker, jfais pas dlart martial On cherche tous un peu des armes Qui a tord, qui a raison, à Marseille cest ldésordre Toi tes quun suceur de bite Raconte pas des rumeurs tes quun suceur de Moi jdonne des sous à ma mère Moi jfais pas la mala, moi jfais pas dmarche arrière Toi, on va tniquer ta mère On a trop bu ce soir, ça part sur un coup dtête Là cest pour Amidou et Fred Comité réduit, gros doigt, on fuck les traîtres Jfume dla beuh jsuis dans le quinzième Jrentre au quartier, direction le cinquième Arah, arah ya les képis Tout lmonde les gars Planète Rap on est àl, arah Planète Rap on est àl, arah Planète Rap on est àl, arah Planète Rap on est àl, arah Planète Rap on est àl, arah Planète Rap on est àl, arah Voilà les hommes Par contre jai des dédicaces moi Et cest bon et merci la zone Et merci Heuss Lenfoiré Et merci bien Bout-en-train, bout-en-train Villeneuve la Garonne Sablier, allez per-cho lalbum de Fianso le 29 aussi Eh ça bouge même pas Non vraiment dans la maison S.T, Heuss, Hek Tout lmonde dans la maison On est ensemble les frères Cest carré, cest carré Eh, jsuis dans Laurent Gerra, eh, eh 9-2-3-9-0 jsuis dans Laurent Gerra et Hélène Segara La que-Ba sest garée, le gérant sest barré XXX dCC en Sebago, jdemande à Zepek Cest pas du gâteau tantôt jsuis dans le wagon Jme fais crever bien avant Mâcon 9-2-3-9 innocent comme Tookie Cro Cop jvisser des low-kicks Mes-gra, lokis, etcetera nique les poukis et les gothiques Heuss lenfoiré dans la boutique Comparer devant la Juge pour des broutilles Jressors innocent, indemne, Vladimir Poutine Cousine, gazinière, coca, résine Jles ai visser gamin visser, hiver, printemps, été, hiver Les ients-cli mont dit tous ci-mer, ci-mer Sans Valérie moi et mon équipe on refait la déco Comme Ze Pequeno, Marlo ou Pablo Esco Au micro cest Heuss là sur la route BX land deuxième round, j'sais combien ça coûte Zine, appelle-moi Ze, tah le Brésil Toujours dans la zone, près dla surface, Mesut Özil Demande à Scott, jrepars dla rue dAscott Les couilles vides et le ventre rempli, assiette scampi Jsuis vraiment chaud dans ces amplis Jcrois qujai pas idée ou tas pas tilté quest-cque jdisais Le A0 cest pas les dessins animés WAllah ya Frank de Villlefranche ils ont pas acquitté Heuss Lenfoiré putain Suarez Eh, cest pas les keufs quont Cest pas les keufs quont fait la prise dans la cave à Soda Les vrais sreconnaîtront cest quune prise de kamasoutra Dailleurs XXX Omar dans The Wire A toujours un pompe sous lbras, malgré quce soit un XXX Jplanifie mes plans comme Marlo, laiguille tinformera XXX Elle veut mes jetons et ma sauce pita Jai tout laissé dans la chatte dAnitta Jrentre chez moi jreste dans lanonymat Dans les cités cest la loca vida Jdemande aux reufs la jungle Africa Cest pas du cinéma, jai que des idées noires Et Heuss Lenfoiré la famille fort, fort, fort Ça bouge même pas Et merci Jul, eh Jul dans la maison ça bouge même pas Et merci à toi le sang Ç bouge même pas on est ensemble le frère Ça fait plaisir Et faites un maximum de bruit pour Heuss Et merci bien la zone, merci bien le frangin Ok, ok Jsuis à deux doigts, de leur dire cque je pense Dinsulter tous ceux qui mont fait des coups de crasse je vous oublie pas Ya dquoi péter un boulon, ya dquoi serrer sur ccoup-là Juge pas le mec à sa couleur, parle pas de moi quand jsuis plus là Pendant quça investit dans la guerre, moi jveux investir dans la pierre Jfais des aquariums dans lappart, et jfais des boulettes par terre Jsuis à deux doigts de tous vous oublier Yen a pas beaucoup qui mappellent Yen a pas beaucoup qui viennent me sonner Cest bien, au moins maintenant jvois comment vous fonctionnez Jme sens comme Tony devant son pote en train dsfaire tronçonner Jsuis à deux doigts de venir te parler, mais bon pour mo Cest toi qui tes manqué, cest toi qui doit venir mparler Foutez-moi la paix, jfume le calumet, jfais qule rallumer Jsuis à des années lumière dans la Voix Lactée Jsuis à deux doigts de prendre mon RS3, dfaire tout droit Mais bon il reste quatre mois et pour Azzedine jespère aussi Jfais attention à mon pote même si je sens quil maime bien Jdéveloppe mes cinq sens, the sentinelle Jsuis à deux doigts darrêter le shit De faire en sorte de gérer ma carrière, de mpréparer à la chute Certains mont déçu, déçu, tout ça pour des sous le sang Tes dans la merde, ça sest su, jespère quça tservira dleçon Jsuis à deux doigts de tout laisser, tout quitter Mais à chaque fois jrelance quand jvois la France danser sur Tchikita On mdit Quest-ctas ? Tes fané, jréponds ça ma scanné Donne pas le go, donne pas le go, Genaro Savastano Cest pour les petits en et les grands dans lAudi A3 Attends ya trop dsalopes, pas maintenant jte dis après Le cur balafré, jsuis à deux doigts de croire que cest pas vrai Elle était belle, elle ta plus, tu devais la revoir, ça sest pas fait Et jsuis pas fou, pour faire la star moi jsuis pas fait Jai gaffé cest humain et après tout personne nest parfait Jsuis à deux doigts de macheter un arsenal Parcque les connards se mêlent, me jugent à mon survêt dArsenal Cest infernal, bâtard, toi taimes faire mal À cquil paraît toi tu skies mais pas que pendant les périodes hivernales Jsuis à deux doigts dfaire un gros doigt aux poulets Tinquiète jai besoin ddégun mais touche la famille jdirai troue-les Jvoulais vous dire que je suis cool mais dites-moi le si je coule Que jai pris un coup et que je soule ouais Jsuis à deux doigts de devenir insolent Faut qujme taille voir lsoleil parcquici ya rien de passionnant Émotionnel, jmalcoolise cest occasionnel Jveux pas finir comme John Lennon, mourir dun crime passionnel Seul face au maire, jassume mes erreurs, comme un bon qui balance pas Des fois jsuis déboussolé comme ce jeune suivi par XXX Jétais à deux doigts dtout niquer, on sest fait péter broliqués Des fois les shmits veulent à manger comme un chien veut ses Frolic Jétais à deux doigts de percer au foot Jai vu trop djalousie, ça ma dégouté, jen avais plus rien à foutre Jnai jamais crié à laide, même quand jnavais plus rien à mmettre Mon quartier cest trois chiffres, moi cest lrappeur à trois lettres Sous boucan jai fumé trois lattes, jétais pas bien jai bu trois litres Jaime bien lbruit du 3 litres 2, quand elles sont teintées les vitres Jétais à deux doigts dpasser la troisième en lair Mais jbloque en deux, et jvoulais vous dire jai ralenti la beuh Jai pas besoin deux, jfais tout seul jsuis en indé Certains diront qujferai pas long feu Mais jleur souhaite quand même meilleurs vux Jétais à deux doigts de changer de vie Frérot jsuis trop cramé ça servirait à rien dchanger de ville Oui, jai des problèmes de vie, oui, jai des problèmes de vue Sois attentif quand je me fie, qui cest le traître ? Bah devine Jai lboucan, jsuis à deux doigts daller toucher Elle te touche le paquet, jcrois quelle veut sfaire enfourcher Tu me jures jsuis un loucheur, jlève même si elle est tordu la fourche Jrappe pour ceux qui zont pas win pour mettre lessence alors ça pousse Quand tas poussé, ça yest tas des couilles, la barbe a poussé Tes voulu lui faire un boussa, dla bouche elle sentait Sambuca Et tas toussé, quand tu as fumé ta moula Et arrête de faire des pers, fais tourner, fais vourra Jsuis à deux doigts de faire ma chambre en disques dor À dire qujai cinq albums, jsuis à deux doigts dfaire rupter ldisque dur Jregarde Top Boy, jfume un dix et jdors Faut quje creuse moi jévite les shtars Jme fais rare et jdors, jmen fous dêtre une star Jétais à deux doigts dattraper un fou rire Quand les shmitts sest rayave tellement jnarrivais plus à courir Jai une famille à nourrir, cest pour ça qujme couche à laurore Et on mdit à loreille que tas pas respecté lhoraire Le travail cest la clef, largent cest la classe Toi tu fais le clown au fond dla classe Tu sens qutu glisses quand tu tvois dans la glace Tu fais lcon avec ta go, tu tfais passer pour un mec dla tess Tu pistes pas le tableau, tu préférais pister lboule de la maîtresse Commission rogatoire, fais gaffe lenquêteur tsuit à la trace Il voit avec qui tu traînes, il tsuit partout, il repère tes adresses Dans lsecteur, cest bizarre, fais gaffe à qui tu tadresses Jétais à deux doigts de croire qutu travaillais pour les Tres Puntos Les jeunes sont fous se croient dans Counter Strike Chez moi faire du son cest dlart ouais cest tout un style Ça fait longtemps quma mère dans mes bras jlai pas serrée Vous mmanquez mes potes incarcérés La Juge vous a pas manqué mais vous sortirez tôt ou tard cest rien Jsuis à deux doigts, jsuis à deux doigts Jsuis à deux doigts, de faire des conneries Jsuis à deux doigts, de mtailler loin dici Jsuis à deux doigts, de venir tvoir, jentends des choses Jsuis à deux doigts, daller macheter un flash Jsuis à deux doigts, de fouetter les lâches Jsuis à deux doigts, dsavoir si tes un vrai Jsuis à deux doigts, de savoir si tes un traître Jsuis à deux doigts, de fumer un gros pét Jsuis à deux doigts, mais jpeux pas les petits mregardent Jsuis à deux doigts, de mtailler loin dici Jsuis à deux doigts, de venir tvoir, jentends des choses Jsuis à deux doigts, daller macheter un flash Jsuis à deux doigts, de fouetter les lâches Jsuis à deux doigts, de savoir si tes un vrai Jsuis à deux doigts, de savoir si tes un traître Grosse dédicace à ma mère que jaime et à mon frère que jaime aussi Grosse dédicace à Hocine et Azzedine Grosse à toutes les prisons Baumettes, Luynes, Salon, Pontet Grosse dédicace à vous Une grosse dédicace pour Keke Kelum de la Viste, Baisé de la Castellane Malo, Hamza de Saint GiIlles, Nono au cachot Et grosse dédi pour Caporal Garcia, Salons Bâtiment B et merci bien la zone</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Professionnel En mode pro, tu connais Ju-Ju-JuL, Heuss L'enfoiré, hahaha Lacrizeomicmek, ok J'te mets un high kick comme dans Bloodsport J'suis en Audi, j'ai le mode sport Demande à Heuss, j'fais pas l'ganster Ni la grande star, les grands savent s'taire Tu sais pas qu'on a fait des pleins temps J'suis avec le J et on en a pour vingt ans À la Cassel Vincent, on va faire un bain d'sang On va les faire zouker à la Francky Vincent J'ai fait plein d'sous, j'fais pas le trafiquant J'rappe trop, j'rentre chez moi, j'ai les yeux piquants Que des midis-midis, pas de mi-temps Nique sa mère les mythos, ceux qui la jouent Vito La Honda, comico, tout pour Anita C'est l'OVNI au micro, tu connais, inimitable J'me tue au shit oh, dans la zone, y'a cinq étoiles Y'a les képis, les cibles, les tanks et l'hélico' J'me crois dans GTA, pas d'casque, j'ai une étoile Faut qu'on s'barre de là, j'parle chinois, j'fais du cash On fait d'la moula, on s'met khapta sous night On a fait une dinguerie You might also like Six étoiles comme dans GTA Six étoiles comme dans GTA Six étoiles comme dans GTA GTA, six étoiles comme dans GTA Six étoiles comme dans GTA Six étoiles comme dans GTA Six étoiles comme dans GTA Six étoiles comme dans GTA L'esprit vient d'ailleurs, on oublie nos malheurs J'suis Vince dans The Wire, j'suis Tommy dans Power L'esprit vient d'ailleurs, on oublie nos malheurs J'suis Vince dans The Wire, j'suis Tommy dans Power Moulaga, Malaga, non, sois pas maladroit La crème des grands bandits mafia Sicilienne, toujours en esprit Moulaga, Malaga, non, sois pas maladroit La crème des grands bandits mafia Sicilienne, toujours en esprit Anaconda, .44 Magnum, Bill Carson, c'est la zone en personne J'suis avec le J, Dolce ou Kalenji Peur de Dieu, à part ça, vraiment peur de personne On contrôle la zone, j'te présente mon équipe tah les indésirables Intouchable et redoutable, j'ai plaidé non-coupable Heuss L'enfoiré, c'est moi, envoie les dessous d'table Qui fait quoi ? Qui est qui ? Protège ton cul dans la rue du Docteur Pavinski J'leur fais une ong-bak, j'fais mon comeback Temps plein au studio, j'leur fais une 2 Pac J'suis plus là, là, nan, nan, j'suis plus là, là J'crois au bon Dieu comme un Viking croit au Valhalla J'passe en vaisseau, sur l'boulevard Sakakini J'te fais le signe et au feu vert, j'ai patiné J'voulais pas qu'des disques d'or, j'voulais le Ballon d'Or Comme Platini, j'voulais pas finir comme Al Pacino J'me crois dans GTA, pas d'casque, j'ai une étoile Faut qu'on s'barre de là, j'parle chinois, j'fais du cash On fait d'la moula, on s'met khapta sous night On a fait une dinguerie Six étoiles comme dans GTA Six étoiles comme dans GTA Six étoiles comme dans GTA GTA, six étoiles comme dans GTA Six étoiles comme dans GTA Six étoiles comme dans GTA Six étoiles comme dans GTA Six étoiles comme dans GTA</t>
+          <t>Professionnel En mode pro, tu connais Ju-Ju-JuL, Heuss L'enfoiré, hahaha Lacrizeomicmek, ok J'te mets un high kick comme dans Bloodsport J'suis en Audi, j'ai le mode sport Demande à Heuss, j'fais pas l'ganster Ni la grande star, les grands savent s'taire Tu sais pas qu'on a fait des pleins temps J'suis avec le J et on en a pour vingt ans À la Cassel Vincent, on va faire un bain d'sang On va les faire zouker à la Francky Vincent J'ai fait plein d'sous, j'fais pas le trafiquant J'rappe trop, j'rentre chez moi, j'ai les yeux piquants Que des midis-midis, pas de mi-temps Nique sa mère les mythos, ceux qui la jouent Vito La Honda, comico, tout pour Anita C'est l'OVNI au micro, tu connais, inimitable J'me tue au shit oh, dans la zone, y'a cinq étoiles Y'a les képis, les cibles, les tanks et l'hélico' J'me crois dans GTA, pas d'casque, j'ai une étoile Faut qu'on s'barre de là, j'parle chinois, j'fais du cash On fait d'la moula, on s'met khapta sous night On a fait une dinguerie Six étoiles comme dans GTA Six étoiles comme dans GTA Six étoiles comme dans GTA GTA, six étoiles comme dans GTA Six étoiles comme dans GTA Six étoiles comme dans GTA Six étoiles comme dans GTA Six étoiles comme dans GTA L'esprit vient d'ailleurs, on oublie nos malheurs J'suis Vince dans The Wire, j'suis Tommy dans Power L'esprit vient d'ailleurs, on oublie nos malheurs J'suis Vince dans The Wire, j'suis Tommy dans Power Moulaga, Malaga, non, sois pas maladroit La crème des grands bandits mafia Sicilienne, toujours en esprit Moulaga, Malaga, non, sois pas maladroit La crème des grands bandits mafia Sicilienne, toujours en esprit Anaconda, .44 Magnum, Bill Carson, c'est la zone en personne J'suis avec le J, Dolce ou Kalenji Peur de Dieu, à part ça, vraiment peur de personne On contrôle la zone, j'te présente mon équipe tah les indésirables Intouchable et redoutable, j'ai plaidé non-coupable Heuss L'enfoiré, c'est moi, envoie les dessous d'table Qui fait quoi ? Qui est qui ? Protège ton cul dans la rue du Docteur Pavinski J'leur fais une ong-bak, j'fais mon comeback Temps plein au studio, j'leur fais une 2 Pac J'suis plus là, là, nan, nan, j'suis plus là, là J'crois au bon Dieu comme un Viking croit au Valhalla J'passe en vaisseau, sur l'boulevard Sakakini J'te fais le signe et au feu vert, j'ai patiné J'voulais pas qu'des disques d'or, j'voulais le Ballon d'Or Comme Platini, j'voulais pas finir comme Al Pacino J'me crois dans GTA, pas d'casque, j'ai une étoile Faut qu'on s'barre de là, j'parle chinois, j'fais du cash On fait d'la moula, on s'met khapta sous night On a fait une dinguerie Six étoiles comme dans GTA Six étoiles comme dans GTA Six étoiles comme dans GTA GTA, six étoiles comme dans GTA Six étoiles comme dans GTA Six étoiles comme dans GTA Six étoiles comme dans GTA Six étoiles comme dans GTA</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>J'ai ma kich et ma bouteille sur moi Sur moi Mais n'oublie jamais la khapta est stenda Stenda Stenda Yeah, stenda Yeah C'est toi, ma Guccissima, mon seul horizon vertical Bébé, tinquiètes, on a tout notre temps Et si jamais on s'loupe, on reprend comme avant Oh, oh Bébé, t'inquiètes, on a tout notre temps Et s'il n'existe pas, tu perds rien pour attendre, nan J'suis mort au tah, ce soir, je rentre tard Mort au tah Des problèmes, du matin jusqu'au soir J'dois rapper pour ramener des lovés Ramener des lovés Fini lépoque où les méchants nous crevaient Là, jbois du blanc de blancs Et dans les affaires, j'suis à cent pour cent Jfais plus trop la fête, juste de temps en temps Tes copines les putes m'attendent au tournant, au tournant J'ai ma kich' et ma bouteille sur moi Sur moi Mais noublie jamais la khapta est stenda Stenda Stenda Yeah, stenda Yeah C'est toi ma Guccissima, mon seul horizon vertical Bébé, t'inquiètes, on a tout notre temps Et si jamais on s'loupe, on reprend comme avant Oh, oh Bébé, t'inquiètes, on a tout notre temps Et s'il n'existe pas, tu perds rien pour attendre, nan You might also like T'sais qu'j't'aime à la folie, notre sextape, c'est la folie J'ai les effets de la molly, j'prends même pas de la molly Bang, bang, c'est la police Ouais, j'creampie et je all-in J'mets des éclairs dans ses yeux comme Bowie, j'ai les deux miens dans la colline Wow Quand j'ai le nez dans sa plèvre, ouais Qu'on fasse l'amour ou la guerre, aucun des deux camps veut signer la trêve, nan J'porte mes couilles, même en sarouel, ce monde est cruel, ouais, mais bon C'est nous deux contre eux, sept milliards en face, ils sont toujours trop peu nombreux J'ai ma kich' et ma bouteille sur moi Sur moi Mais n'oublie jamais la khapta est stenda Stenda Stenda Yeah, stenda Yeah C'est toi ma Guccissima, mon seul horizon vertical Bébé, t'inquiètes, on a tout notre temps Et si jamais on s'loupe, on reprend comme avant Oh, oh Bébé, t'inquiètes, on a tout notre temps Et s'il n'existe pas, tu perds rien pour attendre, nan C'est la folie, j'raisonne en chemin La monte à trente-cinq, le show à trente points Même si t'es jolie, reviens pas demain Ça dure une nuit, la Saint-Valentin C'est la folie, j'raisonne en chemin La monte à trente-cinq, le show à trente points Même si t'es jolie, reviens pas demain Ça dure une nuit, la Saint-Valentin J'ai ma kich' et ma bouteille sur moi Sur moi Mais n'oublie jamais la khapta est stenda Stenda Stenda Yeah, stenda Yeah C'est toi ma Guccissima, mon seul horizon vertical Bébé, t'inquiètes, on a tout notre temps Et si jamais on s'loupe, on reprend comme avant Oh, oh Bébé, t'inquiètes, on a tout notre temps Et s'il n'existe pas, tu perds rien pour attendre, nan1</t>
+          <t>J'ai ma kich et ma bouteille sur moi Sur moi Mais n'oublie jamais la khapta est stenda Stenda Stenda Yeah, stenda Yeah C'est toi, ma Guccissima, mon seul horizon vertical Bébé, tinquiètes, on a tout notre temps Et si jamais on s'loupe, on reprend comme avant Oh, oh Bébé, t'inquiètes, on a tout notre temps Et s'il n'existe pas, tu perds rien pour attendre, nan J'suis mort au tah, ce soir, je rentre tard Mort au tah Des problèmes, du matin jusqu'au soir J'dois rapper pour ramener des lovés Ramener des lovés Fini lépoque où les méchants nous crevaient Là, jbois du blanc de blancs Et dans les affaires, j'suis à cent pour cent Jfais plus trop la fête, juste de temps en temps Tes copines les putes m'attendent au tournant, au tournant J'ai ma kich' et ma bouteille sur moi Sur moi Mais noublie jamais la khapta est stenda Stenda Stenda Yeah, stenda Yeah C'est toi ma Guccissima, mon seul horizon vertical Bébé, t'inquiètes, on a tout notre temps Et si jamais on s'loupe, on reprend comme avant Oh, oh Bébé, t'inquiètes, on a tout notre temps Et s'il n'existe pas, tu perds rien pour attendre, nan T'sais qu'j't'aime à la folie, notre sextape, c'est la folie J'ai les effets de la molly, j'prends même pas de la molly Bang, bang, c'est la police Ouais, j'creampie et je all-in J'mets des éclairs dans ses yeux comme Bowie, j'ai les deux miens dans la colline Wow Quand j'ai le nez dans sa plèvre, ouais Qu'on fasse l'amour ou la guerre, aucun des deux camps veut signer la trêve, nan J'porte mes couilles, même en sarouel, ce monde est cruel, ouais, mais bon C'est nous deux contre eux, sept milliards en face, ils sont toujours trop peu nombreux J'ai ma kich' et ma bouteille sur moi Sur moi Mais n'oublie jamais la khapta est stenda Stenda Stenda Yeah, stenda Yeah C'est toi ma Guccissima, mon seul horizon vertical Bébé, t'inquiètes, on a tout notre temps Et si jamais on s'loupe, on reprend comme avant Oh, oh Bébé, t'inquiètes, on a tout notre temps Et s'il n'existe pas, tu perds rien pour attendre, nan C'est la folie, j'raisonne en chemin La monte à trente-cinq, le show à trente points Même si t'es jolie, reviens pas demain Ça dure une nuit, la Saint-Valentin C'est la folie, j'raisonne en chemin La monte à trente-cinq, le show à trente points Même si t'es jolie, reviens pas demain Ça dure une nuit, la Saint-Valentin J'ai ma kich' et ma bouteille sur moi Sur moi Mais n'oublie jamais la khapta est stenda Stenda Stenda Yeah, stenda Yeah C'est toi ma Guccissima, mon seul horizon vertical Bébé, t'inquiètes, on a tout notre temps Et si jamais on s'loupe, on reprend comme avant Oh, oh Bébé, t'inquiètes, on a tout notre temps Et s'il n'existe pas, tu perds rien pour attendre, nan1</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Houlou, Heuss l'enfoiré, V.A.L.D, Horizon Vertical Paw, paw, paw, paw, paw, paw, paw, paw Tu m'connais déjà, mon nom, c'est Heusslaga, j'dédicace tous mes gars J'suis toujours amaigri malgré tout c'que j'ai pris Skch, skch, skch, c'est vrai 9.2.3.9.0 sur mon bulletin d'salaire Villeneuve, Gegen, Asnières, on casse toutes les barrières, on t'encule ta grand-mère J'vois c'est laquelle, j'vois t'es dans quel esprit Skch, skch, skch Je n'rêve plus, y a trop de fluor dans le dentifrice Bitch, le mal opère et c'est moi l'scientifique Ouh, scintifique, Scientifique 9.3.6.0.0, figurin, je rentre le bras, c'est pas du fingering Spaw, spaw, spaw Deux fav' sous ton alerte au kidnapping Skch Paris, c'est chaud la nuit, laisse pas traîner ta fille Nan Elle vend sa chatte pour rejoindre ses copines à Ko Samui Ah Les p'tites poucaves, les trahisons, tout ça, c'est pour la vie J'ai beau m'canaliser mais j'suis trop matrixé Viens pas sympathiser, j'ai pas d'BEP, j'ai jamais fait l'lycée Skch J'préférais les cités, d'ailleurs, j'ai pas changé, j'suis toujours excité En plus de ça, j'arrête pas d'l'effriter J'ai beau m'canaliser mais j'suis trop matrixé Viens pas sympathiser, j'ai pas fait beaucoup plus mais j'ai fait l'lycée Ouh oui Donc vive le rap, vive le streaming et vive les tours en bus L'altitude est souvent nulle, la tise est souvent russe You might also like Oublie pas qu'on sort des marécages dans les vraies marées basses Nan, c'est pas Las Vegas, y a plus rien qui m'dépasse Quand j'vois ta 're-s' ou bien ta meuf en train d'faire la pétasse Pétasse Ou que l'poto s'est fait péter dans un maxi pétage Y a même un daron qui s'est jeté du dernier étage Non Tu m'parles de ça, j'reviens d'la gare, un mec s'est jeté sur les rails Dinguerie Au wagon, ça soupirait grave pour la perte de time Quand un SDF est rentré, a dit Messieurs-dames, bonjour Tout l'monde veut t'la mettre, ils font la courte paille Moi, moi, moi, moi, moi, moi, moi, moi Fais plus de gras, pas de tour de taille Eh, merde Ils invitent ta sur graille à Courtepaille Wow J'suis là pour les graille, j'suis là pour le Graal J'ai beau m'canaliser mais j'suis trop matrixé Viens pas sympathiser, j'ai pas d'BEP, j'ai jamais fait l'lycée Skch J'préférais les cités, d'ailleurs, j'ai pas changé, j'suis toujours excité Wouh En plus de ça, j'arrête pas d'l'effriter Eh J'ai beau m'canaliser mais j'suis trop matrixé Viens pas sympathiser, j'ai pas fait beaucoup plus mais j'ai fait l'lycée Skch, skch, skch Donc vive le rap, vive le streaming et vive les tours en bus L'altitude est souvent nulle, la tise est souvent russe J'ai la khapta légère, impossible de 'ber-ger' Appelle ton boss avec le mec qui gère, on va lui faire la guerre Tu joues au con, ça brûle ton bât' avec ta khalti sur le seddari J'prends les résas sur la 'ble-ta' même si t'es fi galbi3</t>
+          <t>Houlou, Heuss l'enfoiré, V.A.L.D, Horizon Vertical Paw, paw, paw, paw, paw, paw, paw, paw Tu m'connais déjà, mon nom, c'est Heusslaga, j'dédicace tous mes gars J'suis toujours amaigri malgré tout c'que j'ai pris Skch, skch, skch, c'est vrai 9.2.3.9.0 sur mon bulletin d'salaire Villeneuve, Gegen, Asnières, on casse toutes les barrières, on t'encule ta grand-mère J'vois c'est laquelle, j'vois t'es dans quel esprit Skch, skch, skch Je n'rêve plus, y a trop de fluor dans le dentifrice Bitch, le mal opère et c'est moi l'scientifique Ouh, scintifique, Scientifique 9.3.6.0.0, figurin, je rentre le bras, c'est pas du fingering Spaw, spaw, spaw Deux fav' sous ton alerte au kidnapping Skch Paris, c'est chaud la nuit, laisse pas traîner ta fille Nan Elle vend sa chatte pour rejoindre ses copines à Ko Samui Ah Les p'tites poucaves, les trahisons, tout ça, c'est pour la vie J'ai beau m'canaliser mais j'suis trop matrixé Viens pas sympathiser, j'ai pas d'BEP, j'ai jamais fait l'lycée Skch J'préférais les cités, d'ailleurs, j'ai pas changé, j'suis toujours excité En plus de ça, j'arrête pas d'l'effriter J'ai beau m'canaliser mais j'suis trop matrixé Viens pas sympathiser, j'ai pas fait beaucoup plus mais j'ai fait l'lycée Ouh oui Donc vive le rap, vive le streaming et vive les tours en bus L'altitude est souvent nulle, la tise est souvent russe Oublie pas qu'on sort des marécages dans les vraies marées basses Nan, c'est pas Las Vegas, y a plus rien qui m'dépasse Quand j'vois ta 're-s' ou bien ta meuf en train d'faire la pétasse Pétasse Ou que l'poto s'est fait péter dans un maxi pétage Y a même un daron qui s'est jeté du dernier étage Non Tu m'parles de ça, j'reviens d'la gare, un mec s'est jeté sur les rails Dinguerie Au wagon, ça soupirait grave pour la perte de time Quand un SDF est rentré, a dit Messieurs-dames, bonjour Tout l'monde veut t'la mettre, ils font la courte paille Moi, moi, moi, moi, moi, moi, moi, moi Fais plus de gras, pas de tour de taille Eh, merde Ils invitent ta sur graille à Courtepaille Wow J'suis là pour les graille, j'suis là pour le Graal J'ai beau m'canaliser mais j'suis trop matrixé Viens pas sympathiser, j'ai pas d'BEP, j'ai jamais fait l'lycée Skch J'préférais les cités, d'ailleurs, j'ai pas changé, j'suis toujours excité Wouh En plus de ça, j'arrête pas d'l'effriter Eh J'ai beau m'canaliser mais j'suis trop matrixé Viens pas sympathiser, j'ai pas fait beaucoup plus mais j'ai fait l'lycée Skch, skch, skch Donc vive le rap, vive le streaming et vive les tours en bus L'altitude est souvent nulle, la tise est souvent russe J'ai la khapta légère, impossible de 'ber-ger' Appelle ton boss avec le mec qui gère, on va lui faire la guerre Tu joues au con, ça brûle ton bât' avec ta khalti sur le seddari J'prends les résas sur la 'ble-ta' même si t'es fi galbi3</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch J'ai du raisin coffré, des grosses rettes-ba De la beuh ta3 Meuda J'demande à JB, consommateur d'amnésia J'me barre au Tibet pour vesqui les 7noucha Ici rien qu'des lances-ba Des micros dans des mouchoirs Les feus-keu s'faufilent comme des cafards Coup d'fil, perquis' dans ton pavtar Heuss L'enfoiré, que des lyrics de bâtard 32 poucaves dans la ve-ca Le petit Mika prend d'la me-ca J'ai vu l'avocat dans un repas 2-3 mmes-gra dans mon Dsquar' 2-3 mmes-gra dans mon Dsquar' 2-3 gueushlas dans un petit square Carlos Gambinos, j'suis quelque part Tu connais déjà la fin d'l'histoire You might also like Quand Toto Riina dort au mitard Les Corleone jouent d'la guitare Quand Toto Riina dort au mitard Les Corleone jouent d'la guitare Carlos Gambinos, j'suis quelque part Carlos Gambinos, j'suis quelque part Quand Toto Riina dort au mitard Les Corleone jouent d'la guitare Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch Le petit revient sur le terrain Plus za3af que la dernière fois Il t'la remise déjà deux fois Plus confiance en qui que ce soit Même ta daronne perd son que-sa Et ta reusseu perd ses peussas T'façon les petits il leur reste que ça Deux trois keustis dans une coche-sa Ils se souviennent de moi comme Okocha Ici sur le rain-té personne peut nous coacher Les grands sont scotchés 2-3 verres de scotch, j'suis dans la rue d'Aerschot Ce morceau est rédigé Pesé comme un 10g, caillou cellophané J'suis déjà programmé Tous les mois, toute l'année, t'façon on est cramés Quand Toto Riina dort au mitard Les Corleone jouent d'la guitare Quand Toto Riina dort au mitard Les Corleone jouent d'la guitare Carlos Gambinos, j'suis quelque part Carlos Gambinos, j'suis quelque part Quand Toto Riina dort au mitard Les Corleone jouent d'la guitare Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch1</t>
+          <t>Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch J'ai du raisin coffré, des grosses rettes-ba De la beuh ta3 Meuda J'demande à JB, consommateur d'amnésia J'me barre au Tibet pour vesqui les 7noucha Ici rien qu'des lances-ba Des micros dans des mouchoirs Les feus-keu s'faufilent comme des cafards Coup d'fil, perquis' dans ton pavtar Heuss L'enfoiré, que des lyrics de bâtard 32 poucaves dans la ve-ca Le petit Mika prend d'la me-ca J'ai vu l'avocat dans un repas 2-3 mmes-gra dans mon Dsquar' 2-3 mmes-gra dans mon Dsquar' 2-3 gueushlas dans un petit square Carlos Gambinos, j'suis quelque part Tu connais déjà la fin d'l'histoire Quand Toto Riina dort au mitard Les Corleone jouent d'la guitare Quand Toto Riina dort au mitard Les Corleone jouent d'la guitare Carlos Gambinos, j'suis quelque part Carlos Gambinos, j'suis quelque part Quand Toto Riina dort au mitard Les Corleone jouent d'la guitare Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch Le petit revient sur le terrain Plus za3af que la dernière fois Il t'la remise déjà deux fois Plus confiance en qui que ce soit Même ta daronne perd son que-sa Et ta reusseu perd ses peussas T'façon les petits il leur reste que ça Deux trois keustis dans une coche-sa Ils se souviennent de moi comme Okocha Ici sur le rain-té personne peut nous coacher Les grands sont scotchés 2-3 verres de scotch, j'suis dans la rue d'Aerschot Ce morceau est rédigé Pesé comme un 10g, caillou cellophané J'suis déjà programmé Tous les mois, toute l'année, t'façon on est cramés Quand Toto Riina dort au mitard Les Corleone jouent d'la guitare Quand Toto Riina dort au mitard Les Corleone jouent d'la guitare Carlos Gambinos, j'suis quelque part Carlos Gambinos, j'suis quelque part Quand Toto Riina dort au mitard Les Corleone jouent d'la guitare Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch Carlos Gambinos, Carlos Gambinos skch, skch1</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Non, y a plus, y a plus d'rock, y a plus d'rockeur, y a plus d'rockeur, faut être honnête, faut être honnête. Il reste qui ? Sois content pour moi, j'fais des lovés Lovés Sois pas jaloux, sois pas mauvais Mauvais Heuss L'enfoiré fea-geat le V Fea-geat, fea-geat Midi-Midi, Echelon Ah, ah La Critical te donne chaud, ah Crois-tu qu'c'est ça, le rock'n'roll ? Faire d'la gratte au studio ? Oh no, no, no On m'a dit Crache pas dans la soupe, c'est trop tard, j'ai d'jà pissé d'dans Oublie pas qu'j'ai pas dix-sept ans, tu connais mes antécédents Chef d'orchestre en survêtement, j'suis toujours aussi surprenant J'arrive, c'est chaud dvant, c'est chaud, les mecs, c'st plus trop comme avant Je sais qu'c'est des jaloux, ils peuvent parler, les gens Si j'avais pas 'té-chan', ils s'raient tous étrangers, ils m'serrent la main mais ils veulent m'étrangler Nan Reste en chien et regarde-moi compter, décapsuler la bouteille de Dom Pé' J'la bois tous seul, tout pour ma gueule, j'suis sûr de pas m'tromper Tu sais, des fois, j'sais plus sur qui compter Skch, skch, skch Mes amis, c'est la famille, y a que sur une main que j'peux les compter Mais à deux doigts d'me découper un doigt pour mieux être entouré Tu m'dis Félicitations mais, fils de pute, moi, j'sais qu't'es dégoûté Tu peux rien faire, tu vas rien faire, tu peux que m'écouter You might also like Mon cousin, c'est encore moi, là, y a mon gars Bantou tah Douala Showcase, concerts, platinum, j'te réponds pas, là, j'suis pas là Mais t'inquiète même pas, j'suis pas loin, j'suis dans ta femme ou chez l'voisin J'prends les patins, c'est moi, j'ché-cra' dans son vagin Ouh, ouh Sois content pour moi, j'fais des lovés Lovés Sois pas jaloux, sois pas mauvais Mauvais Heuss L'enfoiré fea-geat le V Fea-geat, fea-geat Midi-Midi, Echelon Ah, ah La Critical te donne chaud, ah Crois-tu qu'c'est ça, le rock'n'roll ? Faire d'la gratte au studio ? Oh no, no, no Ils m'parlent tous de reconnaissance mais quand le Heuss a bu d'l'essence J'te baise ta meuf, ta 're-s', ta tante, la pute, j'la prends dans tous les sens Avant la moulaga, ces grosses salopes, ils parlaient chinois-ga Ils savent qu'j'ai maillé-gué, j'ai ramassé cette putain d'lise-va'-ga Skch, skch, skch J'entends qu'ils parlent sur moi Hein ?, mais j'dis rien, j'té-comp' ma kichta-ga Paw J'achète du cellophane pour la compresser et puis la 'squer-ma'-ga skch, skch, skch, skch Des fois, j'suis trop paro mais, t'inquiète pas, j'suis pas dans Gomorra J'suis pas Savastano, j'suis plus Totò Riina Un gominé avec des hooligans, comme Grande, ça y est, j'ai grandi J'ai les pec' à Chong Li, j'suis pas Shaggy, j'sais pas chanter T'as vu tout c'que j'enquille, t'façon, moi, j'les encule J'avance jamais sans thunes, Horizon Vertical Dans la cave à vin avec le V, on est bien plus que vingt Tu m'veux dans ta boîte ? J'en veux plus que vingt Demande au S pour compter, il m'faut plus de mains Skch, skch Mon cousin, c'est encore moi, là, y a mon gars Bantou tah Douala Showcase, concerts, platinum, j'te réponds pas, là, j'suis pas là Mais t'inquiète même pas, j'suis pas loin, j'suis dans ta femme ou chez l'voisin J'prends les patins, c'est moi, j'ché-cra' dans son vagin Ouh, ouh Sois content pour moi, j'fais des lovés Lovés Sois pas jaloux, sois pas mauvais Mauvais Heuss L'enfoiré fea-geat le V Fea-geat, fea-geat Midi-Midi, Echelon Ah, ah La Critical te donne chaud, ah Crois-tu qu'c'est ça, le rock'n'roll ? Faire d'la gratte au studio ? Oh no, no, no C'est ça, l'rock. Ah, t'as pas d'famille, t'as même pas d'père. Si ça s'trouve, t'en as jamais eu. Tu peux t'suicider à n'importe quel moment Oh no, no, no Oh no, no, no1</t>
+          <t>Non, y a plus, y a plus d'rock, y a plus d'rockeur, y a plus d'rockeur, faut être honnête, faut être honnête. Il reste qui ? Sois content pour moi, j'fais des lovés Lovés Sois pas jaloux, sois pas mauvais Mauvais Heuss L'enfoiré fea-geat le V Fea-geat, fea-geat Midi-Midi, Echelon Ah, ah La Critical te donne chaud, ah Crois-tu qu'c'est ça, le rock'n'roll ? Faire d'la gratte au studio ? Oh no, no, no On m'a dit Crache pas dans la soupe, c'est trop tard, j'ai d'jà pissé d'dans Oublie pas qu'j'ai pas dix-sept ans, tu connais mes antécédents Chef d'orchestre en survêtement, j'suis toujours aussi surprenant J'arrive, c'est chaud dvant, c'est chaud, les mecs, c'st plus trop comme avant Je sais qu'c'est des jaloux, ils peuvent parler, les gens Si j'avais pas 'té-chan', ils s'raient tous étrangers, ils m'serrent la main mais ils veulent m'étrangler Nan Reste en chien et regarde-moi compter, décapsuler la bouteille de Dom Pé' J'la bois tous seul, tout pour ma gueule, j'suis sûr de pas m'tromper Tu sais, des fois, j'sais plus sur qui compter Skch, skch, skch Mes amis, c'est la famille, y a que sur une main que j'peux les compter Mais à deux doigts d'me découper un doigt pour mieux être entouré Tu m'dis Félicitations mais, fils de pute, moi, j'sais qu't'es dégoûté Tu peux rien faire, tu vas rien faire, tu peux que m'écouter Mon cousin, c'est encore moi, là, y a mon gars Bantou tah Douala Showcase, concerts, platinum, j'te réponds pas, là, j'suis pas là Mais t'inquiète même pas, j'suis pas loin, j'suis dans ta femme ou chez l'voisin J'prends les patins, c'est moi, j'ché-cra' dans son vagin Ouh, ouh Sois content pour moi, j'fais des lovés Lovés Sois pas jaloux, sois pas mauvais Mauvais Heuss L'enfoiré fea-geat le V Fea-geat, fea-geat Midi-Midi, Echelon Ah, ah La Critical te donne chaud, ah Crois-tu qu'c'est ça, le rock'n'roll ? Faire d'la gratte au studio ? Oh no, no, no Ils m'parlent tous de reconnaissance mais quand le Heuss a bu d'l'essence J'te baise ta meuf, ta 're-s', ta tante, la pute, j'la prends dans tous les sens Avant la moulaga, ces grosses salopes, ils parlaient chinois-ga Ils savent qu'j'ai maillé-gué, j'ai ramassé cette putain d'lise-va'-ga Skch, skch, skch J'entends qu'ils parlent sur moi Hein ?, mais j'dis rien, j'té-comp' ma kichta-ga Paw J'achète du cellophane pour la compresser et puis la 'squer-ma'-ga skch, skch, skch, skch Des fois, j'suis trop paro mais, t'inquiète pas, j'suis pas dans Gomorra J'suis pas Savastano, j'suis plus Totò Riina Un gominé avec des hooligans, comme Grande, ça y est, j'ai grandi J'ai les pec' à Chong Li, j'suis pas Shaggy, j'sais pas chanter T'as vu tout c'que j'enquille, t'façon, moi, j'les encule J'avance jamais sans thunes, Horizon Vertical Dans la cave à vin avec le V, on est bien plus que vingt Tu m'veux dans ta boîte ? J'en veux plus que vingt Demande au S pour compter, il m'faut plus de mains Skch, skch Mon cousin, c'est encore moi, là, y a mon gars Bantou tah Douala Showcase, concerts, platinum, j'te réponds pas, là, j'suis pas là Mais t'inquiète même pas, j'suis pas loin, j'suis dans ta femme ou chez l'voisin J'prends les patins, c'est moi, j'ché-cra' dans son vagin Ouh, ouh Sois content pour moi, j'fais des lovés Lovés Sois pas jaloux, sois pas mauvais Mauvais Heuss L'enfoiré fea-geat le V Fea-geat, fea-geat Midi-Midi, Echelon Ah, ah La Critical te donne chaud, ah Crois-tu qu'c'est ça, le rock'n'roll ? Faire d'la gratte au studio ? Oh no, no, no C'est ça, l'rock. Ah, t'as pas d'famille, t'as même pas d'père. Si ça s'trouve, t'en as jamais eu. Tu peux t'suicider à n'importe quel moment Oh no, no, no Oh no, no, no1</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Skch, skch, skch Viens, on parle de tout, viens, on parle de nous Dis-moi quels sont tes bleus, hey, tu gangrènes par le genou, hein Viens, on parle de tout, viens, on parle de nous Dis-moi quels sont tes bleus, tu gangrènes par le genou Au-d'ssus des nuages dans les cieux Cieux, personne parle de vous Nan Comment parer les coups Quoi ?, si j'arrive par le cou Han ? Qu'est-ce qu tu viens reluquer Han ? J'm suis pas relooké Nan Depuis les débuts, 2k Faudrait p't-être y penser, depuis les bons B2K Ca faut plus y penser Gros, j'ai très peu looté, j'y ai très peu goûté Et on m'dégaine Où t'es, c'est sûr que tout baigne ? Sûr que tout baigne Et c'est pas faux non plus, si tes marmots m'ont vu, j'demande pardon à Dieu Si mes 'lards-mo' t'ont eu, c'est des larmes dans tes yeux Tu sais qu'j'parle de toi J'peux les laisser en vu, vu, vu, vu, je peux faire c'que je veux Ouais J'peux les laisser dans l'mur, mur, mur, mur, s'ils font pas c'que je veux Y a pas à jouer les anciens, j'suis bientôt plus 'ne-jeu' On était tous en chien, moi, j'ai compris le jeu Hey Souris comme sur le comprimé jaune ou bien souris comme le plug à la fin Bruit de pas d'zombie résonne Growl, et j'ai pas d'gun dans la main J'écoute ton album, je culpabilise, putain, qu'est-ce que je fais de mon temps libre ? Soit je fume, soit je tise, comme si j'avais peur de le vivre Wow Combien de platines je comptabilise ? Assez pour mon ego Et pour qu'elle se déshabille Hey, sans même trop la négo' J'pourrais partir loin d'ici, mais j'aime trop la déco' Faux J'crois bien qu'j'vais mourir ici, au prochain apéro Comme je sais pas c'que je dis Dis, j'mets un point d'interro' Et comme j'sais pas c'que je vise, je pleure les collatéraux You might also like Tout le monde les mains en l'air quand je prends la caisse Quand je prends la caisse Si t'as chaud, c'est la ménopause ou Vald dans la pièce Ou Vald dans la pièce On fournit les plus gros shows pour cinq VHR Pour cinq VHR Équipe de sicarios dans le Mercedes sí, sí, patron Ça met des millions sur moi genre sait-on jamais Sait-on jamais J'pourrais juste m'enfuir avec, j'reste pour le challenge Wow Comme je sais pas c'que je dis, j'mets un point d'interro' Oh Et comme j'sais pas c'que je vise, je pleure les collatéraux J'l'emmène à l'hôtel Ouais, j'ramène deux, trois 'teilles Skch, skch La mou'-mou', c'est moi, est-ce que tu t'rappelles ? Medellin Cartel Han, han Tu sais que ce monde est cruel, viens, on quitte la planète Oh J'attends pas qu'tu m'appelles Nan avant qu'tout ça s'arrête Paw Loup solitaire, j'ai le cur froid comme le vent en hiver Je crois qu'on vit pas dans le même univers, essaye de me suivre, tu verras la misère Tu vivras la misère J'vois l'bout du tunnel, deux cents sur l'périph', j'reviens d'Rotter' T'as besoin d'un mec qu'est solide et fidèle, et j'repense et j'me dis Pourquoi on s'déteste ? Et je fly-y-y, trop d'poids sur mes épau-au-aules L'esprit fait d'la mai-ai-aille, j'fais plus d'sale dans le ha-a-all Skch, skch Tout le monde les mains en l'air quand je prends la caisse Quand je prends la caisse Si t'as chaud, c'est la ménopause ou Heuss dans la pièce Ou Heuss dans la pièce On fournit les plus gros shows pour cinq VHR Pour cinq VHR Équipe de sicarios dans le Mercedes sí, sí, patron Ça met des millions sur moi genre sait-on jamais Sait-on jamais J'pourrais juste m'enfuir avec, j'reste pour le challenge Wow Comme je sais pas c'que je dis, j'mets un point d'interro' Oh Et comme j'sais pas c'que je vise, je pleure les collatéraux Skch, skch</t>
+          <t>Skch, skch, skch Viens, on parle de tout, viens, on parle de nous Dis-moi quels sont tes bleus, hey, tu gangrènes par le genou, hein Viens, on parle de tout, viens, on parle de nous Dis-moi quels sont tes bleus, tu gangrènes par le genou Au-d'ssus des nuages dans les cieux Cieux, personne parle de vous Nan Comment parer les coups Quoi ?, si j'arrive par le cou Han ? Qu'est-ce qu tu viens reluquer Han ? J'm suis pas relooké Nan Depuis les débuts, 2k Faudrait p't-être y penser, depuis les bons B2K Ca faut plus y penser Gros, j'ai très peu looté, j'y ai très peu goûté Et on m'dégaine Où t'es, c'est sûr que tout baigne ? Sûr que tout baigne Et c'est pas faux non plus, si tes marmots m'ont vu, j'demande pardon à Dieu Si mes 'lards-mo' t'ont eu, c'est des larmes dans tes yeux Tu sais qu'j'parle de toi J'peux les laisser en vu, vu, vu, vu, je peux faire c'que je veux Ouais J'peux les laisser dans l'mur, mur, mur, mur, s'ils font pas c'que je veux Y a pas à jouer les anciens, j'suis bientôt plus 'ne-jeu' On était tous en chien, moi, j'ai compris le jeu Hey Souris comme sur le comprimé jaune ou bien souris comme le plug à la fin Bruit de pas d'zombie résonne Growl, et j'ai pas d'gun dans la main J'écoute ton album, je culpabilise, putain, qu'est-ce que je fais de mon temps libre ? Soit je fume, soit je tise, comme si j'avais peur de le vivre Wow Combien de platines je comptabilise ? Assez pour mon ego Et pour qu'elle se déshabille Hey, sans même trop la négo' J'pourrais partir loin d'ici, mais j'aime trop la déco' Faux J'crois bien qu'j'vais mourir ici, au prochain apéro Comme je sais pas c'que je dis Dis, j'mets un point d'interro' Et comme j'sais pas c'que je vise, je pleure les collatéraux Tout le monde les mains en l'air quand je prends la caisse Quand je prends la caisse Si t'as chaud, c'est la ménopause ou Vald dans la pièce Ou Vald dans la pièce On fournit les plus gros shows pour cinq VHR Pour cinq VHR Équipe de sicarios dans le Mercedes sí, sí, patron Ça met des millions sur moi genre sait-on jamais Sait-on jamais J'pourrais juste m'enfuir avec, j'reste pour le challenge Wow Comme je sais pas c'que je dis, j'mets un point d'interro' Oh Et comme j'sais pas c'que je vise, je pleure les collatéraux J'l'emmène à l'hôtel Ouais, j'ramène deux, trois 'teilles Skch, skch La mou'-mou', c'est moi, est-ce que tu t'rappelles ? Medellin Cartel Han, han Tu sais que ce monde est cruel, viens, on quitte la planète Oh J'attends pas qu'tu m'appelles Nan avant qu'tout ça s'arrête Paw Loup solitaire, j'ai le cur froid comme le vent en hiver Je crois qu'on vit pas dans le même univers, essaye de me suivre, tu verras la misère Tu vivras la misère J'vois l'bout du tunnel, deux cents sur l'périph', j'reviens d'Rotter' T'as besoin d'un mec qu'est solide et fidèle, et j'repense et j'me dis Pourquoi on s'déteste ? Et je fly-y-y, trop d'poids sur mes épau-au-aules L'esprit fait d'la mai-ai-aille, j'fais plus d'sale dans le ha-a-all Skch, skch Tout le monde les mains en l'air quand je prends la caisse Quand je prends la caisse Si t'as chaud, c'est la ménopause ou Heuss dans la pièce Ou Heuss dans la pièce On fournit les plus gros shows pour cinq VHR Pour cinq VHR Équipe de sicarios dans le Mercedes sí, sí, patron Ça met des millions sur moi genre sait-on jamais Sait-on jamais J'pourrais juste m'enfuir avec, j'reste pour le challenge Wow Comme je sais pas c'que je dis, j'mets un point d'interro' Oh Et comme j'sais pas c'que je vise, je pleure les collatéraux Skch, skch</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Zeg P on the track beat J'parle avec un ancien ta3 l'époque du magnétoscope Il m'a dit Heuss, investis dans l'immobilier en Afrique, en Europe ouais J'lui dis ouais, que c'est bon déjà, écoute juste Les méchants, c'est une maxi renta' J'ai les clés d'la maison, l'ancien m'a dit Fais attention, que les gens vont gé-chan parce que tu sais qu'ter-chan, des fois, t'as pas trop l'temps T'as oublié des gens, j'ai oublié personne nan, nan J'étais en taule, j'avais que ma daronne, du shit, un téléphone skch, skch Eh, j'suis pas Al Capone j'baise une folle, l'lendemain, j'change de téléphone, j'appelle Bouygues Telecom skch, skch L'ancien, j'ai une CB, en plus, elle dit pas nan nan L'ancien m'a répondu Faut rester comme avant, ramasser d'l'argent L'ancien, j'te remercie, merci pour les conseils Avant tout ça, tout ça, nan, j'avais d'l'oseille J'ai bronzé au soleil, j'régalais des narines, aujourd'hui, des oreilles eh J'te connais depuis l'temps, t'as pris d'la bouteille J'suis dans l'effet d'la veille, j'te laisse le cul d'la vieille Si j'me rappelle, t'étais quand même cruel Aujourdhui, t'as gé-chan, t'es plus dans les ruelles nan, nan T'as des enfants, t'as des problèmes, j'écris pas des poèmes ouais L'ancien m'a répondu qu'il m'reconnaissait plus ouais Qu'il poussait d'la re-pu, m'arrangeait sur les prix L'ancien m'a répondu qu'il m'reconnaissait plus ouais, nan M'arrangeait sur les prix, livraison tout compris ouais, skch J'te remercie, l'ancien, mais t'as pas vu tout c'que j't'ai pris J'ai fini écroué, tout c'que j't'ai écoulé Du rouge sous mes souliers, j'ai même pas désaoulé J'fais que m'améliorer comme le Nord d'la Corée skch, skch Premier album doré, j'dors sur mes deux lauriers ouais Premier album doré, j'dors sur mes deux lauriers ouais L'ancien, n'oublie pas, nous aussi, on sait bien tirer En vrai, c'que tu m'racontes, j'en ai rien à cirer rien à cirer Depuis l'époque, j'comptais tout t'soutirer pour un jour me tirer J'salis mon tablier, j'démarre d'la Sablière Maxi kichta violette pour mieux nous satisfaire ouais Vraiment, pour être honnête ouais, des fois, j'suis malhonnête You might also like J'te mets d'la 0.7, des fois, j'suis malhonnête malhonnête J'te mets d'la 0.7, des fois, j'suis malhonnête yah, yah J'suis l'disque d'or, ballon d'or, ouais République tchèque J'suis disque d'or, ballon d'or, République tchèque J'te mets d'la 0.7, des fois, j'suis malhonnête yah, yah J'te mets d'la 0.7, des fois, j'suis malhonnête yah, yah J'te mets d'la 0.7, des fois, j'suis malhonnête J'suis disque d'or, ballon d'or, République tchèque République tchèque, République tchèque, République tchèque</t>
+          <t>Zeg P on the track beat J'parle avec un ancien ta3 l'époque du magnétoscope Il m'a dit Heuss, investis dans l'immobilier en Afrique, en Europe ouais J'lui dis ouais, que c'est bon déjà, écoute juste Les méchants, c'est une maxi renta' J'ai les clés d'la maison, l'ancien m'a dit Fais attention, que les gens vont gé-chan parce que tu sais qu'ter-chan, des fois, t'as pas trop l'temps T'as oublié des gens, j'ai oublié personne nan, nan J'étais en taule, j'avais que ma daronne, du shit, un téléphone skch, skch Eh, j'suis pas Al Capone j'baise une folle, l'lendemain, j'change de téléphone, j'appelle Bouygues Telecom skch, skch L'ancien, j'ai une CB, en plus, elle dit pas nan nan L'ancien m'a répondu Faut rester comme avant, ramasser d'l'argent L'ancien, j'te remercie, merci pour les conseils Avant tout ça, tout ça, nan, j'avais d'l'oseille J'ai bronzé au soleil, j'régalais des narines, aujourd'hui, des oreilles eh J'te connais depuis l'temps, t'as pris d'la bouteille J'suis dans l'effet d'la veille, j'te laisse le cul d'la vieille Si j'me rappelle, t'étais quand même cruel Aujourdhui, t'as gé-chan, t'es plus dans les ruelles nan, nan T'as des enfants, t'as des problèmes, j'écris pas des poèmes ouais L'ancien m'a répondu qu'il m'reconnaissait plus ouais Qu'il poussait d'la re-pu, m'arrangeait sur les prix L'ancien m'a répondu qu'il m'reconnaissait plus ouais, nan M'arrangeait sur les prix, livraison tout compris ouais, skch J'te remercie, l'ancien, mais t'as pas vu tout c'que j't'ai pris J'ai fini écroué, tout c'que j't'ai écoulé Du rouge sous mes souliers, j'ai même pas désaoulé J'fais que m'améliorer comme le Nord d'la Corée skch, skch Premier album doré, j'dors sur mes deux lauriers ouais Premier album doré, j'dors sur mes deux lauriers ouais L'ancien, n'oublie pas, nous aussi, on sait bien tirer En vrai, c'que tu m'racontes, j'en ai rien à cirer rien à cirer Depuis l'époque, j'comptais tout t'soutirer pour un jour me tirer J'salis mon tablier, j'démarre d'la Sablière Maxi kichta violette pour mieux nous satisfaire ouais Vraiment, pour être honnête ouais, des fois, j'suis malhonnête J'te mets d'la 0.7, des fois, j'suis malhonnête malhonnête J'te mets d'la 0.7, des fois, j'suis malhonnête yah, yah J'suis l'disque d'or, ballon d'or, ouais République tchèque J'suis disque d'or, ballon d'or, République tchèque J'te mets d'la 0.7, des fois, j'suis malhonnête yah, yah J'te mets d'la 0.7, des fois, j'suis malhonnête yah, yah J'te mets d'la 0.7, des fois, j'suis malhonnête J'suis disque d'or, ballon d'or, République tchèque République tchèque, République tchèque, République tchèque</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Provenzano, Zepek et Bandito Hé, Biggie, Mosko Fils de pute, y a pas longtemps, j'me levais tôt Sur le rrain-té, 11h40 pétantes avec Bandito Midi, sacoche remplie, j'annonce la météo BX Land partie X, j'suis dans la vidéo Hiza Guruma, Kata Guruma, c'est que du judo 92 département, d'la gue-dro dans mon dos Les bicraveurs d'élite, c'est ça, le commando Le machin sous l'manteau, ça débloque ta conso' Tiens, écoute mon son, fais-nous pas voir tes seins Comportement, tout au fond du tiekson J'la touche à dix-sept balles, j'ai d'autres combinaisons C'est la Sinaloa, ça rentre dans ta maison Le p'tit est chaud, il a pas quatorze ans Eh, ferme ta gueule, ici c'est important, la rue c'est la légion C'est pas des séances de studio, deux-trois heures de session C'est les arrestations, détentions, probations Une fois dehors, on veut s'embourgeoiser BX Land partie 4, ferme ta chatte et achète C'est l'OPJ et deux-trois putes qui planifient ma chute Suce des bites et fais des hits, l'enfoiré vend pas d'shit Cheveux courts, cheveux longs, comme Patchi J'ai les pec' à Chong Li, la re-pu tah Shangai Le poisson, les écailles, gaufrette, j'les régale Algérie, Maroc, Mali, Sénégal Villeneuve-la-Garenne, Hauts-d'Seine illégal L'argent d'ta chatte, c'est devenu d'l'argent sale Eh, j'fais du biff, j'baise pas les followeuses J'm'en bats les couilles du buzz, la serveuse est nerveuse La folle est vénéneuse et vénézuélienne d'la région parisienne C'est Heussine ou Hassan, ça vient bien des Hauts-d'Seine J'vais à Rogotteger, j'vais la chégué-chèguère Elle est paga chèguère, placard, hôpital et cimetière Les ients-cli m'disent ci-mer même sur la civière Boute-en-train, Sablière, producteur, c'est malsain Manager, c'est malsain Midi-midi malsain, midi-midi malsain, Sablière, Boute-en-train Heuss L'enfoiré, bande d'enfoirés Suarez, Mahrez, James, skch, skch Heuss L'enfoiré, bande d'enfoirés, skch, skchYou might also like</t>
+          <t>Provenzano, Zepek et Bandito Hé, Biggie, Mosko Fils de pute, y a pas longtemps, j'me levais tôt Sur le rrain-té, 11h40 pétantes avec Bandito Midi, sacoche remplie, j'annonce la météo BX Land partie X, j'suis dans la vidéo Hiza Guruma, Kata Guruma, c'est que du judo 92 département, d'la gue-dro dans mon dos Les bicraveurs d'élite, c'est ça, le commando Le machin sous l'manteau, ça débloque ta conso' Tiens, écoute mon son, fais-nous pas voir tes seins Comportement, tout au fond du tiekson J'la touche à dix-sept balles, j'ai d'autres combinaisons C'est la Sinaloa, ça rentre dans ta maison Le p'tit est chaud, il a pas quatorze ans Eh, ferme ta gueule, ici c'est important, la rue c'est la légion C'est pas des séances de studio, deux-trois heures de session C'est les arrestations, détentions, probations Une fois dehors, on veut s'embourgeoiser BX Land partie 4, ferme ta chatte et achète C'est l'OPJ et deux-trois putes qui planifient ma chute Suce des bites et fais des hits, l'enfoiré vend pas d'shit Cheveux courts, cheveux longs, comme Patchi J'ai les pec' à Chong Li, la re-pu tah Shangai Le poisson, les écailles, gaufrette, j'les régale Algérie, Maroc, Mali, Sénégal Villeneuve-la-Garenne, Hauts-d'Seine illégal L'argent d'ta chatte, c'est devenu d'l'argent sale Eh, j'fais du biff, j'baise pas les followeuses J'm'en bats les couilles du buzz, la serveuse est nerveuse La folle est vénéneuse et vénézuélienne d'la région parisienne C'est Heussine ou Hassan, ça vient bien des Hauts-d'Seine J'vais à Rogotteger, j'vais la chégué-chèguère Elle est paga chèguère, placard, hôpital et cimetière Les ients-cli m'disent ci-mer même sur la civière Boute-en-train, Sablière, producteur, c'est malsain Manager, c'est malsain Midi-midi malsain, midi-midi malsain, Sablière, Boute-en-train Heuss L'enfoiré, bande d'enfoirés Suarez, Mahrez, James, skch, skch Heuss L'enfoiré, bande d'enfoirés, skch, skch</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Elle a pris mes jetons et ma sauce pita Elle s'appelle Anita, elle est bien plus bonne que Vitaa J'l'ai trouvé sur Viva' un soir où ça allait pas J'l'ai baisé comme jamais, le lendemain elle m'a rappelé Elle m'a expliqué qu'elle voulait plus bosser avec son gars J'ai dû la récupérer pour qu'elle arrête tout ça J'l'envoie en Martinique, elle m'ramène un que-sa Merci San Papayos, j'achète des PCS et quatre-vingts bastos Dorénavant, ta pute c'est mon assoc' J'récupéguère toutes ses potes pour faire une grande assoc' pour un max de pesos Avec les loves, crois-moi, j'ai fait quelque chose Dans l'quartier rouge, j'vois la vie en rose Signature, j'prends ta sur, on a signé la clause Elle sort d'trois piges de maison-close, c'est comme la maison d'disque Les bandits s'repentissent Tu donnes ta chatte, qu'est-ce qu'tes parents vont dire ? Tu peux plus rebondir, tu peux plus rebondir Elle a donné sa chatte, elle a donné sa chatte La re-pu, ça sachète Elle a donné sa chatte, elle a donné sa chatte Aujourdhui, la re-pu, ça s'achète Y a des putes sur Snapchat, y a des putes sur Snapchat Hein, elle a donné sa chatte Elle a donné sa chatte, la re-pu, ça s'achète Hein, y a des putes sur Snapchat You might also like J'suis sa nouvelle sécu', l'argent ne nous a pas raté Maroqui 43, j'te laisse ton karaté Là c'est Heuss L'enfoiré, impossible de m'rater Africa Jungle annoncent tous les jingles, ça fait que des singles Vincent Cassel ou Vince Diesel J'retrouve des francs dans mon jean Diesel Dsquared, j'suis dans Stringer Bell Sacoche Ferragamo, Gabbana, Makano, Sekou et Salimou C'est la Sinaloa, Many c'est mon sin-cou J'arrive téléguidé, série télévisée En plein cur des cités, viens nous déchiffrer, j'suis Robert DeNiro Que dans Les Affranchis poursuivi par les fédéraux J'te vi-ser peu importe la météo Elle a donné sa chatte, elle a donné sa chatte La re-pu, ça sachète Elle a donné sa chatte, elle a donné sa chatte Aujourdhui, la re-pu, ça s'achète Y a des putes sur Snapchat, y a des putes sur Snapchat Hein, elle a donné sa chatte Elle a donné sa chatte, la re-pu, ça s'achète Hein, y a des putes sur Snapchat J'ai tout laissé dans la chatte d'Anita J'rentre chez moi, j'reste dans l'anonymat Dans les cités, c'est la loca vida J'demande aux reufs d'la Jungle Africa J'ai tout laissé dans la chatte d'Anita J'rentre chez moi, j'reste dans l'anonymat Dans les cités, c'est la loca vida J'demande aux reufs d'la Jungle Africa3</t>
+          <t>Elle a pris mes jetons et ma sauce pita Elle s'appelle Anita, elle est bien plus bonne que Vitaa J'l'ai trouvé sur Viva' un soir où ça allait pas J'l'ai baisé comme jamais, le lendemain elle m'a rappelé Elle m'a expliqué qu'elle voulait plus bosser avec son gars J'ai dû la récupérer pour qu'elle arrête tout ça J'l'envoie en Martinique, elle m'ramène un que-sa Merci San Papayos, j'achète des PCS et quatre-vingts bastos Dorénavant, ta pute c'est mon assoc' J'récupéguère toutes ses potes pour faire une grande assoc' pour un max de pesos Avec les loves, crois-moi, j'ai fait quelque chose Dans l'quartier rouge, j'vois la vie en rose Signature, j'prends ta sur, on a signé la clause Elle sort d'trois piges de maison-close, c'est comme la maison d'disque Les bandits s'repentissent Tu donnes ta chatte, qu'est-ce qu'tes parents vont dire ? Tu peux plus rebondir, tu peux plus rebondir Elle a donné sa chatte, elle a donné sa chatte La re-pu, ça sachète Elle a donné sa chatte, elle a donné sa chatte Aujourdhui, la re-pu, ça s'achète Y a des putes sur Snapchat, y a des putes sur Snapchat Hein, elle a donné sa chatte Elle a donné sa chatte, la re-pu, ça s'achète Hein, y a des putes sur Snapchat J'suis sa nouvelle sécu', l'argent ne nous a pas raté Maroqui 43, j'te laisse ton karaté Là c'est Heuss L'enfoiré, impossible de m'rater Africa Jungle annoncent tous les jingles, ça fait que des singles Vincent Cassel ou Vince Diesel J'retrouve des francs dans mon jean Diesel Dsquared, j'suis dans Stringer Bell Sacoche Ferragamo, Gabbana, Makano, Sekou et Salimou C'est la Sinaloa, Many c'est mon sin-cou J'arrive téléguidé, série télévisée En plein cur des cités, viens nous déchiffrer, j'suis Robert DeNiro Que dans Les Affranchis poursuivi par les fédéraux J'te vi-ser peu importe la météo Elle a donné sa chatte, elle a donné sa chatte La re-pu, ça sachète Elle a donné sa chatte, elle a donné sa chatte Aujourdhui, la re-pu, ça s'achète Y a des putes sur Snapchat, y a des putes sur Snapchat Hein, elle a donné sa chatte Elle a donné sa chatte, la re-pu, ça s'achète Hein, y a des putes sur Snapchat J'ai tout laissé dans la chatte d'Anita J'rentre chez moi, j'reste dans l'anonymat Dans les cités, c'est la loca vida J'demande aux reufs d'la Jungle Africa J'ai tout laissé dans la chatte d'Anita J'rentre chez moi, j'reste dans l'anonymat Dans les cités, c'est la loca vida J'demande aux reufs d'la Jungle Africa3</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Heuss L'enfoiré, bande d'enfoirés Libérez Many, NYMA, Hiza Guruma, Maroki 43, Mafia tah Napoli, on est pas très polis Skch, skch Hé Plomo o Plata, ça sent la tate-pa J'sais même plus quoi faire, j'tape une dernière khapta J'me ressers un verre de Jack Da', j'roule un spliff de shlata J'nehess à Malaga avec des gars à moi, là j'suis dans Marama Derrière moi, la voiture d'la que-ba, une ce-pu, un p'tit qui ssé-bo La re-pu d'Colombie, dédicace à Séba Y'a celle qui se ser-ba, j'dédicace tous mes gars J'récupère tous mes gains, j'suis dans le magasin Perquis' demain matin, fils de tain-p', j'suis dans un baratin, tu sais bien qu'on a faim N.Y.M.A fait des freins à main dans tous les ronds-points Traite avec des Cubains, tu repars le cul plein 9.2 département, c'est nous les musiciens, Mexicains, Tunisiens Faits divers, grosse moula qui passe dans l'Parisien Dans les cités, y a v'là les magiciens Au cas où, si j'suis KO, j'revendrais d'la gue-dro J'fais bosser ta sse-gro, j'suis d'la Seleção J'suis un ancien, dans l'PMU j'vais jouer au Keno 9.2, c'est loin du Quesnoy, que des Rabzas, Renois J'le vi-ser, j'le revois, il m'la fera pas deux fois J'suis hors-la-loi, ça y est j'suis hors de moi, BX Land partie skch skch You might also like Hé, ok Deuxième couplet, deuxième étage, la drogue est découpée 9.2.3.9.0, deux kilos d'écoulé Dans la rue, j'fais du son pour les reufs écroués Essaye pas de jouer, tu risques fort d'échouer J'les ai vu débouler, chacun fait son boulot La nourrice s'est fait rouler, cassage de te-por au culot, tu sais où nous trouver On n'a rien à prouver, Affranchis, Midi Midi Mais on a pas tout fait, comparés par défaut Bés-tom pour des pesos, des braquos, des narcos Méchant comme les Vatos et Carlos Gambinos Dans une méchante assoc', Villeneuve-la-Garenne, 9.2.3.9.0 6 rue Hector Berlioz, regarde-moi dans les yeuz J'viens du 92, la drogue est dure et douce Tu vois que j'me balade et des fois, j'suis malade J'ralentis l'shit, jaccélère la salade mais ça sent la patate Respecte les frères qui font la prière J'te dis pas c'que j'ai fait hier, inspi' meurtrière Au micro, acte de barbarie validé par la rue J'vais me squer-ma dans Paris, j'suis dans la même Avenue Avec Prince et Manu, que des peines de bandit comme mon sin-cou Many</t>
+          <t>Heuss L'enfoiré, bande d'enfoirés Libérez Many, NYMA, Hiza Guruma, Maroki 43, Mafia tah Napoli, on est pas très polis Skch, skch Hé Plomo o Plata, ça sent la tate-pa J'sais même plus quoi faire, j'tape une dernière khapta J'me ressers un verre de Jack Da', j'roule un spliff de shlata J'nehess à Malaga avec des gars à moi, là j'suis dans Marama Derrière moi, la voiture d'la que-ba, une ce-pu, un p'tit qui ssé-bo La re-pu d'Colombie, dédicace à Séba Y'a celle qui se ser-ba, j'dédicace tous mes gars J'récupère tous mes gains, j'suis dans le magasin Perquis' demain matin, fils de tain-p', j'suis dans un baratin, tu sais bien qu'on a faim N.Y.M.A fait des freins à main dans tous les ronds-points Traite avec des Cubains, tu repars le cul plein 9.2 département, c'est nous les musiciens, Mexicains, Tunisiens Faits divers, grosse moula qui passe dans l'Parisien Dans les cités, y a v'là les magiciens Au cas où, si j'suis KO, j'revendrais d'la gue-dro J'fais bosser ta sse-gro, j'suis d'la Seleção J'suis un ancien, dans l'PMU j'vais jouer au Keno 9.2, c'est loin du Quesnoy, que des Rabzas, Renois J'le vi-ser, j'le revois, il m'la fera pas deux fois J'suis hors-la-loi, ça y est j'suis hors de moi, BX Land partie skch skch Hé, ok Deuxième couplet, deuxième étage, la drogue est découpée 9.2.3.9.0, deux kilos d'écoulé Dans la rue, j'fais du son pour les reufs écroués Essaye pas de jouer, tu risques fort d'échouer J'les ai vu débouler, chacun fait son boulot La nourrice s'est fait rouler, cassage de te-por au culot, tu sais où nous trouver On n'a rien à prouver, Affranchis, Midi Midi Mais on a pas tout fait, comparés par défaut Bés-tom pour des pesos, des braquos, des narcos Méchant comme les Vatos et Carlos Gambinos Dans une méchante assoc', Villeneuve-la-Garenne, 9.2.3.9.0 6 rue Hector Berlioz, regarde-moi dans les yeuz J'viens du 92, la drogue est dure et douce Tu vois que j'me balade et des fois, j'suis malade J'ralentis l'shit, jaccélère la salade mais ça sent la patate Respecte les frères qui font la prière J'te dis pas c'que j'ai fait hier, inspi' meurtrière Au micro, acte de barbarie validé par la rue J'vais me squer-ma dans Paris, j'suis dans la même Avenue Avec Prince et Manu, que des peines de bandit comme mon sin-cou Many</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Partie 1 Han, Heuss L'enfoiré-gué Heuss L'enfoiré-gué V.L.A.D-gué V.L.A.D-gué Contre vents et marées sous une pluie de pétrole, un torrent de groupies J'suis dans cette merde comme la weed dans le cookie J'vais t'faire faire des loopings Le savoir est dans le silence, ferme-la même si t'as pas tout dit Taffe comme une fourmi, ma sacoche est fournie L'argent vient d partout, ça me donne le tournis Chf d'orchestre en tournée, ton cadavre entouré D'vant l'complément d'enquête, j'suis complètement bourré Oui, oui, oui Partie 2 Zeg P on the track, bitch Concert au Canada, tu m'as déjà vu là-bas Yeah Khapta, stenda, Aristocrate et la Moulaga Yeah Ils dépensent c'qu'ils ont pas, ils font la malaga Yeah Laisse-les parler-gué, j'reviens du Panama Oh, oh J'suis pas matinal Nan, j'lis pas ton journal Nan Pas d'match amical Nan, on joue la finale Ouais Esprit hooligan Ouais, dans la capitale Nan Nan, nan, j'suis pas matinal Matinal La juge a dit non, elle veut que j'donne des noms Mais j'connais ma mission Nan, nan Que le Ciel nous bénisse, je le remercie J'enfile mes Gucci -ssima You might also like J'm'en irai dormir dans ce paradis mais c'est pas facile d'en bas J'm'en irai dormir dans ce paradis mais c'est pas facile d'en bas J'remets ça tous les soirs Ouais, ressers-moi à boire Ouais Un Mexicain notoire Ouais, assis au fond du bar Ouais J'remets ça tous les soirs Ouais, ressers-moi à boire Un Mexicain notoire Ouais, assis au fond du bar J'm'en irai dormir dans ce paradis mais c'est pas facile d'en bas Bas J'm'en irai dormir dans ce paradis mais c'est pas facile d'en bas Bas J'prends un maxi best-of et, ça y est, j'suis regénéré Yeah Si tu m'vois réveillé, j'crois c'est l'moment d'célébrer Yeah Mon public n'a pas de race, y a qu'des dégénérés Yeah Si je saute dans la foule, j'vole au-d'ssus d'un nid d'coucous Tu serres pas la main, tu dis pas bonjour Comme si tu connaissais pas l'morceau Bonjour Wow Tu passes ton chemin, j'te fais pas la cour Wow En coulisses, ça sent la pisse, y a pas d'amour Dis-moi exactement combien on fait ce soir J'ai plus de cons' sur moi, j'suis obligé de boire Pourquoi tu tires dans l'eau ? Tu gaspilles des balles Mes démons viennent d'en haut, en Enfer ici-bas Woah-oh, oh J'm'en irai dormir dans ce paradis mais c'est pas facile d'en bas J'm'en irai dormir dans ce paradis mais c'est pas facile d'en bas J'remets ça tous les soirs Ouais, ressers-moi à boire Ouais Un Mexicain notoire Ouais, assis au fond du bar Ouais J'remets ça tous les soirs Ouais, ressers-moi à boire Un Mexicain notoire Ouais, assis au fond du bar J'm'en irai dormir dans ce paradis mais c'est pas facile d'en bas Bas J'm'en irai dormir dans ce paradis mais c'est pas facile d'en bas Bas</t>
+          <t>Partie 1 Han, Heuss L'enfoiré-gué Heuss L'enfoiré-gué V.L.A.D-gué V.L.A.D-gué Contre vents et marées sous une pluie de pétrole, un torrent de groupies J'suis dans cette merde comme la weed dans le cookie J'vais t'faire faire des loopings Le savoir est dans le silence, ferme-la même si t'as pas tout dit Taffe comme une fourmi, ma sacoche est fournie L'argent vient d partout, ça me donne le tournis Chf d'orchestre en tournée, ton cadavre entouré D'vant l'complément d'enquête, j'suis complètement bourré Oui, oui, oui Partie 2 Zeg P on the track, bitch Concert au Canada, tu m'as déjà vu là-bas Yeah Khapta, stenda, Aristocrate et la Moulaga Yeah Ils dépensent c'qu'ils ont pas, ils font la malaga Yeah Laisse-les parler-gué, j'reviens du Panama Oh, oh J'suis pas matinal Nan, j'lis pas ton journal Nan Pas d'match amical Nan, on joue la finale Ouais Esprit hooligan Ouais, dans la capitale Nan Nan, nan, j'suis pas matinal Matinal La juge a dit non, elle veut que j'donne des noms Mais j'connais ma mission Nan, nan Que le Ciel nous bénisse, je le remercie J'enfile mes Gucci -ssima J'm'en irai dormir dans ce paradis mais c'est pas facile d'en bas J'm'en irai dormir dans ce paradis mais c'est pas facile d'en bas J'remets ça tous les soirs Ouais, ressers-moi à boire Ouais Un Mexicain notoire Ouais, assis au fond du bar Ouais J'remets ça tous les soirs Ouais, ressers-moi à boire Un Mexicain notoire Ouais, assis au fond du bar J'm'en irai dormir dans ce paradis mais c'est pas facile d'en bas Bas J'm'en irai dormir dans ce paradis mais c'est pas facile d'en bas Bas J'prends un maxi best-of et, ça y est, j'suis regénéré Yeah Si tu m'vois réveillé, j'crois c'est l'moment d'célébrer Yeah Mon public n'a pas de race, y a qu'des dégénérés Yeah Si je saute dans la foule, j'vole au-d'ssus d'un nid d'coucous Tu serres pas la main, tu dis pas bonjour Comme si tu connaissais pas l'morceau Bonjour Wow Tu passes ton chemin, j'te fais pas la cour Wow En coulisses, ça sent la pisse, y a pas d'amour Dis-moi exactement combien on fait ce soir J'ai plus de cons' sur moi, j'suis obligé de boire Pourquoi tu tires dans l'eau ? Tu gaspilles des balles Mes démons viennent d'en haut, en Enfer ici-bas Woah-oh, oh J'm'en irai dormir dans ce paradis mais c'est pas facile d'en bas J'm'en irai dormir dans ce paradis mais c'est pas facile d'en bas J'remets ça tous les soirs Ouais, ressers-moi à boire Ouais Un Mexicain notoire Ouais, assis au fond du bar Ouais J'remets ça tous les soirs Ouais, ressers-moi à boire Un Mexicain notoire Ouais, assis au fond du bar J'm'en irai dormir dans ce paradis mais c'est pas facile d'en bas Bas J'm'en irai dormir dans ce paradis mais c'est pas facile d'en bas Bas</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Le Heuss avec le V, on est très efficace L'équipe est perspicace, charo dans la mentale, horizon vertical C'est vraiment illégal, c'est bon, j'ouvre le van, j'ouvre le bal Bienvenue dans la capitale, bientôt on met les voiles Faut être un capitaine, défenseur comme un Van Buyten Y a d'la beuh tah L'Abreu' qui vient p't-être des Hauts-d'Seine Sifax m'a dit qu'la 'r-pu' sentait fort le kérosène C'st pas d'la 0.7, cent meujs à deux mille sept, ça repart en G7 On s'pète à la placette, j'arrive avec Zepek, j'suis déjà en buvette Vodka tah les Ouzbèques, j'me recommande un verre Récupère tous les billets verts, serveur, tu peux nous resservir La misère peut repasser, bitch, on va pas s'laisser faire, hey Chargeur vertical comme l'horizon, toutes ces cales J'ai des frissons d'vant les flammes, pas l'addition, j'ai des flashs Et des visions, j'ai démarché des missions Wow intérim' Bitch, on connaît la vraie vie, fais la cuisine, pas l'imbécile Où est l'arbitre ? On va l'mêler, si y a des pizzas, ramenez-les Je n'vole pas au-dessus d'la mêlée, je n'suis qu'un rat d'vant la télé Qui s'fait carotte sa carte bleue sur Internet, je comprends pas Y avait l'cadenas, j'ai vérifié, j'suis atterré J'suis atterré Dans la série, j'me fais serrer comme Sucre Mais dans la vraie vie, c'est pas la télé, wallah qu'c'est concret Un peu d'salade soupoudrée et pour skalape, c'est l'conflit C'tte association, c'est du solide, c'est pas Wallace et Gromit You might also like Un peu de drogue, une 'sse-f', un Glock, les jeunes sont captivés Captivés Un peu de drogue, une 'sse-f', un Glock, les jeunes sont captivés Captivés Échantillons gratuits, clients attirés Attirés Échantillons gratuits, clients attirés Un esprit sain dans un corps scarifié Scarifié En esprit, sinon le cur n'est qu'une cavité Wow Horizon vertical, fuck la gravité Tut-tut-tut Au sommet, ils font la gueule, j'étais pas invité Toujours un il sur l'horizon, même bridé Entre le masque et la visière, comment cette bitch m'a pris en visu, merde ? J'suis déguisé comme MJ quand il voulait pas être grillé À l'épicerie, j'suis un bâtard, j'suis comme Nan, c'est pas moi Vlad Ah nan, rien à voir Le Heuss m'a dit J'ai du pouvoir, faut en abuser, y a des buses partout, prêtes, faut s'amuser J'ai qu'à d'mander et mes désirs sont des ordres, j'ai pas b'soin de monter en-haut d'la pyramide où leurs désirs font désordre Haha, haha, haha J'reste en retrait, je pense qu'à retry On m'dit Tu profites pas assez, moi, c'est sûr, à ta place, j'aurais d'jà le 'da-s'' Du coup, j'sais jamais, est-ce que j'agis bien ou, là, je gâche ? En plein délire, là, je nage Combien de bombes, là, je lâche ? D'puis l'début, j'ai mal au mic J'fais que du sale, j'ai mal au mic', j'envoie ça sans étalonnage Regarde bien les personnages qui fument, qui boivent du douze ans d'âge À quatre-vingt-douze pourcentages, récupèrent toutes les bourses en cash Des grosses sommes épouvantables qui passent pas dans les dessous d'table Ramène du business rentable pour mes gars, les infréquentables Tous les esprits redoutables où les coupables sont non-coupables Tous les esprits redoutables où les coupables sont non-coupables Heuss L'enfoiré, V.A.L.D, l'album en commun de l'année V.A.L.D, Heuss L'enfoiré, l'album en commun de l'année Skch Je courrais à ma perte, heureusement qu'sur le chemin je rappais Skch, skch J'ai failli faner comme les fleugeurs du Pakistanais Un peu de drogue, une 'sse-f', un Glock, les jeunes sont captivés Captivés Un peu de drogue, une 'sse-f', un Glock, les jeunes sont captivés Captivés Échantillons gratuits, clients attirés Attirés Échantillons gratuits, clients attirés Un esprit sain dans un corps scarifié Scarifié En esprit, sinon le cur n'est qu'une cavité Wow Horizon vertical, fuck la gravité Tut-tut-tut Au sommet, ils font la gueule, j'étais pas invité1</t>
+          <t>Le Heuss avec le V, on est très efficace L'équipe est perspicace, charo dans la mentale, horizon vertical C'est vraiment illégal, c'est bon, j'ouvre le van, j'ouvre le bal Bienvenue dans la capitale, bientôt on met les voiles Faut être un capitaine, défenseur comme un Van Buyten Y a d'la beuh tah L'Abreu' qui vient p't-être des Hauts-d'Seine Sifax m'a dit qu'la 'r-pu' sentait fort le kérosène C'st pas d'la 0.7, cent meujs à deux mille sept, ça repart en G7 On s'pète à la placette, j'arrive avec Zepek, j'suis déjà en buvette Vodka tah les Ouzbèques, j'me recommande un verre Récupère tous les billets verts, serveur, tu peux nous resservir La misère peut repasser, bitch, on va pas s'laisser faire, hey Chargeur vertical comme l'horizon, toutes ces cales J'ai des frissons d'vant les flammes, pas l'addition, j'ai des flashs Et des visions, j'ai démarché des missions Wow intérim' Bitch, on connaît la vraie vie, fais la cuisine, pas l'imbécile Où est l'arbitre ? On va l'mêler, si y a des pizzas, ramenez-les Je n'vole pas au-dessus d'la mêlée, je n'suis qu'un rat d'vant la télé Qui s'fait carotte sa carte bleue sur Internet, je comprends pas Y avait l'cadenas, j'ai vérifié, j'suis atterré J'suis atterré Dans la série, j'me fais serrer comme Sucre Mais dans la vraie vie, c'est pas la télé, wallah qu'c'est concret Un peu d'salade soupoudrée et pour skalape, c'est l'conflit C'tte association, c'est du solide, c'est pas Wallace et Gromit Un peu de drogue, une 'sse-f', un Glock, les jeunes sont captivés Captivés Un peu de drogue, une 'sse-f', un Glock, les jeunes sont captivés Captivés Échantillons gratuits, clients attirés Attirés Échantillons gratuits, clients attirés Un esprit sain dans un corps scarifié Scarifié En esprit, sinon le cur n'est qu'une cavité Wow Horizon vertical, fuck la gravité Tut-tut-tut Au sommet, ils font la gueule, j'étais pas invité Toujours un il sur l'horizon, même bridé Entre le masque et la visière, comment cette bitch m'a pris en visu, merde ? J'suis déguisé comme MJ quand il voulait pas être grillé À l'épicerie, j'suis un bâtard, j'suis comme Nan, c'est pas moi Vlad Ah nan, rien à voir Le Heuss m'a dit J'ai du pouvoir, faut en abuser, y a des buses partout, prêtes, faut s'amuser J'ai qu'à d'mander et mes désirs sont des ordres, j'ai pas b'soin de monter en-haut d'la pyramide où leurs désirs font désordre Haha, haha, haha J'reste en retrait, je pense qu'à retry On m'dit Tu profites pas assez, moi, c'est sûr, à ta place, j'aurais d'jà le 'da-s'' Du coup, j'sais jamais, est-ce que j'agis bien ou, là, je gâche ? En plein délire, là, je nage Combien de bombes, là, je lâche ? D'puis l'début, j'ai mal au mic J'fais que du sale, j'ai mal au mic', j'envoie ça sans étalonnage Regarde bien les personnages qui fument, qui boivent du douze ans d'âge À quatre-vingt-douze pourcentages, récupèrent toutes les bourses en cash Des grosses sommes épouvantables qui passent pas dans les dessous d'table Ramène du business rentable pour mes gars, les infréquentables Tous les esprits redoutables où les coupables sont non-coupables Tous les esprits redoutables où les coupables sont non-coupables Heuss L'enfoiré, V.A.L.D, l'album en commun de l'année V.A.L.D, Heuss L'enfoiré, l'album en commun de l'année Skch Je courrais à ma perte, heureusement qu'sur le chemin je rappais Skch, skch J'ai failli faner comme les fleugeurs du Pakistanais Un peu de drogue, une 'sse-f', un Glock, les jeunes sont captivés Captivés Un peu de drogue, une 'sse-f', un Glock, les jeunes sont captivés Captivés Échantillons gratuits, clients attirés Attirés Échantillons gratuits, clients attirés Un esprit sain dans un corps scarifié Scarifié En esprit, sinon le cur n'est qu'une cavité Wow Horizon vertical, fuck la gravité Tut-tut-tut Au sommet, ils font la gueule, j'étais pas invité1</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>La kichta, eh, donnez-nous la kichta Oh, la kichta, elle veut la kichta Soolking, Heuss, Cannavaro, Nesta Eh, donnez-nous la kichta, oh, la kichta Eh, j'veux la kichta, Soolking, Heuss, Cannavaro, Nesta Aïe, aïe, aïe, aïe, bénéf' au max Aïe, aïe, aïe, aïe, bénéf' au max Don't you know, pompit up, Aurélie, Pénélope, j'récupère ma kichtelope pendant qu'tu pompe it up Yah, yah, dans son boule, c'est la noyade, j'mets des lulu comme George Weah Transferts kichta-moulaga, Milano, Copenhague, Almería J'suis au travail, à Dubaï, j'suis au travail, j'suis au travail et même sur la lune, j'fais La kichta, eh, donnez-nous la kichta Oh, la kichta, elle veut la kichta Soolking, Heuss, Cannavaro, Nesta Aïe, aïe, aïe, aïe, bénéf' au max Aïe, aïe, aïe, aïe, bénéf' au max Kichta, Guccisima, hashtag, j'ai tchimba les michtos oh Inzaghi Pippo, roule un oint-j de beuh tah Popeye ah J'la crame à Miami, les tits-pe font d'la maille, les deux puces font la malle Staline, berline allemande, comme ça, le game, j'l'encule salement skch À Paname, au Québec, en Hollande, la pute est collante, la beuh est collante You might also like La kichta, eh, donnez-nous la kichta Oh, la kichta, elle veut la kichta Soolking, Heuss, Cannavaro, Nesta Aïe, aïe, aïe, aïe, bénéf' au max Aïe, aïe, aïe, aïe, bénéf' au max Elle le sait qu'ce soir, tout c'qu'on a ramassé eh, eh Elle le sait qu'demain, on va recommencer eh, eh Elle le sait qu'ce soir, tout c'qu'on a ramassé eh, eh Elle le sait qu'demain, on va recommencer eh, eh La kichta, eh, donnez-nous la kichta Oh, la kichta, elle veut la kichtaSoolking, Heuss, Cannavaro, Nesta Aïe, aïe, aïe, aïe, bénéf' au max Aïe, aïe, aïe, aïe, bénéf' au max</t>
+          <t>La kichta, eh, donnez-nous la kichta Oh, la kichta, elle veut la kichta Soolking, Heuss, Cannavaro, Nesta Eh, donnez-nous la kichta, oh, la kichta Eh, j'veux la kichta, Soolking, Heuss, Cannavaro, Nesta Aïe, aïe, aïe, aïe, bénéf' au max Aïe, aïe, aïe, aïe, bénéf' au max Don't you know, pompit up, Aurélie, Pénélope, j'récupère ma kichtelope pendant qu'tu pompe it up Yah, yah, dans son boule, c'est la noyade, j'mets des lulu comme George Weah Transferts kichta-moulaga, Milano, Copenhague, Almería J'suis au travail, à Dubaï, j'suis au travail, j'suis au travail et même sur la lune, j'fais La kichta, eh, donnez-nous la kichta Oh, la kichta, elle veut la kichta Soolking, Heuss, Cannavaro, Nesta Aïe, aïe, aïe, aïe, bénéf' au max Aïe, aïe, aïe, aïe, bénéf' au max Kichta, Guccisima, hashtag, j'ai tchimba les michtos oh Inzaghi Pippo, roule un oint-j de beuh tah Popeye ah J'la crame à Miami, les tits-pe font d'la maille, les deux puces font la malle Staline, berline allemande, comme ça, le game, j'l'encule salement skch À Paname, au Québec, en Hollande, la pute est collante, la beuh est collante La kichta, eh, donnez-nous la kichta Oh, la kichta, elle veut la kichta Soolking, Heuss, Cannavaro, Nesta Aïe, aïe, aïe, aïe, bénéf' au max Aïe, aïe, aïe, aïe, bénéf' au max Elle le sait qu'ce soir, tout c'qu'on a ramassé eh, eh Elle le sait qu'demain, on va recommencer eh, eh Elle le sait qu'ce soir, tout c'qu'on a ramassé eh, eh Elle le sait qu'demain, on va recommencer eh, eh La kichta, eh, donnez-nous la kichta Oh, la kichta, elle veut la kichtaSoolking, Heuss, Cannavaro, Nesta Aïe, aïe, aïe, aïe, bénéf' au max Aïe, aïe, aïe, aïe, bénéf' au max</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Hornet La Frappe, Heuss L'enfoiré, ça vient du même secteur C'est pas du cinéma, nous, on baise l'inspecteur C'est pas des collégiens, on s'fait rares comme des Norvégiens, viens pas nous contredire On va rentrer en guerre, j'peux rentrer chez ta mère une histoire légendaire Ici, tout est carré comme le Nord d'la Corée Les keufs t'allument ta mère et ils s'font décorer Nique les balances ils ont collaboré J'organise un départ, tout seul dans la forêt, j'vais même pas la fourrer J'prends mon truc avec moi pour mieux l'inaugurer Maroqui 43, une Hiza-Guruma Tu sais qu'on est coriaces et surveille ton thorax Au placard, ça progresse Les coups d'filets qui passent, dix piges ou la relax Ils veulent nous baiser, au comico, les frères s'taisaient De rapper nos vies, c'est du freestyle Ils veulent nous baiser, au comico, les frères s'taisaient J'en rêvais d'l'oseille, maintenant, faut qu'j'taille Même secteur On a la moula dans le même secteur On reste en esprit dans les mêmes secteurs On a la moula dans le même secteur On reste en esprit dans les mêmes secteurs You might also like ORG, Sablière, plus un gramme dans l'sablier On a perdu des frères en tirant, c'est les cités ou l'Iran ? Impact de balle dans l'épaule, couteau dans l'dos, j'en rigole J'suis un rappeur, pas une icône, j'incite pas à rouler l'cône Les rondes de bleus parasitent, la vente de beuh rassasie Pour l'bénéf, t'assassines, rafales sur Kawasaki Rue d'Marseille, 23 ans, j'fréquente les mêmes ganaches Plus d'sentiments, pas d'sentinelle, criminelle est la Kalash' Viens dans ma cité, c'est là j'me suis fait, j'ai les clés Comme des samouraïs, comme l'avait chanté Shurik'n Grosse émeute, 2005, ça 3amar le jerrican ORG, VLG, là, je sais qu'j'vais les ken Ils veulent nous baiser, au comico, les frères s'taisaient De rapper nos vies, c'est du freestyle Ils veulent nous baiser, au comico, les frères s'taisaient J'en rêvais d'l'oseille, maintenant, faut qu'j'taille Même secteur On a la moula dans le même secteur On reste en esprit dans les mêmes secteurs On a la moula dans le même secteur On reste en esprit dans les mêmes secteurs J'suis dans mon secteur, c'est Medellín Cartel Bouyou m'appelle, j'finis à Orgemont sous Jack et Daniel Viens à la Sablière, et ça date pas d'hier Nous fais pas d'manières, on va t'niquer ta mère 86 billets et mon canon scié, j'sais comment l'manier Many m'a dit un jour qu'il fallait des billets pour toujours être à jour J'suis sur l'terrain tout comme Hakan ükür Artena !, ça court, cherche une issue d'secours Même secteur On a la moula dans le même secteur On reste en esprit dans les mêmes secteurs On a la moula dans le même secteur On reste en esprit dans les mêmes secteurs Même secteur Même secteur Même secteur Même secteur</t>
+          <t>Hornet La Frappe, Heuss L'enfoiré, ça vient du même secteur C'est pas du cinéma, nous, on baise l'inspecteur C'est pas des collégiens, on s'fait rares comme des Norvégiens, viens pas nous contredire On va rentrer en guerre, j'peux rentrer chez ta mère une histoire légendaire Ici, tout est carré comme le Nord d'la Corée Les keufs t'allument ta mère et ils s'font décorer Nique les balances ils ont collaboré J'organise un départ, tout seul dans la forêt, j'vais même pas la fourrer J'prends mon truc avec moi pour mieux l'inaugurer Maroqui 43, une Hiza-Guruma Tu sais qu'on est coriaces et surveille ton thorax Au placard, ça progresse Les coups d'filets qui passent, dix piges ou la relax Ils veulent nous baiser, au comico, les frères s'taisaient De rapper nos vies, c'est du freestyle Ils veulent nous baiser, au comico, les frères s'taisaient J'en rêvais d'l'oseille, maintenant, faut qu'j'taille Même secteur On a la moula dans le même secteur On reste en esprit dans les mêmes secteurs On a la moula dans le même secteur On reste en esprit dans les mêmes secteurs ORG, Sablière, plus un gramme dans l'sablier On a perdu des frères en tirant, c'est les cités ou l'Iran ? Impact de balle dans l'épaule, couteau dans l'dos, j'en rigole J'suis un rappeur, pas une icône, j'incite pas à rouler l'cône Les rondes de bleus parasitent, la vente de beuh rassasie Pour l'bénéf, t'assassines, rafales sur Kawasaki Rue d'Marseille, 23 ans, j'fréquente les mêmes ganaches Plus d'sentiments, pas d'sentinelle, criminelle est la Kalash' Viens dans ma cité, c'est là j'me suis fait, j'ai les clés Comme des samouraïs, comme l'avait chanté Shurik'n Grosse émeute, 2005, ça 3amar le jerrican ORG, VLG, là, je sais qu'j'vais les ken Ils veulent nous baiser, au comico, les frères s'taisaient De rapper nos vies, c'est du freestyle Ils veulent nous baiser, au comico, les frères s'taisaient J'en rêvais d'l'oseille, maintenant, faut qu'j'taille Même secteur On a la moula dans le même secteur On reste en esprit dans les mêmes secteurs On a la moula dans le même secteur On reste en esprit dans les mêmes secteurs J'suis dans mon secteur, c'est Medellín Cartel Bouyou m'appelle, j'finis à Orgemont sous Jack et Daniel Viens à la Sablière, et ça date pas d'hier Nous fais pas d'manières, on va t'niquer ta mère 86 billets et mon canon scié, j'sais comment l'manier Many m'a dit un jour qu'il fallait des billets pour toujours être à jour J'suis sur l'terrain tout comme Hakan ükür Artena !, ça court, cherche une issue d'secours Même secteur On a la moula dans le même secteur On reste en esprit dans les mêmes secteurs On a la moula dans le même secteur On reste en esprit dans les mêmes secteurs Même secteur Même secteur Même secteur Même secteur</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Chica, como estas? Como estas? Eh Chica, cómo estás? C'est les bandits des cités Guitare accordée, tu vas chanter La Marseillaise Chica, cómo estás? C'est les bandits des cités Guitare accordée Tu vas chanter Allons enfants de la patrie, y a du bon jaune qu'est arrivé J'entends Arthena, ça crie, le gérant fait que d'trafiquer C'est les cités d'France, la mou'-mou', les cités d'Frangance C'est les cités d'France, c'est la mou'-mou', les cités d'Frangance C'est les cités d'France, la mou'-mou', les cités d'Frangance C'est les cités d'France, c'est la mou'-mou', les cités d'Frangance Eh, eh, eh Elle est stringuée, elle est bonne, elle fait que des problèmes Cinq-six verres d'alcool et j'lui écris des poèmes Elle veut qu'j'la marie en Espagne, en esprit, j'connais l'bail J'connais l'prix mais j'l'achète, j'ai la maille, eh, eh, eh You might also like Chica, cómo estás? C'est les bandits des cités Guitare accordée, tu vas chanter La Marseillaise Chica, cómo estás? C'est les bandits des cités Guitare accordée Tu vas chanter Allons enfants de la patrie, y a du bon jaune qu'est arrivé J'entends Arthena, ça crie, le gérant fait que d'trafiquer C'est les cités d'France, la mou'-mou', les cités d'Frangance C'est les cités d'France, c'est la mou'-mou', les cités d'Frangance C'est les cités d'France, la mou'-mou', les cités d'Frangance C'est les cités d'France, c'est la mou'-mou', les cités d'Frangance Eh, eh, eh Elle est bonne, elle est conne, elle rend pas la monnaie Skch, skch Elle veut la clé du Porsche, un gosse, plus le poney J'casse ma puce Lebara, allez, bon débarras Appelle ton bout-mara, le meilleur de ta cité Chica, cómo estás? C'est les bandits des cités Guitare accordée, tu vas chanter La Marseillaise Chica, cómo estás? C'est les bandits des cités Guitare accordée Tu vas chanter Allons enfants de la patrie, y a du bon jaune qu'est arrivé J'entends Arthena, ça crie, le gérant fait que d'trafiquer C'est les cités d'France, la mou'-mou', les cités d'Frangance C'est les cités d'France, c'est la mou'-mou', les cités d'Frangance C'est les cités d'France, la mou'-mou', les cités d'Frangance C'est les cités d'France, c'est la mou'-mou', les cités d'Frangance Eh, eh, eh2</t>
+          <t>Chica, como estas? Como estas? Eh Chica, cómo estás? C'est les bandits des cités Guitare accordée, tu vas chanter La Marseillaise Chica, cómo estás? C'est les bandits des cités Guitare accordée Tu vas chanter Allons enfants de la patrie, y a du bon jaune qu'est arrivé J'entends Arthena, ça crie, le gérant fait que d'trafiquer C'est les cités d'France, la mou'-mou', les cités d'Frangance C'est les cités d'France, c'est la mou'-mou', les cités d'Frangance C'est les cités d'France, la mou'-mou', les cités d'Frangance C'est les cités d'France, c'est la mou'-mou', les cités d'Frangance Eh, eh, eh Elle est stringuée, elle est bonne, elle fait que des problèmes Cinq-six verres d'alcool et j'lui écris des poèmes Elle veut qu'j'la marie en Espagne, en esprit, j'connais l'bail J'connais l'prix mais j'l'achète, j'ai la maille, eh, eh, eh Chica, cómo estás? C'est les bandits des cités Guitare accordée, tu vas chanter La Marseillaise Chica, cómo estás? C'est les bandits des cités Guitare accordée Tu vas chanter Allons enfants de la patrie, y a du bon jaune qu'est arrivé J'entends Arthena, ça crie, le gérant fait que d'trafiquer C'est les cités d'France, la mou'-mou', les cités d'Frangance C'est les cités d'France, c'est la mou'-mou', les cités d'Frangance C'est les cités d'France, la mou'-mou', les cités d'Frangance C'est les cités d'France, c'est la mou'-mou', les cités d'Frangance Eh, eh, eh Elle est bonne, elle est conne, elle rend pas la monnaie Skch, skch Elle veut la clé du Porsche, un gosse, plus le poney J'casse ma puce Lebara, allez, bon débarras Appelle ton bout-mara, le meilleur de ta cité Chica, cómo estás? C'est les bandits des cités Guitare accordée, tu vas chanter La Marseillaise Chica, cómo estás? C'est les bandits des cités Guitare accordée Tu vas chanter Allons enfants de la patrie, y a du bon jaune qu'est arrivé J'entends Arthena, ça crie, le gérant fait que d'trafiquer C'est les cités d'France, la mou'-mou', les cités d'Frangance C'est les cités d'France, c'est la mou'-mou', les cités d'Frangance C'est les cités d'France, la mou'-mou', les cités d'Frangance C'est les cités d'France, c'est la mou'-mou', les cités d'Frangance Eh, eh, eh2</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Slata hollandaise, té-ma la nouvelle caisse Gucci, Hermègues, j'me permets j'suis dans le Mercedes Ah, ah Ramasse que d'l'espèce, une grosse kich' épaisse Skch, skch Disques d'or, platine, trente-six mille showcases Ouais, nan T'inquiète pas qu'on encaisse et ça, c'est every days, every days Business Emirates, on arrive en direct En direct Respecte les architectes et le .9 millimètres .9 millimètres Ici, la scie sauteuse contrôle le périmètre En esprit, cinq UberEats livrés et y a toute la beuh Ouais, le S, ils sont derrières nous, ça part en tête à queue Suspecté comme l'arrière salle d'un restaurant chinois C'est que d'la magie noire, jl'ai vu dans le miroir Skch, skch Suspecté comme l'arrière salle d'un restaurant chinois C'est que d'la magie noire, jl'ai vu dans le miroir Super Silver Haze, Super Silver Haze Super Silver Haze, Super Silver Haze Oh, c'est que d'la magie noire Oh, c'est que d'la magie noire Super Silver Haze, Super Silver Haze Super Silver Haze, Ha-a-aze Oh, c'est que d'la magie noire Oh, c'est que d'la magie noire You might also like Super Silver Haze, G13 amnésia Oh, oh, fais passer la pure par Air Malaysia No Sans quart ni demi, j'vais jouer la finale Oh, oh, j'connais les gars qui ont financé l'assassinat, ouais Oh Minimum dix millions sinon, t'es pas loin d'être pauvre Ils m'ont souhaité la mort, là, ils sont pas loin d'être chauves Les armes ne sont rien, puto, sans les munitions No Midi-minuit, les méchants Les méchants On est prêts, au charbon, y a des druides qu'ont tous les produits On est frais, on n'a jamais fui, on n'est jamais free, c'est la dope Si tu parles chinois, personne te traduit, j'paye la note Les haters ont maigri, les ients-cli ont maigri Super Silver Haze, Super Silver Haze Super Silver Haze, Super Silver Haze Oh, C'est que d'la magie noire Oh, c'est que d'la magie noire Super Silver Haze, Super Silver Haze Super Silver Haze, Ha-a-aze Oh, c'est que d'la magie noire Oh, c'est que d'la magie noire Oh, c'est que d'la magie noire Oh, c'est que d'la magie noire</t>
+          <t>Slata hollandaise, té-ma la nouvelle caisse Gucci, Hermègues, j'me permets j'suis dans le Mercedes Ah, ah Ramasse que d'l'espèce, une grosse kich' épaisse Skch, skch Disques d'or, platine, trente-six mille showcases Ouais, nan T'inquiète pas qu'on encaisse et ça, c'est every days, every days Business Emirates, on arrive en direct En direct Respecte les architectes et le .9 millimètres .9 millimètres Ici, la scie sauteuse contrôle le périmètre En esprit, cinq UberEats livrés et y a toute la beuh Ouais, le S, ils sont derrières nous, ça part en tête à queue Suspecté comme l'arrière salle d'un restaurant chinois C'est que d'la magie noire, jl'ai vu dans le miroir Skch, skch Suspecté comme l'arrière salle d'un restaurant chinois C'est que d'la magie noire, jl'ai vu dans le miroir Super Silver Haze, Super Silver Haze Super Silver Haze, Super Silver Haze Oh, c'est que d'la magie noire Oh, c'est que d'la magie noire Super Silver Haze, Super Silver Haze Super Silver Haze, Ha-a-aze Oh, c'est que d'la magie noire Oh, c'est que d'la magie noire Super Silver Haze, G13 amnésia Oh, oh, fais passer la pure par Air Malaysia No Sans quart ni demi, j'vais jouer la finale Oh, oh, j'connais les gars qui ont financé l'assassinat, ouais Oh Minimum dix millions sinon, t'es pas loin d'être pauvre Ils m'ont souhaité la mort, là, ils sont pas loin d'être chauves Les armes ne sont rien, puto, sans les munitions No Midi-minuit, les méchants Les méchants On est prêts, au charbon, y a des druides qu'ont tous les produits On est frais, on n'a jamais fui, on n'est jamais free, c'est la dope Si tu parles chinois, personne te traduit, j'paye la note Les haters ont maigri, les ients-cli ont maigri Super Silver Haze, Super Silver Haze Super Silver Haze, Super Silver Haze Oh, C'est que d'la magie noire Oh, c'est que d'la magie noire Super Silver Haze, Super Silver Haze Super Silver Haze, Ha-a-aze Oh, c'est que d'la magie noire Oh, c'est que d'la magie noire Oh, c'est que d'la magie noire Oh, c'est que d'la magie noire</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Fuck, it's easy oh Oh, oh, oh J'sais qu'ils laissent tourner le trafic de shit car ils nous préfèrent camisolés Les nouveaux cerveaux, faut les endormir, leur dire que la vie, c'est batifoler Les capitaines récalcitrants dans des prisons dorées, faut les pavillonner Promotionner les rappeurs, faire croire aux jeunes, c'est ça d'être révolutionnaire Nos parents travaillaient comme des esclaves, on va pas revivre c schéma Et c'est pas ton destin entr tes deux mains, c'est ton couteau et ta bite de shemale Ils ont discrédité la religion pour qu'on oublie le Diable dans le ché-mar Comme ça, c'est que d'la gestion économique, on peut enlever Lezarman du scénar' Diviser pour mieux régner Oh, oh, oh, diviser pour mieux régner Diviser pour mieux régner Oh, oh, oh, diviser pour mieux régner Jadis déjà déshumanisés, l'argent nous a même pas divisés Les traîtres et les pookies sont visés Skch, skch, skch, ceux qui déformaient ce qu'on disait La police est bel et bien fan de notre train d'vie, le trafic est très bien organisé Hm La police est bel et bien fan de notre train d'vie, le trafic est très bien organisé Hm J'fais que multiplier, kichta illimitée, en pleine activité, toujours bien équipé Malgré la cendre accumulée dans l'cendrier Dans l'cendrier, remets d'l'essence dans l'encrier L'encrier Violent comme l'époque, tah les templiers Templiers, si tu souffres, fais-le sans crier Sans crier Va pas attirer tous les sangliers Sangliers, sangliers En prison, division, cellulaire comme un embryon, j'veux Céline Dion, Cendrillon avec ses millions Démonstration, transaction, tous à l'unisson Oh, oh, oh On t'la met dans l'cul, nous alunissons Yeah, c'est toujours les mêmes qui payent l'addition Wow Et, Dieu merci, j'connais ma mission Wow, regarde les mains que nous salissons Hm You might also like J'sais qu'ils laissent tourner le trafic de shit car ils nous préfèrent camisolés Les nouveaux cerveaux, faut les endormir, leur dire que la vie, c'est batifoler Les capitaines récalcitrants dans des prisons dorées, faut les pavilloner Promotionner les rappeurs, faire croire aux jeunes, c'est ça d'être révolutionnaire Nos parents travaillaient comme des esclaves, on va pas revivre ce schéma Et c'est pas ton destin entre tes deux mains, c'est ton couteau et ta bite de shemale Ils ont discrédité la religion pour qu'on oublie le Diable dans le ché-mar Comme ça, c'est que d'la gestion économique, on peut enlever Lezarman du scénar' Diviser pour mieux régner Oh, oh, oh, diviser pour mieux régner Diviser pour mieux régner Oh, oh, oh, diviser pour mieux régner Oh, oh, oh Oh, oh, oh3</t>
+          <t>Fuck, it's easy oh Oh, oh, oh J'sais qu'ils laissent tourner le trafic de shit car ils nous préfèrent camisolés Les nouveaux cerveaux, faut les endormir, leur dire que la vie, c'est batifoler Les capitaines récalcitrants dans des prisons dorées, faut les pavillonner Promotionner les rappeurs, faire croire aux jeunes, c'est ça d'être révolutionnaire Nos parents travaillaient comme des esclaves, on va pas revivre c schéma Et c'est pas ton destin entr tes deux mains, c'est ton couteau et ta bite de shemale Ils ont discrédité la religion pour qu'on oublie le Diable dans le ché-mar Comme ça, c'est que d'la gestion économique, on peut enlever Lezarman du scénar' Diviser pour mieux régner Oh, oh, oh, diviser pour mieux régner Diviser pour mieux régner Oh, oh, oh, diviser pour mieux régner Jadis déjà déshumanisés, l'argent nous a même pas divisés Les traîtres et les pookies sont visés Skch, skch, skch, ceux qui déformaient ce qu'on disait La police est bel et bien fan de notre train d'vie, le trafic est très bien organisé Hm La police est bel et bien fan de notre train d'vie, le trafic est très bien organisé Hm J'fais que multiplier, kichta illimitée, en pleine activité, toujours bien équipé Malgré la cendre accumulée dans l'cendrier Dans l'cendrier, remets d'l'essence dans l'encrier L'encrier Violent comme l'époque, tah les templiers Templiers, si tu souffres, fais-le sans crier Sans crier Va pas attirer tous les sangliers Sangliers, sangliers En prison, division, cellulaire comme un embryon, j'veux Céline Dion, Cendrillon avec ses millions Démonstration, transaction, tous à l'unisson Oh, oh, oh On t'la met dans l'cul, nous alunissons Yeah, c'est toujours les mêmes qui payent l'addition Wow Et, Dieu merci, j'connais ma mission Wow, regarde les mains que nous salissons Hm J'sais qu'ils laissent tourner le trafic de shit car ils nous préfèrent camisolés Les nouveaux cerveaux, faut les endormir, leur dire que la vie, c'est batifoler Les capitaines récalcitrants dans des prisons dorées, faut les pavilloner Promotionner les rappeurs, faire croire aux jeunes, c'est ça d'être révolutionnaire Nos parents travaillaient comme des esclaves, on va pas revivre ce schéma Et c'est pas ton destin entre tes deux mains, c'est ton couteau et ta bite de shemale Ils ont discrédité la religion pour qu'on oublie le Diable dans le ché-mar Comme ça, c'est que d'la gestion économique, on peut enlever Lezarman du scénar' Diviser pour mieux régner Oh, oh, oh, diviser pour mieux régner Diviser pour mieux régner Oh, oh, oh, diviser pour mieux régner Oh, oh, oh Oh, oh, oh3</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Han, han, han Johnny de, de Johnny de, de Johnny de Janeiro Rio de Diñero YL, Heuss Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik Ouais, ça sent la drogue dans ma tour et personne parle à mon père, encore moins aux porcs On va tout droit dans le mur, c'est Chanel et Dior que j'adore J'défends mon or, si j'te vois sortir le fer, évidemment que j'vais fuir Tenter d'maîtriser mon sort, comme c'est évidemment qu' j'vais revenir coucou Ils viennent péter un conteneur, bébé, je sors, je vais prendre l'air Je baiserai toute la ville ce soir, demain, on dîne avec ma mère On percera des coffres-forts, les rotules des mercenaires Quand j'ai tort, faut être d'accord Ta3 Vladimir, Dark Vador 3azba sur 3azba Poto, j'peux t'faire croire que les bambis, c'est la NASA Que la muni', c'est la Guardia J'fais des restos sur restos J'leur dis que j'vais aux toilettes Mais j'vais régler la cuenta, c'est pour ça qu'ils me disent mes potos You might also like Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik J't'explique On vend l'héro', la coco, mais on fume que l'shit Y a la violence en refrain, la misère en feat Si tu laisses mes ennemis sur l'dos, regarde dans l'vide Stahraf bik, stahraf bik Magnifique, elle est ma Bella, elle a le sang chaud comme son pélo Elle sait bien compter les liasses, les emballer dans le cello' Stahraf bik, pour toi, j'galère toute une nuit Bâtard, ramène toute ta clique, ta mère la pute sur VivaStreet, hein Tu fais la gueule, vingt bouteilles, elle te regarde pas, t'en es dégoûté Elle fait la bombe, Louboutin, je la regarde pas elle est dégoûtante Peu de feats et pas de chicha, regard plongé dans ses nichons Liasse de marron dans le Fendi, elle ne me fait jamais de chichis Ils se souviennent de moi comme Okocha, j'suis rebeu et puissant et carré, mon frelon On est invité par le Sanz', on est vulgaires et violents et ravis d'être là Ils se souviennent de moi comme Okocha, j'suis rebeu et puissant et carré mon frelon On est invité par le Sanz', on est vulgaires et violents et ravis d'être là J't'explique On vend l'héro', la coco, mais on fume que l'shit Y a la violence en refrain, la misère en feat Si tu laisses mes ennemis sur l'dos, regarde dans l'vide Stahraf bik, stahraf bik Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik J'passe la douane sur du Balavoine comment ça, j'suis dans Koh-Lanta ? J'veux manger chinois pour quatre cents talas, baiser la dernière Pocahantas Ramène les conteneurs de Buenos Aires, tiser du whisky comme au Texas Grosse menace pour que tu khalass, j'fais du khaliss avec aucune classe Dans les vraies cités d'France, on laisse aucune trace, j'calcule même pas ton équipe de trans' J'envoie d'la blanche sur la file de gauche, avec un peu d'chance, on fait quelque chose Deux-trois ients-cli, quatre-vingt-six doses les daltoniens voient la vie en rose Les pchiteux d'la bite, ils savent où j'habite, j'm'habille en noir quand la messe est dite Dans la rue, c'est la Seleção, j'te ramène d'la gue-dro jusqu'à Porte Maillot C'est Riina Toto et Provenzano ça joue d'la guitare, ça fait pas d'piano No no Malaga, c'est moi, Hermano, dans deux heures d'avion, j'suis au scandalo C'est la khabta trois fois sept-cents palo, j'suis dans l'escalier avec mon sac à dos C'est nous les patrons, récupère le pizzo dans la boîte à pizza, j'ramène le sirop et hasta la vista J'suis dans les visa, les kichta, la rizla, la shlata tah me-da, hechek Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik J't'explique On vend l'héro', la coco, mais on fume que l'shit Y a la violence en refrain, la misère en feat Si tu laisses mes ennemis sur l'dos, regarde dans l'vide Stahraf bik, stahraf bik Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik</t>
+          <t>Han, han, han Johnny de, de Johnny de, de Johnny de Janeiro Rio de Diñero YL, Heuss Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik Ouais, ça sent la drogue dans ma tour et personne parle à mon père, encore moins aux porcs On va tout droit dans le mur, c'est Chanel et Dior que j'adore J'défends mon or, si j'te vois sortir le fer, évidemment que j'vais fuir Tenter d'maîtriser mon sort, comme c'est évidemment qu' j'vais revenir coucou Ils viennent péter un conteneur, bébé, je sors, je vais prendre l'air Je baiserai toute la ville ce soir, demain, on dîne avec ma mère On percera des coffres-forts, les rotules des mercenaires Quand j'ai tort, faut être d'accord Ta3 Vladimir, Dark Vador 3azba sur 3azba Poto, j'peux t'faire croire que les bambis, c'est la NASA Que la muni', c'est la Guardia J'fais des restos sur restos J'leur dis que j'vais aux toilettes Mais j'vais régler la cuenta, c'est pour ça qu'ils me disent mes potos Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik J't'explique On vend l'héro', la coco, mais on fume que l'shit Y a la violence en refrain, la misère en feat Si tu laisses mes ennemis sur l'dos, regarde dans l'vide Stahraf bik, stahraf bik Magnifique, elle est ma Bella, elle a le sang chaud comme son pélo Elle sait bien compter les liasses, les emballer dans le cello' Stahraf bik, pour toi, j'galère toute une nuit Bâtard, ramène toute ta clique, ta mère la pute sur VivaStreet, hein Tu fais la gueule, vingt bouteilles, elle te regarde pas, t'en es dégoûté Elle fait la bombe, Louboutin, je la regarde pas elle est dégoûtante Peu de feats et pas de chicha, regard plongé dans ses nichons Liasse de marron dans le Fendi, elle ne me fait jamais de chichis Ils se souviennent de moi comme Okocha, j'suis rebeu et puissant et carré, mon frelon On est invité par le Sanz', on est vulgaires et violents et ravis d'être là Ils se souviennent de moi comme Okocha, j'suis rebeu et puissant et carré mon frelon On est invité par le Sanz', on est vulgaires et violents et ravis d'être là J't'explique On vend l'héro', la coco, mais on fume que l'shit Y a la violence en refrain, la misère en feat Si tu laisses mes ennemis sur l'dos, regarde dans l'vide Stahraf bik, stahraf bik Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik J'passe la douane sur du Balavoine comment ça, j'suis dans Koh-Lanta ? J'veux manger chinois pour quatre cents talas, baiser la dernière Pocahantas Ramène les conteneurs de Buenos Aires, tiser du whisky comme au Texas Grosse menace pour que tu khalass, j'fais du khaliss avec aucune classe Dans les vraies cités d'France, on laisse aucune trace, j'calcule même pas ton équipe de trans' J'envoie d'la blanche sur la file de gauche, avec un peu d'chance, on fait quelque chose Deux-trois ients-cli, quatre-vingt-six doses les daltoniens voient la vie en rose Les pchiteux d'la bite, ils savent où j'habite, j'm'habille en noir quand la messe est dite Dans la rue, c'est la Seleção, j'te ramène d'la gue-dro jusqu'à Porte Maillot C'est Riina Toto et Provenzano ça joue d'la guitare, ça fait pas d'piano No no Malaga, c'est moi, Hermano, dans deux heures d'avion, j'suis au scandalo C'est la khabta trois fois sept-cents palo, j'suis dans l'escalier avec mon sac à dos C'est nous les patrons, récupère le pizzo dans la boîte à pizza, j'ramène le sirop et hasta la vista J'suis dans les visa, les kichta, la rizla, la shlata tah me-da, hechek Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik J't'explique On vend l'héro', la coco, mais on fume que l'shit Y a la violence en refrain, la misère en feat Si tu laisses mes ennemis sur l'dos, regarde dans l'vide Stahraf bik, stahraf bik Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik Stahraf, stahraf, stahraf, stahraf bik</t>
         </is>
       </c>
     </row>
@@ -1211,7 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Ya-Yasser J'suis dans la rue, la street en plein du cur du trafic J'fonce récupérer le truc direct dans la fabrique On fait affaires même si t'as fait lhôpital psychiatrique L'argent dans lélastique, la gue-dro dans le sac plastique Regarde les anciens, la moitié sont morts à la ZIP Gros, c'est la street de rue, c'est un vrai film de cul J'vais tous leur pisser d'ssus comme ça, j'serai pas déçu De toute façon, je n'ai pas d'issue, j'me sens pas trop d'ici Viens faire un tour chez moi, c'est Washington DC Y a v'là les Alvarez, Hernandez, Simon Adebisi Tu donnes l'heure à personne, ici, nous raconte pas ta vie Va plutôt surveiller ta fille, vérifie si elle s'est pas fait té-cla son ca-vu C'est la vraie street de rue, y a pas beaucoup d'gentils, ça prend même plus le temps d'rire Va-t-en comprendre, de jour en jour, c'est que de pire en pire Ça va t'baiser ta mère, faut qu't'arrête de mentir Y a v'là la marchandise et des sacs à remplir J'ai, j'ai vu des balances laisser pousser la barbe, essayer de s'repentir Quoi qu'il arrive, on va t'raser la tête comme un skinhead de merde Apres deux-trois verres et fumer d'l'herbe, j'envoie que des proverbes Tu passes à la télé, t'as fait les Anges, nous, on a fait l'Enfer Ramène ta meuf un peu pour voir, on lui casse les ovaires Y a d'la boisson et d'la fumée, j'me fais mal au veau-cer Y a d'la boisson et d'la fumée, j'me fais mal au veau-cer Pour v'-esqui la misère, j'la découpe après, j'la visser La street de rue, la taule, lhôpital, après, c'est cimetière Y a pas d'préliminaires, c'est même pas nécessaire Personne veut s'laisser faire, tout pour le réconfort Le but, c'est d'faire des sous et d'moins en moins d'efforts Viens faire un tour dehors, vendeurs et proxénètes, perceurs de coffres-fort Magicien renommé, Professeur Dumbledore Les ges-sh' en veulent encore, dehors, c'est comme dedans La plupart, c'est que des menteurs, des histoires légendaires Tu m'crois pas ? Demande-leur de refaire l'inventaire Dans la rue, j'suis reconnu comme Jérôme Commandeur Hier, j'étais un malfaiteur, aujourd'hui, j'suis chanteur J'dois relever les compteurs et pour s'refaire, il est jamais trop tard Y a des putes, des clochards sur tous les boulevards, y a pas d'échappatoire Viens faire un tour, on t'emmène en croisière mais y a pas d'marche arrière Tu fais du foot, on t'casse ta be-j', on t'encule ta carrière À l'époque, j'respecte rien, j'écoute personne, j'fais pleurer la mader J'faisais d'la taule, j'étais célibataire Dorénavant, ça a changé, là j'peux toutes me les faire Elle croit que j'vais la baiser mais j'vais toutes les baiser sur la tête de la mère BX Land partie 5, c'est pas une entrevue, c'est une longue garde à vue Déféré au Parquet mais j'passe pas aux aveux, tu connais mon baveux pah, pah, pahYou might also like1</t>
+          <t>Ya-Yasser J'suis dans la rue, la street en plein du cur du trafic J'fonce récupérer le truc direct dans la fabrique On fait affaires même si t'as fait lhôpital psychiatrique L'argent dans lélastique, la gue-dro dans le sac plastique Regarde les anciens, la moitié sont morts à la ZIP Gros, c'est la street de rue, c'est un vrai film de cul J'vais tous leur pisser d'ssus comme ça, j'serai pas déçu De toute façon, je n'ai pas d'issue, j'me sens pas trop d'ici Viens faire un tour chez moi, c'est Washington DC Y a v'là les Alvarez, Hernandez, Simon Adebisi Tu donnes l'heure à personne, ici, nous raconte pas ta vie Va plutôt surveiller ta fille, vérifie si elle s'est pas fait té-cla son ca-vu C'est la vraie street de rue, y a pas beaucoup d'gentils, ça prend même plus le temps d'rire Va-t-en comprendre, de jour en jour, c'est que de pire en pire Ça va t'baiser ta mère, faut qu't'arrête de mentir Y a v'là la marchandise et des sacs à remplir J'ai, j'ai vu des balances laisser pousser la barbe, essayer de s'repentir Quoi qu'il arrive, on va t'raser la tête comme un skinhead de merde Apres deux-trois verres et fumer d'l'herbe, j'envoie que des proverbes Tu passes à la télé, t'as fait les Anges, nous, on a fait l'Enfer Ramène ta meuf un peu pour voir, on lui casse les ovaires Y a d'la boisson et d'la fumée, j'me fais mal au veau-cer Y a d'la boisson et d'la fumée, j'me fais mal au veau-cer Pour v'-esqui la misère, j'la découpe après, j'la visser La street de rue, la taule, lhôpital, après, c'est cimetière Y a pas d'préliminaires, c'est même pas nécessaire Personne veut s'laisser faire, tout pour le réconfort Le but, c'est d'faire des sous et d'moins en moins d'efforts Viens faire un tour dehors, vendeurs et proxénètes, perceurs de coffres-fort Magicien renommé, Professeur Dumbledore Les ges-sh' en veulent encore, dehors, c'est comme dedans La plupart, c'est que des menteurs, des histoires légendaires Tu m'crois pas ? Demande-leur de refaire l'inventaire Dans la rue, j'suis reconnu comme Jérôme Commandeur Hier, j'étais un malfaiteur, aujourd'hui, j'suis chanteur J'dois relever les compteurs et pour s'refaire, il est jamais trop tard Y a des putes, des clochards sur tous les boulevards, y a pas d'échappatoire Viens faire un tour, on t'emmène en croisière mais y a pas d'marche arrière Tu fais du foot, on t'casse ta be-j', on t'encule ta carrière À l'époque, j'respecte rien, j'écoute personne, j'fais pleurer la mader J'faisais d'la taule, j'étais célibataire Dorénavant, ça a changé, là j'peux toutes me les faire Elle croit que j'vais la baiser mais j'vais toutes les baiser sur la tête de la mère BX Land partie 5, c'est pas une entrevue, c'est une longue garde à vue Déféré au Parquet mais j'passe pas aux aveux, tu connais mon baveux pah, pah, pah1</t>
         </is>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Grosse moulaga tah Bogotá Heuss L'enfoiré, c'est moi, là, dans les quotas Tous les ients-cli de mon côté sont contents J'les ai vi-ser l'été, hiver, le printemps J'suis comme Polonais, j'fais que des plein temps eh, ouais Ramène de l'argent comptant sur un plateau Plomo ou plata, Sébastien Guarato Guyon 92 département, on est des vrais charos Heussla On a fait des plein phares pour pas finir chards-clo ny-Ma J'me fais crever par l'équipe de Navarro les Colombo Quand j'vais au hebs, j'ai pas décidé skch, skch, skch Pour faire d'l'argent, j'ai v'là les idées skch, skch, skch Au deuxième étage, ça nous prend en photo C.R 6, rue Hector Berlioz, ça bicrave à té-co la beu-her Des fois, j'fais du gent-ar tout seul sur ma moto J'ai que mon Maroki, ma bite et mon couteau Grosse moulaga tah Bogotá latina Heuss L'enfoiré, c'est moi, là, dans les quotas Artena Tous les ients-cli de mon côté sont contents 0.7 J'les ai vi-ser l'été, hiver, le printemps au culot Grosse moulaga tah Bogotá latina Heuss L'enfoiré, c'est moi, là, dans les quotas Artena Tous les ients-cli de mon côté sont contents 0.7 J'les ai vi-ser l'été, hiver, le printemps au culot You might also like Tranguiquiguilougou, j'ai fait mon mélange Nique toutes les poucaves, tous ceux qui m'dérangent Tu t'rappelles de nous, comme les Yougo' Demande à You', la moula, c'est cinq euros Cinquième étage, le bât' plein de schlags La Dép' et la BAC font des tête-à-queue Artena piquant, l'UTeQ nous a raté C'est nous les narrateurs, on fait pas d'karaté Tu nous connais déjà, protège ton thorax ouais, ouais On pourra pas t'rater, dix piges ou la relaxe Des fois, j'fais du gent-ar tout seul sur ma moto J'ai que mon Maroki, ma bite et mon couteau Grosse moulaga tah Bogotá latina Heuss L'enfoiré, c'est moi, là, dans les quotas Artena Tous les ients-cli de mon côté sont contents 0.7 J'les ai vi-ser l'été, hiver, le printemps au culot Grosse moulaga tah Bogotá latina Heuss L'enfoiré, c'est moi, là, dans les quotas Artena Tous les ients-cli de mon côté sont contents 0.7 J'les ai vi-ser l'été, hiver, le printemps au culot Au culot</t>
+          <t>Grosse moulaga tah Bogotá Heuss L'enfoiré, c'est moi, là, dans les quotas Tous les ients-cli de mon côté sont contents J'les ai vi-ser l'été, hiver, le printemps J'suis comme Polonais, j'fais que des plein temps eh, ouais Ramène de l'argent comptant sur un plateau Plomo ou plata, Sébastien Guarato Guyon 92 département, on est des vrais charos Heussla On a fait des plein phares pour pas finir chards-clo ny-Ma J'me fais crever par l'équipe de Navarro les Colombo Quand j'vais au hebs, j'ai pas décidé skch, skch, skch Pour faire d'l'argent, j'ai v'là les idées skch, skch, skch Au deuxième étage, ça nous prend en photo C.R 6, rue Hector Berlioz, ça bicrave à té-co la beu-her Des fois, j'fais du gent-ar tout seul sur ma moto J'ai que mon Maroki, ma bite et mon couteau Grosse moulaga tah Bogotá latina Heuss L'enfoiré, c'est moi, là, dans les quotas Artena Tous les ients-cli de mon côté sont contents 0.7 J'les ai vi-ser l'été, hiver, le printemps au culot Grosse moulaga tah Bogotá latina Heuss L'enfoiré, c'est moi, là, dans les quotas Artena Tous les ients-cli de mon côté sont contents 0.7 J'les ai vi-ser l'été, hiver, le printemps au culot Tranguiquiguilougou, j'ai fait mon mélange Nique toutes les poucaves, tous ceux qui m'dérangent Tu t'rappelles de nous, comme les Yougo' Demande à You', la moula, c'est cinq euros Cinquième étage, le bât' plein de schlags La Dép' et la BAC font des tête-à-queue Artena piquant, l'UTeQ nous a raté C'est nous les narrateurs, on fait pas d'karaté Tu nous connais déjà, protège ton thorax ouais, ouais On pourra pas t'rater, dix piges ou la relaxe Des fois, j'fais du gent-ar tout seul sur ma moto J'ai que mon Maroki, ma bite et mon couteau Grosse moulaga tah Bogotá latina Heuss L'enfoiré, c'est moi, là, dans les quotas Artena Tous les ients-cli de mon côté sont contents 0.7 J'les ai vi-ser l'été, hiver, le printemps au culot Grosse moulaga tah Bogotá latina Heuss L'enfoiré, c'est moi, là, dans les quotas Artena Tous les ients-cli de mon côté sont contents 0.7 J'les ai vi-ser l'été, hiver, le printemps au culot Au culot</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>A RETRANSCRIRE Moi je suis Bigflo, c'est timide, c'est Vrai que j'ai pas le bon physique, mais J'en ai vendu 200.000 Sans trafiquer les streamings Je te fais l'effet du cannabis Oui je trafique les rimes que j'ai distillé MC's qui ont ni flow ni style Disent que rapper vite c'est trop facile Je balance des rimes depuis mes 10 piges Comme dirais Sofiane je distribue des ich ich On fait des zéniths alors qu'on vient des petites salles C'est vrai qu'on est fiers de tout ça mais on vise les stades Yeah, je balance que du neuf Mais je vais pas te faire de bluff J'ai remplis plus de salles que de meufs, ouais Mon succès étonne personne, comme si le destin était écrit Le rap, pour moi c'est trop facile Je suis tombé dedans quand j'étais petit Le stress, tout ça, c'est fini On a cassé des portes avec nos phrases et nos gimmicks Quand j'serais mort, tout pâle et frigide J'irais taper un freestyle avec Tupac et Biggie Allez, allez, rentre dans le cercle Ça tourne pas rond dans c'monde de taré Y'a les meilleurs MC's de l'Hexagone La prod on va lui mettre la tête au carré On a mis Toulouse sur la carte, ouais, et les puristes savent Je viens du sud, quand je monte à Paris, j'attrape la tourista Je les ai choqué, je sais qu'ils ont plus peur de nos vérités mais ces types ne veulent pas nous voir On a mérité tous les clics sur nos clips, je débite un egotrip quand je prend le pouvoir Quand je kick ton équipe tripe sur ma technique mythique j'en ai plein le tiroir Si tu dis Oli Oli Oli, j'apparais à minuit devant ton miroir Sortez vos cahiers, allez, écoutez la leçon Moi, je suis pas un gangsta, mais j'ai des bons potes qui le sont Ils disent tous que le rap est mort mais, on vient le déterrer Ça fait bizarre, je vends plus de disques que mes rappeurs préférés Merde ! ...You might also like</t>
+          <t>A RETRANSCRIRE Moi je suis Bigflo, c'est timide, c'est Vrai que j'ai pas le bon physique, mais J'en ai vendu 200.000 Sans trafiquer les streamings Je te fais l'effet du cannabis Oui je trafique les rimes que j'ai distillé MC's qui ont ni flow ni style Disent que rapper vite c'est trop facile Je balance des rimes depuis mes 10 piges Comme dirais Sofiane je distribue des ich ich On fait des zéniths alors qu'on vient des petites salles C'est vrai qu'on est fiers de tout ça mais on vise les stades Yeah, je balance que du neuf Mais je vais pas te faire de bluff J'ai remplis plus de salles que de meufs, ouais Mon succès étonne personne, comme si le destin était écrit Le rap, pour moi c'est trop facile Je suis tombé dedans quand j'étais petit Le stress, tout ça, c'est fini On a cassé des portes avec nos phrases et nos gimmicks Quand j'serais mort, tout pâle et frigide J'irais taper un freestyle avec Tupac et Biggie Allez, allez, rentre dans le cercle Ça tourne pas rond dans c'monde de taré Y'a les meilleurs MC's de l'Hexagone La prod on va lui mettre la tête au carré On a mis Toulouse sur la carte, ouais, et les puristes savent Je viens du sud, quand je monte à Paris, j'attrape la tourista Je les ai choqué, je sais qu'ils ont plus peur de nos vérités mais ces types ne veulent pas nous voir On a mérité tous les clics sur nos clips, je débite un egotrip quand je prend le pouvoir Quand je kick ton équipe tripe sur ma technique mythique j'en ai plein le tiroir Si tu dis Oli Oli Oli, j'apparais à minuit devant ton miroir Sortez vos cahiers, allez, écoutez la leçon Moi, je suis pas un gangsta, mais j'ai des bons potes qui le sont Ils disent tous que le rap est mort mais, on vient le déterrer Ça fait bizarre, je vends plus de disques que mes rappeurs préférés Merde ! ...</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Horizon Vertical, hey RDV dix-sept heures, j'arrive à dix-neuf Wow P't-être vingt... vingt-et-un... train d'vie mec Bah, après, tranquille, tu connais Ay T'as fait l'escort pendant deux ans, t'as pas coffré dix balles Paw Incarcéré pendant trois ans parce qu'il vend des dix balles Skch, skch C'est comme ce keuf balourd qui bosse à la municipale Lui Lui qui rêvait d'crever des mecs avec les six étoiles Skch Y a l'autre aussi avec son Bac 5, il touche même pas mille cinq Et y a une sur à peine minure qui va tomber encinte C'est qui son père ? On sait même pas, vu qu'ils sont quarante-cinq Malgré ça, tout va bien, ça va, c'est comme ça dans la jungle Skch, skch On dort le jour, on sort la nuit, c'est tout ça pour la bringue Ça vend d'la drogue pour manger, voyager S'acheter les meilleures fringues, les meilleurs flingues Ça boit du meilleur champ' avec les meilleures 'tains-p' 'Té-ma' 'là-ui-c', il a ramassé la valise Yah, yah Et y a 'là-ui-c' qui l'a donné à la police Yah, yah 'Té-ma' 'là-ui-c', il veut son nom sur la liste Yah, yah 'Té-ma' 'là-ui-c' Yah, yah, 'té-ma' 'là-ui-c' Yah, yah Prince de la ville, oui, mais pas dans ma ville, nan Nan Prince de la ville, oui, mais pas dans ma ville, nan Nan 'Té-ma' 'là-ui-c' Yah, yah, 'té-ma' 'là-ui-c' Prince de la ville, oui, mais pas dans ma ville, nan Nan You might also like 'Té-ma' 'là-cui'-gui faire les cent pas devant chez la juge Wow Attendre minuit impatiemment pour commencer la purge Wow Regarde 'là-cui' en taule qu'avait pas mesuré la chose Merde Regarde ces jeunes trop décontractés dépasser la dose Et y a là-celle aussi qu'a fait un gosse au mauvais boug Et y a ce mec homosexuel pointé du doigt pour mauvais goût Han, y a là-ui-c' qu'avait des projets fous Qu'a tout abandonné pour la drogue et la vie des halls Pah, pah, pah, pah J'connais l'histoire depuis tout p'tit, y a les vidéos 'Té-ma' 'là-cui'-gui rentrait des chèques à cinq ou six zéros 'Té-ma' 'là-cui'-gui prendre le seum sur le p'tit frérot Appelez la police, les princes de la ville non-illégaux 'Té-ma' 'là-ui-c', il a ramassé la valise Yah, yah Et y a 'là-ui-c' qui l'a donné à la police Yah, yah 'Té-ma' 'là-ui-c', il veut son nom sur la liste Yah, yah 'Té-ma' 'là-ui-c' Yah, yah, 'té-ma' 'là-ui-c' Yah, yah Prince de la ville, oui, mais pas dans ma ville, nan Nan Prince de la ville, oui, mais pas dans ma ville, nan Nan 'Té-ma' 'là-ui-c' Yah, yah, 'té-ma' 'là-ui-c' Prince de la ville, oui, mais pas dans ma ville, nan Nan Eh, 'té-ma' 'là-ui-c'... 'Té-ma', 'té-ma', 'té-ma' 'là-ui-c', là... Skch, skch, skch Va-t-on comprendre l'état d'esprit Ah ouais, d'accord de là-cui-gui ? 'Té-ma', 'té-ma'... 'Té-ma'... 'té-ma' 'là-ui-c'... Hey, ouh, Chris Brown... Eh, Horizon Vertical, yeah, spaw Skch, skch, hey RDV dix-sept heures, j'arrive à dix-neuf, j'suis pas en r'tard, j'étais dans l'futur Teddy On va la niquer, faire un mari veuf Qui ? Ta mère, la seule à qui t'offres pas de haute couture Sale C'est bon, cherche pas d'excuse, vas-y, bosse ton truc Bosse, pense à ceux qui charbonnent quand tu poses ton cul Uh Ça, c'est pas du flow, c'est des grosses coupures Liquide, on fait tellement pas pareil, c'est d'la fausse concu' Wow Ils savent que rappeler un passé criminel comme la fausse fourrure ou un narcos joufflu Sí, sí Quand j'fais une croix sur toi, j'appuie tellement ça fait d'grosses coulures, c'est affreux, c'coup dur J'sais faire un peu d'soudure, j'fais fermer la gueule à ces affreuses doublures Affreux, affreux C'est nous les vrais et c'est eux les faux Eux les faux, on air comme UFO Je sors dehors et je rentre à l'asile A l'asile, je rentre en cabine, je les assassine Ouais Faut bien mourir pour le paradis Paradis, faut bien mourir pour le paradis Paw, paw, paw, paw Donc remercie-moi comme Jacquie et Michel Thanks, j'veux refaire ta soirée comme le mélange dans la Vittel Paw J'vois leurs têtes, j'sais qu'y aura pas d'happy end Non, BDSM, j'suis entouré de ficelles J'suis entouré d'ficelles en psychiatrie qui sortent de l'hôpital, c'est comme Pablo tah Medellin et ses quatre cents sicar' Horizon Vertical, spliff de shit, verre de 'sky Skch, skch, Heuss L'enfoiré, V.A.L.D, vérifie le bail Skch, skch, skch, skch</t>
+          <t>Horizon Vertical, hey RDV dix-sept heures, j'arrive à dix-neuf Wow P't-être vingt... vingt-et-un... train d'vie mec Bah, après, tranquille, tu connais Ay T'as fait l'escort pendant deux ans, t'as pas coffré dix balles Paw Incarcéré pendant trois ans parce qu'il vend des dix balles Skch, skch C'est comme ce keuf balourd qui bosse à la municipale Lui Lui qui rêvait d'crever des mecs avec les six étoiles Skch Y a l'autre aussi avec son Bac 5, il touche même pas mille cinq Et y a une sur à peine minure qui va tomber encinte C'est qui son père ? On sait même pas, vu qu'ils sont quarante-cinq Malgré ça, tout va bien, ça va, c'est comme ça dans la jungle Skch, skch On dort le jour, on sort la nuit, c'est tout ça pour la bringue Ça vend d'la drogue pour manger, voyager S'acheter les meilleures fringues, les meilleurs flingues Ça boit du meilleur champ' avec les meilleures 'tains-p' 'Té-ma' 'là-ui-c', il a ramassé la valise Yah, yah Et y a 'là-ui-c' qui l'a donné à la police Yah, yah 'Té-ma' 'là-ui-c', il veut son nom sur la liste Yah, yah 'Té-ma' 'là-ui-c' Yah, yah, 'té-ma' 'là-ui-c' Yah, yah Prince de la ville, oui, mais pas dans ma ville, nan Nan Prince de la ville, oui, mais pas dans ma ville, nan Nan 'Té-ma' 'là-ui-c' Yah, yah, 'té-ma' 'là-ui-c' Prince de la ville, oui, mais pas dans ma ville, nan Nan 'Té-ma' 'là-cui'-gui faire les cent pas devant chez la juge Wow Attendre minuit impatiemment pour commencer la purge Wow Regarde 'là-cui' en taule qu'avait pas mesuré la chose Merde Regarde ces jeunes trop décontractés dépasser la dose Et y a là-celle aussi qu'a fait un gosse au mauvais boug Et y a ce mec homosexuel pointé du doigt pour mauvais goût Han, y a là-ui-c' qu'avait des projets fous Qu'a tout abandonné pour la drogue et la vie des halls Pah, pah, pah, pah J'connais l'histoire depuis tout p'tit, y a les vidéos 'Té-ma' 'là-cui'-gui rentrait des chèques à cinq ou six zéros 'Té-ma' 'là-cui'-gui prendre le seum sur le p'tit frérot Appelez la police, les princes de la ville non-illégaux 'Té-ma' 'là-ui-c', il a ramassé la valise Yah, yah Et y a 'là-ui-c' qui l'a donné à la police Yah, yah 'Té-ma' 'là-ui-c', il veut son nom sur la liste Yah, yah 'Té-ma' 'là-ui-c' Yah, yah, 'té-ma' 'là-ui-c' Yah, yah Prince de la ville, oui, mais pas dans ma ville, nan Nan Prince de la ville, oui, mais pas dans ma ville, nan Nan 'Té-ma' 'là-ui-c' Yah, yah, 'té-ma' 'là-ui-c' Prince de la ville, oui, mais pas dans ma ville, nan Nan Eh, 'té-ma' 'là-ui-c'... 'Té-ma', 'té-ma', 'té-ma' 'là-ui-c', là... Skch, skch, skch Va-t-on comprendre l'état d'esprit Ah ouais, d'accord de là-cui-gui ? 'Té-ma', 'té-ma'... 'Té-ma'... 'té-ma' 'là-ui-c'... Hey, ouh, Chris Brown... Eh, Horizon Vertical, yeah, spaw Skch, skch, hey RDV dix-sept heures, j'arrive à dix-neuf, j'suis pas en r'tard, j'étais dans l'futur Teddy On va la niquer, faire un mari veuf Qui ? Ta mère, la seule à qui t'offres pas de haute couture Sale C'est bon, cherche pas d'excuse, vas-y, bosse ton truc Bosse, pense à ceux qui charbonnent quand tu poses ton cul Uh Ça, c'est pas du flow, c'est des grosses coupures Liquide, on fait tellement pas pareil, c'est d'la fausse concu' Wow Ils savent que rappeler un passé criminel comme la fausse fourrure ou un narcos joufflu Sí, sí Quand j'fais une croix sur toi, j'appuie tellement ça fait d'grosses coulures, c'est affreux, c'coup dur J'sais faire un peu d'soudure, j'fais fermer la gueule à ces affreuses doublures Affreux, affreux C'est nous les vrais et c'est eux les faux Eux les faux, on air comme UFO Je sors dehors et je rentre à l'asile A l'asile, je rentre en cabine, je les assassine Ouais Faut bien mourir pour le paradis Paradis, faut bien mourir pour le paradis Paw, paw, paw, paw Donc remercie-moi comme Jacquie et Michel Thanks, j'veux refaire ta soirée comme le mélange dans la Vittel Paw J'vois leurs têtes, j'sais qu'y aura pas d'happy end Non, BDSM, j'suis entouré de ficelles J'suis entouré d'ficelles en psychiatrie qui sortent de l'hôpital, c'est comme Pablo tah Medellin et ses quatre cents sicar' Horizon Vertical, spliff de shit, verre de 'sky Skch, skch, Heuss L'enfoiré, V.A.L.D, vérifie le bail Skch, skch, skch, skch</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Zeg P on the track beat Fuck, it's easy T'sais que j'suis d'dans comme Manny, j'pense aux re-frè palis J'fume la beuh-gueu vanille, bordel quand on arrive Ce soir, j'pourrais bien m'mettre minable, t'sais qu'j'ai l'instinct animal J'vois flou, visière intégrale, pizzo sur la capitale Faits divers sur Twitter, j'suis toujours en TT J'vois son vice Vice dans ses yeux, elle, elle veut m'endetter Classe business, Mexico, j'pourrais serrer Bernice J'connais l'vice mais elle veut prendre mon cur avec son vernis Que dire à Mélanie ? Elle veut que la mélanine Bahamas où la Grèce et filer à l'anglaise À l'anglaise, yeah J'suis défoncé sous hollandaise Hollandaise, hollandaise J'suis comme ce mec sous polonaise Polonaise Que dire à Mélanie ? Elle veut que la mélanine Bahamas où la Grèce et filer à l'anglaise À l'anglaise, yeah J'suis défoncé sous hollandaise Hollandaise, hollandaise J'suis comme ce mec sous polonaise Polonaise You might also like Trop de liquide, noyé dans le jacuzzi Dans le jacuzzi J'suis rolexé, elle veut m'michtonner la cousine M'michtonner la cousine Trois s'condes sans marquer sur le compte à rebours Compte à rebours Soixante balles, j'fais Las Vegas aller-retour Aller-retour J'rentre dans l'bar comme Joe Pesci Pesci, on a trop d'appétit 'ppétit Mafia, c'est l'réseau Réseau, on augmente le débit Débit J'fais rentrer toute l'année L'année, c'est la meilleure qu'on ramène Ramène C'est plus un jeu, l'ami, on est devenu professionnels Que dire à Mélanie ? Elle veut que la mélanine Bahamas où la Grèce et filer à l'anglaise À l'anglaise, yeah J'suis défoncé sous hollandaise Hollandaise, hollandaise J'suis comme ce mec sous polonaise Polonaise Que dire à Mélanie ? Elle veut que la mélanine Bahamas où la Grèce et filer à l'anglaise À l'anglaise, yeah J'suis défoncé sous hollandaise Hollandaise, hollandaise J'suis comme ce mec sous polonaise Polonaise Que dire à Mélanie ? Elle veut que la mélanine Bahamas où la Grèce et filer à l'anglaise À l'anglaise, yeah J'suis défoncé sous hollandaise Hollandaise J'suis comme ce mec sous polonaise Polonaise Elle veut que la mélanine Mélanine, mélanine J'suis défoncé sous hollandaise Hollandaise, hollandaise, polonaise Et filer à l'anglaise À l'anglaise J'suis comme ce mec sous polonaise Polonaise, polonaise, polonaise</t>
+          <t>Zeg P on the track beat Fuck, it's easy T'sais que j'suis d'dans comme Manny, j'pense aux re-frè palis J'fume la beuh-gueu vanille, bordel quand on arrive Ce soir, j'pourrais bien m'mettre minable, t'sais qu'j'ai l'instinct animal J'vois flou, visière intégrale, pizzo sur la capitale Faits divers sur Twitter, j'suis toujours en TT J'vois son vice Vice dans ses yeux, elle, elle veut m'endetter Classe business, Mexico, j'pourrais serrer Bernice J'connais l'vice mais elle veut prendre mon cur avec son vernis Que dire à Mélanie ? Elle veut que la mélanine Bahamas où la Grèce et filer à l'anglaise À l'anglaise, yeah J'suis défoncé sous hollandaise Hollandaise, hollandaise J'suis comme ce mec sous polonaise Polonaise Que dire à Mélanie ? Elle veut que la mélanine Bahamas où la Grèce et filer à l'anglaise À l'anglaise, yeah J'suis défoncé sous hollandaise Hollandaise, hollandaise J'suis comme ce mec sous polonaise Polonaise Trop de liquide, noyé dans le jacuzzi Dans le jacuzzi J'suis rolexé, elle veut m'michtonner la cousine M'michtonner la cousine Trois s'condes sans marquer sur le compte à rebours Compte à rebours Soixante balles, j'fais Las Vegas aller-retour Aller-retour J'rentre dans l'bar comme Joe Pesci Pesci, on a trop d'appétit 'ppétit Mafia, c'est l'réseau Réseau, on augmente le débit Débit J'fais rentrer toute l'année L'année, c'est la meilleure qu'on ramène Ramène C'est plus un jeu, l'ami, on est devenu professionnels Que dire à Mélanie ? Elle veut que la mélanine Bahamas où la Grèce et filer à l'anglaise À l'anglaise, yeah J'suis défoncé sous hollandaise Hollandaise, hollandaise J'suis comme ce mec sous polonaise Polonaise Que dire à Mélanie ? Elle veut que la mélanine Bahamas où la Grèce et filer à l'anglaise À l'anglaise, yeah J'suis défoncé sous hollandaise Hollandaise, hollandaise J'suis comme ce mec sous polonaise Polonaise Que dire à Mélanie ? Elle veut que la mélanine Bahamas où la Grèce et filer à l'anglaise À l'anglaise, yeah J'suis défoncé sous hollandaise Hollandaise J'suis comme ce mec sous polonaise Polonaise Elle veut que la mélanine Mélanine, mélanine J'suis défoncé sous hollandaise Hollandaise, hollandaise, polonaise Et filer à l'anglaise À l'anglaise J'suis comme ce mec sous polonaise Polonaise, polonaise, polonaise</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Oy Tu crois qu't'es chaud mais t'es flingué Très abîmé, très esquinté Hey, jamais je suis si c'est guindé Vingt-deux, ça fait six et quinze et un Un, vingt-deux, vingt-deux Là, on sait plus qui fait l'ingé' Hein, si j'réfléchis, j'fais une méningite Ouais Augmente les chiffres et le mélange Hey, je ne danse pas, je me déhanche Je parle pas trop, j'veux pas déranger, quand je le rappe, ça me démange Non J'parle pas des gens avec ls gens, pourquoi t'échanges avec l'OPJ ? Prndre de la place, ça les dérange, j'écoute personne comme après 'clée-gi' J'ai fait Bercy, qui veut ber-flam Hein ? À part tous ceux qui ont fait Bercy Compter c'qu'on m'doit, ça me détend donc j'confie la tâche à mon fiscaliste J'descends du ring, j'remets les gants Ouais, c'est dans la tête, le manque d'énergie Pour un million, faut de l'élan, pour cet album, faut un 'bnb Augmente le mélange Mélange, j'rec' l'album dans le 'bnb Là, j'rappe, j'ai le démon Démon, en Prada sous le Givenchy Augmente le mélange Mélange, j'rec' l'album dans le 'bnb Là, j'rappe, j'ai le démon Démon, en Prada sous le Givenchy Faut un studio dans l'Airbnb Oui, c'est une mixtape de rap, pas du R'n'B Skch J'ai Burbe', Gucci, Versace, Fendi Paw, j'suis venu, j'ai vécu, vici, vici Skch Chaque jour que Dieu fait, j'vis ma plus belle vie, j'fume d'la beuh, du shit et j'bois d'la Bélvé' J'ai pas d'vis-à-vis, 'té-ma' la belle vue, c'est la vie d'César, au moins, t'es prévenu J't'ai, j't'ai même pas dit tout c'qu'ils m'ont prélevé Chiens, ces fils de... croient que j'suis El Jefe Skch Tant qu'j'suis pas mort, j'serai pas refait Yeah, j'me suis fait tout seul, j'ai pas d'grand re-fré J'portais mes couilles aussi dans l're-fou', quand j'étais au shtar sans mandat, seul-tout Aujourd'hui, j'casse tout, j'fous d'la cendre partout, dis-moi, t'étais où quand y avait pas d'sous ? J'ai consulté tous mes revenus Skch, double-kichta compris dans l'menu Paw Guccissima, regarde la tenue, j'ai diamant, platine, c'est mon compte-rendu Oui Premier album, deux cents mille vendus Skch, j'leur ai tout pris, j'leur ai rien rendu J'rallume un teh, j'ai la tête dans l'cul, c'est en détention qu'on est détendus You might also like Augmente le mélange Mélange, j'rec l'album dans le 'bnb Là, j'rappe, j'ai le démon Démon, en Prada sous le Givenchy Augmente le mélange Mélange, j'rec l'album dans le 'bnb Là, j'rappe, j'ai le démon Démon, en Gucci sous mon Versace1</t>
+          <t>Oy Tu crois qu't'es chaud mais t'es flingué Très abîmé, très esquinté Hey, jamais je suis si c'est guindé Vingt-deux, ça fait six et quinze et un Un, vingt-deux, vingt-deux Là, on sait plus qui fait l'ingé' Hein, si j'réfléchis, j'fais une méningite Ouais Augmente les chiffres et le mélange Hey, je ne danse pas, je me déhanche Je parle pas trop, j'veux pas déranger, quand je le rappe, ça me démange Non J'parle pas des gens avec ls gens, pourquoi t'échanges avec l'OPJ ? Prndre de la place, ça les dérange, j'écoute personne comme après 'clée-gi' J'ai fait Bercy, qui veut ber-flam Hein ? À part tous ceux qui ont fait Bercy Compter c'qu'on m'doit, ça me détend donc j'confie la tâche à mon fiscaliste J'descends du ring, j'remets les gants Ouais, c'est dans la tête, le manque d'énergie Pour un million, faut de l'élan, pour cet album, faut un 'bnb Augmente le mélange Mélange, j'rec' l'album dans le 'bnb Là, j'rappe, j'ai le démon Démon, en Prada sous le Givenchy Augmente le mélange Mélange, j'rec' l'album dans le 'bnb Là, j'rappe, j'ai le démon Démon, en Prada sous le Givenchy Faut un studio dans l'Airbnb Oui, c'est une mixtape de rap, pas du R'n'B Skch J'ai Burbe', Gucci, Versace, Fendi Paw, j'suis venu, j'ai vécu, vici, vici Skch Chaque jour que Dieu fait, j'vis ma plus belle vie, j'fume d'la beuh, du shit et j'bois d'la Bélvé' J'ai pas d'vis-à-vis, 'té-ma' la belle vue, c'est la vie d'César, au moins, t'es prévenu J't'ai, j't'ai même pas dit tout c'qu'ils m'ont prélevé Chiens, ces fils de... croient que j'suis El Jefe Skch Tant qu'j'suis pas mort, j'serai pas refait Yeah, j'me suis fait tout seul, j'ai pas d'grand re-fré J'portais mes couilles aussi dans l're-fou', quand j'étais au shtar sans mandat, seul-tout Aujourd'hui, j'casse tout, j'fous d'la cendre partout, dis-moi, t'étais où quand y avait pas d'sous ? J'ai consulté tous mes revenus Skch, double-kichta compris dans l'menu Paw Guccissima, regarde la tenue, j'ai diamant, platine, c'est mon compte-rendu Oui Premier album, deux cents mille vendus Skch, j'leur ai tout pris, j'leur ai rien rendu J'rallume un teh, j'ai la tête dans l'cul, c'est en détention qu'on est détendus Augmente le mélange Mélange, j'rec l'album dans le 'bnb Là, j'rappe, j'ai le démon Démon, en Prada sous le Givenchy Augmente le mélange Mélange, j'rec l'album dans le 'bnb Là, j'rappe, j'ai le démon Démon, en Gucci sous mon Versace1</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>J'suis dans les airs Wow toutes les heures Wow Trop de désert, je suis un lézard Sabre laser, Nebuchadnezzar Wow Tous mélangés, tous mélangés Adios, hasta luego Luego Fais pas d'histoire, j'écris l'histoire d'puis la maison D'puis la maison Adios, hasta luego Luego Fais pas d'histoire, j'écris l'histoire d'puis la maison Bouh-bouh Adios, le sica' est financé Adios, le couvre-feu peut commencer Adios, dans c'polar, j'suis le romancier Adios, dans c'polar, j'suis le romancier À deux cents quarante au volant, aller-retour BX, c'est violent Skch, skch, skch La mou'-mou', c'est comment ? La mou'-mou', c'est comment ? La beuh est collante et le pocheton est collant L'argent, les gens, les jaloux, c'est affolant, appelle ta fille la pute, les ham et l'ambulance Arrête le sexe, la drogue, la violence, avec les mêmes, toujours ça r'commence J'arrive et j'pé-ta' tout, les gars, bellek à vous, ça prie pour nous Elle m'dit T'es beau, t'as tout, j'la 'que-n', j'lui mets son coup, elle m'voit partout Benda déguèlà, j'ai benda, bébé, c'est pas toi ma Zelda Spaw, spaw Tu veux baiser parce que c'est moi, sinon tu m'aurais pas 'té-ma' Skch, skch T'as vu la gueule des gosses, y aura aucune négoc' Regarde le boss se manger un coup d'cross par un sicarios Yah, yah Là, tu vois c'est laquelle, c'est la zone 6, ma belle J'arrive si tu m'appelles, j'sais pas si tu t'rappelles, c'est Medellin Cartel Skch, skch, skch You might also like Adios, hasta luego Luego Fais pas d'histoire, j'écris l'histoire d'puis la maison D'puis la maison Adios, hasta luego Luego Fais pas d'histoire, j'écris l'histoire d'puis la maison Bouh-bouh Adios, le sica' est financé Adios, le couvre-feu peut commencer Adios, dans c'polar, j'suis le romancier Adios, dans c'polar, j'suis le romancier On compte pas sur toi, on s'rait pas dans la merde Wow, j'suis dans une dimension, t'es pas dans la même Hey La vie est une pute et t'es pas dans la mienne Wow, je croque le monde et t'es pas dans l'assiette Hey Tu fais pas confiance et t'es partant après Wow, quand tout l'monde est d'jà chaud, t'es partant après Hey Viens prendre ta fessée, j'suis là dans l'après-m' Wow, c'est maintenant ou jamais, j'ai pas l'temps après Wow Faut, faut qu'je goal avant, la balle dans la tête Hey, faut qu'je goal avant, la balle dans la tête Hey Franchement, je suis banal quand j'arrête Wow de faire la promo, on rit plus à mes blagues Wow V.A.L.D comme un gramme dans la fête Hey, V.A.L.D, le meurtre avant qu'j'arrête Hey Je monte en grade, je tue un lézard Wow, on n'est pas des sauvages vu qu'on a les armes Wow Je sors d'un sentimental désert Hey, en chars d'assaut sur les Champs Élysées Hey Je pense à eux pour leur faire la misère Wow, et la misère, on va l'equalizer Hey J'regarde les sorties de ce vendredi Wow, j'me dis Y a que nous qu'on peut rivaliser Hey Sub-Zero win et mon cur est de glace Hey, ne pleurez pas, ça va cristalliser Wow Adios, hasta luego Luego Fais pas d'histoire, j'écris l'histoire d'puis la maison D'puis la maison Adios, hasta luego Luego Fais pas d'histoire, j'écris l'histoire d'puis la maison Bouh-bouh Adios, le sica' est financé Adios, le couvre-feu peut commencer Adios, dans c'polar, j'suis le romancier Adios, dans c'polar, j'suis le romancier Adios4</t>
+          <t>J'suis dans les airs Wow toutes les heures Wow Trop de désert, je suis un lézard Sabre laser, Nebuchadnezzar Wow Tous mélangés, tous mélangés Adios, hasta luego Luego Fais pas d'histoire, j'écris l'histoire d'puis la maison D'puis la maison Adios, hasta luego Luego Fais pas d'histoire, j'écris l'histoire d'puis la maison Bouh-bouh Adios, le sica' est financé Adios, le couvre-feu peut commencer Adios, dans c'polar, j'suis le romancier Adios, dans c'polar, j'suis le romancier À deux cents quarante au volant, aller-retour BX, c'est violent Skch, skch, skch La mou'-mou', c'est comment ? La mou'-mou', c'est comment ? La beuh est collante et le pocheton est collant L'argent, les gens, les jaloux, c'est affolant, appelle ta fille la pute, les ham et l'ambulance Arrête le sexe, la drogue, la violence, avec les mêmes, toujours ça r'commence J'arrive et j'pé-ta' tout, les gars, bellek à vous, ça prie pour nous Elle m'dit T'es beau, t'as tout, j'la 'que-n', j'lui mets son coup, elle m'voit partout Benda déguèlà, j'ai benda, bébé, c'est pas toi ma Zelda Spaw, spaw Tu veux baiser parce que c'est moi, sinon tu m'aurais pas 'té-ma' Skch, skch T'as vu la gueule des gosses, y aura aucune négoc' Regarde le boss se manger un coup d'cross par un sicarios Yah, yah Là, tu vois c'est laquelle, c'est la zone 6, ma belle J'arrive si tu m'appelles, j'sais pas si tu t'rappelles, c'est Medellin Cartel Skch, skch, skch Adios, hasta luego Luego Fais pas d'histoire, j'écris l'histoire d'puis la maison D'puis la maison Adios, hasta luego Luego Fais pas d'histoire, j'écris l'histoire d'puis la maison Bouh-bouh Adios, le sica' est financé Adios, le couvre-feu peut commencer Adios, dans c'polar, j'suis le romancier Adios, dans c'polar, j'suis le romancier On compte pas sur toi, on s'rait pas dans la merde Wow, j'suis dans une dimension, t'es pas dans la même Hey La vie est une pute et t'es pas dans la mienne Wow, je croque le monde et t'es pas dans l'assiette Hey Tu fais pas confiance et t'es partant après Wow, quand tout l'monde est d'jà chaud, t'es partant après Hey Viens prendre ta fessée, j'suis là dans l'après-m' Wow, c'est maintenant ou jamais, j'ai pas l'temps après Wow Faut, faut qu'je goal avant, la balle dans la tête Hey, faut qu'je goal avant, la balle dans la tête Hey Franchement, je suis banal quand j'arrête Wow de faire la promo, on rit plus à mes blagues Wow V.A.L.D comme un gramme dans la fête Hey, V.A.L.D, le meurtre avant qu'j'arrête Hey Je monte en grade, je tue un lézard Wow, on n'est pas des sauvages vu qu'on a les armes Wow Je sors d'un sentimental désert Hey, en chars d'assaut sur les Champs Élysées Hey Je pense à eux pour leur faire la misère Wow, et la misère, on va l'equalizer Hey J'regarde les sorties de ce vendredi Wow, j'me dis Y a que nous qu'on peut rivaliser Hey Sub-Zero win et mon cur est de glace Hey, ne pleurez pas, ça va cristalliser Wow Adios, hasta luego Luego Fais pas d'histoire, j'écris l'histoire d'puis la maison D'puis la maison Adios, hasta luego Luego Fais pas d'histoire, j'écris l'histoire d'puis la maison Bouh-bouh Adios, le sica' est financé Adios, le couvre-feu peut commencer Adios, dans c'polar, j'suis le romancier Adios, dans c'polar, j'suis le romancier Adios4</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Ouh, ah Yeah, la vie est belle quand tu souris T'es dans ma tête comme une mélodie euh Voilà, voilà, voilà, je ne suis plus un voleur Je n'ai volé que ton cur car il a trop de valeur Tous mes s'habs, c'est des mafios ouh, ah C'est pour ça que tu es méfiante 3iniya, fais-moi confiance ouh, ah 3iniya, tu n'es plus une fillette Mon bébé, ich liebe dich, wallah Ensemble, on va faire beaucoup de moula ah, la-la Ich liebe dich, wallah Ensemble, on va faire beaucoup de loux-ja Piccola, sei la mia piccola c'est ma petite Piccola, sei la mia piccola c'est ma petite Oh, nari, nari, nari, ne Baby So many, many jalousies Coño Oh, nari, nari, nari, ne Wa3lach? Jenni-Jenni-Jenni-Jennifer I love you Oh, nari, nari, nari, ne Baby So many, many jalousies, hey Coño Oh, nari, nari, nari, ne Wa3lach? Jenni-Jenni-Jennifer I love you You might also like Oh, j'en ai assez Si tu n'as pas l'intention de changer, laisse tomber-ber-ber-ber Oh toi tu vas tout gâcher Tu m'fais tourner en rond, toi tu m'rends te-bê-bê-bê-bê C'est tout droit Toi tu n'tiens pas la route, dis-moi pourquoi ? pourquoi ? Et je suis coupable d'avoir été si naïve, ça me foudroie Mamamia, j'traine qu'avec des bandits, ah Sicarios, traqué par la CIA C'est l'argent d'la musique, demande à Rosalía On est là pour la somme et Buenos días Pa-pa-parait que y a de l'or dans l'sac Khapta et fiesta jusqu'à demain Elle, elle m'dit Mi amor, stop ça J'ai son cur et une kichta dans mes deux mains Piccola, j'suis pas ta petite piccola t'es ma petite Piccola, j'suis pas ta petite piccola t'es ma petite Oh, nari, nari, nari, ne Baby So many, many jalousies Coño Oh, nari, nari, nari, ne Wa3lach? Jenni-Jenni-Jenni-Jennifer I love you Oh, nari, nari, nari, ne Baby So many, many jalousies, hey Coño Oh, nari, nari, nari, ne Wa3lach? Jenni-Jenni-Jennifer I love you Follow me cariño, t'inquiète le compte est chargé J'suis dans les airs, jet lagué, il m'faut la 7G Sors la kichta si tu veux nous ressembler Il te faut un Smic pour acheter la chemise à L'Algé' breh Oui mate mon khel là, calibre dans la boîte à gant d'la Tesla Sors tes plus beaux talons, c'est ta fiesta, pétard après la sieste, ah 10K, fais pas mal à la cabeza Prends ton sac et retourne dans ta classe A han-han-han Mi amor mi amor, danse pour moi jusqu'à l'aube Danse pour moi toute la night, oh mami que calor Ma baby si tu m'cherches, j'suis dans la ville toute la noche babe Ta vie j'la rend belle, à mes bras il faut t'accrocher Oui tu es celle qu'a mon cur, t'as tout empoché Pour toi j'pars en guerre, rien à foutre, j'vais tout amocher Business, j'fais d'la monnaie monnaie, elle refait, je touche à tout T'es mon bébé, ma moitié, me gustas tu Te faire sourire, tu m'connais, c'est mon atout T'es mon bébé, ma moitié, me gustas tu, no Piccola, j'suis pas ta petite piccola t'es ma petite Piccola, j'suis pas ta petite piccola t'es ma petite Oh, nari, nari, nari, ne Baby So many, many jalousies Coño Oh, nari, nari, nari, ne Wa3lach? Jenni-Jenni-Jenni-Jennifer I love you Oh, nari, nari, nari, ne Baby So many, many jalousies, hey Coño Oh, nari, nari, nari, ne Wa3lach? Jenni-Jenni-Jennifer I love you No, no, no, no, no, no, no, no No, no, no, no, no, no, no, no No, no, no, no, no, no, no, no No, no, no, no, no, no Oui mate mon khel là Oui mate mon khel Oui mate mon khel là Oui mate mon khel Oui mate mon khel là Oui mate mon khel Oui mate mon khel là, calibre dans la boîte à gant d'la Tesla1</t>
+          <t>Ouh, ah Yeah, la vie est belle quand tu souris T'es dans ma tête comme une mélodie euh Voilà, voilà, voilà, je ne suis plus un voleur Je n'ai volé que ton cur car il a trop de valeur Tous mes s'habs, c'est des mafios ouh, ah C'est pour ça que tu es méfiante 3iniya, fais-moi confiance ouh, ah 3iniya, tu n'es plus une fillette Mon bébé, ich liebe dich, wallah Ensemble, on va faire beaucoup de moula ah, la-la Ich liebe dich, wallah Ensemble, on va faire beaucoup de loux-ja Piccola, sei la mia piccola c'est ma petite Piccola, sei la mia piccola c'est ma petite Oh, nari, nari, nari, ne Baby So many, many jalousies Coño Oh, nari, nari, nari, ne Wa3lach? Jenni-Jenni-Jenni-Jennifer I love you Oh, nari, nari, nari, ne Baby So many, many jalousies, hey Coño Oh, nari, nari, nari, ne Wa3lach? Jenni-Jenni-Jennifer I love you Oh, j'en ai assez Si tu n'as pas l'intention de changer, laisse tomber-ber-ber-ber Oh toi tu vas tout gâcher Tu m'fais tourner en rond, toi tu m'rends te-bê-bê-bê-bê C'est tout droit Toi tu n'tiens pas la route, dis-moi pourquoi ? pourquoi ? Et je suis coupable d'avoir été si naïve, ça me foudroie Mamamia, j'traine qu'avec des bandits, ah Sicarios, traqué par la CIA C'est l'argent d'la musique, demande à Rosalía On est là pour la somme et Buenos días Pa-pa-parait que y a de l'or dans l'sac Khapta et fiesta jusqu'à demain Elle, elle m'dit Mi amor, stop ça J'ai son cur et une kichta dans mes deux mains Piccola, j'suis pas ta petite piccola t'es ma petite Piccola, j'suis pas ta petite piccola t'es ma petite Oh, nari, nari, nari, ne Baby So many, many jalousies Coño Oh, nari, nari, nari, ne Wa3lach? Jenni-Jenni-Jenni-Jennifer I love you Oh, nari, nari, nari, ne Baby So many, many jalousies, hey Coño Oh, nari, nari, nari, ne Wa3lach? Jenni-Jenni-Jennifer I love you Follow me cariño, t'inquiète le compte est chargé J'suis dans les airs, jet lagué, il m'faut la 7G Sors la kichta si tu veux nous ressembler Il te faut un Smic pour acheter la chemise à L'Algé' breh Oui mate mon khel là, calibre dans la boîte à gant d'la Tesla Sors tes plus beaux talons, c'est ta fiesta, pétard après la sieste, ah 10K, fais pas mal à la cabeza Prends ton sac et retourne dans ta classe A han-han-han Mi amor mi amor, danse pour moi jusqu'à l'aube Danse pour moi toute la night, oh mami que calor Ma baby si tu m'cherches, j'suis dans la ville toute la noche babe Ta vie j'la rend belle, à mes bras il faut t'accrocher Oui tu es celle qu'a mon cur, t'as tout empoché Pour toi j'pars en guerre, rien à foutre, j'vais tout amocher Business, j'fais d'la monnaie monnaie, elle refait, je touche à tout T'es mon bébé, ma moitié, me gustas tu Te faire sourire, tu m'connais, c'est mon atout T'es mon bébé, ma moitié, me gustas tu, no Piccola, j'suis pas ta petite piccola t'es ma petite Piccola, j'suis pas ta petite piccola t'es ma petite Oh, nari, nari, nari, ne Baby So many, many jalousies Coño Oh, nari, nari, nari, ne Wa3lach? Jenni-Jenni-Jenni-Jennifer I love you Oh, nari, nari, nari, ne Baby So many, many jalousies, hey Coño Oh, nari, nari, nari, ne Wa3lach? Jenni-Jenni-Jennifer I love you No, no, no, no, no, no, no, no No, no, no, no, no, no, no, no No, no, no, no, no, no, no, no No, no, no, no, no, no Oui mate mon khel là Oui mate mon khel Oui mate mon khel là Oui mate mon khel Oui mate mon khel là Oui mate mon khel Oui mate mon khel là, calibre dans la boîte à gant d'la Tesla1</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Zeg P on the track, baby Tu m'connais déjà tu m'connais déjà J'arrive en de-spi j'arrive en de-spi J'protège ma petite sur j'protège ma petite sur La daronne et mon se-fil mon se-fil, mon se-fil Tu m'connais déjà tu m'connais déjà J'arrive en de-spi j'arrive en de-spi J'protège la petite sur j'protège ma petite sur La daronne et mon se-fil mon se-fil, mon se-fil Tu m'connais déjà, j'arrive en de-spi J'protège ma petite sur, la daronne, mon se-fil J'prends des précautions, des fois, j'me sacrifie Bénéfiguice sur le sac de matiti skch, skch, skch Heuss L'enfoiré, bandes d'enfoirés, c'est parti J't'ai aimé, j't'ai baisé, j'suis bé-tom, j'suis parti Une fois dehors, ça yest c'est bon, reparti Rends pas malade, j'suis parti, j'bicrave là-bas j'bicrave là-bas J'ai fait des sous, j'ai tout baisé à kech-Marra à kech-Marra Me rends pas fou, j'suis dans la street à Malaga Granada Rejoins-moi, j'ai deux-troigas affaires pour toi You might also like Tu m'connais déjà tu m'connais déjà J'arrive en de-spi j'arrive en de-spi J'protège ma petite sur j'protège ma petite sur La daronne et mon se-fil mon se-fil, mon se-fil Tu m'connais déjà tu m'connais déjà J'arrive en de-spi j'arrive en de-spi J'protège la petite sur j'protège ma petite sur La daronne et mon se-fil mon se-fil, mon se-fil J'dois élever mon se-fil, relever tous les défis J'suis en esprit donc c'est léger L'argent d'la musique ou l'argent des g, j'ai toujours été un PDG J'vois qu'le temps s'est enneigé Sur un coup dtête, j'prends un VTC J'lui dis d'me tter-j' à CDG, pour l'addition, c'est léger Et dire qu'avant tout ça, on s'connaissait déjà La hnoucha m'a timba, j'avais déjà benda J'avais déjà benda, j'avais déjà benda bah ouais ouais ouais J'avais déjà benda, j'avais déjà benda bah ouais ouais ouais Tu m'connais déjà déjà J'arrive en de-spi de-spi J'protège ma petite sur petite sur La daronne et mon se-fil mon se-fil Tu m'connais déjà déjà J'arrive en de-spi de-spi J'protège la petite sur petite sur La daronne et mon se-fil mon se-fil</t>
+          <t>Zeg P on the track, baby Tu m'connais déjà tu m'connais déjà J'arrive en de-spi j'arrive en de-spi J'protège ma petite sur j'protège ma petite sur La daronne et mon se-fil mon se-fil, mon se-fil Tu m'connais déjà tu m'connais déjà J'arrive en de-spi j'arrive en de-spi J'protège la petite sur j'protège ma petite sur La daronne et mon se-fil mon se-fil, mon se-fil Tu m'connais déjà, j'arrive en de-spi J'protège ma petite sur, la daronne, mon se-fil J'prends des précautions, des fois, j'me sacrifie Bénéfiguice sur le sac de matiti skch, skch, skch Heuss L'enfoiré, bandes d'enfoirés, c'est parti J't'ai aimé, j't'ai baisé, j'suis bé-tom, j'suis parti Une fois dehors, ça yest c'est bon, reparti Rends pas malade, j'suis parti, j'bicrave là-bas j'bicrave là-bas J'ai fait des sous, j'ai tout baisé à kech-Marra à kech-Marra Me rends pas fou, j'suis dans la street à Malaga Granada Rejoins-moi, j'ai deux-troigas affaires pour toi Tu m'connais déjà tu m'connais déjà J'arrive en de-spi j'arrive en de-spi J'protège ma petite sur j'protège ma petite sur La daronne et mon se-fil mon se-fil, mon se-fil Tu m'connais déjà tu m'connais déjà J'arrive en de-spi j'arrive en de-spi J'protège la petite sur j'protège ma petite sur La daronne et mon se-fil mon se-fil, mon se-fil J'dois élever mon se-fil, relever tous les défis J'suis en esprit donc c'est léger L'argent d'la musique ou l'argent des g, j'ai toujours été un PDG J'vois qu'le temps s'est enneigé Sur un coup dtête, j'prends un VTC J'lui dis d'me tter-j' à CDG, pour l'addition, c'est léger Et dire qu'avant tout ça, on s'connaissait déjà La hnoucha m'a timba, j'avais déjà benda J'avais déjà benda, j'avais déjà benda bah ouais ouais ouais J'avais déjà benda, j'avais déjà benda bah ouais ouais ouais Tu m'connais déjà déjà J'arrive en de-spi de-spi J'protège ma petite sur petite sur La daronne et mon se-fil mon se-fil Tu m'connais déjà déjà J'arrive en de-spi de-spi J'protège la petite sur petite sur La daronne et mon se-fil mon se-fil</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Ok, ok, ok, ok vrah-vrah Heuss L'enfoiré, le J vrah-vrah C'est rapide, précis, sans contact vrah-vrah Mets le casque, allume le contact vrah-vrah Parle de moi et tu verras ouh c'qui t'arrivera Tu crois qu'tu vas passer à travers, tu paieras, du Gilera Véner comme un Gilet Jaune, écoute-la c'est la voix des jeunes Toi, j'te vois me coller, d'puis qu'on m'a mis v'là les j'aime J'fume le jaune, quand j'le pète, ça fait un fumigène En claquettes j'm'arrête à l'alim' et j'vois qu'le cul d'ma Audi gêne Dans ma bulle comme un Simpson J'pars du principe que si tu lèves un T-Max, tu lèves une Harley Davidson Elle s'contente pas de c'qu'on lui donne, elle fait la capricieuse Pour elle ça s'ra Mc Do', une vue, blonde, feuille et un Capri Sun Tu es belle, tu sens bon, ce soir on pète la Dom Pé' J'en fume un, j'regarde Netflix et j'me fais pomper Tu es belle, tu sens bon, ce soir on pète la Dom Pé' J'en fume un, j'regarde Netflix et j'me fais pomper Fais-moi du mal, tu le paieras vrah-vrah Parle de moi et tu verras vrah-vrah L'Arai, les gants et le cke-Ja vrah-vrah Avec le J sur l'Gilera vrah-vrah Sur le Gilera, la guitare sur la moto Y'a des scélérats, j'suis casqué avec le poto Sur le Gilera, la guitare sur la moto Y'a des scélérats, j'suis casqué avec le poto You might also like Parle de moi et tu verras, ouh c'qui t'arrivera Tu crois qu'tu vas passer à travers, tu paieras, ouh du Gilera On peut t'trouver même si tu t'caches au Canada Comme Joaquim investir au Panama J'arrive à Paris, Viano m'attend au coin d'la gare Tu viens m'chercher mais tu sais que j'suis pas là-bas J'suis un scélérat dans un Panamera Sur le poignet du Heuss, une Opel Zafira Comportement toujours, j'suis pas dans Samira J'suis avec Anita, pour l'instant, ça m'ira Un jour, elle s'en ira, pour deux mille bahts ou huit cents dirhams Fais-moi du mal, tu le paieras vrah-vrah Parle de moi et tu verras vrah-vrah L'Arai, les gants et le cke-Ja vrah-vrah Avec le J sur l'Gilera vrah-vrah Sur le Gilera, la guitare sur la moto Y'a des scélérats, j'suis casqué avec le poto Sur le Gilera, la guitare sur la moto Y'a des scélérats, j'suis casqué avec le poto Ça s'met bleu sur Aristo', ça fait des pompes sur Asalto Transferts sur transferts la taule, c'est d'venu pire qu'le mercato Tu voulais test ? T'as nada, on a l'flow sorti d'la Nasa J'garde mes valeurs, la base, ah, y'a rien qui arrive par hasard Là c'est Paris, seille-Mar les gérants du Qatar Brésilien comme Neymar, Bruxellois comme Eden Hazard Là c'est Paris, seille-Mar les gérants du Qatar Brésilien comme Neymar, Bruxellois comme Eden Hazard Ça roule en scooter d'Italie, mental comme à Napoli Légende comme Mbappé, buteur comme Balotelli De Paris à Marseille, ça commet des délits Comme dans l'Cartel de Medellín Fais-moi du mal, tu le paieras vrah-vrah Parle de moi et tu verras vrah-vrah L'Arai, les gants et le cke-Ja vrah-vrah Avec le J sur l'Gilera vrah-vrah Sur le Gilera, la guitare sur la moto Y'a des scélérats, j'suis casqué avec le poto Sur le Gilera, la guitare sur la moto Y'a des scélérats, j'suis casqué avec le poto Marseille, Villeneuve-la-Garenne Fais gaffe, ici, les flics, ils t'arrêtent1</t>
+          <t>Ok, ok, ok, ok vrah-vrah Heuss L'enfoiré, le J vrah-vrah C'est rapide, précis, sans contact vrah-vrah Mets le casque, allume le contact vrah-vrah Parle de moi et tu verras ouh c'qui t'arrivera Tu crois qu'tu vas passer à travers, tu paieras, du Gilera Véner comme un Gilet Jaune, écoute-la c'est la voix des jeunes Toi, j'te vois me coller, d'puis qu'on m'a mis v'là les j'aime J'fume le jaune, quand j'le pète, ça fait un fumigène En claquettes j'm'arrête à l'alim' et j'vois qu'le cul d'ma Audi gêne Dans ma bulle comme un Simpson J'pars du principe que si tu lèves un T-Max, tu lèves une Harley Davidson Elle s'contente pas de c'qu'on lui donne, elle fait la capricieuse Pour elle ça s'ra Mc Do', une vue, blonde, feuille et un Capri Sun Tu es belle, tu sens bon, ce soir on pète la Dom Pé' J'en fume un, j'regarde Netflix et j'me fais pomper Tu es belle, tu sens bon, ce soir on pète la Dom Pé' J'en fume un, j'regarde Netflix et j'me fais pomper Fais-moi du mal, tu le paieras vrah-vrah Parle de moi et tu verras vrah-vrah L'Arai, les gants et le cke-Ja vrah-vrah Avec le J sur l'Gilera vrah-vrah Sur le Gilera, la guitare sur la moto Y'a des scélérats, j'suis casqué avec le poto Sur le Gilera, la guitare sur la moto Y'a des scélérats, j'suis casqué avec le poto Parle de moi et tu verras, ouh c'qui t'arrivera Tu crois qu'tu vas passer à travers, tu paieras, ouh du Gilera On peut t'trouver même si tu t'caches au Canada Comme Joaquim investir au Panama J'arrive à Paris, Viano m'attend au coin d'la gare Tu viens m'chercher mais tu sais que j'suis pas là-bas J'suis un scélérat dans un Panamera Sur le poignet du Heuss, une Opel Zafira Comportement toujours, j'suis pas dans Samira J'suis avec Anita, pour l'instant, ça m'ira Un jour, elle s'en ira, pour deux mille bahts ou huit cents dirhams Fais-moi du mal, tu le paieras vrah-vrah Parle de moi et tu verras vrah-vrah L'Arai, les gants et le cke-Ja vrah-vrah Avec le J sur l'Gilera vrah-vrah Sur le Gilera, la guitare sur la moto Y'a des scélérats, j'suis casqué avec le poto Sur le Gilera, la guitare sur la moto Y'a des scélérats, j'suis casqué avec le poto Ça s'met bleu sur Aristo', ça fait des pompes sur Asalto Transferts sur transferts la taule, c'est d'venu pire qu'le mercato Tu voulais test ? T'as nada, on a l'flow sorti d'la Nasa J'garde mes valeurs, la base, ah, y'a rien qui arrive par hasard Là c'est Paris, seille-Mar les gérants du Qatar Brésilien comme Neymar, Bruxellois comme Eden Hazard Là c'est Paris, seille-Mar les gérants du Qatar Brésilien comme Neymar, Bruxellois comme Eden Hazard Ça roule en scooter d'Italie, mental comme à Napoli Légende comme Mbappé, buteur comme Balotelli De Paris à Marseille, ça commet des délits Comme dans l'Cartel de Medellín Fais-moi du mal, tu le paieras vrah-vrah Parle de moi et tu verras vrah-vrah L'Arai, les gants et le cke-Ja vrah-vrah Avec le J sur l'Gilera vrah-vrah Sur le Gilera, la guitare sur la moto Y'a des scélérats, j'suis casqué avec le poto Sur le Gilera, la guitare sur la moto Y'a des scélérats, j'suis casqué avec le poto Marseille, Villeneuve-la-Garenne Fais gaffe, ici, les flics, ils t'arrêtent1</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Regarde la tête des gosses, y aura aucune négoc' Tu peux leur dire ABCD, y aura aucune négoc' Fiston, m'écoute pas, moi non plus, j'écoute pas papa Fiston, m'écoute pas, moi non plus, j'écoute pas papa Fiston, m'écoute pas, moi non plus, j'écoute pas papa Fiston, m'écoute pas, moi non plus, j'écoute pas papa J't'ai mis en garde, tu chantais La-la, la-la, la J't'ai mis en garde, tu chantais La-la, la-la, la 26 novembre 2014, j'ai ressenti d'la force Ouais Putain sa mère la pute, ça y est, c'est moi le père du gosse Mais dans les poches et dans ma tête, c'est trop la guerre du Golfe Et moi aussi, j'pnsais tous vous ramener faire du golf Skch Propriétair du loft Loft, j'sais même pas faire du soft Soft Entraînement tous les jours Jours, Sir Alex Ferguson 'son Propriétaire du loft Loft, j'sais même pas faire du soft Soft Entraînement tous les jours, Sir Alex Ferguson Atterrissage, y aura peut-être pas d'héritage Atterrissage, y aura peut-être pas d'héritage You might also like Fiston, m'écoute pas, moi non plus, j'écoute pas papa Fiston, m'écoute pas, moi non plus, j'écoute pas papa Fiston, m'écoute pas, moi non plus, j'écoute pas papa Fiston, m'écoute pas, moi non plus, j'écoute pas papa J't'ai mis en garde, tu chantais La-la, la-la, la J't'ai mis en garde, tu chantais La-la, la-la, la 10 août de la même année, j'ai ressenti d'la force Putain, sa mère la pute, ça y est, c'est moi l'père du gosse J'peux assumer qu'j'ai répété qu'c'était pas l'moment Nan, c'était pas l'moment, mais j'ai assumé J'ai répété tous les jours, oui, semaine après semaine Tournée après tournée, même fournée après fournée Celle-là, c'est déjà la neuvième Neuvième Ce p'tit con sait pas lire, j'ai d'jà mis à l'abri tous ses p'tits-enfants J'ai décroché des contrats presque uniques en France Let's go J'pourrais d'ores et déjà lui faire la vie de César Mais j'fais gaffe, faut qu'lui aussi, il fasse ses armes Imagine, un jour, la CIA débarque et saisit mes 'llars Atterrissage, j'espère y aura un héritage Atterrissage, j'espère y aura un héritage Fiston, m'écoute pas, moi non plus, j'écoute pas papa Fiston, m'écoute pas, moi non plus, j'écoute pas papa Fiston, m'écoute pas, moi non plus, j'écoute pas papa Fiston, m'écoute pas, moi non plus, j'écoute pas papa J't'ai mis en garde, tu chantais La-la, la-la, la J't'ai mis en garde, tu chantais La-la, la-la, la</t>
+          <t>Regarde la tête des gosses, y aura aucune négoc' Tu peux leur dire ABCD, y aura aucune négoc' Fiston, m'écoute pas, moi non plus, j'écoute pas papa Fiston, m'écoute pas, moi non plus, j'écoute pas papa Fiston, m'écoute pas, moi non plus, j'écoute pas papa Fiston, m'écoute pas, moi non plus, j'écoute pas papa J't'ai mis en garde, tu chantais La-la, la-la, la J't'ai mis en garde, tu chantais La-la, la-la, la 26 novembre 2014, j'ai ressenti d'la force Ouais Putain sa mère la pute, ça y est, c'est moi le père du gosse Mais dans les poches et dans ma tête, c'est trop la guerre du Golfe Et moi aussi, j'pnsais tous vous ramener faire du golf Skch Propriétair du loft Loft, j'sais même pas faire du soft Soft Entraînement tous les jours Jours, Sir Alex Ferguson 'son Propriétaire du loft Loft, j'sais même pas faire du soft Soft Entraînement tous les jours, Sir Alex Ferguson Atterrissage, y aura peut-être pas d'héritage Atterrissage, y aura peut-être pas d'héritage Fiston, m'écoute pas, moi non plus, j'écoute pas papa Fiston, m'écoute pas, moi non plus, j'écoute pas papa Fiston, m'écoute pas, moi non plus, j'écoute pas papa Fiston, m'écoute pas, moi non plus, j'écoute pas papa J't'ai mis en garde, tu chantais La-la, la-la, la J't'ai mis en garde, tu chantais La-la, la-la, la 10 août de la même année, j'ai ressenti d'la force Putain, sa mère la pute, ça y est, c'est moi l'père du gosse J'peux assumer qu'j'ai répété qu'c'était pas l'moment Nan, c'était pas l'moment, mais j'ai assumé J'ai répété tous les jours, oui, semaine après semaine Tournée après tournée, même fournée après fournée Celle-là, c'est déjà la neuvième Neuvième Ce p'tit con sait pas lire, j'ai d'jà mis à l'abri tous ses p'tits-enfants J'ai décroché des contrats presque uniques en France Let's go J'pourrais d'ores et déjà lui faire la vie de César Mais j'fais gaffe, faut qu'lui aussi, il fasse ses armes Imagine, un jour, la CIA débarque et saisit mes 'llars Atterrissage, j'espère y aura un héritage Atterrissage, j'espère y aura un héritage Fiston, m'écoute pas, moi non plus, j'écoute pas papa Fiston, m'écoute pas, moi non plus, j'écoute pas papa Fiston, m'écoute pas, moi non plus, j'écoute pas papa Fiston, m'écoute pas, moi non plus, j'écoute pas papa J't'ai mis en garde, tu chantais La-la, la-la, la J't'ai mis en garde, tu chantais La-la, la-la, la</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Zeg P on the track, babe Dans la saison 1, moi, j'suis Totò Riina Totò Riina J'ai baisé la Cosa, Many, c'est mon cousin c'est mon cousin C'est un assassinat, j'fais la passe à Nyma N.Y.M.A C'est Heuss L'enfoiré et les Metallica du Rock 'n' roll Dans les tribunaux, comparaît dans l'immédiat Dans les cités, j'suis pas trop dans les médias J'fume la be-her qui vient fort de Breda Jtraîne avec Dima, Souley', Réda Posé chez moi, j'entends Artena Les tits-pe, les keufs nous té-ma téma, téma Quelques jaloux ne veulent pas qu'on té-mon Y a les indic' et les poucaves qui témoignent Verre de Jack Da', frappe, taga, faut qu'tu t'éloignes Spliff de shlata qui vient sûrement d'Amsterdam Aujourd'hui même, ils ont libéré Nyma Libéré Nyma, libéré Nyma Aujourd'hui même, ils ont libéré Nyma You might also like Libérez Nyma, c'est un assassinat ouais, Nyma C'est Heuss L'enfoiré, les Metallica Metallica Many, Malik et Mehdi, c'est la mi-fa c'est la mi-fa Corleone saison 1, j'suis Totò Riina t'es Riina Libérez Nyma, c'est un assassinat ouais, Nyma C'est Heuss L'enfoiré, les Metallica Metallica Many, Malik et Mehdi, c'est la mi-fa c'est la mi-fa Corleone saison 1, j'suis Totò Riina t'es Riina 9.2, département vénézuélien Té-ma les techniciens mathématiciens Venez per-cho d'la coca' et du raisin Ravitaillement pour tous les gues-sh' en que-man que-man, que-man, que-man Argent facilement, c'est pour mieux ger-man ger-man, ger-man, ger-man Pabliito 3amar la Tony, vida loca 38 spécial, machin qui démange 11.43 au cas où, si tu déranges S'il faut, j'm'en sors en faisant bosser ta sur Deuxième couplet et c'est bon, tu peux tasseoir D'après les rumeurs, tellement riche Dans son cul, y a un traceur, traqueur Dans mon secteur, dealeurs, braqueurs Libéré Nyma, libéré Nyma Aujourd'hui même, ils ont libéré Nyma Libérez Nyma, c'est un assassinat ouais, Nyma C'est Heuss L'enfoiré, les Metallica Metallica Many, Malik et Mehdi, c'est la mi-fa c'est la mi-fa Corleone saison 1, j'suis Totò Riina t'es Riina Libérez Nyma, c'est un assassinat ouais, Nyma C'est Heuss L'enfoiré, les Metallica Metallica Many, Malik et Mehdi, c'est la mille-fa c'est la mille-fa Corleone saison 1, j'suis Totò Riina t'es Riina</t>
+          <t>Zeg P on the track, babe Dans la saison 1, moi, j'suis Totò Riina Totò Riina J'ai baisé la Cosa, Many, c'est mon cousin c'est mon cousin C'est un assassinat, j'fais la passe à Nyma N.Y.M.A C'est Heuss L'enfoiré et les Metallica du Rock 'n' roll Dans les tribunaux, comparaît dans l'immédiat Dans les cités, j'suis pas trop dans les médias J'fume la be-her qui vient fort de Breda Jtraîne avec Dima, Souley', Réda Posé chez moi, j'entends Artena Les tits-pe, les keufs nous té-ma téma, téma Quelques jaloux ne veulent pas qu'on té-mon Y a les indic' et les poucaves qui témoignent Verre de Jack Da', frappe, taga, faut qu'tu t'éloignes Spliff de shlata qui vient sûrement d'Amsterdam Aujourd'hui même, ils ont libéré Nyma Libéré Nyma, libéré Nyma Aujourd'hui même, ils ont libéré Nyma Libérez Nyma, c'est un assassinat ouais, Nyma C'est Heuss L'enfoiré, les Metallica Metallica Many, Malik et Mehdi, c'est la mi-fa c'est la mi-fa Corleone saison 1, j'suis Totò Riina t'es Riina Libérez Nyma, c'est un assassinat ouais, Nyma C'est Heuss L'enfoiré, les Metallica Metallica Many, Malik et Mehdi, c'est la mi-fa c'est la mi-fa Corleone saison 1, j'suis Totò Riina t'es Riina 9.2, département vénézuélien Té-ma les techniciens mathématiciens Venez per-cho d'la coca' et du raisin Ravitaillement pour tous les gues-sh' en que-man que-man, que-man, que-man Argent facilement, c'est pour mieux ger-man ger-man, ger-man, ger-man Pabliito 3amar la Tony, vida loca 38 spécial, machin qui démange 11.43 au cas où, si tu déranges S'il faut, j'm'en sors en faisant bosser ta sur Deuxième couplet et c'est bon, tu peux tasseoir D'après les rumeurs, tellement riche Dans son cul, y a un traceur, traqueur Dans mon secteur, dealeurs, braqueurs Libéré Nyma, libéré Nyma Aujourd'hui même, ils ont libéré Nyma Libérez Nyma, c'est un assassinat ouais, Nyma C'est Heuss L'enfoiré, les Metallica Metallica Many, Malik et Mehdi, c'est la mi-fa c'est la mi-fa Corleone saison 1, j'suis Totò Riina t'es Riina Libérez Nyma, c'est un assassinat ouais, Nyma C'est Heuss L'enfoiré, les Metallica Metallica Many, Malik et Mehdi, c'est la mille-fa c'est la mille-fa Corleone saison 1, j'suis Totò Riina t'es Riina</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Booska Ficelle, Heuss L'enfoiré C'est carré comme en Corée du Nord Heuss L'enfoiré, c'est moi qui remets ça J'suis avec Joe dans le taxi d'Vanessa Paradis J'parle même pas avec eux, ils ont pas un radis N'écoute pas c'qu'on t'a dit, plutôt regarde tout c'qu'on t'a pris Moi j'te décris des crimes, wesh t'entends pas les cris ? D'Algérie jusqu'à Conakry, j'écoute du Franklin Aretha Mis à part Dieu, personne peut m'arrêter Comme N.Y.M.A avec son Beretta, c'est comme ça les cités L'ambiance est mitigée, à midi j'ai déjà tisé En début d'matinée j'avais convoitisé D'récupérer la re-pu d'un sin-cou d'Martiniquais Respecté depuis l'époque comme Marvin Gaye On sait comment la fabriquer, la charcler, mariner On sait que trafiquer, c'est pour mieux naviguer Les grosses poucaves dans les cités se font éradiquer Demande à Ramala, les chiens d'la dép' ont rappliqué La prochaine fois on va mieux s'appliquer 6 rue Hector Berlioz, la drogue les a piqués J'sais pas si t'as tilté, tu ressens mon identité C'est la rue, c'est pas YouTube qui m'a identifié Depuis l'époque, déjà émancipé Les grands des cités sont hyper-shités Diversifié, j'suis dans Booska Ficelle, j'suis pas au Sofitel C'est dans la rue qu'on reste fidèles Des fois j'me méfie d'elle, j'ai cassé mon phone-tél Préparez mon cocktail, j'suis dans Booska Ficelle C'est sur Booska P, c'est Heuss le capitaine J'te fouette avec l'antenne, c'est Villeneuve-la-Garenne Ça vient bien des Hauts-de-Seine, 92390 Moi j'fais gaffe au kiss, aux dés-kis et aux fils de pute J'en ai chopé la maladie, j'suis là-bas dans ma galaxie Mal assis, vas-y mets la 6 J'en place une à Auny, et mon gars sûr Six Eh, Heuss L'enfoiré, c'est carré comme en Corée du Nord Nique les balances, ceux qui ont collaboré Colombie, Medellín, squé-ma dans la forêt J'ai du sang d'un racket sur ma basket, on l'a roulé J'appelle mon gars sûr Hek dans la foulée Sur le rainté, les ients-cli nous ont tous follow Dans la rue des tains-p', moi j'tire le gros lot Aujourd'hui tout va bien, c'est nous les Colombiens On t'l'a fait à combien ? Le tarot qui convient Hein, 9.2 département, on arrive calmement Y a tout un armement dans l'appartement Eh, Heuss L'enfoiré, Booska Ficelle Midi midi bande de ficelles You might also like Eh, midi midi Midi midi</t>
+          <t>Booska Ficelle, Heuss L'enfoiré C'est carré comme en Corée du Nord Heuss L'enfoiré, c'est moi qui remets ça J'suis avec Joe dans le taxi d'Vanessa Paradis J'parle même pas avec eux, ils ont pas un radis N'écoute pas c'qu'on t'a dit, plutôt regarde tout c'qu'on t'a pris Moi j'te décris des crimes, wesh t'entends pas les cris ? D'Algérie jusqu'à Conakry, j'écoute du Franklin Aretha Mis à part Dieu, personne peut m'arrêter Comme N.Y.M.A avec son Beretta, c'est comme ça les cités L'ambiance est mitigée, à midi j'ai déjà tisé En début d'matinée j'avais convoitisé D'récupérer la re-pu d'un sin-cou d'Martiniquais Respecté depuis l'époque comme Marvin Gaye On sait comment la fabriquer, la charcler, mariner On sait que trafiquer, c'est pour mieux naviguer Les grosses poucaves dans les cités se font éradiquer Demande à Ramala, les chiens d'la dép' ont rappliqué La prochaine fois on va mieux s'appliquer 6 rue Hector Berlioz, la drogue les a piqués J'sais pas si t'as tilté, tu ressens mon identité C'est la rue, c'est pas YouTube qui m'a identifié Depuis l'époque, déjà émancipé Les grands des cités sont hyper-shités Diversifié, j'suis dans Booska Ficelle, j'suis pas au Sofitel C'est dans la rue qu'on reste fidèles Des fois j'me méfie d'elle, j'ai cassé mon phone-tél Préparez mon cocktail, j'suis dans Booska Ficelle C'est sur Booska P, c'est Heuss le capitaine J'te fouette avec l'antenne, c'est Villeneuve-la-Garenne Ça vient bien des Hauts-de-Seine, 92390 Moi j'fais gaffe au kiss, aux dés-kis et aux fils de pute J'en ai chopé la maladie, j'suis là-bas dans ma galaxie Mal assis, vas-y mets la 6 J'en place une à Auny, et mon gars sûr Six Eh, Heuss L'enfoiré, c'est carré comme en Corée du Nord Nique les balances, ceux qui ont collaboré Colombie, Medellín, squé-ma dans la forêt J'ai du sang d'un racket sur ma basket, on l'a roulé J'appelle mon gars sûr Hek dans la foulée Sur le rainté, les ients-cli nous ont tous follow Dans la rue des tains-p', moi j'tire le gros lot Aujourd'hui tout va bien, c'est nous les Colombiens On t'l'a fait à combien ? Le tarot qui convient Hein, 9.2 département, on arrive calmement Y a tout un armement dans l'appartement Eh, Heuss L'enfoiré, Booska Ficelle Midi midi bande de ficelles Eh, midi midi Midi midi</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>YassineBeats Y-Y-Yassine B-B-Beats Overal is streetlife, mattie, overal is mrowen Ik ben op de sjans, a mattie, voor doekoe, ben mrowen Ik ben op de streets, iedereen is mrowen Iedereen zoekt doekoe, mattie, iedereen is mrowen Mrowen, mrowen, mrowen Mrowen, mrowen, mrowen Mrowen, mrowen, mrowen Mrowen, mrowen, mrowen J'suis parti là-bas, j'suis à M-da sous Kush Banana Pow, pow Ramène d'la moula, kichta, boisson, cigare Havana Oseill, soleil, problème, Ruben, j'appelle Vesti Rubegen Perquis', réveil, problème, Ruben, j'appelle Vesti Rubegen Paris, Bruxelles, Amsterdam, Western Union, MoneyGram X-ADV, Intégra juste en bas d'la cathédrale Pah, pah Casque Arai sur la bécane, mental Galatasaray On est venus pour faire du sale, comme la frappe de Rotterdam 'erdam J'reviens taleur mrowen, bébé, j'ai pas les mots Mots J'suis défoncé, s'te plaît, calcule pas mes défauts 'fauts J'reviens taleur mrowen, bébé, j'ai pas les mots Mots J'suis défoncé, s'te plaît, calcule pas mes défauts 'fauts You might also like Overal is streetlife, mattie, overal is mrowen Ik ben op de sjans, a mattie, voor doekoe, ben mrowen Ik ben op de streets Streets, iedereen is mrowen Iedereen zoekt doekoe, mattie, iedereen is mrowen Mrowen, mrowen, mrowen Mrowen, mrowen, mrowen Mrowen, mrowen, mrowen Mrowen, mrowen, mrowen Van de street, Amsterdam is m'n stad Is m'n stad Mrowen met Kalashnikov, b7al chi piraat B7al chi piraat, pow, pow Tranquilo, mattie, heb die Glock voor dinnemok Dinnemok Br-Brakka Amiri en hij gaat over de kop Tss, ah, ah Drerrie paranoia door die 7az9a Zet een bom vast in die fuckin' banka Ze kunnen niet tippen, mayne, ik zie ze whippen Pow, pow Ze kunnen niet tegen, ze zien waar ik sta, yeah Net een lihoudi, we hebben veel stacks Ah Gekke trainingspak en Air Max 3robi mayne, ik ben met Heuss, gekke AMG, geen bus M'n jongens ready voor die klus M'n jongens met die cagoule, dat is bivakmuts Yeah, yeah, yeah Zie die rappers doen mijn na, bubu lang, hang niet met bla Motherfuck Ik en mijn drerries, sda3, al die freda zijn raar 'Fuck Overal is streetlife, mattie, overal is mrowen Ik ben op de sjans, a mattie, voor doekoe, ben mrowen Ik ben op de streets Streets, iedereen is mrowen Iedereen zoekt doekoe, mattie, iedereen is mrowen Mrowen, mrowen, mrowen Mrowen, mrowen, mrowen Mrowen, mrowen, mrowen Mrowen, mrowen, mrowen Aah Mrowen, mrowen, mrowen Mrowen, mrowen, mrowen Ik ben op de streets Mrowen, mrowen, mrowen YassineBeats Mrowen, mrowen, mrowen Mrowen, mrowen, mrowen Y-Y-Yassine B-B-Beats</t>
+          <t>YassineBeats Y-Y-Yassine B-B-Beats Overal is streetlife, mattie, overal is mrowen Ik ben op de sjans, a mattie, voor doekoe, ben mrowen Ik ben op de streets, iedereen is mrowen Iedereen zoekt doekoe, mattie, iedereen is mrowen Mrowen, mrowen, mrowen Mrowen, mrowen, mrowen Mrowen, mrowen, mrowen Mrowen, mrowen, mrowen J'suis parti là-bas, j'suis à M-da sous Kush Banana Pow, pow Ramène d'la moula, kichta, boisson, cigare Havana Oseill, soleil, problème, Ruben, j'appelle Vesti Rubegen Perquis', réveil, problème, Ruben, j'appelle Vesti Rubegen Paris, Bruxelles, Amsterdam, Western Union, MoneyGram X-ADV, Intégra juste en bas d'la cathédrale Pah, pah Casque Arai sur la bécane, mental Galatasaray On est venus pour faire du sale, comme la frappe de Rotterdam 'erdam J'reviens taleur mrowen, bébé, j'ai pas les mots Mots J'suis défoncé, s'te plaît, calcule pas mes défauts 'fauts J'reviens taleur mrowen, bébé, j'ai pas les mots Mots J'suis défoncé, s'te plaît, calcule pas mes défauts 'fauts Overal is streetlife, mattie, overal is mrowen Ik ben op de sjans, a mattie, voor doekoe, ben mrowen Ik ben op de streets Streets, iedereen is mrowen Iedereen zoekt doekoe, mattie, iedereen is mrowen Mrowen, mrowen, mrowen Mrowen, mrowen, mrowen Mrowen, mrowen, mrowen Mrowen, mrowen, mrowen Van de street, Amsterdam is m'n stad Is m'n stad Mrowen met Kalashnikov, b7al chi piraat B7al chi piraat, pow, pow Tranquilo, mattie, heb die Glock voor dinnemok Dinnemok Br-Brakka Amiri en hij gaat over de kop Tss, ah, ah Drerrie paranoia door die 7az9a Zet een bom vast in die fuckin' banka Ze kunnen niet tippen, mayne, ik zie ze whippen Pow, pow Ze kunnen niet tegen, ze zien waar ik sta, yeah Net een lihoudi, we hebben veel stacks Ah Gekke trainingspak en Air Max 3robi mayne, ik ben met Heuss, gekke AMG, geen bus M'n jongens ready voor die klus M'n jongens met die cagoule, dat is bivakmuts Yeah, yeah, yeah Zie die rappers doen mijn na, bubu lang, hang niet met bla Motherfuck Ik en mijn drerries, sda3, al die freda zijn raar 'Fuck Overal is streetlife, mattie, overal is mrowen Ik ben op de sjans, a mattie, voor doekoe, ben mrowen Ik ben op de streets Streets, iedereen is mrowen Iedereen zoekt doekoe, mattie, iedereen is mrowen Mrowen, mrowen, mrowen Mrowen, mrowen, mrowen Mrowen, mrowen, mrowen Mrowen, mrowen, mrowen Aah Mrowen, mrowen, mrowen Mrowen, mrowen, mrowen Ik ben op de streets Mrowen, mrowen, mrowen YassineBeats Mrowen, mrowen, mrowen Mrowen, mrowen, mrowen Y-Y-Yassine B-B-Beats</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Narcos Wesh les gars, j'ai besoin d'une guitare qui fait de gros dégâts pour éteindre ces gros déguns, wesh, wesh Wesh les gars, ce soir, on parle affaires mais qu'est-c'qu'il a celui-là, à nous regarder d'travers ? Wesh, wesh Wesh les gars, j'ai besoin d'une guitare qui fait de gros dégâts pour éteindre ces gros déguns, wesh, wesh Wesh les gars, ce soir, on parle affaires mais qu'est-c'qu'il a celui-là, à nous regarder d'travers ? Wesh, wesh Minimum, une table à une barre, et j'vais m'mettre à l'écart donc j'veux videur qui sépare Au poignet, la Audemars, la même que Neymar, j'ai enfilé l'peignoir tout blanc dans un Mase' noir, eh, eh Tu veux la belle vie tu veux la belle vie, vider la Belve' vider la Belve' J'suis sur le boulevard sur le boulevard, j'm'arrête devant LV devant LV J'ai sorti la kichta, mille cent, la sacoche, sur Insta', t'es trop fraîche, en vrai, t'es trop moche oh merde Wesh les gars, j'ai besoin d'une guitare qui fait de gros dégâts pour éteindre ces gros déguns, wesh, wesh Wesh les gars, ce soir, on parle affaires mais qu'est-c'qu'il a celui-là, à nous regarder d'travers ? Wesh, wesh Wesh les gars, j'ai besoin d'une guitare qui fait de gros dégâts pour éteindre ces gros déguns, wesh, wesh Wesh les gars, ce soir, on parle affaires mais qu'est-c'qu'il a celui-là, à nous regarder d'travers ? Wesh, wesh Wesh les gars, là, c'est la grosse moula, la grosse moula tah Bogota, celle qui fait de gros dégâts, wesh, wesh Wesh les gars, en esprit, toujours là, GLK, Heusslaga, banlieusard comme Patchenga, Many, Rebenga Chez nous, c'est Paname, Pauleta, Ronaldinho et Zlatan Jimmy 2 Fois, deux verres de champagne, double kichtas cachées dans la campagne Dans la maison, y a deux méchantes armes, fait attention avec ton arme blanche Armé comme les mecs tah la Maison Blanche, j'distribue d'la blanche, dans la salade, on vous laisse les branches You might also like Wesh les gars, j'ai besoin d'une guitare qui fait de gros dégâts pour éteindre ces gros déguns, wesh, wesh Wesh les gars, ce soir, on parle affaires mais qu'est-c'qu'il a celui-là, à nous regarder d'travers ? Wesh, wesh Wesh les gars, j'ai besoin d'une guitare qui fait de gros dégâts pour éteindre ces gros déguns, wesh, wesh Wesh les gars, ce soir, on parle affaires mais qu'est-c'qu'il a celui-là, à nous regarder d'travers ? Wesh, wesh Wesh, wesh, wesh les gars Wesh, wesh, wesh les gars</t>
+          <t>Narcos Wesh les gars, j'ai besoin d'une guitare qui fait de gros dégâts pour éteindre ces gros déguns, wesh, wesh Wesh les gars, ce soir, on parle affaires mais qu'est-c'qu'il a celui-là, à nous regarder d'travers ? Wesh, wesh Wesh les gars, j'ai besoin d'une guitare qui fait de gros dégâts pour éteindre ces gros déguns, wesh, wesh Wesh les gars, ce soir, on parle affaires mais qu'est-c'qu'il a celui-là, à nous regarder d'travers ? Wesh, wesh Minimum, une table à une barre, et j'vais m'mettre à l'écart donc j'veux videur qui sépare Au poignet, la Audemars, la même que Neymar, j'ai enfilé l'peignoir tout blanc dans un Mase' noir, eh, eh Tu veux la belle vie tu veux la belle vie, vider la Belve' vider la Belve' J'suis sur le boulevard sur le boulevard, j'm'arrête devant LV devant LV J'ai sorti la kichta, mille cent, la sacoche, sur Insta', t'es trop fraîche, en vrai, t'es trop moche oh merde Wesh les gars, j'ai besoin d'une guitare qui fait de gros dégâts pour éteindre ces gros déguns, wesh, wesh Wesh les gars, ce soir, on parle affaires mais qu'est-c'qu'il a celui-là, à nous regarder d'travers ? Wesh, wesh Wesh les gars, j'ai besoin d'une guitare qui fait de gros dégâts pour éteindre ces gros déguns, wesh, wesh Wesh les gars, ce soir, on parle affaires mais qu'est-c'qu'il a celui-là, à nous regarder d'travers ? Wesh, wesh Wesh les gars, là, c'est la grosse moula, la grosse moula tah Bogota, celle qui fait de gros dégâts, wesh, wesh Wesh les gars, en esprit, toujours là, GLK, Heusslaga, banlieusard comme Patchenga, Many, Rebenga Chez nous, c'est Paname, Pauleta, Ronaldinho et Zlatan Jimmy 2 Fois, deux verres de champagne, double kichtas cachées dans la campagne Dans la maison, y a deux méchantes armes, fait attention avec ton arme blanche Armé comme les mecs tah la Maison Blanche, j'distribue d'la blanche, dans la salade, on vous laisse les branches Wesh les gars, j'ai besoin d'une guitare qui fait de gros dégâts pour éteindre ces gros déguns, wesh, wesh Wesh les gars, ce soir, on parle affaires mais qu'est-c'qu'il a celui-là, à nous regarder d'travers ? Wesh, wesh Wesh les gars, j'ai besoin d'une guitare qui fait de gros dégâts pour éteindre ces gros déguns, wesh, wesh Wesh les gars, ce soir, on parle affaires mais qu'est-c'qu'il a celui-là, à nous regarder d'travers ? Wesh, wesh Wesh, wesh, wesh les gars Wesh, wesh, wesh les gars</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Je n'ai pas d'ennemis, t'es l'bienvenue On a qu'une seule vie, viens on s'amuse Les problèmes que l'on fuit, nous ont fatigué Je suis dans mon délire j'danse sur la lune Laisse-moi dans mon délire délire, délire, délire Ouh, j'suis dans mon délire délire, délire, délire Ouh, j'suis dans mon délire délire, délire, délire Ouh, j'suis dans mon délire délire, délire, délire Si je ne te réponds pas J'entends pas ce que tu dis si c'est négatif Le temps passe, j'apprécie, tant que mes gars kiffent Pas sans toi ma chérie, avance, je te suis Ah, ah, ah Ce soir le Heuss est dans la renta' Plomo O Plata, c'est l'nord d'Atlanta J'ai mélangé ganja et cke-Ja Kichta, clope, massa dans ma coche-sa C'est moi la grosse moula tah la Sinaloa Bébé, m'en veux pas, j'ai enfumé la pièce Là, je me barre de là, je dois gratter ma pièce J'ai tout laissé dans l'appart' des abbesses D'temps en temps, je fais des tours, je vérifie dans la caisse La Batmobile, les méchants qui nent-tour dans la tess Je suis pas là, je suis là-bas, Guadalajara Retentissement, j'entends deux fois le bruit du akha You might also like Laisse-moi dans mon délire dans les étoiles, dans les étoiles, dans les étoiles Ouh, j'suis dans mon délire dans les étoiles, dans les étoiles, dans les étoiles Ouh, j'suis dans mon délire dans les étoiles, dans les étoiles, dans les étoiles Ouh, j'suis dans mon délire dans les étoiles Si je ne te réponds pas, ne m'en veux pas Chérie, toi et moi, amour et fight La nuit je dors pas, la nuit je ride Dans les étoiles, la nuit je m'envole dans les étoiles Sans dire un mot, sans penser à demain Comme dans Billie Jean, s'illumine mon chemin My nigga, ah, ah, ah, ah On veut la paix plus que la maille Ah, ah, ah, ah, finir nos jours à Miami Tudo bem, j'suis dans mon délire, demande à Debeing On se démerde pour mener une vie qui pourrait nous plaire Tout petit, j'essaye de me faire, j'suis dans mes affaires Oui je kiff et si ça te gène, bah je t'emmerde Sers le Mojito, qu'on trinque un pocito Le tieks je l'ai pas quitté et toi je ne sais pas qui t'es Eh yo ladys, toutes sur la piste Le reste, euh allez ouste, je gère, c'est moi l'artiste Laisse-moi dans mon délire Ne m'en veut pas non, non, non, non délire J'suis dans mon monde non, non, non, non dans mon délire Ne m'en veut pas non, non, non, non délire Si je ne te réponds pas, ne m'en veux pas Dans mon délire Ouh, j'suis dans mon délire dans les étoiles, dans les étoiles, j'suis dans les étoiles Ouh, j'suis dans mon délire dans les étoiles, dans les étoiles, j'suis dans les étoiles Ouh, j'suis dans mon délire dans les étoiles Si je ne te réponds pas, ne m'en veux pas Si je ne te réponds pas, ne m'en veux pas1</t>
+          <t>Je n'ai pas d'ennemis, t'es l'bienvenue On a qu'une seule vie, viens on s'amuse Les problèmes que l'on fuit, nous ont fatigué Je suis dans mon délire j'danse sur la lune Laisse-moi dans mon délire délire, délire, délire Ouh, j'suis dans mon délire délire, délire, délire Ouh, j'suis dans mon délire délire, délire, délire Ouh, j'suis dans mon délire délire, délire, délire Si je ne te réponds pas J'entends pas ce que tu dis si c'est négatif Le temps passe, j'apprécie, tant que mes gars kiffent Pas sans toi ma chérie, avance, je te suis Ah, ah, ah Ce soir le Heuss est dans la renta' Plomo O Plata, c'est l'nord d'Atlanta J'ai mélangé ganja et cke-Ja Kichta, clope, massa dans ma coche-sa C'est moi la grosse moula tah la Sinaloa Bébé, m'en veux pas, j'ai enfumé la pièce Là, je me barre de là, je dois gratter ma pièce J'ai tout laissé dans l'appart' des abbesses D'temps en temps, je fais des tours, je vérifie dans la caisse La Batmobile, les méchants qui nent-tour dans la tess Je suis pas là, je suis là-bas, Guadalajara Retentissement, j'entends deux fois le bruit du akha Laisse-moi dans mon délire dans les étoiles, dans les étoiles, dans les étoiles Ouh, j'suis dans mon délire dans les étoiles, dans les étoiles, dans les étoiles Ouh, j'suis dans mon délire dans les étoiles, dans les étoiles, dans les étoiles Ouh, j'suis dans mon délire dans les étoiles Si je ne te réponds pas, ne m'en veux pas Chérie, toi et moi, amour et fight La nuit je dors pas, la nuit je ride Dans les étoiles, la nuit je m'envole dans les étoiles Sans dire un mot, sans penser à demain Comme dans Billie Jean, s'illumine mon chemin My nigga, ah, ah, ah, ah On veut la paix plus que la maille Ah, ah, ah, ah, finir nos jours à Miami Tudo bem, j'suis dans mon délire, demande à Debeing On se démerde pour mener une vie qui pourrait nous plaire Tout petit, j'essaye de me faire, j'suis dans mes affaires Oui je kiff et si ça te gène, bah je t'emmerde Sers le Mojito, qu'on trinque un pocito Le tieks je l'ai pas quitté et toi je ne sais pas qui t'es Eh yo ladys, toutes sur la piste Le reste, euh allez ouste, je gère, c'est moi l'artiste Laisse-moi dans mon délire Ne m'en veut pas non, non, non, non délire J'suis dans mon monde non, non, non, non dans mon délire Ne m'en veut pas non, non, non, non délire Si je ne te réponds pas, ne m'en veux pas Dans mon délire Ouh, j'suis dans mon délire dans les étoiles, dans les étoiles, j'suis dans les étoiles Ouh, j'suis dans mon délire dans les étoiles, dans les étoiles, j'suis dans les étoiles Ouh, j'suis dans mon délire dans les étoiles Si je ne te réponds pas, ne m'en veux pas Si je ne te réponds pas, ne m'en veux pas1</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Kikow on the-the-the Ça fait dix ans qu'il connaît la ne-zo Ouais À l'époque, c'était un chouf pendant les quatre saisons Skch De temps en temps, après minuit, il partait en mission Skch À dix-neuf ans, c'est la première fois qu'il rentre en prison Merde C'est dur à croire, pendant sa détention, personne n'est venu l'voir Merde Zéro parloir, les mandats s'faisaient rares Enculé Il f'ra sa peine sans aucune histoire, tranquille et pénard Merde Son dix-huit mois, il en fait dix sur un jambe, énervé Merde Il a dû fêter ses vingt piges dans la maison d'arrêt Tranquille L'esprit est libérable, forcément, il veut redémarrer Skch Pour commencer, faut bien qui s'fait pousser Bah ouais T'inquiète même pas qu'il a tout remboursé Hein Il sait où s'ressourcer Ouais, bénéf' à cent pour cent Il correspond assez souvent à tous leurs signalements En attendant, il mange, il vend, il s'habille comme avant Hein Distribue que des grammes dans toute la capitale Ramène des demi-kil' là-bas dans la campagne Il fume, il boit d'la vodka, du whisky et du champagne Non Il traîne à Valenciennes, nehess chez Chantal Ouais Il avait des faux chèques, d'la drogue et du gent-ar Merde Mais ça volait jamais plus haut que vingt-cinq mille euros Trente-mille Deux années passe, il laisse des paluches et des traces Ouais Le man-show a grandi, maintenant, il a un gosse Ouh Il est père de famille, mais la juge le rattrape Merde et la taule aussi Merde, eh En cellule avec , ça va, il a grossit Yes Il avait du papier squé-ma et un peu d'shit aussi Non Sa peine est passée vite, tellement vite Qu'à sa sortie, il reprend vite la vente Vente pour remonter la pente Pente Ça y est, il bosse tout seul, il est plus dans la bande Bande À lui tout seul, avec sa pute, ils ont formé un gang Gang Il fait de planques en planques, ville sur ville, mille sur mille Mille Des billets qui s'empilent 'pilent mais il dort pas tranquille 'quille La sécu c'est son fusil, l'43 Maroki 'ki Sécurité, broliqué 'qué, sophistiqué 'qué La série continue, toujours dans sa folie Jack Daniel, hôtel et jacuzzi Skch C'est un pimp, narcotique, moitié alcoolique 'lique Une enflure pas possible, quoiqu'il arrive, il a jamais fini Jamais Hors-la-loi, vit comme un Bruxellois Dans la bouteille, vodka tah les Ouzbèques Eh Avec un spliff au bec Ouais Anderlecht, Schaerbeek, toujours dans l'baromètre L'enflure aime trop la fête, ramasser des pépettes Han C'est en Belgique qu'il a v'-esqui l'enquête Skch Toujours au calme juste avant la tempête T'en fais pas trop pour lui, il est dans sa matrice, écoute du Salif L'amour n'existe pas, les chattes ont un goût d'pisse Convoqué par Iblis dans un hôtel Ibis Skch, skch Les gens et le temps passent, il devient spécialiste Ouais Polyvalent dans tous les mécanismes Han Il aime pas la police, les réceptionnistes Non Au dernier étage, réveil à midi pile, c'est la femme de ménage Té-ma l'état d'la chambre, il fout partout d'la cendre Ah Respecte rien de janvier à décembre Il pisse partout, va t'en comprendre, il est dans BX Land BX Land Avec les meufs, ça dure jamais longtemps, il est bien trop gourmand et il aime trop l'argent, y a qu'ça qui l'rend content Ouais, skch, skch Qu'est-ce qui s'en bat les couilles des grosses voitures allemandes Il fait une loc' au place du pote et il part en Hollande En hiver, comme tous les autres, c'est vacances en Thaïlande De retour en ce-Fran, ça repart au bon-char L'enflure, il est pas riche, mais c'est pas un clochard Quoi qu'il arrive, quand il boit, c'est un vrai débauchard Un gros salopard, chef d'orchestre, un peu comme Mozart Déménage quand ça devient bizarre, il fait l'nécessaire Tous les soirs, laisse-les faire, laissez-le boire C'est pas en boîte mais dans l'bar qui s'fend la poire Confiance en plus personne comme Alain Delon Il parle de lui à la troisième personneYou might also like</t>
+          <t>Kikow on the-the-the Ça fait dix ans qu'il connaît la ne-zo Ouais À l'époque, c'était un chouf pendant les quatre saisons Skch De temps en temps, après minuit, il partait en mission Skch À dix-neuf ans, c'est la première fois qu'il rentre en prison Merde C'est dur à croire, pendant sa détention, personne n'est venu l'voir Merde Zéro parloir, les mandats s'faisaient rares Enculé Il f'ra sa peine sans aucune histoire, tranquille et pénard Merde Son dix-huit mois, il en fait dix sur un jambe, énervé Merde Il a dû fêter ses vingt piges dans la maison d'arrêt Tranquille L'esprit est libérable, forcément, il veut redémarrer Skch Pour commencer, faut bien qui s'fait pousser Bah ouais T'inquiète même pas qu'il a tout remboursé Hein Il sait où s'ressourcer Ouais, bénéf' à cent pour cent Il correspond assez souvent à tous leurs signalements En attendant, il mange, il vend, il s'habille comme avant Hein Distribue que des grammes dans toute la capitale Ramène des demi-kil' là-bas dans la campagne Il fume, il boit d'la vodka, du whisky et du champagne Non Il traîne à Valenciennes, nehess chez Chantal Ouais Il avait des faux chèques, d'la drogue et du gent-ar Merde Mais ça volait jamais plus haut que vingt-cinq mille euros Trente-mille Deux années passe, il laisse des paluches et des traces Ouais Le man-show a grandi, maintenant, il a un gosse Ouh Il est père de famille, mais la juge le rattrape Merde et la taule aussi Merde, eh En cellule avec , ça va, il a grossit Yes Il avait du papier squé-ma et un peu d'shit aussi Non Sa peine est passée vite, tellement vite Qu'à sa sortie, il reprend vite la vente Vente pour remonter la pente Pente Ça y est, il bosse tout seul, il est plus dans la bande Bande À lui tout seul, avec sa pute, ils ont formé un gang Gang Il fait de planques en planques, ville sur ville, mille sur mille Mille Des billets qui s'empilent 'pilent mais il dort pas tranquille 'quille La sécu c'est son fusil, l'43 Maroki 'ki Sécurité, broliqué 'qué, sophistiqué 'qué La série continue, toujours dans sa folie Jack Daniel, hôtel et jacuzzi Skch C'est un pimp, narcotique, moitié alcoolique 'lique Une enflure pas possible, quoiqu'il arrive, il a jamais fini Jamais Hors-la-loi, vit comme un Bruxellois Dans la bouteille, vodka tah les Ouzbèques Eh Avec un spliff au bec Ouais Anderlecht, Schaerbeek, toujours dans l'baromètre L'enflure aime trop la fête, ramasser des pépettes Han C'est en Belgique qu'il a v'-esqui l'enquête Skch Toujours au calme juste avant la tempête T'en fais pas trop pour lui, il est dans sa matrice, écoute du Salif L'amour n'existe pas, les chattes ont un goût d'pisse Convoqué par Iblis dans un hôtel Ibis Skch, skch Les gens et le temps passent, il devient spécialiste Ouais Polyvalent dans tous les mécanismes Han Il aime pas la police, les réceptionnistes Non Au dernier étage, réveil à midi pile, c'est la femme de ménage Té-ma l'état d'la chambre, il fout partout d'la cendre Ah Respecte rien de janvier à décembre Il pisse partout, va t'en comprendre, il est dans BX Land BX Land Avec les meufs, ça dure jamais longtemps, il est bien trop gourmand et il aime trop l'argent, y a qu'ça qui l'rend content Ouais, skch, skch Qu'est-ce qui s'en bat les couilles des grosses voitures allemandes Il fait une loc' au place du pote et il part en Hollande En hiver, comme tous les autres, c'est vacances en Thaïlande De retour en ce-Fran, ça repart au bon-char L'enflure, il est pas riche, mais c'est pas un clochard Quoi qu'il arrive, quand il boit, c'est un vrai débauchard Un gros salopard, chef d'orchestre, un peu comme Mozart Déménage quand ça devient bizarre, il fait l'nécessaire Tous les soirs, laisse-les faire, laissez-le boire C'est pas en boîte mais dans l'bar qui s'fend la poire Confiance en plus personne comme Alain Delon Il parle de lui à la troisième personne</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Alexander McQueen auf das Pedal Viel zu viel von dem Chivas-Regal Lass ihn zieh'n, phänomenal Mittlerweile ist mir alles scheißegal La khapta est phénoménale Ramène la bouteille de Chivas-Regal Midi-midi sur l'rrain-té, des gals Bolide allemand revient chargé d'Espagne 500 Brabus und mein Kopf ist Diablo Und ich flüchte vor mir selbst, wesh, wesh, cousin Gar keine Ahnung, was ich alles verlor'n hab' Auf der Jagd nach diesem Geld, wesh, wesh, cousin War es das wert oder nicht? Linke Tasche 100k Bargeld Bargeld Hör' ich auf mein Herz oder nicht? Oder nicht? Filter' meinen Schmerz durch ein paar Hits Kill' sie alle jetzt, neuf millimètres Steckt im Lauf der Dinge drin Lauf der Dinge drin Wir sind alle echt, platz' in deine Welt Mit dem Kopf durch die Wand, so wie Zinédine Ah-ah-ah You might also like Und sie fragen, wie Bitte geh mir aus meinem Weg Filim, sitz' im Wagen tief Mittelfinger raus, nique la police Alexander McQueen auf das Pedal Viel zu viel von dem Chivas-Regal Lass ihn zieh'n, phänomenal Mittlerweile ist mir alles scheißegal La khapta est phénoménale Ramène la bouteille de Chivas-Regal Midi-midi sur l'rrain-té, des gals Bolide allemand revient chargé d'Espagne Bolide allemand, départ de Paname J'fonce à Bruxelles, j'enquille à Rotterdam J'repasse la douane, merci Balavoine J'ai un nouveau truc dans ma nouvelle bécane Des fois, j'suis pas là, plutôt vers là-bas Envoie un Sicarios récupérer le que-sa Des fois, j'suis pas là, plutôt vers là-bas Envoie un Sicarios récupérer le que-sa Plaque est Deutschland, chargée en Espagne Plaque est Deutschland, recherchée en Espagne Plaque est Deutschland, chargée en Espagne Plaque est Deutschland, recherchée en Espagne Alexander McQueen auf das Pedal Viel zu viel von dem Chivas-Regal Lass ihn zieh'n, phänomenal Mittlerweile ist mir alles scheißegal La khapta est phénoménal Ramène la bouteille de Chivas-Regal Midi-midi sur l'rrain-té, des gals Bolide allemand revient chargé d'Espagne Mister Dardy, ey Hypnotize Mafia</t>
+          <t>Alexander McQueen auf das Pedal Viel zu viel von dem Chivas-Regal Lass ihn zieh'n, phänomenal Mittlerweile ist mir alles scheißegal La khapta est phénoménale Ramène la bouteille de Chivas-Regal Midi-midi sur l'rrain-té, des gals Bolide allemand revient chargé d'Espagne 500 Brabus und mein Kopf ist Diablo Und ich flüchte vor mir selbst, wesh, wesh, cousin Gar keine Ahnung, was ich alles verlor'n hab' Auf der Jagd nach diesem Geld, wesh, wesh, cousin War es das wert oder nicht? Linke Tasche 100k Bargeld Bargeld Hör' ich auf mein Herz oder nicht? Oder nicht? Filter' meinen Schmerz durch ein paar Hits Kill' sie alle jetzt, neuf millimètres Steckt im Lauf der Dinge drin Lauf der Dinge drin Wir sind alle echt, platz' in deine Welt Mit dem Kopf durch die Wand, so wie Zinédine Ah-ah-ah Und sie fragen, wie Bitte geh mir aus meinem Weg Filim, sitz' im Wagen tief Mittelfinger raus, nique la police Alexander McQueen auf das Pedal Viel zu viel von dem Chivas-Regal Lass ihn zieh'n, phänomenal Mittlerweile ist mir alles scheißegal La khapta est phénoménale Ramène la bouteille de Chivas-Regal Midi-midi sur l'rrain-té, des gals Bolide allemand revient chargé d'Espagne Bolide allemand, départ de Paname J'fonce à Bruxelles, j'enquille à Rotterdam J'repasse la douane, merci Balavoine J'ai un nouveau truc dans ma nouvelle bécane Des fois, j'suis pas là, plutôt vers là-bas Envoie un Sicarios récupérer le que-sa Des fois, j'suis pas là, plutôt vers là-bas Envoie un Sicarios récupérer le que-sa Plaque est Deutschland, chargée en Espagne Plaque est Deutschland, recherchée en Espagne Plaque est Deutschland, chargée en Espagne Plaque est Deutschland, recherchée en Espagne Alexander McQueen auf das Pedal Viel zu viel von dem Chivas-Regal Lass ihn zieh'n, phänomenal Mittlerweile ist mir alles scheißegal La khapta est phénoménal Ramène la bouteille de Chivas-Regal Midi-midi sur l'rrain-té, des gals Bolide allemand revient chargé d'Espagne Mister Dardy, ey Hypnotize Mafia</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Khapta, stenda, khapta, stenda Hé, hé Khapta, stenda, salope, te-boî, chot-ca, tel-hô, te-car Midi, départ, Paris, Neymar, Nasser, Qatar, voiture très rare Benda, j'démarre, esprit, Lemon, Cheezy, DZ, flexy, Djezzy Khalis, pressing, musique, streaming, bouteille, parking J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis dans ma khapta, yah, yah, yah j'suis en esprit J'suis dans ma khapta, yah, yah, yah en moula J'suis dans ma khapta, yah, yah, yah j'suis en esprit J'suis dans ma khapta, yah, yah, yah en yah yah You might also like Je sais tirer, je sais pas dire je t'aime, Affranchis contrôle le game Embrouilles XL, terrain, ficelles, khapta, Saint-Ouen, j'vois des pixels, hé Nous, c'est les grands du quartier ouais, nous, c'est les grands d'la tess Problèmes, balek, Brésil, Sadek, bénèf', chenef, Philippe Patek J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis dans ma khapta, yah, yah, yah j'suis en esprit J'suis dans ma khapta, yah, yah, yah en moula J'suis dans ma khapta, yah, yah, yah j'suis en esprit J'suis dans ma khapta, yah, yah, yah en yah yah La re-pu, la sse-pre, la casserole est magique Tartin génial, police spéciale, Safrane, Mégane, Stomy vegan J'régale Ciroc, Belvé', Grey Goose, végé' Re-pu séchée, Dolce, Versace, c'est léger Gaufrette, pétage fichée, garde à v', dépôt bien équipé J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis dans ma khapta, yah, yah, yah j'suis en esprit J'suis dans ma khapta, yah, yah, yah en moula J'suis dans ma khapta, yah, yah, yah j'suis en esprit J'suis dans ma khapta, yah, yah, yah en yah yah3</t>
+          <t>Khapta, stenda, khapta, stenda Hé, hé Khapta, stenda, salope, te-boî, chot-ca, tel-hô, te-car Midi, départ, Paris, Neymar, Nasser, Qatar, voiture très rare Benda, j'démarre, esprit, Lemon, Cheezy, DZ, flexy, Djezzy Khalis, pressing, musique, streaming, bouteille, parking J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis dans ma khapta, yah, yah, yah j'suis en esprit J'suis dans ma khapta, yah, yah, yah en moula J'suis dans ma khapta, yah, yah, yah j'suis en esprit J'suis dans ma khapta, yah, yah, yah en yah yah Je sais tirer, je sais pas dire je t'aime, Affranchis contrôle le game Embrouilles XL, terrain, ficelles, khapta, Saint-Ouen, j'vois des pixels, hé Nous, c'est les grands du quartier ouais, nous, c'est les grands d'la tess Problèmes, balek, Brésil, Sadek, bénèf', chenef, Philippe Patek J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis dans ma khapta, yah, yah, yah j'suis en esprit J'suis dans ma khapta, yah, yah, yah en moula J'suis dans ma khapta, yah, yah, yah j'suis en esprit J'suis dans ma khapta, yah, yah, yah en yah yah La re-pu, la sse-pre, la casserole est magique Tartin génial, police spéciale, Safrane, Mégane, Stomy vegan J'régale Ciroc, Belvé', Grey Goose, végé' Re-pu séchée, Dolce, Versace, c'est léger Gaufrette, pétage fichée, garde à v', dépôt bien équipé J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis une moula, t'es une moula J'suis en esprit, t'es en esprit J'suis dans ma khapta, yah, yah, yah j'suis en esprit J'suis dans ma khapta, yah, yah, yah en moula J'suis dans ma khapta, yah, yah, yah j'suis en esprit J'suis dans ma khapta, yah, yah, yah en yah yah3</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>J'me barre là-bas, à Malaga Malaga, Granada Tu m'as déjà vu sur l'avenue de Bangla L'avenue de Bangla, en choupeta Ou au bâtiment 2, en promenade au card-pla En promenade au card-pla, au bâtiment A Il doit des lovés mais il est même pas là Il est même pas là, il a déjà benda J'ai déjà pris mon billet pour Amsterdam Amsterdam, Amsterdam Tu m'as déjà aperçu à Bab El Oued Dans les rues de seille-Mar ou les rues de Paname Il te doit des lovés et il est même pas là Si tu me cherches, j'suis plus là J'suis dans les rues de Wahran en Impala Ou une Aventador, ça fait vroum, vroum, rhla Si tu l'cherches, il est plus là yeah Il a déjà benda yeah yeah yeah Sur l'avenue de Bangla rapapap Il a fait une khapta, il s'en rappelle même pas Y en a plein qui l'aiment pas, il encule le tempo Il a v'là les blèmes-pro, il fait bosser à té-cô Il refait la déco', il finit au dépôt Trois heures après, il est en mandat d'dépôt Il fumera toute sa peine, il sortira costaud Il fumera toute sa peine, il sortira pas costaud Sous l'effet d'la khapta, il viendra d'accoster rapapap-pa You might also like J'me barre là-bas, à Malaga Malaga, Granada Tu m'as déjà vu sur l'avenue de Bangla L'avenue de Bangla en choupeta Ou au bâtiment 2, en promenade au card-pla En promenade au card-pla, au bâtiment A Il doit des lovés mais il est même pas là Il est même pas là, il a déjà benda J'ai déjà pris mon billet pour Amsterdam Amsterdam, Amsterdam Tu m'as déjà aperçu à Bab El Oued Dans les rues de seille-Mar ou les rues de Paname Il te doit des lovés et il est même pas là Si tu me cherches, j'suis plus là J'suis dans les rues de Wahran en Impala Ou une Aventador, ça fait vroum, vroum, rhla Petit hermano veut devenir El Capitaine Il s'inspire des grands bandidos d'sa cité Sa mama lui a dit Fais attention aux 3afrit ! Il côtoie des mecs qui font les crimes tarifés Sous son lit six-coups, barillet De midi à midi, il est là d'puis hier Plus de illets-bi et moins de manières Même en cellule, ouais, ouais, ouais Hey hey, hey hey Ga3 ytkayfou pour oublier Hey hey, hey hey Jour de paye, envoie la bouteille J'me barre là-bas, à Malaga Malaga, Granada Tu m'as déjà vu sur l'avenue de Bangla L'avenue de Bangla en choupeta Ou au bâtiment 2, en promenade au card-pla En promenade au card-pla, au bâtiment A Il doit des lovés mais il est même pas là Il est même pas là, il a déjà benda J'ai déjà pris mon billet pour Amsterdam Amsterdam, Amsterdam Tu m'as déjà aperçu à Bab El Oued Dans les rues de seille-Mar ou les rues de Paname Il te doit des lovés et il est même pas là Si tu me cherches, j'suis plus là J'suis dans les rues de Wahran en Impala Ou une Aventador, ça fait vroum, vroum, rhla Hey, hey hey Si tu me cherches, j'suis plus là Hey, hey hey J'suis sur l'avenue de Bangla en choupeta Hey, hey hey Amsterdam, Amsterdam Hey, hey hey J'suis à Malaga ou à Granada2</t>
+          <t>J'me barre là-bas, à Malaga Malaga, Granada Tu m'as déjà vu sur l'avenue de Bangla L'avenue de Bangla, en choupeta Ou au bâtiment 2, en promenade au card-pla En promenade au card-pla, au bâtiment A Il doit des lovés mais il est même pas là Il est même pas là, il a déjà benda J'ai déjà pris mon billet pour Amsterdam Amsterdam, Amsterdam Tu m'as déjà aperçu à Bab El Oued Dans les rues de seille-Mar ou les rues de Paname Il te doit des lovés et il est même pas là Si tu me cherches, j'suis plus là J'suis dans les rues de Wahran en Impala Ou une Aventador, ça fait vroum, vroum, rhla Si tu l'cherches, il est plus là yeah Il a déjà benda yeah yeah yeah Sur l'avenue de Bangla rapapap Il a fait une khapta, il s'en rappelle même pas Y en a plein qui l'aiment pas, il encule le tempo Il a v'là les blèmes-pro, il fait bosser à té-cô Il refait la déco', il finit au dépôt Trois heures après, il est en mandat d'dépôt Il fumera toute sa peine, il sortira costaud Il fumera toute sa peine, il sortira pas costaud Sous l'effet d'la khapta, il viendra d'accoster rapapap-pa J'me barre là-bas, à Malaga Malaga, Granada Tu m'as déjà vu sur l'avenue de Bangla L'avenue de Bangla en choupeta Ou au bâtiment 2, en promenade au card-pla En promenade au card-pla, au bâtiment A Il doit des lovés mais il est même pas là Il est même pas là, il a déjà benda J'ai déjà pris mon billet pour Amsterdam Amsterdam, Amsterdam Tu m'as déjà aperçu à Bab El Oued Dans les rues de seille-Mar ou les rues de Paname Il te doit des lovés et il est même pas là Si tu me cherches, j'suis plus là J'suis dans les rues de Wahran en Impala Ou une Aventador, ça fait vroum, vroum, rhla Petit hermano veut devenir El Capitaine Il s'inspire des grands bandidos d'sa cité Sa mama lui a dit Fais attention aux 3afrit ! Il côtoie des mecs qui font les crimes tarifés Sous son lit six-coups, barillet De midi à midi, il est là d'puis hier Plus de illets-bi et moins de manières Même en cellule, ouais, ouais, ouais Hey hey, hey hey Ga3 ytkayfou pour oublier Hey hey, hey hey Jour de paye, envoie la bouteille J'me barre là-bas, à Malaga Malaga, Granada Tu m'as déjà vu sur l'avenue de Bangla L'avenue de Bangla en choupeta Ou au bâtiment 2, en promenade au card-pla En promenade au card-pla, au bâtiment A Il doit des lovés mais il est même pas là Il est même pas là, il a déjà benda J'ai déjà pris mon billet pour Amsterdam Amsterdam, Amsterdam Tu m'as déjà aperçu à Bab El Oued Dans les rues de seille-Mar ou les rues de Paname Il te doit des lovés et il est même pas là Si tu me cherches, j'suis plus là J'suis dans les rues de Wahran en Impala Ou une Aventador, ça fait vroum, vroum, rhla Hey, hey hey Si tu me cherches, j'suis plus là Hey, hey hey J'suis sur l'avenue de Bangla en choupeta Hey, hey hey Amsterdam, Amsterdam Hey, hey hey J'suis à Malaga ou à Granada2</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Umh, twenny twenny Eh, zid, zid Moi, c'est Heuss l'Enfoiré, tu m'as vu dans l'carré J'ai même pas démarré, j'vais pas vous ménager Dans la zone 6, la rue, la vraie, tu peux nous voir en vrai Tu sais qu'on est carré mais faut pas t'égarer dans la zone 6, la rue, la vraie J'suis dans la ville et j'accélère, tez-ma l'salaire, putain d'sa mère De Villeneuve à Gegen, Asnières, on a cassé toutes les barrières Banana kush est bloquée dans mes pensées, j'fais que ramasser, c'est pour mieux les dépenser J'vais rester assis, j'vais les regarder danser, j'me resserre un verre, j'roule un teh pour m'ambiancer Que des sicarios que des sicarios, y a pas de grossiste y a pas de grossiste Arrête de chanter zid, zid, viens dans la zone 6 Que des sicarios que des sicarios, il n'y a pas de grossiste y a pas, y a pas Arrête de chanter zid, zid, viens dans la zone 6 C'qui sort du four, c'est pas du pain j'prends la vie comme elle vient Ça s'en va et ça revient raisonne comme un Colombien Dans l'four, c'est pas du pain j'prends la vie comme elle vient Ça s'en va et ça revient raisonne comme un Colombien J'fais, j'fais, j'fais du sale, j'fais, j'fais du sale J'fais, j'fais, j'fais du sale, j'fais, j'fais du sale J'fais, j'fais, j'fais du sale, sale, j'fais, j'fais du sale J'fais, j'fais, j'fais du sale, sale, j'fais, j'fais du sale, j'fais, j'fais... You might also like J'ai démarré ma route sans que personne puisse vraiment me l'indiquer Au pied de la Tour Eiffel avec mes poignets Audemarisés Tu m'appelles en visio' pour voir si je fais vraiment c'que j'dis Dis-toi que ces gens verront le Chiron s'garer cet été Allez, Warano, petits pas chaloupés, tu veux donner la force ? T'as qu'à danser, oh Le proviseur disait T'as qu'à bosser, j'viens d'Afrique avec un passé cabossé Et vai você, vai você, Dona Maria, como vai você ? Les marques sur mon dos ne peuvent pas s'effacer la vie, c'est dur parce que y a trop de filles faciles La mano Sostenerlo de la mano, mano, mano Bébé, c'est la vie, vie, vie Bienvenue à Paris-ris-ris C'qui sort du four, c'est pas du pain j'prends la vie comme elle vient Ça s'en va et ça revient raisonne comme un Colombien Dans l'four, c'est pas du pain j'prends la vie comme elle vient Ça s'en va et ça revient raisonne comme un Colombien J'fais, j'fais, j'fais du sale, j'fais, j'fais du sale J'fais, j'fais, j'fais du sale, j'fais, j'fais du sale J'fais, j'fais, j'fais du sale, sale, j'fais, j'fais du sale J'fais, j'fais, j'fais du sale, sale, j'fais, j'fais du sale, j'fais, j'fais... Que des sicarios que des sicarios, y a pas de grossiste y a pas de grossiste Arrête de chanter zid, zid, viens dans la zone 6 Que des sicarios que des sicarios, il n'y a pas de grossiste y a pas, y a pas Arrête de chanter zid, zid, viens dans la zone 6 C'qui sort du four, c'est pas du pain j'prends la vie comme elle vient Ça s'en va et ça revient raisonne comme un Colombien Dans l'four, c'est pas du pain j'prends la vie comme elle vient Ça s'en va et ça revient raisonne comme un Colombien J'fais, j'fais, j'fais du sale, j'fais, j'fais du sale J'fais, j'fais, j'fais du sale, j'fais, j'fais du sale J'fais, j'fais, j'fais du sale, sale, j'fais, j'fais du sale J'fais, j'fais, j'fais du sale, sale, j'fais, j'fais du sale, j'fais, j'fais...1</t>
+          <t>Umh, twenny twenny Eh, zid, zid Moi, c'est Heuss l'Enfoiré, tu m'as vu dans l'carré J'ai même pas démarré, j'vais pas vous ménager Dans la zone 6, la rue, la vraie, tu peux nous voir en vrai Tu sais qu'on est carré mais faut pas t'égarer dans la zone 6, la rue, la vraie J'suis dans la ville et j'accélère, tez-ma l'salaire, putain d'sa mère De Villeneuve à Gegen, Asnières, on a cassé toutes les barrières Banana kush est bloquée dans mes pensées, j'fais que ramasser, c'est pour mieux les dépenser J'vais rester assis, j'vais les regarder danser, j'me resserre un verre, j'roule un teh pour m'ambiancer Que des sicarios que des sicarios, y a pas de grossiste y a pas de grossiste Arrête de chanter zid, zid, viens dans la zone 6 Que des sicarios que des sicarios, il n'y a pas de grossiste y a pas, y a pas Arrête de chanter zid, zid, viens dans la zone 6 C'qui sort du four, c'est pas du pain j'prends la vie comme elle vient Ça s'en va et ça revient raisonne comme un Colombien Dans l'four, c'est pas du pain j'prends la vie comme elle vient Ça s'en va et ça revient raisonne comme un Colombien J'fais, j'fais, j'fais du sale, j'fais, j'fais du sale J'fais, j'fais, j'fais du sale, j'fais, j'fais du sale J'fais, j'fais, j'fais du sale, sale, j'fais, j'fais du sale J'fais, j'fais, j'fais du sale, sale, j'fais, j'fais du sale, j'fais, j'fais... J'ai démarré ma route sans que personne puisse vraiment me l'indiquer Au pied de la Tour Eiffel avec mes poignets Audemarisés Tu m'appelles en visio' pour voir si je fais vraiment c'que j'dis Dis-toi que ces gens verront le Chiron s'garer cet été Allez, Warano, petits pas chaloupés, tu veux donner la force ? T'as qu'à danser, oh Le proviseur disait T'as qu'à bosser, j'viens d'Afrique avec un passé cabossé Et vai você, vai você, Dona Maria, como vai você ? Les marques sur mon dos ne peuvent pas s'effacer la vie, c'est dur parce que y a trop de filles faciles La mano Sostenerlo de la mano, mano, mano Bébé, c'est la vie, vie, vie Bienvenue à Paris-ris-ris C'qui sort du four, c'est pas du pain j'prends la vie comme elle vient Ça s'en va et ça revient raisonne comme un Colombien Dans l'four, c'est pas du pain j'prends la vie comme elle vient Ça s'en va et ça revient raisonne comme un Colombien J'fais, j'fais, j'fais du sale, j'fais, j'fais du sale J'fais, j'fais, j'fais du sale, j'fais, j'fais du sale J'fais, j'fais, j'fais du sale, sale, j'fais, j'fais du sale J'fais, j'fais, j'fais du sale, sale, j'fais, j'fais du sale, j'fais, j'fais... Que des sicarios que des sicarios, y a pas de grossiste y a pas de grossiste Arrête de chanter zid, zid, viens dans la zone 6 Que des sicarios que des sicarios, il n'y a pas de grossiste y a pas, y a pas Arrête de chanter zid, zid, viens dans la zone 6 C'qui sort du four, c'est pas du pain j'prends la vie comme elle vient Ça s'en va et ça revient raisonne comme un Colombien Dans l'four, c'est pas du pain j'prends la vie comme elle vient Ça s'en va et ça revient raisonne comme un Colombien J'fais, j'fais, j'fais du sale, j'fais, j'fais du sale J'fais, j'fais, j'fais du sale, j'fais, j'fais du sale J'fais, j'fais, j'fais du sale, sale, j'fais, j'fais du sale J'fais, j'fais, j'fais du sale, sale, j'fais, j'fais du sale, j'fais, j'fais...1</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Wesh ma moula, ma moula C'est l'Algé', Heuss Laga Yeah, yeah J'suis dans la tess, mama mia, qué calor J'ai tellement voyagé qu'j'ai plus d'place dans mon passeport Y a la guardia, j'suis léwé, j'passe les rapports J'suis dans l'Aventador, j'vais t'faire rêver mi amor Elle aime les ballons, sous chicha ballon Elle aime les galons, les mecs qui ont le bras long Elle aime les ballons, sous chicha ballon En bolide allemand, j'te ché-bran même en flamand Wesh ma moula, comment c'est ? Comment va ? Laga, j'fais d'la moulaga, un verre de vodka dans l'Valhalla J'suis dans l'Valhalla, j'fais la mala-la-la Tu veux Heuss et l'Algé', faut qu'tu khalass 50 pourcents avant pour qu'on s'déplace Faut qu'tu khalass, faut qu'tu khalass, pluie de pétrole comme Dallas Le conteneur vient de Mexico, survêt' d'l'Atlético J'sais qu'ça te plaît chico, on a des millions d'té-cô Ouais, des millions d'té-cô, je sais qu'ça te plaît chica Laisse tomber ton pélo, j'le dis d'façon amicale You might also like J'suis dans la tess, mama mia, qué calor J'ai tellement voyagé qu'j'ai plus d'place dans mon passeport Y a la guardia, j'suis léwé, j'passe les rapports J'suis dans l'Aventador, j'vais t'faire rêver mi amor Elle aime les ballons, sous chicha ballon Elle aime les patrons, ceux qui ont le bras long Elle aime les ballons, sous chicha ballon En bolide allemand, j'te charmerai même en flamand Au fond du bar, recommande à boire pour la moulaga Et tard le soir, dans la saison 3, la Sinaloa Au fond d'la tess, posé dans l'local, des sommes colossales Et pour le reste, j'suis à Marrakech, dans l'anonymat Elle aime bien les ballons ballons, elle veut des nouveaux talons talons Qu'on refasse le salon salon, j'suis dans d'autres plavons plavons, yeah C'est violet, billets ultraviolets violets C'est violet, billets ultraviolets J'suis dans la tess, mama mia, qué calor J'ai tellement voyagé qu'j'ai plus d'place dans mon passeport Y a la guardia, j'suis léwé, j'passe les rapports J'suis dans l'Aventador, j'vais t'faire rêver mi amor Elle aime les ballons, sous chicha ballon Elle aime les patrons, ceux qui ont le bras long Elle aime les ballons, sous chicha ballon En bolide allemand, j'te charmerai même en flamand J'suis dans la tess, mama mia, qué calor J'ai tellement voyagé qu'j'ai plus d'place dans mon passeport Y a la guardia, j'suis léwé, j'passe les rapports J'suis dans l'Aventador, j'vais t'faire rêver mi amor Elle aime les ballons, sous chicha ballon Elle aime les patrons, ceux qui ont le bras long Elle aime les ballons, sous chicha ballon En bolide allemand, j'te charmerai même en flamand</t>
+          <t>Wesh ma moula, ma moula C'est l'Algé', Heuss Laga Yeah, yeah J'suis dans la tess, mama mia, qué calor J'ai tellement voyagé qu'j'ai plus d'place dans mon passeport Y a la guardia, j'suis léwé, j'passe les rapports J'suis dans l'Aventador, j'vais t'faire rêver mi amor Elle aime les ballons, sous chicha ballon Elle aime les galons, les mecs qui ont le bras long Elle aime les ballons, sous chicha ballon En bolide allemand, j'te ché-bran même en flamand Wesh ma moula, comment c'est ? Comment va ? Laga, j'fais d'la moulaga, un verre de vodka dans l'Valhalla J'suis dans l'Valhalla, j'fais la mala-la-la Tu veux Heuss et l'Algé', faut qu'tu khalass 50 pourcents avant pour qu'on s'déplace Faut qu'tu khalass, faut qu'tu khalass, pluie de pétrole comme Dallas Le conteneur vient de Mexico, survêt' d'l'Atlético J'sais qu'ça te plaît chico, on a des millions d'té-cô Ouais, des millions d'té-cô, je sais qu'ça te plaît chica Laisse tomber ton pélo, j'le dis d'façon amicale J'suis dans la tess, mama mia, qué calor J'ai tellement voyagé qu'j'ai plus d'place dans mon passeport Y a la guardia, j'suis léwé, j'passe les rapports J'suis dans l'Aventador, j'vais t'faire rêver mi amor Elle aime les ballons, sous chicha ballon Elle aime les patrons, ceux qui ont le bras long Elle aime les ballons, sous chicha ballon En bolide allemand, j'te charmerai même en flamand Au fond du bar, recommande à boire pour la moulaga Et tard le soir, dans la saison 3, la Sinaloa Au fond d'la tess, posé dans l'local, des sommes colossales Et pour le reste, j'suis à Marrakech, dans l'anonymat Elle aime bien les ballons ballons, elle veut des nouveaux talons talons Qu'on refasse le salon salon, j'suis dans d'autres plavons plavons, yeah C'est violet, billets ultraviolets violets C'est violet, billets ultraviolets J'suis dans la tess, mama mia, qué calor J'ai tellement voyagé qu'j'ai plus d'place dans mon passeport Y a la guardia, j'suis léwé, j'passe les rapports J'suis dans l'Aventador, j'vais t'faire rêver mi amor Elle aime les ballons, sous chicha ballon Elle aime les patrons, ceux qui ont le bras long Elle aime les ballons, sous chicha ballon En bolide allemand, j'te charmerai même en flamand J'suis dans la tess, mama mia, qué calor J'ai tellement voyagé qu'j'ai plus d'place dans mon passeport Y a la guardia, j'suis léwé, j'passe les rapports J'suis dans l'Aventador, j'vais t'faire rêver mi amor Elle aime les ballons, sous chicha ballon Elle aime les patrons, ceux qui ont le bras long Elle aime les ballons, sous chicha ballon En bolide allemand, j'te charmerai même en flamand</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Lamborghini, pas d'Golf 7R, la vie d'Ronnie, ça coûte cher ouh Champs-Élysées, mon frère, nouvelle tre-mon, doudoune Moncler Et-et-et té-ma la carte bancaire, à Anvers, les diamantaires J'sais même plus comment faire, j'té-ma tous vos commentaires J'fais deux-trois bar-mitsvah, bar-mitsvah Mon baveux a la kippa, a la kippa J'fais deux-trois bar-mitsvah, bar-mitsvah Mon baveux a la kippa, a la kippa Hey, hey, hey, hey, hey, hey, hey, hey Hey, hey, hey, hey, hey, hey, hey, hy L'avocat, la kippa yah, yah, le costard à dix balles oui, oui Elle dit qu'lle me connait, comment ça ? Elle veut que j'm'abonne, commence pas À s'demander pourquoi on danse pas, eh, pourquoi on danse pas Elle m'a vu sur Snap' avec Naps, oui, sur Snap' avec Naps Avec Bandit ou avec Dams, faux Filas des favelas des favelas You might also like J'fais deux-trois bar-mitsvah, bar-mitsvah Mon baveux a la kippa, a la kippa J'fais deux-trois bar-mitsvah, bar-mitsvah Mon baveux a la kippa, a la kippa Hey, hey, hey, hey, hey, hey, hey, hey Hey, hey, hey, hey, hey, hey, hey, hey Ici, c'est Paris, y a les Qataris Mauvaise gadji dans la Ferrari Ici, ici, c'est Paris hey, hey, hey, hey, hey, hey, hey, hey , y a les Qataris Mauvaise gadji dans la Ferrari hey, hey, hey, hey, hey, hey, hey, hey</t>
+          <t>Lamborghini, pas d'Golf 7R, la vie d'Ronnie, ça coûte cher ouh Champs-Élysées, mon frère, nouvelle tre-mon, doudoune Moncler Et-et-et té-ma la carte bancaire, à Anvers, les diamantaires J'sais même plus comment faire, j'té-ma tous vos commentaires J'fais deux-trois bar-mitsvah, bar-mitsvah Mon baveux a la kippa, a la kippa J'fais deux-trois bar-mitsvah, bar-mitsvah Mon baveux a la kippa, a la kippa Hey, hey, hey, hey, hey, hey, hey, hey Hey, hey, hey, hey, hey, hey, hey, hy L'avocat, la kippa yah, yah, le costard à dix balles oui, oui Elle dit qu'lle me connait, comment ça ? Elle veut que j'm'abonne, commence pas À s'demander pourquoi on danse pas, eh, pourquoi on danse pas Elle m'a vu sur Snap' avec Naps, oui, sur Snap' avec Naps Avec Bandit ou avec Dams, faux Filas des favelas des favelas J'fais deux-trois bar-mitsvah, bar-mitsvah Mon baveux a la kippa, a la kippa J'fais deux-trois bar-mitsvah, bar-mitsvah Mon baveux a la kippa, a la kippa Hey, hey, hey, hey, hey, hey, hey, hey Hey, hey, hey, hey, hey, hey, hey, hey Ici, c'est Paris, y a les Qataris Mauvaise gadji dans la Ferrari Ici, ici, c'est Paris hey, hey, hey, hey, hey, hey, hey, hey , y a les Qataris Mauvaise gadji dans la Ferrari hey, hey, hey, hey, hey, hey, hey, hey</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Patek Phi', Phi' Commission pas de selfie-fie Le buzz c'est cool, j'fais l'amour grâce au Wi-Fi Regarde ces m'as-tu vu, ils sont plein de mathusa' Nous c'est la rue-rue, j'fais boussa qu'à mon kaboussa-sa-sa Happy birthday, j'rappe puis j'esquive les condés Ça fait bander d'les voir blindés et glander-der-der-der Drogues dures, c'est pas trop l'argent facile Nouvelle géné', PGP écran tactile Ça fait ratatatata, ratatatata, ratatatata en un coup d'fil On va se refaire vite, puissant comme la Chine T'sais des fois ma vie est loin d'être magique On fait du son, on excelle, tiens, 3ess la Sacem Jaloux, je l'ai menacé comme Vincent Cassel Veni, vidi oui, vidi oui, vici yeah Génération maudite, sapée en Gucci T'as chaud percé le sang, continue, envoie du sale Tu régales, saha les z'hommes Ouais, le sang, on est ensemble Olalala, tani cette année, on fait hala Olalala, tani j'ai vesqui les ham Olalala, tani cette année, j'fais hala Olalala, tani j'vesqui les ham You might also like Comportement d'affranchis Y a rien sans rien, poto, réfléchis Comportement d'affranchis Y a rien sans rien, poto, réfléchis Plata o plomo, on fait la plata en platine Plata o plomo, on fait la plata en platine C'est la rafale, équipé ça va faire mal La gadji te remballe, c'est rien mets le son à balle Tu veux te faire des fils de pute, envoie leur dix te-pu Fais cracher le pot de compet', dans les putos ça recrute La qualidad-dad, j'kiffe ça déboîte-boîte On reste à quatro-quatro, j'vais pas en boîte-boîte J'ai tout baisé, les charos ont tout cassé Moi, de mon coté, j'arrête pas de m'embourgeoiser 30.000, c'est que le prix du bracelet Heuss l'Enfoiré, c'est bon, ça y est, tu connais Kichta, khalis, bénéfice Gucci, sima, bénéfice Kichta, khalis, bénéfice Gucci, sima, bénéfice Juste avant qu'on m'emmène J'ai bu tous mes problèmes J'ai beau tiser, baiser J'ai pas trouvé de remède Que personne m'vienne en aide Et si tu pleures, on va t'enlever ton cur La vie de ma mère, on n'est pas des menteurs Dans mon secteur, y a que des revendeurs Viens faire un tour, ici, c'est The Wire Bébé, je t'aime mais ça dure qu'une semaine J'arrête pas de tiser, je sais même plus c'que j'disais Ici, faut être précis comme Andrea Pirlo Polyvalent comme Robert De Niro Si tu bosses comme Wilow, on te pousse un demi-kilo On se reverra plus tard dans un bistro Grosse boule à Z comme Pascal Obispo Comportement d'affranchis Y a rien sans rien, poto, réfléchis Comportement d'affranchis Y a rien sans rien, poto, réfléchis Plata o plomo, on fait la plata en platine Plata o plomo, on fait la plata en platine J'ai pas de 6.35 dans le 6.3 Il est 6h35, j'ai fait la prod j'la zingue le zin J'mets droit la moto, vas-y, prends en photo J'sens la beuh monter, j'sens la beuh monter, wesh alors Khapta, j'ai bu qu'deux verres, mama, quelle chaleur Je suis en fumette, sirop, j'prends le virage à 200 à l'heure La la la la la la la la la la la la La la la la la la la la la la la la Comportement d'affranchis Y a rien sans rien, poto, réfléchis Plata o plomo, on fait la plata en platine Plata o plomo, on fait la plata en platine</t>
+          <t>Patek Phi', Phi' Commission pas de selfie-fie Le buzz c'est cool, j'fais l'amour grâce au Wi-Fi Regarde ces m'as-tu vu, ils sont plein de mathusa' Nous c'est la rue-rue, j'fais boussa qu'à mon kaboussa-sa-sa Happy birthday, j'rappe puis j'esquive les condés Ça fait bander d'les voir blindés et glander-der-der-der Drogues dures, c'est pas trop l'argent facile Nouvelle géné', PGP écran tactile Ça fait ratatatata, ratatatata, ratatatata en un coup d'fil On va se refaire vite, puissant comme la Chine T'sais des fois ma vie est loin d'être magique On fait du son, on excelle, tiens, 3ess la Sacem Jaloux, je l'ai menacé comme Vincent Cassel Veni, vidi oui, vidi oui, vici yeah Génération maudite, sapée en Gucci T'as chaud percé le sang, continue, envoie du sale Tu régales, saha les z'hommes Ouais, le sang, on est ensemble Olalala, tani cette année, on fait hala Olalala, tani j'ai vesqui les ham Olalala, tani cette année, j'fais hala Olalala, tani j'vesqui les ham Comportement d'affranchis Y a rien sans rien, poto, réfléchis Comportement d'affranchis Y a rien sans rien, poto, réfléchis Plata o plomo, on fait la plata en platine Plata o plomo, on fait la plata en platine C'est la rafale, équipé ça va faire mal La gadji te remballe, c'est rien mets le son à balle Tu veux te faire des fils de pute, envoie leur dix te-pu Fais cracher le pot de compet', dans les putos ça recrute La qualidad-dad, j'kiffe ça déboîte-boîte On reste à quatro-quatro, j'vais pas en boîte-boîte J'ai tout baisé, les charos ont tout cassé Moi, de mon coté, j'arrête pas de m'embourgeoiser 30.000, c'est que le prix du bracelet Heuss l'Enfoiré, c'est bon, ça y est, tu connais Kichta, khalis, bénéfice Gucci, sima, bénéfice Kichta, khalis, bénéfice Gucci, sima, bénéfice Juste avant qu'on m'emmène J'ai bu tous mes problèmes J'ai beau tiser, baiser J'ai pas trouvé de remède Que personne m'vienne en aide Et si tu pleures, on va t'enlever ton cur La vie de ma mère, on n'est pas des menteurs Dans mon secteur, y a que des revendeurs Viens faire un tour, ici, c'est The Wire Bébé, je t'aime mais ça dure qu'une semaine J'arrête pas de tiser, je sais même plus c'que j'disais Ici, faut être précis comme Andrea Pirlo Polyvalent comme Robert De Niro Si tu bosses comme Wilow, on te pousse un demi-kilo On se reverra plus tard dans un bistro Grosse boule à Z comme Pascal Obispo Comportement d'affranchis Y a rien sans rien, poto, réfléchis Comportement d'affranchis Y a rien sans rien, poto, réfléchis Plata o plomo, on fait la plata en platine Plata o plomo, on fait la plata en platine J'ai pas de 6.35 dans le 6.3 Il est 6h35, j'ai fait la prod j'la zingue le zin J'mets droit la moto, vas-y, prends en photo J'sens la beuh monter, j'sens la beuh monter, wesh alors Khapta, j'ai bu qu'deux verres, mama, quelle chaleur Je suis en fumette, sirop, j'prends le virage à 200 à l'heure La la la la la la la la la la la la La la la la la la la la la la la la Comportement d'affranchis Y a rien sans rien, poto, réfléchis Plata o plomo, on fait la plata en platine Plata o plomo, on fait la plata en platine</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>J'ai vu la Choupetta soudoyer le tron-pa Nettoyer le comptoir quand l'hiver est notoire Comme Anita, elle a connu l'trottoir Elle a tout péta, il est déjà trop tard Cheveux dans l'vent, elle rallume son pétard La vraie pétasse organise ton pétage Dans la plus chère, au dernier étage Elle a fait une razzia, Bar Mitzvah et mariage Elle connait tous les gérants du bendo Et après, elle veut qu'on l'appelle madame Elle a tout volé quand j'étais collé Ah, elle a tout péta, yeah, la Choupetta, oh oh Elle a tout péta, yeah, la Choupetta, la Choupetta, oh oh Elle a tout péta, yeah, la Choupetta, oh oh, oh Yeah, la Choupetta , la Choupetta, oh oh Elle aime les gros machins, tu peux ranger ta Smart Hanouka, l'jour de l'an, elle s'couche tard, elle s'lève tôt Elle dérègle le resto, elle commande toute la carte Elle a bu mon bénef', elle a vidé l'appart', ouais Monaco, Grand Prix, t'inquiète pas qu'elle s'est levée GSX et Belvé', l'addition est élevée L'ADN est prélevé, cent grands frères et cent zincs Plus le p'tit 6.35 avec la crosse LV C'est une sorcière dans tous genres de pratiques Zéro barrière, passeport diplomatique C'est une grosse carrière, elle traverse les époques Elle prend pas la pilule, elle t'fait prendre de la drogue You might also like Elle connait tous les gérants du bendo Et après, elle veut qu'on l'appelle madame Elle a tout volé quand j'étais collé Ah, elle a tout péta, yeah, la Choupetta, oh oh Elle a tout péta, yeah, la Choupetta, la Choupetta, oh oh Elle a tout péta, yeah, la Choupetta, oh oh, oh Yeah, la Choupetta , la Choupetta, oh oh C'est à midi pétante que les affaires commencent Et pour commencer, j'dois bombarder J'vais la bombarder, j'ai repéré la raquette DG jacket tah la rue d'la roquette Snap', disquette, j'effrite sur la plaquette J'ai tout plaqué, elle m'fait pas mal à la tête Il l'a laissé passer, on l'a tabassé En G.A.V, y a pas d'laisser passer Monnaie, shit, coke, la tête dans les comptes Nous fais pas un trou, faut qu'le bénef' monte Faut qu'le bénef monte, merci l'argent sale J'étais souvent seul, j'avais souvent mal Elle connait tous les gérants du bendo Et après, elle veut qu'on l'appelle madame Elle a tout volé quand j'étais collé Ah, elle a tout péta, yeah, la Choupetta, oh oh Elle a tout péta, yeah, la Choupetta, la Choupetta, oh oh Elle a tout péta, yeah, la Choupetta, oh oh, oh Yeah, la Choupetta , la Choupetta, oh oh</t>
+          <t>J'ai vu la Choupetta soudoyer le tron-pa Nettoyer le comptoir quand l'hiver est notoire Comme Anita, elle a connu l'trottoir Elle a tout péta, il est déjà trop tard Cheveux dans l'vent, elle rallume son pétard La vraie pétasse organise ton pétage Dans la plus chère, au dernier étage Elle a fait une razzia, Bar Mitzvah et mariage Elle connait tous les gérants du bendo Et après, elle veut qu'on l'appelle madame Elle a tout volé quand j'étais collé Ah, elle a tout péta, yeah, la Choupetta, oh oh Elle a tout péta, yeah, la Choupetta, la Choupetta, oh oh Elle a tout péta, yeah, la Choupetta, oh oh, oh Yeah, la Choupetta , la Choupetta, oh oh Elle aime les gros machins, tu peux ranger ta Smart Hanouka, l'jour de l'an, elle s'couche tard, elle s'lève tôt Elle dérègle le resto, elle commande toute la carte Elle a bu mon bénef', elle a vidé l'appart', ouais Monaco, Grand Prix, t'inquiète pas qu'elle s'est levée GSX et Belvé', l'addition est élevée L'ADN est prélevé, cent grands frères et cent zincs Plus le p'tit 6.35 avec la crosse LV C'est une sorcière dans tous genres de pratiques Zéro barrière, passeport diplomatique C'est une grosse carrière, elle traverse les époques Elle prend pas la pilule, elle t'fait prendre de la drogue Elle connait tous les gérants du bendo Et après, elle veut qu'on l'appelle madame Elle a tout volé quand j'étais collé Ah, elle a tout péta, yeah, la Choupetta, oh oh Elle a tout péta, yeah, la Choupetta, la Choupetta, oh oh Elle a tout péta, yeah, la Choupetta, oh oh, oh Yeah, la Choupetta , la Choupetta, oh oh C'est à midi pétante que les affaires commencent Et pour commencer, j'dois bombarder J'vais la bombarder, j'ai repéré la raquette DG jacket tah la rue d'la roquette Snap', disquette, j'effrite sur la plaquette J'ai tout plaqué, elle m'fait pas mal à la tête Il l'a laissé passer, on l'a tabassé En G.A.V, y a pas d'laisser passer Monnaie, shit, coke, la tête dans les comptes Nous fais pas un trou, faut qu'le bénef' monte Faut qu'le bénef monte, merci l'argent sale J'étais souvent seul, j'avais souvent mal Elle connait tous les gérants du bendo Et après, elle veut qu'on l'appelle madame Elle a tout volé quand j'étais collé Ah, elle a tout péta, yeah, la Choupetta, oh oh Elle a tout péta, yeah, la Choupetta, la Choupetta, oh oh Elle a tout péta, yeah, la Choupetta, oh oh, oh Yeah, la Choupetta , la Choupetta, oh oh</t>
         </is>
       </c>
     </row>
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>L'enfoiré, skch, skch, skch J'aime pas tes manières bizarres de merde Eh, fils de pute, tu sais qu'en plus, un jour, on va tout perdre J'suis l'genre de mec qui fait pas du gospel Je baise, je pars sans dire au revoir et j'te donne pas d'nouvelles J'me rappelle d'eux, ils disaient qu'j't'étais fou, maintenant, ils m'sucent la bite Parce que j'ai des sous, wallah, ce monde est fou eh Eh, les p'tits frelons, là, wallah, préparez-vous 45.0.37, numéro d'écrou Sans parlu, sans mandat, ça va, j'tiens l'coup, j'encaisse les coups J'appelle mon sin-cou, lui aussi, incarcéré, accusé d'avoir monté sur un coup Il m'dit qu'il a pris quatre piges, qu'il les fait sur un pouce T'as vu, la vie, des fois, c'est triste, là, c'est une trixe-ma On a fait que du le-sa mais c'était que pour la kichta Demain, y a Thanksgiving, après-demain, c'est ta Bar-Mitzvah Sur la tête de oi-m, la tête des gosses qui chialent J'm'arrêterai as-p tant qu'j'aurai pas la montre de Jackie Chan Ramène des armes de l'Est et d'la re-pu tah Culiacán pah On fourre ta femme, on t'nique ta mère, on baise tout dans Paname skch, skch, skch J't'allume ta mère, j'suis pas ton frère, appelle-moi Nino Brown J'engage une discussion plausible avec un psychologue J'peux plus m'les voir, donne-moi à boire, que j'vois multicolore Monsieur le psy, la tête de tata, j'crois qu'j'suis bipolaire J'fume que d'la plata, plata, plata, sinon, c'est la guerre Internat, foyer, prison, j'ai fait pleurer ma mère Faut un mariage pour manger, avoir un dans la même assiette J'v'-esqui les traîtres, les poukies, les jaloux, pique-assiettes C'est potatoes le mercredi, tu manges la p'tite barquette Fume des roulés, on fume le tah avec des cigarettes Pour comparaître au tribunal, y en a qui disparaissent Réapparaissent, nouvelle adresse, Roumanie, Bucarest Heuss L'enfoiré, bande d'enfoirés, Suárez, Mahrez, James Dans la soirée, j'ai fumé, tisé, tigresse me caresse Le but, c'est finir obèse à l'arrière d'un grand carrosse Appelle-moi Djokovic si l'rap, c'était Roland-Garros You might also like Tout est neuf, mes nouveaux habits, mon nouveau gamos J'pars m'dorer la pilule trois-quatre mois chez les chicanos Un couteau rouillé dans ta mère, t'attrapes le tétanos J'sors du placard, ça prend l'air mais j'peux re-rentrer gratos Tu joues au con, on t'arrose, gros, c'est pas cher la bastos J'gère le rrain-té, la boutique, récupère du bon matos Achète des outils au cas où il s'passerait quelque chose Ça repart de plus belle avec les potos tah Bruxelles Putain, ça m'manque, la rue d'Aerschot, les délits à l'ancienne J'ai pas fini d'tout baiser, j'm'arrêterai qu'à la trentaine C'était dans la calle qu'on bibi, volait, bataillait Maintenant, c'est album, interviews, radio, ça passe à la télé Heuss L'enfoiré, bande d'enfoirés Skch, skch, skch</t>
+          <t>L'enfoiré, skch, skch, skch J'aime pas tes manières bizarres de merde Eh, fils de pute, tu sais qu'en plus, un jour, on va tout perdre J'suis l'genre de mec qui fait pas du gospel Je baise, je pars sans dire au revoir et j'te donne pas d'nouvelles J'me rappelle d'eux, ils disaient qu'j't'étais fou, maintenant, ils m'sucent la bite Parce que j'ai des sous, wallah, ce monde est fou eh Eh, les p'tits frelons, là, wallah, préparez-vous 45.0.37, numéro d'écrou Sans parlu, sans mandat, ça va, j'tiens l'coup, j'encaisse les coups J'appelle mon sin-cou, lui aussi, incarcéré, accusé d'avoir monté sur un coup Il m'dit qu'il a pris quatre piges, qu'il les fait sur un pouce T'as vu, la vie, des fois, c'est triste, là, c'est une trixe-ma On a fait que du le-sa mais c'était que pour la kichta Demain, y a Thanksgiving, après-demain, c'est ta Bar-Mitzvah Sur la tête de oi-m, la tête des gosses qui chialent J'm'arrêterai as-p tant qu'j'aurai pas la montre de Jackie Chan Ramène des armes de l'Est et d'la re-pu tah Culiacán pah On fourre ta femme, on t'nique ta mère, on baise tout dans Paname skch, skch, skch J't'allume ta mère, j'suis pas ton frère, appelle-moi Nino Brown J'engage une discussion plausible avec un psychologue J'peux plus m'les voir, donne-moi à boire, que j'vois multicolore Monsieur le psy, la tête de tata, j'crois qu'j'suis bipolaire J'fume que d'la plata, plata, plata, sinon, c'est la guerre Internat, foyer, prison, j'ai fait pleurer ma mère Faut un mariage pour manger, avoir un dans la même assiette J'v'-esqui les traîtres, les poukies, les jaloux, pique-assiettes C'est potatoes le mercredi, tu manges la p'tite barquette Fume des roulés, on fume le tah avec des cigarettes Pour comparaître au tribunal, y en a qui disparaissent Réapparaissent, nouvelle adresse, Roumanie, Bucarest Heuss L'enfoiré, bande d'enfoirés, Suárez, Mahrez, James Dans la soirée, j'ai fumé, tisé, tigresse me caresse Le but, c'est finir obèse à l'arrière d'un grand carrosse Appelle-moi Djokovic si l'rap, c'était Roland-Garros Tout est neuf, mes nouveaux habits, mon nouveau gamos J'pars m'dorer la pilule trois-quatre mois chez les chicanos Un couteau rouillé dans ta mère, t'attrapes le tétanos J'sors du placard, ça prend l'air mais j'peux re-rentrer gratos Tu joues au con, on t'arrose, gros, c'est pas cher la bastos J'gère le rrain-té, la boutique, récupère du bon matos Achète des outils au cas où il s'passerait quelque chose Ça repart de plus belle avec les potos tah Bruxelles Putain, ça m'manque, la rue d'Aerschot, les délits à l'ancienne J'ai pas fini d'tout baiser, j'm'arrêterai qu'à la trentaine C'était dans la calle qu'on bibi, volait, bataillait Maintenant, c'est album, interviews, radio, ça passe à la télé Heuss L'enfoiré, bande d'enfoirés Skch, skch, skch</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>J'les ai visser en hiver, printemps, été, hiver, printemps, printemps, été, hiver Les ients-cli m'ont dit Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais J'vendais dix grammes, vendais dix balles, j'sors de taule, j'sors d'l'hôpital J'suis dans l'four, j'bosse à Carrefour, quand tu travailles, j'aime détailler, eh Tu fais tes courses, j'me fais ser-cour, tu sors des cours, 2012, j'ai déjà né-tour Les mecs comme moi font des allers-retours, les mecs comme toi respectent bien leur parcours J'vnds d'la gue-dro, fais du re-spo, t'es ingéniur, j'ai fini dealer Midi-midi, l'argent n'a pas d'heure, tu t'fais braquer, c'est Manny le braqueur Tu fais la fête, moi, j'suis dedans, c'est seulement pour visser les raquettes Tous les ients-cli, la moitié d'la jaquette, tous les ients-cli, la moitié d'la jaquette Tu rentres chez toi, j'sors de chez moi, t'es sentimental, j'suis plutôt brutal J'pars en le-Thaï, tu pars en illes-cou J'les ai visser en hiver, printemps, été, hiver, printemps, printemps, été, hiver Les ients-cli m'ont dit Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais J'les ai visser en hiver, printemps, été, hiver, printemps, printemps, été, hiver Les ients-cli m'ont dit Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais Me-sper, adrénaline, les deux, tu les contrôles pas, j'arrive dans la te-boî, escorté par des pétasses Les moutons, c'est comme des prises d'otages, tout c'que tu dis, ils l'exécutent en balle Les chiens d'la rue nous ont dressé ouh, j'parle des anciens de la cité Jogging baissé, j'ai la trique qui se lève, elle fait la folle, elle baise pas, ça m'énerve sheesh Pauvre, la richesse de croire en Dieu, meufs ont la finesse de claquer nos eu' J'suis l'étincelle qui déclenche l'incendie, les charbonneurs prennent la paye à minuit Pédales qui parlent n'assument pas les ennuis Au tabac, ça gratte, ça botte le chinois, je suis dans ta ville mais bon, j'suis chez moi L'été, on va pas au ski mais j't'assure qu'on plonge dans la neige Cette chienne de vie, y a trop d'jaloux qui veulent la ouer-j' ouais, ouais, ouais You might also like J'les ai visser en hiver, printemps, été, hiver, printemps, printemps, été, hiver Les ients-cli m'ont dit Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais J'les ai visser en hiver, printemps, été, hiver, printemps, printemps, été, hiver Les ients-cli m'ont dit Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais Petit reufton part en illes-cou, moi, j'ai les bras longs, j'ai un six coups, quelques Zifu' dans la Du pilon dans ma bouche, j'ai du te-shi à la school Comme Elian, j'étais bête en cours, Elian, j'étais bête encours À neuf heures pile, la bombonne était chargée J'fais des sous jamais déclarés, jamais déclarés Pour ne pas couler, les murs, c'est la bouée Devant la juge, faut être con pour avouer J'suis en esprit, t'es égaré, t'es égaré J'vais à , j'vais à Elle est pas , elle est pas , elle est pas Amster', Rotten, j'retourne à Paname, ouais, ouais, ouais J'les ai visser en hiver, printemps, été, hiver, printemps, printemps, été, hiver Les ients-cli m'ont dit Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais J'les ai visser en hiver, printemps, été, hiver, printemps, printemps, été, hiver Les ients-cli m'ont dit Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais</t>
+          <t>J'les ai visser en hiver, printemps, été, hiver, printemps, printemps, été, hiver Les ients-cli m'ont dit Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais J'vendais dix grammes, vendais dix balles, j'sors de taule, j'sors d'l'hôpital J'suis dans l'four, j'bosse à Carrefour, quand tu travailles, j'aime détailler, eh Tu fais tes courses, j'me fais ser-cour, tu sors des cours, 2012, j'ai déjà né-tour Les mecs comme moi font des allers-retours, les mecs comme toi respectent bien leur parcours J'vnds d'la gue-dro, fais du re-spo, t'es ingéniur, j'ai fini dealer Midi-midi, l'argent n'a pas d'heure, tu t'fais braquer, c'est Manny le braqueur Tu fais la fête, moi, j'suis dedans, c'est seulement pour visser les raquettes Tous les ients-cli, la moitié d'la jaquette, tous les ients-cli, la moitié d'la jaquette Tu rentres chez toi, j'sors de chez moi, t'es sentimental, j'suis plutôt brutal J'pars en le-Thaï, tu pars en illes-cou J'les ai visser en hiver, printemps, été, hiver, printemps, printemps, été, hiver Les ients-cli m'ont dit Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais J'les ai visser en hiver, printemps, été, hiver, printemps, printemps, été, hiver Les ients-cli m'ont dit Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais Me-sper, adrénaline, les deux, tu les contrôles pas, j'arrive dans la te-boî, escorté par des pétasses Les moutons, c'est comme des prises d'otages, tout c'que tu dis, ils l'exécutent en balle Les chiens d'la rue nous ont dressé ouh, j'parle des anciens de la cité Jogging baissé, j'ai la trique qui se lève, elle fait la folle, elle baise pas, ça m'énerve sheesh Pauvre, la richesse de croire en Dieu, meufs ont la finesse de claquer nos eu' J'suis l'étincelle qui déclenche l'incendie, les charbonneurs prennent la paye à minuit Pédales qui parlent n'assument pas les ennuis Au tabac, ça gratte, ça botte le chinois, je suis dans ta ville mais bon, j'suis chez moi L'été, on va pas au ski mais j't'assure qu'on plonge dans la neige Cette chienne de vie, y a trop d'jaloux qui veulent la ouer-j' ouais, ouais, ouais J'les ai visser en hiver, printemps, été, hiver, printemps, printemps, été, hiver Les ients-cli m'ont dit Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais J'les ai visser en hiver, printemps, été, hiver, printemps, printemps, été, hiver Les ients-cli m'ont dit Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais Petit reufton part en illes-cou, moi, j'ai les bras longs, j'ai un six coups, quelques Zifu' dans la Du pilon dans ma bouche, j'ai du te-shi à la school Comme Elian, j'étais bête en cours, Elian, j'étais bête encours À neuf heures pile, la bombonne était chargée J'fais des sous jamais déclarés, jamais déclarés Pour ne pas couler, les murs, c'est la bouée Devant la juge, faut être con pour avouer J'suis en esprit, t'es égaré, t'es égaré J'vais à , j'vais à Elle est pas , elle est pas , elle est pas Amster', Rotten, j'retourne à Paname, ouais, ouais, ouais J'les ai visser en hiver, printemps, été, hiver, printemps, printemps, été, hiver Les ients-cli m'ont dit Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais J'les ai visser en hiver, printemps, été, hiver, printemps, printemps, été, hiver Les ients-cli m'ont dit Ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais, ouais</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>La khapta est téméraire, fuck le commissaire, on tourne en convoi funéraire J'ai bu deux 'teilles de Jack, pas d'Belvédère, j'ai mis tout l'monde sous , ce soir, j'suis l'tortionnaire Ici, c'est Paname, 92, on aspire ton âme Fuck you , en espègueces ou même en PayPal Benda-dé, on a d'jà décal', décal', même la rose en perd ses pétales sales Y a des manchougou partougout, regarde-nous, on est partougout La radio, la télé, dans les partougouzes Que des cartougouches sur la file de gauche 75.0.19, 92, 75.0.19, 92 V'là les shlags, on distribue 92, té-ma la trousse Spliff de pelouse, verre de Grey Goose Rajoute la San Pi' puis retire les VHR, on arrive en deux-deux dans le quatre anneaux C'est pas mon délire de rentrer par derrière compréguéssé à huiguit dans le viano Oh, si ça marche plus dans le pe-ra, oh, elle m'dira plus ti amo skch Si ça marche plus dans le pe-ra, oh, frappe du gauche d'Adriano Rajoute la San Pi' puis retire les VHR, on arrive en deux-deux dans le quatre anneaux C'est pas mon délire de rentrer par derrière compréguéssé à huiguit dans le viano Oh, si ça marche plus dans le pe-ra, oh, elle m'dira plus ti amo skch Si ça marche plus dans le pe-ra, oh, frappe du gauche d'Adriano You might also like Ils sont où, les gars ? La vie, c'est pas un jeu, c'est pas du cinéma Many me répète tous les jours qu'les putes au comico aussi témoignent Plus j'bédave, les sourires s'éloignent, on va t'niquer ta mère dans l'bâtiment, y aura pas les montagnes Ramène pas ta compagne, les charots m'accompagnent Y a Reham, la départementale, on fait tout ça en balle Nique la police scientifique, la BAC et les gendarmes Là, c'est la sans pipi, j'enquiquine, vas-y, quitte d'ici Tu m'identifies, j'anticipe, on fait des On fait que des hits, on fait pas tié-pi, grosse équipe et tu flippes Depuis tout p'tit, j'fais l'bandit, rien qu'j'les quitte Légergui casse des dix, Ze Pek' et bandits Fructifie, prends tes billets, ensuite, quantifie À la base, j'm'en bats les c', rien qu'pour Rajoute la San Pi' puis retire les VHR, on arrive en deux-deux dans le quatre anneaux C'est pas mon délire de rentrer par derrière compréguéssé à huiguit dans le viano Oh, si ça marche plus dans le pe-ra, oh, elle m'dira plus ti amo skch Si ça marche plus dans le pe-ra, oh, frappe du gauche d'Adriano Rajoute la San Pi' puis retire les VHR, on arrive en deux-deux dans le quatre anneaux C'est pas mon délire de rentrer par derrière compréguéssé à huiguit dans le viano Oh, si ça marche plus dans le pe-ra, oh, elle m'dira plus ti amo skch Si ça marche plus dans le pe-ra, oh, frappe du gauche d'Adriano</t>
+          <t>La khapta est téméraire, fuck le commissaire, on tourne en convoi funéraire J'ai bu deux 'teilles de Jack, pas d'Belvédère, j'ai mis tout l'monde sous , ce soir, j'suis l'tortionnaire Ici, c'est Paname, 92, on aspire ton âme Fuck you , en espègueces ou même en PayPal Benda-dé, on a d'jà décal', décal', même la rose en perd ses pétales sales Y a des manchougou partougout, regarde-nous, on est partougout La radio, la télé, dans les partougouzes Que des cartougouches sur la file de gauche 75.0.19, 92, 75.0.19, 92 V'là les shlags, on distribue 92, té-ma la trousse Spliff de pelouse, verre de Grey Goose Rajoute la San Pi' puis retire les VHR, on arrive en deux-deux dans le quatre anneaux C'est pas mon délire de rentrer par derrière compréguéssé à huiguit dans le viano Oh, si ça marche plus dans le pe-ra, oh, elle m'dira plus ti amo skch Si ça marche plus dans le pe-ra, oh, frappe du gauche d'Adriano Rajoute la San Pi' puis retire les VHR, on arrive en deux-deux dans le quatre anneaux C'est pas mon délire de rentrer par derrière compréguéssé à huiguit dans le viano Oh, si ça marche plus dans le pe-ra, oh, elle m'dira plus ti amo skch Si ça marche plus dans le pe-ra, oh, frappe du gauche d'Adriano Ils sont où, les gars ? La vie, c'est pas un jeu, c'est pas du cinéma Many me répète tous les jours qu'les putes au comico aussi témoignent Plus j'bédave, les sourires s'éloignent, on va t'niquer ta mère dans l'bâtiment, y aura pas les montagnes Ramène pas ta compagne, les charots m'accompagnent Y a Reham, la départementale, on fait tout ça en balle Nique la police scientifique, la BAC et les gendarmes Là, c'est la sans pipi, j'enquiquine, vas-y, quitte d'ici Tu m'identifies, j'anticipe, on fait des On fait que des hits, on fait pas tié-pi, grosse équipe et tu flippes Depuis tout p'tit, j'fais l'bandit, rien qu'j'les quitte Légergui casse des dix, Ze Pek' et bandits Fructifie, prends tes billets, ensuite, quantifie À la base, j'm'en bats les c', rien qu'pour Rajoute la San Pi' puis retire les VHR, on arrive en deux-deux dans le quatre anneaux C'est pas mon délire de rentrer par derrière compréguéssé à huiguit dans le viano Oh, si ça marche plus dans le pe-ra, oh, elle m'dira plus ti amo skch Si ça marche plus dans le pe-ra, oh, frappe du gauche d'Adriano Rajoute la San Pi' puis retire les VHR, on arrive en deux-deux dans le quatre anneaux C'est pas mon délire de rentrer par derrière compréguéssé à huiguit dans le viano Oh, si ça marche plus dans le pe-ra, oh, elle m'dira plus ti amo skch Si ça marche plus dans le pe-ra, oh, frappe du gauche d'Adriano</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Heuss L'enfoiré, bande d'enfoirés Heuss L'enfoiré, bande d'enfoirés Met des buts à la Suarez Heuss L'enfoiré, bande d'enfoirés Dédicace à Many en Cisjordanie Un mec de chez moi m'a dit tu sais bien péra Avec ça tu pourras peut-être vesqui la hessla Mais j'l'esquive déjà en vendant d'la selha Si tu m'crois pas bah demande à Sahla Au micro c'est Heusla, j'vais toujours pas voter Au microphone, nan j'peux tout saboter Mais j'peux plus fauter, à ce qu'il parait j'fais que m'répéter Ecouter ça, moi les gars c'est d'la nouveauté Heuss et Many, une affaire de famille C'est la rue, c'est la guerre, c'est la Cisjordanie Au micro j'm'épanouis et tu t'évanouis Tout ça dans la nuit, l'argent, les vils-ci, les ennuis Comme le sin-cou les délits j'multiplie La zipette, la pesette et les fameux ienclis Heuss L'enfoiré dans les amplis Quand j'ai des g d'héro', partout j'vois des fédéraux J'me déplace peu importe la météo J'tords mon corps en deux, un peu comme Néo J'connais les taros d'la ess, tout ça sans BTS Juste un GPS pour noter les adresses J'décolle logiquement de l'appart' des Apès Mets du Heuss dans la caisse à la gangz J'appelle mon gars de mon bigo Ça parle de gue-dro mais faut pas qu'j'en dise trop Le rendez-vous au bistro Rase-toi la tête comme Pascal Obispo Omar et Marlo sur écoute Mais rien à foutre faut des sous coûte que coûte J'crache pas dans la soupe, y'a d'la poudre et d'la coupe De la bonne amnésia d'la Sab' jusqu'aux Boute Toujours dans la soute avec Paul et Tigrou On est là quitte ou double, on est là quitte ou double On est là quitte ou double You might also like x2 J'ai la dalle, l'arme fatale, la mentale de la Squale J'fous le zbeul dans la salle, 92 la Banane J'fous l'feu comme Zlatan au Parc des ces-Prin Les mecs d'la keuba veulent m'passer les ces-pin Passer les ces-pin, les mecs d'la keuba veulent m'passer les ces-pin J'sais pas où j'serai en 2020 mais j'reste numéro un Histoire sans fin, Heusla s'occupe du refrain J'arrive en douce comme la drogue dure et douce Bah ouais ma gueule, c'est bien l'quatre-vingt-douze Ecoutez tous, y'a des doses et des douzes Juste pour la cause, j'me dois d'faire des ouss J'veux gonfler ma trousse, joublie pas ma cons' J'fonce à Rotter', aller sans retour Ça vaut peut-être le détour, artena, ça court Pablito tout ça, les soldats dans la tour Si tu veux savoir la rue à quoi ça ressemble 64 mois pour Medlar il me semble Ça fait froid dans l'dos comme le mois de décembre J'renais de mes cendres, j'vais tous les descendre Ouvrez les rideaux, les mans sont ridés J'ai v'là les idées, j'oublie pas tous les mecs décédés En esprit comme Zepek et l'poto DBD C'est pas des gags ni des blagues comme le Gang de Roubaix Une bande d'arabes, c'est d'la re-pu, d'la gaufrette Ouais c'est d'l'écaille, toi c'est d'la caille Vas-y décale, téma c'que je déballe Algérie, Colombie, le Sénégal C'est vraiment illégal, la santé, la végétale Y'aura toujours d'la drogue, peut-être plus d'cellophane C'est qui les mélomanes Qui ramènent d'la bonne came pour les toxicomanes ? J'crois qu'j'suis malade J'ralentis l'shit, jaccélère la salade Dans ce milieu j'me balade Que des grosses phrases qui laissent des balafres Ti-sor la kalash, dougouze ans d'âge dans la carafe Y'aura toujours du bleu dans les parages C'est dans la rue, pas à l'armée que j'm'engage C'est dans la rue, pas à l'armée que j'm'engage x2 J'ai la dalle, l'arme fatale, la mentale de la Squale J'fous le zbeul dans la salle, 92 la Banane J'fous l'feu comme Zlatan au Parc des ces-Prin Les mecs d'la keuba veulent m'passer les ces-pin Passer les ces-pin, les mecs d'la keuba veulent m'passer les ces-pin J'sais pas où j'serai en 2020 mais j'reste numéro un Histoire sans fin, Heusla s'occupe du refrain J'encule Marine et la gendarmerie J'ai les keufs sur mon dos, raconte pas d'connerie Ou j'récupère ta fille à la garderie Si tu m'as donné, j'te rends que sa ballerine Sans pitié comme ce bâtard de Kadhafi Faut que j'me rassasie pour que je m'assagisse Dans la grosse chatte à Rachida Dati Nique la justice ainsi qu'toute la police x2 J'ai la dalle, l'arme fatale, la mentale de la Squale J'fous le zbeul dans la salle, 92 la Banane J'fous l'feu comme Zlatan au Parc des ces-Prin Les mecs d'la keuba veulent m'passer les ces-pin Passer les ces-pin, les mecs d'la keuba veulent m'passer les ces-pin J'sais pas où j'serai en 2020 mais j'reste numéro un Histoire sans fin, Heusla s'occupe du refrain1</t>
+          <t>Heuss L'enfoiré, bande d'enfoirés Heuss L'enfoiré, bande d'enfoirés Met des buts à la Suarez Heuss L'enfoiré, bande d'enfoirés Dédicace à Many en Cisjordanie Un mec de chez moi m'a dit tu sais bien péra Avec ça tu pourras peut-être vesqui la hessla Mais j'l'esquive déjà en vendant d'la selha Si tu m'crois pas bah demande à Sahla Au micro c'est Heusla, j'vais toujours pas voter Au microphone, nan j'peux tout saboter Mais j'peux plus fauter, à ce qu'il parait j'fais que m'répéter Ecouter ça, moi les gars c'est d'la nouveauté Heuss et Many, une affaire de famille C'est la rue, c'est la guerre, c'est la Cisjordanie Au micro j'm'épanouis et tu t'évanouis Tout ça dans la nuit, l'argent, les vils-ci, les ennuis Comme le sin-cou les délits j'multiplie La zipette, la pesette et les fameux ienclis Heuss L'enfoiré dans les amplis Quand j'ai des g d'héro', partout j'vois des fédéraux J'me déplace peu importe la météo J'tords mon corps en deux, un peu comme Néo J'connais les taros d'la ess, tout ça sans BTS Juste un GPS pour noter les adresses J'décolle logiquement de l'appart' des Apès Mets du Heuss dans la caisse à la gangz J'appelle mon gars de mon bigo Ça parle de gue-dro mais faut pas qu'j'en dise trop Le rendez-vous au bistro Rase-toi la tête comme Pascal Obispo Omar et Marlo sur écoute Mais rien à foutre faut des sous coûte que coûte J'crache pas dans la soupe, y'a d'la poudre et d'la coupe De la bonne amnésia d'la Sab' jusqu'aux Boute Toujours dans la soute avec Paul et Tigrou On est là quitte ou double, on est là quitte ou double On est là quitte ou double x2 J'ai la dalle, l'arme fatale, la mentale de la Squale J'fous le zbeul dans la salle, 92 la Banane J'fous l'feu comme Zlatan au Parc des ces-Prin Les mecs d'la keuba veulent m'passer les ces-pin Passer les ces-pin, les mecs d'la keuba veulent m'passer les ces-pin J'sais pas où j'serai en 2020 mais j'reste numéro un Histoire sans fin, Heusla s'occupe du refrain J'arrive en douce comme la drogue dure et douce Bah ouais ma gueule, c'est bien l'quatre-vingt-douze Ecoutez tous, y'a des doses et des douzes Juste pour la cause, j'me dois d'faire des ouss J'veux gonfler ma trousse, joublie pas ma cons' J'fonce à Rotter', aller sans retour Ça vaut peut-être le détour, artena, ça court Pablito tout ça, les soldats dans la tour Si tu veux savoir la rue à quoi ça ressemble 64 mois pour Medlar il me semble Ça fait froid dans l'dos comme le mois de décembre J'renais de mes cendres, j'vais tous les descendre Ouvrez les rideaux, les mans sont ridés J'ai v'là les idées, j'oublie pas tous les mecs décédés En esprit comme Zepek et l'poto DBD C'est pas des gags ni des blagues comme le Gang de Roubaix Une bande d'arabes, c'est d'la re-pu, d'la gaufrette Ouais c'est d'l'écaille, toi c'est d'la caille Vas-y décale, téma c'que je déballe Algérie, Colombie, le Sénégal C'est vraiment illégal, la santé, la végétale Y'aura toujours d'la drogue, peut-être plus d'cellophane C'est qui les mélomanes Qui ramènent d'la bonne came pour les toxicomanes ? J'crois qu'j'suis malade J'ralentis l'shit, jaccélère la salade Dans ce milieu j'me balade Que des grosses phrases qui laissent des balafres Ti-sor la kalash, dougouze ans d'âge dans la carafe Y'aura toujours du bleu dans les parages C'est dans la rue, pas à l'armée que j'm'engage C'est dans la rue, pas à l'armée que j'm'engage x2 J'ai la dalle, l'arme fatale, la mentale de la Squale J'fous le zbeul dans la salle, 92 la Banane J'fous l'feu comme Zlatan au Parc des ces-Prin Les mecs d'la keuba veulent m'passer les ces-pin Passer les ces-pin, les mecs d'la keuba veulent m'passer les ces-pin J'sais pas où j'serai en 2020 mais j'reste numéro un Histoire sans fin, Heusla s'occupe du refrain J'encule Marine et la gendarmerie J'ai les keufs sur mon dos, raconte pas d'connerie Ou j'récupère ta fille à la garderie Si tu m'as donné, j'te rends que sa ballerine Sans pitié comme ce bâtard de Kadhafi Faut que j'me rassasie pour que je m'assagisse Dans la grosse chatte à Rachida Dati Nique la justice ainsi qu'toute la police x2 J'ai la dalle, l'arme fatale, la mentale de la Squale J'fous le zbeul dans la salle, 92 la Banane J'fous l'feu comme Zlatan au Parc des ces-Prin Les mecs d'la keuba veulent m'passer les ces-pin Passer les ces-pin, les mecs d'la keuba veulent m'passer les ces-pin J'sais pas où j'serai en 2020 mais j'reste numéro un Histoire sans fin, Heusla s'occupe du refrain1</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Zeg P on the track J'prends sur moi, j'prends sur moi et j'en ai marre J'prends sur moi, j'prends sur moi et j'en ai marre J't'ai dit j'prends sur moi, j'prends sur moi et j'en ai marre J'prends sur moi, j'prends sur moi et j'en ai marre Toute la journée, j'me nique la santé, si tu m'attends, tu vas patienter Ça fait deux jours que j'suis pas rentré, j'suis pas le roi des trafiquantes Ils t'ont prévenu, faut pas m'fréquenter, j'suis bon qu'à fumer, boire et chanter Ça fait longtmps qu'j'ai pas tout r'compter, j'suis pas le roi des trafiquants Elle m'a dit T'es plein d'je t'aime mais t'es pas là, reprends tes affaires, ta moula et ta mala Oh-oh-oh-oh, oh-oh-oh-oh Elle m'a dit T'es plein d'je t'aime mais t'es pas là, reprends tes affaires, ta moula et ta mala Oh-oh-oh-oh, oh-oh-oh-oh J'prends sur moi, j'prends sur moi et j'en ai marre J'prends sur moi, j'prends sur moi et j'en ai marre J't'ai dit j'prends sur moi, j'prends sur moi et j'en ai marre J'prends sur moi, j'prends sur moi et j'en ai marre Bébé, attends, y a les méchants Argent comptant, j'ai pas gé-chan Au bout du monde, j'vais les visser J'm'en fous, c'est mon anniversaire Bébé, attends, y a les méchants Argent comptant, j'ai pas gé-chan Au bout du monde, j'vais les visser J'm'en fous, c'est mon anniversaire You might also like T'es qu'un enfoiré, sept sur sept dans les soirées Rolex au poignet, les trois anneaux d'chez Cartier T'es bon qu'à forcer mais je bombe, j'suis pas pressée J'l'ai démasqué, c'est Wejdene et L'enfoiré Tu m'dis plein d'je t'aime mais t'es pas là Reprends tes affaires, laisse la moula Oh-oh-oh-oh, oh-oh-oh-oh Tu m'dis plein d'je t'aime mais t'es pas là Reprends tes affaires, laisse la moula Oh-oh-oh-oh, oh-oh-oh-oh J'prends sur moi, j'prends sur moi et j'en ai marre J'prends sur moi, j'prends sur moi et j'en ai marre J't'ai dit j'prends sur moi, j'prends sur moi et j'en ai marre J'prends sur moi, j'prends sur moi et j'en ai marre Bébé, attends, y a les méchants Argent comptant, j'ai pas gé-chan Au bout du monde, j'vais les visser J'm'en fous, c'est mon anniversaire Bébé, attends, y a les méchants Argent comptant, j'ai pas gé-chan Au bout du monde, j'vais les visser J'm'en fous, c'est mon anniversaire</t>
+          <t>Zeg P on the track J'prends sur moi, j'prends sur moi et j'en ai marre J'prends sur moi, j'prends sur moi et j'en ai marre J't'ai dit j'prends sur moi, j'prends sur moi et j'en ai marre J'prends sur moi, j'prends sur moi et j'en ai marre Toute la journée, j'me nique la santé, si tu m'attends, tu vas patienter Ça fait deux jours que j'suis pas rentré, j'suis pas le roi des trafiquantes Ils t'ont prévenu, faut pas m'fréquenter, j'suis bon qu'à fumer, boire et chanter Ça fait longtmps qu'j'ai pas tout r'compter, j'suis pas le roi des trafiquants Elle m'a dit T'es plein d'je t'aime mais t'es pas là, reprends tes affaires, ta moula et ta mala Oh-oh-oh-oh, oh-oh-oh-oh Elle m'a dit T'es plein d'je t'aime mais t'es pas là, reprends tes affaires, ta moula et ta mala Oh-oh-oh-oh, oh-oh-oh-oh J'prends sur moi, j'prends sur moi et j'en ai marre J'prends sur moi, j'prends sur moi et j'en ai marre J't'ai dit j'prends sur moi, j'prends sur moi et j'en ai marre J'prends sur moi, j'prends sur moi et j'en ai marre Bébé, attends, y a les méchants Argent comptant, j'ai pas gé-chan Au bout du monde, j'vais les visser J'm'en fous, c'est mon anniversaire Bébé, attends, y a les méchants Argent comptant, j'ai pas gé-chan Au bout du monde, j'vais les visser J'm'en fous, c'est mon anniversaire T'es qu'un enfoiré, sept sur sept dans les soirées Rolex au poignet, les trois anneaux d'chez Cartier T'es bon qu'à forcer mais je bombe, j'suis pas pressée J'l'ai démasqué, c'est Wejdene et L'enfoiré Tu m'dis plein d'je t'aime mais t'es pas là Reprends tes affaires, laisse la moula Oh-oh-oh-oh, oh-oh-oh-oh Tu m'dis plein d'je t'aime mais t'es pas là Reprends tes affaires, laisse la moula Oh-oh-oh-oh, oh-oh-oh-oh J'prends sur moi, j'prends sur moi et j'en ai marre J'prends sur moi, j'prends sur moi et j'en ai marre J't'ai dit j'prends sur moi, j'prends sur moi et j'en ai marre J'prends sur moi, j'prends sur moi et j'en ai marre Bébé, attends, y a les méchants Argent comptant, j'ai pas gé-chan Au bout du monde, j'vais les visser J'm'en fous, c'est mon anniversaire Bébé, attends, y a les méchants Argent comptant, j'ai pas gé-chan Au bout du monde, j'vais les visser J'm'en fous, c'est mon anniversaire</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Assa Baing, bang bang Bellek track Association d'malfaiteurs en bande organisée Même sans cagoule, on fait peur, frérot, tu fais pitié Mais moi, je ne f'rais pas d'fleur j'dois rentabiliser La PJ m'a dans l'viseur, s'ils m'pètent, j'vais tout nier Association d'malfaiteurs en bande organisée Même sans cagoule, on fait peur, frérot, tu fais pitié Tous les esprits font pas d'fleur, on va rentabiliser La PJ m'a dans l'viseur, en bloc, j'vais tout nier J'récupère d'la gue-dro à toute berzingue ouais, Emilio et Barksdale dans le jardin skch Les sicarios font tapiner les tapins non, tous les keufs du coin sont au parfum ouais La re-pu, la sse-pre l'a charclé à peu près, les p'tits vont s'déplacer, les keufs sont dépassés Chargé, chassé, assoc' de malfrats, la juge va nous gracier skch, skch J'surveille ma te-por, surveille ta pine-co, y a d'la ce-for d'la Mara tah Mexico Landy sort du shtar, j'le reçois en hélico', chargé en Veuve Clicquot Au bigot, c'est mi-clos, on arrive aussitôt, j'décole de la cité, on refait la déco' On arrive éméchés, , j'vois la hnoucha, Arthena quand c'est risqué Les keufs nous retrouvent les poukies nous ont donné Les keufs nous retrouvent les poukies nous ont donné Les malfaiteurs veulent de l'or et d'la monnaie Les malfaiteurs veulent de l'or et d'la monnaie J'finis mon doré, j'finis mon doré, j'finis mon doré J'finis mon doré, j'finis mon doré You might also like Association d'malfaiteurs en bande organisée Même sans cagoule, on fait peur, frérot, tu fais pitié Mais moi, je ne f'rais pas d'fleur j'dois rentabiliser La PJ m'a dans l'viseur, s'ils m'pètent, j'vais tout nier Association d'malfaiteurs en bande organisée Même sans cagoule, on fait peur, frérot, tu fais pitié Tous les esprits font pas d'fleur, on va rentabiliser La PJ m'a dans l'viseur, en bloc, j'vais tout nier Le coffre d'la gov' est v'là chargé, on ravitaille tout le secteur On fait du pain, pas des baguettes tu peux d'mander aux inspecteurs Du le-sa en équipe, la CR, on ves-qui Viens m'péter, le champagne, j'suis avec Heuss, en esprit En bande organisée, occupé, je n'réponds pas Villeneuve, A.S.D, ça vend la pure de Bogota Pas d'amitié, dans l'business, j'ai des contacts Toujours O.P, bécane chouara dans le local On sait faire d'la money, on cause pas trop, tu sais Que des têtes balafrées mais on reste discrets Y'a heja, on est armé, encore mieux qu'le 17 H24 dans les affaires, on lâche pas l'bifteck Association d'malfaiteurs en bande organisée Même sans cagoule, on fait peur, frérot, tu fais pitié Mais moi, je ne f'rais pas d'fleur j'dois rentabiliser La PJ m'a dans l'viseur, s'ils m'pètent, j'vais tout nier Association d'malfaiteurs en bande organisée Même sans cagoule, on fait peur, frérot, tu fais pitié Tous les esprits font pas d'fleur, on va rentabiliser La PJ m'a dans l'viseur, en bloc, j'vais tout nier</t>
+          <t>Assa Baing, bang bang Bellek track Association d'malfaiteurs en bande organisée Même sans cagoule, on fait peur, frérot, tu fais pitié Mais moi, je ne f'rais pas d'fleur j'dois rentabiliser La PJ m'a dans l'viseur, s'ils m'pètent, j'vais tout nier Association d'malfaiteurs en bande organisée Même sans cagoule, on fait peur, frérot, tu fais pitié Tous les esprits font pas d'fleur, on va rentabiliser La PJ m'a dans l'viseur, en bloc, j'vais tout nier J'récupère d'la gue-dro à toute berzingue ouais, Emilio et Barksdale dans le jardin skch Les sicarios font tapiner les tapins non, tous les keufs du coin sont au parfum ouais La re-pu, la sse-pre l'a charclé à peu près, les p'tits vont s'déplacer, les keufs sont dépassés Chargé, chassé, assoc' de malfrats, la juge va nous gracier skch, skch J'surveille ma te-por, surveille ta pine-co, y a d'la ce-for d'la Mara tah Mexico Landy sort du shtar, j'le reçois en hélico', chargé en Veuve Clicquot Au bigot, c'est mi-clos, on arrive aussitôt, j'décole de la cité, on refait la déco' On arrive éméchés, , j'vois la hnoucha, Arthena quand c'est risqué Les keufs nous retrouvent les poukies nous ont donné Les keufs nous retrouvent les poukies nous ont donné Les malfaiteurs veulent de l'or et d'la monnaie Les malfaiteurs veulent de l'or et d'la monnaie J'finis mon doré, j'finis mon doré, j'finis mon doré J'finis mon doré, j'finis mon doré Association d'malfaiteurs en bande organisée Même sans cagoule, on fait peur, frérot, tu fais pitié Mais moi, je ne f'rais pas d'fleur j'dois rentabiliser La PJ m'a dans l'viseur, s'ils m'pètent, j'vais tout nier Association d'malfaiteurs en bande organisée Même sans cagoule, on fait peur, frérot, tu fais pitié Tous les esprits font pas d'fleur, on va rentabiliser La PJ m'a dans l'viseur, en bloc, j'vais tout nier Le coffre d'la gov' est v'là chargé, on ravitaille tout le secteur On fait du pain, pas des baguettes tu peux d'mander aux inspecteurs Du le-sa en équipe, la CR, on ves-qui Viens m'péter, le champagne, j'suis avec Heuss, en esprit En bande organisée, occupé, je n'réponds pas Villeneuve, A.S.D, ça vend la pure de Bogota Pas d'amitié, dans l'business, j'ai des contacts Toujours O.P, bécane chouara dans le local On sait faire d'la money, on cause pas trop, tu sais Que des têtes balafrées mais on reste discrets Y'a heja, on est armé, encore mieux qu'le 17 H24 dans les affaires, on lâche pas l'bifteck Association d'malfaiteurs en bande organisée Même sans cagoule, on fait peur, frérot, tu fais pitié Mais moi, je ne f'rais pas d'fleur j'dois rentabiliser La PJ m'a dans l'viseur, s'ils m'pètent, j'vais tout nier Association d'malfaiteurs en bande organisée Même sans cagoule, on fait peur, frérot, tu fais pitié Tous les esprits font pas d'fleur, on va rentabiliser La PJ m'a dans l'viseur, en bloc, j'vais tout nier</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Eh J'suis marama va-erua avec un long contrat Heuss l'enfoirer c'est moi c'est pas du cinéma Dans les cités vida loca la v'la les kilogrammes Karaté judoka Tu passes du rire aux larmes Des fois ça vire au drame Paris-Rotterdam-Roosendaal-Amsterdam monégram Vente d'organes Vente de grammes J'sais pas si c'est normal En tout cas c'est formel Vente de shit sans limite En prison c'est l'bordel C'est nous les chefs d'orchestre C'est nous les chefs d'orchestre Les bests on the best Les bests on the best Philippe Etchebest Philippe Etchebest Jsuis parti dansé j'ai niqué des racistes J'ai pas d'ami, moi que des associés J'ai pas d'limites, le monde jvai le faire danser J'ai pas d'ami, moi que des associés J'ai pas d'limites, le monde jvais le faire danser Que des associés, que des associés, que des associés, que des associés Capitaine dans mon équipe, j'suis Rudy Völler A l'affût comme un voleur, gentil j'en ai tout l'air Fais-moi un dégradé, trois couleurs On est des serpents on est pas des couleuvres Aimer c'est tout un art Mais des fois c'est bizarre Quand ça part en bagarre Après ça tire en l'air pour faire tomber des larmes Et j'me resserre un verre Pour tous les frères en-me-fer à Nanterre Qui font l'été, l'hiver Attendent qu'la juge les délibère Ils faut qu'tu nous khalass, ils faut q'tu nous khalass La vie d'ma mère, je veux mon palace J'ai pas d'ami que des associés Mon canon scié, mon canon scié J'ai pas d'amis, moi que des associés J'ai pas d'limites, le monde jvai le faire danser J'ai pas d'amis, moi que des associés J'ai pas d'limites, le monde jvai le faire fait danser Associés, associés On fait dans les biz pas dans l'amitié Associés, associés On fait dans les biz pas dans l'amitié Associés, associés On fait dans les biz pas dans l'amitié Associés, associés On fait dans les biz pas dans l'amitié Pas dans l'amitié, pas dans l'amitié Pas dans l'amitié, pas dans l'amitié J'ai pas d'amis, moi que des associés J'ai pas d'limites, le monde jvai le faire danser J'ai pas d'amis, moi que des associés J'ai pas d'limites, le monde jvai le faire fait danser Que des associés, que des associés Que des associés, que des associésYou might also like</t>
+          <t>Eh J'suis marama va-erua avec un long contrat Heuss l'enfoirer c'est moi c'est pas du cinéma Dans les cités vida loca la v'la les kilogrammes Karaté judoka Tu passes du rire aux larmes Des fois ça vire au drame Paris-Rotterdam-Roosendaal-Amsterdam monégram Vente d'organes Vente de grammes J'sais pas si c'est normal En tout cas c'est formel Vente de shit sans limite En prison c'est l'bordel C'est nous les chefs d'orchestre C'est nous les chefs d'orchestre Les bests on the best Les bests on the best Philippe Etchebest Philippe Etchebest Jsuis parti dansé j'ai niqué des racistes J'ai pas d'ami, moi que des associés J'ai pas d'limites, le monde jvai le faire danser J'ai pas d'ami, moi que des associés J'ai pas d'limites, le monde jvais le faire danser Que des associés, que des associés, que des associés, que des associés Capitaine dans mon équipe, j'suis Rudy Völler A l'affût comme un voleur, gentil j'en ai tout l'air Fais-moi un dégradé, trois couleurs On est des serpents on est pas des couleuvres Aimer c'est tout un art Mais des fois c'est bizarre Quand ça part en bagarre Après ça tire en l'air pour faire tomber des larmes Et j'me resserre un verre Pour tous les frères en-me-fer à Nanterre Qui font l'été, l'hiver Attendent qu'la juge les délibère Ils faut qu'tu nous khalass, ils faut q'tu nous khalass La vie d'ma mère, je veux mon palace J'ai pas d'ami que des associés Mon canon scié, mon canon scié J'ai pas d'amis, moi que des associés J'ai pas d'limites, le monde jvai le faire danser J'ai pas d'amis, moi que des associés J'ai pas d'limites, le monde jvai le faire fait danser Associés, associés On fait dans les biz pas dans l'amitié Associés, associés On fait dans les biz pas dans l'amitié Associés, associés On fait dans les biz pas dans l'amitié Associés, associés On fait dans les biz pas dans l'amitié Pas dans l'amitié, pas dans l'amitié Pas dans l'amitié, pas dans l'amitié J'ai pas d'amis, moi que des associés J'ai pas d'limites, le monde jvai le faire danser J'ai pas d'amis, moi que des associés J'ai pas d'limites, le monde jvai le faire fait danser Que des associés, que des associés Que des associés, que des associés</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Zeg P on the track beat J'reviens sur Paname faire une p'tite balade On roule sur les Champs, j'fais un p'tit d'salade Mon fils, ma bataille comme Daniel Balavoine Méchante brigade juste derrière oi-m La khoula, la khoula, enchanté, là, c'est la moula C'est la moumou en Laguna, j'ai tout squé-ma chez Garde la monnaie, ça, c'est pour toi Dieu pour tous et chacun pour soi, khapta, stenda chez Hanouna C'est léger, éméché, j'l'ai laissée dans les WC, son fessier, son CV J'l'ai vu en touriste dans les coulisses C'est pas un grossiste, c'est une nourrice J'suis dans Jean-Jacques Goldman, Daniel Balavoine skch, skch Ouais, Jean-Jacques Goldman, Daniel Balavoine J'reviens sur Paname faire une p'tite balade On roule sur les Champs, j'fais un p'tit d'salade Mon fils, ma bataille comme Daniel Balavoine Méchante brigade juste derrière oi-m J'reviens sur Paname faire une p'tite balade On roule sur les Champs, j'fais un p'tit d'salade Mon fils, ma bataille comme Daniel Balavoine Méchante brigade juste derrière oi-m You might also like Aristocratie, 2020, ça vouvoie J'suis dans l'Viano, strangulation par la douane J'reviens d'showcase, trente-cinq balles dans la boîte Avant, j'portais des kil', maintenant, j'prends des kich' sur moi J'peux dormir tranquille, j'ai le .43 sur moi Au concessionnaiguère, j'prends la dernière ture-voi J'l'ai vu en touriste dans les coulisses C'est pas un grossiste, c'est une nourrice J'suis dans Jean-Jacques Goldman, Daniel Balavoine skch, skch Ouais, Jean-Jacques Goldman, Daniel Balavoine J'reviens sur Paname faire une p'tite balade On roule sur les Champs, j'fais un p'tit d'salade Mon fils, ma bataille comme Daniel Balavoine Méchante brigade juste derrière oi-m J'reviens sur Paname faire une p'tite balade On roule sur les Champs, j'fais un p'tit d'salade Mon fils, ma bataille comme Daniel Balavoine Méchante brigade juste derrière oi-m J'l'ai vu en touriste dans les coulisses C'est pas un grossiste, c'est une nourrice J'l'ai vu en touriste dans les coulisses C'est pas un grossiste, c'est une nourrice J'suis dans Jean-Jacques Goldman, Daniel Balavoine skch, skch Ouais, Jean-Jacques Goldman, Daniel Balavoine skch, skch</t>
+          <t>Zeg P on the track beat J'reviens sur Paname faire une p'tite balade On roule sur les Champs, j'fais un p'tit d'salade Mon fils, ma bataille comme Daniel Balavoine Méchante brigade juste derrière oi-m La khoula, la khoula, enchanté, là, c'est la moula C'est la moumou en Laguna, j'ai tout squé-ma chez Garde la monnaie, ça, c'est pour toi Dieu pour tous et chacun pour soi, khapta, stenda chez Hanouna C'est léger, éméché, j'l'ai laissée dans les WC, son fessier, son CV J'l'ai vu en touriste dans les coulisses C'est pas un grossiste, c'est une nourrice J'suis dans Jean-Jacques Goldman, Daniel Balavoine skch, skch Ouais, Jean-Jacques Goldman, Daniel Balavoine J'reviens sur Paname faire une p'tite balade On roule sur les Champs, j'fais un p'tit d'salade Mon fils, ma bataille comme Daniel Balavoine Méchante brigade juste derrière oi-m J'reviens sur Paname faire une p'tite balade On roule sur les Champs, j'fais un p'tit d'salade Mon fils, ma bataille comme Daniel Balavoine Méchante brigade juste derrière oi-m Aristocratie, 2020, ça vouvoie J'suis dans l'Viano, strangulation par la douane J'reviens d'showcase, trente-cinq balles dans la boîte Avant, j'portais des kil', maintenant, j'prends des kich' sur moi J'peux dormir tranquille, j'ai le .43 sur moi Au concessionnaiguère, j'prends la dernière ture-voi J'l'ai vu en touriste dans les coulisses C'est pas un grossiste, c'est une nourrice J'suis dans Jean-Jacques Goldman, Daniel Balavoine skch, skch Ouais, Jean-Jacques Goldman, Daniel Balavoine J'reviens sur Paname faire une p'tite balade On roule sur les Champs, j'fais un p'tit d'salade Mon fils, ma bataille comme Daniel Balavoine Méchante brigade juste derrière oi-m J'reviens sur Paname faire une p'tite balade On roule sur les Champs, j'fais un p'tit d'salade Mon fils, ma bataille comme Daniel Balavoine Méchante brigade juste derrière oi-m J'l'ai vu en touriste dans les coulisses C'est pas un grossiste, c'est une nourrice J'l'ai vu en touriste dans les coulisses C'est pas un grossiste, c'est une nourrice J'suis dans Jean-Jacques Goldman, Daniel Balavoine skch, skch Ouais, Jean-Jacques Goldman, Daniel Balavoine skch, skch</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>ZP on the Track, babe Han, han, wouh J'vous donnerai ça toute la journée, matin, midi, soir, matin, midi, soir Millimétré dans l'GTD, j'arrose, tu veux boire, j'arrose tu veux boire J'ai pas perdu le tempo, ça be-ton toute l'année j'ai plus de doigts pour le compter, compter J'suis pas propriétaire du lambo', je l'apporte à la nourrice pour stocker le papier, le papier Billets, billets, billets, billets, billets, billets Billets, billets, billets, billets, billets, billets Billets, billets Billets, billets, billets, billets, billets, billets Billets, billets, billets, billets, billets, billets Billets, billets Billets, billets, billets, billets, billets, billets Midi, midi, midi, on voulait que briller L'argent des cités s'est fait lessiver, oublie jamais tout c'qu'on a liquidé J'sais pas si ta idée, Dieu va nous guider, dans les cités, on est téléguidés Sevran, Beaudottes, séries télévisées, toute l'Île de France, tout est scénarisés On distribue d'la blanche, c'est pour rentabiliser, on distribue d'la blanche, c'est pour rentabiliser J'ai reconnu la DEP, et la banalisé, j'ai v'la les dossiers classés dans mon casier You might also like CSI, BST qu'ils aillent baiser leurs mères, tu m'dis qu'tes mon frère au parloir, j'voyais qu'ma mère CSI, BST qu'ils aillent baiser leurs mères, tu m'dis qu'tes mon frère au parloir j'voyais qu'ma mère Billets, billets, billets, billets, billets, billets Billets, billets, billets, billets, billets, billets wouh Billets, billets Billets, billets, billets, billets, billets, billets Billets, billets, billets, billets, billets, billets Billets, billets J'suis dans l'mal, j'ai vidé la bouteille, bouteille Bout en train, terrain n'a pas sommeil, sommeil Maison d'arrêt, cédés, on va tous y passer Maes m'a dit ct'année qu'on allait tout casser J'lui dit qu'cest carré comme le Nord d'la Corée, j'suis une moula tah paname comme Mbappe Les képis, la DEP essayent de nous attraper, mais la CSI nous avait déjà raté Midi, midi combien de kilos écoulés ? Midi, midi combien de fréros écroués ? Billets, billets, billets, billets, billets, billets Billets, billets, billets, billets, billets, billets wouh Billets, billets Billets, billets, billets, billets, billets, billets Billets, billets, billets, billets, billets, billets Billets, billets Billets, billets, billets, billets, billets, billets Billets, billets, billets, billets, billets, billets Midi, midi, billets, billets, midi, midi 93 Empire Billets, billets, billets, billets, billets, billets Billets, billets, billets, billets, billets, billets Midi, midi, billets, billets, midi, midi</t>
+          <t>ZP on the Track, babe Han, han, wouh J'vous donnerai ça toute la journée, matin, midi, soir, matin, midi, soir Millimétré dans l'GTD, j'arrose, tu veux boire, j'arrose tu veux boire J'ai pas perdu le tempo, ça be-ton toute l'année j'ai plus de doigts pour le compter, compter J'suis pas propriétaire du lambo', je l'apporte à la nourrice pour stocker le papier, le papier Billets, billets, billets, billets, billets, billets Billets, billets, billets, billets, billets, billets Billets, billets Billets, billets, billets, billets, billets, billets Billets, billets, billets, billets, billets, billets Billets, billets Billets, billets, billets, billets, billets, billets Midi, midi, midi, on voulait que briller L'argent des cités s'est fait lessiver, oublie jamais tout c'qu'on a liquidé J'sais pas si ta idée, Dieu va nous guider, dans les cités, on est téléguidés Sevran, Beaudottes, séries télévisées, toute l'Île de France, tout est scénarisés On distribue d'la blanche, c'est pour rentabiliser, on distribue d'la blanche, c'est pour rentabiliser J'ai reconnu la DEP, et la banalisé, j'ai v'la les dossiers classés dans mon casier CSI, BST qu'ils aillent baiser leurs mères, tu m'dis qu'tes mon frère au parloir, j'voyais qu'ma mère CSI, BST qu'ils aillent baiser leurs mères, tu m'dis qu'tes mon frère au parloir j'voyais qu'ma mère Billets, billets, billets, billets, billets, billets Billets, billets, billets, billets, billets, billets wouh Billets, billets Billets, billets, billets, billets, billets, billets Billets, billets, billets, billets, billets, billets Billets, billets J'suis dans l'mal, j'ai vidé la bouteille, bouteille Bout en train, terrain n'a pas sommeil, sommeil Maison d'arrêt, cédés, on va tous y passer Maes m'a dit ct'année qu'on allait tout casser J'lui dit qu'cest carré comme le Nord d'la Corée, j'suis une moula tah paname comme Mbappe Les képis, la DEP essayent de nous attraper, mais la CSI nous avait déjà raté Midi, midi combien de kilos écoulés ? Midi, midi combien de fréros écroués ? Billets, billets, billets, billets, billets, billets Billets, billets, billets, billets, billets, billets wouh Billets, billets Billets, billets, billets, billets, billets, billets Billets, billets, billets, billets, billets, billets Billets, billets Billets, billets, billets, billets, billets, billets Billets, billets, billets, billets, billets, billets Midi, midi, billets, billets, midi, midi 93 Empire Billets, billets, billets, billets, billets, billets Billets, billets, billets, billets, billets, billets Midi, midi, billets, billets, midi, midi</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Ramène d'la boiss' avec une canne à pêche Pilon et un sac de cacahuète Ramène le tigre, celui du Bangladesh Ramène des femmes avec des armes de l'est Putain, qu'est-ce qu'on caille Ramène la valise, la kichta et on s'taille, bébé Putain, qu'est-ce qu'on caille Ramène la valise, la kichta et on s'taille, bébé Elle a ressenti ma douleur Elle en a vu de toutes les couleurs Elle est partie comme une couleuvre Elle a pas vu la toute neuve J'devrais t'en parler mais j'fume la kush Bob Marley J'devrais t'en parler mais j'fume la kush Bob Marley You might also like Y a trop d'menteurs donc j'ai dû benda Ils m'disent bonjour mais au fond, j'sais qu'ils m'aiment pas J'suis pas tout seul, bébé, t'inquiète pas Y a le Moha, y a même Demba N.Y.M.A a vidé la bouteille J'espère qu't'as les fouilles pleines parce qu'on a les douilles pleines N.Y.M.A a vidé la bouteille J'espère qu't'as les fouilles pleines parce qu'on a les douilles pleines Putain, qu'est-ce qu'on caille Ramène la valise, la kichta et on s'taille, bébé Putain, qu'est-ce qu'on caille Ramène la valise, la kichta et on s'taille, bébé Elle a ressenti ma douleur Elle en a vu de toutes les couleurs Elle est partie comme une couleuvre Elle a pas vu la toute neuve J'devrais t'en parler mais j'fume la kush Bob Marley J'devrais t'en parler mais j'fume la kush Bob Marley</t>
+          <t>Ramène d'la boiss' avec une canne à pêche Pilon et un sac de cacahuète Ramène le tigre, celui du Bangladesh Ramène des femmes avec des armes de l'est Putain, qu'est-ce qu'on caille Ramène la valise, la kichta et on s'taille, bébé Putain, qu'est-ce qu'on caille Ramène la valise, la kichta et on s'taille, bébé Elle a ressenti ma douleur Elle en a vu de toutes les couleurs Elle est partie comme une couleuvre Elle a pas vu la toute neuve J'devrais t'en parler mais j'fume la kush Bob Marley J'devrais t'en parler mais j'fume la kush Bob Marley Y a trop d'menteurs donc j'ai dû benda Ils m'disent bonjour mais au fond, j'sais qu'ils m'aiment pas J'suis pas tout seul, bébé, t'inquiète pas Y a le Moha, y a même Demba N.Y.M.A a vidé la bouteille J'espère qu't'as les fouilles pleines parce qu'on a les douilles pleines N.Y.M.A a vidé la bouteille J'espère qu't'as les fouilles pleines parce qu'on a les douilles pleines Putain, qu'est-ce qu'on caille Ramène la valise, la kichta et on s'taille, bébé Putain, qu'est-ce qu'on caille Ramène la valise, la kichta et on s'taille, bébé Elle a ressenti ma douleur Elle en a vu de toutes les couleurs Elle est partie comme une couleuvre Elle a pas vu la toute neuve J'devrais t'en parler mais j'fume la kush Bob Marley J'devrais t'en parler mais j'fume la kush Bob Marley</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Eh, c'est Jeoffrey Dandy à l'appareil Marcelino Wesh, le Heuss L'enfoiré, ça fait la moula d'baisé J'lui passe le gramme de coke, elle la prend comme un fraisier J'me trempe les pieds dans l'eau, pétasse, t'as pas mis assez d'huile Gros vatos fait des loves, au fait, j'ai mon vol à minuit On t'la fait à la Kanye West Enfant d'putain, nous, c'est l'Brésil, jamais le West Ham En chien, j't'envoie ton Western, avant l'plavon, ça reste calm Espagne, gros missile qui passe dans l'bolid laisse place Eh, 9.2.3.9.0, y a la moula qui va avec En direct d'Anderlecht, Schaerbeek, Molenbeek J'traine avec Many, , , Ze Pek' Fume la ppe-f' des Boute-en-train de Campagne Lévêque En balle, ça t'vend la beugeuh, au poste, faut pas qu'tu bégaies Tu peux m'croiser en Buggy ou gros Merco qui t'effraie Vol de cannabis, on te cane à six Filtré paralyse, gros boucan de dingue, poto, de Cannes à Nice You might also like Wesh, le Heuss L'enfoiré, ça fait la moula d'baisé J'lui passe le gramme de coke, elle la prend comme un fraisier J'me trempe les pieds dans l'eau, pétasse, t'as pas mis assez d'huile Gros vatos fait des loves, au fait, j'ai mon vol à minuit Sur une chaise roulante, j'ai fait des shows comme 2Chainz C'est quand j'ai pris la valise qu'tu prends des nouvelles J'ai jeté mes anciens potos à la poubelle J'fais d'l'oseille mais j'ai pas les pouvoirs de Bruce Wayne Poto, ça vient d'où ? J'te bloque, t'es chelou Tu rends fou juste pour un ze-dou, pété, j'finis la bouteille What you gonna do? What you gonna do? J'me la coule, j'ai quitté la tour, pété, j'finis la bouteille On fait la moula hyper vite, tu vas r'cevoir ton Uber Shit Rien qu'j'me régale comme Van Persie J'ai d'jà percé, j'vous dis merci Ouais, Timal, j'crois bien qu'j'suis malade J'ralentis l'shit, j'accélère la salade Respecte les frères millionnaires, ceux qui font la salat Dans c'milieu, j'me balade J'm'en bats les couilles comme Président du Mexique Elle a le boule qui m'excite, j'mets la beuh et tu mets l'shit J'm'en bats les couilles comme Président du Mexique Elle a le boule qui m'excite, j'mets la beuh et tu mets l'shit Wesh, le Heuss L'enfoiré, ça fait la moula d'baisé J'lui passe le gramme de coke, elle la prend comme un fraisier J'me trempe les pieds dans l'eau, pétasse, t'as pas mis assez d'huile Gros vatos fait des loves, au fait, j'ai mon vol à minuit Sur une chaise roulante, j'ai fait des shows comme 2Chainz C'est quand j'ai pris la valise qu'tu prends des nouvelles J'ai jeté mes anciens potos à la poubelle J'fais d'l'oseille mais j'ai pas les pouvoirs de Bruce Wayne Poto, ça vient d'où ? J'te bloque, t'es chelou Tu rends fou juste pour un ze-dou, pété, j'finis la bouteille What you gonna do? What you gonna do? J'me la coule, j'ai quitté la tour, pété, j'finis la bouteille Wesh, le Heuss L'enfoiré, ça fait la moula d'baisé J'lui passe le gramme de coke, elle la prend comme un fraisier J'me trempe les pieds dans l'eau, pétasse, t'as pas mis assez d'huile Gros vatos fait des loves, au fait, j'ai mon vol à minuit On fait la moula hyper vite, tu vas r'cevoir ton Uber Shit Rien qu'j'me régale comme Van Persie J'ai d'jà percé, j'vous dis merci</t>
+          <t>Eh, c'est Jeoffrey Dandy à l'appareil Marcelino Wesh, le Heuss L'enfoiré, ça fait la moula d'baisé J'lui passe le gramme de coke, elle la prend comme un fraisier J'me trempe les pieds dans l'eau, pétasse, t'as pas mis assez d'huile Gros vatos fait des loves, au fait, j'ai mon vol à minuit On t'la fait à la Kanye West Enfant d'putain, nous, c'est l'Brésil, jamais le West Ham En chien, j't'envoie ton Western, avant l'plavon, ça reste calm Espagne, gros missile qui passe dans l'bolid laisse place Eh, 9.2.3.9.0, y a la moula qui va avec En direct d'Anderlecht, Schaerbeek, Molenbeek J'traine avec Many, , , Ze Pek' Fume la ppe-f' des Boute-en-train de Campagne Lévêque En balle, ça t'vend la beugeuh, au poste, faut pas qu'tu bégaies Tu peux m'croiser en Buggy ou gros Merco qui t'effraie Vol de cannabis, on te cane à six Filtré paralyse, gros boucan de dingue, poto, de Cannes à Nice Wesh, le Heuss L'enfoiré, ça fait la moula d'baisé J'lui passe le gramme de coke, elle la prend comme un fraisier J'me trempe les pieds dans l'eau, pétasse, t'as pas mis assez d'huile Gros vatos fait des loves, au fait, j'ai mon vol à minuit Sur une chaise roulante, j'ai fait des shows comme 2Chainz C'est quand j'ai pris la valise qu'tu prends des nouvelles J'ai jeté mes anciens potos à la poubelle J'fais d'l'oseille mais j'ai pas les pouvoirs de Bruce Wayne Poto, ça vient d'où ? J'te bloque, t'es chelou Tu rends fou juste pour un ze-dou, pété, j'finis la bouteille What you gonna do? What you gonna do? J'me la coule, j'ai quitté la tour, pété, j'finis la bouteille On fait la moula hyper vite, tu vas r'cevoir ton Uber Shit Rien qu'j'me régale comme Van Persie J'ai d'jà percé, j'vous dis merci Ouais, Timal, j'crois bien qu'j'suis malade J'ralentis l'shit, j'accélère la salade Respecte les frères millionnaires, ceux qui font la salat Dans c'milieu, j'me balade J'm'en bats les couilles comme Président du Mexique Elle a le boule qui m'excite, j'mets la beuh et tu mets l'shit J'm'en bats les couilles comme Président du Mexique Elle a le boule qui m'excite, j'mets la beuh et tu mets l'shit Wesh, le Heuss L'enfoiré, ça fait la moula d'baisé J'lui passe le gramme de coke, elle la prend comme un fraisier J'me trempe les pieds dans l'eau, pétasse, t'as pas mis assez d'huile Gros vatos fait des loves, au fait, j'ai mon vol à minuit Sur une chaise roulante, j'ai fait des shows comme 2Chainz C'est quand j'ai pris la valise qu'tu prends des nouvelles J'ai jeté mes anciens potos à la poubelle J'fais d'l'oseille mais j'ai pas les pouvoirs de Bruce Wayne Poto, ça vient d'où ? J'te bloque, t'es chelou Tu rends fou juste pour un ze-dou, pété, j'finis la bouteille What you gonna do? What you gonna do? J'me la coule, j'ai quitté la tour, pété, j'finis la bouteille Wesh, le Heuss L'enfoiré, ça fait la moula d'baisé J'lui passe le gramme de coke, elle la prend comme un fraisier J'me trempe les pieds dans l'eau, pétasse, t'as pas mis assez d'huile Gros vatos fait des loves, au fait, j'ai mon vol à minuit On fait la moula hyper vite, tu vas r'cevoir ton Uber Shit Rien qu'j'me régale comme Van Persie J'ai d'jà percé, j'vous dis merci</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Kikow on the-the-the Eh eh, eh Premier album platine te-ma comment j'tartine Meilleur buteur, toujours en première ligne, Premier League Montre en or, grosse berline, Midi Midi, cartel de Medellin Ramène-moi des euros et des livres sterlings Pour fêter Thanksgivings Les jaloux portent le 3in, portent la guine ouais J'sais pas si t'imagines, ls cités, ça fatigue, j'attends pas qu'on m'valide non La rue, c'est mon domaine, Paris, c'est BXL ouais Villeneuve, c'est Antwerpen, j'm'endors à Eindhoven J'vous laisse à Newcastle, crois pas qu'on est tout jeunes En taule, j'étais tout seul, j'tournais en 2012 avec l'argent d'la jaune On a connu la geôle avant les gilets jaunes ouais Hier, j'vendais d'la coke qui s'transformait en crack Aujourd'hui, j'fais du rap, des showcases en Europe J'sais pas si c'est mes potes, la moitié c'est des putes, j'ai pas compté les traîtres eh J'fais qu'encaisser des chèques comme en République Tchèque C'coup ci y'a pas d'refrain, j'envoie que des couplets J'étais venu pour goûter mais j'ai tout découpé ouais Reprise de volée, sache qu'on a rien volé, c'est Dieu qui l'a voulu, qui nous a tout donné J'repars couronné chez les grands couturiers ouais, grosse moula, maxi certifié Disque d'or, Dior, Givenchisé, j'me casse la beuj' comme Djibril Cissé J'vendais des meuj' sur les Champs Elysées J'suis comme Salif, j'ai pas d'équipe, bats les couilles d'ton maillot J'm'arrête à Porte Maillot, merci San Papayos ouais, ouais Nouvelle kich', nouveau gamos J'fait tout ça pour la cause, bouteille de Grey, Seven Days, j'suis dans David Craze Spliff de lemon haze, Hollandaise, premier rôle d'une série polonaise, lieutenant, colonel T'façon, j'suis capitaine comme Daniel Van Buyten, 92, Hauts de Seine, j'écoute pas tes conseils J'suis bon qu'à faire d'l'oseille En hiver au soleil en République Dominicaine Beu-her Jamaïcaine, dans Medellin cartel Stringer Bell, Avon Barksdale, téléphone Alcatel, gros bordel 43 Maroqui', mafia tah Napoli, double verre de whiskey Frappe de Lewandowski Frappe de LewandowskiYou might also like</t>
+          <t>Kikow on the-the-the Eh eh, eh Premier album platine te-ma comment j'tartine Meilleur buteur, toujours en première ligne, Premier League Montre en or, grosse berline, Midi Midi, cartel de Medellin Ramène-moi des euros et des livres sterlings Pour fêter Thanksgivings Les jaloux portent le 3in, portent la guine ouais J'sais pas si t'imagines, ls cités, ça fatigue, j'attends pas qu'on m'valide non La rue, c'est mon domaine, Paris, c'est BXL ouais Villeneuve, c'est Antwerpen, j'm'endors à Eindhoven J'vous laisse à Newcastle, crois pas qu'on est tout jeunes En taule, j'étais tout seul, j'tournais en 2012 avec l'argent d'la jaune On a connu la geôle avant les gilets jaunes ouais Hier, j'vendais d'la coke qui s'transformait en crack Aujourd'hui, j'fais du rap, des showcases en Europe J'sais pas si c'est mes potes, la moitié c'est des putes, j'ai pas compté les traîtres eh J'fais qu'encaisser des chèques comme en République Tchèque C'coup ci y'a pas d'refrain, j'envoie que des couplets J'étais venu pour goûter mais j'ai tout découpé ouais Reprise de volée, sache qu'on a rien volé, c'est Dieu qui l'a voulu, qui nous a tout donné J'repars couronné chez les grands couturiers ouais, grosse moula, maxi certifié Disque d'or, Dior, Givenchisé, j'me casse la beuj' comme Djibril Cissé J'vendais des meuj' sur les Champs Elysées J'suis comme Salif, j'ai pas d'équipe, bats les couilles d'ton maillot J'm'arrête à Porte Maillot, merci San Papayos ouais, ouais Nouvelle kich', nouveau gamos J'fait tout ça pour la cause, bouteille de Grey, Seven Days, j'suis dans David Craze Spliff de lemon haze, Hollandaise, premier rôle d'une série polonaise, lieutenant, colonel T'façon, j'suis capitaine comme Daniel Van Buyten, 92, Hauts de Seine, j'écoute pas tes conseils J'suis bon qu'à faire d'l'oseille En hiver au soleil en République Dominicaine Beu-her Jamaïcaine, dans Medellin cartel Stringer Bell, Avon Barksdale, téléphone Alcatel, gros bordel 43 Maroqui', mafia tah Napoli, double verre de whiskey Frappe de Lewandowski Frappe de Lewandowski</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Eh eh, eh, Heuss L'enfoiré, skch skch Okay, okay, BX Land partie 7 Ouais ouais Pas confiance à la justice, alors j'la fais moi-même On va t'juger dans la cave avec mon pote Mohammed À côté d'un lance-roquettes et des sacs de trois mètres Discret dans la discothèque comme un pickpocket Pardonne-moi, j'suis défoncé, j'ai fumé la moquette Troué la banquette, sali mes nouvelles baskets Ramène ta femme, la tête de oi-m, j'la baise dans les toilettes J'sais pas c'qu j'ai en c'moment, j'ai la dalle, il faut qu'j'arrêt À l'époque, j'ai trop les crocs, ça paie pas les études J'ressors ma bite direct, ma cousine m'envoie pas des nudes Et dire qu'avant déjà, j'pratiquais l'école buissonnière C'est pas les States, mon pote ici, y a pas un bus scolaire C'est GTA Vice City mais en version hiver J'arrête l'école, ces fils de pute menaçaient la mater De couper les allocations, le nerf de la guerre Automatiquement, la daronne m'envoie le pater Il frappe, il met des coups trop tard, là, y a plus rien à faire Il craque, il devient fou, même lui, il a lâché l'affaire Ça y est, c'est reparti, on redémarre avec Bader Pour la famille, j'suis un calvaire, il faut qu'on m'incarcère À c'tte époque, j'ai pas d'gars sûrs, j'nehess dans la voiture J'dois d'l'argent à droite, à gauche, j'pose ma candidature Terrain d'héro', j'fais l'ouverture, ients-cli s'lèvent de bonne heure Mais y a les keufs partout, mon cousin, j'crois ça porte-malheur C'est pour ça qu'on finit direct au taule, à peine majeurs On voulait récupérergué la Gaule Mais faut les épaules, les codes Savoir jouer un rôle, même moi, j'trouve ça compliqué Attends, j'vais rouler un cône Acheter un drone avec du scotch, mettre du silicone Des fois, j'délire avec ta sur, j'avoue, elle est trop bonne Bébé, appelle-moi Van Gogh, pourtant, j'suis sous drogue J'irai pas jusqu'à Bangkok pour mettre les gants d'boxe J'écoute du Snoop Dogg, j'm'en bats les couilles de Pop Smoke J'fume la moonrock, j'suis dans la chatte de New York Puis, j'ai vu tous les films, à commencer par Bloodsport C'est moi le mec qu'étais sous l'porche, qui liquidait l'stock J'te parle d'une époque où y avait pas encore TikTok Ou faut un bloc et un contact qui vient de Kingston Y a plein d'hôtels à , y a pas le Hilton Y a quoi ? Ton grand frelo, il est tombé pour une tonne C'est un farceur comme toi, il a pas coffré une pomme J'arrête la vodka mélangée avec le jus d'pomme J'bois la tequila, j'te baise ta mère aux prud'hommes C'est un rayon bizarre, tous les mans che-lous n'ont plus d'âme Ratatam, dadatam, bala, balabam Arrête de changer, toi, t'as pas goûté l'macadam Il m'reste six joints, mon cousin, vas-y, vient, on va à 'dam C't été, j'suis pas à Saint-Tropez, j'suis pas à CannesYou might also like</t>
+          <t>Eh eh, eh, Heuss L'enfoiré, skch skch Okay, okay, BX Land partie 7 Ouais ouais Pas confiance à la justice, alors j'la fais moi-même On va t'juger dans la cave avec mon pote Mohammed À côté d'un lance-roquettes et des sacs de trois mètres Discret dans la discothèque comme un pickpocket Pardonne-moi, j'suis défoncé, j'ai fumé la moquette Troué la banquette, sali mes nouvelles baskets Ramène ta femme, la tête de oi-m, j'la baise dans les toilettes J'sais pas c'qu j'ai en c'moment, j'ai la dalle, il faut qu'j'arrêt À l'époque, j'ai trop les crocs, ça paie pas les études J'ressors ma bite direct, ma cousine m'envoie pas des nudes Et dire qu'avant déjà, j'pratiquais l'école buissonnière C'est pas les States, mon pote ici, y a pas un bus scolaire C'est GTA Vice City mais en version hiver J'arrête l'école, ces fils de pute menaçaient la mater De couper les allocations, le nerf de la guerre Automatiquement, la daronne m'envoie le pater Il frappe, il met des coups trop tard, là, y a plus rien à faire Il craque, il devient fou, même lui, il a lâché l'affaire Ça y est, c'est reparti, on redémarre avec Bader Pour la famille, j'suis un calvaire, il faut qu'on m'incarcère À c'tte époque, j'ai pas d'gars sûrs, j'nehess dans la voiture J'dois d'l'argent à droite, à gauche, j'pose ma candidature Terrain d'héro', j'fais l'ouverture, ients-cli s'lèvent de bonne heure Mais y a les keufs partout, mon cousin, j'crois ça porte-malheur C'est pour ça qu'on finit direct au taule, à peine majeurs On voulait récupérergué la Gaule Mais faut les épaules, les codes Savoir jouer un rôle, même moi, j'trouve ça compliqué Attends, j'vais rouler un cône Acheter un drone avec du scotch, mettre du silicone Des fois, j'délire avec ta sur, j'avoue, elle est trop bonne Bébé, appelle-moi Van Gogh, pourtant, j'suis sous drogue J'irai pas jusqu'à Bangkok pour mettre les gants d'boxe J'écoute du Snoop Dogg, j'm'en bats les couilles de Pop Smoke J'fume la moonrock, j'suis dans la chatte de New York Puis, j'ai vu tous les films, à commencer par Bloodsport C'est moi le mec qu'étais sous l'porche, qui liquidait l'stock J'te parle d'une époque où y avait pas encore TikTok Ou faut un bloc et un contact qui vient de Kingston Y a plein d'hôtels à , y a pas le Hilton Y a quoi ? Ton grand frelo, il est tombé pour une tonne C'est un farceur comme toi, il a pas coffré une pomme J'arrête la vodka mélangée avec le jus d'pomme J'bois la tequila, j'te baise ta mère aux prud'hommes C'est un rayon bizarre, tous les mans che-lous n'ont plus d'âme Ratatam, dadatam, bala, balabam Arrête de changer, toi, t'as pas goûté l'macadam Il m'reste six joints, mon cousin, vas-y, vient, on va à 'dam C't été, j'suis pas à Saint-Tropez, j'suis pas à Cannes</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Zeg P on the track beat Fuck, it's easy J'ai mis 10k dans la veste, à CDG, j'décolle rapidement J'suis dans celle qu'enfume la pièce, tu voudrais qu'on change de continent Encore une certif', on m'a averti, les diamants sertis La vie de Ronnie, j'ai pas atterri, dehors, ça ré-ti J'peux t'remonter le moral, tu doutes, c'est normal, j'suis dans l'illégal Shopping en pleine agora, j'veux pas qu'tu t'emballes, même quand il est tard Mêm quand il est tard, qu'il reste qu'un te-tê dans le pochtar La vie de César, on fait des pleins phares, on va tous les boire J'vibe à fond, j'suis dans l'mood, en vite fait, ça la foule La foule, foule Ça fly sous afghan kush Des-des diamants colorés, single ice et doré Okay Faubourg-Saint-Honoré, carré comme en Corée Toujours en légende, c'est le ze-trei en boule RSQ3, les phares roses, on dead ça de fou Ça smoke pas de pre-rolls, la Rolls dans la te-sou Ça s'mange des pressings pour la zipette ou la fouille C'est cette vie-là, j'suis même paro sur le livreur UberEats Très méchant, villa bien luxe, ça fly sous beuh quand je ris J'suis au tartin, ça jobbe cache-cou en Yamaha Wolverine Flingage de ouf, monte dans l'bateau, on t'crave-bi que d'la Cali You might also like J'vibe à fond, j'suis dans l'mood, en vite fait, ça la foule La foule, foule Ça fly sous afghan kush Des-des diamants colorés, single ice et doré Okay Faubourg-Saint-Honoré, carré comme en Corée Un lourd, deux lourds ou trois lourds, ça fly sous purple J', à la , j'fais mon Mon igo, c'est fort de fou comme Aspinall power punk ? Comme un re-fou qui fait 20k en un jour J'vibe à fond, j'suis dans l'mood, en vite fait, ça la foule La foule, foule Ça fly sous afghan kush ? Des-des diamants colorés, single ice et doré Okay Faubourg-Saint-Honoré, carré comme en Corée Des-des diamants colorés, single ice et doré Faubourg-Saint-Honoré, carré comme en Corée</t>
+          <t>Zeg P on the track beat Fuck, it's easy J'ai mis 10k dans la veste, à CDG, j'décolle rapidement J'suis dans celle qu'enfume la pièce, tu voudrais qu'on change de continent Encore une certif', on m'a averti, les diamants sertis La vie de Ronnie, j'ai pas atterri, dehors, ça ré-ti J'peux t'remonter le moral, tu doutes, c'est normal, j'suis dans l'illégal Shopping en pleine agora, j'veux pas qu'tu t'emballes, même quand il est tard Mêm quand il est tard, qu'il reste qu'un te-tê dans le pochtar La vie de César, on fait des pleins phares, on va tous les boire J'vibe à fond, j'suis dans l'mood, en vite fait, ça la foule La foule, foule Ça fly sous afghan kush Des-des diamants colorés, single ice et doré Okay Faubourg-Saint-Honoré, carré comme en Corée Toujours en légende, c'est le ze-trei en boule RSQ3, les phares roses, on dead ça de fou Ça smoke pas de pre-rolls, la Rolls dans la te-sou Ça s'mange des pressings pour la zipette ou la fouille C'est cette vie-là, j'suis même paro sur le livreur UberEats Très méchant, villa bien luxe, ça fly sous beuh quand je ris J'suis au tartin, ça jobbe cache-cou en Yamaha Wolverine Flingage de ouf, monte dans l'bateau, on t'crave-bi que d'la Cali J'vibe à fond, j'suis dans l'mood, en vite fait, ça la foule La foule, foule Ça fly sous afghan kush Des-des diamants colorés, single ice et doré Okay Faubourg-Saint-Honoré, carré comme en Corée Un lourd, deux lourds ou trois lourds, ça fly sous purple J', à la , j'fais mon Mon igo, c'est fort de fou comme Aspinall power punk ? Comme un re-fou qui fait 20k en un jour J'vibe à fond, j'suis dans l'mood, en vite fait, ça la foule La foule, foule Ça fly sous afghan kush ? Des-des diamants colorés, single ice et doré Okay Faubourg-Saint-Honoré, carré comme en Corée Des-des diamants colorés, single ice et doré Faubourg-Saint-Honoré, carré comme en Corée</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>La moulaga, la moulaga, la moulaga Eh, hey Oh, eh La salade Ouais, on la connaît Nan, c'est des malades Ish, ils veulent nous coller Ish Changement d'esprit Ouais après quatre rres-ve Nan, j'suis vers Bagnolet avec Gagnoa Passe de Dembelé, frappe de Saviola, au tel-hô, empégué, j'passe à la télé' Oh, j'l'ai vu dans les yeux d'la Mondéo Ish, ish C'est la moulaga, j'suis intouchable comme ton bout-mara, si tu t'en vas, c'est bon débarras Dieu pour tous, c'est chacun pour soi, habibi, habibi, ah, benda Habibi, habibi, ah, benda, j'reste bloqué vers là-bas Comme trois kil' au Panama, trois kil' au Panama Dis-moi, c'est quoi l'boulot ? Allez, dis-moi, c'est quoi l'boulot ? J't'ai dit Dis-moi, c'est quoi l'boulot ? Dis-moi, c'est quoi l'boulot ? Han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han You might also like Posé dans l'GLE, ça sent la moula, dans l'coffre, y a vingt kil' de taga On s'arrête à BX pour mougou d'la tchaga, comme 2Pac, on est des thugs On veut v'-esqui la hess, on veut v'-esqui les mbilas, on veut quitter les favelas On sait comment refourguer la marijuana, y a pas le temps pour reculer N'hésite pas à tirer sur cet enfoiré, dis-moi s'il a tout fait foirer J'suis avec Heuss L'enfoiré, han-han N'hésite pas à tirer sur cet enfoiré, dis-moi s'il a tout fait foirer J'suis avec Heuss L'enfoiré, eh-hey Dis-moi, c'est quoi l'boulot ? Allez, dis-moi, c'est quoi l'boulot ? J't'ai dit Dis-moi, c'est quoi l'boulot ? Dis-moi, c'est quoi l'boulot ? Han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han Merco, Panamera, RS3 J'hésite entre le 6.3 ou les quatre anneaux du RS3 Si y a les keufs qui passent, je cacherai la moula dans RS3 J'ai opté pour le RS3 Ça, c'est Vegedream et Heuss L'enfoiré Mental taré, tout sous scellé, côté passager, j'suis avec Angela J'connais le patron, il s'appelle Angelo, il connaît la moula, la kichta sous cello' Oh-oh La police est là-bas, prends les affaires, la valise, va là-bas Oh-oh La police est là-bas, prends les affaires, la valise, va là-bas Oh-oh Dis-moi, c'est quoi l'boulot ? C'est quoi ? Allez, dis-moi, c'est quoi l'boulot ? C'est quoi ? J't'ai dit Dis-moi, c'est quoi l'boulot ? Dis-moi, c'est quoi l'boulot ? Han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han</t>
+          <t>La moulaga, la moulaga, la moulaga Eh, hey Oh, eh La salade Ouais, on la connaît Nan, c'est des malades Ish, ils veulent nous coller Ish Changement d'esprit Ouais après quatre rres-ve Nan, j'suis vers Bagnolet avec Gagnoa Passe de Dembelé, frappe de Saviola, au tel-hô, empégué, j'passe à la télé' Oh, j'l'ai vu dans les yeux d'la Mondéo Ish, ish C'est la moulaga, j'suis intouchable comme ton bout-mara, si tu t'en vas, c'est bon débarras Dieu pour tous, c'est chacun pour soi, habibi, habibi, ah, benda Habibi, habibi, ah, benda, j'reste bloqué vers là-bas Comme trois kil' au Panama, trois kil' au Panama Dis-moi, c'est quoi l'boulot ? Allez, dis-moi, c'est quoi l'boulot ? J't'ai dit Dis-moi, c'est quoi l'boulot ? Dis-moi, c'est quoi l'boulot ? Han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han Posé dans l'GLE, ça sent la moula, dans l'coffre, y a vingt kil' de taga On s'arrête à BX pour mougou d'la tchaga, comme 2Pac, on est des thugs On veut v'-esqui la hess, on veut v'-esqui les mbilas, on veut quitter les favelas On sait comment refourguer la marijuana, y a pas le temps pour reculer N'hésite pas à tirer sur cet enfoiré, dis-moi s'il a tout fait foirer J'suis avec Heuss L'enfoiré, han-han N'hésite pas à tirer sur cet enfoiré, dis-moi s'il a tout fait foirer J'suis avec Heuss L'enfoiré, eh-hey Dis-moi, c'est quoi l'boulot ? Allez, dis-moi, c'est quoi l'boulot ? J't'ai dit Dis-moi, c'est quoi l'boulot ? Dis-moi, c'est quoi l'boulot ? Han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han Merco, Panamera, RS3 J'hésite entre le 6.3 ou les quatre anneaux du RS3 Si y a les keufs qui passent, je cacherai la moula dans RS3 J'ai opté pour le RS3 Ça, c'est Vegedream et Heuss L'enfoiré Mental taré, tout sous scellé, côté passager, j'suis avec Angela J'connais le patron, il s'appelle Angelo, il connaît la moula, la kichta sous cello' Oh-oh La police est là-bas, prends les affaires, la valise, va là-bas Oh-oh La police est là-bas, prends les affaires, la valise, va là-bas Oh-oh Dis-moi, c'est quoi l'boulot ? C'est quoi ? Allez, dis-moi, c'est quoi l'boulot ? C'est quoi ? J't'ai dit Dis-moi, c'est quoi l'boulot ? Dis-moi, c'est quoi l'boulot ? Han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Ramène d'la vodka, whisky, Jack Daniels J'suis avec ta fille, ta femme, ta sur, ta nièce Ils sont démodés comme les grossistes à Marrakech J'les vois comme des Uber Eats venant du Bangladesh Menteur, menteur, s'il vous plait, gardez la pêche Trop d'choses dans la tête, j'prends des feuilles et des cigarettes Prends deux blocs de cinquante, si y a pas, prends dix barrettes Appelle mon avocat au cas où si les flics m'arrêtent J'ai dû commettre mon dernier délit en 2017 C'est réussir ou mourir, des fois, j'suis dans 50 Cent Plus fort que oi-m, j'suis une ficelle ou j'aime trop les filles sales Pour l'oseille original, ça devient marginal J'suis dans le business, trafic, musique, illégal Oublie pas, j'suis un Sicar' qui mène la vie d'Zidane Préviens les autres, y aura du monde Préviens les autres, y aura du monde comme dans les festivals L'OPJ, il s'fout d'ma gueule avec sa Festina Qu'il reste en chien à vie ceux-là, j'sais même pas c'que j'fous là En garde à vue, ça pue la pisse, j'nehess en diagonale J'pense à mon fils, à ma daronne et un bon McDonald's Les keufs me té-ma comme si j'ai té-gué Maradona Y a ma tre-mon dans la fouille, la même que Madonna Le chef de poste me suce la bite, il m'passe que la pommade Après vingt-quatre heures, c'est vrai que j'ai une tête de taulard Joue pas au Radisson avec Magic Johnson, hein J'fais l'boulot tout seul, j'attends pas qu'le téléphone sonne Enchanté, bébé, moi, c'est Heusslaga Nicholson J'fais d'la musique de bandit, j'arrache tout au microphone J'ai envie d'te baiser là, tout d'suite, parce que t'es trop bonne En plus, j'ai pas l'temps après-demain, j'me barre à Washington J'fais un crochet à Cancún avant d'choper Parkinson Y a l'chauffeur qui m'attend dans l'parking avec des p'tites folles J'crois qu'on est mout dans un bar à putes au Paramount Vérifie dans les paramètres, j'en n'ai plus rien à foutre Ça fume du caramel avec Zepek le marabout J'respecte les barbus, les Barbies, les barlous On t'connait bien, mon cousin, pourquoi tu fais ça à nous ? T'façon, tu nous aurais trahis pour même pas zgalou Tu peux t'squer-ma à Salou, au roc-Ma, à baï-Du On va t'cramer les yeux avec ta chicha kaloud Encore une salade spéciale de macaronis Des marocains, des noirs, des mecs de la Kabylie Elle veut tapiner la nuit, attends, c'est pas fini En Sergio Tacchini comme Paolo Maldini Hier, j'ai bu d'la Grey Goose, ballon, j'ai baisé des filles Faut qu'j'avale d'la B12 avant d'finir sous béquille En c'moment, la tête de moi, j'remporte n'importe quel défi En c'moment, la tête de moi, j'remporte n'importe quel défi Si j'rentre à me-Da, broliqué seulement pour commander J'm'en bats les couilles vraiment qu't'es un grossiste hollandais J'ai largement plus de respect pour les mecs d'la Vendée Oublie jamais, au vrai début, c'est nous qui la vendait On t'allumait ta mère même si t'avais pas demandé Dans l'appart' des Apes, j'ai grandi comme Pour la survie, faut être un voleur avec un grand V Le meilleur des proxénètes, un dealer aggravéYou might also like</t>
+          <t>Ramène d'la vodka, whisky, Jack Daniels J'suis avec ta fille, ta femme, ta sur, ta nièce Ils sont démodés comme les grossistes à Marrakech J'les vois comme des Uber Eats venant du Bangladesh Menteur, menteur, s'il vous plait, gardez la pêche Trop d'choses dans la tête, j'prends des feuilles et des cigarettes Prends deux blocs de cinquante, si y a pas, prends dix barrettes Appelle mon avocat au cas où si les flics m'arrêtent J'ai dû commettre mon dernier délit en 2017 C'est réussir ou mourir, des fois, j'suis dans 50 Cent Plus fort que oi-m, j'suis une ficelle ou j'aime trop les filles sales Pour l'oseille original, ça devient marginal J'suis dans le business, trafic, musique, illégal Oublie pas, j'suis un Sicar' qui mène la vie d'Zidane Préviens les autres, y aura du monde Préviens les autres, y aura du monde comme dans les festivals L'OPJ, il s'fout d'ma gueule avec sa Festina Qu'il reste en chien à vie ceux-là, j'sais même pas c'que j'fous là En garde à vue, ça pue la pisse, j'nehess en diagonale J'pense à mon fils, à ma daronne et un bon McDonald's Les keufs me té-ma comme si j'ai té-gué Maradona Y a ma tre-mon dans la fouille, la même que Madonna Le chef de poste me suce la bite, il m'passe que la pommade Après vingt-quatre heures, c'est vrai que j'ai une tête de taulard Joue pas au Radisson avec Magic Johnson, hein J'fais l'boulot tout seul, j'attends pas qu'le téléphone sonne Enchanté, bébé, moi, c'est Heusslaga Nicholson J'fais d'la musique de bandit, j'arrache tout au microphone J'ai envie d'te baiser là, tout d'suite, parce que t'es trop bonne En plus, j'ai pas l'temps après-demain, j'me barre à Washington J'fais un crochet à Cancún avant d'choper Parkinson Y a l'chauffeur qui m'attend dans l'parking avec des p'tites folles J'crois qu'on est mout dans un bar à putes au Paramount Vérifie dans les paramètres, j'en n'ai plus rien à foutre Ça fume du caramel avec Zepek le marabout J'respecte les barbus, les Barbies, les barlous On t'connait bien, mon cousin, pourquoi tu fais ça à nous ? T'façon, tu nous aurais trahis pour même pas zgalou Tu peux t'squer-ma à Salou, au roc-Ma, à baï-Du On va t'cramer les yeux avec ta chicha kaloud Encore une salade spéciale de macaronis Des marocains, des noirs, des mecs de la Kabylie Elle veut tapiner la nuit, attends, c'est pas fini En Sergio Tacchini comme Paolo Maldini Hier, j'ai bu d'la Grey Goose, ballon, j'ai baisé des filles Faut qu'j'avale d'la B12 avant d'finir sous béquille En c'moment, la tête de moi, j'remporte n'importe quel défi En c'moment, la tête de moi, j'remporte n'importe quel défi Si j'rentre à me-Da, broliqué seulement pour commander J'm'en bats les couilles vraiment qu't'es un grossiste hollandais J'ai largement plus de respect pour les mecs d'la Vendée Oublie jamais, au vrai début, c'est nous qui la vendait On t'allumait ta mère même si t'avais pas demandé Dans l'appart' des Apes, j'ai grandi comme Pour la survie, faut être un voleur avec un grand V Le meilleur des proxénètes, un dealer aggravé</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Zeg P on the track, bitch! Hey, hey, hey J'arrive en gros gamos noir, jai les clés de l'appart', tout vêtu de Fendi Fendi, Lenfoiré en Gucci Gucci Et le VIP m'appartient et les bitchs veulent gratter mon alcool et ma money Money, c'est les cités de Paris Paris C'est les cités d'France, narvalo, le truc est déjà calé, viens voir, j't'arrange sur l'tarot Tinquiète, on la touche pas chère Cest les cités d'France, narvalo, les keufs sont déjà passés, ptit reuf, surveille la ne-zo On sait gérer les affaires Ça pue les porcs, on benda direct, boîte sept en fond d'quatrième C'est une sorcière, elle est un peu trop jolie, s'refaire sans croiser la police La police Par les moulas, sollicité, jsuis un pirate, j'connais la Ciudad Ciudad Le cur et les poumons niqués, j'ai mon Toka' pour ces putas Putas J'tartine à l'ancienne, platine en deux s'maines, L'enfoiré des Hauts-d'-Seine, Many, Valenciennes J'tartine à l'ancienne, platine en deux s'maines, L'enfoiré des Hauts-d'-Seine On sait gérer les affaires J'arrive en gros gamos noir, j'ai les clés de l'appart', tout vêtu de Fendi Fendi, L'enfoiré en Gucci Gucci Et le VIP m'appartient et les bitchs veulent gratter mon alcool et ma money Money, c'est les cités de Paris Paris C'est les cités d'France, narvalo, le truc est déjà calé, viens voir, j't'arrange sur l'tarot T'inquiète, on la touche pas chère C'est les cités d'France, narvalo, les keufs sont déjà passés, p'tit reuf, surveille la ne-zo On sait gérer les affaires You might also like Samedi, j'suis maudit, j'm'interdis les sorties Quand elle m'dit Promets-moi, j'remets ça tous les soirs Et moi, j'suis pas comme les autres, j'te dirais pas Désolé La bagarre, c'est pour les pauvres, j'ai un plus grand pistolet J'tartine à l'ancienne, platine en deux s'maines, L'enfoiré des Hauts-d'-Seine, Many, Valenciennes J'tartine à l'ancienne, platine en deux s'maines, L'enfoiré des Hauts-d'-Seine On sait gérer les affaires J'arrive en gros gamos noir, j'ai les clés de l'appart', tout vêtu de Fendi Fendi, L'enfoiré en Gucci Gucci Et le VIP m'appartient et les bitchs veulent gratter mon alcool et ma money Money, c'est les cités de Paris Paris C'est les cités d'France, narvalo, le truc est déjà calé, viens voir, j't'arrange sur l'tarot T'inquiète, on la touche pas chère C'est les cités d'France, narvalo, les keufs sont déjà passés, p'tit reuf, surveille la ne-zo On sait gérer les affaires2</t>
+          <t>Zeg P on the track, bitch! Hey, hey, hey J'arrive en gros gamos noir, jai les clés de l'appart', tout vêtu de Fendi Fendi, Lenfoiré en Gucci Gucci Et le VIP m'appartient et les bitchs veulent gratter mon alcool et ma money Money, c'est les cités de Paris Paris C'est les cités d'France, narvalo, le truc est déjà calé, viens voir, j't'arrange sur l'tarot Tinquiète, on la touche pas chère Cest les cités d'France, narvalo, les keufs sont déjà passés, ptit reuf, surveille la ne-zo On sait gérer les affaires Ça pue les porcs, on benda direct, boîte sept en fond d'quatrième C'est une sorcière, elle est un peu trop jolie, s'refaire sans croiser la police La police Par les moulas, sollicité, jsuis un pirate, j'connais la Ciudad Ciudad Le cur et les poumons niqués, j'ai mon Toka' pour ces putas Putas J'tartine à l'ancienne, platine en deux s'maines, L'enfoiré des Hauts-d'-Seine, Many, Valenciennes J'tartine à l'ancienne, platine en deux s'maines, L'enfoiré des Hauts-d'-Seine On sait gérer les affaires J'arrive en gros gamos noir, j'ai les clés de l'appart', tout vêtu de Fendi Fendi, L'enfoiré en Gucci Gucci Et le VIP m'appartient et les bitchs veulent gratter mon alcool et ma money Money, c'est les cités de Paris Paris C'est les cités d'France, narvalo, le truc est déjà calé, viens voir, j't'arrange sur l'tarot T'inquiète, on la touche pas chère C'est les cités d'France, narvalo, les keufs sont déjà passés, p'tit reuf, surveille la ne-zo On sait gérer les affaires Samedi, j'suis maudit, j'm'interdis les sorties Quand elle m'dit Promets-moi, j'remets ça tous les soirs Et moi, j'suis pas comme les autres, j'te dirais pas Désolé La bagarre, c'est pour les pauvres, j'ai un plus grand pistolet J'tartine à l'ancienne, platine en deux s'maines, L'enfoiré des Hauts-d'-Seine, Many, Valenciennes J'tartine à l'ancienne, platine en deux s'maines, L'enfoiré des Hauts-d'-Seine On sait gérer les affaires J'arrive en gros gamos noir, j'ai les clés de l'appart', tout vêtu de Fendi Fendi, L'enfoiré en Gucci Gucci Et le VIP m'appartient et les bitchs veulent gratter mon alcool et ma money Money, c'est les cités de Paris Paris C'est les cités d'France, narvalo, le truc est déjà calé, viens voir, j't'arrange sur l'tarot T'inquiète, on la touche pas chère C'est les cités d'France, narvalo, les keufs sont déjà passés, p'tit reuf, surveille la ne-zo On sait gérer les affaires2</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Encore pété de la veille, khapta, stenda, Jack au miel On s'lève comme des colonels, ce soir, on refait la même Encore pété de la veille, khapta, stenda, Jack au miel On s'lève comme des colonels, ce soir, on refait la même Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier Eh, j'suis ganté avec le Heuss, j'veux des sous, bats les couilles du buzz C'est vrai, j'ai plusieurs kichtas mais oublie pas, j'ai qu'un seul reuf Pendant qu'y en a qui veulent ma peau, j'écoute mon son, j'suis sur un bateau Mais quand j'rentre à Paname, j'me dis Faut vite que j'remonte sur un braco J'suis dans la villa comme le mec à Milla, j'prends ton billet, on s'arrache à Marbella Quand on arrive, il demande tout ce qu'il a, ramène le Dom Pé', le Ruinart, la tequila Encore pété de la veille, khapta, stenda, Jack au miel On s'lève comme des colonels, ce soir, on refait la même You might also like Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier C'est nous les tauliers, tauliers, les gros bonnets, bonnets Ouais, tu nous connais, connais, envoie la monnaie, monnaie C'est nous les bandits, bandits, on fait c'qu'on dit, c'qu'on dit Ouais, tu nous connais, connais, on prend des lovés, lovés J'lui réponds pas, j'suis culotté, bouge ton corps, on va l'piloter Appelle le barman, on va r'commander, ce soir, on va r'commencer Encore pété de la veille, khapta, stenda, Jack au miel On s'lève comme des colonels, ce soir, on refait la même Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier D'la tête au pied au Gucci, j'suis dans la mentale J'finis ma 'teille mais j'ai pas sommeil pas sommeil Oh nanana, on t'connaît, toi, tu parles pour tchi, là, on t'a rodave Tu n't'assois pas, tu fais pas d'oseille pas d'oseille Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier C'est nous les tauliers, tauliers, les gros bonnets, bonnets Ouais, tu nous connais, connais, envoie la monnaie, monnaie C'est nous les bandits, bandits, on fait c'qu'on dit, c'qu'on dit Ouais, tu nous connais, connais, on prend des lovés, lovés</t>
+          <t>Encore pété de la veille, khapta, stenda, Jack au miel On s'lève comme des colonels, ce soir, on refait la même Encore pété de la veille, khapta, stenda, Jack au miel On s'lève comme des colonels, ce soir, on refait la même Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier Eh, j'suis ganté avec le Heuss, j'veux des sous, bats les couilles du buzz C'est vrai, j'ai plusieurs kichtas mais oublie pas, j'ai qu'un seul reuf Pendant qu'y en a qui veulent ma peau, j'écoute mon son, j'suis sur un bateau Mais quand j'rentre à Paname, j'me dis Faut vite que j'remonte sur un braco J'suis dans la villa comme le mec à Milla, j'prends ton billet, on s'arrache à Marbella Quand on arrive, il demande tout ce qu'il a, ramène le Dom Pé', le Ruinart, la tequila Encore pété de la veille, khapta, stenda, Jack au miel On s'lève comme des colonels, ce soir, on refait la même Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier C'est nous les tauliers, tauliers, les gros bonnets, bonnets Ouais, tu nous connais, connais, envoie la monnaie, monnaie C'est nous les bandits, bandits, on fait c'qu'on dit, c'qu'on dit Ouais, tu nous connais, connais, on prend des lovés, lovés J'lui réponds pas, j'suis culotté, bouge ton corps, on va l'piloter Appelle le barman, on va r'commander, ce soir, on va r'commencer Encore pété de la veille, khapta, stenda, Jack au miel On s'lève comme des colonels, ce soir, on refait la même Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier D'la tête au pied au Gucci, j'suis dans la mentale J'finis ma 'teille mais j'ai pas sommeil pas sommeil Oh nanana, on t'connaît, toi, tu parles pour tchi, là, on t'a rodave Tu n't'assois pas, tu fais pas d'oseille pas d'oseille Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier C'est nous les tauliers, tauliers, les gros bonnets, bonnets Ouais, tu nous connais, connais, envoie la monnaie, monnaie C'est nous les bandits, bandits, on fait c'qu'on dit, c'qu'on dit Ouais, tu nous connais, connais, on prend des lovés, lovés</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Ya-Ya-Yasser Combien d'fois j'ai fait le dealer, le proxénète ? Combien d'fois déjà j'ai perdu des hassanetes ? Combien d'fois tu m'as répété qu'j'étais malhonnête ? Dix mille euros un RPG, le lance-roquettes Combien d'fois j'ai dû la baiser dans la bagnole ? Les mêmes fois qu'on a passé la frontière espagnole Malgré qu'j'ai la gaule, wAllah qu'on s'les Ramène d'la gnôle et d'la folle, le poto sort de taule Combien d'fois qu'j't'ai cramé qu't'étais là par intérêt ? chien C'est rin, fils de pute, moi aussi, j'ai mes intérêts Aujourd'hui, t's fort, juste après, poto, demain, t'es raide t'es raide Combien de fois j'ai vu des films de cul sur internet ? Combien d'fois l'histoire s'est déjà répétée ? Combien d'fois ils m'ont pété avant l'été ? C'est pour Fleury, Nanterre, Fresnes, La Santé Pour les mecs enfermés, patientez Combien d'fois l'histoire s'est déjà répétée ? Combien d'fois ils m'ont pété avant l'été ? C'est pour Fleury, Nanterre, Fresnes, La Santé Pour les mecs enfermés, patientez You might also like Combien de fois j'ai vu des films de cul sur internet ? Assez pour aller en Enfer ou bien s'faire interner Combien d'fois j'suis rentré bredouille, les yeux cernés ? Écoute pas ça, p'tit reuf, tu t'sentiras pas concerné Combien d'fois j'ai oublié d'aller me prosterner ? Me fais jamais d'rappel, oublie pas d'la fermer wow Combien d'fois j'me suis demandé combien d'temps j'allais encore chanter Fumer, boire, niquer ma santé ? J'me rappelle le truc, comment il avait démarré La machine est cassée, impossible de redémarrer eh 9.2.3.9 dans l'arrêt, dans l'allée, dans Paris Bats les couilles d'Eric Zemmour, Jean-Marie Combien d'fois l'histoire s'est déjà répétée ? Combien d'fois ils m'ont pété avant l'été ? C'est pour Fleury, Nanterre, Fresnes, La Santé Pour les mecs enfermés, patientez Combien d'fois l'histoire s'est déjà répétée ? Combien d'fois ils m'ont pété avant l'été ? C'est pour Fleury, Nanterre, Fresnes, La Santé Pour les mecs enfermés, patientez</t>
+          <t>Ya-Ya-Yasser Combien d'fois j'ai fait le dealer, le proxénète ? Combien d'fois déjà j'ai perdu des hassanetes ? Combien d'fois tu m'as répété qu'j'étais malhonnête ? Dix mille euros un RPG, le lance-roquettes Combien d'fois j'ai dû la baiser dans la bagnole ? Les mêmes fois qu'on a passé la frontière espagnole Malgré qu'j'ai la gaule, wAllah qu'on s'les Ramène d'la gnôle et d'la folle, le poto sort de taule Combien d'fois qu'j't'ai cramé qu't'étais là par intérêt ? chien C'est rin, fils de pute, moi aussi, j'ai mes intérêts Aujourd'hui, t's fort, juste après, poto, demain, t'es raide t'es raide Combien de fois j'ai vu des films de cul sur internet ? Combien d'fois l'histoire s'est déjà répétée ? Combien d'fois ils m'ont pété avant l'été ? C'est pour Fleury, Nanterre, Fresnes, La Santé Pour les mecs enfermés, patientez Combien d'fois l'histoire s'est déjà répétée ? Combien d'fois ils m'ont pété avant l'été ? C'est pour Fleury, Nanterre, Fresnes, La Santé Pour les mecs enfermés, patientez Combien de fois j'ai vu des films de cul sur internet ? Assez pour aller en Enfer ou bien s'faire interner Combien d'fois j'suis rentré bredouille, les yeux cernés ? Écoute pas ça, p'tit reuf, tu t'sentiras pas concerné Combien d'fois j'ai oublié d'aller me prosterner ? Me fais jamais d'rappel, oublie pas d'la fermer wow Combien d'fois j'me suis demandé combien d'temps j'allais encore chanter Fumer, boire, niquer ma santé ? J'me rappelle le truc, comment il avait démarré La machine est cassée, impossible de redémarrer eh 9.2.3.9 dans l'arrêt, dans l'allée, dans Paris Bats les couilles d'Eric Zemmour, Jean-Marie Combien d'fois l'histoire s'est déjà répétée ? Combien d'fois ils m'ont pété avant l'été ? C'est pour Fleury, Nanterre, Fresnes, La Santé Pour les mecs enfermés, patientez Combien d'fois l'histoire s'est déjà répétée ? Combien d'fois ils m'ont pété avant l'été ? C'est pour Fleury, Nanterre, Fresnes, La Santé Pour les mecs enfermés, patientez</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Paris, Cuba, Costa Rica, Panama Et Paris, Cuba, millionnaire ou l'Valhalla Paris, Cuba, Costa Rica, Panama Et Paris, Cuba, millionnaire ou l'Valhalla Toute la night, assis sous les spotlights Un, deux, trois, vodka, j'entends Ne reviens pas j'reviendrai jamais Défoncé j'suis défoncé, showcase au prix du kilo d'C Défoncé j'suis défoncé, showcase au prix du kilo d'C Le plan Épervier, le gang est cerné, c'est Heuss L'enfoiré, kichtas sous l'évier J'ai tout baisé comme Hanouna, j'te fais danser comme Maluma, na, na, na J'ai tout baisé comme Hanouna, j'te fais danser comme Maluma, na, na, na Dans toute ma zone, moi, j'ai tourné la nuit, à l'heure où tout s'ressemble, même le mal et l bien Mexico, Brésil, bientôt, j'm casse d'ici, depuis p'tit, j'suis une pile, à la 'son, y a qu'des chats Pied dans l'business, on a semé la zizanie, Tesla ou Christian Dior Des trucs, allez, pense à ta maman, t'inquiète, j'me barre juste à temps Vrai de vrai Paris, Cuba, Costa Rica, Panama Et Paris, Cuba, millionnaire ou l'Valhalla Paris, Cuba, Costa Rica, Panama Et Paris, Cuba, millionnaire ou l'Valhalla Toute la night, assis sous les spotlights Un, deux, trois, vodka, j'entends Ne reviens pas j'reviendrai jamais Défoncé j'suis défoncé, showcase au prix du kilo d'C Défoncé j'suis défoncé, showcase au prix du kilo d'C You might also like Des nuits sans fin, des journées sans soleil, des bandits sans femmes D'la vodka dans l'verre, des faibles et des forts, j'compte plus les défauts J'coupe les liens direct, casse pas ta tête Eh, tous les jouguours, c'est la fête, y a qu'des ploguos sur la table J'ai la cote, j'emmène laquelle ? Khabat depuis trop d'années, pourquoi j'arrête pas l'alcool ? Merde Eh, Salomon Fendi, dou-double diamant comme Roschdy Eh, Salomon Fendi, dou-double diamant comme Roschdy Paris, Cuba, Costa Rica, Panama Et Paris, Cuba, millionnaire ou l'Valhalla Paris, Cuba, Costa Rica, Panama Et Paris, Cuba, millionnaire ou l'Valhalla Toute la night, assis sous les spotlights Un, deux, trois, vodka, j'entends Ne reviens pas j'reviendrai jamais Défoncé j'suis défoncé, showcase au prix du kilo d'C Défoncé j'suis défoncé, showcase au prix du kilo d'C</t>
+          <t>Paris, Cuba, Costa Rica, Panama Et Paris, Cuba, millionnaire ou l'Valhalla Paris, Cuba, Costa Rica, Panama Et Paris, Cuba, millionnaire ou l'Valhalla Toute la night, assis sous les spotlights Un, deux, trois, vodka, j'entends Ne reviens pas j'reviendrai jamais Défoncé j'suis défoncé, showcase au prix du kilo d'C Défoncé j'suis défoncé, showcase au prix du kilo d'C Le plan Épervier, le gang est cerné, c'est Heuss L'enfoiré, kichtas sous l'évier J'ai tout baisé comme Hanouna, j'te fais danser comme Maluma, na, na, na J'ai tout baisé comme Hanouna, j'te fais danser comme Maluma, na, na, na Dans toute ma zone, moi, j'ai tourné la nuit, à l'heure où tout s'ressemble, même le mal et l bien Mexico, Brésil, bientôt, j'm casse d'ici, depuis p'tit, j'suis une pile, à la 'son, y a qu'des chats Pied dans l'business, on a semé la zizanie, Tesla ou Christian Dior Des trucs, allez, pense à ta maman, t'inquiète, j'me barre juste à temps Vrai de vrai Paris, Cuba, Costa Rica, Panama Et Paris, Cuba, millionnaire ou l'Valhalla Paris, Cuba, Costa Rica, Panama Et Paris, Cuba, millionnaire ou l'Valhalla Toute la night, assis sous les spotlights Un, deux, trois, vodka, j'entends Ne reviens pas j'reviendrai jamais Défoncé j'suis défoncé, showcase au prix du kilo d'C Défoncé j'suis défoncé, showcase au prix du kilo d'C Des nuits sans fin, des journées sans soleil, des bandits sans femmes D'la vodka dans l'verre, des faibles et des forts, j'compte plus les défauts J'coupe les liens direct, casse pas ta tête Eh, tous les jouguours, c'est la fête, y a qu'des ploguos sur la table J'ai la cote, j'emmène laquelle ? Khabat depuis trop d'années, pourquoi j'arrête pas l'alcool ? Merde Eh, Salomon Fendi, dou-double diamant comme Roschdy Eh, Salomon Fendi, dou-double diamant comme Roschdy Paris, Cuba, Costa Rica, Panama Et Paris, Cuba, millionnaire ou l'Valhalla Paris, Cuba, Costa Rica, Panama Et Paris, Cuba, millionnaire ou l'Valhalla Toute la night, assis sous les spotlights Un, deux, trois, vodka, j'entends Ne reviens pas j'reviendrai jamais Défoncé j'suis défoncé, showcase au prix du kilo d'C Défoncé j'suis défoncé, showcase au prix du kilo d'C</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>J'suis dans les bails sa mère, revente au détail, au kilo Il m'faut plus gros salaire mais j'veux pas finir comme Ciro Ça t'pull-up en BM, les p'tits ont la haine, pour un point, ça t'enlève ta vie J'me mets pas en scène, j'ai écarté là-celle, elle voulait trop la vie d'artiste La frappe est dans l'bonnet 212, dans le dos, j'ai pris deux cents coups Bellek avec qui tu t'entoures, ils sont pas fiables, c'est des ventouses La nuit, j'vois mes ennemis au bout du canon de mon Desert Eagle J'peux même plus compter les certif', t'attaches pas l'cur est désertique Alger, Casa', Culiacán, selha chargée, Porsche Macan 212, Marocco Mafia, Static, Frozen, Beldia Alger, Casa', Culiacán, selha chargée, Porsche Macan 212, Marocco Mafia, Static, Frozen, Beldia Eh, on t'élimine T'élimine, la Kalash' est russe, on délimite Délimite Le terrain miné, on illumine Illumine Pas d'marche arrière, pas d'Billie Jean, Michael, Billie Jean Billie Jean Y a mon blase qui tourne partout, j'peux plus m'balader Balader Ceux qu'on n'éteint pas ont fini balafrés Viens par ici, c'est le zoo C'est le zoo, y a la Zizou, la Haaland J'suis à Phuket dans les calanques, les clients arrivent en avalanche, Semelles rouges sous les talons, elle veut un bandit, un étalon 43 Maroki, j'ai le bras long, comme Montana, j'te rafale dans ton salon Allô ? Allô ? J'te fais danser l'Seleção, j'bois des Corona à Salou J'rentre pas, elle sait qu'j'suis un salaud Elle sait qu'j'suis un salaud Toute l'année, j'suis dans l'viano, Sacem, j'fais rentrer comme Vianney On joue la guitare et le piano, j'ai mis la couture milanaise You might also like Alger, Casa', Culiacán, selha chargée, Porsche Macan 212, Marocco Mafia, Static, Frozen, Beldia Alger, Casa', Culiacán, selha chargée, Porsche Macan 212, Marocco Mafia, Static, Frozen, Beldia Eh, on t'élimine T'élimine, la Kalash' est russe, on délimite Délimite Le terrain miné, on illumine Illumine Pas d'marche arrière, pas d'Billie Jean, Michael, Billie Jean Billie Jean Y a mon blase qui tourne partout, j'peux plus m'balader Balader Ceux qu'on n'éteint pas ont fini balafrés Eh, on t'élimine, la Kalash' est russe, on délimite Délimite Le terrain miné, on illumine Illumine Pas d'marche arrière, pas d'Billie Jean, Michael, Billie Jean Y a mon blase qui tourne partout, j'peux plus m'balader Ceux qu'on n'éteint pas ont fini balafrés</t>
+          <t>J'suis dans les bails sa mère, revente au détail, au kilo Il m'faut plus gros salaire mais j'veux pas finir comme Ciro Ça t'pull-up en BM, les p'tits ont la haine, pour un point, ça t'enlève ta vie J'me mets pas en scène, j'ai écarté là-celle, elle voulait trop la vie d'artiste La frappe est dans l'bonnet 212, dans le dos, j'ai pris deux cents coups Bellek avec qui tu t'entoures, ils sont pas fiables, c'est des ventouses La nuit, j'vois mes ennemis au bout du canon de mon Desert Eagle J'peux même plus compter les certif', t'attaches pas l'cur est désertique Alger, Casa', Culiacán, selha chargée, Porsche Macan 212, Marocco Mafia, Static, Frozen, Beldia Alger, Casa', Culiacán, selha chargée, Porsche Macan 212, Marocco Mafia, Static, Frozen, Beldia Eh, on t'élimine T'élimine, la Kalash' est russe, on délimite Délimite Le terrain miné, on illumine Illumine Pas d'marche arrière, pas d'Billie Jean, Michael, Billie Jean Billie Jean Y a mon blase qui tourne partout, j'peux plus m'balader Balader Ceux qu'on n'éteint pas ont fini balafrés Viens par ici, c'est le zoo C'est le zoo, y a la Zizou, la Haaland J'suis à Phuket dans les calanques, les clients arrivent en avalanche, Semelles rouges sous les talons, elle veut un bandit, un étalon 43 Maroki, j'ai le bras long, comme Montana, j'te rafale dans ton salon Allô ? Allô ? J'te fais danser l'Seleção, j'bois des Corona à Salou J'rentre pas, elle sait qu'j'suis un salaud Elle sait qu'j'suis un salaud Toute l'année, j'suis dans l'viano, Sacem, j'fais rentrer comme Vianney On joue la guitare et le piano, j'ai mis la couture milanaise Alger, Casa', Culiacán, selha chargée, Porsche Macan 212, Marocco Mafia, Static, Frozen, Beldia Alger, Casa', Culiacán, selha chargée, Porsche Macan 212, Marocco Mafia, Static, Frozen, Beldia Eh, on t'élimine T'élimine, la Kalash' est russe, on délimite Délimite Le terrain miné, on illumine Illumine Pas d'marche arrière, pas d'Billie Jean, Michael, Billie Jean Billie Jean Y a mon blase qui tourne partout, j'peux plus m'balader Balader Ceux qu'on n'éteint pas ont fini balafrés Eh, on t'élimine, la Kalash' est russe, on délimite Délimite Le terrain miné, on illumine Illumine Pas d'marche arrière, pas d'Billie Jean, Michael, Billie Jean Y a mon blase qui tourne partout, j'peux plus m'balader Ceux qu'on n'éteint pas ont fini balafrés</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Prends un billet d'avion, préviens mon label paw J'pars au Mexique parce que la khapta m'appelle paw Viens dans la zone, ici c'est Medellin Cartel paw paw paw paw Y a d'la Belvédère, d'la mou-mou à la pelle pelle J'suis dans la boîte avec les plus gros dealers J'avance tout droit, j'regarde même pas les videurs Weed au mic' et broliqué comme Val Kilmer 15 000 euros, bonne humeur, une demi-heure Déjà khabat en même pas une demi-heure J'vois la concu' en train d'coller des mineures Tourne le potard, monte le son des haut-parleurs Y'a un souci, on s'explique à l'extérieur Olalala ouh, waow C'est pas d'la musique, c'est du commerce nan Olalala ouh Et j'tiens mieux l'alcool que mes promesses wah Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après t'es menotté Et on refait la déco' avec la fille d'à té-cô La voisine se plaint qu'elle entend des Boum, boum, boum, boum You might also like J'manque pas de weed, ni de toupet eh Ça ride des Barbies, pas des poupées nan Tout est officieux rien d'officiel ouais Des culottes faites avec des ficelles Des belles nanas, genre Zendaya Quarante degrés comme à Tijuana Coké comme Baba, bien trop faya Toujours dans l'excès, c'est le Nirvana J'suis le bon, la brute et le truand en même temps J'fais des évènements de Marseille à terre-Nan Les requins sont vicieux, un peu comme des serpents Coucou, c'est la mou-mou, j'suis en survêtement Dieu merci, j'ai réussi à ver-'squi les méchants L'argent, c'est alléchant, dans la rue méchant VLG, le pont de Medellin et Saint-Ouen Ils s'rappelleront de moi comme les boute-en-train ouh, ouh, ouh Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après t'es menotté Et on refait la déco' avec la fille d'à té-cô La voisine se plaint qu'elle entend des Boum, boum, boum, boum Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après t'es menotté Et on refait la déco' avec la fille d'à té-cô La voisine se plaint qu'elle entend des Boum, boum, boum, boum Olalala La voisine se plaint qu'elle entend Olalala Des Boum, boum, boum, boum</t>
+          <t>Prends un billet d'avion, préviens mon label paw J'pars au Mexique parce que la khapta m'appelle paw Viens dans la zone, ici c'est Medellin Cartel paw paw paw paw Y a d'la Belvédère, d'la mou-mou à la pelle pelle J'suis dans la boîte avec les plus gros dealers J'avance tout droit, j'regarde même pas les videurs Weed au mic' et broliqué comme Val Kilmer 15 000 euros, bonne humeur, une demi-heure Déjà khabat en même pas une demi-heure J'vois la concu' en train d'coller des mineures Tourne le potard, monte le son des haut-parleurs Y'a un souci, on s'explique à l'extérieur Olalala ouh, waow C'est pas d'la musique, c'est du commerce nan Olalala ouh Et j'tiens mieux l'alcool que mes promesses wah Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après t'es menotté Et on refait la déco' avec la fille d'à té-cô La voisine se plaint qu'elle entend des Boum, boum, boum, boum J'manque pas de weed, ni de toupet eh Ça ride des Barbies, pas des poupées nan Tout est officieux rien d'officiel ouais Des culottes faites avec des ficelles Des belles nanas, genre Zendaya Quarante degrés comme à Tijuana Coké comme Baba, bien trop faya Toujours dans l'excès, c'est le Nirvana J'suis le bon, la brute et le truand en même temps J'fais des évènements de Marseille à terre-Nan Les requins sont vicieux, un peu comme des serpents Coucou, c'est la mou-mou, j'suis en survêtement Dieu merci, j'ai réussi à ver-'squi les méchants L'argent, c'est alléchant, dans la rue méchant VLG, le pont de Medellin et Saint-Ouen Ils s'rappelleront de moi comme les boute-en-train ouh, ouh, ouh Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après t'es menotté Et on refait la déco' avec la fille d'à té-cô La voisine se plaint qu'elle entend des Boum, boum, boum, boum Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après t'es menotté Et on refait la déco' avec la fille d'à té-cô La voisine se plaint qu'elle entend des Boum, boum, boum, boum Olalala La voisine se plaint qu'elle entend Olalala Des Boum, boum, boum, boum</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Prends un billet d'avion, préviens mon label J'pars au Mexique parce que la khapta m'appelle Viens dans la zone, , c'est Medellin Cartel Y a d'la Belvédère, d'la mou-mou à l'appel J'suis dans la boîte avec les plus gros dealers J'avance tout droit, j'regarde même pas les videurs au mic', broliqué comme Val Kilmer 15 000 euros, bonne humeur, une demi-heure Déjà khabat en même pas une demi-heure J'vois la concu' en train d'coller des mineures Tourne le potard, monte le son des hauts-parleurs Y a un souci, on s'explique à l'extérieur Olalala ouh, waow C'est pas d'la musique, c'est du commerce nan Olalala ouh, waow Et j'tiens mieux l'alcool que mes promesses wah Et dans l'appart' d'à côté, on a fini menottésYou might also like</t>
+          <t>Prends un billet d'avion, préviens mon label J'pars au Mexique parce que la khapta m'appelle Viens dans la zone, , c'est Medellin Cartel Y a d'la Belvédère, d'la mou-mou à l'appel J'suis dans la boîte avec les plus gros dealers J'avance tout droit, j'regarde même pas les videurs au mic', broliqué comme Val Kilmer 15 000 euros, bonne humeur, une demi-heure Déjà khabat en même pas une demi-heure J'vois la concu' en train d'coller des mineures Tourne le potard, monte le son des hauts-parleurs Y a un souci, on s'explique à l'extérieur Olalala ouh, waow C'est pas d'la musique, c'est du commerce nan Olalala ouh, waow Et j'tiens mieux l'alcool que mes promesses wah Et dans l'appart' d'à côté, on a fini menottés</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après Et on refait la déco' avec La voisine se plaint qu'elle entend des Boum, boum, boum, boum J'manque pas de weed ni de toupet eh Ça ride des barbies, pas de poupées han Tout est officieux, rien d'officiel ouais, ouais Des culottes faites avec des ficelles Des belles nanas, genr Zendaya Quarante degrés comm à Tijuana Coquet comme Baba, bien trop faya Toujours dans l'excès c'est le Nirvana J'suis le bon, la brute et le truand en même temps J'fais des évènements de Marseille à terre-Nan Les requins sont vicieux, un peu comme des serpents Coucou, c'est la mou-mou, j'suis en survêtementYou might also like</t>
+          <t>Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après Et on refait la déco' avec La voisine se plaint qu'elle entend des Boum, boum, boum, boum J'manque pas de weed ni de toupet eh Ça ride des barbies, pas de poupées han Tout est officieux, rien d'officiel ouais, ouais Des culottes faites avec des ficelles Des belles nanas, genr Zendaya Quarante degrés comm à Tijuana Coquet comme Baba, bien trop faya Toujours dans l'excès c'est le Nirvana J'suis le bon, la brute et le truand en même temps J'fais des évènements de Marseille à terre-Nan Les requins sont vicieux, un peu comme des serpents Coucou, c'est la mou-mou, j'suis en survêtement</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Coucou, c'est la mou-mou, j'suis en survêtement Dieu merci, j'ai réussi à ver-'squi les méchants L'argent, c'est alléchant, dans la rue VLG, le pont de Medellin et Saint-Ouen Ils s'rappeleront de moi commes les bouts-en-train ouh, ouh, ouh Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après Et on refait la déco' avec La voisine se plaint qu'elle entend des Boum, boum, boum, boum Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après Et on refait la déco' avec You might also like</t>
+          <t>Coucou, c'est la mou-mou, j'suis en survêtement Dieu merci, j'ai réussi à ver-'squi les méchants L'argent, c'est alléchant, dans la rue VLG, le pont de Medellin et Saint-Ouen Ils s'rappeleront de moi commes les bouts-en-train ouh, ouh, ouh Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après Et on refait la déco' avec La voisine se plaint qu'elle entend des Boum, boum, boum, boum Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après Et on refait la déco' avec</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après Et on refait la déco' avec La voisine se plaint qu'elle entend des Boum, boum, boum, boum Olalala La voisine se plaint qu'elle entend Olalala Des Boum, boum, boum, boumYou might also like</t>
+          <t>Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après Et on refait la déco' avec La voisine se plaint qu'elle entend des Boum, boum, boum, boum Olalala La voisine se plaint qu'elle entend Olalala Des Boum, boum, boum, boum</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Suko Beats La Calle, la Calle Wait for it, YG Production Demande aux pachydermes, j'suis reconnu comme Sur le rrain-té, j't'ai dit, y a personne qui peut nous coacher Chez nous, c'est Napoli, Paris SG, Fenerbahçe C'est la police à six du mat' qui vient nous éclater Raconte pas tes salades, on a fait du sale, le terrain, ça l'tient tout seul, y a pas b'soin des gens C't enculé, il m'parle de faire du sale à qui ? Il a glissé, il s'est vite revu Obligé, y a pas qu'toi qui connais, huit heures la douche en taule, ça s'réveille en colère C'est connu, combien d, j'en ai collé, un souci calibré, ça montait en colère Inconnu, tu connais la Caille, andalo, c'est concentrés qu'on part détailler enculé J'ai jeté mes cahiers, pe-stu dans l'sac à dos, j'ai fui dans la Caille, j'ai fui dans la Calle Augmente le volume, c'est Fresh et L'enfoiré eh Pas l'temps pour la mala, ça vient récupérer l'bénèf' de la soirée récupérer l'bénèf' de la soirée Seventeen five, ça repeint ton t-shirt Pour seventeen five, ça kidnappe ta p'tite sur Seventeen five, ça repeint ton t-shirt Pour seventeen five, ça kidnappe ta p'tite sur You might also like Maman voulait pas qu'j'vends cette dope voulait pas qu'j'vends cette dope Seventeen five, couleur t-shirt couleur t-shirt Maman voulait pas qu'j'vends cette dope voulait pas qu'j'vends cette dope Seventeen five, repeint le t-shirt repeint le t-shirt Maman voulait pas qu'j'vends cette dope eh Seventeen five, couleur t-shirt woh Maman voulait pas qu'j'vends cette dope Seventeen five, repeint le t-shirt Aujourd'hui, j'me suis vé-le à midi vingt-trois, déterminé comme numéro 23 J'mets un coup d'flamme sur le joint, le trente-trois, Bai-baiser des chattes dans les nouveaux endroits, fumer du shit avec Turcs et Hongrois Ramène des putes, à manger et à boire, j'ché-cra dans trou d'balle aléatoire Du-du guacamole, du caramel, dix grammes de filtré dans l'cul à Kamel Mais j'ai oublié comment elle s'appelle, j'avais roupillé au Modern Hôtel J'suis pas un modèle j'suis pas Faudel, Marc-Olivier Fogiel Demande à et ses , rempli de cocaïne avec armes de l'est Seventeen five, ça repeint ton t-shirt Pour seventeen five, ça kidnappe ta p'tite sur Seventeen five, ça repeint ton t-shirt Pour seventeen five, ça kidnappe ta p'tite sur Maman voulait pas qu'j'vends cette dope voulait pas qu'j'vends cette dope Seventeen five, couleur t-shirt couleur t-shirt Maman voulait pas qu'j'vends cette dope voulait pas qu'j'vends cette dope Seventeen five, repeint le t-shirt repeint le t-shirt Maman voulait pas qu'j'vends cette dope eh Seventeen five, couleur t-shirt woh Maman voulait pas qu'j'vends cette dope Seventeen five, repeint le t-shirt Maman voulait pas qu'j'vends cette dope Seventeen five, couleur t-shirt Maman voulait pas qu'j'vends cette dope Seventeen five, repeint le t-shirt</t>
+          <t>Suko Beats La Calle, la Calle Wait for it, YG Production Demande aux pachydermes, j'suis reconnu comme Sur le rrain-té, j't'ai dit, y a personne qui peut nous coacher Chez nous, c'est Napoli, Paris SG, Fenerbahçe C'est la police à six du mat' qui vient nous éclater Raconte pas tes salades, on a fait du sale, le terrain, ça l'tient tout seul, y a pas b'soin des gens C't enculé, il m'parle de faire du sale à qui ? Il a glissé, il s'est vite revu Obligé, y a pas qu'toi qui connais, huit heures la douche en taule, ça s'réveille en colère C'est connu, combien d, j'en ai collé, un souci calibré, ça montait en colère Inconnu, tu connais la Caille, andalo, c'est concentrés qu'on part détailler enculé J'ai jeté mes cahiers, pe-stu dans l'sac à dos, j'ai fui dans la Caille, j'ai fui dans la Calle Augmente le volume, c'est Fresh et L'enfoiré eh Pas l'temps pour la mala, ça vient récupérer l'bénèf' de la soirée récupérer l'bénèf' de la soirée Seventeen five, ça repeint ton t-shirt Pour seventeen five, ça kidnappe ta p'tite sur Seventeen five, ça repeint ton t-shirt Pour seventeen five, ça kidnappe ta p'tite sur Maman voulait pas qu'j'vends cette dope voulait pas qu'j'vends cette dope Seventeen five, couleur t-shirt couleur t-shirt Maman voulait pas qu'j'vends cette dope voulait pas qu'j'vends cette dope Seventeen five, repeint le t-shirt repeint le t-shirt Maman voulait pas qu'j'vends cette dope eh Seventeen five, couleur t-shirt woh Maman voulait pas qu'j'vends cette dope Seventeen five, repeint le t-shirt Aujourd'hui, j'me suis vé-le à midi vingt-trois, déterminé comme numéro 23 J'mets un coup d'flamme sur le joint, le trente-trois, Bai-baiser des chattes dans les nouveaux endroits, fumer du shit avec Turcs et Hongrois Ramène des putes, à manger et à boire, j'ché-cra dans trou d'balle aléatoire Du-du guacamole, du caramel, dix grammes de filtré dans l'cul à Kamel Mais j'ai oublié comment elle s'appelle, j'avais roupillé au Modern Hôtel J'suis pas un modèle j'suis pas Faudel, Marc-Olivier Fogiel Demande à et ses , rempli de cocaïne avec armes de l'est Seventeen five, ça repeint ton t-shirt Pour seventeen five, ça kidnappe ta p'tite sur Seventeen five, ça repeint ton t-shirt Pour seventeen five, ça kidnappe ta p'tite sur Maman voulait pas qu'j'vends cette dope voulait pas qu'j'vends cette dope Seventeen five, couleur t-shirt couleur t-shirt Maman voulait pas qu'j'vends cette dope voulait pas qu'j'vends cette dope Seventeen five, repeint le t-shirt repeint le t-shirt Maman voulait pas qu'j'vends cette dope eh Seventeen five, couleur t-shirt woh Maman voulait pas qu'j'vends cette dope Seventeen five, repeint le t-shirt Maman voulait pas qu'j'vends cette dope Seventeen five, couleur t-shirt Maman voulait pas qu'j'vends cette dope Seventeen five, repeint le t-shirt</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Fuck, it's easy Zeg P on the track, bitch J'arrive en Fendi, gros joint d'beldi', j'suis d'humeur festive J'sais pas si j'ai toujours l'appétit, single d'or, on est montés haut Remets un whisky, t'es dans laquelle ? J'suis dans celle qui ré-ti, qui t'met à l'ouest Condés, faut v'-esqui, y a les méchants dans le Mondeo J'suis ailleurs, nouvel empire J'aimerais qu'on s'revoit mais j'suis dans mes bails Ailleurs, nouvel empire J'aimerais qu'on s'revoit mais j'suis dans mes bails J'suis plus dans ça, oublie-moi Oublie-moi J'cogite tout sul tard le soir Tard le soir After, villa, Pays-Bas Villa, Pays-Bas J'suis trop dans ça au final Au final J'arriv en Gucci, toujours un outil, on fait les boutiques Combien ça gaspille ? J'sais plus si c'est moi dans la vidéo Dans la vidéo J'repars au Mexique, niquer la caisse, aller-retour à l'ouest Paris v'-esqui j'prends un llet-bi, change la météo La météo You might also like J'suis ailleurs, nouvel empire J'aimerais qu'on s'revoit mais j'suis dans mes bails Ailleurs, nouvel empire J'aimerais qu'on s'revoit mais j'suis dans mes bails J'suis plus dans ça, oublie-moi Oublie-moi J'cogite tout seul tard le soir Tard le soir After, villa, Pays-Bas Villa, Pays-Bas J'suis trop dans ça au final Au final J'arrive en Fendi, j'arrive en J'arrive en Gucci, Fendi J'suis d'humeur festive J'suis ailleurs, nouvel empire J'aimerais qu'on s'revoit mais j'suis dans mes bails Ailleurs, nouvel empire J'aimerais qu'on s'revoit mais j'suis dans mes bails</t>
+          <t>Fuck, it's easy Zeg P on the track, bitch J'arrive en Fendi, gros joint d'beldi', j'suis d'humeur festive J'sais pas si j'ai toujours l'appétit, single d'or, on est montés haut Remets un whisky, t'es dans laquelle ? J'suis dans celle qui ré-ti, qui t'met à l'ouest Condés, faut v'-esqui, y a les méchants dans le Mondeo J'suis ailleurs, nouvel empire J'aimerais qu'on s'revoit mais j'suis dans mes bails Ailleurs, nouvel empire J'aimerais qu'on s'revoit mais j'suis dans mes bails J'suis plus dans ça, oublie-moi Oublie-moi J'cogite tout sul tard le soir Tard le soir After, villa, Pays-Bas Villa, Pays-Bas J'suis trop dans ça au final Au final J'arriv en Gucci, toujours un outil, on fait les boutiques Combien ça gaspille ? J'sais plus si c'est moi dans la vidéo Dans la vidéo J'repars au Mexique, niquer la caisse, aller-retour à l'ouest Paris v'-esqui j'prends un llet-bi, change la météo La météo J'suis ailleurs, nouvel empire J'aimerais qu'on s'revoit mais j'suis dans mes bails Ailleurs, nouvel empire J'aimerais qu'on s'revoit mais j'suis dans mes bails J'suis plus dans ça, oublie-moi Oublie-moi J'cogite tout seul tard le soir Tard le soir After, villa, Pays-Bas Villa, Pays-Bas J'suis trop dans ça au final Au final J'arrive en Fendi, j'arrive en J'arrive en Gucci, Fendi J'suis d'humeur festive J'suis ailleurs, nouvel empire J'aimerais qu'on s'revoit mais j'suis dans mes bails Ailleurs, nouvel empire J'aimerais qu'on s'revoit mais j'suis dans mes bails</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Booska-baffade, hé, grammes de salade, ok, hé Booska-baffade, grammes de salade, j'roule un petit avant la bouffade Dernier défenseur sur lterrain, le tartineur fait des parades Brigade zehef dans les parages, Booska-Rue d'Aershot c'est salace Salope, tu khalasses on sarrache, Booska-Medellin en pagaille J'organise une maxi-baisade C'est un pétage barrage, blocage, d'mande à Douhi, y a pas d'garage Deux mecs très sombres dans une rue calme, attention ton vu-ca Combien d'kichta sous la kipa d'mon avocat ? Khapta, zginga, dépôt, re-shta, y a d'la pe-do made in me-da skch, skch Tour du million, filon, pilon, 2019 on distribue Sachets, re-pu reçue, revue, me-je, ne-jeû cest des bes-tu Heuss Lenfoiré, gue-dro vendue Bandits des cités entendus, étudie, on est détendus skch, skch, skch, skch 92, Haut-de-Seine, le compte-rendu, cité, cartel, malentendu Poucave, balance, donneuse vendue, perquis' matin, maman tendue Booska-Baffat, cest léger Heuss L'enfoiré bande d'enfoirés, skch, skch, skch, skch, skch, skch You might also like Dans la rue, tu sais c'quon voit que des RS4 dans l'convoi Je sais que t'es sans voix quand j't'envoie des track J't'éclate, tu craques, tu t'frappes la tête quand j'passe, dégage d'la voie J'ai des putain de rimes et flows séquencés, les moments pour t'sauter, on sait quand c'est Un feat et ta carrière est relancée mais si j't'enterre, faudra y renoncer Damso me dit Encule-les, niquage de mère sans reculer Bah ouais, j'suis rancunier, fils de pute, Quand t'as le seum, frère, il faut cogner Matonge gang J'suis dans le onze de Booska-P, attaquant de pointe comme Mbappé Matonge gang À Bruxelles, c'est moi l'rescapé, j'monte dans le bolide, toi, reste à pied 12-10 gang L'amitié fane, devant aucune arme, je n'verse de larme, sale fils de pute J'écoule ma came, cinquante le gramme, qu'importe le gramme, c'est l'biff le but Apparemment, ça braque et vend, y a des gens adhérant, ça les rend carrément aberrant T'es reconnu localement, ça roule en loc' allemande et ça fait des Les flingues sont étanchés, mes gens sont étrangers, j'suis bon qu'à trancher des gorges dans les tranchées Donc pourquoi et chica pour me venger ? J'n'ai qu'un échantillon du seum qu'j'ai engrangé 2019 c'est moi, 2019 c'est noir 2019 c'est moi, 2019 c'est noir Kikesa, nouveau hippie gang J'ai le logo de P sur mon textile, j'comprends pas trop pourquoi tu t'excites Pour moi, le fait que tu existes ne change pas grand chose comme le Brexit J'avoue, t'as très peu d'chance, hélas, j'vais te pister sans cher-lâ J'vais te fister pendant qu'papa est pas là comme Angela J'vais tout graille comme Mélissandre, j'écris depuis qu'j'ai dix ans J'vais m'appliquer vu qu'j'ai du temps, mes textes s'ront noirs comme Éric Blanc J'ai fini les DDH, désormais, j'me couche tôt, j'ai fait des millions d'vues mais on est toujours tous pauvres Faut qu'j'prenne de la fraîche, que j'perde de la graisse Tu connais mon adresse j'suis Antetokoumpo J'ai fait cinquante-deux musiques en cinquante-deux s'maines J'arrêterai certainement ça quand je s'rai mort Mmmh, coucou maman, je t'aime Je passe à la télé entre deux scènes T'as compris ? J'ai taffé toute l'année pendant qu'les autres ont tous stagné J'ai mis Nancy sur la carte de France et mon bandana préféré sur Booska-P J'suis au courant qu'je les foudroie, j'ai gagné toutes les manches du tournoi Plage 80, c'est tout droit, 2019, c'est pour moi Bisous Fils de pute, pourquoi tu m'regardes bizarre ? J'vais t'abîmer l'visage J'suis dans l'truc, anus que t'envisages, c'est moi la mort au virage Un soir de plus sous flash de vodka J'finis les oints-j, j'm'occupe de votre cas J'suis sur Booska, j'le fais sans pote-ca Juste un Toka', ils dansent la polka pa-pa-pa-pa Police, talkie, 1.8.7 est le code J'les faisais galoper leurs mères à l'école Chérie té-mon, série 7 est le Golf Choisissez mon sexe ou le Glock dans la glotte J'vais vous dire c'qui m'attriste c'est qu'les meufs de Maastricht dans le cul j'en ai plein dans Matrix Tes rappeurs les actrices sont dans l'idolâtrie sur la rue de Madrid On trime dans l'crime depuis des années Trahi, j'ai dû faire l'tri dans mes amis On traîne entre hommes, on est pas naïf On viendra t'faire l'jour de ton anniv' Plus le même depuis ta naissance, Sofia Un peu moins violent, un peu plus sociable Eux, ils veulent faire la mafia Mais wAllah, en affaire, ils sont pas fiables Dans la vie, ils veulent tout snapper Quand on veut s'taper, ils veulent tous la paix 9 milli', y a pas d'rescapé 2019, c'est moi sur Booska-P Zikxo, en putain d'cinq lettres Retiens, cousin, j'suis l'opposé d'ceux qui font la starlette Paire de Requins pour m'installer, et j'écoute comme chuchote l'instinct Équipe en Décathlon, en coste-La pour braquer l'instant Y avait du bois sur ma route mais j'ai pas freiné quand même, j'étais détèr' au cas où, fallait rejoindre les comètes Tout est volé dans l'camion mais à bord, personne s'y connaît On oublie tous les KO, les tempêtes, les raclées qu'on met M'serre pas la main, t'es comme eux, beaucoup d'écarts on commet décoller, p'tit métisse de gare aux commandes 2.0.1.9., tu sais qu'c'est pour le Z, j'vise la boule à Z d'un keuf qui nous empêchera d'prendre de l'oseille Rodave ma gueule sur Booska-P, les mecs de Bondy tous palpés J'ai les gyrophares en traître, si j'crève, j'finis la course à pied Reste à ta place, faut pas ler-par, au départ, on y croyait pas On est r'passés par les bases, on décale, on renvoie les tass On trépasse, où t'es passé dis-moi, ils s'cassent tous tes gars sûr Mec du 93 dédicacé, savoure la vengeance déclassée Tous ces lâches sont dépassés, nous, sur les parts de-spi placé ZIKN sur l'cahier, venu pour marquer tout un siècle</t>
+          <t>Booska-baffade, hé, grammes de salade, ok, hé Booska-baffade, grammes de salade, j'roule un petit avant la bouffade Dernier défenseur sur lterrain, le tartineur fait des parades Brigade zehef dans les parages, Booska-Rue d'Aershot c'est salace Salope, tu khalasses on sarrache, Booska-Medellin en pagaille J'organise une maxi-baisade C'est un pétage barrage, blocage, d'mande à Douhi, y a pas d'garage Deux mecs très sombres dans une rue calme, attention ton vu-ca Combien d'kichta sous la kipa d'mon avocat ? Khapta, zginga, dépôt, re-shta, y a d'la pe-do made in me-da skch, skch Tour du million, filon, pilon, 2019 on distribue Sachets, re-pu reçue, revue, me-je, ne-jeû cest des bes-tu Heuss Lenfoiré, gue-dro vendue Bandits des cités entendus, étudie, on est détendus skch, skch, skch, skch 92, Haut-de-Seine, le compte-rendu, cité, cartel, malentendu Poucave, balance, donneuse vendue, perquis' matin, maman tendue Booska-Baffat, cest léger Heuss L'enfoiré bande d'enfoirés, skch, skch, skch, skch, skch, skch Dans la rue, tu sais c'quon voit que des RS4 dans l'convoi Je sais que t'es sans voix quand j't'envoie des track J't'éclate, tu craques, tu t'frappes la tête quand j'passe, dégage d'la voie J'ai des putain de rimes et flows séquencés, les moments pour t'sauter, on sait quand c'est Un feat et ta carrière est relancée mais si j't'enterre, faudra y renoncer Damso me dit Encule-les, niquage de mère sans reculer Bah ouais, j'suis rancunier, fils de pute, Quand t'as le seum, frère, il faut cogner Matonge gang J'suis dans le onze de Booska-P, attaquant de pointe comme Mbappé Matonge gang À Bruxelles, c'est moi l'rescapé, j'monte dans le bolide, toi, reste à pied 12-10 gang L'amitié fane, devant aucune arme, je n'verse de larme, sale fils de pute J'écoule ma came, cinquante le gramme, qu'importe le gramme, c'est l'biff le but Apparemment, ça braque et vend, y a des gens adhérant, ça les rend carrément aberrant T'es reconnu localement, ça roule en loc' allemande et ça fait des Les flingues sont étanchés, mes gens sont étrangers, j'suis bon qu'à trancher des gorges dans les tranchées Donc pourquoi et chica pour me venger ? J'n'ai qu'un échantillon du seum qu'j'ai engrangé 2019 c'est moi, 2019 c'est noir 2019 c'est moi, 2019 c'est noir Kikesa, nouveau hippie gang J'ai le logo de P sur mon textile, j'comprends pas trop pourquoi tu t'excites Pour moi, le fait que tu existes ne change pas grand chose comme le Brexit J'avoue, t'as très peu d'chance, hélas, j'vais te pister sans cher-lâ J'vais te fister pendant qu'papa est pas là comme Angela J'vais tout graille comme Mélissandre, j'écris depuis qu'j'ai dix ans J'vais m'appliquer vu qu'j'ai du temps, mes textes s'ront noirs comme Éric Blanc J'ai fini les DDH, désormais, j'me couche tôt, j'ai fait des millions d'vues mais on est toujours tous pauvres Faut qu'j'prenne de la fraîche, que j'perde de la graisse Tu connais mon adresse j'suis Antetokoumpo J'ai fait cinquante-deux musiques en cinquante-deux s'maines J'arrêterai certainement ça quand je s'rai mort Mmmh, coucou maman, je t'aime Je passe à la télé entre deux scènes T'as compris ? J'ai taffé toute l'année pendant qu'les autres ont tous stagné J'ai mis Nancy sur la carte de France et mon bandana préféré sur Booska-P J'suis au courant qu'je les foudroie, j'ai gagné toutes les manches du tournoi Plage 80, c'est tout droit, 2019, c'est pour moi Bisous Fils de pute, pourquoi tu m'regardes bizarre ? J'vais t'abîmer l'visage J'suis dans l'truc, anus que t'envisages, c'est moi la mort au virage Un soir de plus sous flash de vodka J'finis les oints-j, j'm'occupe de votre cas J'suis sur Booska, j'le fais sans pote-ca Juste un Toka', ils dansent la polka pa-pa-pa-pa Police, talkie, 1.8.7 est le code J'les faisais galoper leurs mères à l'école Chérie té-mon, série 7 est le Golf Choisissez mon sexe ou le Glock dans la glotte J'vais vous dire c'qui m'attriste c'est qu'les meufs de Maastricht dans le cul j'en ai plein dans Matrix Tes rappeurs les actrices sont dans l'idolâtrie sur la rue de Madrid On trime dans l'crime depuis des années Trahi, j'ai dû faire l'tri dans mes amis On traîne entre hommes, on est pas naïf On viendra t'faire l'jour de ton anniv' Plus le même depuis ta naissance, Sofia Un peu moins violent, un peu plus sociable Eux, ils veulent faire la mafia Mais wAllah, en affaire, ils sont pas fiables Dans la vie, ils veulent tout snapper Quand on veut s'taper, ils veulent tous la paix 9 milli', y a pas d'rescapé 2019, c'est moi sur Booska-P Zikxo, en putain d'cinq lettres Retiens, cousin, j'suis l'opposé d'ceux qui font la starlette Paire de Requins pour m'installer, et j'écoute comme chuchote l'instinct Équipe en Décathlon, en coste-La pour braquer l'instant Y avait du bois sur ma route mais j'ai pas freiné quand même, j'étais détèr' au cas où, fallait rejoindre les comètes Tout est volé dans l'camion mais à bord, personne s'y connaît On oublie tous les KO, les tempêtes, les raclées qu'on met M'serre pas la main, t'es comme eux, beaucoup d'écarts on commet décoller, p'tit métisse de gare aux commandes 2.0.1.9., tu sais qu'c'est pour le Z, j'vise la boule à Z d'un keuf qui nous empêchera d'prendre de l'oseille Rodave ma gueule sur Booska-P, les mecs de Bondy tous palpés J'ai les gyrophares en traître, si j'crève, j'finis la course à pied Reste à ta place, faut pas ler-par, au départ, on y croyait pas On est r'passés par les bases, on décale, on renvoie les tass On trépasse, où t'es passé dis-moi, ils s'cassent tous tes gars sûr Mec du 93 dédicacé, savoure la vengeance déclassée Tous ces lâches sont dépassés, nous, sur les parts de-spi placé ZIKN sur l'cahier, venu pour marquer tout un siècle</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Ze-Zeg P on the track beat 45.0.37, Get 27 Avec les mecs du cent moins sept, on comptait la recette 45.0.37, Get 27 Avec les mecs du cent moins sept, on comptait la recette Ça, ça va, j'tiens l'coup, sin-cou, encore un sale coup Le chien d'la stup', c'fils de pute, fait des saltos dans la salle d'eau J'suis squé-ma dans les toilettes du McDo' Envoie un charo, j'sais pas, qui fait semblant, qui fait l'char-clo Si si, poto, y a du te-shi, coca' et d'la matiti Batistuta, Roberto Carlos, oublie pas Maldini L rap, c'est magnifique, ça rappe pour du fric t des filles faciles Un gros charo comme moi, la tête de tata, c'est tout c'qui m'fascine Plata, plata, nouvelle saga, wAllah qu'on les assassine En esprit double platine, j'ai toujours pas changé ma team Raga, couscous, dagatine En esprit double platine et j'ai même pas changé ma team Bébé, c'est vrai qu'j'ai pas l'time, mais dis pas que j'ai pas d'âme À la base, j'ai pas d'madame, j'suis un charo du macadam 'dam, 'dam You might also like 45.0.37, Get 27 Avec les mecs du cent moins sept, on comptait la recette 45.0.37, Get 27 Avec les mecs du cent moins sept, on comptait la recette Ça, ça va, j'tiens l'coup, sin-cou, encore un sale coup Le chien d'la stup', c'fils de pute, fait des saltos dans la salle d'eau J'suis squé-ma dans les toilettes du McDo' Envoie un charo, j'sais pas, qui fait semblant, qui fait l'char-clo J'sais pas, si ça marche pas, t'auras qu'à faire la pute comme Zahia Tu peux chanter jusqu'à demain, tu seras jamais Aya J'écoute du Barry White à fond, des fois, j'écoute du IAM J'pars en couilles, c'est ça qu'ils disent Le succès, ça rend malade Que des scalapes sur scalapes, des kilos de patates Tu m'crois pas, viens sur Paname, c'est tonton qui paie la balade J'te baise chez oi-t, chez tata, où tu veux, même à la baraque J'représente Valenciennes, Marseille, Roubaix, Toulouse et Paname Paname, Paname 45.0.37, Get 27 Avec les mecs du cent moins sept, on comptait la recette 45.0.37, Get 27 Avec les mecs du cent moins sept, on comptait la recette Ça, ça va, j'tiens l'coup, sin-cou, encore un sale coup Le chien d'la stup', c'fils de pute, fait des saltos dans la salle d'eau J'suis squé-ma dans les toilettes du McDo' Envoie un charo, j'sais pas, qui fait semblant, qui fait l'char-clo Si si, poto, y a du te-shi, coca' et d'la matiti Batistuta, Roberto Carlos, oublie pas Maldini Maldini, Maldini</t>
+          <t>Ze-Zeg P on the track beat 45.0.37, Get 27 Avec les mecs du cent moins sept, on comptait la recette 45.0.37, Get 27 Avec les mecs du cent moins sept, on comptait la recette Ça, ça va, j'tiens l'coup, sin-cou, encore un sale coup Le chien d'la stup', c'fils de pute, fait des saltos dans la salle d'eau J'suis squé-ma dans les toilettes du McDo' Envoie un charo, j'sais pas, qui fait semblant, qui fait l'char-clo Si si, poto, y a du te-shi, coca' et d'la matiti Batistuta, Roberto Carlos, oublie pas Maldini L rap, c'est magnifique, ça rappe pour du fric t des filles faciles Un gros charo comme moi, la tête de tata, c'est tout c'qui m'fascine Plata, plata, nouvelle saga, wAllah qu'on les assassine En esprit double platine, j'ai toujours pas changé ma team Raga, couscous, dagatine En esprit double platine et j'ai même pas changé ma team Bébé, c'est vrai qu'j'ai pas l'time, mais dis pas que j'ai pas d'âme À la base, j'ai pas d'madame, j'suis un charo du macadam 'dam, 'dam 45.0.37, Get 27 Avec les mecs du cent moins sept, on comptait la recette 45.0.37, Get 27 Avec les mecs du cent moins sept, on comptait la recette Ça, ça va, j'tiens l'coup, sin-cou, encore un sale coup Le chien d'la stup', c'fils de pute, fait des saltos dans la salle d'eau J'suis squé-ma dans les toilettes du McDo' Envoie un charo, j'sais pas, qui fait semblant, qui fait l'char-clo J'sais pas, si ça marche pas, t'auras qu'à faire la pute comme Zahia Tu peux chanter jusqu'à demain, tu seras jamais Aya J'écoute du Barry White à fond, des fois, j'écoute du IAM J'pars en couilles, c'est ça qu'ils disent Le succès, ça rend malade Que des scalapes sur scalapes, des kilos de patates Tu m'crois pas, viens sur Paname, c'est tonton qui paie la balade J'te baise chez oi-t, chez tata, où tu veux, même à la baraque J'représente Valenciennes, Marseille, Roubaix, Toulouse et Paname Paname, Paname 45.0.37, Get 27 Avec les mecs du cent moins sept, on comptait la recette 45.0.37, Get 27 Avec les mecs du cent moins sept, on comptait la recette Ça, ça va, j'tiens l'coup, sin-cou, encore un sale coup Le chien d'la stup', c'fils de pute, fait des saltos dans la salle d'eau J'suis squé-ma dans les toilettes du McDo' Envoie un charo, j'sais pas, qui fait semblant, qui fait l'char-clo Si si, poto, y a du te-shi, coca' et d'la matiti Batistuta, Roberto Carlos, oublie pas Maldini Maldini, Maldini</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>AWA the mafia, my nigga Skich, skich, skich J'me lève à midi, gros, y a personne qui déjeune Té-ma nos gueules, mon cousin, jsuis pas tout jeune Quand j'ai la dalle, c'est là que jvois qu'j'suis tout seul Les carottes sont cuites, tous les billets sont purple La maxi kich' ne rentre pas dans le portefeuille J'embrasse les jaloux, tous les envieux qui portent l'il 92, Sablière, van Nistelrooy On v'-esqui la police, la fouille ministérielle Tu vux passer pper-cho, t'es n manque de pesos Cotise avec tes soss, monte une maxi assoc La moumou, Sinatra, Francky, Sinaloa Sinaloa Y a que des piranhas, serpents de Tijuana Ram-pam-pam-pam Ram-pam-pam Ram-pam-pam-pam du Gucci, Versace, Gucci, Versace Ram-pam-pam khapta bien corsée, jvais rentrer à pied Ram-pam-pam-pam You might also like Heuss L'enfoiré, bande denfoirés, j't'avais déjà dit, c'est carré ram-pam-pam On fait du bruit dans la soirée, cest impossible de foirer ram-pam-pam-pam J'suis trop filoché pour te fiancer pour te fiancer J'suis dans l'Kanye West, Jay-Z, Beyonce Ram-pam-pam-pam Ram-pam-pam Ram-pam-pam-pam du Gucci, Versace, Gucci, Versace Ram-pam-pam khapta bien corsée, j'vais rentrer à pied Ram-pam-pam-pam Ramène des meujs pour tous les nes-jeu Y a des charos qui s'font pousser les cheveux J'embrasse mon neveu, Gucci, Versace, et tout est fe-neu Viens pas en showcase ou tu perds ta fe-meu J'fais crisser les pneugeuh, même quand il pleugeuh Ouais, j'suis sous beugeuh, j'suis dans le buggy J'passe sur TF1, ça régale Nagui Ram-pam-pam-pam Ram-pam-pam Ram-pam-pam-pam du Gucci, Versace, Gucci, Versace Ram-pam-pam khapta bien corsée, j'vais rentrer à pied Ram-pam-pam-pam Ram-pam-pam-pam Ram-pam-pam-pam</t>
+          <t>AWA the mafia, my nigga Skich, skich, skich J'me lève à midi, gros, y a personne qui déjeune Té-ma nos gueules, mon cousin, jsuis pas tout jeune Quand j'ai la dalle, c'est là que jvois qu'j'suis tout seul Les carottes sont cuites, tous les billets sont purple La maxi kich' ne rentre pas dans le portefeuille J'embrasse les jaloux, tous les envieux qui portent l'il 92, Sablière, van Nistelrooy On v'-esqui la police, la fouille ministérielle Tu vux passer pper-cho, t'es n manque de pesos Cotise avec tes soss, monte une maxi assoc La moumou, Sinatra, Francky, Sinaloa Sinaloa Y a que des piranhas, serpents de Tijuana Ram-pam-pam-pam Ram-pam-pam Ram-pam-pam-pam du Gucci, Versace, Gucci, Versace Ram-pam-pam khapta bien corsée, jvais rentrer à pied Ram-pam-pam-pam Heuss L'enfoiré, bande denfoirés, j't'avais déjà dit, c'est carré ram-pam-pam On fait du bruit dans la soirée, cest impossible de foirer ram-pam-pam-pam J'suis trop filoché pour te fiancer pour te fiancer J'suis dans l'Kanye West, Jay-Z, Beyonce Ram-pam-pam-pam Ram-pam-pam Ram-pam-pam-pam du Gucci, Versace, Gucci, Versace Ram-pam-pam khapta bien corsée, j'vais rentrer à pied Ram-pam-pam-pam Ramène des meujs pour tous les nes-jeu Y a des charos qui s'font pousser les cheveux J'embrasse mon neveu, Gucci, Versace, et tout est fe-neu Viens pas en showcase ou tu perds ta fe-meu J'fais crisser les pneugeuh, même quand il pleugeuh Ouais, j'suis sous beugeuh, j'suis dans le buggy J'passe sur TF1, ça régale Nagui Ram-pam-pam-pam Ram-pam-pam Ram-pam-pam-pam du Gucci, Versace, Gucci, Versace Ram-pam-pam khapta bien corsée, j'vais rentrer à pied Ram-pam-pam-pam Ram-pam-pam-pam Ram-pam-pam-pam</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>EN COURS DE RETRANSCRIPTION Là, c'est Heuslaga ouais, c'est la moulaga ouais Que des têtes de casseurs qui vendent la Là, c'est Heuslaga uh, ouais, c'est la moumou poh, poh C'est pas des traficante, eux, c'est des nounous Là, c'est Heuslaga waow, c'est la moulaga poh Que des têtes de casseurs qui vendent la poh Là, c'est Heuslaga ouais, ouais, c'est la moumou ouais C'est pas des traficante, eux, c'est des nounous Mon équipe de charos ouais, p'tite sacoche à carreaux no On remet tout à zéro ouais pour payer le tarot Pisté par Navarro wouh, des fois, j'suis trop paro Avec l'argent d'la musique, on a sauvé la daronne J'ai remis mes lacets, j'suis sorti relaxé J'ai dû tout khalasser, tous les dédicacer T'sais même pas c'qu'on a fait, tout c'qu'on a ramassé Là, c'est une bombe latine, j'vais la désamorcer Là, c'est Heuslaga ouais, c'est la moulaga ouais Que des têtes de casseurs qui vendent la Là, c'est Heuslaga uh, ouais, c'est la moumou poh, poh C'est pas des traficante, eux, c'est des nounous Là, c'est Heuslaga waow, c'est la moulaga poh Que des têtes de casseurs qui vendent la poh Là, c'est Heuslaga ouais, ouais, c'est la moumou ouais C'est pas des traficante, eux, c'est des nounous You might also like Tu sais bien qu'on est au culot, c'est la moula, j'bois au goulot Vafaculo, j'vais le boulot, j'traîne avec et Dans la boîte avec les moulas, rotte-ca à la Marco Mouly J'ai rendez-vous avec , c'est ma jolie qui a le colis C'est ma jolie qui l'a, c'est ma jolie qui l'fait Elle roule sur la Costa Brava toute la noche C'est ma jolie qui l'a, c'est ma jolie qui l'fait Elle a déjà benda Paris-Guadaloupe Là, c'est Heuslaga ouais, c'est la moulaga ouais Que des têtes de casseurs qui vendent la Là, c'est Heuslaga uh, ouais, c'est la moumou poh, poh C'est pas des traficante, eux, c'est des nounous Là, c'est Heuslaga waow, c'est la moulaga poh Que des têtes de casseurs qui vendent la poh Là, c'est Heuslaga ouais, ouais, c'est la moumou ouais C'est pas des traficante, eux, c'est des nounous</t>
+          <t>EN COURS DE RETRANSCRIPTION Là, c'est Heuslaga ouais, c'est la moulaga ouais Que des têtes de casseurs qui vendent la Là, c'est Heuslaga uh, ouais, c'est la moumou poh, poh C'est pas des traficante, eux, c'est des nounous Là, c'est Heuslaga waow, c'est la moulaga poh Que des têtes de casseurs qui vendent la poh Là, c'est Heuslaga ouais, ouais, c'est la moumou ouais C'est pas des traficante, eux, c'est des nounous Mon équipe de charos ouais, p'tite sacoche à carreaux no On remet tout à zéro ouais pour payer le tarot Pisté par Navarro wouh, des fois, j'suis trop paro Avec l'argent d'la musique, on a sauvé la daronne J'ai remis mes lacets, j'suis sorti relaxé J'ai dû tout khalasser, tous les dédicacer T'sais même pas c'qu'on a fait, tout c'qu'on a ramassé Là, c'est une bombe latine, j'vais la désamorcer Là, c'est Heuslaga ouais, c'est la moulaga ouais Que des têtes de casseurs qui vendent la Là, c'est Heuslaga uh, ouais, c'est la moumou poh, poh C'est pas des traficante, eux, c'est des nounous Là, c'est Heuslaga waow, c'est la moulaga poh Que des têtes de casseurs qui vendent la poh Là, c'est Heuslaga ouais, ouais, c'est la moumou ouais C'est pas des traficante, eux, c'est des nounous Tu sais bien qu'on est au culot, c'est la moula, j'bois au goulot Vafaculo, j'vais le boulot, j'traîne avec et Dans la boîte avec les moulas, rotte-ca à la Marco Mouly J'ai rendez-vous avec , c'est ma jolie qui a le colis C'est ma jolie qui l'a, c'est ma jolie qui l'fait Elle roule sur la Costa Brava toute la noche C'est ma jolie qui l'a, c'est ma jolie qui l'fait Elle a déjà benda Paris-Guadaloupe Là, c'est Heuslaga ouais, c'est la moulaga ouais Que des têtes de casseurs qui vendent la Là, c'est Heuslaga uh, ouais, c'est la moumou poh, poh C'est pas des traficante, eux, c'est des nounous Là, c'est Heuslaga waow, c'est la moulaga poh Que des têtes de casseurs qui vendent la poh Là, c'est Heuslaga ouais, ouais, c'est la moumou ouais C'est pas des traficante, eux, c'est des nounous</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Y a plus d'principes dehors, ça t'fait la bise même si t'es une poucave Parce que tas des sous Faut qu'j'sois plus sérieux et qu'j'envoie des sons J'te l'ai déjà dit tout est noir mule ou dans l'cannasson Nafaz Beats C'est chacun sa part, chacun à sa place, masqué comme Banderas Top départ, y a quatre cents Tornado sous l'capot, jusqu'à Figueras Le cur fait de glace, c'est soit on passe l'éponge ou bien on t'efface Ça bosse comme le boss, RS4 dans le box 59.7.7, en bas du bloc, là, j'vois qu des tox' Des bandits, des ints-cli, des grossistes de stup' dans ma zone J'vois tous les p'tits d'ma tess sous protoxyde d'azote Et va la faire à d'autres, j'casse la SIM, 213, audition chez la crim' Algérien de Constantine, numéro d'écrou noté sur l'bon d'cantine Pas le même vécu, pas la même sécu', c'est pour ça djane ma ces go Ici, personne n'est pistonné, j'rentre chez toi, dans l'hanout avec un pistolet Ouais, c'est démodé, comme le PGP, comme un RS3 à Marbella plaqué polonais Cheval de Troie monte étalonné, N.Y.M.A sur la plaquette, c'est tamponné You might also like J'suis comme le boss, j'crois bien qu'j'me la pète J'mets pas d'capote, des fois, c'est la fête C'est pas ma faute si y a des putes qui mènent des enquêtes sur mes cotes Sur un yacht avec Ze Pek' mais pas sur la côte Au Mexique avec ta pute, on s'fait la Y a du rhum et d'la vodka, Jack Daniel J'suis pas fidèle, j'suis pas Faudel, on finit à l'hôtel Si c'est complet, j'te baise dans l'escalier ou bien l'Opel J'suis en mode Che Gue', rapide , appelle naoufen Tu pensais que j'faisais l'amoureux dans le Sofitel J't'ai donné ma bite, bienvenue sur la Tour Eiffel Mets-la pas sur Beurre FM parce que j'ai la flemme Dieu merci, j'ai la clim', j'ai aussi la fibre Lis un livre le Coran, la Torah ou la Bible Visionne les lignes, lis bien c'qui est écrit Remplis-moi bien l'sac et dis J'aime Jésus-Christ À la base, c'était pas écrit dans le manuscrit Comme la taule pour Brahim et mon gars Sbarosky Nique sa mère 9.2.9, 43 Maroki Cassage de ppe-f', tu connais l'chemin si c'est 96 Pour faire du sale, pas b'soin d'écrire plus d'quatre-vingts seizes Quatre-vingts zen coupés au kérosène, tard le zen ou élisene Cour d'Assisses, tout ça sans indice À la mosquée, le salafiste, c'est p't-être un indic Demi-tour, Berlingo Scénic Dans la cour, les poucaves, on nique, dans la tour, la gue-dro s'débite Sensation piquante, transaction, savon d'Alicante Grosses coupures quand ça fait les comptes Grosse bavure quand ça fait les cons Posé dans ma tess, le pied sur la , le billet m'apaise Buenos Aires, marqué comme Tevez, rentable comme tes fesses Dans l'appart' des Apes, j'fais que des mapess Des putes qui m'appellent, y a encore qui m'font des rappels Soixante mois fermes, ouais, c'est ça ma peine, tout ça, c'est réel Ouais, ma belle, j'compte ma paie et j'te baise à l'hôtel Et j'éteins mon tél' 59, Nord-Pas-de-Calais Arrêtez d'chanter, arrêtez d'parler, B.A.C Sur la , j'ressers mes Faut t'mettre à la page le Zodiac décharge sur la plage Change de livre, ne tourne pas la page Tu peux tout perdre du jour au lendemain Moi, j'demande à Dieu, Non non Malaga gère-moi ça là-bas comme un homme de main J'te rappe ma vie d'vant la caméra, j'la scénarise Bâti' Nord, que des scènes à risques Ramène un RS6 que j'la brutaliste Du shit des montagnes du Rif et d'la pure du Tenerife Le trajet, je schématise Ouais, j'me mets à tise quand j'suis chez Mathis Tout ça pour le biff, tout ça pour le bénéfice, si si Écoute, petit, comment j'suis précis comme un tir à Messi Savoure mon rap comme un tiramisu Rapper, c'est facile, comme tuer quelqu'un en Sicile, si si N.Y.M.A</t>
+          <t>Y a plus d'principes dehors, ça t'fait la bise même si t'es une poucave Parce que tas des sous Faut qu'j'sois plus sérieux et qu'j'envoie des sons J'te l'ai déjà dit tout est noir mule ou dans l'cannasson Nafaz Beats C'est chacun sa part, chacun à sa place, masqué comme Banderas Top départ, y a quatre cents Tornado sous l'capot, jusqu'à Figueras Le cur fait de glace, c'est soit on passe l'éponge ou bien on t'efface Ça bosse comme le boss, RS4 dans le box 59.7.7, en bas du bloc, là, j'vois qu des tox' Des bandits, des ints-cli, des grossistes de stup' dans ma zone J'vois tous les p'tits d'ma tess sous protoxyde d'azote Et va la faire à d'autres, j'casse la SIM, 213, audition chez la crim' Algérien de Constantine, numéro d'écrou noté sur l'bon d'cantine Pas le même vécu, pas la même sécu', c'est pour ça djane ma ces go Ici, personne n'est pistonné, j'rentre chez toi, dans l'hanout avec un pistolet Ouais, c'est démodé, comme le PGP, comme un RS3 à Marbella plaqué polonais Cheval de Troie monte étalonné, N.Y.M.A sur la plaquette, c'est tamponné J'suis comme le boss, j'crois bien qu'j'me la pète J'mets pas d'capote, des fois, c'est la fête C'est pas ma faute si y a des putes qui mènent des enquêtes sur mes cotes Sur un yacht avec Ze Pek' mais pas sur la côte Au Mexique avec ta pute, on s'fait la Y a du rhum et d'la vodka, Jack Daniel J'suis pas fidèle, j'suis pas Faudel, on finit à l'hôtel Si c'est complet, j'te baise dans l'escalier ou bien l'Opel J'suis en mode Che Gue', rapide , appelle naoufen Tu pensais que j'faisais l'amoureux dans le Sofitel J't'ai donné ma bite, bienvenue sur la Tour Eiffel Mets-la pas sur Beurre FM parce que j'ai la flemme Dieu merci, j'ai la clim', j'ai aussi la fibre Lis un livre le Coran, la Torah ou la Bible Visionne les lignes, lis bien c'qui est écrit Remplis-moi bien l'sac et dis J'aime Jésus-Christ À la base, c'était pas écrit dans le manuscrit Comme la taule pour Brahim et mon gars Sbarosky Nique sa mère 9.2.9, 43 Maroki Cassage de ppe-f', tu connais l'chemin si c'est 96 Pour faire du sale, pas b'soin d'écrire plus d'quatre-vingts seizes Quatre-vingts zen coupés au kérosène, tard le zen ou élisene Cour d'Assisses, tout ça sans indice À la mosquée, le salafiste, c'est p't-être un indic Demi-tour, Berlingo Scénic Dans la cour, les poucaves, on nique, dans la tour, la gue-dro s'débite Sensation piquante, transaction, savon d'Alicante Grosses coupures quand ça fait les comptes Grosse bavure quand ça fait les cons Posé dans ma tess, le pied sur la , le billet m'apaise Buenos Aires, marqué comme Tevez, rentable comme tes fesses Dans l'appart' des Apes, j'fais que des mapess Des putes qui m'appellent, y a encore qui m'font des rappels Soixante mois fermes, ouais, c'est ça ma peine, tout ça, c'est réel Ouais, ma belle, j'compte ma paie et j'te baise à l'hôtel Et j'éteins mon tél' 59, Nord-Pas-de-Calais Arrêtez d'chanter, arrêtez d'parler, B.A.C Sur la , j'ressers mes Faut t'mettre à la page le Zodiac décharge sur la plage Change de livre, ne tourne pas la page Tu peux tout perdre du jour au lendemain Moi, j'demande à Dieu, Non non Malaga gère-moi ça là-bas comme un homme de main J'te rappe ma vie d'vant la caméra, j'la scénarise Bâti' Nord, que des scènes à risques Ramène un RS6 que j'la brutaliste Du shit des montagnes du Rif et d'la pure du Tenerife Le trajet, je schématise Ouais, j'me mets à tise quand j'suis chez Mathis Tout ça pour le biff, tout ça pour le bénéfice, si si Écoute, petit, comment j'suis précis comme un tir à Messi Savoure mon rap comme un tiramisu Rapper, c'est facile, comme tuer quelqu'un en Sicile, si si N.Y.M.A</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Chef d'orchestre volume 1, c'est pas du Philipp Plein, c'est la moula, j'ai pris du poids comme un républicain Skch Avant la vie d'Ronnie, j'ai bossé comme un mexicain, trop d'fierté, papa, j'bosserai jamais comme un p'tit chien La vie d'César ou rien, oublie pas le vin, le raisin, les tchoins et d'la résine, on aime l'argent facile, on bossera jamais à l'usine On fait d'la taule de temps à autre, les parents hallucinent, la frappe tah Medellin, des montagnes, ça vient ds Hauts-d'-Seine Le rap, c'st Formule One, les tits-pe m'appellent Räikkönen, j'veux que d'l'oseille à foison, j'm'en bats les couilles qu'tu m'aimes Ou qu'tu m'aimes pas, dans pas longtemps, j'dois benda, la khapta était stenda, la copine était sympa Eh Là, j'dois payer les impôts mais j'ai plus la vingtaine, j'dois monter dans l'bateau, récupère c'qui m'appartienne Juste pour Brigitte Bardot, j'arrête de baiser des chiennes, Bordeaux, Toulouse, Marseille, d'la région parisienne Argent, monnaie, sexe, drogue, trois mesures par hygiène, j'partirai d'ici comme Diam's, Salif, pas J'traîne avec des criminels, docteurs et des ayawns J'traîne avec des criminels, docteurs et des ayawns L'argent d'ta chatte, c'est interdit, tu manges du pain perdu, zone interdite, ça vend du shit pendant les interludes Reconnu de Fresnes à Fleury, de Nanterre à Orly, c'est illégal, six étoiles, bienvenue dans ma rue Pour ma part, j'ai fait le tour des prisons, garde-à-vue, en deux-mille seize, y avait encore la daronne au parlu C'est pour ça, chaque jour que Dieu fait, il faut qu'j'assure, wesh, coucou, salut, bien sûr, faut des sous-gou, Manny Ils s'rappellent de nous, un peu comme la Yougoslavie, tu joues au con, balle dans la tête, on t'appelle le SAMU Skch, skch Poto, qu'est-ce que tu croyais ? Tu pensais qu'la croisière s'amuse, on t'baise ta mère si t'as poucave, même si tes un frère mus' Dis pas qu'j'abuse, avant la Boulehya, tu faisais mu-muse, même pendant qu'il sait, t'façon, ici, y a qu'Dieu qui sait En attendant, tout doucement, j'enrichis que l'épicier, j'attends sagement l'ennemi avec un couteau aiguisé Heuss L'enfoiré, bande d'enfoirés De Suárez, Mahrez, James, skch, skch, skch Heuss L'enfoiré, bande d'enfoirés De Suárez, Mahrez, James, skch, skch, skchYou might also like</t>
+          <t>Chef d'orchestre volume 1, c'est pas du Philipp Plein, c'est la moula, j'ai pris du poids comme un républicain Skch Avant la vie d'Ronnie, j'ai bossé comme un mexicain, trop d'fierté, papa, j'bosserai jamais comme un p'tit chien La vie d'César ou rien, oublie pas le vin, le raisin, les tchoins et d'la résine, on aime l'argent facile, on bossera jamais à l'usine On fait d'la taule de temps à autre, les parents hallucinent, la frappe tah Medellin, des montagnes, ça vient ds Hauts-d'-Seine Le rap, c'st Formule One, les tits-pe m'appellent Räikkönen, j'veux que d'l'oseille à foison, j'm'en bats les couilles qu'tu m'aimes Ou qu'tu m'aimes pas, dans pas longtemps, j'dois benda, la khapta était stenda, la copine était sympa Eh Là, j'dois payer les impôts mais j'ai plus la vingtaine, j'dois monter dans l'bateau, récupère c'qui m'appartienne Juste pour Brigitte Bardot, j'arrête de baiser des chiennes, Bordeaux, Toulouse, Marseille, d'la région parisienne Argent, monnaie, sexe, drogue, trois mesures par hygiène, j'partirai d'ici comme Diam's, Salif, pas J'traîne avec des criminels, docteurs et des ayawns J'traîne avec des criminels, docteurs et des ayawns L'argent d'ta chatte, c'est interdit, tu manges du pain perdu, zone interdite, ça vend du shit pendant les interludes Reconnu de Fresnes à Fleury, de Nanterre à Orly, c'est illégal, six étoiles, bienvenue dans ma rue Pour ma part, j'ai fait le tour des prisons, garde-à-vue, en deux-mille seize, y avait encore la daronne au parlu C'est pour ça, chaque jour que Dieu fait, il faut qu'j'assure, wesh, coucou, salut, bien sûr, faut des sous-gou, Manny Ils s'rappellent de nous, un peu comme la Yougoslavie, tu joues au con, balle dans la tête, on t'appelle le SAMU Skch, skch Poto, qu'est-ce que tu croyais ? Tu pensais qu'la croisière s'amuse, on t'baise ta mère si t'as poucave, même si tes un frère mus' Dis pas qu'j'abuse, avant la Boulehya, tu faisais mu-muse, même pendant qu'il sait, t'façon, ici, y a qu'Dieu qui sait En attendant, tout doucement, j'enrichis que l'épicier, j'attends sagement l'ennemi avec un couteau aiguisé Heuss L'enfoiré, bande d'enfoirés De Suárez, Mahrez, James, skch, skch, skch Heuss L'enfoiré, bande d'enfoirés De Suárez, Mahrez, James, skch, skch, skch</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>16 mesures sous spliff de canna' La prochaine fois j'remets ça sur la prod de Bishop Montana J'oublie pas Tony à Fleury et Mehdi la yeuca, Mehdi la yeuca Que des vrais couplets comme le shit bien coupé dans la veuca Tah la Beussa, la Peuta, la beuh tah Meuda Rotter' ou Breda, j'suis parti la checheguère L'agamnégué elle est pagas cheguère, j'l'ai ragamenégué en 2015 J'vais graille à té-côt chez Kameguel, au Classico J'fais que des classiques, demande à Brahimko 3 heures du mat' avec Hak ou Sayko Quand on appelle Bico, j'ai un shlag au bigo On est pas des mythos Y'a peut-être ta sur dans la file d'attente Surveille ta fille, ta tante, ta femme Ils ont eu Oussama, Kadhafi, Saddam Comme d'hab' j'planifie ça, man De la Sablière jusqu'à la Banane C'est d'l'amnésia, nan c'est pas d'la locale J'te vi-ser à balle dans l'centre commercial J'te vi-ser à balle dans l'centre commercial x4 J'fume de la drogue pendant qu'j'encule la prod et la proc Pendant qu'j'encule la prod et la proc On les fuck, on les smoke dans le blunt Nique la funk et les punks You might also like H.E.U.S dollar, pour ta clique un gros molard Pour l'Afrique un XXX connard Bande de batards J'ai v'là les couplets que j'ai pas découpé Sur la vie d'ma mère que t'as rien écouté Tu veux d'la çégué, vas-y viens la gouter Le laboratoire est juste à côté 2012 j'ai né-tour pour d'la blanche à Villefranche En 2015, là j'vais prendre ma revanche Si tu veux des trucs on t'avance, on t'annonce Si tu payes pas, du toit on te balance Ici on nique les balances Qui nous envoient en taule passer nos vacances Nique sa mère à la chance, à la France Y'a les civils dans la ville et les shlags qui vomissent de la bile Villeneuve-la-Garenne et l'argent facile J'sais pas si t'imagines, on est plein comme en Chine Y'a d'la coke et du shit à la file J'sais pas si t'imagines, on est plein comme en Chine Y'a d'la coke et du shit à la file L'OPJ me soupçonne de vendre de la drogue Il sait qu'c'est la mort et qu'elle mène à la morgue On les fume, on les kill Dédicace à Many en Cisjordanie, survét' Armani x4 J'fume de la drogue pendant qu'j'encule la prod et la proc Pendant qu'j'encule la prod et la proc On les fuck, on les smoke dans le blunt Nique la funk et les punks J'encule la keuba, moi j'vends pas d'CD Mais des mmes-gra, là c'est Heusla Dis pas mon zeubla, j'ai du raisin coffré Et des grosses rrettes-ba, d'la beuh tah Meuda Demande à JB, consommateur d'amnésia S'il faut j'me barre au Tibet pour vesqui la hnoucha Ici que des mouchards, des micros dans des mouchoirs Des feukeus se faufilent comme des cafards Encore un coup d'fil, perquis' dans l'teum-appar Eh, j'oublie pas les mecs au plac' qui font gonfler les pecs J'ai reconnu la plaque, c'est pas la BAC c'est la dép' Eh, j'oublie pas les mecs au plac' qui font gonfler les pecs J'ai reconnu la plaque, c'est pas la BAC c'est la dép' x4 J'fume de la drogue pendant qu'j'encule la prod et la proc Pendant qu'j'encule la prod et la proc On les fuck, on les smoke dans le blunt Nique la funk et les punks2</t>
+          <t>16 mesures sous spliff de canna' La prochaine fois j'remets ça sur la prod de Bishop Montana J'oublie pas Tony à Fleury et Mehdi la yeuca, Mehdi la yeuca Que des vrais couplets comme le shit bien coupé dans la veuca Tah la Beussa, la Peuta, la beuh tah Meuda Rotter' ou Breda, j'suis parti la checheguère L'agamnégué elle est pagas cheguère, j'l'ai ragamenégué en 2015 J'vais graille à té-côt chez Kameguel, au Classico J'fais que des classiques, demande à Brahimko 3 heures du mat' avec Hak ou Sayko Quand on appelle Bico, j'ai un shlag au bigo On est pas des mythos Y'a peut-être ta sur dans la file d'attente Surveille ta fille, ta tante, ta femme Ils ont eu Oussama, Kadhafi, Saddam Comme d'hab' j'planifie ça, man De la Sablière jusqu'à la Banane C'est d'l'amnésia, nan c'est pas d'la locale J'te vi-ser à balle dans l'centre commercial J'te vi-ser à balle dans l'centre commercial x4 J'fume de la drogue pendant qu'j'encule la prod et la proc Pendant qu'j'encule la prod et la proc On les fuck, on les smoke dans le blunt Nique la funk et les punks H.E.U.S dollar, pour ta clique un gros molard Pour l'Afrique un XXX connard Bande de batards J'ai v'là les couplets que j'ai pas découpé Sur la vie d'ma mère que t'as rien écouté Tu veux d'la çégué, vas-y viens la gouter Le laboratoire est juste à côté 2012 j'ai né-tour pour d'la blanche à Villefranche En 2015, là j'vais prendre ma revanche Si tu veux des trucs on t'avance, on t'annonce Si tu payes pas, du toit on te balance Ici on nique les balances Qui nous envoient en taule passer nos vacances Nique sa mère à la chance, à la France Y'a les civils dans la ville et les shlags qui vomissent de la bile Villeneuve-la-Garenne et l'argent facile J'sais pas si t'imagines, on est plein comme en Chine Y'a d'la coke et du shit à la file J'sais pas si t'imagines, on est plein comme en Chine Y'a d'la coke et du shit à la file L'OPJ me soupçonne de vendre de la drogue Il sait qu'c'est la mort et qu'elle mène à la morgue On les fume, on les kill Dédicace à Many en Cisjordanie, survét' Armani x4 J'fume de la drogue pendant qu'j'encule la prod et la proc Pendant qu'j'encule la prod et la proc On les fuck, on les smoke dans le blunt Nique la funk et les punks J'encule la keuba, moi j'vends pas d'CD Mais des mmes-gra, là c'est Heusla Dis pas mon zeubla, j'ai du raisin coffré Et des grosses rrettes-ba, d'la beuh tah Meuda Demande à JB, consommateur d'amnésia S'il faut j'me barre au Tibet pour vesqui la hnoucha Ici que des mouchards, des micros dans des mouchoirs Des feukeus se faufilent comme des cafards Encore un coup d'fil, perquis' dans l'teum-appar Eh, j'oublie pas les mecs au plac' qui font gonfler les pecs J'ai reconnu la plaque, c'est pas la BAC c'est la dép' Eh, j'oublie pas les mecs au plac' qui font gonfler les pecs J'ai reconnu la plaque, c'est pas la BAC c'est la dép' x4 J'fume de la drogue pendant qu'j'encule la prod et la proc Pendant qu'j'encule la prod et la proc On les fuck, on les smoke dans le blunt Nique la funk et les punks2</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>J'suis avec Heusslaga, on fume du bon taga À Marbella, on fini chez Carette, à Ollivier Valère J'suis vers Place du Trocadéro, j'suis en bas d'un tél-hô J'vais crosser deux boloss avec Baza et l'autre Appelle Jean, j'arrive au RDV en X-ADV Juste avant, j'suis au radar d'Clichy, j'bois un TGV Sur mon poignet, j'ai une Mercedes, BMW Pour l'espèce, y a des gens spéciaux qui viennent te soulever Les vendeurs sont dans la ville, les condés n'sont pas ravis Quttes-pla coupées, paraffine, argnt sale ou paradis ? D'mande à mon sin-c', d'mande à Bilal, on a r'tourné la capitale Avec Bourbier et BKR, bécane tu vas t'faire tirer d'ssus Pa-pa-paw Aujourd'hui, c'est VLG featuring Aragon Ouais Segel au mic', j'suis côté passager dans la va-go Y a d'la gue-dro et des mes-ar en bas du lavabo À cause de John Gotti, j'suis redevenu parano Paw-paw Bébé, mi corazón, elle a touché mon cur Paw-paw Bébé, mi corazón, elle a touché mon cur Paw-paw Les condés, à six heures, c'est pire qu'un film d'horreur Bébé, mi corazón, elle a touché mon cur, eh, eh J'arrive trop vite, appelez la police Connexion toxique, drogue dure et brolique You might also like Haute couture et grosse tre-mon, on roule souvent dans des stres-mon Pas possible de faire autrement, on a toujours l'comportement Si la tain-p', elle est enceinte, bah c'est direct l'avortement Paye cash le prix du mètre carré, poto, obligé d'être carré J'écris le texte, encore défoncé, j'ai pas décuvé Paw Gros bisou à vraiment toutes ces prostituées Elle m'excite tah les fous, la meuf qui bosse aux UV Eh Dis-moi qui te baise et on te dira qui tu es Libérez Yass à Villepinte, Lafel en mandât d'dépôt Des planques, des flingues, des autos, j'vais faire la guerre aux autres Pute, faut pointer, ennemis j'en ai plein sur mes cotes Si demain, j'me fais fumer, supprimez tous mes sons Insha'Allah, j'suis encore en vie pour la partie douze J'avais une puce qui fonctionnait déjà en 2012 Y a d'la gue-dro et des mes-ar en bas du lavabo À cause de John Gotti, j'suis redevenu parano Bébé, mi corazón, elle a touché mon cur Paw-paw Bébé, mi corazón, elle a touché mon cur Paw-paw Les condés, à six heures, c'est pire qu'un film d'horreur Bébé, mi corazón, elle a touché mon cur, eh, eh J'arrive trop vite, appelez la police Connexion toxique, drogue dure et brolique J'arrive trop vite, appelez la police Connexion toxique, drogue dure et brolique Eh, Gueule d'Ange</t>
+          <t>J'suis avec Heusslaga, on fume du bon taga À Marbella, on fini chez Carette, à Ollivier Valère J'suis vers Place du Trocadéro, j'suis en bas d'un tél-hô J'vais crosser deux boloss avec Baza et l'autre Appelle Jean, j'arrive au RDV en X-ADV Juste avant, j'suis au radar d'Clichy, j'bois un TGV Sur mon poignet, j'ai une Mercedes, BMW Pour l'espèce, y a des gens spéciaux qui viennent te soulever Les vendeurs sont dans la ville, les condés n'sont pas ravis Quttes-pla coupées, paraffine, argnt sale ou paradis ? D'mande à mon sin-c', d'mande à Bilal, on a r'tourné la capitale Avec Bourbier et BKR, bécane tu vas t'faire tirer d'ssus Pa-pa-paw Aujourd'hui, c'est VLG featuring Aragon Ouais Segel au mic', j'suis côté passager dans la va-go Y a d'la gue-dro et des mes-ar en bas du lavabo À cause de John Gotti, j'suis redevenu parano Paw-paw Bébé, mi corazón, elle a touché mon cur Paw-paw Bébé, mi corazón, elle a touché mon cur Paw-paw Les condés, à six heures, c'est pire qu'un film d'horreur Bébé, mi corazón, elle a touché mon cur, eh, eh J'arrive trop vite, appelez la police Connexion toxique, drogue dure et brolique Haute couture et grosse tre-mon, on roule souvent dans des stres-mon Pas possible de faire autrement, on a toujours l'comportement Si la tain-p', elle est enceinte, bah c'est direct l'avortement Paye cash le prix du mètre carré, poto, obligé d'être carré J'écris le texte, encore défoncé, j'ai pas décuvé Paw Gros bisou à vraiment toutes ces prostituées Elle m'excite tah les fous, la meuf qui bosse aux UV Eh Dis-moi qui te baise et on te dira qui tu es Libérez Yass à Villepinte, Lafel en mandât d'dépôt Des planques, des flingues, des autos, j'vais faire la guerre aux autres Pute, faut pointer, ennemis j'en ai plein sur mes cotes Si demain, j'me fais fumer, supprimez tous mes sons Insha'Allah, j'suis encore en vie pour la partie douze J'avais une puce qui fonctionnait déjà en 2012 Y a d'la gue-dro et des mes-ar en bas du lavabo À cause de John Gotti, j'suis redevenu parano Bébé, mi corazón, elle a touché mon cur Paw-paw Bébé, mi corazón, elle a touché mon cur Paw-paw Les condés, à six heures, c'est pire qu'un film d'horreur Bébé, mi corazón, elle a touché mon cur, eh, eh J'arrive trop vite, appelez la police Connexion toxique, drogue dure et brolique J'arrive trop vite, appelez la police Connexion toxique, drogue dure et brolique Eh, Gueule d'Ange</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Oh la la, la, la, la, la Hey LSB La mala est gangx Oh la la, la, la, la, la Ouais, ouais Hey, hey, ouh T'as l'seum, t'as l'seum Hey, j'suis sapé tout en Dior woaw J'vis seul, tout seul, tu m'dois, j'suis d'vant ta porte Hey, hey, hey J'sais qu'ils sont pas contents Hey, j'ai l'papier, j'ai pas l'temps Grr J'sais qu'ils sont pas contents Grr, grr, j'ai l'papier, j'ai pas l'temps Woah Ils veulent m'imiter Hey, c'est pas la même mélo' Hey, hey Ils veulent diviser Quoi ?, c'est pas le même réseau Hey, hey J'innove, j'innove, j'innove, j'ai du flow à l'unité J'fais qu'innover Qué-blo, qué-blo, qué-blo, on a frmé l'comité Hey, eh Sont devnus ches-lou, j'étais avec eux Pah Pour eux, j'suis équipé, bah ouais, va falloir m'éviter Grr, pah Tu traînais chez nous mais t'es avec eux Bitch Tu veux être invité ? Mais toi, t'es pas d'notre unité Hey, hey, eh You might also like Fini les blèmes-pro, c'est bon, j'ai payé mes impôts Fini les blèmes-pro J'suis dans le tempo, j't'ai donné ma parole d'escroc J'suis dans le tempo C'est la moulaga, c'est la moulaga Heuss la moula, c'est la remontada, sponsorisé Prada Hey, hey Faut pas s'inquiéter, on fait d'la qualité Qualité, quali', faut pas s'inquiéter, on fait d'la qualité Qualité Hey, tu t'f'ras bombarder si t'as trop tardé, bah ouais Grr, pah, tu t'f'ras bombarder si t'as trop tardé, bah ouais Grah Oh nan, pour avancer, j'ai dû barrer pas mal de gens Pas mal de gens Depuis qu'ça chante, j'ai d'l'argent, c'est alléchant C'est alléchant J'te calcule pas, j'suis pas gentil, j'suis pas méchant J'suis pas méchant, Bitch À tout moment, tu reviens comme Didier Deschamps À l'époque, j'demandais d'la force, ils m'disaient Nan, nan, nan, nan Hey Aujourd'hui, c'est moi qui rapporte, j'fais gonfler mon compte en banque Han À l'époque, j'demandais d'la force Hey, ils m'disaient Nan, nan, nan, nan Grr, grr Aujourd'hui, c'est moi qui rapporte, j'fais gonfler mon compte en banque Pa-pa-pa-pah Sont devenus ches-lou, j'étais avec eux Hey Pour eux, j'suis équipé, bah ouais, va falloir m'éviter Hey, hey, hey Tu traînais chez nous mais t'es avec eux Han, han Tu veux être invité ? Mais toi, t'es pas d'notre unité Grah Fini les blèmes-pro, c'est bon, j'ai payé mes impôts Payé mes impôts J'suis dans le tempo, j't'ai donné ma parole d'escroc J'suis dans le tempo C'est la moulaga, c'est la moulaga Hey, hey, c'est la remontada, sponsorisé Prada Grah, grr, pah Faut pas s'inquiéter, on fait d'la qualité Qualité, quali', faut pas s'inquiéter, on fait d'la qualité Qualité, quali' Hey, tu t'f'ras bombarder si t'as trop tardé, bah ouais Grr, pah, tu t'f'ras bombarder si t'as trop tardé, bah ouais Grah Qualité, quali' La mala est gangx Qualité, quali'</t>
+          <t>Oh la la, la, la, la, la Hey LSB La mala est gangx Oh la la, la, la, la, la Ouais, ouais Hey, hey, ouh T'as l'seum, t'as l'seum Hey, j'suis sapé tout en Dior woaw J'vis seul, tout seul, tu m'dois, j'suis d'vant ta porte Hey, hey, hey J'sais qu'ils sont pas contents Hey, j'ai l'papier, j'ai pas l'temps Grr J'sais qu'ils sont pas contents Grr, grr, j'ai l'papier, j'ai pas l'temps Woah Ils veulent m'imiter Hey, c'est pas la même mélo' Hey, hey Ils veulent diviser Quoi ?, c'est pas le même réseau Hey, hey J'innove, j'innove, j'innove, j'ai du flow à l'unité J'fais qu'innover Qué-blo, qué-blo, qué-blo, on a frmé l'comité Hey, eh Sont devnus ches-lou, j'étais avec eux Pah Pour eux, j'suis équipé, bah ouais, va falloir m'éviter Grr, pah Tu traînais chez nous mais t'es avec eux Bitch Tu veux être invité ? Mais toi, t'es pas d'notre unité Hey, hey, eh Fini les blèmes-pro, c'est bon, j'ai payé mes impôts Fini les blèmes-pro J'suis dans le tempo, j't'ai donné ma parole d'escroc J'suis dans le tempo C'est la moulaga, c'est la moulaga Heuss la moula, c'est la remontada, sponsorisé Prada Hey, hey Faut pas s'inquiéter, on fait d'la qualité Qualité, quali', faut pas s'inquiéter, on fait d'la qualité Qualité Hey, tu t'f'ras bombarder si t'as trop tardé, bah ouais Grr, pah, tu t'f'ras bombarder si t'as trop tardé, bah ouais Grah Oh nan, pour avancer, j'ai dû barrer pas mal de gens Pas mal de gens Depuis qu'ça chante, j'ai d'l'argent, c'est alléchant C'est alléchant J'te calcule pas, j'suis pas gentil, j'suis pas méchant J'suis pas méchant, Bitch À tout moment, tu reviens comme Didier Deschamps À l'époque, j'demandais d'la force, ils m'disaient Nan, nan, nan, nan Hey Aujourd'hui, c'est moi qui rapporte, j'fais gonfler mon compte en banque Han À l'époque, j'demandais d'la force Hey, ils m'disaient Nan, nan, nan, nan Grr, grr Aujourd'hui, c'est moi qui rapporte, j'fais gonfler mon compte en banque Pa-pa-pa-pah Sont devenus ches-lou, j'étais avec eux Hey Pour eux, j'suis équipé, bah ouais, va falloir m'éviter Hey, hey, hey Tu traînais chez nous mais t'es avec eux Han, han Tu veux être invité ? Mais toi, t'es pas d'notre unité Grah Fini les blèmes-pro, c'est bon, j'ai payé mes impôts Payé mes impôts J'suis dans le tempo, j't'ai donné ma parole d'escroc J'suis dans le tempo C'est la moulaga, c'est la moulaga Hey, hey, c'est la remontada, sponsorisé Prada Grah, grr, pah Faut pas s'inquiéter, on fait d'la qualité Qualité, quali', faut pas s'inquiéter, on fait d'la qualité Qualité, quali' Hey, tu t'f'ras bombarder si t'as trop tardé, bah ouais Grr, pah, tu t'f'ras bombarder si t'as trop tardé, bah ouais Grah Qualité, quali' La mala est gangx Qualité, quali'</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>J'suis l'genre de mec qui rattrape son sommeil en garde à vue son sommeil en garde à vue, garde à vue Eh Eh J'suis l'genre de mec qui rattrape son sommeil en garde à vue Il m'faut d'l'oseille pour ma bouteille, mon shit et mon baveux Oui Si tu m'vois, dis rien, fais comme si tu m'avais pas vu C'est vrai qu'j'me suis déjà mangé fantôme au parlu Skch, skch J'te laisse la bosseuse, j'm'en vais baiser la patronne Ska Qu Dieu m'pardonne d'être à l'affût du pactol À l'affût La vie d'ma mère, j'aurais dû finir dans la taxe carbone Putain À croire qu'j'ai fini l'jeu mais c'est que l'troisième album Tôt ou tard, j'savais qu'mon blase résonnerait comme Bruce Lee J'espère mourir à la fin du film comme Aniki C'est interdit que j'baise un truc qui sort du Babinski Fidèle à moi-même, pourtant, j'suis pas d'ici Laisse dont le déjeuner, c'qui importe, c'est le prix du blé Le fric Les mains dans l'feu, ici-bas, c'est l'Enfer qui t'fait du pied El Pablito Tu peux t'faire enculer par un mec comme Laurent Ruquier El Pablito C'est mérité, la vérité, en vrai, faut pas s'y fier Y a d'l'argent facile, du business, ouais, ça m'intéresse Ramenez-moi les conteneurs de Buenos Aires Ramène Ta mère la pute et la police, souvent, nous reconnaissent Les Le Mercedes, Guccigui, Versacce, v'là les Rolex Gros sac Mais j'préfère le cash, sac poubelle rempliegui d'espèce Gros coffre Finir obèse comme Gérard Depardieu et Pierre Ménès Gros sac Ramène d'la boisson, d'la salope et cent grammes de G13 D'la beuh Ramène d'la boisson, d'la salope et cent grammes de G13 D'la haze J'fume la kush, que d'la ppe-f', fais d'la monnaie cash Du cash Difficile de compter, comme le cash qu'on nique à 'kech Du cash Ça, c'est la vie d'César, Diego, Mario, Morientes J'pourrais baiser la comtesse, vider le tiroir-caisse Du cash Attends, j'ai pas fini, on peut continuer Jtraine où ya à boire, où ya v'là la fumée et les prostituées Toujours à Medellín, j'suis trop bien situé Wesh Avec Bandit et les esprits, on est habitués Appelle un sicario pour la distribuer Ramène Personne veut rentrer comme si on n'avait pas d'maison Argent comptant sur un plateau pendant les quatre saisons Pah La street de rue, c'est un vrai film de cul, un film d'action À la production, c'est Marc Dorcel avec Luc Besson Un rendez-vous bres-som la nuit à Plessis-Robinson Ici, les jaloux t'font la bise quand tu montes en grade Rah Y a pas qu'ta mère la pute qui sait la transformer en crack Ouais J'sors du sol, du sous-sol, j'ai perdu la boussole Quand j'ai la dalle pour de vrai, c'est là qu'j'vois qu'j'suis tout seul J'fais parler Bruxelles, chez moi, c'est Eindhoven C'est les cités, nan, c'est pas les Seychelles Eh, joue pas au con, s'te plaît, fais pas le coup du patron Comme Estelle, Michelle et Monique dans le camion Loro Piana, Louis Vuitton, j'reviens en Décathlon Nique sa mère le maire, le marathon, le Téléthon Sa mère, fils de pute Nomade et vagabond, qui v'-esqui les balles à plomb Vrai mec du 9.2 qui bosse pour zéro patron Monte sur tous les plavons, bé-tom pas pour un marron Enfoiré, c'est la rue, j'le connais bien, ton daronYou might also like</t>
+          <t>J'suis l'genre de mec qui rattrape son sommeil en garde à vue son sommeil en garde à vue, garde à vue Eh Eh J'suis l'genre de mec qui rattrape son sommeil en garde à vue Il m'faut d'l'oseille pour ma bouteille, mon shit et mon baveux Oui Si tu m'vois, dis rien, fais comme si tu m'avais pas vu C'est vrai qu'j'me suis déjà mangé fantôme au parlu Skch, skch J'te laisse la bosseuse, j'm'en vais baiser la patronne Ska Qu Dieu m'pardonne d'être à l'affût du pactol À l'affût La vie d'ma mère, j'aurais dû finir dans la taxe carbone Putain À croire qu'j'ai fini l'jeu mais c'est que l'troisième album Tôt ou tard, j'savais qu'mon blase résonnerait comme Bruce Lee J'espère mourir à la fin du film comme Aniki C'est interdit que j'baise un truc qui sort du Babinski Fidèle à moi-même, pourtant, j'suis pas d'ici Laisse dont le déjeuner, c'qui importe, c'est le prix du blé Le fric Les mains dans l'feu, ici-bas, c'est l'Enfer qui t'fait du pied El Pablito Tu peux t'faire enculer par un mec comme Laurent Ruquier El Pablito C'est mérité, la vérité, en vrai, faut pas s'y fier Y a d'l'argent facile, du business, ouais, ça m'intéresse Ramenez-moi les conteneurs de Buenos Aires Ramène Ta mère la pute et la police, souvent, nous reconnaissent Les Le Mercedes, Guccigui, Versacce, v'là les Rolex Gros sac Mais j'préfère le cash, sac poubelle rempliegui d'espèce Gros coffre Finir obèse comme Gérard Depardieu et Pierre Ménès Gros sac Ramène d'la boisson, d'la salope et cent grammes de G13 D'la beuh Ramène d'la boisson, d'la salope et cent grammes de G13 D'la haze J'fume la kush, que d'la ppe-f', fais d'la monnaie cash Du cash Difficile de compter, comme le cash qu'on nique à 'kech Du cash Ça, c'est la vie d'César, Diego, Mario, Morientes J'pourrais baiser la comtesse, vider le tiroir-caisse Du cash Attends, j'ai pas fini, on peut continuer Jtraine où ya à boire, où ya v'là la fumée et les prostituées Toujours à Medellín, j'suis trop bien situé Wesh Avec Bandit et les esprits, on est habitués Appelle un sicario pour la distribuer Ramène Personne veut rentrer comme si on n'avait pas d'maison Argent comptant sur un plateau pendant les quatre saisons Pah La street de rue, c'est un vrai film de cul, un film d'action À la production, c'est Marc Dorcel avec Luc Besson Un rendez-vous bres-som la nuit à Plessis-Robinson Ici, les jaloux t'font la bise quand tu montes en grade Rah Y a pas qu'ta mère la pute qui sait la transformer en crack Ouais J'sors du sol, du sous-sol, j'ai perdu la boussole Quand j'ai la dalle pour de vrai, c'est là qu'j'vois qu'j'suis tout seul J'fais parler Bruxelles, chez moi, c'est Eindhoven C'est les cités, nan, c'est pas les Seychelles Eh, joue pas au con, s'te plaît, fais pas le coup du patron Comme Estelle, Michelle et Monique dans le camion Loro Piana, Louis Vuitton, j'reviens en Décathlon Nique sa mère le maire, le marathon, le Téléthon Sa mère, fils de pute Nomade et vagabond, qui v'-esqui les balles à plomb Vrai mec du 9.2 qui bosse pour zéro patron Monte sur tous les plavons, bé-tom pas pour un marron Enfoiré, c'est la rue, j'le connais bien, ton daron</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Zeg P on the track, bitch! Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Ça bibi', ça bibi' dans l'bât' à Monica Ça bibi', ça bibi' dans l'bât' à Monica Ça joue d'l'harmonica dans l'bât' à Monica Ça bibi', ça bibi' dans l'bât' à Monica Verre de Jack Honey, mais qui se connait ? Et y a cette folle, celle qui michtonne Tu connais un mec qui m'connait et ça m'étonne Il vend des tonnes, j'crois qu'il mythonne Il a la Rolex tah son collègue Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà You might also like Ça bibi', ça bibi' dans l'bât' à Monica Ça bibi', ça bibi' dans l'bât' à Monica Ça joue d'l'harmonica dans l'bât' à Monica Ça bibi', ça bibi' dans l'bât' à Monica J'suis défoncé dans le bât' à Monica Six heures du mat', j'ai v'-esqui tous les mbila Quand on arrive vite, ils demandent tous C'est qui là ? Ramène le Dom Pé', le Ruinart, la Tequila Là, c'est Heuss et Naza, la débauche, la moulaga Là, c'est Heuss et Naza, la débauche, la moulaga Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Ça bibi', ça bibi' dans l'bât' à Monica Ça bibi', ça bibi' dans l'bât' à Monica Ça joue d'l'harmonica dans l'bât' à Monica Ça bibi', ça bibi' dans l'bât' à Monica Si la khapta s'arrête, c'est qu'j'suis mort, vous le savez On revient foutre la merde et on la remet c'tt'année Si la khapta s'arrête, c'est qu'j'suis mort, vous le savez On revient foutre la merde et on la remet c'tt'année Ouais, ouais, on est en esprit vraiment, on est dans l'cartel Ouais, ouais, ouais</t>
+          <t>Zeg P on the track, bitch! Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Ça bibi', ça bibi' dans l'bât' à Monica Ça bibi', ça bibi' dans l'bât' à Monica Ça joue d'l'harmonica dans l'bât' à Monica Ça bibi', ça bibi' dans l'bât' à Monica Verre de Jack Honey, mais qui se connait ? Et y a cette folle, celle qui michtonne Tu connais un mec qui m'connait et ça m'étonne Il vend des tonnes, j'crois qu'il mythonne Il a la Rolex tah son collègue Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Ça bibi', ça bibi' dans l'bât' à Monica Ça bibi', ça bibi' dans l'bât' à Monica Ça joue d'l'harmonica dans l'bât' à Monica Ça bibi', ça bibi' dans l'bât' à Monica J'suis défoncé dans le bât' à Monica Six heures du mat', j'ai v'-esqui tous les mbila Quand on arrive vite, ils demandent tous C'est qui là ? Ramène le Dom Pé', le Ruinart, la Tequila Là, c'est Heuss et Naza, la débauche, la moulaga Là, c'est Heuss et Naza, la débauche, la moulaga Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Ça bibi', ça bibi' dans l'bât' à Monica Ça bibi', ça bibi' dans l'bât' à Monica Ça joue d'l'harmonica dans l'bât' à Monica Ça bibi', ça bibi' dans l'bât' à Monica Si la khapta s'arrête, c'est qu'j'suis mort, vous le savez On revient foutre la merde et on la remet c'tt'année Si la khapta s'arrête, c'est qu'j'suis mort, vous le savez On revient foutre la merde et on la remet c'tt'année Ouais, ouais, on est en esprit vraiment, on est dans l'cartel Ouais, ouais, ouais</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Il a plus d'amour, plus d'humour, pour toujours Skch, il fait d'la pub pour sa pute, vas-y, cours toujours Skch À l'époque, c'était un enfoiré, une genre d'enflure, maintenant qu'il a gé-man, c'est devenu une vraie ordure L'argent, la nourriture, la pointure de toutes les raclures Tiens, il a toutes les raclis mais il va baiser la Khalti Ouais Il paie pas les factures, il aime quand c'est gratuit Ouais, une vraie pourriture connue comme Berlusconi La vie d'Ronnie avant la saisie, les pâtes Butoni, il aim pas trop les réunions, leurs grandes cérémonis Il prend jamais d'parti, il a de l'amour que pour lui Ouais, il baise demain, hier, il s'la fait encore aujourd'hui Côté pass', il roule un teh, c'est pas lui qui conduit, il fait du bruit tous les jours, c'est la même qui reproduit Ouais Le p'tit Grande a bien grandi comme Salman Rushdide Avec les mêmes, ça recommence avec les mêmes pratiques Prend la route sans casques comme les putes qui baisent sans plastique, tous les jours sur l'terrain, il revit le même casting Il s'farcit des putes faciles qui portaient même pas d'string, quand il galère, il va boire à porte d'Auber' chez Braville Déjà adolescent, vraiment très mauvais élève, absent et turbulent, il bédave dès le collège Il fait tôt d'la GAV, la juge pour enfants s'énerve Skch, sa daronne en bave et son Pater lui pète les lèvres Tiens Mais rien à foutre, c'est dans la street de rue qu'il persévère Tiens, Valentini l'envoie dans un foyer très périlleux Quoi ? C'est une ficelle, le p'tit Rilès prend rien au sérieux, à peine seize ans et il commence déjà à s'faire vieux Connais les Vices d'la capitale du sud à l'ouest Du sud à l'ouest, raquette le D500 des boloss dans le RER À la sortie des écoles privées qui coûtent un peu cher, avec Zepek, il peut pas s'arrêter d'les raquetter La vie d'ma mère, j'te dis qu'il volait, dealait tout l'été, fumait très tôt, sur MSN, déjà déconnecté Deux fois qu'il fait d'la taule avant d's'acheter une carabine, dans l'hall, ça pue la pisse mélangée à la scarlatine Il boit pas d'Selecto, le poto préfère le Coca Coca, te-shi, vodka, tout ça toujours pas très loin d'la boca Boca Regarde toujours si y a bien la kippa sur l'avocat, prends-lui pas machin qui vend son âme au Diable Nan Si tu veux, c'est un malade, il est impardonnable Eh, la hess, la politique, c'est pas trop sa limonade Eh Il aime la ge-pla, piscine, grillades et citronnade, suppôt d'Satan, que pour l'argent, appelle-le come tu veux C'est vraiment ténébreux, t'façon, l'poto fait les deux, peu importe la provenance, tous les jours, il fait des eu' , du fils du pote, ça lé-par, , la raclure, c'est une ordure que sur la mauvaise pente Il reçoit un colis qui vient tout droit d'Alicante, que des offres alléchantes pendant qu'chez nous, Ali chante Que des putes sur putes, putain, c'est pas un exemple, c'est lui-même qui représente, il met rien à son blase Même pas le gosse, pas la gov', que des arobases, il est là à l'occas' quand y a un plan ou l'argent des showcases Nouvelle caisse, nouvelle montre, en plus, c'est pas d'l'occas' Nouvelle caisse, nouvelle montre, en plus, c'est pas d'l'occas'You might also like</t>
+          <t>Il a plus d'amour, plus d'humour, pour toujours Skch, il fait d'la pub pour sa pute, vas-y, cours toujours Skch À l'époque, c'était un enfoiré, une genre d'enflure, maintenant qu'il a gé-man, c'est devenu une vraie ordure L'argent, la nourriture, la pointure de toutes les raclures Tiens, il a toutes les raclis mais il va baiser la Khalti Ouais Il paie pas les factures, il aime quand c'est gratuit Ouais, une vraie pourriture connue comme Berlusconi La vie d'Ronnie avant la saisie, les pâtes Butoni, il aim pas trop les réunions, leurs grandes cérémonis Il prend jamais d'parti, il a de l'amour que pour lui Ouais, il baise demain, hier, il s'la fait encore aujourd'hui Côté pass', il roule un teh, c'est pas lui qui conduit, il fait du bruit tous les jours, c'est la même qui reproduit Ouais Le p'tit Grande a bien grandi comme Salman Rushdide Avec les mêmes, ça recommence avec les mêmes pratiques Prend la route sans casques comme les putes qui baisent sans plastique, tous les jours sur l'terrain, il revit le même casting Il s'farcit des putes faciles qui portaient même pas d'string, quand il galère, il va boire à porte d'Auber' chez Braville Déjà adolescent, vraiment très mauvais élève, absent et turbulent, il bédave dès le collège Il fait tôt d'la GAV, la juge pour enfants s'énerve Skch, sa daronne en bave et son Pater lui pète les lèvres Tiens Mais rien à foutre, c'est dans la street de rue qu'il persévère Tiens, Valentini l'envoie dans un foyer très périlleux Quoi ? C'est une ficelle, le p'tit Rilès prend rien au sérieux, à peine seize ans et il commence déjà à s'faire vieux Connais les Vices d'la capitale du sud à l'ouest Du sud à l'ouest, raquette le D500 des boloss dans le RER À la sortie des écoles privées qui coûtent un peu cher, avec Zepek, il peut pas s'arrêter d'les raquetter La vie d'ma mère, j'te dis qu'il volait, dealait tout l'été, fumait très tôt, sur MSN, déjà déconnecté Deux fois qu'il fait d'la taule avant d's'acheter une carabine, dans l'hall, ça pue la pisse mélangée à la scarlatine Il boit pas d'Selecto, le poto préfère le Coca Coca, te-shi, vodka, tout ça toujours pas très loin d'la boca Boca Regarde toujours si y a bien la kippa sur l'avocat, prends-lui pas machin qui vend son âme au Diable Nan Si tu veux, c'est un malade, il est impardonnable Eh, la hess, la politique, c'est pas trop sa limonade Eh Il aime la ge-pla, piscine, grillades et citronnade, suppôt d'Satan, que pour l'argent, appelle-le come tu veux C'est vraiment ténébreux, t'façon, l'poto fait les deux, peu importe la provenance, tous les jours, il fait des eu' , du fils du pote, ça lé-par, , la raclure, c'est une ordure que sur la mauvaise pente Il reçoit un colis qui vient tout droit d'Alicante, que des offres alléchantes pendant qu'chez nous, Ali chante Que des putes sur putes, putain, c'est pas un exemple, c'est lui-même qui représente, il met rien à son blase Même pas le gosse, pas la gov', que des arobases, il est là à l'occas' quand y a un plan ou l'argent des showcases Nouvelle caisse, nouvelle montre, en plus, c'est pas d'l'occas' Nouvelle caisse, nouvelle montre, en plus, c'est pas d'l'occas'</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Voluptyk, Voluptyk Zone 6 ou 13002 Zone 6 ou 13002, secteur tah les stupe', eh Zone 6 ou 13002, secteur tah les stupe', eh Zone 6 ou 13002, secteur tah les stupe' Dans l'que-tru de la zipette, et ça depuis tit-pe Que des manshugou, corde au cou Regard doux, on est partougou Dans la zone 6, rapzougou Y en a pour tous les nasaux, la frappe tah la NASA J'pose tout chez la nourrice, j'laisse rien à la casa J'appelle le maire quand j'vais au 129 Digestion avec un gros joint d'ppe-f' Le terrain tourne depuis 89 Eh, eh, arrête d'chanter et viens dans la zone 6, que des sicarios Y a même pas un grossiste, la nourrice nous garde tout gratos On gère le terrain, la musique, la gue-dro, les bastos Plein d'trucs dans la sacoche, regarde la gueule des gosses Dé-dé-décale, la bécane démarre pas, vas-y, viens faire les cosses On vient faire une razia complète, y aura aucune négoc' La moumou, vas-y, viens, si ça marche pas, ramène une citadine Fais conduire la p'tite Amandine, on revient d'Argentine Fais pas de vidéo, prends la photo et benda aussitôt Avant tout ça, j'faisais d'la taule et tous les comico Train d'vie tah les bâtards, j'claque les sous du Qatar Pour des potes qui m'enverront pas une seule recharge au mitard Il s'fait tard, j'roule un dernier tah, j'lui fais l'amour comme si j'sortais du shtar Elle m'dit bébé, j'prends mes affaires, j'me barre Dans l'appart', c'est l'Mexique, c'est l'Maroc, c'est l'Pérou Dans l'ghetto, vrai frérot se fait rare comme permis 2 roues Soit j'deviens une star ou soit j'finis au shtar ou T'étais pas là quand ça stagnait, fils de, m'dis pas On s'barre où ? You might also like Le malheur des uns fait le bonheur des fils de pute La réussite, ça attire les dou3as pour qu'tu chutes Ta passe, elle pue sa mère, comment tu veux qu'j'mette le but ? Comment prouver ? J'suis rentré, il reste deux minutes Ah, j'suis rentré, il reste deux minutes Il reste deux minutes Pff, j'ai envie d'mettre un putain d'but en lucarne, sa mère Pa-Pa-Pa-Paris la nuit, c'est la Californie Des moulaga encore en vie comme Annie Cordy Super dégourdi, j'te l'dis, j'te l'redis, on fait plus de crédit Les mauvais payeurs depuis l'époque, ça m'a vite refroidit É-é-écoute la mélodie de la Porte d'Aix à Porte de Clichy Fais pas de chichi, j'suis avec Cheche, remplis son flashy Y a v'là les trous de ballon, Gianni, Versacce, collection Gucci Dans l'compte nickel, y a tchi On fait que d'la magie, cerveau endommagé, ramène le Taittinger avec 25 g Un plavon avec zéro gros dangers On veut manger, p'tit bâtard, on veut manger Bipe le G, sur signal, gros, j'récupère le 200 g Livraison 30 minutes chrono, rapide, c'est léger Gestionnaire des bénéfices comme un PDG Zone 6 ou 13002, secteur tah les stupe' Dans l'que-tru de la zipette, et ça depuis tit-pe Que des manshugou, corde au cou Regard doux, on est partougou Dans la zone 6, rapzougou Y en a pour tous les nasaux, la frappe tah la NASA J'pose tout chez la nourrice, j'laisse rien à la casa J'appelle le maire quand j'vais au 129 Digestion avec un gros joint d'ppe-f' Le terrain tourne depuis 89 Zone 6 ou 13002, secteur tah les stupe' Dans l'que-tru de la zipette, et ça depuis tit-pe Que des manshugou, corde au cou Regard doux, on est partougou Dans la zone 6, rapzougou Y en a pour tous les nasaux, la frappe tah la NASA J'pose tout chez la nourrice, j'laisse rien à la casa J'appelle le maire quand j'vais au 129 Digestion avec un gros joint d'ppe-f' Le terrain tourne depuis 89 Le malheur des uns fait le bonheur des fils de pute La réussite, ça attire les dou3as pour qu'tu chutes Ta passe, elle pue sa mère, comment tu veux qu'j'mette le but ? Comment prouver ? J'suis rentré, il reste deux minutes Ah, j'suis rentré, il reste deux minutes Il reste deux minutes</t>
+          <t>Voluptyk, Voluptyk Zone 6 ou 13002 Zone 6 ou 13002, secteur tah les stupe', eh Zone 6 ou 13002, secteur tah les stupe', eh Zone 6 ou 13002, secteur tah les stupe' Dans l'que-tru de la zipette, et ça depuis tit-pe Que des manshugou, corde au cou Regard doux, on est partougou Dans la zone 6, rapzougou Y en a pour tous les nasaux, la frappe tah la NASA J'pose tout chez la nourrice, j'laisse rien à la casa J'appelle le maire quand j'vais au 129 Digestion avec un gros joint d'ppe-f' Le terrain tourne depuis 89 Eh, eh, arrête d'chanter et viens dans la zone 6, que des sicarios Y a même pas un grossiste, la nourrice nous garde tout gratos On gère le terrain, la musique, la gue-dro, les bastos Plein d'trucs dans la sacoche, regarde la gueule des gosses Dé-dé-décale, la bécane démarre pas, vas-y, viens faire les cosses On vient faire une razia complète, y aura aucune négoc' La moumou, vas-y, viens, si ça marche pas, ramène une citadine Fais conduire la p'tite Amandine, on revient d'Argentine Fais pas de vidéo, prends la photo et benda aussitôt Avant tout ça, j'faisais d'la taule et tous les comico Train d'vie tah les bâtards, j'claque les sous du Qatar Pour des potes qui m'enverront pas une seule recharge au mitard Il s'fait tard, j'roule un dernier tah, j'lui fais l'amour comme si j'sortais du shtar Elle m'dit bébé, j'prends mes affaires, j'me barre Dans l'appart', c'est l'Mexique, c'est l'Maroc, c'est l'Pérou Dans l'ghetto, vrai frérot se fait rare comme permis 2 roues Soit j'deviens une star ou soit j'finis au shtar ou T'étais pas là quand ça stagnait, fils de, m'dis pas On s'barre où ? Le malheur des uns fait le bonheur des fils de pute La réussite, ça attire les dou3as pour qu'tu chutes Ta passe, elle pue sa mère, comment tu veux qu'j'mette le but ? Comment prouver ? J'suis rentré, il reste deux minutes Ah, j'suis rentré, il reste deux minutes Il reste deux minutes Pff, j'ai envie d'mettre un putain d'but en lucarne, sa mère Pa-Pa-Pa-Paris la nuit, c'est la Californie Des moulaga encore en vie comme Annie Cordy Super dégourdi, j'te l'dis, j'te l'redis, on fait plus de crédit Les mauvais payeurs depuis l'époque, ça m'a vite refroidit É-é-écoute la mélodie de la Porte d'Aix à Porte de Clichy Fais pas de chichi, j'suis avec Cheche, remplis son flashy Y a v'là les trous de ballon, Gianni, Versacce, collection Gucci Dans l'compte nickel, y a tchi On fait que d'la magie, cerveau endommagé, ramène le Taittinger avec 25 g Un plavon avec zéro gros dangers On veut manger, p'tit bâtard, on veut manger Bipe le G, sur signal, gros, j'récupère le 200 g Livraison 30 minutes chrono, rapide, c'est léger Gestionnaire des bénéfices comme un PDG Zone 6 ou 13002, secteur tah les stupe' Dans l'que-tru de la zipette, et ça depuis tit-pe Que des manshugou, corde au cou Regard doux, on est partougou Dans la zone 6, rapzougou Y en a pour tous les nasaux, la frappe tah la NASA J'pose tout chez la nourrice, j'laisse rien à la casa J'appelle le maire quand j'vais au 129 Digestion avec un gros joint d'ppe-f' Le terrain tourne depuis 89 Zone 6 ou 13002, secteur tah les stupe' Dans l'que-tru de la zipette, et ça depuis tit-pe Que des manshugou, corde au cou Regard doux, on est partougou Dans la zone 6, rapzougou Y en a pour tous les nasaux, la frappe tah la NASA J'pose tout chez la nourrice, j'laisse rien à la casa J'appelle le maire quand j'vais au 129 Digestion avec un gros joint d'ppe-f' Le terrain tourne depuis 89 Le malheur des uns fait le bonheur des fils de pute La réussite, ça attire les dou3as pour qu'tu chutes Ta passe, elle pue sa mère, comment tu veux qu'j'mette le but ? Comment prouver ? J'suis rentré, il reste deux minutes Ah, j'suis rentré, il reste deux minutes Il reste deux minutes</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Gang, gang Keybee on the track M.I.G Moula RJacks Impossible d'arriver en retard, c'est mon reuf qui gère J'ai pris l'sac à midi, il m'a montré toutes les cachettes Impossible d'arriver en retard, c'est mon reuf qui gère Gang J'ai pris l'sac à midi Grr, il m'a montré toutes les cachettes Paw Tout l'monde en position, celui qui vend, celui qui guette Paw, paw Plusieurs bombonnes à vider, j'ai bien compris qu'la mort s'achète Gang Les p'tits d'viennent impolis Gang, les grands tapent dans la zip' Grr Le rspect s'perd dans les rulles, là où y a plus d'estime Paw J'veux plus jamais dormir en taule pour des stories bidons Nan Regarde ce mec qu'a perdu la vie pour moins d'un litron Gang C'est que d'la plata, me-chro, amnésia, cocaïne Couscous, tajine, riz, poulet-gué, dakatine Heuss L'enfoiré et M.I.G Moula, on assassine J'ai vu ma tête à la télé, dans tous les magazines 'zines J't'avais dit, c'était mon cousin dans le magasin 'sin C'est moi la moulaga, j'ai du vécu comme Joe Dassin Skch J'suis comme les autres, j'ai voyagé avec un faux vaccin Ils ont pété tous les bosseurs, faut un nouveau tartin You might also like C'est pour les frères d'en haut Grr, c'est pour les frères d'en bas Paw C'est pour les frères qui charbonnent, que ce soit propre ou sale C'est pour les frères au shtar Gang, Nanterre, Fleury, Bois d'Ar' Et tous les autres placards Grr, rah, t'inquiète, le temps, il passe Paw C'est pour les frères d'en haut Gang et les frères d'en bas, M.I.G Moula, Heuss la moula On fait ça carré, très bien installés Faut tout niquer c't'année Gang, on est bien installés C'est pour les frères d'en haut Paw et les frères d'en bas, M.I.G Moula Gang, Heuss la moula Grr On fait ça carré, très bien installés Faut tout niquer c't'année, on est bien installés Gang J'suis sorti tôt, l'célibataire Grr, le pote, il m'parle affaires Paw Ça laisse des corps à terre pour d'l'insolence ou pour du teh Gang Fin d'soirée-gué, ça va t'pister pour tirer ta mallette Gang Golf 8, y a les palettes Palettes, armes à feu, pas d'arbalète Gang Ça part en chasse, personne s'arrête, j'baisse la vitre, j'pète une cigarette Brr J'fais l'même salaire que Tavarez Gang, j'regrette pas ma vie d'avant Nan J'ai perdu des amis, des proches et un peu trop d'argent Merde J'ai compris p't-être un peu trop tard que les gens, c'est des putes Poh, poh Mon entourage à la con me dit que j'déconne En attendant, c'est showcases, concerts, gros album Tiens J'te mens pas, j'arrive plus à m'les voir Skch Heureusement qu'il m'reste encore à boire Comme un con, j'remets ça tous les soirs Pour la plupart, avant qu'ça part, on finira bus-bar mais là, j'ai bu tout l'bar J'suis pas un charlatan, challenger, évidemment qu'j'suis un Avengers Mon cousin demande l'heure, le salaire de Jean 2 Makoun Que des putes et d'la drogue à tous les carrefours Monte à bord, mon cousin savoure, surveillant ouvre la porte, j'crois bien qu'c'est mon tour Pour tous les mecs dans la cour, postés dans la tour Loin d'porter les courses à ta mère, fais la cour à ta sur, t'as pas vu qu'c'est la guerre ? Paris, c'est la merde, bah ouais, ça sent la gerbe Toi qui voulais manger, t'auras que des branches d'herbe C'est pour les frères d'en haut Gang, c'est pour les frères d'en bas Gang C'est pour les frères qui charbonnent, que ce soit propre ou sale Paw, paw, paw C'est pour les frères au shtar Nanterre, Fleury, Bois d'Ar' Grr Et tous les autres placards, t'inquiète, le temps, il passe Paw, paw, paw C'est pour les frères d'en haut Gang et les frères d'en bas, M.I.G Moula, Heuss la moula On fait ça carré, très bien installés Faut tout niquer c't'année, on est bien installés C'est pour les frères d'en haut et les frères d'en bas, M.I.G Moula, Heuss la moula On fait ça carré, très bien installés Faut tout niquer c't'année, on est bien installés Gang C'est pour les frères d'en haut et les frères d'en bas C'est pour les frères d'en haut et les frères d'en bas Grr, paw, paw C'est pour les frères d'en haut Gang et les frères d'en bas M.I.G Moula, Heuss la moula On fait ça carré, très bien installés</t>
+          <t>Gang, gang Keybee on the track M.I.G Moula RJacks Impossible d'arriver en retard, c'est mon reuf qui gère J'ai pris l'sac à midi, il m'a montré toutes les cachettes Impossible d'arriver en retard, c'est mon reuf qui gère Gang J'ai pris l'sac à midi Grr, il m'a montré toutes les cachettes Paw Tout l'monde en position, celui qui vend, celui qui guette Paw, paw Plusieurs bombonnes à vider, j'ai bien compris qu'la mort s'achète Gang Les p'tits d'viennent impolis Gang, les grands tapent dans la zip' Grr Le rspect s'perd dans les rulles, là où y a plus d'estime Paw J'veux plus jamais dormir en taule pour des stories bidons Nan Regarde ce mec qu'a perdu la vie pour moins d'un litron Gang C'est que d'la plata, me-chro, amnésia, cocaïne Couscous, tajine, riz, poulet-gué, dakatine Heuss L'enfoiré et M.I.G Moula, on assassine J'ai vu ma tête à la télé, dans tous les magazines 'zines J't'avais dit, c'était mon cousin dans le magasin 'sin C'est moi la moulaga, j'ai du vécu comme Joe Dassin Skch J'suis comme les autres, j'ai voyagé avec un faux vaccin Ils ont pété tous les bosseurs, faut un nouveau tartin C'est pour les frères d'en haut Grr, c'est pour les frères d'en bas Paw C'est pour les frères qui charbonnent, que ce soit propre ou sale C'est pour les frères au shtar Gang, Nanterre, Fleury, Bois d'Ar' Et tous les autres placards Grr, rah, t'inquiète, le temps, il passe Paw C'est pour les frères d'en haut Gang et les frères d'en bas, M.I.G Moula, Heuss la moula On fait ça carré, très bien installés Faut tout niquer c't'année Gang, on est bien installés C'est pour les frères d'en haut Paw et les frères d'en bas, M.I.G Moula Gang, Heuss la moula Grr On fait ça carré, très bien installés Faut tout niquer c't'année, on est bien installés Gang J'suis sorti tôt, l'célibataire Grr, le pote, il m'parle affaires Paw Ça laisse des corps à terre pour d'l'insolence ou pour du teh Gang Fin d'soirée-gué, ça va t'pister pour tirer ta mallette Gang Golf 8, y a les palettes Palettes, armes à feu, pas d'arbalète Gang Ça part en chasse, personne s'arrête, j'baisse la vitre, j'pète une cigarette Brr J'fais l'même salaire que Tavarez Gang, j'regrette pas ma vie d'avant Nan J'ai perdu des amis, des proches et un peu trop d'argent Merde J'ai compris p't-être un peu trop tard que les gens, c'est des putes Poh, poh Mon entourage à la con me dit que j'déconne En attendant, c'est showcases, concerts, gros album Tiens J'te mens pas, j'arrive plus à m'les voir Skch Heureusement qu'il m'reste encore à boire Comme un con, j'remets ça tous les soirs Pour la plupart, avant qu'ça part, on finira bus-bar mais là, j'ai bu tout l'bar J'suis pas un charlatan, challenger, évidemment qu'j'suis un Avengers Mon cousin demande l'heure, le salaire de Jean 2 Makoun Que des putes et d'la drogue à tous les carrefours Monte à bord, mon cousin savoure, surveillant ouvre la porte, j'crois bien qu'c'est mon tour Pour tous les mecs dans la cour, postés dans la tour Loin d'porter les courses à ta mère, fais la cour à ta sur, t'as pas vu qu'c'est la guerre ? Paris, c'est la merde, bah ouais, ça sent la gerbe Toi qui voulais manger, t'auras que des branches d'herbe C'est pour les frères d'en haut Gang, c'est pour les frères d'en bas Gang C'est pour les frères qui charbonnent, que ce soit propre ou sale Paw, paw, paw C'est pour les frères au shtar Nanterre, Fleury, Bois d'Ar' Grr Et tous les autres placards, t'inquiète, le temps, il passe Paw, paw, paw C'est pour les frères d'en haut Gang et les frères d'en bas, M.I.G Moula, Heuss la moula On fait ça carré, très bien installés Faut tout niquer c't'année, on est bien installés C'est pour les frères d'en haut et les frères d'en bas, M.I.G Moula, Heuss la moula On fait ça carré, très bien installés Faut tout niquer c't'année, on est bien installés Gang C'est pour les frères d'en haut et les frères d'en bas C'est pour les frères d'en haut et les frères d'en bas Grr, paw, paw C'est pour les frères d'en haut Gang et les frères d'en bas M.I.G Moula, Heuss la moula On fait ça carré, très bien installés</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>À chaque fois, tu refais la même chose, j'me dis Laisse J'ai mis beaucoup d'élastiques autour d'ma liasse Elle boit d'la téquila, madame se met à l'aise À chaque fois qu'on baise, elle se transforme en tigresse En bas, c'est la loose, Hennessy, Jack Daniel's Ça t'vend d'la coca' blanche comme Eminem Elle sait que j'ai passé ma vie dans le bâtiment Life J'ai zoné, j'ai vendu, j'ai volé en bas d'chez moi Oh, mon dieu, j'redoute le châtiment C'est des mannequins qui défilent, ou c'est des clients Cramés sur Paname, viens, on s'fait la malle Aïe, aïe, aïe Laisse-moi faire ma life, laisse-moi faire ma maille Aïe, aïe, aïe Cramés sur Paname, viens, on s'fait la malle Aïe, aïe, aïe Laisse-moi faire ma life, laisse-moi faire ma maille Aïe, aïe, aïe J'suis dans mes pensées j'éclaircis ton beau visage J'ai tout dépensé mais j'me r'fais, tu connais l'bail J'm'en roule un dernier, j'm'endors dans le cinq étoiles J'repense au passé, défoncé vers la Eiffel Tower You might also like J'suis dans l'4x4 black, les vitres teintées, j'suis grillé, j'ai laissé aux hesses un billet Un tas d'mauvais j'sais plus à qui m'fier, un tas d'mauvais j'sais plus à qui m'fier RR 1000 pas très loin d'Guéliz, elle crie mon blase mais hier, j'ai niqué la valise Purple Haze, j'ai du mal à atterir, si tu m'suis, bébé, c'est à tes risques Elle sait que j'ai passé ma vie dans le bâtiment Life J'ai zoné, j'ai vendu, j'ai volé en bas d'chez moi Oh, mon dieu, j'redoute le châtiment C'est des mannequins qui défilent, Cramés sur Paname, viens, on s'fait la malle Aïe, aïe, aïe Laisse-moi faire ma life, laisse-moi faire ma maille Aïe, aïe, aïe Cramés sur Paname, viens, on s'fait la malle Aïe, aïe, aïe Laisse-moi faire ma life, laisse-moi faire ma maille Aïe, aïe, aïe J'suis dans mes pensées j'éclaircis ton beau visage J'ai tout dépensé mais j'me r'fais, tu connais l'bail J'm'en roule un dernier, j'm'endors dans le cinq étoiles J'repense au passé, défoncé vers la Eiffel Tower</t>
+          <t>À chaque fois, tu refais la même chose, j'me dis Laisse J'ai mis beaucoup d'élastiques autour d'ma liasse Elle boit d'la téquila, madame se met à l'aise À chaque fois qu'on baise, elle se transforme en tigresse En bas, c'est la loose, Hennessy, Jack Daniel's Ça t'vend d'la coca' blanche comme Eminem Elle sait que j'ai passé ma vie dans le bâtiment Life J'ai zoné, j'ai vendu, j'ai volé en bas d'chez moi Oh, mon dieu, j'redoute le châtiment C'est des mannequins qui défilent, ou c'est des clients Cramés sur Paname, viens, on s'fait la malle Aïe, aïe, aïe Laisse-moi faire ma life, laisse-moi faire ma maille Aïe, aïe, aïe Cramés sur Paname, viens, on s'fait la malle Aïe, aïe, aïe Laisse-moi faire ma life, laisse-moi faire ma maille Aïe, aïe, aïe J'suis dans mes pensées j'éclaircis ton beau visage J'ai tout dépensé mais j'me r'fais, tu connais l'bail J'm'en roule un dernier, j'm'endors dans le cinq étoiles J'repense au passé, défoncé vers la Eiffel Tower J'suis dans l'4x4 black, les vitres teintées, j'suis grillé, j'ai laissé aux hesses un billet Un tas d'mauvais j'sais plus à qui m'fier, un tas d'mauvais j'sais plus à qui m'fier RR 1000 pas très loin d'Guéliz, elle crie mon blase mais hier, j'ai niqué la valise Purple Haze, j'ai du mal à atterir, si tu m'suis, bébé, c'est à tes risques Elle sait que j'ai passé ma vie dans le bâtiment Life J'ai zoné, j'ai vendu, j'ai volé en bas d'chez moi Oh, mon dieu, j'redoute le châtiment C'est des mannequins qui défilent, Cramés sur Paname, viens, on s'fait la malle Aïe, aïe, aïe Laisse-moi faire ma life, laisse-moi faire ma maille Aïe, aïe, aïe Cramés sur Paname, viens, on s'fait la malle Aïe, aïe, aïe Laisse-moi faire ma life, laisse-moi faire ma maille Aïe, aïe, aïe J'suis dans mes pensées j'éclaircis ton beau visage J'ai tout dépensé mais j'me r'fais, tu connais l'bail J'm'en roule un dernier, j'm'endors dans le cinq étoiles J'repense au passé, défoncé vers la Eiffel Tower</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Maximum Beats On déboule en Rolls devant l'Élysée, on arrive à sept au restau', tout l'monde capuché Évidemment, j'suis localisé, évidemment, j'suis localisé On déboule en Rolls devant l'Élysée, on arrive à sept au restau', tout l'monde capuché Évidemment, j'suis localisé, évidemment, j'suis localisé J'ai de l'inspi', avec un p'tit, midi-midi, c'est les assises J'fais danser la France, mon avocat et la police Ouais, je marche tout seul, j'ai pas d'sécu', j'les traumatises C'est Messire Moula, j'te tends la main, tu m'fais la bise J'me languis de te voir, c'est trop long, sérieux Tous les deux, ça devenait un peu trop périlleux J'te suivrai si seulement ça s'passe comme je veux, comme je veux Comme je veux On déboule en Rolls devant l'Élysée, on arrive à sept au restau', tout l'monde capuché Évidemment, j'suis localisé, évidemment, j'suis localisé On déboule en Rolls devant l'Élysée, on arrive à sept au restau', tout l'monde capuché Évidemment, j'suis localisé, évidemment, j'suis localisé You might also like Ouais, c'est c'bon vieux Gims, j'arrive sur un terrain conquis Ouais, balance le son, l'public est sous anesthésie Bref, j'arrive en ville avec une 'rrari rarissime Après ma cace-déci, y a plus rien à voir par ici Le rap game, je le prends même pas au sérieux Y a d'la fumée partout, j'vois plus rien, sérieux Si j'bé-tom, je ressors grâce à mon baveux, mon baveux Mon baveux On déboule en Rolls devant l'Élysée, on arrive à sept au restau', tout l'monde capuché Évidemment, j'suis localisé, évidemment, j'suis localisé On déboule en Rolls devant l'Élysée, on arrive à sept au restau', tout l'monde capuché Évidemment, j'suis localisé, évidemment, j'suis localisé</t>
+          <t>Maximum Beats On déboule en Rolls devant l'Élysée, on arrive à sept au restau', tout l'monde capuché Évidemment, j'suis localisé, évidemment, j'suis localisé On déboule en Rolls devant l'Élysée, on arrive à sept au restau', tout l'monde capuché Évidemment, j'suis localisé, évidemment, j'suis localisé J'ai de l'inspi', avec un p'tit, midi-midi, c'est les assises J'fais danser la France, mon avocat et la police Ouais, je marche tout seul, j'ai pas d'sécu', j'les traumatises C'est Messire Moula, j'te tends la main, tu m'fais la bise J'me languis de te voir, c'est trop long, sérieux Tous les deux, ça devenait un peu trop périlleux J'te suivrai si seulement ça s'passe comme je veux, comme je veux Comme je veux On déboule en Rolls devant l'Élysée, on arrive à sept au restau', tout l'monde capuché Évidemment, j'suis localisé, évidemment, j'suis localisé On déboule en Rolls devant l'Élysée, on arrive à sept au restau', tout l'monde capuché Évidemment, j'suis localisé, évidemment, j'suis localisé Ouais, c'est c'bon vieux Gims, j'arrive sur un terrain conquis Ouais, balance le son, l'public est sous anesthésie Bref, j'arrive en ville avec une 'rrari rarissime Après ma cace-déci, y a plus rien à voir par ici Le rap game, je le prends même pas au sérieux Y a d'la fumée partout, j'vois plus rien, sérieux Si j'bé-tom, je ressors grâce à mon baveux, mon baveux Mon baveux On déboule en Rolls devant l'Élysée, on arrive à sept au restau', tout l'monde capuché Évidemment, j'suis localisé, évidemment, j'suis localisé On déboule en Rolls devant l'Élysée, on arrive à sept au restau', tout l'monde capuché Évidemment, j'suis localisé, évidemment, j'suis localisé</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Eh, eh Okay, eh Eh Eh, eh C'est La Vie d'Roni, la vie, la vie d'ma mère C'est La Vie d'Roni, la vie, la vie d'ma mère Des fois, les coups partent mais t'façon, personne nous parle Jugé coupable à la barre d'avoir hagar un toubab Moi et les potes, on a la dalle, on prend l'argent tout-par Les meufs nous donnent pas l'heure alors on baise dans les touzes-par Depuis 2006, on a toujours été couche-tard À la fin d'l'histoire, on a vraiment fini au shtar La vie d'ma mère, ça fait un bail qu'on vit comme ds stars J'avais d'l'héro' et des dineros dans mon jan G-Star Avant d'palper, par les souvenirs, on s'est fait ber-bar Mais j'ai pas mal de souvenirs comme mon premier pétard Quand il s'fait tard, j'roule un tah, j'repense au mitard C'est Ricardo pas Rivaldo qui s'encule au ricard La vie d'Ronnie, la vie d'ma mère, on boit que du Ruinart C'est cher les raisins sans pépin, d'mande à César J'aime pas Arsène Lupin, j'préfère Narcos, Mexico Ramène du pain avec Armando en hélico' J'ai mérité Tulum avec un verre de Veuve Clicquot Ça va, ça roule pour moi et j'y vais pas en classe éco On boit des pornstars, on baise que des porno stars Appelle le mec aux cheveux blonds qui faisait Fréquenstar You might also like Eh Ton rappeur, il pue la merde, il va jamais percer Il est jamais bé-tom, il sait pas c'qu'on a traversé Il s'est pas fait tout seul, c'est vous qui l'avez engraissé C'est moi, j'ai tout baisé, tout ça sans faire exprès C'était la rue vraiment la taule à chaque premier extrait Carlos Gambino, midi-midi, en esprit Hash', kush, coffee, c'est la moula qu'on respire J'ai pas fini l'empire, bientôt fini d'investir J'suis un Algérien prometteur tout comme Boudaoui Vicieux comme un sur un Kawasaki J'suis comme Sefyu tah l'époque, j'ai l'flow du Malawi Bah oui, ma le-gueu, j'suis l'rebeu qui pèse ses klawis C'est la moumou toujours qui gère le bail, la tête de oi-m Parle pas d'ton rappeur tout flingué qui rapporte même pas one C'est mieux qu'il repart rechargé ou bien J'suis dans un film , né-tour à Brooklyn J'suis un précurseur qui baise leurs femmes et leurs surs À bon entendeur, j'ai laissé leurs chattes en pleurs Leur balle-trou en chou-fleur, reconnu comme Foot Locker Ça m'fait un truc au cur quand j'vois tout l'monde chanter en chur</t>
+          <t>Eh, eh Okay, eh Eh Eh, eh C'est La Vie d'Roni, la vie, la vie d'ma mère C'est La Vie d'Roni, la vie, la vie d'ma mère Des fois, les coups partent mais t'façon, personne nous parle Jugé coupable à la barre d'avoir hagar un toubab Moi et les potes, on a la dalle, on prend l'argent tout-par Les meufs nous donnent pas l'heure alors on baise dans les touzes-par Depuis 2006, on a toujours été couche-tard À la fin d'l'histoire, on a vraiment fini au shtar La vie d'ma mère, ça fait un bail qu'on vit comme ds stars J'avais d'l'héro' et des dineros dans mon jan G-Star Avant d'palper, par les souvenirs, on s'est fait ber-bar Mais j'ai pas mal de souvenirs comme mon premier pétard Quand il s'fait tard, j'roule un tah, j'repense au mitard C'est Ricardo pas Rivaldo qui s'encule au ricard La vie d'Ronnie, la vie d'ma mère, on boit que du Ruinart C'est cher les raisins sans pépin, d'mande à César J'aime pas Arsène Lupin, j'préfère Narcos, Mexico Ramène du pain avec Armando en hélico' J'ai mérité Tulum avec un verre de Veuve Clicquot Ça va, ça roule pour moi et j'y vais pas en classe éco On boit des pornstars, on baise que des porno stars Appelle le mec aux cheveux blonds qui faisait Fréquenstar Eh Ton rappeur, il pue la merde, il va jamais percer Il est jamais bé-tom, il sait pas c'qu'on a traversé Il s'est pas fait tout seul, c'est vous qui l'avez engraissé C'est moi, j'ai tout baisé, tout ça sans faire exprès C'était la rue vraiment la taule à chaque premier extrait Carlos Gambino, midi-midi, en esprit Hash', kush, coffee, c'est la moula qu'on respire J'ai pas fini l'empire, bientôt fini d'investir J'suis un Algérien prometteur tout comme Boudaoui Vicieux comme un sur un Kawasaki J'suis comme Sefyu tah l'époque, j'ai l'flow du Malawi Bah oui, ma le-gueu, j'suis l'rebeu qui pèse ses klawis C'est la moumou toujours qui gère le bail, la tête de oi-m Parle pas d'ton rappeur tout flingué qui rapporte même pas one C'est mieux qu'il repart rechargé ou bien J'suis dans un film , né-tour à Brooklyn J'suis un précurseur qui baise leurs femmes et leurs surs À bon entendeur, j'ai laissé leurs chattes en pleurs Leur balle-trou en chou-fleur, reconnu comme Foot Locker Ça m'fait un truc au cur quand j'vois tout l'monde chanter en chur</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Ténébreuse Musique Maison piégée d'Anthrax Admire, 2023 piou, piou, piou, piou Encore Maison piégée d'Amiante cancérigène L'Empereur Maison piégée de crack salope à Stalingrad Vlan Toutes les étoiles s'alignent toutes et les comètes se heurtent piou Tu vois que j'possède le gun waow, le même que Joseph Goebbels click, boum J'fume un gros pét' de seum fume, et puis, j'observe le zbeul j'observe J'rentre dans vos belles demeures direct, je sais que vos chefs me veulent vos chefs Ils veulent que j'commettre le meurtre pah, que j'devienne obèse, qu'je meurs obèse Assemble nos pièces, puzzle nos pièces, nique les fourgonnettes de keufs Des pickpockets rebeus volent mangent des côtelettes de buf Tounsi Pé-cho une pochette de beuh d'la frappe, à chaque erreur, bubbles waow Dans mon lit, y a des vieilles amaigries, y a des Leïla Bekhti Tout l'oseille à becter me réveille l'appétit liasses La tchoin et le joint de la veille, j'apprécie J'paie pas d'crédit, j'veux toucher le salaire de Neymar, Messi Comme dans DBZ DBZ, mon appareil m'avertit De Marseille à Évry, j'émerveille ta chérie salope, salope, salope J'ai besoin d'une bouteille à ser-ti You might also like Une bouteille de Dom Pé' une bouteille de Dom Pé' Heuss L'enfoiré, Alkpote, LSDC Personne peut nous dompter personne peut nous dompter Maison piégée skch, skch On est toujours fonce-dé on est toujours fonce-dé Heuss L'enfoiré, indépendant, producteur anonyme skch Poto, ici, c'est de-s', oublie pas ta ventoline Jean-Louis Vitasse t'la met profond, là-haut sur la colline là-haut J'faisais d'la taule à l'époque où tu votais Ségolène Nique ton épaule, j'la vois jamais quand j'ai des vrais problèmes skch Ramène des pétasses, d'la drogue avec un sac d'oseille ramène Ramène des plans lovés, s'te plait, épargne-nous d'tes conseils Dès l'matin, j'suis défoncé, j'ai pas trop d'émotions skch J'sais même pas c'que j'ai dépensé, j'fais sauter la caution Ramène des plans, des pesetas, une 'tasse et d'la potion Dé-Dé-Dédicace aux mecs en rétention, en détention skch, skch Pour braquages en tous genres, trafics et extorsions Combien d'fois j'ai tourné, j'ai pas reçu un mandat ? Reçu un mandat ? Heureusement, j'connais Sauron, Bakari et Bakari et Qui m'envoient des pâtes et du shit sur un yoyo en drap un yoyo en drap Combien d'fois on m'a dit Un jour, tu comprendras ? Wesh, Alkpote, j'suis en Super Bock J'fais que baiser, traverser l'époque J'ai mon passeport, une pute et mon Glock Deux-trois sicarios qui m'escortent J't'ai d'jà dit avec Gueule d'Ange, j'vais pas au BDA Heuss L'enfoiré, j'suis trop connu comme PPDA Change de planque, change de plaque comme dans GTA Joue au blackjack au black, v'-esqui la TVA J'taffe comme un Pak-Pak, j'ai r'chargé mon Berreta Dans mes oreilles, les diables et les démons causent les démons Je bois le lait qu'il y a dans ses tétons roses ses tétons J'squatte les maisons piégées et les maisons closes boum Dès qu'on pose, les visages se décomposent décomposent J'suis dans un sale état, j'ai mal pute J'me sens comme un vétéran qui est passé par l'Vietnam pute L'visage marqué par l'Sheitan pute, avec le crâne sé-ra, j'les charme pute J'me régénère comme la chatte de Maeva Ghennam pute Allez, j'crache des flammes pute, maintenant, j'm'arrête pas, j'les crame pute J'fume de l'amné' d'Amsterdam pute, j'suis à Marbella et j'crâne j'crâne J'garde toujours le sourire avec ma vieille dame vieille pute Dans son nouveau soutif, on a ché-ca des grammes pute J'sors des marécages, fais gaffe pute, dans les favelas, j'débarque pute Gruyère, mozzarella, cheddar pute, je mange pas d'paëlla végan pute Il m'faut l'salaire à Beckham pute et que j'm'achète la bécane Sons of Anarchy, lunettes Cartier, Carrera, Ray-Ban pute De la drogue dans mes cellules, on va forcer les serrures Je vais m'occuper d'ces nuls, ils vont regretter, c'est sûr Je dois recruter des mules, elles vont panser mes blessures Si j'finis comme un légume, la carrosserie plein d'rayures La carrosserie plein d'rayures</t>
+          <t>Ténébreuse Musique Maison piégée d'Anthrax Admire, 2023 piou, piou, piou, piou Encore Maison piégée d'Amiante cancérigène L'Empereur Maison piégée de crack salope à Stalingrad Vlan Toutes les étoiles s'alignent toutes et les comètes se heurtent piou Tu vois que j'possède le gun waow, le même que Joseph Goebbels click, boum J'fume un gros pét' de seum fume, et puis, j'observe le zbeul j'observe J'rentre dans vos belles demeures direct, je sais que vos chefs me veulent vos chefs Ils veulent que j'commettre le meurtre pah, que j'devienne obèse, qu'je meurs obèse Assemble nos pièces, puzzle nos pièces, nique les fourgonnettes de keufs Des pickpockets rebeus volent mangent des côtelettes de buf Tounsi Pé-cho une pochette de beuh d'la frappe, à chaque erreur, bubbles waow Dans mon lit, y a des vieilles amaigries, y a des Leïla Bekhti Tout l'oseille à becter me réveille l'appétit liasses La tchoin et le joint de la veille, j'apprécie J'paie pas d'crédit, j'veux toucher le salaire de Neymar, Messi Comme dans DBZ DBZ, mon appareil m'avertit De Marseille à Évry, j'émerveille ta chérie salope, salope, salope J'ai besoin d'une bouteille à ser-ti Une bouteille de Dom Pé' une bouteille de Dom Pé' Heuss L'enfoiré, Alkpote, LSDC Personne peut nous dompter personne peut nous dompter Maison piégée skch, skch On est toujours fonce-dé on est toujours fonce-dé Heuss L'enfoiré, indépendant, producteur anonyme skch Poto, ici, c'est de-s', oublie pas ta ventoline Jean-Louis Vitasse t'la met profond, là-haut sur la colline là-haut J'faisais d'la taule à l'époque où tu votais Ségolène Nique ton épaule, j'la vois jamais quand j'ai des vrais problèmes skch Ramène des pétasses, d'la drogue avec un sac d'oseille ramène Ramène des plans lovés, s'te plait, épargne-nous d'tes conseils Dès l'matin, j'suis défoncé, j'ai pas trop d'émotions skch J'sais même pas c'que j'ai dépensé, j'fais sauter la caution Ramène des plans, des pesetas, une 'tasse et d'la potion Dé-Dé-Dédicace aux mecs en rétention, en détention skch, skch Pour braquages en tous genres, trafics et extorsions Combien d'fois j'ai tourné, j'ai pas reçu un mandat ? Reçu un mandat ? Heureusement, j'connais Sauron, Bakari et Bakari et Qui m'envoient des pâtes et du shit sur un yoyo en drap un yoyo en drap Combien d'fois on m'a dit Un jour, tu comprendras ? Wesh, Alkpote, j'suis en Super Bock J'fais que baiser, traverser l'époque J'ai mon passeport, une pute et mon Glock Deux-trois sicarios qui m'escortent J't'ai d'jà dit avec Gueule d'Ange, j'vais pas au BDA Heuss L'enfoiré, j'suis trop connu comme PPDA Change de planque, change de plaque comme dans GTA Joue au blackjack au black, v'-esqui la TVA J'taffe comme un Pak-Pak, j'ai r'chargé mon Berreta Dans mes oreilles, les diables et les démons causent les démons Je bois le lait qu'il y a dans ses tétons roses ses tétons J'squatte les maisons piégées et les maisons closes boum Dès qu'on pose, les visages se décomposent décomposent J'suis dans un sale état, j'ai mal pute J'me sens comme un vétéran qui est passé par l'Vietnam pute L'visage marqué par l'Sheitan pute, avec le crâne sé-ra, j'les charme pute J'me régénère comme la chatte de Maeva Ghennam pute Allez, j'crache des flammes pute, maintenant, j'm'arrête pas, j'les crame pute J'fume de l'amné' d'Amsterdam pute, j'suis à Marbella et j'crâne j'crâne J'garde toujours le sourire avec ma vieille dame vieille pute Dans son nouveau soutif, on a ché-ca des grammes pute J'sors des marécages, fais gaffe pute, dans les favelas, j'débarque pute Gruyère, mozzarella, cheddar pute, je mange pas d'paëlla végan pute Il m'faut l'salaire à Beckham pute et que j'm'achète la bécane Sons of Anarchy, lunettes Cartier, Carrera, Ray-Ban pute De la drogue dans mes cellules, on va forcer les serrures Je vais m'occuper d'ces nuls, ils vont regretter, c'est sûr Je dois recruter des mules, elles vont panser mes blessures Si j'finis comme un légume, la carrosserie plein d'rayures La carrosserie plein d'rayures</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Bae, ne m'attends pas, j'me suis fait crever dans la bât', en bas bas C'est un vrai scandale, j'avais de la beuh, fumée de Atlanta J'suis un sica', comme ny-Ma, c'est Toto, ouais, Riinà J'suis un sica', comme ny-Ma, j'sors de chez Guccissima J'suis stenda en Hollanda, bébé, envoie les mandats Une fiche de recherche, un trafic en interne Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la J'suis dans une nouvelle ère, dans un nouvel art Dans une nouvelle ère, dans un nouvel art C'est le nouvel an et ça, tous les soirs C'est le nouvel an et ça, tous les soirs tous les soirs, tous les soirs J'fais pas semblant, tu m'as semblée belle mais trop bavarde Et personne va t'hagar, le DZ sait faire la bagarre Les p'tits savent cavaler, cache la zlatla dans la caille Bébé, tu sais t'pavaner, buenos dias et bonne année You might also like J'suis avec le V, tu m'as vu ? Toujours dans la rue Si j'me fais crever, oublie pas d'appeler mon baveux Tu connais déjà double kich', une nouvelle re-pai Mais n'oublie jamais, pour de vrai, c'est toujours la rre-gue J'suis stenda en Hollanda, bébé, envoie les mandats Une fiche de recherche, un trafic en interne Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la J'suis dans une nouvelle ère, dans un nouvel art Dans une nouvelle ère, dans un nouvel art C'est le nouvel an et ça, tous les soirs C'est le nouvel an et ça, tous les soirs tous les soirs, tous les soirs Elle est timide, j'suis tombé sous son charme Ensorcelé, elle me drague sous champagne Elle est timide, j'suis tombé sous son charme Ensorcelé, elle me drague sous champagne Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la</t>
+          <t>Bae, ne m'attends pas, j'me suis fait crever dans la bât', en bas bas C'est un vrai scandale, j'avais de la beuh, fumée de Atlanta J'suis un sica', comme ny-Ma, c'est Toto, ouais, Riinà J'suis un sica', comme ny-Ma, j'sors de chez Guccissima J'suis stenda en Hollanda, bébé, envoie les mandats Une fiche de recherche, un trafic en interne Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la J'suis dans une nouvelle ère, dans un nouvel art Dans une nouvelle ère, dans un nouvel art C'est le nouvel an et ça, tous les soirs C'est le nouvel an et ça, tous les soirs tous les soirs, tous les soirs J'fais pas semblant, tu m'as semblée belle mais trop bavarde Et personne va t'hagar, le DZ sait faire la bagarre Les p'tits savent cavaler, cache la zlatla dans la caille Bébé, tu sais t'pavaner, buenos dias et bonne année J'suis avec le V, tu m'as vu ? Toujours dans la rue Si j'me fais crever, oublie pas d'appeler mon baveux Tu connais déjà double kich', une nouvelle re-pai Mais n'oublie jamais, pour de vrai, c'est toujours la rre-gue J'suis stenda en Hollanda, bébé, envoie les mandats Une fiche de recherche, un trafic en interne Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la J'suis dans une nouvelle ère, dans un nouvel art Dans une nouvelle ère, dans un nouvel art C'est le nouvel an et ça, tous les soirs C'est le nouvel an et ça, tous les soirs tous les soirs, tous les soirs Elle est timide, j'suis tombé sous son charme Ensorcelé, elle me drague sous champagne Elle est timide, j'suis tombé sous son charme Ensorcelé, elle me drague sous champagne Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Dalla zona, fra', alla Marbella Volo verso Malaga Penso a farmi una vacanza Mamma sì, pardonnez-moi Su uno scafo a Marbella A Marbella Su uno scafo a Marbella Cubi sopra la mia barca Soldi dentro al cellophanne À Marbella, passato par Marocco Remontada d'Italia, on finit à Marsiglia, yah, yah, yah Philip, TK, Heuss, monnaie Venga, venga, la monnaie Va fan culo, fils de pute J'm'arrache, j'vais claquer les sous des gues-sh' J'ai fini tout mon cash, Western, moi, si c'est la dèche Si c'est la dèche J'suis tout bronzé dans mes stories J'me prends l'il des gens, c'est la folie You might also like Volo verso Malaga Penso a farmi una vacanza Mamma sì, pardonnez-moi Su uno scafo a Marbella A Marbella A Marbella Su uno scafo a Marbella A Marbella A Marbella Su uno scafo a Marbella J'claque tout mon oseille, t'inquiète, il reviendra Il reviendra C'est encore moi, mon gars, c'est bien la moulaga La moulaga J'sors de chez Gucci, arrivederci Arrivederci, arrivederci Tu nous connais comme Francesco Totti Francesco Totti, yah, yah Si je n'te réponds pas, bébé, ne m'attends pas Nan, nan, nan J'benda à Marbella avec Philip, TK Nan, nan, nan J'suis à Marbe', j'vais la marbrer, j'suis à Marbella Marbella J'suis à Marbe', j'vais la marbrer, j'suis à Marbella Volo verso Malaga Penso a farmi una vacanza Mamma sì, pardonnez-moi Su uno scafo a Marbella A Marbella Su uno scafo a Marbella A Marbella Su uno scafo a Marbella À Marbella, c'est vodka, vodka, vodka Tous les jours, la fiesta, jamais, jamais basta À Marbella, c'est vodka, vodka, vodka Tous les jours, la fiesta, jamais, jamais basta Volo verso Malaga Penso a farmi una vacanza Mamma sì, pardonnez-moi Su uno scafo a Marbella A Marbella A Marbella Su uno scafo a Marbella aA Marbella A Marbella Su uno scafo a Marbella Fils de pute Fils de, fils de, fils de pute Fils de pute Fils de pute Fils de, fils de, fils de pute Fils de pute A Marbella Su uno scafo a Marbella A Marbella A Marbella Su uno scafo a Marbella A Marbella, a Marbella, a Marbella</t>
+          <t>Dalla zona, fra', alla Marbella Volo verso Malaga Penso a farmi una vacanza Mamma sì, pardonnez-moi Su uno scafo a Marbella A Marbella Su uno scafo a Marbella Cubi sopra la mia barca Soldi dentro al cellophanne À Marbella, passato par Marocco Remontada d'Italia, on finit à Marsiglia, yah, yah, yah Philip, TK, Heuss, monnaie Venga, venga, la monnaie Va fan culo, fils de pute J'm'arrache, j'vais claquer les sous des gues-sh' J'ai fini tout mon cash, Western, moi, si c'est la dèche Si c'est la dèche J'suis tout bronzé dans mes stories J'me prends l'il des gens, c'est la folie Volo verso Malaga Penso a farmi una vacanza Mamma sì, pardonnez-moi Su uno scafo a Marbella A Marbella A Marbella Su uno scafo a Marbella A Marbella A Marbella Su uno scafo a Marbella J'claque tout mon oseille, t'inquiète, il reviendra Il reviendra C'est encore moi, mon gars, c'est bien la moulaga La moulaga J'sors de chez Gucci, arrivederci Arrivederci, arrivederci Tu nous connais comme Francesco Totti Francesco Totti, yah, yah Si je n'te réponds pas, bébé, ne m'attends pas Nan, nan, nan J'benda à Marbella avec Philip, TK Nan, nan, nan J'suis à Marbe', j'vais la marbrer, j'suis à Marbella Marbella J'suis à Marbe', j'vais la marbrer, j'suis à Marbella Volo verso Malaga Penso a farmi una vacanza Mamma sì, pardonnez-moi Su uno scafo a Marbella A Marbella Su uno scafo a Marbella A Marbella Su uno scafo a Marbella À Marbella, c'est vodka, vodka, vodka Tous les jours, la fiesta, jamais, jamais basta À Marbella, c'est vodka, vodka, vodka Tous les jours, la fiesta, jamais, jamais basta Volo verso Malaga Penso a farmi una vacanza Mamma sì, pardonnez-moi Su uno scafo a Marbella A Marbella A Marbella Su uno scafo a Marbella aA Marbella A Marbella Su uno scafo a Marbella Fils de pute Fils de, fils de, fils de pute Fils de pute Fils de pute Fils de, fils de, fils de pute Fils de pute A Marbella Su uno scafo a Marbella A Marbella A Marbella Su uno scafo a Marbella A Marbella, a Marbella, a Marbella</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ah, ah, ah Ah, ah, ah Ah, ah, ah Ah, ah, ah Cartel, bandits, Medellín Medellín, localisé dans un modèle de berline La zone, on délimite On délimite, on t'élimine Aucun délit mineur, on arrive en king On arrive en king J'rallume un gros pét' à bord du vaisseau Vaisseau Mafia 9.2, réseau, envoie les pesos C'est ça toutes les saisons Toutes les saisons, toutes, toutes les saisons Tu peux perdre une grosse somme mais perds pas la raison J'roule un zoula bord de mer, j'ai mis heja dans la paire J'ai détour par BX, bien branché pour les affaires La dégaine tah les bandits, dis-moi, qu'est-ce que t'en dis ? Dans la zone, c'est tendu, faut mettre à l'heure les pendules Heuss L'enfoiré, mapessa, dans sa mmh, j'ai calé ça, ouais J'suis dans l'bar, whisky, j'attends l'top départ Elle donne le go, go, go, go, go J'suis calibré comme Joe, Joe, Joe, Joe, Joe Joe, Joe You might also like Cartel, bandits, Medellín Medellín, localisé dans un modèle de berline La zone, on délimite On délimite, on t'élimine Aucun délit mineur, on arrive en king On arrive en king J'rallume un gros pét' à bord du vaisseau Vaisseau Mafia 9.2, réseau, envoie les pesos C'est ça toutes les saisons Toutes les saisons, toutes, toutes les saisons Tu peux perdre une grosse somme mais perds pas la raison Encore un diamant d'plus, j'mets toute la foule en pétard J'fume la super frozen plus, c'est p't-être mon dernier pétard J'étais dans un autre état, ce soir, on va rentrer tard J'ai gaspillé tous les taffef mais té-ma la pétasse Heuss L'enfoiré, mapessa, dans sa mmh, j'ai calé ça, ouais J'suis dans l'bar, whisky, j'attends l'top départ Elle donne le go, go, go, go, go J'suis calibré comme Joe, Joe, Joe, Joe, Joe Joe, Joe Cartel, bandits, Medellín Medellín, localisé dans un modèle de berline La zone, on délimite On délimite, on t'élimine Aucun délit mineur, on arrive en king On arrive en king J'rallume un gros pét' à bord du vaisseau Vaisseau Mafia 9.2, réseau, envoie les pesos C'est ça toutes les saisons Toutes les saisons, toutes, toutes les saisons Tu peux perdre une grosse somme mais perds pas la raison Cartel, bandits, Medellín Bandits, Medellín Bandits, Medellín Bandits, Medellín Bandits, Medellín</t>
+          <t>Ah, ah, ah Ah, ah, ah Ah, ah, ah Ah, ah, ah Cartel, bandits, Medellín Medellín, localisé dans un modèle de berline La zone, on délimite On délimite, on t'élimine Aucun délit mineur, on arrive en king On arrive en king J'rallume un gros pét' à bord du vaisseau Vaisseau Mafia 9.2, réseau, envoie les pesos C'est ça toutes les saisons Toutes les saisons, toutes, toutes les saisons Tu peux perdre une grosse somme mais perds pas la raison J'roule un zoula bord de mer, j'ai mis heja dans la paire J'ai détour par BX, bien branché pour les affaires La dégaine tah les bandits, dis-moi, qu'est-ce que t'en dis ? Dans la zone, c'est tendu, faut mettre à l'heure les pendules Heuss L'enfoiré, mapessa, dans sa mmh, j'ai calé ça, ouais J'suis dans l'bar, whisky, j'attends l'top départ Elle donne le go, go, go, go, go J'suis calibré comme Joe, Joe, Joe, Joe, Joe Joe, Joe Cartel, bandits, Medellín Medellín, localisé dans un modèle de berline La zone, on délimite On délimite, on t'élimine Aucun délit mineur, on arrive en king On arrive en king J'rallume un gros pét' à bord du vaisseau Vaisseau Mafia 9.2, réseau, envoie les pesos C'est ça toutes les saisons Toutes les saisons, toutes, toutes les saisons Tu peux perdre une grosse somme mais perds pas la raison Encore un diamant d'plus, j'mets toute la foule en pétard J'fume la super frozen plus, c'est p't-être mon dernier pétard J'étais dans un autre état, ce soir, on va rentrer tard J'ai gaspillé tous les taffef mais té-ma la pétasse Heuss L'enfoiré, mapessa, dans sa mmh, j'ai calé ça, ouais J'suis dans l'bar, whisky, j'attends l'top départ Elle donne le go, go, go, go, go J'suis calibré comme Joe, Joe, Joe, Joe, Joe Joe, Joe Cartel, bandits, Medellín Medellín, localisé dans un modèle de berline La zone, on délimite On délimite, on t'élimine Aucun délit mineur, on arrive en king On arrive en king J'rallume un gros pét' à bord du vaisseau Vaisseau Mafia 9.2, réseau, envoie les pesos C'est ça toutes les saisons Toutes les saisons, toutes, toutes les saisons Tu peux perdre une grosse somme mais perds pas la raison Cartel, bandits, Medellín Bandits, Medellín Bandits, Medellín Bandits, Medellín Bandits, Medellín</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Un sale matin, j'me réveille défoncé, j'écoute du Joe Dassin J'me rappelle de la veille j'plongeais mon bâton dans ses seins J'vais pas t'faire de dessin j'traîne à quatre dans l'viano, que des Nord-Coréens Bébé, pour toi, j'ai plus d'amour comme dans un bar à tains-p' Et l'OPJ, il croit m'la faire avec son baratin J'ai fait lever des foules, pénétré des foufs, fait rentrer des sous C'est Heusslaga, la moumou, rendez-vous Rentre pas dans ma tête, j'suis d'jà rentré dans sa schnk Sans latex, sous ballon, j'l'ai baisée dans la tess J'ai l'astuc pour qu'tu suces, Fernando Gomez Quand j'abuse, boisson russe, vodka polonaise Polonaise Lientenant-colonel, tiens, regarde nos honoraires Les mecs sont téméraires, un train d'vie accéléré Certifications, tout ça, j'ai pas l'temps d'célébrer D'ailleurs, viens, on va à me-da, là, j'suis déréglé L'impression qu'le temps s'arrête J'me refais l'film sans arrêt J'la baise, demain, j'disparais Envoie le compte, la mallette J'arrive en superstar, montre au poignet, veste en Louis Vui', là, j'vais rentrer tard, bébé Localisé dans un coupé noir, on a la meilleure, celle qui fait douter d'toi, You might also like J'aurais dû être dans la politique comme Mitterrand Avec un style de vie, des amis, avis différents J'veux pas mourir trop tard, fumant comme un vétéran Ni déléguer aux enfants tous mes ques-tru préférés J'suis même pas sûr d'arriver comme un produit dérivé Plus riche que demain, encore plus riche que hier Trop , papa fait la prière J'te laisse manger à ma table avec une p'tite cuillère L'argent fait pas l'bonheur, des menteurs comme la roue tourne Dieu merci, j'ai la forme, j'suis connu comme Jason Bourne J'reviens d'Marrakech, j'vais nehess à Middelbourg Bébé, faut d'la maille dehors, pas l'temps de faire l'amour Si tu veux, j'te baise en balle comme la femme de ménage Rendez-vous dans la cave ou bien au dernier étage C'est même possible que demain, le dealeur déménage Parce que l'poto s'est fait péter dans un gros pétage L'impression qu'le temps s'arrête J'me refais l'film sans arrêt J'la baise, demain, j'disparais Envoie le compte, la mallette J'arrive en superstar, montre au poignet, veste en Louis Vui', là, j'vais rentrer tard, bébé Localisé dans un coupé noir, on a la meilleure, celle qui fait douter d'toi, J'arrive en superstar, montre au poignet, veste en Louis Vui', là, j'vais rentrer tard, bébé Localisé dans un coupé noir, on a la meilleure, celle qui fait douter d'toi, J'aurais dû être dans la politique comme Mitterrand Avec un style de vie, des amis, avis différents J'veux pas mourir trop tard, fumant comme un vétéran Ni déléguer aux enfants tous mes ques-tru préférés J'arrive en superstar Localisé dans un coupé noir</t>
+          <t>Un sale matin, j'me réveille défoncé, j'écoute du Joe Dassin J'me rappelle de la veille j'plongeais mon bâton dans ses seins J'vais pas t'faire de dessin j'traîne à quatre dans l'viano, que des Nord-Coréens Bébé, pour toi, j'ai plus d'amour comme dans un bar à tains-p' Et l'OPJ, il croit m'la faire avec son baratin J'ai fait lever des foules, pénétré des foufs, fait rentrer des sous C'est Heusslaga, la moumou, rendez-vous Rentre pas dans ma tête, j'suis d'jà rentré dans sa schnk Sans latex, sous ballon, j'l'ai baisée dans la tess J'ai l'astuc pour qu'tu suces, Fernando Gomez Quand j'abuse, boisson russe, vodka polonaise Polonaise Lientenant-colonel, tiens, regarde nos honoraires Les mecs sont téméraires, un train d'vie accéléré Certifications, tout ça, j'ai pas l'temps d'célébrer D'ailleurs, viens, on va à me-da, là, j'suis déréglé L'impression qu'le temps s'arrête J'me refais l'film sans arrêt J'la baise, demain, j'disparais Envoie le compte, la mallette J'arrive en superstar, montre au poignet, veste en Louis Vui', là, j'vais rentrer tard, bébé Localisé dans un coupé noir, on a la meilleure, celle qui fait douter d'toi, J'aurais dû être dans la politique comme Mitterrand Avec un style de vie, des amis, avis différents J'veux pas mourir trop tard, fumant comme un vétéran Ni déléguer aux enfants tous mes ques-tru préférés J'suis même pas sûr d'arriver comme un produit dérivé Plus riche que demain, encore plus riche que hier Trop , papa fait la prière J'te laisse manger à ma table avec une p'tite cuillère L'argent fait pas l'bonheur, des menteurs comme la roue tourne Dieu merci, j'ai la forme, j'suis connu comme Jason Bourne J'reviens d'Marrakech, j'vais nehess à Middelbourg Bébé, faut d'la maille dehors, pas l'temps de faire l'amour Si tu veux, j'te baise en balle comme la femme de ménage Rendez-vous dans la cave ou bien au dernier étage C'est même possible que demain, le dealeur déménage Parce que l'poto s'est fait péter dans un gros pétage L'impression qu'le temps s'arrête J'me refais l'film sans arrêt J'la baise, demain, j'disparais Envoie le compte, la mallette J'arrive en superstar, montre au poignet, veste en Louis Vui', là, j'vais rentrer tard, bébé Localisé dans un coupé noir, on a la meilleure, celle qui fait douter d'toi, J'arrive en superstar, montre au poignet, veste en Louis Vui', là, j'vais rentrer tard, bébé Localisé dans un coupé noir, on a la meilleure, celle qui fait douter d'toi, J'aurais dû être dans la politique comme Mitterrand Avec un style de vie, des amis, avis différents J'veux pas mourir trop tard, fumant comme un vétéran Ni déléguer aux enfants tous mes ques-tru préférés J'arrive en superstar Localisé dans un coupé noir</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2.6.0, city gangsta Eh, Heuss L'enfoiré SHK SHK ISK, bande d'enfoirés Skch, skch, skch J'crois, c'est l'argent du hazi, cocaïna, extasy C'est tah les Wesh, mon cousin, prends le machin et vas-y J'traîne toujours avec des bougnoules, avec des 3azis Spah C'est comme les mafiosos, en ATH, les mêmes fusils Paris, c'est Alger-Centre, Casa', Brazza', Bamako L'argent, ça va, ça rentre, nique la balise à Monaco Skch Le terrain tourne à toute barzingue comme Roberto Baggio Skch, skch, skch, skch C'est pas la mêm rue, poto, c'est pas le mêm gâteau Le patron part en couille, il veut sa tête sur un plateau Skch Le p'tit sicar' va s'en occuper, il aime trop la taule Déjà aux arrivants du shit avec un téléphone Hier, j'ai pris vingt-deux balles dans les Bouches-du-Rhône Laisse pas traîner ton fils sur la route de Memphis Des fois, ça pue la pisse à l'arrière du Vel Satis Skch À dix dans les coulisses, à trente chez la nourrice Envoie le shooter, j'suis à Marrakech avec Viviche Écoute les conseils de Bachir ou Jean-Michel Bazire Ça fait plaisir quand y a Bazar, Gueule d'Ange et mon gars Pif Spah Ils ont relâché c'bar, on va niquer la mère à qui ? Écrasement d'tête, etcetera, y aura des pénaltys You might also like Mode S, j'prends la Sacem d'Aya Nakamura Mafieux comme Barksdale, à fond dans les virages Paname, c'est l'bordel, c'est pas les Émirats On achète sans compter, des broliques, du Dom Pé' Mode S, j'prends la Sacem d'Aya Nakamura Mafieux comme Barksdale, à fond dans les virages Paname, c'est l'bordel, c'est pas les Émirats On achète sans compter, des broliques, du Dom Pé' Ils sont traîtres comme le navet et la patata dans l'couscous Grr, rah Y a pas d'coup d'pouce, dans la roue, ça met qu'des bâtons J'ai un frère qui vient d'ber-tom Pah si tu m'croises à Décathlon Un p'tit polaire, une paire et du pollen pour rentrer au parlu Grr, rah Mes paroles sont tellement crues qu'tu l'as encore dans la ge-gor Tiens T'endors pas trop longtemps, ils inventeront qu't'es mort Si l'bosseur n'est pas d'ici, appelez-le par le nom d'sa ville Pah, pah Que ça tartine, ça roule des joints d'paki, à l'affût des civils Monte dans les affaires comme MH Tiens, khey, on a passé l'âge J'ai pas ché-lâ Asics mais bon, j'aime bien la maison Margiela Pah, pah La cité, d'mande à Heuss, le client veut un meuj' Avant, ils portaient tes courses, maintenant, les p'tits arrachent des ques-s' Rah Frérot, ne parle pas d'vécu, on sait qu'tu t'inventes une vie J'connais des mecs d'chez toi, ils m'ont dit Vas-y, lahuiss, c'est qui ? Dans nos quartiers, ça va péter comme lors du Printemps arabe On rêve de s'noyer dans l'paradis tout en nageant dans l'haram Et quand j'suis dans une salade, j'appelle mon avocat L'frérot veut bi3 son Clio 3 pour s'acheter un nouveau Toka' On va fermer des bocas, j'dehka d'vant leurs manières Tu veux nous faire le pack à quatre cinquante, l'ancien, j'suis pas né hier Mode S, j'prends la Sacem d'Aya Nakamura Mafieux comme Barksdale, à fond dans les virages Paname, c'est l'bordel, c'est pas les Émirats On achète sans compter, des broliques, du Dom Pé' Mode S, j'prends la Sacem d'Aya Nakamura Mafieux comme Barksdale, à fond dans les virages Paname, c'est l'bordel, c'est pas les Émirats On achète sans compter, des broliques, du Dom Pé' Mode S, j'prends la Sacem d'Aya Nakamura Mafieux comme Barksdale, à fond dans les virages Paname, c'est l'bordel, c'est pas les Émirats On achète sans compter, des broliques, du Dom Pé' On achète sans compter, des broliques, du Dom Pé 2.6.0, city gangsta</t>
+          <t>2.6.0, city gangsta Eh, Heuss L'enfoiré SHK SHK ISK, bande d'enfoirés Skch, skch, skch J'crois, c'est l'argent du hazi, cocaïna, extasy C'est tah les Wesh, mon cousin, prends le machin et vas-y J'traîne toujours avec des bougnoules, avec des 3azis Spah C'est comme les mafiosos, en ATH, les mêmes fusils Paris, c'est Alger-Centre, Casa', Brazza', Bamako L'argent, ça va, ça rentre, nique la balise à Monaco Skch Le terrain tourne à toute barzingue comme Roberto Baggio Skch, skch, skch, skch C'est pas la mêm rue, poto, c'est pas le mêm gâteau Le patron part en couille, il veut sa tête sur un plateau Skch Le p'tit sicar' va s'en occuper, il aime trop la taule Déjà aux arrivants du shit avec un téléphone Hier, j'ai pris vingt-deux balles dans les Bouches-du-Rhône Laisse pas traîner ton fils sur la route de Memphis Des fois, ça pue la pisse à l'arrière du Vel Satis Skch À dix dans les coulisses, à trente chez la nourrice Envoie le shooter, j'suis à Marrakech avec Viviche Écoute les conseils de Bachir ou Jean-Michel Bazire Ça fait plaisir quand y a Bazar, Gueule d'Ange et mon gars Pif Spah Ils ont relâché c'bar, on va niquer la mère à qui ? Écrasement d'tête, etcetera, y aura des pénaltys Mode S, j'prends la Sacem d'Aya Nakamura Mafieux comme Barksdale, à fond dans les virages Paname, c'est l'bordel, c'est pas les Émirats On achète sans compter, des broliques, du Dom Pé' Mode S, j'prends la Sacem d'Aya Nakamura Mafieux comme Barksdale, à fond dans les virages Paname, c'est l'bordel, c'est pas les Émirats On achète sans compter, des broliques, du Dom Pé' Ils sont traîtres comme le navet et la patata dans l'couscous Grr, rah Y a pas d'coup d'pouce, dans la roue, ça met qu'des bâtons J'ai un frère qui vient d'ber-tom Pah si tu m'croises à Décathlon Un p'tit polaire, une paire et du pollen pour rentrer au parlu Grr, rah Mes paroles sont tellement crues qu'tu l'as encore dans la ge-gor Tiens T'endors pas trop longtemps, ils inventeront qu't'es mort Si l'bosseur n'est pas d'ici, appelez-le par le nom d'sa ville Pah, pah Que ça tartine, ça roule des joints d'paki, à l'affût des civils Monte dans les affaires comme MH Tiens, khey, on a passé l'âge J'ai pas ché-lâ Asics mais bon, j'aime bien la maison Margiela Pah, pah La cité, d'mande à Heuss, le client veut un meuj' Avant, ils portaient tes courses, maintenant, les p'tits arrachent des ques-s' Rah Frérot, ne parle pas d'vécu, on sait qu'tu t'inventes une vie J'connais des mecs d'chez toi, ils m'ont dit Vas-y, lahuiss, c'est qui ? Dans nos quartiers, ça va péter comme lors du Printemps arabe On rêve de s'noyer dans l'paradis tout en nageant dans l'haram Et quand j'suis dans une salade, j'appelle mon avocat L'frérot veut bi3 son Clio 3 pour s'acheter un nouveau Toka' On va fermer des bocas, j'dehka d'vant leurs manières Tu veux nous faire le pack à quatre cinquante, l'ancien, j'suis pas né hier Mode S, j'prends la Sacem d'Aya Nakamura Mafieux comme Barksdale, à fond dans les virages Paname, c'est l'bordel, c'est pas les Émirats On achète sans compter, des broliques, du Dom Pé' Mode S, j'prends la Sacem d'Aya Nakamura Mafieux comme Barksdale, à fond dans les virages Paname, c'est l'bordel, c'est pas les Émirats On achète sans compter, des broliques, du Dom Pé' Mode S, j'prends la Sacem d'Aya Nakamura Mafieux comme Barksdale, à fond dans les virages Paname, c'est l'bordel, c'est pas les Émirats On achète sans compter, des broliques, du Dom Pé' On achète sans compter, des broliques, du Dom Pé 2.6.0, city gangsta</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>KZA, you got the heat C't'année, j'ai voyagé, j'regarde côté passager C'est plus comme avant, mon cur a déménagé Il est menacé, cadenassé, relaxé skch, skch, skch, skch, skch, skch, skch Bébé, s'te plait, fais attention, j'habite juste à côté Oublie pas qu't'es mon bébé, jamais j'oublierai le passé Tout c'qu'on a traversé, malgré l'amour un peu dépassé tchou Amsterdam, Bruxelles, Rotterdam, ça va aller J't'ai pas donné d'nouvelles, t'sais, j'ai bossé toute l'année Arrête de chialer, sèche tes larmes, ça va aller J't'ai pas donné d'nouvelles, t'sais, j'ai bossé toute l'année Donner, donner, donner ça, j'fais les dernières connexions Gros bisous sur Alexa miou, miou, miou Donner, donner, donner ça, moula, zoula, j'connais qu'ça Prends les précoces protection Mais c'est l'anarchie eh, c'est pas d'la magie nan Y a rien de facile nan, l'argent nous fascine ah ouais Mais c'est l'anarchie ah ouais, c'est pas d'la magie nan Y a rien de facile nan, l'argent nous fascine You might also like Eh, Western Union, Moneygram J'veux six lourds dans l'compte-épargne C'est la moumou, faut qu'on sépare Casa de papel Western Union, Moneygram J'veux six lourds dans l'compte-épargne C'est la moumou, faut qu'on sépare Casa de papel Mais c'est l'anarchie, putain, quel gâchis Ils veulent que j'tartine, que j'fasse double platine J'suis déjà parti, bébé, t'es d'la partie J't'ai dit, t'es ma moitié, j'ai vu toutes les raclis Amsterdam, Bruxelles, Rotterdam, ça va aller J't'ai pas donné d'nouvelles, t'sais, j'ai bossé toute l'année Arrête de chialer, sèche tes larmes, ça va aller J't'ai pas donné d'nouvelles, t'sais, j'ai bossé toute l'année Donner, donner, donner ça, j'fais les dernières connexions Gros bisous sur Alexa miou, miou, miou Donner, donner, donner ça, moula, zoula, j'connais qu'ça Prends les précoces protection Mais c'est l'anarchie eh, c'est pas d'la magie nan Y a rien de facile nan, l'argent nous fascine ah ouais Mais c'est l'anarchie ah ouais, c'est pas d'la magie nan Y a rien de facile nan, l'argent nous fascine</t>
+          <t>KZA, you got the heat C't'année, j'ai voyagé, j'regarde côté passager C'est plus comme avant, mon cur a déménagé Il est menacé, cadenassé, relaxé skch, skch, skch, skch, skch, skch, skch Bébé, s'te plait, fais attention, j'habite juste à côté Oublie pas qu't'es mon bébé, jamais j'oublierai le passé Tout c'qu'on a traversé, malgré l'amour un peu dépassé tchou Amsterdam, Bruxelles, Rotterdam, ça va aller J't'ai pas donné d'nouvelles, t'sais, j'ai bossé toute l'année Arrête de chialer, sèche tes larmes, ça va aller J't'ai pas donné d'nouvelles, t'sais, j'ai bossé toute l'année Donner, donner, donner ça, j'fais les dernières connexions Gros bisous sur Alexa miou, miou, miou Donner, donner, donner ça, moula, zoula, j'connais qu'ça Prends les précoces protection Mais c'est l'anarchie eh, c'est pas d'la magie nan Y a rien de facile nan, l'argent nous fascine ah ouais Mais c'est l'anarchie ah ouais, c'est pas d'la magie nan Y a rien de facile nan, l'argent nous fascine Eh, Western Union, Moneygram J'veux six lourds dans l'compte-épargne C'est la moumou, faut qu'on sépare Casa de papel Western Union, Moneygram J'veux six lourds dans l'compte-épargne C'est la moumou, faut qu'on sépare Casa de papel Mais c'est l'anarchie, putain, quel gâchis Ils veulent que j'tartine, que j'fasse double platine J'suis déjà parti, bébé, t'es d'la partie J't'ai dit, t'es ma moitié, j'ai vu toutes les raclis Amsterdam, Bruxelles, Rotterdam, ça va aller J't'ai pas donné d'nouvelles, t'sais, j'ai bossé toute l'année Arrête de chialer, sèche tes larmes, ça va aller J't'ai pas donné d'nouvelles, t'sais, j'ai bossé toute l'année Donner, donner, donner ça, j'fais les dernières connexions Gros bisous sur Alexa miou, miou, miou Donner, donner, donner ça, moula, zoula, j'connais qu'ça Prends les précoces protection Mais c'est l'anarchie eh, c'est pas d'la magie nan Y a rien de facile nan, l'argent nous fascine ah ouais Mais c'est l'anarchie ah ouais, c'est pas d'la magie nan Y a rien de facile nan, l'argent nous fascine</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Zeg P on the track Wiils Productions D'la moulaga, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga D'la moulaga, eh, donnez moi d'la moulaga J'ai dit, j'ai dit Donnez-moi d'la moula Ouais la mou-mou J'ai dit, j'ai dit Donnez-moi d'la moula Ju-Ju-JuL Ganté comme Soulax En esprit, j'fume que d'la moulax En esprit BG sur T-Max En esprit, le rétro gauche nique ma Rolex En esprit J'suis tellement une moula qu'elle veut que j'la casse Cinq piges que j'nique le game, putain, le temps passe Checke, checke, checke You might also like Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga D'la moulaga, eh, donnez moi d'la moulaga J'me rallume un zoula, j'récupère d'la moula, j'ai même pas dé-saoulé Heuss L'enfoiré, les méchants, tu m'reconnois, les tes-boî, les showcases, les tain-p' et d'la monnaie Skch, skch Donnez-moi d'la moula, une bouteille de cool-al, j'ai même pas décollé Skch, skch Kichta compressée, c'est pour mieux décompresser, demande au V, c'est pas du rap de caissiers Les aristocrates sont là que pour encaisser, caissier encaissé, je sens qu'j'vais tout casser Totò Riina juste avant son décès, guitarisé comme un mec d'ACDC Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga D'la moulaga, eh, donnez moi d'la moulaga En survêt' dans l'carré, on est sous moulax Ju-JuL, Heuss L'enfoiré, que des grosses moulax En survêt' dans l'carré, on est sous moulax Ju-JuL, Heuss L'enfoiré, que des grosses moulax Eh, d'la moulaga, d'la moulaga Eh, d'la moulaga, donnez-moi d'la moulaga Eh, d'la moulaga, d'la moulaga Eh, d'la moulaga, donnez-moi d'la moulaga</t>
+          <t>Zeg P on the track Wiils Productions D'la moulaga, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga D'la moulaga, eh, donnez moi d'la moulaga J'ai dit, j'ai dit Donnez-moi d'la moula Ouais la mou-mou J'ai dit, j'ai dit Donnez-moi d'la moula Ju-Ju-JuL Ganté comme Soulax En esprit, j'fume que d'la moulax En esprit BG sur T-Max En esprit, le rétro gauche nique ma Rolex En esprit J'suis tellement une moula qu'elle veut que j'la casse Cinq piges que j'nique le game, putain, le temps passe Checke, checke, checke Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga D'la moulaga, eh, donnez moi d'la moulaga J'me rallume un zoula, j'récupère d'la moula, j'ai même pas dé-saoulé Heuss L'enfoiré, les méchants, tu m'reconnois, les tes-boî, les showcases, les tain-p' et d'la monnaie Skch, skch Donnez-moi d'la moula, une bouteille de cool-al, j'ai même pas décollé Skch, skch Kichta compressée, c'est pour mieux décompresser, demande au V, c'est pas du rap de caissiers Les aristocrates sont là que pour encaisser, caissier encaissé, je sens qu'j'vais tout casser Totò Riina juste avant son décès, guitarisé comme un mec d'ACDC Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga D'la moulaga, eh, donnez moi d'la moulaga En survêt' dans l'carré, on est sous moulax Ju-JuL, Heuss L'enfoiré, que des grosses moulax En survêt' dans l'carré, on est sous moulax Ju-JuL, Heuss L'enfoiré, que des grosses moulax Eh, d'la moulaga, d'la moulaga Eh, d'la moulaga, donnez-moi d'la moulaga Eh, d'la moulaga, d'la moulaga Eh, d'la moulaga, donnez-moi d'la moulaga</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE You might also likeFévrier - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 290</t>
+          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE Février - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 2906 8ruki - Nou Ja Sa</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Wiils Production On est dans l'bend' d'puis l'époque ça date, on connaît la valeur du biff, nous on claque bah ouais Musique à fond dans le RS black ça pète, les cités d'France sortent du bloc sous Jack On danse le mia quand ça sonne un peu funk, jamais sans verre ou sans skunk J'arrive du futur comme Arnold, bats les c' d'être à la mode, j'casse les codes Pour faire du biff, on n'a pas changé d'méthode, la kichta est large comme la jante Bendo et studio, ça reste d'la vente, connexion fibre, y a pas d'latence Bébé, t's bien installée ? T'en fais pas, y aura pas d'malais Dans la suite, on va s'mettre à l'aise, j'ai d'la filtrée, j'ai d'l'amnés' Elle m'a déjà travaillé, elle peut compter ma maille Elle m'a déjà travaillé ola, ola, ola, bah ouais Elle m'a déjà travaillé, elle peut compter ma maille Elle m'a déjà travaillé ola, ola, ola, bah ouais J'ai ma kichta, ce soir on crame ça ah, carré VIP, on allume un feu d'camp ouh Trafiquant, c'est la calle ouh, full LV ola, ola, ola, bah ouais J'ai ma kichta, ce soir on crame ça ah, carré VIP, on allume un feu d'camp ouh Trafiquant, c'est la calle ouh, full LV ola, ola, ola, bah ouais You might also like Algérie, Oran, Congo, Kinshasa, faire d'la moula, toute façon, j'suis bon qu'ça Classe A, RS3, ma chérie, elle reste calme, garage, Clara je l'ai zappé c'est bon Tu peux Shazam Frappe de Lewandowski, grosse frappe de Zlatan, j'préfère quand tu achètes, j'aime pas quand tu jactes Fais du biff au black, ça finit au plac', v'-esqui l'bât, la coke s'transforme en crack J'suis comme un tartin d'Zippo, là ça va tarpin vite, mon cousin, bois un coup, c'est moi qui t'invite Jamais d'la vie, j'repartirai d'ici le ventre vide, j'prends des sous pendant, avant, après l'COVID Bébé, t'es bien installée ? T'en fais pas, y aura pas d'malaise Dans la suite, on va s'mettre à l'aise, j'ai d'la filtrée, j'ai d'l'amnés' Elle m'a déjà travaillé, elle peut compter ma maille Elle m'a déjà travaillé ola, ola, ola, bah ouais Elle m'a déjà travaillé, elle peut compter ma maille Elle m'a déjà travaillé ola, ola, ola, bah ouais J'ai ma kichta, ce soir on crame ça ah, carré VIP, on allume un feu d'camp ouh Trafiquant, c'est la calle ouh, full LV ola, ola, ola, bah ouais J'ai ma kichta, ce soir on crame ça ah, carré VIP, on allume un feu d'camp ouh Trafiquant, c'est la calle ouh, full LV ola, ola, ola, bah ouais Et j'prends la gov', j'descends sur Cannes, hier, j'étais à Amsterdam J'fais un bisou à madame ola, ola, ola, bah ouais Et j'prends la gov', j'descends sur Cannes, hier, j'étais à Amsterdam J'fais un bisou à madame ola, ola, ola, bah ouais</t>
+          <t>Wiils Production On est dans l'bend' d'puis l'époque ça date, on connaît la valeur du biff, nous on claque bah ouais Musique à fond dans le RS black ça pète, les cités d'France sortent du bloc sous Jack On danse le mia quand ça sonne un peu funk, jamais sans verre ou sans skunk J'arrive du futur comme Arnold, bats les c' d'être à la mode, j'casse les codes Pour faire du biff, on n'a pas changé d'méthode, la kichta est large comme la jante Bendo et studio, ça reste d'la vente, connexion fibre, y a pas d'latence Bébé, t's bien installée ? T'en fais pas, y aura pas d'malais Dans la suite, on va s'mettre à l'aise, j'ai d'la filtrée, j'ai d'l'amnés' Elle m'a déjà travaillé, elle peut compter ma maille Elle m'a déjà travaillé ola, ola, ola, bah ouais Elle m'a déjà travaillé, elle peut compter ma maille Elle m'a déjà travaillé ola, ola, ola, bah ouais J'ai ma kichta, ce soir on crame ça ah, carré VIP, on allume un feu d'camp ouh Trafiquant, c'est la calle ouh, full LV ola, ola, ola, bah ouais J'ai ma kichta, ce soir on crame ça ah, carré VIP, on allume un feu d'camp ouh Trafiquant, c'est la calle ouh, full LV ola, ola, ola, bah ouais Algérie, Oran, Congo, Kinshasa, faire d'la moula, toute façon, j'suis bon qu'ça Classe A, RS3, ma chérie, elle reste calme, garage, Clara je l'ai zappé c'est bon Tu peux Shazam Frappe de Lewandowski, grosse frappe de Zlatan, j'préfère quand tu achètes, j'aime pas quand tu jactes Fais du biff au black, ça finit au plac', v'-esqui l'bât, la coke s'transforme en crack J'suis comme un tartin d'Zippo, là ça va tarpin vite, mon cousin, bois un coup, c'est moi qui t'invite Jamais d'la vie, j'repartirai d'ici le ventre vide, j'prends des sous pendant, avant, après l'COVID Bébé, t'es bien installée ? T'en fais pas, y aura pas d'malaise Dans la suite, on va s'mettre à l'aise, j'ai d'la filtrée, j'ai d'l'amnés' Elle m'a déjà travaillé, elle peut compter ma maille Elle m'a déjà travaillé ola, ola, ola, bah ouais Elle m'a déjà travaillé, elle peut compter ma maille Elle m'a déjà travaillé ola, ola, ola, bah ouais J'ai ma kichta, ce soir on crame ça ah, carré VIP, on allume un feu d'camp ouh Trafiquant, c'est la calle ouh, full LV ola, ola, ola, bah ouais J'ai ma kichta, ce soir on crame ça ah, carré VIP, on allume un feu d'camp ouh Trafiquant, c'est la calle ouh, full LV ola, ola, ola, bah ouais Et j'prends la gov', j'descends sur Cannes, hier, j'étais à Amsterdam J'fais un bisou à madame ola, ola, ola, bah ouais Et j'prends la gov', j'descends sur Cannes, hier, j'étais à Amsterdam J'fais un bisou à madame ola, ola, ola, bah ouais</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Préparez le shit, préparez le bloc Ramenez-moi la sacoche, crie akha si y'a les schmits Aujourd'hui je ferai temps plein Aujourd'hui je ferai temps plein A Air Bel, on te sert la frappe La Caste', on te sert la frappe XXX, on te sert la frappe Au Plan d'Aou, on te sert la, on te sert la On te sert la frappe, on te sert la frappe On te sert la frappe, on te sert la, on te sert la Vite passe Caprisun Posé, je suis seul Sacoche, que du seum Parle sur moi j'te baise ta mère, je coince ta sur Fils de pute, je me marre et pas toi Fais pas l'plein, va régler ton ardoise Parle sur moi, le petit Kofs se déter' Pépère mais-mais j'te nique ta mère si j'trace T'inquiète, je sais très bien où tu es J'porte mes couilles, demande à la Mucho Nique tes morts, toi et ton amitié J'vous baise sur conseil de RG Mon équipe est a jeun, oui la tienne est perchée Arrête de faire chier, oui arrête de faire chier Arrête de faire chier, tu pourras plus marcher Posé dans le bloc et j'attends les clients J'm'invente pas une vie, moi je roule en Clio J'pense à l'argent et même en priant a'oudoubiLlah ! XXX You might also like Préparez le shit, préparez le bloc Ramenez-moi la sacoche, crie akha si y'a les schmits Aujourd'hui je ferai temps plein Aujourd'hui je ferai temps plein A Air Bel, on te sert la frappe La Caste', on te sert la frappe XXX, on te sert la frappe Au Plan d'Aou, on te sert la, on te sert la On te sert la frappe, on te sert la frappe On te sert la frappe, on te sert la, on te sert la Tous comme JR dans Dallas Ils s'prennent tous pour Tony Montana On fait l'hala, on va khalass Ma belle il faut causer pour avoir son palace Tu fais rien si t'as pas de connaissance Mort dans le casting, c'est la renaissance Pas de morale, on est sourds, affolés par les sous On est fous, fourbes, on prend le mauvais sens Est-ce que je fais du mauvais son ? Franco, franco, dis moi le si t'aimes, ton père le XXX J'suis pas blanco, cramé comme les Black Panthers Là c'est Ouss' dans les ondes, dégun qui me raisonne J'baise tout dans les parages J'veux le coffre dans la maison avec la combinaison On a la belle vie le zin, vatch fouder, caralho Coup d'crosse dans la ganache Cicatrices et points de suture Kalash dans le garage, shit dans l'emballage KofsOussagaza, c'est la soudure Jarrose mes boutures, bientôt on va les fumer Haute couture, on attire les femelles Ne fais pas le fou, t'es foutu Fils de pute, tu ne pourras pas assumer J'fume la frappe dans le semi Un peu plus de 100 grammes dans la semaine Celui qui tassomme si tu n'as pas sommeil Dors toujours pas la nuit, récolte ce qu'on a semé Trop de 3ein, all eyes on me Les gens me dévisagent de la tête à la semelle Pire XXX 300 000 Touche à un de mon équipe et tu te feras harceler Préparez le shit, préparez le bloc Ramenez-moi la sacoche, crie akha si y'a les schmits Aujourd'hui je ferai temps plein Aujourd'hui je ferai temps plein A Paname, on te sert la frappe Dans l'9.3, on te sert la frappe Ou l'9.2, on te sert la frappe Les Boute-en-train, on te sert la, on te sert la On te sert la frappe, on te sert la frappe On te sert la frappe, on te sert la, on te sert la T'as rien écouté, j'vais tout découper Tu veux d'la çéqué, vas-y viens la goûter Elle est pas coupée, c'est d'la nouveauté T'façon tu connais, tout est cellophané La nuit, la journée, tous les mois, toute l'année La keuba s'est garée, le dealer s'est barré Là c'est Heuss L'enfoiré, impossible de foirer J'suis un putain d'buteur à la Suarez Les euros, d'la gue-dro, les feukeus dans l'rétro J'les vi-ser dans l'métro, iencli au bigo, on est pas des mythos J'ai un Pass Navigo, on arrive aussitôt, j'décolle de la cité On refait la déco', j'ai la mentalité, celle de Zé pequeno La moralité c'est que Bene s'est fait berner par un clito, par un clito Ça prépare le shit mais vas-y chut N'ouvre pas ta chatte ou j'planifie ta chute Nique la BAC et tous ces fils de pute J'suis dans mon kartel, j'vais graille chez Kamel J'bois du Jack miel et j'écoute du Jacques Brel Heuss L'enfoiré, j'suis opérationnel Nouveaux 16, nouveaux flows, nouveaux ienclis Là c'est Heuss L'enfoiré dans les amplis Aujourd'hui j'vi-ser encore un nouveau iencli A l'ancienne comme Del Piero, le terrain d'héro' Jusqu'à Valenciennes j'ai ramené le sirop comme Robert De Niro Appelle-moi surement si tu veux pécho mais t'auras pas d'échant' Les mans sont qués-cho, dédicace à Malsain, j'suis dans le magasin J'oublie pas Many en Cisjordanie, le meilleur pour la fin K-K-K.O.F.S, ma gueule Oussagaza, Heuss L'enfoiré Marseille, Paname Wesh Terro, wesh Malsain 9.3 ma gueule, 9.2, 1.3 On te sert la frappe, on te sert la frappe Viens au rrainté ma gueule hein, dans l'9.3 et on te sert la frappe Préparez le shit, préparez le bloc Ramenez-moi la sacoche, crie akha si y'a les schmits Aujourd'hui je ferai temps plein Aujourd'hui je ferai temps plein A Air Bel, on te sert la frappe La Caste', on te sert la frappe XXX, on te sert la frappe Au Plan d'Aou, on te sert la, on te sert la On te sert la frappe, on te sert la frappe On te sert la frappe, on te sert la, on te sert la1</t>
+          <t>Préparez le shit, préparez le bloc Ramenez-moi la sacoche, crie akha si y'a les schmits Aujourd'hui je ferai temps plein Aujourd'hui je ferai temps plein A Air Bel, on te sert la frappe La Caste', on te sert la frappe XXX, on te sert la frappe Au Plan d'Aou, on te sert la, on te sert la On te sert la frappe, on te sert la frappe On te sert la frappe, on te sert la, on te sert la Vite passe Caprisun Posé, je suis seul Sacoche, que du seum Parle sur moi j'te baise ta mère, je coince ta sur Fils de pute, je me marre et pas toi Fais pas l'plein, va régler ton ardoise Parle sur moi, le petit Kofs se déter' Pépère mais-mais j'te nique ta mère si j'trace T'inquiète, je sais très bien où tu es J'porte mes couilles, demande à la Mucho Nique tes morts, toi et ton amitié J'vous baise sur conseil de RG Mon équipe est a jeun, oui la tienne est perchée Arrête de faire chier, oui arrête de faire chier Arrête de faire chier, tu pourras plus marcher Posé dans le bloc et j'attends les clients J'm'invente pas une vie, moi je roule en Clio J'pense à l'argent et même en priant a'oudoubiLlah ! XXX Préparez le shit, préparez le bloc Ramenez-moi la sacoche, crie akha si y'a les schmits Aujourd'hui je ferai temps plein Aujourd'hui je ferai temps plein A Air Bel, on te sert la frappe La Caste', on te sert la frappe XXX, on te sert la frappe Au Plan d'Aou, on te sert la, on te sert la On te sert la frappe, on te sert la frappe On te sert la frappe, on te sert la, on te sert la Tous comme JR dans Dallas Ils s'prennent tous pour Tony Montana On fait l'hala, on va khalass Ma belle il faut causer pour avoir son palace Tu fais rien si t'as pas de connaissance Mort dans le casting, c'est la renaissance Pas de morale, on est sourds, affolés par les sous On est fous, fourbes, on prend le mauvais sens Est-ce que je fais du mauvais son ? Franco, franco, dis moi le si t'aimes, ton père le XXX J'suis pas blanco, cramé comme les Black Panthers Là c'est Ouss' dans les ondes, dégun qui me raisonne J'baise tout dans les parages J'veux le coffre dans la maison avec la combinaison On a la belle vie le zin, vatch fouder, caralho Coup d'crosse dans la ganache Cicatrices et points de suture Kalash dans le garage, shit dans l'emballage KofsOussagaza, c'est la soudure Jarrose mes boutures, bientôt on va les fumer Haute couture, on attire les femelles Ne fais pas le fou, t'es foutu Fils de pute, tu ne pourras pas assumer J'fume la frappe dans le semi Un peu plus de 100 grammes dans la semaine Celui qui tassomme si tu n'as pas sommeil Dors toujours pas la nuit, récolte ce qu'on a semé Trop de 3ein, all eyes on me Les gens me dévisagent de la tête à la semelle Pire XXX 300 000 Touche à un de mon équipe et tu te feras harceler Préparez le shit, préparez le bloc Ramenez-moi la sacoche, crie akha si y'a les schmits Aujourd'hui je ferai temps plein Aujourd'hui je ferai temps plein A Paname, on te sert la frappe Dans l'9.3, on te sert la frappe Ou l'9.2, on te sert la frappe Les Boute-en-train, on te sert la, on te sert la On te sert la frappe, on te sert la frappe On te sert la frappe, on te sert la, on te sert la T'as rien écouté, j'vais tout découper Tu veux d'la çéqué, vas-y viens la goûter Elle est pas coupée, c'est d'la nouveauté T'façon tu connais, tout est cellophané La nuit, la journée, tous les mois, toute l'année La keuba s'est garée, le dealer s'est barré Là c'est Heuss L'enfoiré, impossible de foirer J'suis un putain d'buteur à la Suarez Les euros, d'la gue-dro, les feukeus dans l'rétro J'les vi-ser dans l'métro, iencli au bigo, on est pas des mythos J'ai un Pass Navigo, on arrive aussitôt, j'décolle de la cité On refait la déco', j'ai la mentalité, celle de Zé pequeno La moralité c'est que Bene s'est fait berner par un clito, par un clito Ça prépare le shit mais vas-y chut N'ouvre pas ta chatte ou j'planifie ta chute Nique la BAC et tous ces fils de pute J'suis dans mon kartel, j'vais graille chez Kamel J'bois du Jack miel et j'écoute du Jacques Brel Heuss L'enfoiré, j'suis opérationnel Nouveaux 16, nouveaux flows, nouveaux ienclis Là c'est Heuss L'enfoiré dans les amplis Aujourd'hui j'vi-ser encore un nouveau iencli A l'ancienne comme Del Piero, le terrain d'héro' Jusqu'à Valenciennes j'ai ramené le sirop comme Robert De Niro Appelle-moi surement si tu veux pécho mais t'auras pas d'échant' Les mans sont qués-cho, dédicace à Malsain, j'suis dans le magasin J'oublie pas Many en Cisjordanie, le meilleur pour la fin K-K-K.O.F.S, ma gueule Oussagaza, Heuss L'enfoiré Marseille, Paname Wesh Terro, wesh Malsain 9.3 ma gueule, 9.2, 1.3 On te sert la frappe, on te sert la frappe Viens au rrainté ma gueule hein, dans l'9.3 et on te sert la frappe Préparez le shit, préparez le bloc Ramenez-moi la sacoche, crie akha si y'a les schmits Aujourd'hui je ferai temps plein Aujourd'hui je ferai temps plein A Air Bel, on te sert la frappe La Caste', on te sert la frappe XXX, on te sert la frappe Au Plan d'Aou, on te sert la, on te sert la On te sert la frappe, on te sert la frappe On te sert la frappe, on te sert la, on te sert la1</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Oui oui, si si Pro-Pro-Professor Skch C'est pas Zampa mais c'est qu'ont fermé la pharma eh Ça, c'est une lance-ba qui les a super bien informé eh Tu la fermes, tu finis infirme à l'infirmerie la street L'OPJ raconte sa vie, moi, j'ai des barres de riz Maman m'a vu faire du sale, papa m'a vu breliqué Pour la moula, tu peux tout niquer, les murs, on les aurait Ça sort direct du comico, l'baveux lui a fait d'l'aïkido C'est d'la re-pu d'Amazonie et tu m'arranges pas, Sur l'retour d'Rotter' en bolide wouh, l'habitacl est parfumé Toi, tu t'réveilles dans ton vomi, t'as trop bu, tu fais ds ballons En plus, y avait d'la meuf à fouet, d'la patate à tartiner Y a du étiré, comme Heuss, j'ai fait l'enfoiré, putain Remets rien à plus tard, j'suis plus déter' qu'un buteur Sur la , j'ai mis deux pleins, j'te fais d'la dinguerie pour deux plots Les traîtres ont l'il du cyclope, à Puerto Banús , y a l'Oclo Boy, des îles, déter' comme un mec du You might also like J'rappe pas pour vous remplir la tête Faut qu'j'arrête la cigarette J'rappe pas pour vous remplir la tête La galette ou la plaquette J'rappe pas pour vous remplir la tête Grosse kichta sur la palette J'rappe pas pour vous remplir la tête Une grosse kichta sur la palette J'rappe pas pour vous remplir la tête, de l'oseille plein les poches Fini les tête-à-tête, c'est la Kalashnikov juste pour faire la guerre Eh eh, eh, eh, de l'oseille plein les poches Fini les tête-à-tête, c'est la Kalashnikov juste pour faire la guerre Passe-leur le selem, fais-leur un coucou d'la part du Général et d'la moumou Double GG, Christian Loubou', touche pas la recette, ça, c'est à nougous D'l'est à l'ouest, tu sais qu'on est beaucoup, j'follow que ny-Ma, c'est mon sin-cou skch, skch, skch, skch J'follow que ny-Ma, c'est mon sin-cou En c'moment, j'mène la vie de Zizou, ta salope me fait les bisous D'mande à mon gars bandit Bantou, dans la zone 6, on la vend tous vend tous, vend tous C'est la street, mon pote, on est 112 112, 112, c'est la street, mon pote Sur Paris, j'suis comme sur un Grand Prix, j'arrive plus à dormir Le sac n'est pas rempli et pour les , coups d'shlass dans l'bide Histoire splendide, ticket d'cantine, Plus rien à graille, ça va s'faire la J'rappe pas pour vous remplir la tête Faut qu'j'arrête la cigarette J'rappe pas pour vous remplir la tête La galette ou la plaquette J'rappe pas pour vous remplir la tête Grosse kichta sur la palette J'rappe pas pour vous remplir la tête Une grosse kichta sur la palette J'rappe pas pour vous remplir la tête, de l'oseille plein les poches Fini les tête-à-tête, c'est la Kalashnikov juste pour faire la guerre Eh eh, eh, eh, de l'oseille plein les poches Fini les tête-à-tête, c'est la Kalashnikov juste pour faire la guerre C'est pas Zampa mais c'est qu'ont fermé la pharma eh Ça, c'est une lance-ba qui les a super bien informé eh Tu la fermes, tu finis infirme à l'infirmerie skch, skch, eh L'OPJ raconte sa vie, moi, j'ai des barres de riz eh Heuss L'enfoiré c'est la street, mon pote Faut qu'j'arrête la cigarette La galette ou la plaquette Grosse kichta sur la palette Une grosse kichta sur la palette Faut qu'j'arrête la cigarette La galette ou la plaquette Grosse kichta sur la palette Une grosse kichta sur la palette Faut qu'j'arrête la cigarette La galette ou la plaquette Grosse kichta sur la palette Une grosse kichta sur la palette</t>
+          <t>Oui oui, si si Pro-Pro-Professor Skch C'est pas Zampa mais c'est qu'ont fermé la pharma eh Ça, c'est une lance-ba qui les a super bien informé eh Tu la fermes, tu finis infirme à l'infirmerie la street L'OPJ raconte sa vie, moi, j'ai des barres de riz Maman m'a vu faire du sale, papa m'a vu breliqué Pour la moula, tu peux tout niquer, les murs, on les aurait Ça sort direct du comico, l'baveux lui a fait d'l'aïkido C'est d'la re-pu d'Amazonie et tu m'arranges pas, Sur l'retour d'Rotter' en bolide wouh, l'habitacl est parfumé Toi, tu t'réveilles dans ton vomi, t'as trop bu, tu fais ds ballons En plus, y avait d'la meuf à fouet, d'la patate à tartiner Y a du étiré, comme Heuss, j'ai fait l'enfoiré, putain Remets rien à plus tard, j'suis plus déter' qu'un buteur Sur la , j'ai mis deux pleins, j'te fais d'la dinguerie pour deux plots Les traîtres ont l'il du cyclope, à Puerto Banús , y a l'Oclo Boy, des îles, déter' comme un mec du J'rappe pas pour vous remplir la tête Faut qu'j'arrête la cigarette J'rappe pas pour vous remplir la tête La galette ou la plaquette J'rappe pas pour vous remplir la tête Grosse kichta sur la palette J'rappe pas pour vous remplir la tête Une grosse kichta sur la palette J'rappe pas pour vous remplir la tête, de l'oseille plein les poches Fini les tête-à-tête, c'est la Kalashnikov juste pour faire la guerre Eh eh, eh, eh, de l'oseille plein les poches Fini les tête-à-tête, c'est la Kalashnikov juste pour faire la guerre Passe-leur le selem, fais-leur un coucou d'la part du Général et d'la moumou Double GG, Christian Loubou', touche pas la recette, ça, c'est à nougous D'l'est à l'ouest, tu sais qu'on est beaucoup, j'follow que ny-Ma, c'est mon sin-cou skch, skch, skch, skch J'follow que ny-Ma, c'est mon sin-cou En c'moment, j'mène la vie de Zizou, ta salope me fait les bisous D'mande à mon gars bandit Bantou, dans la zone 6, on la vend tous vend tous, vend tous C'est la street, mon pote, on est 112 112, 112, c'est la street, mon pote Sur Paris, j'suis comme sur un Grand Prix, j'arrive plus à dormir Le sac n'est pas rempli et pour les , coups d'shlass dans l'bide Histoire splendide, ticket d'cantine, Plus rien à graille, ça va s'faire la J'rappe pas pour vous remplir la tête Faut qu'j'arrête la cigarette J'rappe pas pour vous remplir la tête La galette ou la plaquette J'rappe pas pour vous remplir la tête Grosse kichta sur la palette J'rappe pas pour vous remplir la tête Une grosse kichta sur la palette J'rappe pas pour vous remplir la tête, de l'oseille plein les poches Fini les tête-à-tête, c'est la Kalashnikov juste pour faire la guerre Eh eh, eh, eh, de l'oseille plein les poches Fini les tête-à-tête, c'est la Kalashnikov juste pour faire la guerre C'est pas Zampa mais c'est qu'ont fermé la pharma eh Ça, c'est une lance-ba qui les a super bien informé eh Tu la fermes, tu finis infirme à l'infirmerie skch, skch, eh L'OPJ raconte sa vie, moi, j'ai des barres de riz eh Heuss L'enfoiré c'est la street, mon pote Faut qu'j'arrête la cigarette La galette ou la plaquette Grosse kichta sur la palette Une grosse kichta sur la palette Faut qu'j'arrête la cigarette La galette ou la plaquette Grosse kichta sur la palette Une grosse kichta sur la palette Faut qu'j'arrête la cigarette La galette ou la plaquette Grosse kichta sur la palette Une grosse kichta sur la palette</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE You might also likeFévrier - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 290</t>
+          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE Février - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 2906 8ruki - Nou Ja Sa</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>N.A.Z.A, tu connais le name C'est la mou'-mou' Eh, skush Sur la vie d'ma mère Sur la vie d'ma mère, j'ai vue sur la mer Han Sur la vie d'ma mère Sur la vie d'ma mère, j'ai vue sur la mer Han J'ai deux putes et un pit, comme un commandant qui va commander J'ai d'l'argent comptant, est-ce que tu m'entends ? J'sors du comico, j'refais mes lacets Relaxé, j'fonce au thalasso, j'crois qu'j'vais m'faire masser Pas l'temps, délire pas, j'ai pas l'temps J'suis dans l'établissement, dans ton arrondissement, han-han J'suis squé-ma dans l'appart', Manny est dans la vague Ta racli dans l'Abarth, on récupèr ta part Et on v'-esqui les pimpons, Schwarzengger sort le pe-pom Et on v'-esqui les pimpons, Schwarzenegger sort le pe-pom You might also like Sur la vie d'ma mère Sur la vie d'ma mère, j'ai vue sur la mer Han Sur la vie d'ma mère Sur la vie d'ma mère, j'ai vue sur la mer Han J'sors du Bella, pas de mitard, renvoie mes lards, j'sors la guitare Stop Y a les métaux dans le Vitto, pas de lève-tôt dans le Merco Stop On sait jamais, on la remet désormais J'étais chez toi pendant qu'tu dormais, 3.5.7, on sait jamais Pas l'temps, délire pas, j'ai pas l'temps J'suis dans l'établissement, dans ton arrondissement, han-han J'suis squé-ma dans l'appart', Manny est dans la vague Ta racli dans l'Abarth, on récupère ta part Et on v'-esqui les pimpons, Schwarzenegger sort le pe-pom Et on v'-esqui les pimpons, Schwarzenegger sort le pe-pom Sur la vie d'ma mère Sur la vie d'ma mère, j'ai vue sur la mer Han Sur la vie d'ma mère Sur la vie d'ma mère, j'ai vue sur la mer Han Mana-mana-mana-ma Mana-mana-mana-mana-mana-mana-ma Mana-mana-mana-ma Mana-mana-mana-mana-mana-mana-ma</t>
+          <t>N.A.Z.A, tu connais le name C'est la mou'-mou' Eh, skush Sur la vie d'ma mère Sur la vie d'ma mère, j'ai vue sur la mer Han Sur la vie d'ma mère Sur la vie d'ma mère, j'ai vue sur la mer Han J'ai deux putes et un pit, comme un commandant qui va commander J'ai d'l'argent comptant, est-ce que tu m'entends ? J'sors du comico, j'refais mes lacets Relaxé, j'fonce au thalasso, j'crois qu'j'vais m'faire masser Pas l'temps, délire pas, j'ai pas l'temps J'suis dans l'établissement, dans ton arrondissement, han-han J'suis squé-ma dans l'appart', Manny est dans la vague Ta racli dans l'Abarth, on récupèr ta part Et on v'-esqui les pimpons, Schwarzengger sort le pe-pom Et on v'-esqui les pimpons, Schwarzenegger sort le pe-pom Sur la vie d'ma mère Sur la vie d'ma mère, j'ai vue sur la mer Han Sur la vie d'ma mère Sur la vie d'ma mère, j'ai vue sur la mer Han J'sors du Bella, pas de mitard, renvoie mes lards, j'sors la guitare Stop Y a les métaux dans le Vitto, pas de lève-tôt dans le Merco Stop On sait jamais, on la remet désormais J'étais chez toi pendant qu'tu dormais, 3.5.7, on sait jamais Pas l'temps, délire pas, j'ai pas l'temps J'suis dans l'établissement, dans ton arrondissement, han-han J'suis squé-ma dans l'appart', Manny est dans la vague Ta racli dans l'Abarth, on récupère ta part Et on v'-esqui les pimpons, Schwarzenegger sort le pe-pom Et on v'-esqui les pimpons, Schwarzenegger sort le pe-pom Sur la vie d'ma mère Sur la vie d'ma mère, j'ai vue sur la mer Han Sur la vie d'ma mère Sur la vie d'ma mère, j'ai vue sur la mer Han Mana-mana-mana-ma Mana-mana-mana-mana-mana-mana-ma Mana-mana-mana-ma Mana-mana-mana-mana-mana-mana-ma</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Bébé, ils sont pas de taille, j'finis le tour de la Terre Il y a trop de gens qui braillent mais on va les faire taire En tournée tout l'été, ma chérie s'inquiétait J'dépose plus de CV, je mets que des coups de CB J'vais pas la quitter, elle me voit partout J'ai pas hésité, c'était le mektoub J'ai pas jalousé, gros, chacun son tour Moi, j'fais que m'amuser, mes sons ils cassent tout Elle s'est entêtée mais elle pense à nous Ils ont enquêté, y avait trop de jaloux Je t'ai fait plurer, ma chérie, j'avoue J'ai tout rgretté, je t'aime comme un fou Reste à mes côtés, pour toi, mon cur il bat Ouais, j'ai déconné, je prends un nouveau départ Laisse-moi mieux t'aimer, me dit pas C'est trop tard Laisse-moi mieux t'aimer, y a rien qui nous sépare Reste à mes côtés, pour toi, mon cur il bat Ouais, j'ai déconné, je prends un nouveau départ Laisse-moi mieux t'aimer, me dit pas C'est trop tard Laisse-moi mieux t'aimer, y a rien qui nous sépare You might also like Mon bébé, tes sexy, j'vois notre avenir qui se dessine On a eu des soucis, ton parfum me rappelle le Mexique J'me fais seul comme Pequeño mais j'ai grandi trop vite Moi, j'ai vu des choses ignobles juste avant la perquise Là, j'me sens capable, aujourd'hui, ça va Inséparables comme Pablo et Tata Là, j'me sens capable, aujourd'hui, ça va Inséparables comme Pablo et Tata Elle s'est entêtée mais elle pense à nous Ils ont enquêté, y avait trop de jaloux Je t'ai fait pleurer, ma chérie, j'avoue J'ai tout regretté, je t'aime comme un fou Reste à mes côtés, pour toi, mon cur il bat Ouais, j'ai déconné, je prends un nouveau départ Laisse-moi mieux t'aimer, me dit pas C'est trop tard Laisse-moi mieux t'aimer, y a rien qui nous sépare Reste à mes côtés, pour toi, mon cur il bat J'ai trop déconné, je prends un nouveau départ Laisse-moi mieux t'aimer, me dit pas C'est trop tard Laisse-moi mieux t'aimer, y a rien qui nous sépare</t>
+          <t>Bébé, ils sont pas de taille, j'finis le tour de la Terre Il y a trop de gens qui braillent mais on va les faire taire En tournée tout l'été, ma chérie s'inquiétait J'dépose plus de CV, je mets que des coups de CB J'vais pas la quitter, elle me voit partout J'ai pas hésité, c'était le mektoub J'ai pas jalousé, gros, chacun son tour Moi, j'fais que m'amuser, mes sons ils cassent tout Elle s'est entêtée mais elle pense à nous Ils ont enquêté, y avait trop de jaloux Je t'ai fait plurer, ma chérie, j'avoue J'ai tout rgretté, je t'aime comme un fou Reste à mes côtés, pour toi, mon cur il bat Ouais, j'ai déconné, je prends un nouveau départ Laisse-moi mieux t'aimer, me dit pas C'est trop tard Laisse-moi mieux t'aimer, y a rien qui nous sépare Reste à mes côtés, pour toi, mon cur il bat Ouais, j'ai déconné, je prends un nouveau départ Laisse-moi mieux t'aimer, me dit pas C'est trop tard Laisse-moi mieux t'aimer, y a rien qui nous sépare Mon bébé, tes sexy, j'vois notre avenir qui se dessine On a eu des soucis, ton parfum me rappelle le Mexique J'me fais seul comme Pequeño mais j'ai grandi trop vite Moi, j'ai vu des choses ignobles juste avant la perquise Là, j'me sens capable, aujourd'hui, ça va Inséparables comme Pablo et Tata Là, j'me sens capable, aujourd'hui, ça va Inséparables comme Pablo et Tata Elle s'est entêtée mais elle pense à nous Ils ont enquêté, y avait trop de jaloux Je t'ai fait pleurer, ma chérie, j'avoue J'ai tout regretté, je t'aime comme un fou Reste à mes côtés, pour toi, mon cur il bat Ouais, j'ai déconné, je prends un nouveau départ Laisse-moi mieux t'aimer, me dit pas C'est trop tard Laisse-moi mieux t'aimer, y a rien qui nous sépare Reste à mes côtés, pour toi, mon cur il bat J'ai trop déconné, je prends un nouveau départ Laisse-moi mieux t'aimer, me dit pas C'est trop tard Laisse-moi mieux t'aimer, y a rien qui nous sépare</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Ola chica, qu'est-ce t'as fait ? ouh, j'ai tout caché à Santafe wAllah Y a les képis dans l'estafette ouh, j'sors du ballon donc j'fais la fête sku, sku On fait remplir les narines à Maradona J'ramène le machin qui vient du Maracana J't'ai pas vu tourner en promenade avec Nyma Soolking, Heuss et ma-Ny, c'est un assassinat Dame-me-me Elle est bonne mais y a toujours un mais Dame-me-me Faut les lovés pour la calmer Laï, laï, laï, laï GP-800 et casque Araï Laï, laï, laï, laï On a fait tout ça pour d'la maille Elle arrive en te-boî, les seins siliconés Tout l'mond la connait, elle a cent mill abonnés Fallait pas faire le con, fallait pas tout lui donner Elle t'a fait du s'hour, tu lui as tout pardonné You might also like Dame-me-me Elle est bonne mais y a toujours un mais Dame-me-me Faut les lovés pour la calmer Tu connais mon sin-c', on l'appelle Le Heuss Maintenant, tu la 7ess, j'démarre la RS Malaga, Boumerdes, Buenos Aires Grosse brigade, c'est l'OCTRIS, pas les CRS J'la sens pas, j'ai benda en Hollanda Ma-Ny envoie les mandats, j'suis posé avec Anita Et fallait pas libérer Nyma, c'est un assassinat J'fonce au Panama, j'travaille en famille, c'est pas du cinéma Laï, laï, laï, laï GP-800 et casque Araï Laï, laï, laï, laï On a fait tout ça pour d'la maille Elle arrive en te-boî, les seins siliconés Tout l'monde la connait, elle a cent mille abonnés Fallait pas faire le con, fallait pas tout lui donner Elle t'a fait du s'hour, tu lui as tout pardonné Dame-me-me Elle est bonne mais y a toujours un mais Dame-me-me Faut les lovés pour la calmer Aristocrate mais sans la canne C'est pour la gratte qu'on a démarré la bécane Aristocrate mais sans la canne Sur un coup d'tête, on met les voiles à Manhattan Oui, wAllah Nyma, Heuss, Soolking, ouh Nyma, Heuss, Soolking Nyma, Heuss, Soolking WAllah, ouh, ouh, ouh</t>
+          <t>Ola chica, qu'est-ce t'as fait ? ouh, j'ai tout caché à Santafe wAllah Y a les képis dans l'estafette ouh, j'sors du ballon donc j'fais la fête sku, sku On fait remplir les narines à Maradona J'ramène le machin qui vient du Maracana J't'ai pas vu tourner en promenade avec Nyma Soolking, Heuss et ma-Ny, c'est un assassinat Dame-me-me Elle est bonne mais y a toujours un mais Dame-me-me Faut les lovés pour la calmer Laï, laï, laï, laï GP-800 et casque Araï Laï, laï, laï, laï On a fait tout ça pour d'la maille Elle arrive en te-boî, les seins siliconés Tout l'mond la connait, elle a cent mill abonnés Fallait pas faire le con, fallait pas tout lui donner Elle t'a fait du s'hour, tu lui as tout pardonné Dame-me-me Elle est bonne mais y a toujours un mais Dame-me-me Faut les lovés pour la calmer Tu connais mon sin-c', on l'appelle Le Heuss Maintenant, tu la 7ess, j'démarre la RS Malaga, Boumerdes, Buenos Aires Grosse brigade, c'est l'OCTRIS, pas les CRS J'la sens pas, j'ai benda en Hollanda Ma-Ny envoie les mandats, j'suis posé avec Anita Et fallait pas libérer Nyma, c'est un assassinat J'fonce au Panama, j'travaille en famille, c'est pas du cinéma Laï, laï, laï, laï GP-800 et casque Araï Laï, laï, laï, laï On a fait tout ça pour d'la maille Elle arrive en te-boî, les seins siliconés Tout l'monde la connait, elle a cent mille abonnés Fallait pas faire le con, fallait pas tout lui donner Elle t'a fait du s'hour, tu lui as tout pardonné Dame-me-me Elle est bonne mais y a toujours un mais Dame-me-me Faut les lovés pour la calmer Aristocrate mais sans la canne C'est pour la gratte qu'on a démarré la bécane Aristocrate mais sans la canne Sur un coup d'tête, on met les voiles à Manhattan Oui, wAllah Nyma, Heuss, Soolking, ouh Nyma, Heuss, Soolking Nyma, Heuss, Soolking WAllah, ouh, ouh, ouh</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>J'suis à l'hivernage, dans le casino On a fait le ménage, rentré des palos Elle veut un bandit, le regard en dit long Du rouge sous les Fendis, ça fume la beuh citron J'ai gardé toutes mes parts N'attends pas qu'on t'épargne J'ai gardé mes réflexes de bandit Toujours en jet lag Restau' cinq étoiles Le nouvel empire s'agrandit Ça, c'est la vie qu'on mène, la vie qu'on aime Quoi qu'il arrive toujours en shayo Ah, c'est la vie qu'on aim, la vie qu'on mène Quoi qu'il arrive toujours n shayo J'suis en shayo Elle voulait l'anneau Mais j'suis qu'un salaud Tous nos plans tombent à l'eau Ce soir, j'ai bu la teille en shayo shayo, shayo shayo, shayo Ce soir, j'ai bu la teille en shayo shayo, shayo shayo, shayo Plus grand débat et bizarre, toujours en shayo On a quitté la rue, aujourd'hui ça finit chez Chanel Plus dans des sales d'histoire, madame s'est faite toute belle La main sur la cuisse, j'ai le cur qui palpite Gang, gang, gang, chérie faut qu'tu le saches Que noir sentiment en faillite Dring, dring, dring, j'te réponds plus tard J'suis avec une autre belle, ça se dit pas Ça, c'est la vie qu'on mène, la vie qu'on aime Quoi qu'il arrive toujours en shayo Ah, c'est la vie qu'on aime, la vie qu'on mène Quoi qu'il arrive toujours en shayo J'suis en shayo Elle voulait l'anneau Mais j'suis qu'un salaud Tous nos plans tombent à l'eau Ce soir, j'ai bu la teille en shayo shayo, shayo shayo, shayo Ce soir, j'ai bu la teille en shayo shayo, shayo shayo, shayo J'suis en shayo Elle voulait l'anneau Mais j'suis qu'un salaud Tous nos plans tombent à l'eau Ce soir, j'ai bu la teille en shayo shayo, shayo shayo, shayo Ce soir, j'ai bu la teille en shayo shayo, shayo shayo, shayo Ce soir, j'ai bu la teille en shayo shayo Shayo, shayo, han-han Shayo, shayo, shayo, shayo, han-han, han-hanYou might also like</t>
+          <t>J'suis à l'hivernage, dans le casino On a fait le ménage, rentré des palos Elle veut un bandit, le regard en dit long Du rouge sous les Fendis, ça fume la beuh citron J'ai gardé toutes mes parts N'attends pas qu'on t'épargne J'ai gardé mes réflexes de bandit Toujours en jet lag Restau' cinq étoiles Le nouvel empire s'agrandit Ça, c'est la vie qu'on mène, la vie qu'on aime Quoi qu'il arrive toujours en shayo Ah, c'est la vie qu'on aim, la vie qu'on mène Quoi qu'il arrive toujours n shayo J'suis en shayo Elle voulait l'anneau Mais j'suis qu'un salaud Tous nos plans tombent à l'eau Ce soir, j'ai bu la teille en shayo shayo, shayo shayo, shayo Ce soir, j'ai bu la teille en shayo shayo, shayo shayo, shayo Plus grand débat et bizarre, toujours en shayo On a quitté la rue, aujourd'hui ça finit chez Chanel Plus dans des sales d'histoire, madame s'est faite toute belle La main sur la cuisse, j'ai le cur qui palpite Gang, gang, gang, chérie faut qu'tu le saches Que noir sentiment en faillite Dring, dring, dring, j'te réponds plus tard J'suis avec une autre belle, ça se dit pas Ça, c'est la vie qu'on mène, la vie qu'on aime Quoi qu'il arrive toujours en shayo Ah, c'est la vie qu'on aime, la vie qu'on mène Quoi qu'il arrive toujours en shayo J'suis en shayo Elle voulait l'anneau Mais j'suis qu'un salaud Tous nos plans tombent à l'eau Ce soir, j'ai bu la teille en shayo shayo, shayo shayo, shayo Ce soir, j'ai bu la teille en shayo shayo, shayo shayo, shayo J'suis en shayo Elle voulait l'anneau Mais j'suis qu'un salaud Tous nos plans tombent à l'eau Ce soir, j'ai bu la teille en shayo shayo, shayo shayo, shayo Ce soir, j'ai bu la teille en shayo shayo, shayo shayo, shayo Ce soir, j'ai bu la teille en shayo shayo Shayo, shayo, han-han Shayo, shayo, shayo, shayo, han-han, han-han</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Oh oh, oh oh Oh oh, oh oh Oooh, ooh Paname Mexico Yah J'ai trainé dans l'bât', zéro déguaine ah ouais mais j'gérer des fes-meu Elle a un pétard de fou quand elle déguaine ah ouais, entouré de moula, j'me demande qui fait mieux ? Elle veut mon cur, elle l'aura même pas même pas, j'reste en esprit, avec Heuss L'aga' L'aga' Rolex au poignet, j'sais pas lire l'heure, cartel de Mexico du Baga Tu parle chinois señorita, la sortie elle est derrière Chemise ouverte, gros décolleté, y a trop d'choix, j'sais plus quoi faire C'est Paname, Mexico Tant qu'y a d'l'oseille, nous on a tous c'qu'il faut Sa mère, j'suis sous pillave Elle veut que j'la casse mais j'ai pas le time, eh Sa mère, j'suis sous pillave Elle veut que j'la casse mais j'ai pas le time Elle veut rentrer avec moi, elle reconnaît les moulas Elle veut rentrer avec moi, elle reconnaît les moulas Eh, sa mère, j'suis sous pillave Elle veut que j'la casse mais j'ai pas le time You might also like Bébé, attend, crois-même pas j'suis épaté Faut de l'argent comptant, tous les jours, sur un plateau Quatre cent sicarios qui sse-bo pour Pablo, la moulaga, chicos, bien sûr qu'elle me rend beau En classe affaire, ou en bisness, j'fait Paris-Mexico J'veux une villa, bordel de merde, avec un hélico' J'arrive, j'appelle un cuisto', le meilleur de Mexico Ressers moi du Veuve Clicquot, j'vais vous refaire la déco' C'est Paname, Mexico Tant qu'y a d'l'oseille, nous on a tous c'qu'il faut Sa mère, j'suis sous pillave Elle veut que j'la casse mais j'ai pas le time, eh Sa mère, j'suis sous pillave Elle veut que j'la casse mais j'ai pas le time Elle veut rentrer avec moi, elle reconnaît les moulas Elle veut rentrer avec moi, elle reconnaît les moulas Eh, sa mère, j'suis sous pillave Elle veut que j'la casse mais j'ai pas le time1</t>
+          <t>Oh oh, oh oh Oh oh, oh oh Oooh, ooh Paname Mexico Yah J'ai trainé dans l'bât', zéro déguaine ah ouais mais j'gérer des fes-meu Elle a un pétard de fou quand elle déguaine ah ouais, entouré de moula, j'me demande qui fait mieux ? Elle veut mon cur, elle l'aura même pas même pas, j'reste en esprit, avec Heuss L'aga' L'aga' Rolex au poignet, j'sais pas lire l'heure, cartel de Mexico du Baga Tu parle chinois señorita, la sortie elle est derrière Chemise ouverte, gros décolleté, y a trop d'choix, j'sais plus quoi faire C'est Paname, Mexico Tant qu'y a d'l'oseille, nous on a tous c'qu'il faut Sa mère, j'suis sous pillave Elle veut que j'la casse mais j'ai pas le time, eh Sa mère, j'suis sous pillave Elle veut que j'la casse mais j'ai pas le time Elle veut rentrer avec moi, elle reconnaît les moulas Elle veut rentrer avec moi, elle reconnaît les moulas Eh, sa mère, j'suis sous pillave Elle veut que j'la casse mais j'ai pas le time Bébé, attend, crois-même pas j'suis épaté Faut de l'argent comptant, tous les jours, sur un plateau Quatre cent sicarios qui sse-bo pour Pablo, la moulaga, chicos, bien sûr qu'elle me rend beau En classe affaire, ou en bisness, j'fait Paris-Mexico J'veux une villa, bordel de merde, avec un hélico' J'arrive, j'appelle un cuisto', le meilleur de Mexico Ressers moi du Veuve Clicquot, j'vais vous refaire la déco' C'est Paname, Mexico Tant qu'y a d'l'oseille, nous on a tous c'qu'il faut Sa mère, j'suis sous pillave Elle veut que j'la casse mais j'ai pas le time, eh Sa mère, j'suis sous pillave Elle veut que j'la casse mais j'ai pas le time Elle veut rentrer avec moi, elle reconnaît les moulas Elle veut rentrer avec moi, elle reconnaît les moulas Eh, sa mère, j'suis sous pillave Elle veut que j'la casse mais j'ai pas le time1</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Zeg P on the track, bitch Y a qu'à mes potos, les vrais, que j'prête la bagnole, voir les petits en Thaïlande, ça me régale waow Les mecs de chez moi, gros, c'est biz' illégal ouais, ça nique toute la logistique tah Ronald Reggan waow Ça compte des milliers d'euros devant le chicken wouh, r'marque, ils nous traitent comme du bétail chh Nos daronnes en bonne santé, ça me régale, sur les plages de Tunisie, du Sénégal top J'ai vu c'condé qui tournait dans le quartier top, il a fini par t'embarquer waow Au moment de partir avec ta bécane, il s'est éclaté au sol, ça me régale nion J'en ai rien à foutre d'connaître les détails rien, quand ça parle des autres, frérot, j'décale On est tous rentrés, personne s'fait recal' rien, maintenant, ça pète les Magnum et ça se régale ouf Eh, j'entends plus rien, rien de rien, rien, ouais Mais j'suis bien, ouais J'entends plus rien, rien de rien, rien, ouais Mais là j'suis bien J'te soutiens moralement Physiquement, psychologiquement J'te soutiens moralement Physiquement, psychologiquement Heuss L'enfoiré, j'suis connu dans ton village, Sadek nous invite, forcément, ça nous régale On fait du sale, c'est légal et illégal, écoute, ferme ta gueule, te-ma comment j'les régale N.Y.M.A ah, Rotterdam et Rosendael 'dael Et demande à So' So', j'ai la kichta dans l'futal Les chacaux, les chacals, transac' dans l'futsal dans l'futsal Ismaël Bennacer juste avant la finale la grosse finale J'suis dans Youcef Atal, Arturo Vidal vraiment en finale Grosse dégaine d'hooligan, j'ai viré la gitane la gitane You might also like Eh, j'entends plus rien, rien de rien, rien, ouais Mais j'suis bien, ouais J'entends plus rien, rien de rien, rien, ouais Mais là j'suis bien J'te soutiens moralement Physiquement, psychologiquement J'te soutiens moralement Physiquement, psychologiquement Rotary Club, diner du siècle ouais, options d'achat au style, j'attaque à l'arrière J'ai la recette, bois, c'est cool cette fois mais bon, renseigne-toi, j'ai p't-être racheté ta carrière Affranchis En full Hermès, on va pas s'battre ouais, à la Volvica ou khabat J'suis au Fouquet's à mes 100 ans, j'suis en showcase pendant shabbat Mon reuf, ils ont même pas fait c'que j'ai fait sans faire exprès ouais M'en veux pas mais si j'suis à-l paw, paw, paw, paw, tu joueras pas la finale J'te-ma leur clip, j'crois qu'j'vais rer-pleu hein, des Colombiennes de Colombe dans l'9.2 J'suis dans l'cockpit, j'suis chez Dassault, bon au porteur signé Fianso Eh, j'entends plus rien, rien de rien, rien, ouais Mais j'suis bien, ouais J'entends plus rien, rien de rien, rien, ouais Mais là j'suis bien J'te soutiens moralement Physiquement, psychologiquement J'te soutiens moralement Physiquement, psychologiquement</t>
+          <t>Zeg P on the track, bitch Y a qu'à mes potos, les vrais, que j'prête la bagnole, voir les petits en Thaïlande, ça me régale waow Les mecs de chez moi, gros, c'est biz' illégal ouais, ça nique toute la logistique tah Ronald Reggan waow Ça compte des milliers d'euros devant le chicken wouh, r'marque, ils nous traitent comme du bétail chh Nos daronnes en bonne santé, ça me régale, sur les plages de Tunisie, du Sénégal top J'ai vu c'condé qui tournait dans le quartier top, il a fini par t'embarquer waow Au moment de partir avec ta bécane, il s'est éclaté au sol, ça me régale nion J'en ai rien à foutre d'connaître les détails rien, quand ça parle des autres, frérot, j'décale On est tous rentrés, personne s'fait recal' rien, maintenant, ça pète les Magnum et ça se régale ouf Eh, j'entends plus rien, rien de rien, rien, ouais Mais j'suis bien, ouais J'entends plus rien, rien de rien, rien, ouais Mais là j'suis bien J'te soutiens moralement Physiquement, psychologiquement J'te soutiens moralement Physiquement, psychologiquement Heuss L'enfoiré, j'suis connu dans ton village, Sadek nous invite, forcément, ça nous régale On fait du sale, c'est légal et illégal, écoute, ferme ta gueule, te-ma comment j'les régale N.Y.M.A ah, Rotterdam et Rosendael 'dael Et demande à So' So', j'ai la kichta dans l'futal Les chacaux, les chacals, transac' dans l'futsal dans l'futsal Ismaël Bennacer juste avant la finale la grosse finale J'suis dans Youcef Atal, Arturo Vidal vraiment en finale Grosse dégaine d'hooligan, j'ai viré la gitane la gitane Eh, j'entends plus rien, rien de rien, rien, ouais Mais j'suis bien, ouais J'entends plus rien, rien de rien, rien, ouais Mais là j'suis bien J'te soutiens moralement Physiquement, psychologiquement J'te soutiens moralement Physiquement, psychologiquement Rotary Club, diner du siècle ouais, options d'achat au style, j'attaque à l'arrière J'ai la recette, bois, c'est cool cette fois mais bon, renseigne-toi, j'ai p't-être racheté ta carrière Affranchis En full Hermès, on va pas s'battre ouais, à la Volvica ou khabat J'suis au Fouquet's à mes 100 ans, j'suis en showcase pendant shabbat Mon reuf, ils ont même pas fait c'que j'ai fait sans faire exprès ouais M'en veux pas mais si j'suis à-l paw, paw, paw, paw, tu joueras pas la finale J'te-ma leur clip, j'crois qu'j'vais rer-pleu hein, des Colombiennes de Colombe dans l'9.2 J'suis dans l'cockpit, j'suis chez Dassault, bon au porteur signé Fianso Eh, j'entends plus rien, rien de rien, rien, ouais Mais j'suis bien, ouais J'entends plus rien, rien de rien, rien, ouais Mais là j'suis bien J'te soutiens moralement Physiquement, psychologiquement J'te soutiens moralement Physiquement, psychologiquement</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Unleaded Un souvenir de plus et des problèmes en moins Et comme d'habitude, demain, tu t'en vas Des problèmes en moins, ça fait du bien, j'ai plus mal Zehma tu m'oublies, mais au fond, j't'ai fait du mal On s'est perdus dans la ni-i-i-i-ight, j'te voyais plus dans ma li-i-i-i-ife On s'est perdus dans la ni-i-i-i-ight, j'te voyais plus dans ma li-i-i-i-ife Elle veut que j'arrête la callé, moi, j'sais plus sur quel pied danser Le cur finit accidenté, toi, envoie la facture, j'vais la financer J't'offrirais c'que tu n'as pas, pour les autres, aucune attache Comment j'peux tourner la page ? Y a ton parfum dans l'appart' Des fois, j'suis bon, des fois, j'suis bancal, on s'fait la guerre au Continental Des fois, j'regrette, j'reviens sur mes pas, elle a changé, j'la reconnais pas Un souvenir de plus et des problèmes en moins Et comme d'habitude, demain tu t'en vas Des problèmes en moins, ça fait du bien, j'ai plus mal Zehma tu m'oublies, mais au fond, j't'ai fait du mal You might also like On s'est perdus dans la ni-i-i-i-ight, j'te voyais plus dans ma li-i-i-i-ife On s'est perdus dans la ni-i-i-i-ight, j'te voyais plus dans ma li-i-i-i-ife Mchi , maintenant, j'suis à l'aise C'est pas la peine que tu fasses un malaise Mazel, mazel, Jamais , 9adiya Ouais, ça fait aïe, aïe, aïe Aïe, aïe, aïe, aïe, aïe, aïe, aïe Aïe, aïe Oui, j't'ai fait du mal Oh, oh, oh, oh Ouais, ça fait aïe, aïe, aïe Aïe, aïe, aïe, aïe, aïe, aïe, aïe Aïe, aïe Te revoir encore un dimanche Un souvenir de plus et des problèmes en moins Et comme d'habitude, demain, tu t'en vas Des problèmes en moins, ça fait du bien, j'ai plus mal Zehma tu m'oublies, mais au fond, j't'ai fait du mal On s'est perdus dans la ni-i-i-i-ight, j'te voyais plus dans ma li-i-i-i-ife On s'est perdus dans la ni-i-i-i-ight, j'te voyais plus dans ma li-i-i-i-ife</t>
+          <t>Unleaded Un souvenir de plus et des problèmes en moins Et comme d'habitude, demain, tu t'en vas Des problèmes en moins, ça fait du bien, j'ai plus mal Zehma tu m'oublies, mais au fond, j't'ai fait du mal On s'est perdus dans la ni-i-i-i-ight, j'te voyais plus dans ma li-i-i-i-ife On s'est perdus dans la ni-i-i-i-ight, j'te voyais plus dans ma li-i-i-i-ife Elle veut que j'arrête la callé, moi, j'sais plus sur quel pied danser Le cur finit accidenté, toi, envoie la facture, j'vais la financer J't'offrirais c'que tu n'as pas, pour les autres, aucune attache Comment j'peux tourner la page ? Y a ton parfum dans l'appart' Des fois, j'suis bon, des fois, j'suis bancal, on s'fait la guerre au Continental Des fois, j'regrette, j'reviens sur mes pas, elle a changé, j'la reconnais pas Un souvenir de plus et des problèmes en moins Et comme d'habitude, demain tu t'en vas Des problèmes en moins, ça fait du bien, j'ai plus mal Zehma tu m'oublies, mais au fond, j't'ai fait du mal On s'est perdus dans la ni-i-i-i-ight, j'te voyais plus dans ma li-i-i-i-ife On s'est perdus dans la ni-i-i-i-ight, j'te voyais plus dans ma li-i-i-i-ife Mchi , maintenant, j'suis à l'aise C'est pas la peine que tu fasses un malaise Mazel, mazel, Jamais , 9adiya Ouais, ça fait aïe, aïe, aïe Aïe, aïe, aïe, aïe, aïe, aïe, aïe Aïe, aïe Oui, j't'ai fait du mal Oh, oh, oh, oh Ouais, ça fait aïe, aïe, aïe Aïe, aïe, aïe, aïe, aïe, aïe, aïe Aïe, aïe Te revoir encore un dimanche Un souvenir de plus et des problèmes en moins Et comme d'habitude, demain, tu t'en vas Des problèmes en moins, ça fait du bien, j'ai plus mal Zehma tu m'oublies, mais au fond, j't'ai fait du mal On s'est perdus dans la ni-i-i-i-ight, j'te voyais plus dans ma li-i-i-i-ife On s'est perdus dans la ni-i-i-i-ight, j'te voyais plus dans ma li-i-i-i-ife</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Zeg P on the track beat Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Ça a pris du temps mais tu m'as quitté C'est vrai, j'te comprends, j'étais pas impliqué Mais là, j'me reprends, même si c'est risqué J'esquive les méchants pour pas finir de l'autre côté Une fois menotté, pense à tout c'que t'as mis C'est les cités, c'est risqué, faut pas déconner J'suis dans l'illégal, j'ai ds idées sales Elle coll au mur comme Spiderman J'suis dans l'illégal, j'ai des idées sales Elle colle au mur comme Spiderman You might also like Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Comme Zé Pequeno d'Rio de Janeiro J'entends le bruit des gyros des fédéraux Et dire qu'y a pas longtemps, j'vendais des jets d'héro' Bébé, vas-y, viens, on change de météo Mon bébé, tu me connais J'ai foiré, j'ai déconné, faut pas t'aboner J'suis dans l'illégal, j'ai des idées sales Elle colle au mur comme Spiderman J'suis dans l'illégal, j'ai des idées sales Elle colle au mur comme Spiderman Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané</t>
+          <t>Zeg P on the track beat Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Ça a pris du temps mais tu m'as quitté C'est vrai, j'te comprends, j'étais pas impliqué Mais là, j'me reprends, même si c'est risqué J'esquive les méchants pour pas finir de l'autre côté Une fois menotté, pense à tout c'que t'as mis C'est les cités, c'est risqué, faut pas déconner J'suis dans l'illégal, j'ai ds idées sales Elle coll au mur comme Spiderman J'suis dans l'illégal, j'ai des idées sales Elle colle au mur comme Spiderman Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Comme Zé Pequeno d'Rio de Janeiro J'entends le bruit des gyros des fédéraux Et dire qu'y a pas longtemps, j'vendais des jets d'héro' Bébé, vas-y, viens, on change de météo Mon bébé, tu me connais J'ai foiré, j'ai déconné, faut pas t'aboner J'suis dans l'illégal, j'ai des idées sales Elle colle au mur comme Spiderman J'suis dans l'illégal, j'ai des idées sales Elle colle au mur comme Spiderman Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Heuss L'enfoiré, S.T Clan Ok, eh Moi c'est Heuss, j'kick à la vitesse d'un bolide allemand Efficace, normalement tous mes gars j'les dédicace BX Land, deuxième round, j'sais combien ça coûte Demande à Many, le salaire de Jean II Makoun Que d'la drogue dans les alentours, à tous les carrefours Christophe Rocancourt, joublie pas Medlar au placard Les feukeus s'faufilent comme des cafards Un coup d'fil, perquis' dans ton pavtar, j'ai des lyrics de bâtard T'as ma parole, on t'coupe la langue si t'es trop bavard Le rainté cimenté, voiture accidentée Aller-retour Bruxelles, ma gueule j'ai jamais plaisanté La keuba est dépassée, la dép' s'est déplacée Ils veulent qu'on arrête de bosser mais ils rêvent ces enculés Bref, si demain j'ressors du hebs j'vais voir Heks Ou le S qui me pousse d'la ess, slata hollandaise J'découpe la Marlboro, j'vesqui les Navarro, les Camaro Les Colombo, comme d'hab' j'ai une grosse envie d'taro J'prends l'gent-ar tel un charo, sans m'tenir à carreau C'est l'argent d'la gue-dro, ici personne me ralentie Soyez attentifs, Zepek XXX Obligé d'faire la diff', comme le RSA déf' Grâce aux ienclis j'suis en bénéf', j'les vi-ser à bonne adresse Le truc entre les fesses, tous les jours j'vesqui la hess Tous les jours j'vesqui la hess, ouais tous les jours j'vesqui la hess You might also like Hey, Heuss L'enfoiré, bande d'enfoirés J'mets des buts à la Suarez, rancunier envers les douaniers Hey, Heuss L'enfoiré, bande d'enfoirés J'mets des buts à la Suarez, rancunier envers les douaniers Jordan Michael, Jackson Michael Ou George Michael, bah ouais ma gueule Heuss L'enfoiré, bande d'enfoirés J'mets toujours des buts à la Suarez Grand gringalet, le jeton fallait parce qu'il le fallait, 22 balais Comme ST j'ai l'flow qui balaye tiens l'ingé', j'te rends l'appareil Les kilos, les péages, le tel-hô, la dame de ménage The Wire, les pétages, les dealers dans les étages A la Sablière, y'a plus d'temps dans l'sablier D'la gue-dro, des mes-ar, tout y est, on va tout piller Gros faut des billets, spliff caramélisé Jack D j'ai tisé, forcément j'ai envie d'pisser Thierry Henry à l'ancienne, j'troue les filets Cherche pas la merde ou j'appelle Souley' Deuxième couplet très salé, faut pas vous affoler Faut pas m'voler des affaires d'voitures volées J'préfère passer d'la C dans l'cul d'un poney Soyez pas étonnés, la rue, la prison, le cash money Heuss L'enfoiré, bande d'enfoirés Hey, Heuss L'enfoiré, bande d'enfoirés J'mets des buts à la Suarez, rancunier envers les douaniers Hey, Heuss L'enfoiré, bande d'enfoirés J'mets des buts à la Suarez, rancunier envers les douaniers Jordan Michael, Jackson Michael Ou George Michael, bah ouais ma gueule Heuss L'enfoiré, bande d'enfoirés J'mets toujours des buts à la Suarez1</t>
+          <t>Heuss L'enfoiré, S.T Clan Ok, eh Moi c'est Heuss, j'kick à la vitesse d'un bolide allemand Efficace, normalement tous mes gars j'les dédicace BX Land, deuxième round, j'sais combien ça coûte Demande à Many, le salaire de Jean II Makoun Que d'la drogue dans les alentours, à tous les carrefours Christophe Rocancourt, joublie pas Medlar au placard Les feukeus s'faufilent comme des cafards Un coup d'fil, perquis' dans ton pavtar, j'ai des lyrics de bâtard T'as ma parole, on t'coupe la langue si t'es trop bavard Le rainté cimenté, voiture accidentée Aller-retour Bruxelles, ma gueule j'ai jamais plaisanté La keuba est dépassée, la dép' s'est déplacée Ils veulent qu'on arrête de bosser mais ils rêvent ces enculés Bref, si demain j'ressors du hebs j'vais voir Heks Ou le S qui me pousse d'la ess, slata hollandaise J'découpe la Marlboro, j'vesqui les Navarro, les Camaro Les Colombo, comme d'hab' j'ai une grosse envie d'taro J'prends l'gent-ar tel un charo, sans m'tenir à carreau C'est l'argent d'la gue-dro, ici personne me ralentie Soyez attentifs, Zepek XXX Obligé d'faire la diff', comme le RSA déf' Grâce aux ienclis j'suis en bénéf', j'les vi-ser à bonne adresse Le truc entre les fesses, tous les jours j'vesqui la hess Tous les jours j'vesqui la hess, ouais tous les jours j'vesqui la hess Hey, Heuss L'enfoiré, bande d'enfoirés J'mets des buts à la Suarez, rancunier envers les douaniers Hey, Heuss L'enfoiré, bande d'enfoirés J'mets des buts à la Suarez, rancunier envers les douaniers Jordan Michael, Jackson Michael Ou George Michael, bah ouais ma gueule Heuss L'enfoiré, bande d'enfoirés J'mets toujours des buts à la Suarez Grand gringalet, le jeton fallait parce qu'il le fallait, 22 balais Comme ST j'ai l'flow qui balaye tiens l'ingé', j'te rends l'appareil Les kilos, les péages, le tel-hô, la dame de ménage The Wire, les pétages, les dealers dans les étages A la Sablière, y'a plus d'temps dans l'sablier D'la gue-dro, des mes-ar, tout y est, on va tout piller Gros faut des billets, spliff caramélisé Jack D j'ai tisé, forcément j'ai envie d'pisser Thierry Henry à l'ancienne, j'troue les filets Cherche pas la merde ou j'appelle Souley' Deuxième couplet très salé, faut pas vous affoler Faut pas m'voler des affaires d'voitures volées J'préfère passer d'la C dans l'cul d'un poney Soyez pas étonnés, la rue, la prison, le cash money Heuss L'enfoiré, bande d'enfoirés Hey, Heuss L'enfoiré, bande d'enfoirés J'mets des buts à la Suarez, rancunier envers les douaniers Hey, Heuss L'enfoiré, bande d'enfoirés J'mets des buts à la Suarez, rancunier envers les douaniers Jordan Michael, Jackson Michael Ou George Michael, bah ouais ma gueule Heuss L'enfoiré, bande d'enfoirés J'mets toujours des buts à la Suarez1</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>En virée sur les Champs Encore une légende, j'rallume un zoula sur le champ Tu connais, jamais on ger-chan J'suis dans les bails, le transac' Dans les bails, y a les Champs J'pète la cool sur un transat, les verres pour la raison On est cramés, tu connais déjà l'équipage On veut tout graille, y a pas de paris qui tape J'ai tout fait de mes mains, j'ai pas touché d'héritage Envoie la rançon, j'ai pris l'monde en otage Tu peux m'voir dans un château, tu peux m'voir dans la zone C'est l'aristocratie, la moula, qu'on m'appelle Principes, t'es Monaco, j'pose mes couilles sur le trône C'est le nord d'la Corée, c'est Barksdale, Stringer Bell Ouais, Ouais, Ouais, Ouais J'branche les filles d'à côté J'suis vers le Dakota Wah, wah J'fume et j'baise Californiennes L'âge de remplir mon quotas En virée sur les Champs, elle a gueuté les jantes J'ai chanté Les Méchants, elle m'a donné ses jambes Elle aime charmer les gens, fait des passes comme Roni au camp Elle a aucun talent, les hommes sous ses talons You might also like Elle veut la parure Van Klimt Le sac Louis V' Toujours du khedma, des showcases tout l'été J'vois ton cur qui s'en balle, mais j'suis pas pressé Comportement j'vais pas laisser tomber J'baigne encore dans l'illégal moi et tous mes gars J'me suis mis à l'écart, j'étais le bon candidat J'fume la frappe, c'est médical Ouais-Ouais c'est médical Les yeux rouges sous les Tjita J'branche les filles d'à côté J'suis vers le Dakota Wah, wah J'fume et j'baise Californiennes L'âge de remplir mon quotas En virée sur les Champs, elle a gueuté les jantes J'ai chanté Les Méchants, elle m'a donné ses jambes Elle aime charmer les gens, fait des passes comme Roni au camp Elle a aucun talent, les hommes sous ses talons</t>
+          <t>En virée sur les Champs Encore une légende, j'rallume un zoula sur le champ Tu connais, jamais on ger-chan J'suis dans les bails, le transac' Dans les bails, y a les Champs J'pète la cool sur un transat, les verres pour la raison On est cramés, tu connais déjà l'équipage On veut tout graille, y a pas de paris qui tape J'ai tout fait de mes mains, j'ai pas touché d'héritage Envoie la rançon, j'ai pris l'monde en otage Tu peux m'voir dans un château, tu peux m'voir dans la zone C'est l'aristocratie, la moula, qu'on m'appelle Principes, t'es Monaco, j'pose mes couilles sur le trône C'est le nord d'la Corée, c'est Barksdale, Stringer Bell Ouais, Ouais, Ouais, Ouais J'branche les filles d'à côté J'suis vers le Dakota Wah, wah J'fume et j'baise Californiennes L'âge de remplir mon quotas En virée sur les Champs, elle a gueuté les jantes J'ai chanté Les Méchants, elle m'a donné ses jambes Elle aime charmer les gens, fait des passes comme Roni au camp Elle a aucun talent, les hommes sous ses talons Elle veut la parure Van Klimt Le sac Louis V' Toujours du khedma, des showcases tout l'été J'vois ton cur qui s'en balle, mais j'suis pas pressé Comportement j'vais pas laisser tomber J'baigne encore dans l'illégal moi et tous mes gars J'me suis mis à l'écart, j'étais le bon candidat J'fume la frappe, c'est médical Ouais-Ouais c'est médical Les yeux rouges sous les Tjita J'branche les filles d'à côté J'suis vers le Dakota Wah, wah J'fume et j'baise Californiennes L'âge de remplir mon quotas En virée sur les Champs, elle a gueuté les jantes J'ai chanté Les Méchants, elle m'a donné ses jambes Elle aime charmer les gens, fait des passes comme Roni au camp Elle a aucun talent, les hommes sous ses talons</t>
         </is>
       </c>
     </row>
@@ -2809,7 +2809,7 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Wiils Production Skch Bisous à tous mes frelons qui cantinent Spah J'y vais tranquille comme un gars d'Argentine J'ai rien sur moi comme un professionnel Skch J'v'-esqui toujours la fouille ministérielle Spah Père de famille vise la conditionnelle Skch Criminel redescend en correctionnelle Skch Les indigents qui retapent la gamelle Dix grammes de filtré dans l'cul à Kamel Pah Demande à Perkiz Demande à Perkiz, ça pue la mort Ça pue la mort Ça sent la perquise Ça sent la perquise, ça fume encore Ça fume encore Demande à Perkiz La directrice, ça pue la mort Vroum, vroum Ça sent la perquise Skch, skch, ça fume encore Envoyez-moi au pays des merveilles Bigo, frigo, par la fenêtre Envoyez-moi au pays des merveilles Bigo, frigo, par la fenêtre You might also like On l'a fait sur un pied À Fleury, on l'a fait sur un pied Aux Baumettes On l'a fait sur un pied Bois d'Arcy, on l'a fait sur un pied La Farlède Tu l'as fait sur un pied Bobigny, ça l'a fait sur un pied La Santé Ils la font sur un pied Val-de-Reuil, on l'a fait sur un pied Villepinte, Fresnes On l'a fait sur une be-j' Ouais, une be-j' Ouais, une be-j' Okay On l'a fait sur une be-j' Ouais, ouais, une be-j' Ouais, ouais, une be-j' Ouais, ouais Ça m'ouvre les portes dedans ou dehors, du D1 au D3, ça deal au DD J'ai piqué la matonne, elle m'charme, mon bébé, si tu gardes la pêche, y aura pas d'pépin Grosse moula qui sort du fourgon Bang, bang, t'as pris dix mois, fais-les et fous l'camp Casse-toi J'veux l'infirmière, pas les médocs, mon co, il galère, il s'fait un TikTok J'pète pas d'gel, y a qu'mes Asics qui en ont, d'après la SPIP, j'en ai plus pour longtemps Mais j'la fais sur une be-j', une be-j', une be-j' Demande à Perkiz Demande à Perkiz, ça pue la mort Ça pue la mort Ça sent la perquise Ça sent la perquise, ça fume encore Ça fume encore Demande à Perkiz La directrice, ça pue la mort Vroum, vroum Ça sent la perquise Skch, skch, ça fume encore Envoyez-moi au pays des merveilles Bigo, frigo, par la fenêtre Envoyez-moi au pays des merveilles Bigo, frigo, par la fenêtre On l'a fait sur un pied À Fleury, on l'a fait sur un pied Aux Baumettes On l'a fait sur un pied Bois d'Arcy, on l'a fait sur un pied La Farlède Tu l'as fait sur un pied Bobigny, ça l'a fait sur un pied La Santé Ils la font sur un pied Val-de-Reuil, on l'a fait sur un pied Villepinte, Fresnes T'as fait rentrer mon bédo, aquarium dans la cellule Condamné, mandat d'dépôt, que sur l'banc des accusés Eh, oh, en promenade comme dans l'ghetto Philip, OCB, bédo, cafouillage, violeur, pédo On l'a fait sur un pied À Fleury, on l'a fait sur un pied Aux Baumettes On l'a fait sur un pied Bois d'Arcy, on l'a fait sur un pied La Farlède Tu l'as fait sur un pied Bobigny, ça l'a fait sur un pied La Santé Ils la font sur un pied Val-de-Reuil, on l'a fait sur un pied Villepinte, Fresnes</t>
+          <t>Wiils Production Skch Bisous à tous mes frelons qui cantinent Spah J'y vais tranquille comme un gars d'Argentine J'ai rien sur moi comme un professionnel Skch J'v'-esqui toujours la fouille ministérielle Spah Père de famille vise la conditionnelle Skch Criminel redescend en correctionnelle Skch Les indigents qui retapent la gamelle Dix grammes de filtré dans l'cul à Kamel Pah Demande à Perkiz Demande à Perkiz, ça pue la mort Ça pue la mort Ça sent la perquise Ça sent la perquise, ça fume encore Ça fume encore Demande à Perkiz La directrice, ça pue la mort Vroum, vroum Ça sent la perquise Skch, skch, ça fume encore Envoyez-moi au pays des merveilles Bigo, frigo, par la fenêtre Envoyez-moi au pays des merveilles Bigo, frigo, par la fenêtre On l'a fait sur un pied À Fleury, on l'a fait sur un pied Aux Baumettes On l'a fait sur un pied Bois d'Arcy, on l'a fait sur un pied La Farlède Tu l'as fait sur un pied Bobigny, ça l'a fait sur un pied La Santé Ils la font sur un pied Val-de-Reuil, on l'a fait sur un pied Villepinte, Fresnes On l'a fait sur une be-j' Ouais, une be-j' Ouais, une be-j' Okay On l'a fait sur une be-j' Ouais, ouais, une be-j' Ouais, ouais, une be-j' Ouais, ouais Ça m'ouvre les portes dedans ou dehors, du D1 au D3, ça deal au DD J'ai piqué la matonne, elle m'charme, mon bébé, si tu gardes la pêche, y aura pas d'pépin Grosse moula qui sort du fourgon Bang, bang, t'as pris dix mois, fais-les et fous l'camp Casse-toi J'veux l'infirmière, pas les médocs, mon co, il galère, il s'fait un TikTok J'pète pas d'gel, y a qu'mes Asics qui en ont, d'après la SPIP, j'en ai plus pour longtemps Mais j'la fais sur une be-j', une be-j', une be-j' Demande à Perkiz Demande à Perkiz, ça pue la mort Ça pue la mort Ça sent la perquise Ça sent la perquise, ça fume encore Ça fume encore Demande à Perkiz La directrice, ça pue la mort Vroum, vroum Ça sent la perquise Skch, skch, ça fume encore Envoyez-moi au pays des merveilles Bigo, frigo, par la fenêtre Envoyez-moi au pays des merveilles Bigo, frigo, par la fenêtre On l'a fait sur un pied À Fleury, on l'a fait sur un pied Aux Baumettes On l'a fait sur un pied Bois d'Arcy, on l'a fait sur un pied La Farlède Tu l'as fait sur un pied Bobigny, ça l'a fait sur un pied La Santé Ils la font sur un pied Val-de-Reuil, on l'a fait sur un pied Villepinte, Fresnes T'as fait rentrer mon bédo, aquarium dans la cellule Condamné, mandat d'dépôt, que sur l'banc des accusés Eh, oh, en promenade comme dans l'ghetto Philip, OCB, bédo, cafouillage, violeur, pédo On l'a fait sur un pied À Fleury, on l'a fait sur un pied Aux Baumettes On l'a fait sur un pied Bois d'Arcy, on l'a fait sur un pied La Farlède Tu l'as fait sur un pied Bobigny, ça l'a fait sur un pied La Santé Ils la font sur un pied Val-de-Reuil, on l'a fait sur un pied Villepinte, Fresnes</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Elle me dit d'arrêter la bibi Bébé j'ai pas le temps Aujourdhui le four ouvre à midi ouvre à midi Bébé j'ai pas le temps Je suis K.O hein, je suis K.O hein Mais je dois visser Je suis K.O hein, je suis K.O hein Mais je dois visser En direct du bendo, ce soir, la khapta sera sévère Elle a voulu refaire sa vie, mais moi j'ai pas changé d'avis Tu préfères le JD d'avant, je préfère le Naza d'après Je sais ce que la vie m'a pris, dans le fond j'ai vaincu ma peine vaincu ma peine C'est l'bendo, y a que l'sale qui m'appelle Je l'aime trop, ce qui causera ma perte Elle me dit d'arrêter la bibi Bébé j'ai pas le temps Aujourdhui le four ouvre à midi ouvre à midi Bébé j'ai pas le temps Je suis K.O hein, je suis K.O hein Mais je dois visser Je suis K.O hein, je suis K.O hein Mais je dois visser You might also like Alpha Roméo, Batman, Mondéo Eté comme hiver, peu importe la météo météo Alpha Roméo, Batman, Mondéo Eté comme hiver, peu importe la météo météo Elle s'abonne, se désabonne, elle écoute tous mes albums Mais c'est vraiment pas la bonne, nan c'est pas toi la patronne La vérité si je mens, j'bédave dans l'établissement Dans tous les arrondissements, précieux comme un talisman On pourra s'en aller, mais pour le moment reste loin de moi Moi son cur j'l'ai volé, elle aura que des souvenirs de moi Elle me dit d'arrêter la bibi Bébé j'ai pas le temps Aujourdhui le four ouvre à midi ouvre à midi Bébé j'ai pas le temps Je suis K.O hein, je suis K.O hein Mais je dois visser Je suis K.O hein, je suis K.O hein Mais je dois visser Alpha Roméo, Batman, Mondéo Eté comme hiver, peu importe la météo Alpha Roméo, Batman, Mondéo Eté comme hiver, peu importe la météo La, la, la-la, la-la-la La, la, la-la, la-la-la La, la, la-la, la-la-la La, la, la-la, la-la-la</t>
+          <t>Elle me dit d'arrêter la bibi Bébé j'ai pas le temps Aujourdhui le four ouvre à midi ouvre à midi Bébé j'ai pas le temps Je suis K.O hein, je suis K.O hein Mais je dois visser Je suis K.O hein, je suis K.O hein Mais je dois visser En direct du bendo, ce soir, la khapta sera sévère Elle a voulu refaire sa vie, mais moi j'ai pas changé d'avis Tu préfères le JD d'avant, je préfère le Naza d'après Je sais ce que la vie m'a pris, dans le fond j'ai vaincu ma peine vaincu ma peine C'est l'bendo, y a que l'sale qui m'appelle Je l'aime trop, ce qui causera ma perte Elle me dit d'arrêter la bibi Bébé j'ai pas le temps Aujourdhui le four ouvre à midi ouvre à midi Bébé j'ai pas le temps Je suis K.O hein, je suis K.O hein Mais je dois visser Je suis K.O hein, je suis K.O hein Mais je dois visser Alpha Roméo, Batman, Mondéo Eté comme hiver, peu importe la météo météo Alpha Roméo, Batman, Mondéo Eté comme hiver, peu importe la météo météo Elle s'abonne, se désabonne, elle écoute tous mes albums Mais c'est vraiment pas la bonne, nan c'est pas toi la patronne La vérité si je mens, j'bédave dans l'établissement Dans tous les arrondissements, précieux comme un talisman On pourra s'en aller, mais pour le moment reste loin de moi Moi son cur j'l'ai volé, elle aura que des souvenirs de moi Elle me dit d'arrêter la bibi Bébé j'ai pas le temps Aujourdhui le four ouvre à midi ouvre à midi Bébé j'ai pas le temps Je suis K.O hein, je suis K.O hein Mais je dois visser Je suis K.O hein, je suis K.O hein Mais je dois visser Alpha Roméo, Batman, Mondéo Eté comme hiver, peu importe la météo Alpha Roméo, Batman, Mondéo Eté comme hiver, peu importe la météo La, la, la-la, la-la-la La, la, la-la, la-la-la La, la, la-la, la-la-la La, la, la-la, la-la-la</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2843,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Oh RJacks Prodz Oh, oh, oh Masta explicit on the beat Hey La cons' callée dans l'jean Jean, j'écoute pas les on dit On dit À c'qui p', on est maudits 'dits, l'OPJ me l'a dit Dit L'hiver, ça sort la parka, les keufs veulent nous embarquer J'aime pas trop la patinoire, failli glisser sur l'parquet J'ai noirci mon cur à vendre du jaune, j'en ai vu de toutes les couleurs Ici, c'est torride, la vie n'est pas rose, la rue ne veut pas me faire de fleur Bonbonne callée, trop égaré, il le fallait, j'baise tout c'tte année, oh La gadji voudrait mon cur mais je suis rempli que de haine Je suis rempli de haine J'ai d'la rancur envers ceux qui veulent pas que j'm'en sorte quand même Mais bon, c'est la vie Je suis pas béni, i m'faut des sous, j'viens rafaler tout Fuck la sère-mi, j'm'en bats les couilles, j'sens même plus les coups Tu tournes ta veste, c'est plus pareil, j'fais tourner la roue Trop acharné, déterminé, on s'envole du zoo Fidèle sont nos clients, d'la puff, on ramène En espérant que ça marche, on a dû ramer Ceux qui ont côtoyé le four, ont fini cramer Et la plupart qui ont parlé, se sont fait caner You might also like Tous les matins quand j'me ver-le, faut que j'marque un but Spartacus en 2016, la daronne au parlu Il va pleuvoir, on t'achètera p't-être un parapluie Au téléphone, rien qu'tu parles, rien qu'tu baragouines Dans un bar à putes Ouais, dans un bar à gouines Non Bienvenue à Medellin, cartel et y aura pas d'quartier Héroïne, crack et cocaïne revendus en sachet Dans la rue méchante, ton sac-à-main, souvent, s'fait arracher La vie d'ma mère, la zone à Seille', c'est vraiment l'anarchie Wawa, la taule, Doudou, Sankhara, feront pas d'gâchis Le surveillant a compris, okay, ok sakamashi Doudou, la taule, l'a v'-esqui cent fois, Je suis pas béni, il m'faut des sous, j'viens rafaler tout Fuck la sère-mi, j'm'en bats les couilles, j'sens même plus les coups Tu tournes ta veste, c'est plus pareil, j'fais tourner la roue Trop acharné, déterminé, on s'envole du zoo Fidèle sont nos clients, d'la puff, on ramène En espérant que ça marche, on a dû ramer Ceux qui ont côtoyé le four, ont fini cramer Et la plupart qui ont parlé, se sont fait caner</t>
+          <t>Oh RJacks Prodz Oh, oh, oh Masta explicit on the beat Hey La cons' callée dans l'jean Jean, j'écoute pas les on dit On dit À c'qui p', on est maudits 'dits, l'OPJ me l'a dit Dit L'hiver, ça sort la parka, les keufs veulent nous embarquer J'aime pas trop la patinoire, failli glisser sur l'parquet J'ai noirci mon cur à vendre du jaune, j'en ai vu de toutes les couleurs Ici, c'est torride, la vie n'est pas rose, la rue ne veut pas me faire de fleur Bonbonne callée, trop égaré, il le fallait, j'baise tout c'tte année, oh La gadji voudrait mon cur mais je suis rempli que de haine Je suis rempli de haine J'ai d'la rancur envers ceux qui veulent pas que j'm'en sorte quand même Mais bon, c'est la vie Je suis pas béni, i m'faut des sous, j'viens rafaler tout Fuck la sère-mi, j'm'en bats les couilles, j'sens même plus les coups Tu tournes ta veste, c'est plus pareil, j'fais tourner la roue Trop acharné, déterminé, on s'envole du zoo Fidèle sont nos clients, d'la puff, on ramène En espérant que ça marche, on a dû ramer Ceux qui ont côtoyé le four, ont fini cramer Et la plupart qui ont parlé, se sont fait caner Tous les matins quand j'me ver-le, faut que j'marque un but Spartacus en 2016, la daronne au parlu Il va pleuvoir, on t'achètera p't-être un parapluie Au téléphone, rien qu'tu parles, rien qu'tu baragouines Dans un bar à putes Ouais, dans un bar à gouines Non Bienvenue à Medellin, cartel et y aura pas d'quartier Héroïne, crack et cocaïne revendus en sachet Dans la rue méchante, ton sac-à-main, souvent, s'fait arracher La vie d'ma mère, la zone à Seille', c'est vraiment l'anarchie Wawa, la taule, Doudou, Sankhara, feront pas d'gâchis Le surveillant a compris, okay, ok sakamashi Doudou, la taule, l'a v'-esqui cent fois, Je suis pas béni, il m'faut des sous, j'viens rafaler tout Fuck la sère-mi, j'm'en bats les couilles, j'sens même plus les coups Tu tournes ta veste, c'est plus pareil, j'fais tourner la roue Trop acharné, déterminé, on s'envole du zoo Fidèle sont nos clients, d'la puff, on ramène En espérant que ça marche, on a dû ramer Ceux qui ont côtoyé le four, ont fini cramer Et la plupart qui ont parlé, se sont fait caner</t>
         </is>
       </c>
     </row>
@@ -2860,7 +2860,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>f'rais mieux d'me barrer Quitter la France, quitter Paris Des fois, j'me demande qu'est-ce qui m'arrive Tout ça m'a rendu complètement taré Tous les jours, j'crois qu'c'est mon annif' Tous les jours, j'crois qu'c'est mon annif'You might also like</t>
+          <t>f'rais mieux d'me barrer Quitter la France, quitter Paris Des fois, j'me demande qu'est-ce qui m'arrive Tout ça m'a rendu complètement taré Tous les jours, j'crois qu'c'est mon annif' Tous les jours, j'crois qu'c'est mon annif'</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2877,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Ah, ah, ah Ah, ah, ah J'imagine pas vivre sans toi Envoie des snap sans aucun effet C'est une bombe, un attentat Pour toi, j'arrête le trois fois filtré Et tu m'dis que tu mens Et que pour moi, t'as des sentiments La vie de Ronnie provoque des insomnies Du mal à suivre le train d'vie Un excès qu'on a banalisé J'suis une moula incomprise incomprise Petit cur a été vandalisé Ah, ah, ah Ah, ah, ah Toi et moi, c'est sans aucun effort Si tu tombes, je tombe, à deux, on est plus forts Toi et moi, c'est sans aucun effort Si tu tombes, je tombe, à deux, on est plus forts You might also like T'imagines, t'es tout pour moi La vérité, c'est trop pour toi Encore des années à tes côtés Et j'passe mes soirées à t'écouter Là, j'sens qu'c'est trop, qu'un jour, tu vas m'lâcher Toi, tu veux partir quand j'me suis attachée C'est vrai qu'c'est chaud et qu'on s'est fâchés Mais si on s'perd de vue, on aura tout perdu Du mal à suivre le train d'vie Un excès qu'on a banalisé J'suis une moula incomprise incomprise Petit cur a été vandalisé Ah, ah, ah Ah, ah, ah Toi et moi, c'est sans aucun effort Si tu tombes, je tombe, à deux, on est plus forts Toi et moi, c'est sans aucun effort Si tu tombes, je tombe, à deux, on est plus forts</t>
+          <t>Ah, ah, ah Ah, ah, ah J'imagine pas vivre sans toi Envoie des snap sans aucun effet C'est une bombe, un attentat Pour toi, j'arrête le trois fois filtré Et tu m'dis que tu mens Et que pour moi, t'as des sentiments La vie de Ronnie provoque des insomnies Du mal à suivre le train d'vie Un excès qu'on a banalisé J'suis une moula incomprise incomprise Petit cur a été vandalisé Ah, ah, ah Ah, ah, ah Toi et moi, c'est sans aucun effort Si tu tombes, je tombe, à deux, on est plus forts Toi et moi, c'est sans aucun effort Si tu tombes, je tombe, à deux, on est plus forts T'imagines, t'es tout pour moi La vérité, c'est trop pour toi Encore des années à tes côtés Et j'passe mes soirées à t'écouter Là, j'sens qu'c'est trop, qu'un jour, tu vas m'lâcher Toi, tu veux partir quand j'me suis attachée C'est vrai qu'c'est chaud et qu'on s'est fâchés Mais si on s'perd de vue, on aura tout perdu Du mal à suivre le train d'vie Un excès qu'on a banalisé J'suis une moula incomprise incomprise Petit cur a été vandalisé Ah, ah, ah Ah, ah, ah Toi et moi, c'est sans aucun effort Si tu tombes, je tombe, à deux, on est plus forts Toi et moi, c'est sans aucun effort Si tu tombes, je tombe, à deux, on est plus forts</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>J'commence à gratter dans l'train, j'vais feat avec demain Ouais, ouais, ouais, ouais Heuss et moi en feat', c'est comme se prendre une grosse claque à deux mains Ouais, ouais, ouais, ouais La street de rue, c'est vrai, ici, y a pas Félix Gallardo skch Mais y a la Sablière, le maille, le blanc, les bouts à ragot J'encule les balivernes, les bitches qui racontent des ragots J'ai passé quatre hivers dans l'four à bosser comme un charo Le seize est salé, salé, emballé et cellophané paw, wow, wow J'm'en bats les couilles d'gagner si j'ai ramassé assez c'tte année Mais j'oublie pas qu'j'ai bossé vraiment comme un Pakistanais J'fais d'la khapta, la zeb, la pélo nous prend pour un trip pané Il s'coupe les couilles sur moi, la kich' arrive en simultané C'est Heuss L'enfoiré, gangz, j'bombarde comme Gareth Bale hey La drogue est bolivienne, tu veux t'emparer d'elle J'fais visiter la Tour Eiffel à Paredes Ah, j'veux la vie d'malade avec une chica-liente Ciao, hasta siempre Pas facile, j'ai mes bails là-bas Passer du Chica cuento à la vie chic et côté You might also like Olala, elle me suivrait pour une vie d'malade woh woh Olala, oublier tout pour une vie d'malade ouais, ouais, ouais, ouais Dans l'appart', j'recompte la kichta, j'roule un teh ouais, ouais, ouais, ouais J'prends ma part comme Balavoine ou comme Sinatra woh J'commence à gratter dans l'train, jai feat avec laga à demain Heuss et moi en feat', c'est comme se prendre une grosse claque à deux mains 9.2.2.4 tout pour 1, du rap çais-fran, c'est pas cain-'ri Ci-mer Karim pour le so-per de Mexico, tout est carré, hein J'traîne dans la tess Réda Murad dans la caisse Une seule teil Réda bois pas trois Capri-Sun, un pneu à plat haha Nerveux sur la prod comme le deux temps que j'comptais m'acheter J'ai les condés d'chez moi au cul comme s'ils étaient scratchés La neuvième line, le joint d'l'enfoiré, j'viens d'écraser J'ai rien ramassé du tout, j'veux tout niquer, j'veux tracer Hyperactif dans la cabine, fuck un docteur et son cabinet J'ai ma beuh et mon inspi' pour brasser mes billets Ah, j'veux la vie d'malade avec une chica-liente Ciao, hasta siempre Pas facile, j'ai mes bails là-bas Passer de la Chica cuento à la vie chic et côté Olala, elle me suivrait pour une vie d'malade ouais, ouais, ouais, ouais Olala, oublier tout pour une vie d'malade ouais, ouais, ouais, ouais Dans l'appart', j'recompte la kichta, j'roule un tah ouais, ouais, ouais, ouais J'prends ma part comme Balavoine ou comme Sinatra ouais, ouais, ouais, ouais Olala, elle me suivrait pour une vie d'malade ouais, ouais, ouais, ouais Olala, oublier tout pour une vie d'malade ouais, ouais, ouais, ouais Dans l'appart', j'recompte la kichta, j'roule un teh ouais, ouais, ouais, ouais J'prends ma part comme Balavoine ou comme Sinatra ouais, ouais, ouais, ouais Ouais, ouais, ouais, ouais Ouais, ouais, ouais, ouais</t>
+          <t>J'commence à gratter dans l'train, j'vais feat avec demain Ouais, ouais, ouais, ouais Heuss et moi en feat', c'est comme se prendre une grosse claque à deux mains Ouais, ouais, ouais, ouais La street de rue, c'est vrai, ici, y a pas Félix Gallardo skch Mais y a la Sablière, le maille, le blanc, les bouts à ragot J'encule les balivernes, les bitches qui racontent des ragots J'ai passé quatre hivers dans l'four à bosser comme un charo Le seize est salé, salé, emballé et cellophané paw, wow, wow J'm'en bats les couilles d'gagner si j'ai ramassé assez c'tte année Mais j'oublie pas qu'j'ai bossé vraiment comme un Pakistanais J'fais d'la khapta, la zeb, la pélo nous prend pour un trip pané Il s'coupe les couilles sur moi, la kich' arrive en simultané C'est Heuss L'enfoiré, gangz, j'bombarde comme Gareth Bale hey La drogue est bolivienne, tu veux t'emparer d'elle J'fais visiter la Tour Eiffel à Paredes Ah, j'veux la vie d'malade avec une chica-liente Ciao, hasta siempre Pas facile, j'ai mes bails là-bas Passer du Chica cuento à la vie chic et côté Olala, elle me suivrait pour une vie d'malade woh woh Olala, oublier tout pour une vie d'malade ouais, ouais, ouais, ouais Dans l'appart', j'recompte la kichta, j'roule un teh ouais, ouais, ouais, ouais J'prends ma part comme Balavoine ou comme Sinatra woh J'commence à gratter dans l'train, jai feat avec laga à demain Heuss et moi en feat', c'est comme se prendre une grosse claque à deux mains 9.2.2.4 tout pour 1, du rap çais-fran, c'est pas cain-'ri Ci-mer Karim pour le so-per de Mexico, tout est carré, hein J'traîne dans la tess Réda Murad dans la caisse Une seule teil Réda bois pas trois Capri-Sun, un pneu à plat haha Nerveux sur la prod comme le deux temps que j'comptais m'acheter J'ai les condés d'chez moi au cul comme s'ils étaient scratchés La neuvième line, le joint d'l'enfoiré, j'viens d'écraser J'ai rien ramassé du tout, j'veux tout niquer, j'veux tracer Hyperactif dans la cabine, fuck un docteur et son cabinet J'ai ma beuh et mon inspi' pour brasser mes billets Ah, j'veux la vie d'malade avec une chica-liente Ciao, hasta siempre Pas facile, j'ai mes bails là-bas Passer de la Chica cuento à la vie chic et côté Olala, elle me suivrait pour une vie d'malade ouais, ouais, ouais, ouais Olala, oublier tout pour une vie d'malade ouais, ouais, ouais, ouais Dans l'appart', j'recompte la kichta, j'roule un tah ouais, ouais, ouais, ouais J'prends ma part comme Balavoine ou comme Sinatra ouais, ouais, ouais, ouais Olala, elle me suivrait pour une vie d'malade ouais, ouais, ouais, ouais Olala, oublier tout pour une vie d'malade ouais, ouais, ouais, ouais Dans l'appart', j'recompte la kichta, j'roule un teh ouais, ouais, ouais, ouais J'prends ma part comme Balavoine ou comme Sinatra ouais, ouais, ouais, ouais Ouais, ouais, ouais, ouais Ouais, ouais, ouais, ouais</t>
         </is>
       </c>
     </row>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Yes, we can, on s'en va tout lweek-end Où tu veux, yes, we can J'ai assez d'tickets, dans les îles mexicaines Que jarrache ta ficelle Bébé, yes, we can, on s'en va tout l'week-end Où tu veux, yes, we can J'ai assez d'tickets, dans les îles mexicaines J'connais son tarot, le LV carreaux, elle m'a mis la migraine Elle s'pose des questions, pas à la maison, Lenfoiré, un mystère Tsais qu'je pnse Je pens à toi sur la piste de danse Sur la piste de danse Tu mas donné ton cur Cur, tu m'as fait des avances J'suis dans l'fond du bar, elle veut quon décale mais là, j'suis trop défoncé C'est ça tous les soirs, oui, je la déçois, j't'avais dit d'laisser tomber 'ber Yes, we can, on s'en va tout l'week-end Où tu veux, yes, we can J'ai assez d'tickets, dans les îles mexicaines Que j'arrache ta ficelle Bébé, yes, we can, on s'en va tout l'week-end Où tu veux, yes, we can J'ai assez d'tickets, dans les îles mexicaines Que j'arrache ta ficelle Bébé, yes, we can You might also like C'est la zone à , c'est pas les Feux d'l'Amour, j'suis pas love, j'veux des lovés Parle en business plan, j'suis dans l'cinq étoiles, j'mange du buf de Kobe Bébé, faut pas Pas que tu vois loin Loin J'te veux maintenant 'nant , jamais demain Mais c'est une catin dans les draps en satin Des fois, ça m'tente, balle dans la tempe Mais j'ai pas l'temps, j'modifie les passe-temps Idéalement, j'roule un p'tit qui calme Évidemment, j'arrive comme un Allemand Cent K dans l'sac, Yes, we can, on s'en va tout l'week-end Où tu veux, yes, we can J'ai assez d'tickets, dans les îles mexicaines Que j'arrache ta ficelle Bébé, yes, we can, on s'en va tout l'week-end Où tu veux, yes, we can J'ai assez d'tickets, dans les îles mexicaines Que j'arrache ta ficelle Bébé, yes, we can Dans les îles mexicaines Que j'arrache ta ficelle Bébé, yes, we can Où tu veux, yes, we can J'ai assez d'tickets</t>
+          <t>Yes, we can, on s'en va tout lweek-end Où tu veux, yes, we can J'ai assez d'tickets, dans les îles mexicaines Que jarrache ta ficelle Bébé, yes, we can, on s'en va tout l'week-end Où tu veux, yes, we can J'ai assez d'tickets, dans les îles mexicaines J'connais son tarot, le LV carreaux, elle m'a mis la migraine Elle s'pose des questions, pas à la maison, Lenfoiré, un mystère Tsais qu'je pnse Je pens à toi sur la piste de danse Sur la piste de danse Tu mas donné ton cur Cur, tu m'as fait des avances J'suis dans l'fond du bar, elle veut quon décale mais là, j'suis trop défoncé C'est ça tous les soirs, oui, je la déçois, j't'avais dit d'laisser tomber 'ber Yes, we can, on s'en va tout l'week-end Où tu veux, yes, we can J'ai assez d'tickets, dans les îles mexicaines Que j'arrache ta ficelle Bébé, yes, we can, on s'en va tout l'week-end Où tu veux, yes, we can J'ai assez d'tickets, dans les îles mexicaines Que j'arrache ta ficelle Bébé, yes, we can C'est la zone à , c'est pas les Feux d'l'Amour, j'suis pas love, j'veux des lovés Parle en business plan, j'suis dans l'cinq étoiles, j'mange du buf de Kobe Bébé, faut pas Pas que tu vois loin Loin J'te veux maintenant 'nant , jamais demain Mais c'est une catin dans les draps en satin Des fois, ça m'tente, balle dans la tempe Mais j'ai pas l'temps, j'modifie les passe-temps Idéalement, j'roule un p'tit qui calme Évidemment, j'arrive comme un Allemand Cent K dans l'sac, Yes, we can, on s'en va tout l'week-end Où tu veux, yes, we can J'ai assez d'tickets, dans les îles mexicaines Que j'arrache ta ficelle Bébé, yes, we can, on s'en va tout l'week-end Où tu veux, yes, we can J'ai assez d'tickets, dans les îles mexicaines Que j'arrache ta ficelle Bébé, yes, we can Dans les îles mexicaines Que j'arrache ta ficelle Bébé, yes, we can Où tu veux, yes, we can J'ai assez d'tickets</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2928,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Voluptyk, Voluptyk Zone 6 ou 13002 Zone 6 ou 13002, secteur tah les stupe', eh Zone 6 ou 13002, secteur tah les stupe', eh Zone 6 ou 13002, secteur tah les stupe' Dans l'que-tru de la zipette, et ça depuis tit-pe Que des manshugou, corde au cou Regard doux, on est partougou Dans la zone 6, rapzougou Y en a pour tous les nasaux, la frappe tah la NASA J'pose tout chez la nourrice, j'laisse rien à la casa J'appelle le mair quand j'vais au 129 Digestion avec un gros joint d'ppe-f' L terrain tourne depuis 89 Eh, eh, arrête d'chanter et viens dans la zone 6, que des sicarios Y a même pas un grossiste, la nourrice nous garde tout gratos On gère le terrain, la musique, la gue-dro, les bastos Plein d'trucs dans la sacoche, regarde la gueule des gosses Dé-dé-décale, la bécane démarre pas, vas-y, viens faire les cosses On vient faire une razia complète, y aura aucune négoc' La moumou, vas-y, viens, si ça marche pas, ramène une citadine Fais conduire la p'tite Amandine, on revient d'Argentine Fais pas de vidéo, prends la photo et benda aussitôt Avant tout ça, j'faisais d'la taule et tous les comico Train d'vie tah les bâtards, j'claque les sous du Qatar Pour des potes qui m'enverront pas une seule recharge au mitard Il s'fait tard, j'roule un dernier tah, j'lui fais l'amour comme si j'sortais du shtar Elle m'dit bébé, j'prends mes affaires, j'me barre Dans l'appart', c'est l'Mexique, c'est l'Maroc, c'est l'Pérou Dans l'ghetto, vrai frérot se fait rare comme permis 2 roues Soit j'deviens une star ou soit j'finis au shtar ou T'étais pas là quand ça stagnait, fils de, m'dis pas On s'barre où ? You might also like Le malheur des uns fait le bonheur des fils de pute La réussite, ça attire les dou3as pour qu'tu chutes Ta passe, elle pue sa mère, comment tu veux qu'j'mette le but ? Comment prouver ? J'suis rentré, il reste deux minutes Ah, j'suis rentré, il reste deux minutes Il reste deux minutes Pff, j'ai envie d'mettre un putain d'but en lucarne, sa mère Pa-Pa-Pa-Paris la nuit, c'est la Californie Des moulaga encore en vie comme Annie Cordy Super dégourdi, j'te l'dis, j'te l'redis, on fait plus de crédit Les mauvais payeurs depuis l'époque, ça m'a vite refroidit É-é-écoute la mélodie de la Porte d'Aix à Porte de Clichy Fais pas de chichi, j'suis avec Cheche, remplis son flashy Y a v'là les trous de ballon, Gianni, Versacce, collection Gucci Dans l'compte nickel, y a tchi On fait que d'la magie, cerveau endommagé, ramène le Taittinger avec 25 g Un plavon avec zéro gros dangers On veut manger, p'tit bâtard, on veut manger Bipe le G, sur signal, gros, j'récupère le 200 g Livraison 30 minutes chrono, rapide, c'est léger Gestionnaire des bénéfices comme un PDG Zone 6 ou 13002, secteur tah les stupe' Dans l'que-tru de la zipette, et ça depuis tit-pe Que des manshugou, corde au cou Regard doux, on est partougou Dans la zone 6, rapzougou Y en a pour tous les nasaux, la frappe tah la NASA J'pose tout chez la nourrice, j'laisse rien à la casa J'appelle le maire quand j'vais au 129 Digestion avec un gros joint d'ppe-f' Le terrain tourne depuis 89 Zone 6 ou 13002, secteur tah les stupe' Dans l'que-tru de la zipette, et ça depuis tit-pe Que des manshugou, corde au cou Regard doux, on est partougou Dans la zone 6, rapzougou Y en a pour tous les nasaux, la frappe tah la NASA J'pose tout chez la nourrice, j'laisse rien à la casa J'appelle le maire quand j'vais au 129 Digestion avec un gros joint d'ppe-f' Le terrain tourne depuis 89 Le malheur des uns fait le bonheur des fils de pute La réussite, ça attire les dou3as pour qu'tu chutes Ta passe, elle pue sa mère, comment tu veux qu'j'mette le but ? Comment prouver ? J'suis rentré, il reste deux minutes Ah, j'suis rentré, il reste deux minutes Il reste deux minutes</t>
+          <t>Voluptyk, Voluptyk Zone 6 ou 13002 Zone 6 ou 13002, secteur tah les stupe', eh Zone 6 ou 13002, secteur tah les stupe', eh Zone 6 ou 13002, secteur tah les stupe' Dans l'que-tru de la zipette, et ça depuis tit-pe Que des manshugou, corde au cou Regard doux, on est partougou Dans la zone 6, rapzougou Y en a pour tous les nasaux, la frappe tah la NASA J'pose tout chez la nourrice, j'laisse rien à la casa J'appelle le mair quand j'vais au 129 Digestion avec un gros joint d'ppe-f' L terrain tourne depuis 89 Eh, eh, arrête d'chanter et viens dans la zone 6, que des sicarios Y a même pas un grossiste, la nourrice nous garde tout gratos On gère le terrain, la musique, la gue-dro, les bastos Plein d'trucs dans la sacoche, regarde la gueule des gosses Dé-dé-décale, la bécane démarre pas, vas-y, viens faire les cosses On vient faire une razia complète, y aura aucune négoc' La moumou, vas-y, viens, si ça marche pas, ramène une citadine Fais conduire la p'tite Amandine, on revient d'Argentine Fais pas de vidéo, prends la photo et benda aussitôt Avant tout ça, j'faisais d'la taule et tous les comico Train d'vie tah les bâtards, j'claque les sous du Qatar Pour des potes qui m'enverront pas une seule recharge au mitard Il s'fait tard, j'roule un dernier tah, j'lui fais l'amour comme si j'sortais du shtar Elle m'dit bébé, j'prends mes affaires, j'me barre Dans l'appart', c'est l'Mexique, c'est l'Maroc, c'est l'Pérou Dans l'ghetto, vrai frérot se fait rare comme permis 2 roues Soit j'deviens une star ou soit j'finis au shtar ou T'étais pas là quand ça stagnait, fils de, m'dis pas On s'barre où ? Le malheur des uns fait le bonheur des fils de pute La réussite, ça attire les dou3as pour qu'tu chutes Ta passe, elle pue sa mère, comment tu veux qu'j'mette le but ? Comment prouver ? J'suis rentré, il reste deux minutes Ah, j'suis rentré, il reste deux minutes Il reste deux minutes Pff, j'ai envie d'mettre un putain d'but en lucarne, sa mère Pa-Pa-Pa-Paris la nuit, c'est la Californie Des moulaga encore en vie comme Annie Cordy Super dégourdi, j'te l'dis, j'te l'redis, on fait plus de crédit Les mauvais payeurs depuis l'époque, ça m'a vite refroidit É-é-écoute la mélodie de la Porte d'Aix à Porte de Clichy Fais pas de chichi, j'suis avec Cheche, remplis son flashy Y a v'là les trous de ballon, Gianni, Versacce, collection Gucci Dans l'compte nickel, y a tchi On fait que d'la magie, cerveau endommagé, ramène le Taittinger avec 25 g Un plavon avec zéro gros dangers On veut manger, p'tit bâtard, on veut manger Bipe le G, sur signal, gros, j'récupère le 200 g Livraison 30 minutes chrono, rapide, c'est léger Gestionnaire des bénéfices comme un PDG Zone 6 ou 13002, secteur tah les stupe' Dans l'que-tru de la zipette, et ça depuis tit-pe Que des manshugou, corde au cou Regard doux, on est partougou Dans la zone 6, rapzougou Y en a pour tous les nasaux, la frappe tah la NASA J'pose tout chez la nourrice, j'laisse rien à la casa J'appelle le maire quand j'vais au 129 Digestion avec un gros joint d'ppe-f' Le terrain tourne depuis 89 Zone 6 ou 13002, secteur tah les stupe' Dans l'que-tru de la zipette, et ça depuis tit-pe Que des manshugou, corde au cou Regard doux, on est partougou Dans la zone 6, rapzougou Y en a pour tous les nasaux, la frappe tah la NASA J'pose tout chez la nourrice, j'laisse rien à la casa J'appelle le maire quand j'vais au 129 Digestion avec un gros joint d'ppe-f' Le terrain tourne depuis 89 Le malheur des uns fait le bonheur des fils de pute La réussite, ça attire les dou3as pour qu'tu chutes Ta passe, elle pue sa mère, comment tu veux qu'j'mette le but ? Comment prouver ? J'suis rentré, il reste deux minutes Ah, j'suis rentré, il reste deux minutes Il reste deux minutes</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Heuss_lEnfoiré_songs.xlsx
+++ b/data/02_intermediate/cleaned_Heuss_lEnfoiré_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C147"/>
+  <dimension ref="A1:C144"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1784,12 +1784,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Blue</t>
+          <t>Bob Marley</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Makiavel - Diplomatico - 0101 Max D. Carter - Ex-libris 0401 Treizeight - Bastet 0701 J.E. - Sale gosse 1101 Busta Flex DJ Master Mike - Flex ta tape 1101 El Matador - Balle perdue - 1101 F430 - Thank You God 1101 Mayo - Tout pour nous 1101 Movezu - Station 1801 Cenza - Tout droit sorti de Montreuil - 1801 DA Uzi - Mexico - 1801 Prince Waly - BO Y Z - 1801 Varnish la Piscine - Le regard qui tue - 1801 Wit. - NO 2101 k38 - CUPIO DISSOLVI 2501 Chester - Belle époque - 2501 Heuss L'enfoiré - En esprit - 2501 Kaaris - Or Noir Pt. 3 - 2501 Seth Gueko - Destroy - 2501 XV - La onda - 3001 K.S.A - Quatre-vingt-huit - 3101 Nestor Kéa - 5-Thèses Février 0102 Beozedzed - L'histoire continue - 0102 Lartiste - Quartier Latin Vol. 1 0102 Saloon - Le roi des animaux Vol.1 - 0102 Sam's - Deus ex machina 0102 SKG - C'est la vie 0102 Shreez - La vie gratuite - 0102 Swift Guad Raw Saitama - Guérilla 0102 Ul'Team Atom - Ul'Team Radio, Vol. 1 0102 Walid Shabazz - Audiophanatic 2 - 0102 YL - Nyx et Érèbe 0202 Freko - Best of Freko 0402 Euphonik - Cercueil de peau 0802 Juice - Multifruits II - 0802 Lacrim - Lacrim - 0802 Loveni - Une nuit avec un bon gamin 1302 LK de l'Hotel Moscou - Aphelion 1502 Black Snake - Black Snake B.O 1502 Box - Anamnesis - 1502 Busta Flex - Moonrock - 1502 Brvmsoo - Voilà - 1502 Dead Obies - DEAD - 1502 Gianni - Géhenne 1502 Grim Reaperz - Blood Leg Vol.3 - 1502 KPoint - Temps additionnel - 1502 Lasco - 2.6.Z 1502 Monotof - Stéréotypé - 1502 Take A Mic - Inaccessible 1502 T.Killa - Dernier malaxe - 1502 YL - Æther et Héméra - 1602 Luv Resval - LUV KILLS - 2002 KuRt 2020 - Noir Ivoire Rage Hope Edition - 2202 4Keus Gang - L'histoire d'un gang 2402 Tomy Le Merluchon - Modération - 2502 Gouap Raaash - Maquina 03 3102 Brav - Novlang Mars 0103 Chanceko - Sobre - 0103 Hamza - Paradise - 0103 JuL - Album gratuit Vol. 5 0103 Kino - Sur un air de piano - 0103 Salek - Cèdre 0103 Various Artists - Bendo 6 0303 R2F - Une goutte dans locéan Vol.1 0503 Skalpel VII - Contre-courant 0503 VII - Lit de mort 0603 Fa2l - Day one - 0803 Ashe 22 - Ashe Tape Vol.1 0803 Dry - De la pure pour les durs 2 Vol. 2 - 0803 Landy - Assa Baing - 0803 Sinik - Invincible 0803 Skreally Boy - Karma 2 0803 Topas - MortsIlsSont - 0803 Triplego - Machakil 1003 Yuzmv - Brouillon 0 - 1103 T.I.S - 005 Silence 1203 Yawil - Harmonie - 1403 Luni - Krome - 1503 404Billy - Process 1503 Artistes multiples - Cercle fermé 1503 Binks Beatz - Drip Music - 1503 Booska-P - Booska Pefra Vol. 6 1503 Cahiips - Black Airline 1503 Chris Karjack - L'heure du Chris 1503 Krilino - Métamorphose 1503 Le Chroniqueur Sale - Sale 1 1503 NVX MUTNTS - Anubis please - 1503 Veust - La saison de Veust Hiver 1503 Zedkara - Kill - 1503 Zidi - Alice 1703 Tizzo Shreez - Fouette St-Patrick - 2203 Bekar - Boréal - 2203 Djadja Dinaz - Drôle de mentalité 2203 Majster - Fahrenheit - 2203 Naza - Bénef - 2203 Nick Conrad - Révolution 2.0 - 2203 Ninho - Destin 2203 Paco Mani Deïz - Pacman 2 - 2203 Soso Maness - Rescapé - 2203 Tawsen - Al Warda - 2703 Abd Al Malik - Le jeune noir à l'épée Vol. 1 2703 B-Biface - Cur 2803 Greenfinch - From soul to souls 2903 Bridjahting - OBSCVR - 2903 Diddi Trix - Trix City - 2903 EMan - Maison - 2903 Enima - De rien 2903 Fresh Out Da Box - Special Delivery - 2903 Jok'Air - Jok'Travolta 2903 Junior Bvndo - Direct t'es refait 2903 Maska - Préliminaires Vol. 2 2903 NOR - Arab Caviar - 2903 Nusky - Nusky - 2903 Sirap - Biohazard 2903 YvDre - Horizons Avril - 0504 2TH - Rêver plus grand 0504 Alivor - VOR LIFE 0504 DJ Weedim - Boulangerie française 2020 Thèse - 0504 Franglish - Monsieur 0504 Jeunejoueur - Premières heures - 0504 Lord Gasmique - Mieux 0504 Melan - Pragma Vol. A - 0504 PNL - Deux frères - 0504 RK - Rêves de gosse - 0504 Zola - Cicatrices - 1104 Kpri - Kpri Tape, Vol. 1 - 1204 Alonzo - Stone 1204 DJ Leska - Encore lui - 1204 Dosseh - VIDALOA 4.5 - 1204 Hyacinthe - RAVE - 1204 Robert Nelson - Nul n'est roé en son royaume - 1204 Roméo Elvis - Chocolat - 1204 Sefyu - Yusef - 1204 USKY - Porte dorée Saison 2 - 1204 Volts Face - Fracture - 1604 Artistes multiples - Deezer Originals La Relève - 1704 Helix Jr - Poisson Rouge - 1904 Abou Debeing - Street love 1904 Arka - Alien 1904 Arma Jackson - Capsules 1904 CG6 - Yellow Binks - 1904 Columbine - Adieu, au revoir 1904 DJ Weedim - Boulangerie française 2020 Antithèse 1904 Elams - Ce que l'on vit Part. 2 1904 Hache-P - Rocknroll - 1904 Koba LaD - LAffranchi 1904 Les Frères Scotch - Neptune - 1904 MMZ - Sayonara 2004 Biffty - Roi de la Souye 2004 DIL JMK - JD 2404 Baek - 33Baek - 2404 Lefa - Next album est dans mon phone 2404 Mothas la Mascarade - Sur la rive d'en face - 2604 13 Block - BLO - 2604 Doxx - Dans la tempête - 2604 Gims - Transcendance 2604 Hooss - French Riveira, Vol. 3 - 2604 Kalash Criminel - La fosse aux lions Réédition 2604 Kamikaz - Mountassir 2604 L'Allemand SixNueve - SixNueve - 2604 Luidji - Tristesse business Saison 1 2604 Mazoo - Dualité 2604 Néfaste - Partir loin Mai 0105 Seven - Vibe City - 0305 47Ter - On vient gâcher tes classiques - 0305 Bolémvn - Salut les terriens 0305 DJ Weedim - Boulangerie française 2020 Synthèse - 0305 FouKi - ZayZay 0305 Lorage - Sauvage - 0305 Osirus Jack - Nibiru - 0505 Zeu - Méta 0605 S.E.A.R - 40.000 Générations - 0705 Pekahach - 23 - 0805 Wallace Cleaver - 98 1005 Aguirre - Sur la route de Saline - 1005 Di-Meh - Fake love 1005 Louis Aoda - Aoda Gang Tour 1005 Melan - Pragma Vol. B 1005 Huntrill - Nouvelle trap - 1005 Shay - Antidote 1005 Tai Z - Nokomotiv 1205 Venlo - LOVE - 1705 8Ruki - Steam - 1705 Davodka - À juste titre - 1705 Kinsha - Psycause - 1705 La Prune - BDMS 3 - 1705 Spider ZED - Bien ou quoi 1705 Twin Twin - Paradiso - 1705 Zed Yun Pavarotti - French cash - 2205 Eden Dillinger - OFFSHORE 2205 Squidji - Trap et deau fraîche 2405 DJ Élite - Blackbird 2405 Irvin - L'impasse 2405 Jango Jack - Anthologie Vol.1 - 2405 Kobo - Période d'essai 2405 LaCraps - La salle du temps - 2405 Lord Esperanza - Drapeau blanc - 2405 Loud - Tout ça pour ça - 2405 OELEY - OELEY STARTING EP - 2405 Tortoz - ROZE 2405 Vin'S - Sophia 2705 Eddy Woogy 99 Wolves - Ke Za Ko - 2805 T.I.S - 006 Music! 3005 Furlax - Kairos - 3105 2zer - Décisions 3105 Andy Luidje - Le temps d'un trajet - 3105 Bramsito - Prémices - 3105 F.L.O - Navigue - 3105 Leo Roi - Château Éclat Soleil 3105 Louvar - Pleine lune 3105 Luni Sacks Majdon Co - Bobolak Muzik 3105 Max Paro - A-venir Juin 0106 Fossoyeur - Rien à perdre 0106 Jorrdee - Vu 0306 Dyno274 - Rouge - 0506 T.I.S Melmel - Les Autres Volume Un - 0606 Nekfeu - Les étoiles vagabondes 0706 Eloquence Joe Lucazz - L'Enfer ou l'eau chaude - 0706 Guizmo - GPG 2 0706 Jarod - Test micro 0706 Lala ce - Le son d'après 0706 Hakim Norbert - HopJazz - 0706 Tito Prince - Un Roi dans un HLM 1006 Arcane - Force Honneur 1206 Absolut Street - À qui profite la rime 1206 Mozo du Zoo - M.D.Z - 1206 Sameer Ahmad - Apaches 1406 Artistes multiples - Nova Grünt Tunes vol. II 1406 Assy - Rayons - 1406 Badjer - O.D 1406 Denzo - Atrocité 1406 Goldee Money - Watchalegang 1406 Hankock - Exorde - 1406 Hayce Lemsi - Écorché vif 1406 Hiba - Multijuice 1406 Jidma - Mr Fuego - 1406 Jok'Air - Jok'Travolta La fièvre - 1406 JuL - Rien 100 rien 1406 Kiff No Beat - Bledard Is The New Fresh - 1406 Marwa Loud - My life 1406 Melan - Pragma Vol. C - 1406 Odaiba - Locus EP Instrumentale 1406 T2R - Loka - 1406 Veerus - Marché noir - 1406 Zamdane - Z 1506 Beeby - Genesis - 1706 T.I.S Melmel - Les Uns Volume Autre - 1806 LK de lHotel Moscou - Vita Brevis - 1906 KuRt 2020 - Charbon - 1906 Lyonzon - En attendant la popance - 2006 Veust - La saison de Veust Printemps 2106 Beozedzed - Prolongations 2106 Biwai - Music 2106 Cheu-B - Icône 2106 Dehmo - Rogue 2106 Fanny Polly - Toute une histoire 2106 Furax Barbarossa - Black Album Réédition 2106 Guezess - Face B - 2106 Kekra - Vréalité 2106 Le 77 - ULTIM 2106 Lim - Renaissance - 2106 Makala - Radio Suicide 2106 Moon'a - Hasta la vie 2106 Movezu - S2 2106 Mozo du Zoo - OG VOL. 1 - 2106 Nekfeu - Expansion 2106 Saïd - Music 2106 Tayc - N Y X I A Vol. 2 - 2406 Butter Bullets - Noir métal 2506 Swift Guad Al'Tarba - Flashback - 2606 Dante Sito - Piment 2606 Majster - JUAH HASSELBAINK 2606 Paranoyan - Tout est possible, rien n'est obligatoire - 2806 100 Blaze - Depuis minot 2806 50k Editions - Game Over Vol. 2 2806 ABD - Mr Sall 2806 Almeria - HIJO 2806 Bash - Jours et nuits - 2806 Bilel - Bilel c'est wam 2806 Dawa O Mic - L2 2806 Doks - 28 2806 Freko - Mon silence 2806 FSS - Austère 2806 H-Lo - POMPELUP 2806 Hiro - Erratum - 2806 Jar Pacino - Léon 2806 La Famax - Ôhkage 2806 Max V. Charly Kid - 4 roues motrices 2806 Mehdi Obams - Red machine - 2806 Naps - On est fait pour ça 2806 Retro X - 24 2806 S-Cap - Rosa Nera - 2806 Scylla - BX Vice 2806 Tango Point Hotel - Douane 2806 thaHomey - Birth Lake Magma Road - 2806 Youri - Tsar Trap Vol. 3 3006 Dixiss - Nécessité Juillet 0107 Jorrdee - THE UNDERDOG PROJECT 0507 Arsn - Coach - 0507 Chilla - MN - 0507 Dabs - MAINMISE 0507 Dhab King, Sarbacane, Warlock Ol Zico - Les ailes brulées 0507 DJ Babs - L'Architecte - 0507 Juice - Guayaba - 0507 Leto - TRAPTAR 2 - 0507 Mister You - Hasta la Muerte 0507 sean - Mercutio 0507 Shotas - Capuché 0507 Various Artists - Bendo 7 - 1107 Hash24 - DNA 1107 Majster - Ya Robert - 1207 Dinor Rdt - Lunettes 2 ski - 1207 Dosseh - Summer Crack Vol. 4 1207 El Matador - Summer Session, Vol. 3 - 1207 OBOY - MEGA - 1207 Vegedream - ATEGBAN - 1207 Yannou JR - JR World 1407 Moubarak - La rafale 1507 Reta - Onivers 1507 XlaNuit - Sortie de prison 1807 6NUEVE - W6RLDWILD2 1907 Hooss - Thleta 1907 I.K - I.K - 1907 Maxenss - - 1907 S-Pion - Sourou - 1907 Vaï - Couleurs - 1907 Wit. - SIRIUS 2007 Dixiss - Nécessité Deluxe - 2607 Bon Gamin - Unreleased mixtape 2016 - 2017 2607 Dadinho - La cité des hommes 3107 Abssis - Clark Kent, Volume 2 3107 Majster - ARY MELEKH 3107 Ultimate Bitches - Back flip Août 0108 So Sama - Drama 0208 Astro 90 SUMMERGOD - HYPER CRUEL SUMMER 0208 Chily - En attendant... - 0208 Hamza - Paradise Deluxe 0208 Still Fresh - Trapop 2 0908 Kinsha - Canicule - 1608 Doko - M87 - 1608 Les Anticipateurs - Temple de la Renommée - 1608 Lpee - 3ème round 1608 Swenz - Surf Tape 2308 Blaiz - Polar - 2308 Lorenzo - Sex in the City - 2308 Népal - 2016 - 2018 - 2308 Sely - Tour de France - La Tape 2 - 3008 Féfé Leeroy - 365 jours - 3008 Hatik - Chaise pliante 3008 Louis Aoda - Aoda 2 - 3008 Obia le Chef - Zoklo 3008 Saïk - Magma Septembre 0109 Jeune LC - Croyance Perdition - 0209 Jehkyl - On m'appelle Stutt - 0209 Sheldon - Lune Noire Prequel - 0309 Eddy Woogy Lucio Bukowski - Bélugas - 0509 Prime - U.S.S.O - 0509 Zikxo - Zikyenne - EP 0609 Artistes multiples - Ades présente Neoshtar, Vol.1 - 0609 Ashe 22 - Free Splash 0609 Boostee - M.A.D 0609 Ice Crimi - Scoop1 0609 L'Hexaler - Que la vie soit louée - 0609 Nemir - Nemir - 0609 Niska - Mr. Sal - 0609 Oxmo Puccino - La nuit du réveil - 0609 Zikxo - Temps - 1109 Red Bull Music - Toronto Paris 1109 Rekta - 187 - 1209 Eff Gee - Jeudi XII - 1309 3010 - PHNIX 1309 Artistes multiples - La France sous pression Volume 2 - 1309 Black M - Il était une fois - 1309 Chaman Sully - Paradis Ma Cave 1309 Jewel - TEL - 1309 Kery James - Tu vois j'rap encore - 1309 Odezenne - Pouchkine - 1309 PLK - Mental 1309 tanlee - Hokuto 1509 Emota - Discover. - 2009 3010 - Renaissance - 2009 Dr Yaro La Folie - Apollo 11 - 2009 M le Maudit - I Hate Love 2009 Noémie - Fragile 2009 TLZ Clan - WAVE 2009 Tonio Senti - Bons vivants, Vol. 1 - 2609 Alpha Wann - PPP 2709 3010 - Compliments - 2709 A2H - Seulement l'amour 2709 Amy - Ne le dites pas à ma mère 2709 Anas - Dans mon monde - 2709 Benab - Dracarys - 2709 Ikaz Boi - Brutal 2 - 2709 Jayden - Saison rose - 2709 Koba LaD - L'Affranchi Deluxe 2709 K.S.A - Swishland 2709 LaF - Citadelle 2709 Mous-K - La Quicka - 2709 Niro - Stupéfiant Chapitre 1 - 2709 Sheldon - Lune Noire 2709 thaHomey - Atlas Break Storm Rising 3009 3010 - PRISTINE Octobre 0410 DISE - Parfum - 0410 Fadah - Furieux 0410 Fhat.R - Zoom - 0410 Fixpen Sill - FLAG - 0410 Josman - Factice Feu.Bi - 0410 JuL - Rien 100 rien Réédition 0410 Kwistof - Identité 0410 L'Allemand SixNueve - Liberta 0410 R.Can - Sur mon solex 0410 Radmo - Climax 0410 Summum Klan - Blue flame 0510 Jorrdee - 0 I - 0610 Lycos - PLANET 1110 3010 - GROOVE - 1110 Benash - NHB - 1110 Diddi Trix - Cartel de Bondy - 1110 DTF - On ira où ? - 1110 Key Largo - 500 Key - 1110 Niro - Stupéfiant Chapitre 2 - 1110 Vald - Ce monde est cruel - 1210 Forsan - Paradis 1210 Melfiano - Café Noir 1510 Artistes multiples - Deezer Originals La Relève 2 1510 Skalpel - Featuring - 1810 8ruki - Overseas - 1810 3010 - 8D 1810 Comar - Dernier virage - 1810 Falcko - Orion - 1810 Ideal Jim - Soleil éternel - 1810 Kikesa - Puzzle - 1810 Lefa - Fame - 1810 Moïse The Dude - OG - 1810 RTT Clan - Le clan - 1810 Senamo - Fleurs du mal - 1910 Lomepal - 3 jours à Motorbass - 2510 13 Block - BLO Réédition - 2510 2waves - 4545 2510 3010 - Épisode 0 - 2510 47Ter - L'adresse - 2510 Aya Nakamura - Nakamura Deluxe Édition 2510 Dinero - Jeune O.G. 2510 Fello - Petit Apache - 2510 Gianni - D.D.M 2 2510 Jorrdee Izen - 0.4 - 2510 Lomepal - Amina - 2510 Maybe Watson - Enter the Dance - 2510 Niro - Stupéfiant Chapitre 3 - 2510 Rémy - Rémy d'Auber 2510 Saysz - Holisaysz - 2510 Scylla Sofiane Pamart - Pleine lune 2 3110 DJ Weedim - Halloween Treats Novembre 0111 3010 - Un - 0111 Kalash - Diamond rock - 0111 Lary Kidd - Surhomme - 0111 Lotus - 240 0111 Swenz - Dans le fief - 0111 TripleGo - Yeux rouges 0711 Saknes - LArabe du coin - 0811 Alkpote - Monument 0811 Babarr - Mort ou vif - 0811 Bené - El Naya 0811 Chich - Französisch - 0811 Djadja Dinaz - Drôle de mentalité, pt. 1 2 - 0811 Euphonik - Thérapie 0811 Ghetto Phénomène - Money time 0811 Manau - Nouvelle vague 0811 Megaski - Dans lKamtar Volume 1 0811 Navy - Trace 0811 OR - Chemin de frères 0811 Penny Brice - Déterminé - 0811 Siboy - Twapplife - 0811 Soprano - Du Phoenix aux étoiles - 1011 Zeu - Trash Talking Gold Édition - 1211 Le A - Insomnie 1411 H-Tône Eveil - En attendant la pluie 1411 Hash24 - DNA Réédition 1511 313 - Orgyia 1511 ATK Ul'team Atom - Prestige - 1511 BGL - CHRYSALIDE 1511 Captaine Roshi - Attaque 1511 D6 - Centimental 1511 D.A.V. - Divergence - 1511 GRËJ - L'album gris - 1511 JMK - Candy ballers 1 1511 Lord Esperanza - Infini 1511 Orlo - Atomique 1511 Pins Dimeh - Nindo II 1511 SOMA - Nitro 1511 Swenz - Achète mon projet 1711 Ali Polva - Apprenti 2111 Artistes Multiples - Beateljouss Vs Mcs 2111 JMK - Gunshot 2 2211 34A - En attendant l'album 2211 Deno - Wanted Muzik III - 2211 IAM - Yasuke - 2211 ICO - Petit con - 2211 Marty de Lutece - Poster 2211 Mothas la Mascarade - Mouvement - 2211 Niro - Stupéfiant - 2211 Ol'Kainry - Mode ermite 2211 Ozkar Zulu - Garçon Gloire Soleil 2211 Patee Gee - Naziland 2211 Phasm - Nihilisme 2211 Rounhaa - Yeratik 2211 Royce - Alien 2211 Smeels - Selfmade - 2211 Tawsen - Al Mawja - 2211 Tsew The Kid - Diavolana 2311 Lpee - Amin 2411 Tyranik - Prototype 2911 Artistes Multiples - Le Rap2Filles Souterraine - 2911 Ashe 22 - Ashe Tape Vol.2 2911 Bakar - Papillon 2911 Carson - Falconia 2911 Cinco - The North doesn't forget - 2911 Dinos - Taciturne - 2911 Doc OVG - 39-45 - 2911 Gradur - Zone 59 2911 Kurtys Layson - Trap Night 2911 Mehdi Obams - Aisance club 2911 Nadir - REVER 2911 Rizla - Mauvais rêves - 2911 SCH - Rooftop Décembre 0612 6rano - Shwifty EP 0612 CRCLR - CRCLR Mouvement 0612 Dibson - Tous les jours 0612 Doria - MDP 0612 Eklips - Not 4 Sale 0612 Felix dÄcacias - Vatos Locos - 0612 Franglish - Monsieur Réédition - 0612 Gims - Ceinture noire Décennie - 0612 Jee Well x Purple Sun - LAVA - 0612 JuL - C'est pas des LOL - 0612 La Hyène - Thugz of anarchy - 0612 Oggy Nilz - O2 0612 Tekilla - L'âge adulte 0612 Yoshi Di Original - Cest pour vous ! 1112 So Clock - Horizon - 1312 2CheeseMilkShake - Neuilly Plaisir Vol. 3 - 1312 404Billy - Supernova 1312 Brass - Dix-sept 1312 Denzo - Atrocité 2 1312 Diamond Deuklo - CLYDE 1312 DIL - Dils Adventures 2.6 - 1312 Doums - Pilote Co 1312 El'ka - Allo, part.1 1312 HIM - Briminal - 1312 Juice - Shadow 1312 K.Maro - Demain c'est loin Best-Of 1312 Misère Record - Azymut zero 1312 Nid De Renard - NDR.20 STADIUM - 1312 Réejo - Archives 1312 Relo - Plume 13 - 1312 Tayc - NYXIA Tome III - 1312 Vegedream - Ategban Deluxe 1512 Mino - Et cette nuit là... - 1612 San-Nom - Sans nom 2012 Amin - Galaxie 2012 Cenza - Retour au temple - 2012 F430 - Street Quality - 2012 Hamza - Santa Sauce 2 2012 ThaHomey - Rarefiles - 2312 Michel - Michel chante Michel Vol. 1 2612 Lucio Bukowski Tcheep - Sereinement Motherfucker ! 2612 Sofiane - The Black Album 2712 Paco - Le Best-Of Autres Du 2509 au 0910 Les Alchimistes - Vacuité6</t>
+          <t>Ramène d'la boiss' avec une canne à pêche Pilon et un sac de cacahuète Ramène le tigre, celui du Bangladesh Ramène des femmes avec des armes de l'est Putain, qu'est-ce qu'on caille Ramène la valise, la kichta et on s'taille, bébé Putain, qu'est-ce qu'on caille Ramène la valise, la kichta et on s'taille, bébé Elle a ressenti ma douleur Elle en a vu de toutes les couleurs Elle est partie comme une couleuvre Elle a pas vu la toute neuve J'devrais t'en parler mais j'fume la kush Bob Marley J'devrais t'en parler mais j'fume la kush Bob Marley Y a trop d'menteurs donc j'ai dû benda Ils m'disent bonjour mais au fond, j'sais qu'ils m'aiment pas J'suis pas tout seul, bébé, t'inquiète pas Y a le Moha, y a même Demba N.Y.M.A a vidé la bouteille J'espère qu't'as les fouilles pleines parce qu'on a les douilles pleines N.Y.M.A a vidé la bouteille J'espère qu't'as les fouilles pleines parce qu'on a les douilles pleines Putain, qu'est-ce qu'on caille Ramène la valise, la kichta et on s'taille, bébé Putain, qu'est-ce qu'on caille Ramène la valise, la kichta et on s'taille, bébé Elle a ressenti ma douleur Elle en a vu de toutes les couleurs Elle est partie comme une couleuvre Elle a pas vu la toute neuve J'devrais t'en parler mais j'fume la kush Bob Marley J'devrais t'en parler mais j'fume la kush Bob Marley</t>
         </is>
       </c>
     </row>
@@ -1801,12 +1801,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Bob Marley</t>
+          <t>Bruce Wayne</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Ramène d'la boiss' avec une canne à pêche Pilon et un sac de cacahuète Ramène le tigre, celui du Bangladesh Ramène des femmes avec des armes de l'est Putain, qu'est-ce qu'on caille Ramène la valise, la kichta et on s'taille, bébé Putain, qu'est-ce qu'on caille Ramène la valise, la kichta et on s'taille, bébé Elle a ressenti ma douleur Elle en a vu de toutes les couleurs Elle est partie comme une couleuvre Elle a pas vu la toute neuve J'devrais t'en parler mais j'fume la kush Bob Marley J'devrais t'en parler mais j'fume la kush Bob Marley Y a trop d'menteurs donc j'ai dû benda Ils m'disent bonjour mais au fond, j'sais qu'ils m'aiment pas J'suis pas tout seul, bébé, t'inquiète pas Y a le Moha, y a même Demba N.Y.M.A a vidé la bouteille J'espère qu't'as les fouilles pleines parce qu'on a les douilles pleines N.Y.M.A a vidé la bouteille J'espère qu't'as les fouilles pleines parce qu'on a les douilles pleines Putain, qu'est-ce qu'on caille Ramène la valise, la kichta et on s'taille, bébé Putain, qu'est-ce qu'on caille Ramène la valise, la kichta et on s'taille, bébé Elle a ressenti ma douleur Elle en a vu de toutes les couleurs Elle est partie comme une couleuvre Elle a pas vu la toute neuve J'devrais t'en parler mais j'fume la kush Bob Marley J'devrais t'en parler mais j'fume la kush Bob Marley</t>
+          <t>Eh, c'est Jeoffrey Dandy à l'appareil Marcelino Wesh, le Heuss L'enfoiré, ça fait la moula d'baisé J'lui passe le gramme de coke, elle la prend comme un fraisier J'me trempe les pieds dans l'eau, pétasse, t'as pas mis assez d'huile Gros vatos fait des loves, au fait, j'ai mon vol à minuit On t'la fait à la Kanye West Enfant d'putain, nous, c'est l'Brésil, jamais le West Ham En chien, j't'envoie ton Western, avant l'plavon, ça reste calm Espagne, gros missile qui passe dans l'bolid laisse place Eh, 9.2.3.9.0, y a la moula qui va avec En direct d'Anderlecht, Schaerbeek, Molenbeek J'traine avec Many, , , Ze Pek' Fume la ppe-f' des Boute-en-train de Campagne Lévêque En balle, ça t'vend la beugeuh, au poste, faut pas qu'tu bégaies Tu peux m'croiser en Buggy ou gros Merco qui t'effraie Vol de cannabis, on te cane à six Filtré paralyse, gros boucan de dingue, poto, de Cannes à Nice Wesh, le Heuss L'enfoiré, ça fait la moula d'baisé J'lui passe le gramme de coke, elle la prend comme un fraisier J'me trempe les pieds dans l'eau, pétasse, t'as pas mis assez d'huile Gros vatos fait des loves, au fait, j'ai mon vol à minuit Sur une chaise roulante, j'ai fait des shows comme 2Chainz C'est quand j'ai pris la valise qu'tu prends des nouvelles J'ai jeté mes anciens potos à la poubelle J'fais d'l'oseille mais j'ai pas les pouvoirs de Bruce Wayne Poto, ça vient d'où ? J'te bloque, t'es chelou Tu rends fou juste pour un ze-dou, pété, j'finis la bouteille What you gonna do? What you gonna do? J'me la coule, j'ai quitté la tour, pété, j'finis la bouteille On fait la moula hyper vite, tu vas r'cevoir ton Uber Shit Rien qu'j'me régale comme Van Persie J'ai d'jà percé, j'vous dis merci Ouais, Timal, j'crois bien qu'j'suis malade J'ralentis l'shit, j'accélère la salade Respecte les frères millionnaires, ceux qui font la salat Dans c'milieu, j'me balade J'm'en bats les couilles comme Président du Mexique Elle a le boule qui m'excite, j'mets la beuh et tu mets l'shit J'm'en bats les couilles comme Président du Mexique Elle a le boule qui m'excite, j'mets la beuh et tu mets l'shit Wesh, le Heuss L'enfoiré, ça fait la moula d'baisé J'lui passe le gramme de coke, elle la prend comme un fraisier J'me trempe les pieds dans l'eau, pétasse, t'as pas mis assez d'huile Gros vatos fait des loves, au fait, j'ai mon vol à minuit Sur une chaise roulante, j'ai fait des shows comme 2Chainz C'est quand j'ai pris la valise qu'tu prends des nouvelles J'ai jeté mes anciens potos à la poubelle J'fais d'l'oseille mais j'ai pas les pouvoirs de Bruce Wayne Poto, ça vient d'où ? J'te bloque, t'es chelou Tu rends fou juste pour un ze-dou, pété, j'finis la bouteille What you gonna do? What you gonna do? J'me la coule, j'ai quitté la tour, pété, j'finis la bouteille Wesh, le Heuss L'enfoiré, ça fait la moula d'baisé J'lui passe le gramme de coke, elle la prend comme un fraisier J'me trempe les pieds dans l'eau, pétasse, t'as pas mis assez d'huile Gros vatos fait des loves, au fait, j'ai mon vol à minuit On fait la moula hyper vite, tu vas r'cevoir ton Uber Shit Rien qu'j'me régale comme Van Persie J'ai d'jà percé, j'vous dis merci</t>
         </is>
       </c>
     </row>
@@ -1818,12 +1818,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Bruce Wayne</t>
+          <t>BX Land #6</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Eh, c'est Jeoffrey Dandy à l'appareil Marcelino Wesh, le Heuss L'enfoiré, ça fait la moula d'baisé J'lui passe le gramme de coke, elle la prend comme un fraisier J'me trempe les pieds dans l'eau, pétasse, t'as pas mis assez d'huile Gros vatos fait des loves, au fait, j'ai mon vol à minuit On t'la fait à la Kanye West Enfant d'putain, nous, c'est l'Brésil, jamais le West Ham En chien, j't'envoie ton Western, avant l'plavon, ça reste calm Espagne, gros missile qui passe dans l'bolid laisse place Eh, 9.2.3.9.0, y a la moula qui va avec En direct d'Anderlecht, Schaerbeek, Molenbeek J'traine avec Many, , , Ze Pek' Fume la ppe-f' des Boute-en-train de Campagne Lévêque En balle, ça t'vend la beugeuh, au poste, faut pas qu'tu bégaies Tu peux m'croiser en Buggy ou gros Merco qui t'effraie Vol de cannabis, on te cane à six Filtré paralyse, gros boucan de dingue, poto, de Cannes à Nice Wesh, le Heuss L'enfoiré, ça fait la moula d'baisé J'lui passe le gramme de coke, elle la prend comme un fraisier J'me trempe les pieds dans l'eau, pétasse, t'as pas mis assez d'huile Gros vatos fait des loves, au fait, j'ai mon vol à minuit Sur une chaise roulante, j'ai fait des shows comme 2Chainz C'est quand j'ai pris la valise qu'tu prends des nouvelles J'ai jeté mes anciens potos à la poubelle J'fais d'l'oseille mais j'ai pas les pouvoirs de Bruce Wayne Poto, ça vient d'où ? J'te bloque, t'es chelou Tu rends fou juste pour un ze-dou, pété, j'finis la bouteille What you gonna do? What you gonna do? J'me la coule, j'ai quitté la tour, pété, j'finis la bouteille On fait la moula hyper vite, tu vas r'cevoir ton Uber Shit Rien qu'j'me régale comme Van Persie J'ai d'jà percé, j'vous dis merci Ouais, Timal, j'crois bien qu'j'suis malade J'ralentis l'shit, j'accélère la salade Respecte les frères millionnaires, ceux qui font la salat Dans c'milieu, j'me balade J'm'en bats les couilles comme Président du Mexique Elle a le boule qui m'excite, j'mets la beuh et tu mets l'shit J'm'en bats les couilles comme Président du Mexique Elle a le boule qui m'excite, j'mets la beuh et tu mets l'shit Wesh, le Heuss L'enfoiré, ça fait la moula d'baisé J'lui passe le gramme de coke, elle la prend comme un fraisier J'me trempe les pieds dans l'eau, pétasse, t'as pas mis assez d'huile Gros vatos fait des loves, au fait, j'ai mon vol à minuit Sur une chaise roulante, j'ai fait des shows comme 2Chainz C'est quand j'ai pris la valise qu'tu prends des nouvelles J'ai jeté mes anciens potos à la poubelle J'fais d'l'oseille mais j'ai pas les pouvoirs de Bruce Wayne Poto, ça vient d'où ? J'te bloque, t'es chelou Tu rends fou juste pour un ze-dou, pété, j'finis la bouteille What you gonna do? What you gonna do? J'me la coule, j'ai quitté la tour, pété, j'finis la bouteille Wesh, le Heuss L'enfoiré, ça fait la moula d'baisé J'lui passe le gramme de coke, elle la prend comme un fraisier J'me trempe les pieds dans l'eau, pétasse, t'as pas mis assez d'huile Gros vatos fait des loves, au fait, j'ai mon vol à minuit On fait la moula hyper vite, tu vas r'cevoir ton Uber Shit Rien qu'j'me régale comme Van Persie J'ai d'jà percé, j'vous dis merci</t>
+          <t>Kikow on the-the-the Eh eh, eh Premier album platine te-ma comment j'tartine Meilleur buteur, toujours en première ligne, Premier League Montre en or, grosse berline, Midi Midi, cartel de Medellin Ramène-moi des euros et des livres sterlings Pour fêter Thanksgivings Les jaloux portent le 3in, portent la guine ouais J'sais pas si t'imagines, ls cités, ça fatigue, j'attends pas qu'on m'valide non La rue, c'est mon domaine, Paris, c'est BXL ouais Villeneuve, c'est Antwerpen, j'm'endors à Eindhoven J'vous laisse à Newcastle, crois pas qu'on est tout jeunes En taule, j'étais tout seul, j'tournais en 2012 avec l'argent d'la jaune On a connu la geôle avant les gilets jaunes ouais Hier, j'vendais d'la coke qui s'transformait en crack Aujourd'hui, j'fais du rap, des showcases en Europe J'sais pas si c'est mes potes, la moitié c'est des putes, j'ai pas compté les traîtres eh J'fais qu'encaisser des chèques comme en République Tchèque C'coup ci y'a pas d'refrain, j'envoie que des couplets J'étais venu pour goûter mais j'ai tout découpé ouais Reprise de volée, sache qu'on a rien volé, c'est Dieu qui l'a voulu, qui nous a tout donné J'repars couronné chez les grands couturiers ouais, grosse moula, maxi certifié Disque d'or, Dior, Givenchisé, j'me casse la beuj' comme Djibril Cissé J'vendais des meuj' sur les Champs Elysées J'suis comme Salif, j'ai pas d'équipe, bats les couilles d'ton maillot J'm'arrête à Porte Maillot, merci San Papayos ouais, ouais Nouvelle kich', nouveau gamos J'fait tout ça pour la cause, bouteille de Grey, Seven Days, j'suis dans David Craze Spliff de lemon haze, Hollandaise, premier rôle d'une série polonaise, lieutenant, colonel T'façon, j'suis capitaine comme Daniel Van Buyten, 92, Hauts de Seine, j'écoute pas tes conseils J'suis bon qu'à faire d'l'oseille En hiver au soleil en République Dominicaine Beu-her Jamaïcaine, dans Medellin cartel Stringer Bell, Avon Barksdale, téléphone Alcatel, gros bordel 43 Maroqui', mafia tah Napoli, double verre de whiskey Frappe de Lewandowski Frappe de Lewandowski</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>BX Land #6</t>
+          <t>BX Land #7</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Kikow on the-the-the Eh eh, eh Premier album platine te-ma comment j'tartine Meilleur buteur, toujours en première ligne, Premier League Montre en or, grosse berline, Midi Midi, cartel de Medellin Ramène-moi des euros et des livres sterlings Pour fêter Thanksgivings Les jaloux portent le 3in, portent la guine ouais J'sais pas si t'imagines, ls cités, ça fatigue, j'attends pas qu'on m'valide non La rue, c'est mon domaine, Paris, c'est BXL ouais Villeneuve, c'est Antwerpen, j'm'endors à Eindhoven J'vous laisse à Newcastle, crois pas qu'on est tout jeunes En taule, j'étais tout seul, j'tournais en 2012 avec l'argent d'la jaune On a connu la geôle avant les gilets jaunes ouais Hier, j'vendais d'la coke qui s'transformait en crack Aujourd'hui, j'fais du rap, des showcases en Europe J'sais pas si c'est mes potes, la moitié c'est des putes, j'ai pas compté les traîtres eh J'fais qu'encaisser des chèques comme en République Tchèque C'coup ci y'a pas d'refrain, j'envoie que des couplets J'étais venu pour goûter mais j'ai tout découpé ouais Reprise de volée, sache qu'on a rien volé, c'est Dieu qui l'a voulu, qui nous a tout donné J'repars couronné chez les grands couturiers ouais, grosse moula, maxi certifié Disque d'or, Dior, Givenchisé, j'me casse la beuj' comme Djibril Cissé J'vendais des meuj' sur les Champs Elysées J'suis comme Salif, j'ai pas d'équipe, bats les couilles d'ton maillot J'm'arrête à Porte Maillot, merci San Papayos ouais, ouais Nouvelle kich', nouveau gamos J'fait tout ça pour la cause, bouteille de Grey, Seven Days, j'suis dans David Craze Spliff de lemon haze, Hollandaise, premier rôle d'une série polonaise, lieutenant, colonel T'façon, j'suis capitaine comme Daniel Van Buyten, 92, Hauts de Seine, j'écoute pas tes conseils J'suis bon qu'à faire d'l'oseille En hiver au soleil en République Dominicaine Beu-her Jamaïcaine, dans Medellin cartel Stringer Bell, Avon Barksdale, téléphone Alcatel, gros bordel 43 Maroqui', mafia tah Napoli, double verre de whiskey Frappe de Lewandowski Frappe de Lewandowski</t>
+          <t>Eh eh, eh, Heuss L'enfoiré, skch skch Okay, okay, BX Land partie 7 Ouais ouais Pas confiance à la justice, alors j'la fais moi-même On va t'juger dans la cave avec mon pote Mohammed À côté d'un lance-roquettes et des sacs de trois mètres Discret dans la discothèque comme un pickpocket Pardonne-moi, j'suis défoncé, j'ai fumé la moquette Troué la banquette, sali mes nouvelles baskets Ramène ta femme, la tête de oi-m, j'la baise dans les toilettes J'sais pas c'qu j'ai en c'moment, j'ai la dalle, il faut qu'j'arrêt À l'époque, j'ai trop les crocs, ça paie pas les études J'ressors ma bite direct, ma cousine m'envoie pas des nudes Et dire qu'avant déjà, j'pratiquais l'école buissonnière C'est pas les States, mon pote ici, y a pas un bus scolaire C'est GTA Vice City mais en version hiver J'arrête l'école, ces fils de pute menaçaient la mater De couper les allocations, le nerf de la guerre Automatiquement, la daronne m'envoie le pater Il frappe, il met des coups trop tard, là, y a plus rien à faire Il craque, il devient fou, même lui, il a lâché l'affaire Ça y est, c'est reparti, on redémarre avec Bader Pour la famille, j'suis un calvaire, il faut qu'on m'incarcère À c'tte époque, j'ai pas d'gars sûrs, j'nehess dans la voiture J'dois d'l'argent à droite, à gauche, j'pose ma candidature Terrain d'héro', j'fais l'ouverture, ients-cli s'lèvent de bonne heure Mais y a les keufs partout, mon cousin, j'crois ça porte-malheur C'est pour ça qu'on finit direct au taule, à peine majeurs On voulait récupérergué la Gaule Mais faut les épaules, les codes Savoir jouer un rôle, même moi, j'trouve ça compliqué Attends, j'vais rouler un cône Acheter un drone avec du scotch, mettre du silicone Des fois, j'délire avec ta sur, j'avoue, elle est trop bonne Bébé, appelle-moi Van Gogh, pourtant, j'suis sous drogue J'irai pas jusqu'à Bangkok pour mettre les gants d'boxe J'écoute du Snoop Dogg, j'm'en bats les couilles de Pop Smoke J'fume la moonrock, j'suis dans la chatte de New York Puis, j'ai vu tous les films, à commencer par Bloodsport C'est moi le mec qu'étais sous l'porche, qui liquidait l'stock J'te parle d'une époque où y avait pas encore TikTok Ou faut un bloc et un contact qui vient de Kingston Y a plein d'hôtels à , y a pas le Hilton Y a quoi ? Ton grand frelo, il est tombé pour une tonne C'est un farceur comme toi, il a pas coffré une pomme J'arrête la vodka mélangée avec le jus d'pomme J'bois la tequila, j'te baise ta mère aux prud'hommes C'est un rayon bizarre, tous les mans che-lous n'ont plus d'âme Ratatam, dadatam, bala, balabam Arrête de changer, toi, t'as pas goûté l'macadam Il m'reste six joints, mon cousin, vas-y, vient, on va à 'dam C't été, j'suis pas à Saint-Tropez, j'suis pas à Cannes</t>
         </is>
       </c>
     </row>
@@ -1852,12 +1852,12 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>BX Land #7</t>
+          <t>CDG</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Eh eh, eh, Heuss L'enfoiré, skch skch Okay, okay, BX Land partie 7 Ouais ouais Pas confiance à la justice, alors j'la fais moi-même On va t'juger dans la cave avec mon pote Mohammed À côté d'un lance-roquettes et des sacs de trois mètres Discret dans la discothèque comme un pickpocket Pardonne-moi, j'suis défoncé, j'ai fumé la moquette Troué la banquette, sali mes nouvelles baskets Ramène ta femme, la tête de oi-m, j'la baise dans les toilettes J'sais pas c'qu j'ai en c'moment, j'ai la dalle, il faut qu'j'arrêt À l'époque, j'ai trop les crocs, ça paie pas les études J'ressors ma bite direct, ma cousine m'envoie pas des nudes Et dire qu'avant déjà, j'pratiquais l'école buissonnière C'est pas les States, mon pote ici, y a pas un bus scolaire C'est GTA Vice City mais en version hiver J'arrête l'école, ces fils de pute menaçaient la mater De couper les allocations, le nerf de la guerre Automatiquement, la daronne m'envoie le pater Il frappe, il met des coups trop tard, là, y a plus rien à faire Il craque, il devient fou, même lui, il a lâché l'affaire Ça y est, c'est reparti, on redémarre avec Bader Pour la famille, j'suis un calvaire, il faut qu'on m'incarcère À c'tte époque, j'ai pas d'gars sûrs, j'nehess dans la voiture J'dois d'l'argent à droite, à gauche, j'pose ma candidature Terrain d'héro', j'fais l'ouverture, ients-cli s'lèvent de bonne heure Mais y a les keufs partout, mon cousin, j'crois ça porte-malheur C'est pour ça qu'on finit direct au taule, à peine majeurs On voulait récupérergué la Gaule Mais faut les épaules, les codes Savoir jouer un rôle, même moi, j'trouve ça compliqué Attends, j'vais rouler un cône Acheter un drone avec du scotch, mettre du silicone Des fois, j'délire avec ta sur, j'avoue, elle est trop bonne Bébé, appelle-moi Van Gogh, pourtant, j'suis sous drogue J'irai pas jusqu'à Bangkok pour mettre les gants d'boxe J'écoute du Snoop Dogg, j'm'en bats les couilles de Pop Smoke J'fume la moonrock, j'suis dans la chatte de New York Puis, j'ai vu tous les films, à commencer par Bloodsport C'est moi le mec qu'étais sous l'porche, qui liquidait l'stock J'te parle d'une époque où y avait pas encore TikTok Ou faut un bloc et un contact qui vient de Kingston Y a plein d'hôtels à , y a pas le Hilton Y a quoi ? Ton grand frelo, il est tombé pour une tonne C'est un farceur comme toi, il a pas coffré une pomme J'arrête la vodka mélangée avec le jus d'pomme J'bois la tequila, j'te baise ta mère aux prud'hommes C'est un rayon bizarre, tous les mans che-lous n'ont plus d'âme Ratatam, dadatam, bala, balabam Arrête de changer, toi, t'as pas goûté l'macadam Il m'reste six joints, mon cousin, vas-y, vient, on va à 'dam C't été, j'suis pas à Saint-Tropez, j'suis pas à Cannes</t>
+          <t>Zeg P on the track beat Fuck, it's easy J'ai mis 10k dans la veste, à CDG, j'décolle rapidement J'suis dans celle qu'enfume la pièce, tu voudrais qu'on change de continent Encore une certif', on m'a averti, les diamants sertis La vie de Ronnie, j'ai pas atterri, dehors, ça ré-ti J'peux t'remonter le moral, tu doutes, c'est normal, j'suis dans l'illégal Shopping en pleine agora, j'veux pas qu'tu t'emballes, même quand il est tard Mêm quand il est tard, qu'il reste qu'un te-tê dans le pochtar La vie de César, on fait des pleins phares, on va tous les boire J'vibe à fond, j'suis dans l'mood, en vite fait, ça la foule La foule, foule Ça fly sous afghan kush Des-des diamants colorés, single ice et doré Okay Faubourg-Saint-Honoré, carré comme en Corée Toujours en légende, c'est le ze-trei en boule RSQ3, les phares roses, on dead ça de fou Ça smoke pas de pre-rolls, la Rolls dans la te-sou Ça s'mange des pressings pour la zipette ou la fouille C'est cette vie-là, j'suis même paro sur le livreur UberEats Très méchant, villa bien luxe, ça fly sous beuh quand je ris J'suis au tartin, ça jobbe cache-cou en Yamaha Wolverine Flingage de ouf, monte dans l'bateau, on t'crave-bi que d'la Cali J'vibe à fond, j'suis dans l'mood, en vite fait, ça la foule La foule, foule Ça fly sous afghan kush Des-des diamants colorés, single ice et doré Okay Faubourg-Saint-Honoré, carré comme en Corée Un lourd, deux lourds ou trois lourds, ça fly sous purple J', à la , j'fais mon Mon igo, c'est fort de fou comme Aspinall power punk ? Comme un re-fou qui fait 20k en un jour J'vibe à fond, j'suis dans l'mood, en vite fait, ça la foule La foule, foule Ça fly sous afghan kush ? Des-des diamants colorés, single ice et doré Okay Faubourg-Saint-Honoré, carré comme en Corée Des-des diamants colorés, single ice et doré Faubourg-Saint-Honoré, carré comme en Corée</t>
         </is>
       </c>
     </row>
@@ -1869,12 +1869,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CDG</t>
+          <t>C’est quoi le boulot</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Zeg P on the track beat Fuck, it's easy J'ai mis 10k dans la veste, à CDG, j'décolle rapidement J'suis dans celle qu'enfume la pièce, tu voudrais qu'on change de continent Encore une certif', on m'a averti, les diamants sertis La vie de Ronnie, j'ai pas atterri, dehors, ça ré-ti J'peux t'remonter le moral, tu doutes, c'est normal, j'suis dans l'illégal Shopping en pleine agora, j'veux pas qu'tu t'emballes, même quand il est tard Mêm quand il est tard, qu'il reste qu'un te-tê dans le pochtar La vie de César, on fait des pleins phares, on va tous les boire J'vibe à fond, j'suis dans l'mood, en vite fait, ça la foule La foule, foule Ça fly sous afghan kush Des-des diamants colorés, single ice et doré Okay Faubourg-Saint-Honoré, carré comme en Corée Toujours en légende, c'est le ze-trei en boule RSQ3, les phares roses, on dead ça de fou Ça smoke pas de pre-rolls, la Rolls dans la te-sou Ça s'mange des pressings pour la zipette ou la fouille C'est cette vie-là, j'suis même paro sur le livreur UberEats Très méchant, villa bien luxe, ça fly sous beuh quand je ris J'suis au tartin, ça jobbe cache-cou en Yamaha Wolverine Flingage de ouf, monte dans l'bateau, on t'crave-bi que d'la Cali J'vibe à fond, j'suis dans l'mood, en vite fait, ça la foule La foule, foule Ça fly sous afghan kush Des-des diamants colorés, single ice et doré Okay Faubourg-Saint-Honoré, carré comme en Corée Un lourd, deux lourds ou trois lourds, ça fly sous purple J', à la , j'fais mon Mon igo, c'est fort de fou comme Aspinall power punk ? Comme un re-fou qui fait 20k en un jour J'vibe à fond, j'suis dans l'mood, en vite fait, ça la foule La foule, foule Ça fly sous afghan kush ? Des-des diamants colorés, single ice et doré Okay Faubourg-Saint-Honoré, carré comme en Corée Des-des diamants colorés, single ice et doré Faubourg-Saint-Honoré, carré comme en Corée</t>
+          <t>La moulaga, la moulaga, la moulaga Eh, hey Oh, eh La salade Ouais, on la connaît Nan, c'est des malades Ish, ils veulent nous coller Ish Changement d'esprit Ouais après quatre rres-ve Nan, j'suis vers Bagnolet avec Gagnoa Passe de Dembelé, frappe de Saviola, au tel-hô, empégué, j'passe à la télé' Oh, j'l'ai vu dans les yeux d'la Mondéo Ish, ish C'est la moulaga, j'suis intouchable comme ton bout-mara, si tu t'en vas, c'est bon débarras Dieu pour tous, c'est chacun pour soi, habibi, habibi, ah, benda Habibi, habibi, ah, benda, j'reste bloqué vers là-bas Comme trois kil' au Panama, trois kil' au Panama Dis-moi, c'est quoi l'boulot ? Allez, dis-moi, c'est quoi l'boulot ? J't'ai dit Dis-moi, c'est quoi l'boulot ? Dis-moi, c'est quoi l'boulot ? Han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han Posé dans l'GLE, ça sent la moula, dans l'coffre, y a vingt kil' de taga On s'arrête à BX pour mougou d'la tchaga, comme 2Pac, on est des thugs On veut v'-esqui la hess, on veut v'-esqui les mbilas, on veut quitter les favelas On sait comment refourguer la marijuana, y a pas le temps pour reculer N'hésite pas à tirer sur cet enfoiré, dis-moi s'il a tout fait foirer J'suis avec Heuss L'enfoiré, han-han N'hésite pas à tirer sur cet enfoiré, dis-moi s'il a tout fait foirer J'suis avec Heuss L'enfoiré, eh-hey Dis-moi, c'est quoi l'boulot ? Allez, dis-moi, c'est quoi l'boulot ? J't'ai dit Dis-moi, c'est quoi l'boulot ? Dis-moi, c'est quoi l'boulot ? Han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han Merco, Panamera, RS3 J'hésite entre le 6.3 ou les quatre anneaux du RS3 Si y a les keufs qui passent, je cacherai la moula dans RS3 J'ai opté pour le RS3 Ça, c'est Vegedream et Heuss L'enfoiré Mental taré, tout sous scellé, côté passager, j'suis avec Angela J'connais le patron, il s'appelle Angelo, il connaît la moula, la kichta sous cello' Oh-oh La police est là-bas, prends les affaires, la valise, va là-bas Oh-oh La police est là-bas, prends les affaires, la valise, va là-bas Oh-oh Dis-moi, c'est quoi l'boulot ? C'est quoi ? Allez, dis-moi, c'est quoi l'boulot ? C'est quoi ? J't'ai dit Dis-moi, c'est quoi l'boulot ? Dis-moi, c'est quoi l'boulot ? Han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han</t>
         </is>
       </c>
     </row>
@@ -1886,12 +1886,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>C’est quoi le boulot</t>
+          <t>Chef d’orchestre</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>La moulaga, la moulaga, la moulaga Eh, hey Oh, eh La salade Ouais, on la connaît Nan, c'est des malades Ish, ils veulent nous coller Ish Changement d'esprit Ouais après quatre rres-ve Nan, j'suis vers Bagnolet avec Gagnoa Passe de Dembelé, frappe de Saviola, au tel-hô, empégué, j'passe à la télé' Oh, j'l'ai vu dans les yeux d'la Mondéo Ish, ish C'est la moulaga, j'suis intouchable comme ton bout-mara, si tu t'en vas, c'est bon débarras Dieu pour tous, c'est chacun pour soi, habibi, habibi, ah, benda Habibi, habibi, ah, benda, j'reste bloqué vers là-bas Comme trois kil' au Panama, trois kil' au Panama Dis-moi, c'est quoi l'boulot ? Allez, dis-moi, c'est quoi l'boulot ? J't'ai dit Dis-moi, c'est quoi l'boulot ? Dis-moi, c'est quoi l'boulot ? Han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han Posé dans l'GLE, ça sent la moula, dans l'coffre, y a vingt kil' de taga On s'arrête à BX pour mougou d'la tchaga, comme 2Pac, on est des thugs On veut v'-esqui la hess, on veut v'-esqui les mbilas, on veut quitter les favelas On sait comment refourguer la marijuana, y a pas le temps pour reculer N'hésite pas à tirer sur cet enfoiré, dis-moi s'il a tout fait foirer J'suis avec Heuss L'enfoiré, han-han N'hésite pas à tirer sur cet enfoiré, dis-moi s'il a tout fait foirer J'suis avec Heuss L'enfoiré, eh-hey Dis-moi, c'est quoi l'boulot ? Allez, dis-moi, c'est quoi l'boulot ? J't'ai dit Dis-moi, c'est quoi l'boulot ? Dis-moi, c'est quoi l'boulot ? Han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han Merco, Panamera, RS3 J'hésite entre le 6.3 ou les quatre anneaux du RS3 Si y a les keufs qui passent, je cacherai la moula dans RS3 J'ai opté pour le RS3 Ça, c'est Vegedream et Heuss L'enfoiré Mental taré, tout sous scellé, côté passager, j'suis avec Angela J'connais le patron, il s'appelle Angelo, il connaît la moula, la kichta sous cello' Oh-oh La police est là-bas, prends les affaires, la valise, va là-bas Oh-oh La police est là-bas, prends les affaires, la valise, va là-bas Oh-oh Dis-moi, c'est quoi l'boulot ? C'est quoi ? Allez, dis-moi, c'est quoi l'boulot ? C'est quoi ? J't'ai dit Dis-moi, c'est quoi l'boulot ? Dis-moi, c'est quoi l'boulot ? Han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han En esprit, han-han, esprit, han-han</t>
+          <t>Ramène d'la vodka, whisky, Jack Daniels J'suis avec ta fille, ta femme, ta sur, ta nièce Ils sont démodés comme les grossistes à Marrakech J'les vois comme des Uber Eats venant du Bangladesh Menteur, menteur, s'il vous plait, gardez la pêche Trop d'choses dans la tête, j'prends des feuilles et des cigarettes Prends deux blocs de cinquante, si y a pas, prends dix barrettes Appelle mon avocat au cas où si les flics m'arrêtent J'ai dû commettre mon dernier délit en 2017 C'est réussir ou mourir, des fois, j'suis dans 50 Cent Plus fort que oi-m, j'suis une ficelle ou j'aime trop les filles sales Pour l'oseille original, ça devient marginal J'suis dans le business, trafic, musique, illégal Oublie pas, j'suis un Sicar' qui mène la vie d'Zidane Préviens les autres, y aura du monde Préviens les autres, y aura du monde comme dans les festivals L'OPJ, il s'fout d'ma gueule avec sa Festina Qu'il reste en chien à vie ceux-là, j'sais même pas c'que j'fous là En garde à vue, ça pue la pisse, j'nehess en diagonale J'pense à mon fils, à ma daronne et un bon McDonald's Les keufs me té-ma comme si j'ai té-gué Maradona Y a ma tre-mon dans la fouille, la même que Madonna Le chef de poste me suce la bite, il m'passe que la pommade Après vingt-quatre heures, c'est vrai que j'ai une tête de taulard Joue pas au Radisson avec Magic Johnson, hein J'fais l'boulot tout seul, j'attends pas qu'le téléphone sonne Enchanté, bébé, moi, c'est Heusslaga Nicholson J'fais d'la musique de bandit, j'arrache tout au microphone J'ai envie d'te baiser là, tout d'suite, parce que t'es trop bonne En plus, j'ai pas l'temps après-demain, j'me barre à Washington J'fais un crochet à Cancún avant d'choper Parkinson Y a l'chauffeur qui m'attend dans l'parking avec des p'tites folles J'crois qu'on est mout dans un bar à putes au Paramount Vérifie dans les paramètres, j'en n'ai plus rien à foutre Ça fume du caramel avec Zepek le marabout J'respecte les barbus, les Barbies, les barlous On t'connait bien, mon cousin, pourquoi tu fais ça à nous ? T'façon, tu nous aurais trahis pour même pas zgalou Tu peux t'squer-ma à Salou, au roc-Ma, à baï-Du On va t'cramer les yeux avec ta chicha kaloud Encore une salade spéciale de macaronis Des marocains, des noirs, des mecs de la Kabylie Elle veut tapiner la nuit, attends, c'est pas fini En Sergio Tacchini comme Paolo Maldini Hier, j'ai bu d'la Grey Goose, ballon, j'ai baisé des filles Faut qu'j'avale d'la B12 avant d'finir sous béquille En c'moment, la tête de moi, j'remporte n'importe quel défi En c'moment, la tête de moi, j'remporte n'importe quel défi Si j'rentre à me-Da, broliqué seulement pour commander J'm'en bats les couilles vraiment qu't'es un grossiste hollandais J'ai largement plus de respect pour les mecs d'la Vendée Oublie jamais, au vrai début, c'est nous qui la vendait On t'allumait ta mère même si t'avais pas demandé Dans l'appart' des Apes, j'ai grandi comme Pour la survie, faut être un voleur avec un grand V Le meilleur des proxénètes, un dealer aggravé</t>
         </is>
       </c>
     </row>
@@ -1903,12 +1903,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Chef d’orchestre</t>
+          <t>Cités de France</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Ramène d'la vodka, whisky, Jack Daniels J'suis avec ta fille, ta femme, ta sur, ta nièce Ils sont démodés comme les grossistes à Marrakech J'les vois comme des Uber Eats venant du Bangladesh Menteur, menteur, s'il vous plait, gardez la pêche Trop d'choses dans la tête, j'prends des feuilles et des cigarettes Prends deux blocs de cinquante, si y a pas, prends dix barrettes Appelle mon avocat au cas où si les flics m'arrêtent J'ai dû commettre mon dernier délit en 2017 C'est réussir ou mourir, des fois, j'suis dans 50 Cent Plus fort que oi-m, j'suis une ficelle ou j'aime trop les filles sales Pour l'oseille original, ça devient marginal J'suis dans le business, trafic, musique, illégal Oublie pas, j'suis un Sicar' qui mène la vie d'Zidane Préviens les autres, y aura du monde Préviens les autres, y aura du monde comme dans les festivals L'OPJ, il s'fout d'ma gueule avec sa Festina Qu'il reste en chien à vie ceux-là, j'sais même pas c'que j'fous là En garde à vue, ça pue la pisse, j'nehess en diagonale J'pense à mon fils, à ma daronne et un bon McDonald's Les keufs me té-ma comme si j'ai té-gué Maradona Y a ma tre-mon dans la fouille, la même que Madonna Le chef de poste me suce la bite, il m'passe que la pommade Après vingt-quatre heures, c'est vrai que j'ai une tête de taulard Joue pas au Radisson avec Magic Johnson, hein J'fais l'boulot tout seul, j'attends pas qu'le téléphone sonne Enchanté, bébé, moi, c'est Heusslaga Nicholson J'fais d'la musique de bandit, j'arrache tout au microphone J'ai envie d'te baiser là, tout d'suite, parce que t'es trop bonne En plus, j'ai pas l'temps après-demain, j'me barre à Washington J'fais un crochet à Cancún avant d'choper Parkinson Y a l'chauffeur qui m'attend dans l'parking avec des p'tites folles J'crois qu'on est mout dans un bar à putes au Paramount Vérifie dans les paramètres, j'en n'ai plus rien à foutre Ça fume du caramel avec Zepek le marabout J'respecte les barbus, les Barbies, les barlous On t'connait bien, mon cousin, pourquoi tu fais ça à nous ? T'façon, tu nous aurais trahis pour même pas zgalou Tu peux t'squer-ma à Salou, au roc-Ma, à baï-Du On va t'cramer les yeux avec ta chicha kaloud Encore une salade spéciale de macaronis Des marocains, des noirs, des mecs de la Kabylie Elle veut tapiner la nuit, attends, c'est pas fini En Sergio Tacchini comme Paolo Maldini Hier, j'ai bu d'la Grey Goose, ballon, j'ai baisé des filles Faut qu'j'avale d'la B12 avant d'finir sous béquille En c'moment, la tête de moi, j'remporte n'importe quel défi En c'moment, la tête de moi, j'remporte n'importe quel défi Si j'rentre à me-Da, broliqué seulement pour commander J'm'en bats les couilles vraiment qu't'es un grossiste hollandais J'ai largement plus de respect pour les mecs d'la Vendée Oublie jamais, au vrai début, c'est nous qui la vendait On t'allumait ta mère même si t'avais pas demandé Dans l'appart' des Apes, j'ai grandi comme Pour la survie, faut être un voleur avec un grand V Le meilleur des proxénètes, un dealer aggravé</t>
+          <t>Zeg P on the track, bitch! Hey, hey, hey J'arrive en gros gamos noir, jai les clés de l'appart', tout vêtu de Fendi Fendi, Lenfoiré en Gucci Gucci Et le VIP m'appartient et les bitchs veulent gratter mon alcool et ma money Money, c'est les cités de Paris Paris C'est les cités d'France, narvalo, le truc est déjà calé, viens voir, j't'arrange sur l'tarot Tinquiète, on la touche pas chère Cest les cités d'France, narvalo, les keufs sont déjà passés, ptit reuf, surveille la ne-zo On sait gérer les affaires Ça pue les porcs, on benda direct, boîte sept en fond d'quatrième C'est une sorcière, elle est un peu trop jolie, s'refaire sans croiser la police La police Par les moulas, sollicité, jsuis un pirate, j'connais la Ciudad Ciudad Le cur et les poumons niqués, j'ai mon Toka' pour ces putas Putas J'tartine à l'ancienne, platine en deux s'maines, L'enfoiré des Hauts-d'-Seine, Many, Valenciennes J'tartine à l'ancienne, platine en deux s'maines, L'enfoiré des Hauts-d'-Seine On sait gérer les affaires J'arrive en gros gamos noir, j'ai les clés de l'appart', tout vêtu de Fendi Fendi, L'enfoiré en Gucci Gucci Et le VIP m'appartient et les bitchs veulent gratter mon alcool et ma money Money, c'est les cités de Paris Paris C'est les cités d'France, narvalo, le truc est déjà calé, viens voir, j't'arrange sur l'tarot T'inquiète, on la touche pas chère C'est les cités d'France, narvalo, les keufs sont déjà passés, p'tit reuf, surveille la ne-zo On sait gérer les affaires Samedi, j'suis maudit, j'm'interdis les sorties Quand elle m'dit Promets-moi, j'remets ça tous les soirs Et moi, j'suis pas comme les autres, j'te dirais pas Désolé La bagarre, c'est pour les pauvres, j'ai un plus grand pistolet J'tartine à l'ancienne, platine en deux s'maines, L'enfoiré des Hauts-d'-Seine, Many, Valenciennes J'tartine à l'ancienne, platine en deux s'maines, L'enfoiré des Hauts-d'-Seine On sait gérer les affaires J'arrive en gros gamos noir, j'ai les clés de l'appart', tout vêtu de Fendi Fendi, L'enfoiré en Gucci Gucci Et le VIP m'appartient et les bitchs veulent gratter mon alcool et ma money Money, c'est les cités de Paris Paris C'est les cités d'France, narvalo, le truc est déjà calé, viens voir, j't'arrange sur l'tarot T'inquiète, on la touche pas chère C'est les cités d'France, narvalo, les keufs sont déjà passés, p'tit reuf, surveille la ne-zo On sait gérer les affaires2</t>
         </is>
       </c>
     </row>
@@ -1920,12 +1920,12 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Cités de France</t>
+          <t>Colonel</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Zeg P on the track, bitch! Hey, hey, hey J'arrive en gros gamos noir, jai les clés de l'appart', tout vêtu de Fendi Fendi, Lenfoiré en Gucci Gucci Et le VIP m'appartient et les bitchs veulent gratter mon alcool et ma money Money, c'est les cités de Paris Paris C'est les cités d'France, narvalo, le truc est déjà calé, viens voir, j't'arrange sur l'tarot Tinquiète, on la touche pas chère Cest les cités d'France, narvalo, les keufs sont déjà passés, ptit reuf, surveille la ne-zo On sait gérer les affaires Ça pue les porcs, on benda direct, boîte sept en fond d'quatrième C'est une sorcière, elle est un peu trop jolie, s'refaire sans croiser la police La police Par les moulas, sollicité, jsuis un pirate, j'connais la Ciudad Ciudad Le cur et les poumons niqués, j'ai mon Toka' pour ces putas Putas J'tartine à l'ancienne, platine en deux s'maines, L'enfoiré des Hauts-d'-Seine, Many, Valenciennes J'tartine à l'ancienne, platine en deux s'maines, L'enfoiré des Hauts-d'-Seine On sait gérer les affaires J'arrive en gros gamos noir, j'ai les clés de l'appart', tout vêtu de Fendi Fendi, L'enfoiré en Gucci Gucci Et le VIP m'appartient et les bitchs veulent gratter mon alcool et ma money Money, c'est les cités de Paris Paris C'est les cités d'France, narvalo, le truc est déjà calé, viens voir, j't'arrange sur l'tarot T'inquiète, on la touche pas chère C'est les cités d'France, narvalo, les keufs sont déjà passés, p'tit reuf, surveille la ne-zo On sait gérer les affaires Samedi, j'suis maudit, j'm'interdis les sorties Quand elle m'dit Promets-moi, j'remets ça tous les soirs Et moi, j'suis pas comme les autres, j'te dirais pas Désolé La bagarre, c'est pour les pauvres, j'ai un plus grand pistolet J'tartine à l'ancienne, platine en deux s'maines, L'enfoiré des Hauts-d'-Seine, Many, Valenciennes J'tartine à l'ancienne, platine en deux s'maines, L'enfoiré des Hauts-d'-Seine On sait gérer les affaires J'arrive en gros gamos noir, j'ai les clés de l'appart', tout vêtu de Fendi Fendi, L'enfoiré en Gucci Gucci Et le VIP m'appartient et les bitchs veulent gratter mon alcool et ma money Money, c'est les cités de Paris Paris C'est les cités d'France, narvalo, le truc est déjà calé, viens voir, j't'arrange sur l'tarot T'inquiète, on la touche pas chère C'est les cités d'France, narvalo, les keufs sont déjà passés, p'tit reuf, surveille la ne-zo On sait gérer les affaires2</t>
+          <t>Encore pété de la veille, khapta, stenda, Jack au miel On s'lève comme des colonels, ce soir, on refait la même Encore pété de la veille, khapta, stenda, Jack au miel On s'lève comme des colonels, ce soir, on refait la même Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier Eh, j'suis ganté avec le Heuss, j'veux des sous, bats les couilles du buzz C'est vrai, j'ai plusieurs kichtas mais oublie pas, j'ai qu'un seul reuf Pendant qu'y en a qui veulent ma peau, j'écoute mon son, j'suis sur un bateau Mais quand j'rentre à Paname, j'me dis Faut vite que j'remonte sur un braco J'suis dans la villa comme le mec à Milla, j'prends ton billet, on s'arrache à Marbella Quand on arrive, il demande tout ce qu'il a, ramène le Dom Pé', le Ruinart, la tequila Encore pété de la veille, khapta, stenda, Jack au miel On s'lève comme des colonels, ce soir, on refait la même Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier C'est nous les tauliers, tauliers, les gros bonnets, bonnets Ouais, tu nous connais, connais, envoie la monnaie, monnaie C'est nous les bandits, bandits, on fait c'qu'on dit, c'qu'on dit Ouais, tu nous connais, connais, on prend des lovés, lovés J'lui réponds pas, j'suis culotté, bouge ton corps, on va l'piloter Appelle le barman, on va r'commander, ce soir, on va r'commencer Encore pété de la veille, khapta, stenda, Jack au miel On s'lève comme des colonels, ce soir, on refait la même Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier D'la tête au pied au Gucci, j'suis dans la mentale J'finis ma 'teille mais j'ai pas sommeil pas sommeil Oh nanana, on t'connaît, toi, tu parles pour tchi, là, on t'a rodave Tu n't'assois pas, tu fais pas d'oseille pas d'oseille Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier C'est nous les tauliers, tauliers, les gros bonnets, bonnets Ouais, tu nous connais, connais, envoie la monnaie, monnaie C'est nous les bandits, bandits, on fait c'qu'on dit, c'qu'on dit Ouais, tu nous connais, connais, on prend des lovés, lovés</t>
         </is>
       </c>
     </row>
@@ -1937,12 +1937,12 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Colonel</t>
+          <t>Combien de fois</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Encore pété de la veille, khapta, stenda, Jack au miel On s'lève comme des colonels, ce soir, on refait la même Encore pété de la veille, khapta, stenda, Jack au miel On s'lève comme des colonels, ce soir, on refait la même Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier Eh, j'suis ganté avec le Heuss, j'veux des sous, bats les couilles du buzz C'est vrai, j'ai plusieurs kichtas mais oublie pas, j'ai qu'un seul reuf Pendant qu'y en a qui veulent ma peau, j'écoute mon son, j'suis sur un bateau Mais quand j'rentre à Paname, j'me dis Faut vite que j'remonte sur un braco J'suis dans la villa comme le mec à Milla, j'prends ton billet, on s'arrache à Marbella Quand on arrive, il demande tout ce qu'il a, ramène le Dom Pé', le Ruinart, la tequila Encore pété de la veille, khapta, stenda, Jack au miel On s'lève comme des colonels, ce soir, on refait la même Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier C'est nous les tauliers, tauliers, les gros bonnets, bonnets Ouais, tu nous connais, connais, envoie la monnaie, monnaie C'est nous les bandits, bandits, on fait c'qu'on dit, c'qu'on dit Ouais, tu nous connais, connais, on prend des lovés, lovés J'lui réponds pas, j'suis culotté, bouge ton corps, on va l'piloter Appelle le barman, on va r'commander, ce soir, on va r'commencer Encore pété de la veille, khapta, stenda, Jack au miel On s'lève comme des colonels, ce soir, on refait la même Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier D'la tête au pied au Gucci, j'suis dans la mentale J'finis ma 'teille mais j'ai pas sommeil pas sommeil Oh nanana, on t'connaît, toi, tu parles pour tchi, là, on t'a rodave Tu n't'assois pas, tu fais pas d'oseille pas d'oseille Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier Khapta dans la soirée, j'regarde les meufs danser, j'me remets la même cuite qu'hier qu'hier C'est nous les tauliers, tauliers, les gros bonnets, bonnets Ouais, tu nous connais, connais, envoie la monnaie, monnaie C'est nous les bandits, bandits, on fait c'qu'on dit, c'qu'on dit Ouais, tu nous connais, connais, on prend des lovés, lovés</t>
+          <t>Ya-Ya-Yasser Combien d'fois j'ai fait le dealer, le proxénète ? Combien d'fois déjà j'ai perdu des hassanetes ? Combien d'fois tu m'as répété qu'j'étais malhonnête ? Dix mille euros un RPG, le lance-roquettes Combien d'fois j'ai dû la baiser dans la bagnole ? Les mêmes fois qu'on a passé la frontière espagnole Malgré qu'j'ai la gaule, wAllah qu'on s'les Ramène d'la gnôle et d'la folle, le poto sort de taule Combien d'fois qu'j't'ai cramé qu't'étais là par intérêt ? chien C'est rin, fils de pute, moi aussi, j'ai mes intérêts Aujourd'hui, t's fort, juste après, poto, demain, t'es raide t'es raide Combien de fois j'ai vu des films de cul sur internet ? Combien d'fois l'histoire s'est déjà répétée ? Combien d'fois ils m'ont pété avant l'été ? C'est pour Fleury, Nanterre, Fresnes, La Santé Pour les mecs enfermés, patientez Combien d'fois l'histoire s'est déjà répétée ? Combien d'fois ils m'ont pété avant l'été ? C'est pour Fleury, Nanterre, Fresnes, La Santé Pour les mecs enfermés, patientez Combien de fois j'ai vu des films de cul sur internet ? Assez pour aller en Enfer ou bien s'faire interner Combien d'fois j'suis rentré bredouille, les yeux cernés ? Écoute pas ça, p'tit reuf, tu t'sentiras pas concerné Combien d'fois j'ai oublié d'aller me prosterner ? Me fais jamais d'rappel, oublie pas d'la fermer wow Combien d'fois j'me suis demandé combien d'temps j'allais encore chanter Fumer, boire, niquer ma santé ? J'me rappelle le truc, comment il avait démarré La machine est cassée, impossible de redémarrer eh 9.2.3.9 dans l'arrêt, dans l'allée, dans Paris Bats les couilles d'Eric Zemmour, Jean-Marie Combien d'fois l'histoire s'est déjà répétée ? Combien d'fois ils m'ont pété avant l'été ? C'est pour Fleury, Nanterre, Fresnes, La Santé Pour les mecs enfermés, patientez Combien d'fois l'histoire s'est déjà répétée ? Combien d'fois ils m'ont pété avant l'été ? C'est pour Fleury, Nanterre, Fresnes, La Santé Pour les mecs enfermés, patientez</t>
         </is>
       </c>
     </row>
@@ -1954,12 +1954,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Combien de fois</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Ya-Ya-Yasser Combien d'fois j'ai fait le dealer, le proxénète ? Combien d'fois déjà j'ai perdu des hassanetes ? Combien d'fois tu m'as répété qu'j'étais malhonnête ? Dix mille euros un RPG, le lance-roquettes Combien d'fois j'ai dû la baiser dans la bagnole ? Les mêmes fois qu'on a passé la frontière espagnole Malgré qu'j'ai la gaule, wAllah qu'on s'les Ramène d'la gnôle et d'la folle, le poto sort de taule Combien d'fois qu'j't'ai cramé qu't'étais là par intérêt ? chien C'est rin, fils de pute, moi aussi, j'ai mes intérêts Aujourd'hui, t's fort, juste après, poto, demain, t'es raide t'es raide Combien de fois j'ai vu des films de cul sur internet ? Combien d'fois l'histoire s'est déjà répétée ? Combien d'fois ils m'ont pété avant l'été ? C'est pour Fleury, Nanterre, Fresnes, La Santé Pour les mecs enfermés, patientez Combien d'fois l'histoire s'est déjà répétée ? Combien d'fois ils m'ont pété avant l'été ? C'est pour Fleury, Nanterre, Fresnes, La Santé Pour les mecs enfermés, patientez Combien de fois j'ai vu des films de cul sur internet ? Assez pour aller en Enfer ou bien s'faire interner Combien d'fois j'suis rentré bredouille, les yeux cernés ? Écoute pas ça, p'tit reuf, tu t'sentiras pas concerné Combien d'fois j'ai oublié d'aller me prosterner ? Me fais jamais d'rappel, oublie pas d'la fermer wow Combien d'fois j'me suis demandé combien d'temps j'allais encore chanter Fumer, boire, niquer ma santé ? J'me rappelle le truc, comment il avait démarré La machine est cassée, impossible de redémarrer eh 9.2.3.9 dans l'arrêt, dans l'allée, dans Paris Bats les couilles d'Eric Zemmour, Jean-Marie Combien d'fois l'histoire s'est déjà répétée ? Combien d'fois ils m'ont pété avant l'été ? C'est pour Fleury, Nanterre, Fresnes, La Santé Pour les mecs enfermés, patientez Combien d'fois l'histoire s'est déjà répétée ? Combien d'fois ils m'ont pété avant l'été ? C'est pour Fleury, Nanterre, Fresnes, La Santé Pour les mecs enfermés, patientez</t>
+          <t>Paris, Cuba, Costa Rica, Panama Et Paris, Cuba, millionnaire ou l'Valhalla Paris, Cuba, Costa Rica, Panama Et Paris, Cuba, millionnaire ou l'Valhalla Toute la night, assis sous les spotlights Un, deux, trois, vodka, j'entends Ne reviens pas j'reviendrai jamais Défoncé j'suis défoncé, showcase au prix du kilo d'C Défoncé j'suis défoncé, showcase au prix du kilo d'C Le plan Épervier, le gang est cerné, c'est Heuss L'enfoiré, kichtas sous l'évier J'ai tout baisé comme Hanouna, j'te fais danser comme Maluma, na, na, na J'ai tout baisé comme Hanouna, j'te fais danser comme Maluma, na, na, na Dans toute ma zone, moi, j'ai tourné la nuit, à l'heure où tout s'ressemble, même le mal et l bien Mexico, Brésil, bientôt, j'm casse d'ici, depuis p'tit, j'suis une pile, à la 'son, y a qu'des chats Pied dans l'business, on a semé la zizanie, Tesla ou Christian Dior Des trucs, allez, pense à ta maman, t'inquiète, j'me barre juste à temps Vrai de vrai Paris, Cuba, Costa Rica, Panama Et Paris, Cuba, millionnaire ou l'Valhalla Paris, Cuba, Costa Rica, Panama Et Paris, Cuba, millionnaire ou l'Valhalla Toute la night, assis sous les spotlights Un, deux, trois, vodka, j'entends Ne reviens pas j'reviendrai jamais Défoncé j'suis défoncé, showcase au prix du kilo d'C Défoncé j'suis défoncé, showcase au prix du kilo d'C Des nuits sans fin, des journées sans soleil, des bandits sans femmes D'la vodka dans l'verre, des faibles et des forts, j'compte plus les défauts J'coupe les liens direct, casse pas ta tête Eh, tous les jouguours, c'est la fête, y a qu'des ploguos sur la table J'ai la cote, j'emmène laquelle ? Khabat depuis trop d'années, pourquoi j'arrête pas l'alcool ? Merde Eh, Salomon Fendi, dou-double diamant comme Roschdy Eh, Salomon Fendi, dou-double diamant comme Roschdy Paris, Cuba, Costa Rica, Panama Et Paris, Cuba, millionnaire ou l'Valhalla Paris, Cuba, Costa Rica, Panama Et Paris, Cuba, millionnaire ou l'Valhalla Toute la night, assis sous les spotlights Un, deux, trois, vodka, j'entends Ne reviens pas j'reviendrai jamais Défoncé j'suis défoncé, showcase au prix du kilo d'C Défoncé j'suis défoncé, showcase au prix du kilo d'C</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Culiacán</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Paris, Cuba, Costa Rica, Panama Et Paris, Cuba, millionnaire ou l'Valhalla Paris, Cuba, Costa Rica, Panama Et Paris, Cuba, millionnaire ou l'Valhalla Toute la night, assis sous les spotlights Un, deux, trois, vodka, j'entends Ne reviens pas j'reviendrai jamais Défoncé j'suis défoncé, showcase au prix du kilo d'C Défoncé j'suis défoncé, showcase au prix du kilo d'C Le plan Épervier, le gang est cerné, c'est Heuss L'enfoiré, kichtas sous l'évier J'ai tout baisé comme Hanouna, j'te fais danser comme Maluma, na, na, na J'ai tout baisé comme Hanouna, j'te fais danser comme Maluma, na, na, na Dans toute ma zone, moi, j'ai tourné la nuit, à l'heure où tout s'ressemble, même le mal et l bien Mexico, Brésil, bientôt, j'm casse d'ici, depuis p'tit, j'suis une pile, à la 'son, y a qu'des chats Pied dans l'business, on a semé la zizanie, Tesla ou Christian Dior Des trucs, allez, pense à ta maman, t'inquiète, j'me barre juste à temps Vrai de vrai Paris, Cuba, Costa Rica, Panama Et Paris, Cuba, millionnaire ou l'Valhalla Paris, Cuba, Costa Rica, Panama Et Paris, Cuba, millionnaire ou l'Valhalla Toute la night, assis sous les spotlights Un, deux, trois, vodka, j'entends Ne reviens pas j'reviendrai jamais Défoncé j'suis défoncé, showcase au prix du kilo d'C Défoncé j'suis défoncé, showcase au prix du kilo d'C Des nuits sans fin, des journées sans soleil, des bandits sans femmes D'la vodka dans l'verre, des faibles et des forts, j'compte plus les défauts J'coupe les liens direct, casse pas ta tête Eh, tous les jouguours, c'est la fête, y a qu'des ploguos sur la table J'ai la cote, j'emmène laquelle ? Khabat depuis trop d'années, pourquoi j'arrête pas l'alcool ? Merde Eh, Salomon Fendi, dou-double diamant comme Roschdy Eh, Salomon Fendi, dou-double diamant comme Roschdy Paris, Cuba, Costa Rica, Panama Et Paris, Cuba, millionnaire ou l'Valhalla Paris, Cuba, Costa Rica, Panama Et Paris, Cuba, millionnaire ou l'Valhalla Toute la night, assis sous les spotlights Un, deux, trois, vodka, j'entends Ne reviens pas j'reviendrai jamais Défoncé j'suis défoncé, showcase au prix du kilo d'C Défoncé j'suis défoncé, showcase au prix du kilo d'C</t>
+          <t>J'suis dans les bails sa mère, revente au détail, au kilo Il m'faut plus gros salaire mais j'veux pas finir comme Ciro Ça t'pull-up en BM, les p'tits ont la haine, pour un point, ça t'enlève ta vie J'me mets pas en scène, j'ai écarté là-celle, elle voulait trop la vie d'artiste La frappe est dans l'bonnet 212, dans le dos, j'ai pris deux cents coups Bellek avec qui tu t'entoures, ils sont pas fiables, c'est des ventouses La nuit, j'vois mes ennemis au bout du canon de mon Desert Eagle J'peux même plus compter les certif', t'attaches pas l'cur est désertique Alger, Casa', Culiacán, selha chargée, Porsche Macan 212, Marocco Mafia, Static, Frozen, Beldia Alger, Casa', Culiacán, selha chargée, Porsche Macan 212, Marocco Mafia, Static, Frozen, Beldia Eh, on t'élimine T'élimine, la Kalash' est russe, on délimite Délimite Le terrain miné, on illumine Illumine Pas d'marche arrière, pas d'Billie Jean, Michael, Billie Jean Billie Jean Y a mon blase qui tourne partout, j'peux plus m'balader Balader Ceux qu'on n'éteint pas ont fini balafrés Viens par ici, c'est le zoo C'est le zoo, y a la Zizou, la Haaland J'suis à Phuket dans les calanques, les clients arrivent en avalanche, Semelles rouges sous les talons, elle veut un bandit, un étalon 43 Maroki, j'ai le bras long, comme Montana, j'te rafale dans ton salon Allô ? Allô ? J'te fais danser l'Seleção, j'bois des Corona à Salou J'rentre pas, elle sait qu'j'suis un salaud Elle sait qu'j'suis un salaud Toute l'année, j'suis dans l'viano, Sacem, j'fais rentrer comme Vianney On joue la guitare et le piano, j'ai mis la couture milanaise Alger, Casa', Culiacán, selha chargée, Porsche Macan 212, Marocco Mafia, Static, Frozen, Beldia Alger, Casa', Culiacán, selha chargée, Porsche Macan 212, Marocco Mafia, Static, Frozen, Beldia Eh, on t'élimine T'élimine, la Kalash' est russe, on délimite Délimite Le terrain miné, on illumine Illumine Pas d'marche arrière, pas d'Billie Jean, Michael, Billie Jean Billie Jean Y a mon blase qui tourne partout, j'peux plus m'balader Balader Ceux qu'on n'éteint pas ont fini balafrés Eh, on t'élimine, la Kalash' est russe, on délimite Délimite Le terrain miné, on illumine Illumine Pas d'marche arrière, pas d'Billie Jean, Michael, Billie Jean Y a mon blase qui tourne partout, j'peux plus m'balader Ceux qu'on n'éteint pas ont fini balafrés</t>
         </is>
       </c>
     </row>
@@ -1988,12 +1988,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Culiacán</t>
+          <t>Dans l’appart’</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>J'suis dans les bails sa mère, revente au détail, au kilo Il m'faut plus gros salaire mais j'veux pas finir comme Ciro Ça t'pull-up en BM, les p'tits ont la haine, pour un point, ça t'enlève ta vie J'me mets pas en scène, j'ai écarté là-celle, elle voulait trop la vie d'artiste La frappe est dans l'bonnet 212, dans le dos, j'ai pris deux cents coups Bellek avec qui tu t'entoures, ils sont pas fiables, c'est des ventouses La nuit, j'vois mes ennemis au bout du canon de mon Desert Eagle J'peux même plus compter les certif', t'attaches pas l'cur est désertique Alger, Casa', Culiacán, selha chargée, Porsche Macan 212, Marocco Mafia, Static, Frozen, Beldia Alger, Casa', Culiacán, selha chargée, Porsche Macan 212, Marocco Mafia, Static, Frozen, Beldia Eh, on t'élimine T'élimine, la Kalash' est russe, on délimite Délimite Le terrain miné, on illumine Illumine Pas d'marche arrière, pas d'Billie Jean, Michael, Billie Jean Billie Jean Y a mon blase qui tourne partout, j'peux plus m'balader Balader Ceux qu'on n'éteint pas ont fini balafrés Viens par ici, c'est le zoo C'est le zoo, y a la Zizou, la Haaland J'suis à Phuket dans les calanques, les clients arrivent en avalanche, Semelles rouges sous les talons, elle veut un bandit, un étalon 43 Maroki, j'ai le bras long, comme Montana, j'te rafale dans ton salon Allô ? Allô ? J'te fais danser l'Seleção, j'bois des Corona à Salou J'rentre pas, elle sait qu'j'suis un salaud Elle sait qu'j'suis un salaud Toute l'année, j'suis dans l'viano, Sacem, j'fais rentrer comme Vianney On joue la guitare et le piano, j'ai mis la couture milanaise Alger, Casa', Culiacán, selha chargée, Porsche Macan 212, Marocco Mafia, Static, Frozen, Beldia Alger, Casa', Culiacán, selha chargée, Porsche Macan 212, Marocco Mafia, Static, Frozen, Beldia Eh, on t'élimine T'élimine, la Kalash' est russe, on délimite Délimite Le terrain miné, on illumine Illumine Pas d'marche arrière, pas d'Billie Jean, Michael, Billie Jean Billie Jean Y a mon blase qui tourne partout, j'peux plus m'balader Balader Ceux qu'on n'éteint pas ont fini balafrés Eh, on t'élimine, la Kalash' est russe, on délimite Délimite Le terrain miné, on illumine Illumine Pas d'marche arrière, pas d'Billie Jean, Michael, Billie Jean Y a mon blase qui tourne partout, j'peux plus m'balader Ceux qu'on n'éteint pas ont fini balafrés</t>
+          <t>Prends un billet d'avion, préviens mon label paw J'pars au Mexique parce que la khapta m'appelle paw Viens dans la zone, ici c'est Medellin Cartel paw paw paw paw Y a d'la Belvédère, d'la mou-mou à la pelle pelle J'suis dans la boîte avec les plus gros dealers J'avance tout droit, j'regarde même pas les videurs Weed au mic' et broliqué comme Val Kilmer 15 000 euros, bonne humeur, une demi-heure Déjà khabat en même pas une demi-heure J'vois la concu' en train d'coller des mineures Tourne le potard, monte le son des haut-parleurs Y'a un souci, on s'explique à l'extérieur Olalala ouh, waow C'est pas d'la musique, c'est du commerce nan Olalala ouh Et j'tiens mieux l'alcool que mes promesses wah Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après t'es menotté Et on refait la déco' avec la fille d'à té-cô La voisine se plaint qu'elle entend des Boum, boum, boum, boum J'manque pas de weed, ni de toupet eh Ça ride des Barbies, pas des poupées nan Tout est officieux rien d'officiel ouais Des culottes faites avec des ficelles Des belles nanas, genre Zendaya Quarante degrés comme à Tijuana Coké comme Baba, bien trop faya Toujours dans l'excès, c'est le Nirvana J'suis le bon, la brute et le truand en même temps J'fais des évènements de Marseille à terre-Nan Les requins sont vicieux, un peu comme des serpents Coucou, c'est la mou-mou, j'suis en survêtement Dieu merci, j'ai réussi à ver-'squi les méchants L'argent, c'est alléchant, dans la rue méchant VLG, le pont de Medellin et Saint-Ouen Ils s'rappelleront de moi comme les boute-en-train ouh, ouh, ouh Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après t'es menotté Et on refait la déco' avec la fille d'à té-cô La voisine se plaint qu'elle entend des Boum, boum, boum, boum Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après t'es menotté Et on refait la déco' avec la fille d'à té-cô La voisine se plaint qu'elle entend des Boum, boum, boum, boum Olalala La voisine se plaint qu'elle entend Olalala Des Boum, boum, boum, boum</t>
         </is>
       </c>
     </row>
@@ -2005,12 +2005,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Dans l’appart’</t>
+          <t>Dans l’appart’ (1/4)</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Prends un billet d'avion, préviens mon label paw J'pars au Mexique parce que la khapta m'appelle paw Viens dans la zone, ici c'est Medellin Cartel paw paw paw paw Y a d'la Belvédère, d'la mou-mou à la pelle pelle J'suis dans la boîte avec les plus gros dealers J'avance tout droit, j'regarde même pas les videurs Weed au mic' et broliqué comme Val Kilmer 15 000 euros, bonne humeur, une demi-heure Déjà khabat en même pas une demi-heure J'vois la concu' en train d'coller des mineures Tourne le potard, monte le son des haut-parleurs Y'a un souci, on s'explique à l'extérieur Olalala ouh, waow C'est pas d'la musique, c'est du commerce nan Olalala ouh Et j'tiens mieux l'alcool que mes promesses wah Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après t'es menotté Et on refait la déco' avec la fille d'à té-cô La voisine se plaint qu'elle entend des Boum, boum, boum, boum J'manque pas de weed, ni de toupet eh Ça ride des Barbies, pas des poupées nan Tout est officieux rien d'officiel ouais Des culottes faites avec des ficelles Des belles nanas, genre Zendaya Quarante degrés comme à Tijuana Coké comme Baba, bien trop faya Toujours dans l'excès, c'est le Nirvana J'suis le bon, la brute et le truand en même temps J'fais des évènements de Marseille à terre-Nan Les requins sont vicieux, un peu comme des serpents Coucou, c'est la mou-mou, j'suis en survêtement Dieu merci, j'ai réussi à ver-'squi les méchants L'argent, c'est alléchant, dans la rue méchant VLG, le pont de Medellin et Saint-Ouen Ils s'rappelleront de moi comme les boute-en-train ouh, ouh, ouh Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après t'es menotté Et on refait la déco' avec la fille d'à té-cô La voisine se plaint qu'elle entend des Boum, boum, boum, boum Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après t'es menotté Et on refait la déco' avec la fille d'à té-cô La voisine se plaint qu'elle entend des Boum, boum, boum, boum Olalala La voisine se plaint qu'elle entend Olalala Des Boum, boum, boum, boum</t>
+          <t>Prends un billet d'avion, préviens mon label J'pars au Mexique parce que la khapta m'appelle Viens dans la zone, , c'est Medellin Cartel Y a d'la Belvédère, d'la mou-mou à l'appel J'suis dans la boîte avec les plus gros dealers J'avance tout droit, j'regarde même pas les videurs au mic', broliqué comme Val Kilmer 15 000 euros, bonne humeur, une demi-heure Déjà khabat en même pas une demi-heure J'vois la concu' en train d'coller des mineures Tourne le potard, monte le son des hauts-parleurs Y a un souci, on s'explique à l'extérieur Olalala ouh, waow C'est pas d'la musique, c'est du commerce nan Olalala ouh, waow Et j'tiens mieux l'alcool que mes promesses wah Et dans l'appart' d'à côté, on a fini menottés</t>
         </is>
       </c>
     </row>
@@ -2022,12 +2022,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Dans l’appart’ (1/4)</t>
+          <t>Dans l’appart’ (2/4)</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Prends un billet d'avion, préviens mon label J'pars au Mexique parce que la khapta m'appelle Viens dans la zone, , c'est Medellin Cartel Y a d'la Belvédère, d'la mou-mou à l'appel J'suis dans la boîte avec les plus gros dealers J'avance tout droit, j'regarde même pas les videurs au mic', broliqué comme Val Kilmer 15 000 euros, bonne humeur, une demi-heure Déjà khabat en même pas une demi-heure J'vois la concu' en train d'coller des mineures Tourne le potard, monte le son des hauts-parleurs Y a un souci, on s'explique à l'extérieur Olalala ouh, waow C'est pas d'la musique, c'est du commerce nan Olalala ouh, waow Et j'tiens mieux l'alcool que mes promesses wah Et dans l'appart' d'à côté, on a fini menottés</t>
+          <t>Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après Et on refait la déco' avec La voisine se plaint qu'elle entend des Boum, boum, boum, boum J'manque pas de weed ni de toupet eh Ça ride des barbies, pas de poupées han Tout est officieux, rien d'officiel ouais, ouais Des culottes faites avec des ficelles Des belles nanas, genr Zendaya Quarante degrés comm à Tijuana Coquet comme Baba, bien trop faya Toujours dans l'excès c'est le Nirvana J'suis le bon, la brute et le truand en même temps J'fais des évènements de Marseille à terre-Nan Les requins sont vicieux, un peu comme des serpents Coucou, c'est la mou-mou, j'suis en survêtement</t>
         </is>
       </c>
     </row>
@@ -2039,12 +2039,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Dans l’appart’ (2/4)</t>
+          <t>Dans l’appart’ (3/4)</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après Et on refait la déco' avec La voisine se plaint qu'elle entend des Boum, boum, boum, boum J'manque pas de weed ni de toupet eh Ça ride des barbies, pas de poupées han Tout est officieux, rien d'officiel ouais, ouais Des culottes faites avec des ficelles Des belles nanas, genr Zendaya Quarante degrés comm à Tijuana Coquet comme Baba, bien trop faya Toujours dans l'excès c'est le Nirvana J'suis le bon, la brute et le truand en même temps J'fais des évènements de Marseille à terre-Nan Les requins sont vicieux, un peu comme des serpents Coucou, c'est la mou-mou, j'suis en survêtement</t>
+          <t>Coucou, c'est la mou-mou, j'suis en survêtement Dieu merci, j'ai réussi à ver-'squi les méchants L'argent, c'est alléchant, dans la rue VLG, le pont de Medellin et Saint-Ouen Ils s'rappeleront de moi commes les bouts-en-train ouh, ouh, ouh Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après Et on refait la déco' avec La voisine se plaint qu'elle entend des Boum, boum, boum, boum Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après Et on refait la déco' avec</t>
         </is>
       </c>
     </row>
@@ -2056,12 +2056,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Dans l’appart’ (3/4)</t>
+          <t>Dans l’appart’ (4/4)</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Coucou, c'est la mou-mou, j'suis en survêtement Dieu merci, j'ai réussi à ver-'squi les méchants L'argent, c'est alléchant, dans la rue VLG, le pont de Medellin et Saint-Ouen Ils s'rappeleront de moi commes les bouts-en-train ouh, ouh, ouh Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après Et on refait la déco' avec La voisine se plaint qu'elle entend des Boum, boum, boum, boum Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après Et on refait la déco' avec</t>
+          <t>Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après Et on refait la déco' avec La voisine se plaint qu'elle entend des Boum, boum, boum, boum Olalala La voisine se plaint qu'elle entend Olalala Des Boum, boum, boum, boum</t>
         </is>
       </c>
     </row>
@@ -2073,12 +2073,12 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Dans l’appart’ (4/4)</t>
+          <t>Dope</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Et dans l'appart' d'à côté, on a fini menottés La khapta vient de monter, juste après Et on refait la déco' avec La voisine se plaint qu'elle entend des Boum, boum, boum, boum Olalala La voisine se plaint qu'elle entend Olalala Des Boum, boum, boum, boum</t>
+          <t>Suko Beats La Calle, la Calle Wait for it, YG Production Demande aux pachydermes, j'suis reconnu comme Sur le rrain-té, j't'ai dit, y a personne qui peut nous coacher Chez nous, c'est Napoli, Paris SG, Fenerbahçe C'est la police à six du mat' qui vient nous éclater Raconte pas tes salades, on a fait du sale, le terrain, ça l'tient tout seul, y a pas b'soin des gens C't enculé, il m'parle de faire du sale à qui ? Il a glissé, il s'est vite revu Obligé, y a pas qu'toi qui connais, huit heures la douche en taule, ça s'réveille en colère C'est connu, combien d, j'en ai collé, un souci calibré, ça montait en colère Inconnu, tu connais la Caille, andalo, c'est concentrés qu'on part détailler enculé J'ai jeté mes cahiers, pe-stu dans l'sac à dos, j'ai fui dans la Caille, j'ai fui dans la Calle Augmente le volume, c'est Fresh et L'enfoiré eh Pas l'temps pour la mala, ça vient récupérer l'bénèf' de la soirée récupérer l'bénèf' de la soirée Seventeen five, ça repeint ton t-shirt Pour seventeen five, ça kidnappe ta p'tite sur Seventeen five, ça repeint ton t-shirt Pour seventeen five, ça kidnappe ta p'tite sur Maman voulait pas qu'j'vends cette dope voulait pas qu'j'vends cette dope Seventeen five, couleur t-shirt couleur t-shirt Maman voulait pas qu'j'vends cette dope voulait pas qu'j'vends cette dope Seventeen five, repeint le t-shirt repeint le t-shirt Maman voulait pas qu'j'vends cette dope eh Seventeen five, couleur t-shirt woh Maman voulait pas qu'j'vends cette dope Seventeen five, repeint le t-shirt Aujourd'hui, j'me suis vé-le à midi vingt-trois, déterminé comme numéro 23 J'mets un coup d'flamme sur le joint, le trente-trois, Bai-baiser des chattes dans les nouveaux endroits, fumer du shit avec Turcs et Hongrois Ramène des putes, à manger et à boire, j'ché-cra dans trou d'balle aléatoire Du-du guacamole, du caramel, dix grammes de filtré dans l'cul à Kamel Mais j'ai oublié comment elle s'appelle, j'avais roupillé au Modern Hôtel J'suis pas un modèle j'suis pas Faudel, Marc-Olivier Fogiel Demande à et ses , rempli de cocaïne avec armes de l'est Seventeen five, ça repeint ton t-shirt Pour seventeen five, ça kidnappe ta p'tite sur Seventeen five, ça repeint ton t-shirt Pour seventeen five, ça kidnappe ta p'tite sur Maman voulait pas qu'j'vends cette dope voulait pas qu'j'vends cette dope Seventeen five, couleur t-shirt couleur t-shirt Maman voulait pas qu'j'vends cette dope voulait pas qu'j'vends cette dope Seventeen five, repeint le t-shirt repeint le t-shirt Maman voulait pas qu'j'vends cette dope eh Seventeen five, couleur t-shirt woh Maman voulait pas qu'j'vends cette dope Seventeen five, repeint le t-shirt Maman voulait pas qu'j'vends cette dope Seventeen five, couleur t-shirt Maman voulait pas qu'j'vends cette dope Seventeen five, repeint le t-shirt</t>
         </is>
       </c>
     </row>
@@ -2090,12 +2090,12 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Dope</t>
+          <t>Empire</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Suko Beats La Calle, la Calle Wait for it, YG Production Demande aux pachydermes, j'suis reconnu comme Sur le rrain-té, j't'ai dit, y a personne qui peut nous coacher Chez nous, c'est Napoli, Paris SG, Fenerbahçe C'est la police à six du mat' qui vient nous éclater Raconte pas tes salades, on a fait du sale, le terrain, ça l'tient tout seul, y a pas b'soin des gens C't enculé, il m'parle de faire du sale à qui ? Il a glissé, il s'est vite revu Obligé, y a pas qu'toi qui connais, huit heures la douche en taule, ça s'réveille en colère C'est connu, combien d, j'en ai collé, un souci calibré, ça montait en colère Inconnu, tu connais la Caille, andalo, c'est concentrés qu'on part détailler enculé J'ai jeté mes cahiers, pe-stu dans l'sac à dos, j'ai fui dans la Caille, j'ai fui dans la Calle Augmente le volume, c'est Fresh et L'enfoiré eh Pas l'temps pour la mala, ça vient récupérer l'bénèf' de la soirée récupérer l'bénèf' de la soirée Seventeen five, ça repeint ton t-shirt Pour seventeen five, ça kidnappe ta p'tite sur Seventeen five, ça repeint ton t-shirt Pour seventeen five, ça kidnappe ta p'tite sur Maman voulait pas qu'j'vends cette dope voulait pas qu'j'vends cette dope Seventeen five, couleur t-shirt couleur t-shirt Maman voulait pas qu'j'vends cette dope voulait pas qu'j'vends cette dope Seventeen five, repeint le t-shirt repeint le t-shirt Maman voulait pas qu'j'vends cette dope eh Seventeen five, couleur t-shirt woh Maman voulait pas qu'j'vends cette dope Seventeen five, repeint le t-shirt Aujourd'hui, j'me suis vé-le à midi vingt-trois, déterminé comme numéro 23 J'mets un coup d'flamme sur le joint, le trente-trois, Bai-baiser des chattes dans les nouveaux endroits, fumer du shit avec Turcs et Hongrois Ramène des putes, à manger et à boire, j'ché-cra dans trou d'balle aléatoire Du-du guacamole, du caramel, dix grammes de filtré dans l'cul à Kamel Mais j'ai oublié comment elle s'appelle, j'avais roupillé au Modern Hôtel J'suis pas un modèle j'suis pas Faudel, Marc-Olivier Fogiel Demande à et ses , rempli de cocaïne avec armes de l'est Seventeen five, ça repeint ton t-shirt Pour seventeen five, ça kidnappe ta p'tite sur Seventeen five, ça repeint ton t-shirt Pour seventeen five, ça kidnappe ta p'tite sur Maman voulait pas qu'j'vends cette dope voulait pas qu'j'vends cette dope Seventeen five, couleur t-shirt couleur t-shirt Maman voulait pas qu'j'vends cette dope voulait pas qu'j'vends cette dope Seventeen five, repeint le t-shirt repeint le t-shirt Maman voulait pas qu'j'vends cette dope eh Seventeen five, couleur t-shirt woh Maman voulait pas qu'j'vends cette dope Seventeen five, repeint le t-shirt Maman voulait pas qu'j'vends cette dope Seventeen five, couleur t-shirt Maman voulait pas qu'j'vends cette dope Seventeen five, repeint le t-shirt</t>
+          <t>Fuck, it's easy Zeg P on the track, bitch J'arrive en Fendi, gros joint d'beldi', j'suis d'humeur festive J'sais pas si j'ai toujours l'appétit, single d'or, on est montés haut Remets un whisky, t'es dans laquelle ? J'suis dans celle qui ré-ti, qui t'met à l'ouest Condés, faut v'-esqui, y a les méchants dans le Mondeo J'suis ailleurs, nouvel empire J'aimerais qu'on s'revoit mais j'suis dans mes bails Ailleurs, nouvel empire J'aimerais qu'on s'revoit mais j'suis dans mes bails J'suis plus dans ça, oublie-moi Oublie-moi J'cogite tout sul tard le soir Tard le soir After, villa, Pays-Bas Villa, Pays-Bas J'suis trop dans ça au final Au final J'arriv en Gucci, toujours un outil, on fait les boutiques Combien ça gaspille ? J'sais plus si c'est moi dans la vidéo Dans la vidéo J'repars au Mexique, niquer la caisse, aller-retour à l'ouest Paris v'-esqui j'prends un llet-bi, change la météo La météo J'suis ailleurs, nouvel empire J'aimerais qu'on s'revoit mais j'suis dans mes bails Ailleurs, nouvel empire J'aimerais qu'on s'revoit mais j'suis dans mes bails J'suis plus dans ça, oublie-moi Oublie-moi J'cogite tout seul tard le soir Tard le soir After, villa, Pays-Bas Villa, Pays-Bas J'suis trop dans ça au final Au final J'arrive en Fendi, j'arrive en J'arrive en Gucci, Fendi J'suis d'humeur festive J'suis ailleurs, nouvel empire J'aimerais qu'on s'revoit mais j'suis dans mes bails Ailleurs, nouvel empire J'aimerais qu'on s'revoit mais j'suis dans mes bails</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Empire</t>
+          <t>Freestyle #11RappeursASuivre 2019 Part. 1</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Fuck, it's easy Zeg P on the track, bitch J'arrive en Fendi, gros joint d'beldi', j'suis d'humeur festive J'sais pas si j'ai toujours l'appétit, single d'or, on est montés haut Remets un whisky, t'es dans laquelle ? J'suis dans celle qui ré-ti, qui t'met à l'ouest Condés, faut v'-esqui, y a les méchants dans le Mondeo J'suis ailleurs, nouvel empire J'aimerais qu'on s'revoit mais j'suis dans mes bails Ailleurs, nouvel empire J'aimerais qu'on s'revoit mais j'suis dans mes bails J'suis plus dans ça, oublie-moi Oublie-moi J'cogite tout sul tard le soir Tard le soir After, villa, Pays-Bas Villa, Pays-Bas J'suis trop dans ça au final Au final J'arriv en Gucci, toujours un outil, on fait les boutiques Combien ça gaspille ? J'sais plus si c'est moi dans la vidéo Dans la vidéo J'repars au Mexique, niquer la caisse, aller-retour à l'ouest Paris v'-esqui j'prends un llet-bi, change la météo La météo J'suis ailleurs, nouvel empire J'aimerais qu'on s'revoit mais j'suis dans mes bails Ailleurs, nouvel empire J'aimerais qu'on s'revoit mais j'suis dans mes bails J'suis plus dans ça, oublie-moi Oublie-moi J'cogite tout seul tard le soir Tard le soir After, villa, Pays-Bas Villa, Pays-Bas J'suis trop dans ça au final Au final J'arrive en Fendi, j'arrive en J'arrive en Gucci, Fendi J'suis d'humeur festive J'suis ailleurs, nouvel empire J'aimerais qu'on s'revoit mais j'suis dans mes bails Ailleurs, nouvel empire J'aimerais qu'on s'revoit mais j'suis dans mes bails</t>
+          <t>Booska-baffade, hé, grammes de salade, ok, hé Booska-baffade, grammes de salade, j'roule un petit avant la bouffade Dernier défenseur sur lterrain, le tartineur fait des parades Brigade zehef dans les parages, Booska-Rue d'Aershot c'est salace Salope, tu khalasses on sarrache, Booska-Medellin en pagaille J'organise une maxi-baisade C'est un pétage barrage, blocage, d'mande à Douhi, y a pas d'garage Deux mecs très sombres dans une rue calme, attention ton vu-ca Combien d'kichta sous la kipa d'mon avocat ? Khapta, zginga, dépôt, re-shta, y a d'la pe-do made in me-da skch, skch Tour du million, filon, pilon, 2019 on distribue Sachets, re-pu reçue, revue, me-je, ne-jeû cest des bes-tu Heuss Lenfoiré, gue-dro vendue Bandits des cités entendus, étudie, on est détendus skch, skch, skch, skch 92, Haut-de-Seine, le compte-rendu, cité, cartel, malentendu Poucave, balance, donneuse vendue, perquis' matin, maman tendue Booska-Baffat, cest léger Heuss L'enfoiré bande d'enfoirés, skch, skch, skch, skch, skch, skch Dans la rue, tu sais c'quon voit que des RS4 dans l'convoi Je sais que t'es sans voix quand j't'envoie des track J't'éclate, tu craques, tu t'frappes la tête quand j'passe, dégage d'la voie J'ai des putain de rimes et flows séquencés, les moments pour t'sauter, on sait quand c'est Un feat et ta carrière est relancée mais si j't'enterre, faudra y renoncer Damso me dit Encule-les, niquage de mère sans reculer Bah ouais, j'suis rancunier, fils de pute, Quand t'as le seum, frère, il faut cogner Matonge gang J'suis dans le onze de Booska-P, attaquant de pointe comme Mbappé Matonge gang À Bruxelles, c'est moi l'rescapé, j'monte dans le bolide, toi, reste à pied 12-10 gang L'amitié fane, devant aucune arme, je n'verse de larme, sale fils de pute J'écoule ma came, cinquante le gramme, qu'importe le gramme, c'est l'biff le but Apparemment, ça braque et vend, y a des gens adhérant, ça les rend carrément aberrant T'es reconnu localement, ça roule en loc' allemande et ça fait des Les flingues sont étanchés, mes gens sont étrangers, j'suis bon qu'à trancher des gorges dans les tranchées Donc pourquoi et chica pour me venger ? J'n'ai qu'un échantillon du seum qu'j'ai engrangé 2019 c'est moi, 2019 c'est noir 2019 c'est moi, 2019 c'est noir Kikesa, nouveau hippie gang J'ai le logo de P sur mon textile, j'comprends pas trop pourquoi tu t'excites Pour moi, le fait que tu existes ne change pas grand chose comme le Brexit J'avoue, t'as très peu d'chance, hélas, j'vais te pister sans cher-lâ J'vais te fister pendant qu'papa est pas là comme Angela J'vais tout graille comme Mélissandre, j'écris depuis qu'j'ai dix ans J'vais m'appliquer vu qu'j'ai du temps, mes textes s'ront noirs comme Éric Blanc J'ai fini les DDH, désormais, j'me couche tôt, j'ai fait des millions d'vues mais on est toujours tous pauvres Faut qu'j'prenne de la fraîche, que j'perde de la graisse Tu connais mon adresse j'suis Antetokoumpo J'ai fait cinquante-deux musiques en cinquante-deux s'maines J'arrêterai certainement ça quand je s'rai mort Mmmh, coucou maman, je t'aime Je passe à la télé entre deux scènes T'as compris ? J'ai taffé toute l'année pendant qu'les autres ont tous stagné J'ai mis Nancy sur la carte de France et mon bandana préféré sur Booska-P J'suis au courant qu'je les foudroie, j'ai gagné toutes les manches du tournoi Plage 80, c'est tout droit, 2019, c'est pour moi Bisous Fils de pute, pourquoi tu m'regardes bizarre ? J'vais t'abîmer l'visage J'suis dans l'truc, anus que t'envisages, c'est moi la mort au virage Un soir de plus sous flash de vodka J'finis les oints-j, j'm'occupe de votre cas J'suis sur Booska, j'le fais sans pote-ca Juste un Toka', ils dansent la polka pa-pa-pa-pa Police, talkie, 1.8.7 est le code J'les faisais galoper leurs mères à l'école Chérie té-mon, série 7 est le Golf Choisissez mon sexe ou le Glock dans la glotte J'vais vous dire c'qui m'attriste c'est qu'les meufs de Maastricht dans le cul j'en ai plein dans Matrix Tes rappeurs les actrices sont dans l'idolâtrie sur la rue de Madrid On trime dans l'crime depuis des années Trahi, j'ai dû faire l'tri dans mes amis On traîne entre hommes, on est pas naïf On viendra t'faire l'jour de ton anniv' Plus le même depuis ta naissance, Sofia Un peu moins violent, un peu plus sociable Eux, ils veulent faire la mafia Mais wAllah, en affaire, ils sont pas fiables Dans la vie, ils veulent tout snapper Quand on veut s'taper, ils veulent tous la paix 9 milli', y a pas d'rescapé 2019, c'est moi sur Booska-P Zikxo, en putain d'cinq lettres Retiens, cousin, j'suis l'opposé d'ceux qui font la starlette Paire de Requins pour m'installer, et j'écoute comme chuchote l'instinct Équipe en Décathlon, en coste-La pour braquer l'instant Y avait du bois sur ma route mais j'ai pas freiné quand même, j'étais détèr' au cas où, fallait rejoindre les comètes Tout est volé dans l'camion mais à bord, personne s'y connaît On oublie tous les KO, les tempêtes, les raclées qu'on met M'serre pas la main, t'es comme eux, beaucoup d'écarts on commet décoller, p'tit métisse de gare aux commandes 2.0.1.9., tu sais qu'c'est pour le Z, j'vise la boule à Z d'un keuf qui nous empêchera d'prendre de l'oseille Rodave ma gueule sur Booska-P, les mecs de Bondy tous palpés J'ai les gyrophares en traître, si j'crève, j'finis la course à pied Reste à ta place, faut pas ler-par, au départ, on y croyait pas On est r'passés par les bases, on décale, on renvoie les tass On trépasse, où t'es passé dis-moi, ils s'cassent tous tes gars sûr Mec du 93 dédicacé, savoure la vengeance déclassée Tous ces lâches sont dépassés, nous, sur les parts de-spi placé ZIKN sur l'cahier, venu pour marquer tout un siècle</t>
         </is>
       </c>
     </row>
@@ -2124,12 +2124,12 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Freestyle #11RappeursASuivre 2019 Part. 1</t>
+          <t>Get 27</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Booska-baffade, hé, grammes de salade, ok, hé Booska-baffade, grammes de salade, j'roule un petit avant la bouffade Dernier défenseur sur lterrain, le tartineur fait des parades Brigade zehef dans les parages, Booska-Rue d'Aershot c'est salace Salope, tu khalasses on sarrache, Booska-Medellin en pagaille J'organise une maxi-baisade C'est un pétage barrage, blocage, d'mande à Douhi, y a pas d'garage Deux mecs très sombres dans une rue calme, attention ton vu-ca Combien d'kichta sous la kipa d'mon avocat ? Khapta, zginga, dépôt, re-shta, y a d'la pe-do made in me-da skch, skch Tour du million, filon, pilon, 2019 on distribue Sachets, re-pu reçue, revue, me-je, ne-jeû cest des bes-tu Heuss Lenfoiré, gue-dro vendue Bandits des cités entendus, étudie, on est détendus skch, skch, skch, skch 92, Haut-de-Seine, le compte-rendu, cité, cartel, malentendu Poucave, balance, donneuse vendue, perquis' matin, maman tendue Booska-Baffat, cest léger Heuss L'enfoiré bande d'enfoirés, skch, skch, skch, skch, skch, skch Dans la rue, tu sais c'quon voit que des RS4 dans l'convoi Je sais que t'es sans voix quand j't'envoie des track J't'éclate, tu craques, tu t'frappes la tête quand j'passe, dégage d'la voie J'ai des putain de rimes et flows séquencés, les moments pour t'sauter, on sait quand c'est Un feat et ta carrière est relancée mais si j't'enterre, faudra y renoncer Damso me dit Encule-les, niquage de mère sans reculer Bah ouais, j'suis rancunier, fils de pute, Quand t'as le seum, frère, il faut cogner Matonge gang J'suis dans le onze de Booska-P, attaquant de pointe comme Mbappé Matonge gang À Bruxelles, c'est moi l'rescapé, j'monte dans le bolide, toi, reste à pied 12-10 gang L'amitié fane, devant aucune arme, je n'verse de larme, sale fils de pute J'écoule ma came, cinquante le gramme, qu'importe le gramme, c'est l'biff le but Apparemment, ça braque et vend, y a des gens adhérant, ça les rend carrément aberrant T'es reconnu localement, ça roule en loc' allemande et ça fait des Les flingues sont étanchés, mes gens sont étrangers, j'suis bon qu'à trancher des gorges dans les tranchées Donc pourquoi et chica pour me venger ? J'n'ai qu'un échantillon du seum qu'j'ai engrangé 2019 c'est moi, 2019 c'est noir 2019 c'est moi, 2019 c'est noir Kikesa, nouveau hippie gang J'ai le logo de P sur mon textile, j'comprends pas trop pourquoi tu t'excites Pour moi, le fait que tu existes ne change pas grand chose comme le Brexit J'avoue, t'as très peu d'chance, hélas, j'vais te pister sans cher-lâ J'vais te fister pendant qu'papa est pas là comme Angela J'vais tout graille comme Mélissandre, j'écris depuis qu'j'ai dix ans J'vais m'appliquer vu qu'j'ai du temps, mes textes s'ront noirs comme Éric Blanc J'ai fini les DDH, désormais, j'me couche tôt, j'ai fait des millions d'vues mais on est toujours tous pauvres Faut qu'j'prenne de la fraîche, que j'perde de la graisse Tu connais mon adresse j'suis Antetokoumpo J'ai fait cinquante-deux musiques en cinquante-deux s'maines J'arrêterai certainement ça quand je s'rai mort Mmmh, coucou maman, je t'aime Je passe à la télé entre deux scènes T'as compris ? J'ai taffé toute l'année pendant qu'les autres ont tous stagné J'ai mis Nancy sur la carte de France et mon bandana préféré sur Booska-P J'suis au courant qu'je les foudroie, j'ai gagné toutes les manches du tournoi Plage 80, c'est tout droit, 2019, c'est pour moi Bisous Fils de pute, pourquoi tu m'regardes bizarre ? J'vais t'abîmer l'visage J'suis dans l'truc, anus que t'envisages, c'est moi la mort au virage Un soir de plus sous flash de vodka J'finis les oints-j, j'm'occupe de votre cas J'suis sur Booska, j'le fais sans pote-ca Juste un Toka', ils dansent la polka pa-pa-pa-pa Police, talkie, 1.8.7 est le code J'les faisais galoper leurs mères à l'école Chérie té-mon, série 7 est le Golf Choisissez mon sexe ou le Glock dans la glotte J'vais vous dire c'qui m'attriste c'est qu'les meufs de Maastricht dans le cul j'en ai plein dans Matrix Tes rappeurs les actrices sont dans l'idolâtrie sur la rue de Madrid On trime dans l'crime depuis des années Trahi, j'ai dû faire l'tri dans mes amis On traîne entre hommes, on est pas naïf On viendra t'faire l'jour de ton anniv' Plus le même depuis ta naissance, Sofia Un peu moins violent, un peu plus sociable Eux, ils veulent faire la mafia Mais wAllah, en affaire, ils sont pas fiables Dans la vie, ils veulent tout snapper Quand on veut s'taper, ils veulent tous la paix 9 milli', y a pas d'rescapé 2019, c'est moi sur Booska-P Zikxo, en putain d'cinq lettres Retiens, cousin, j'suis l'opposé d'ceux qui font la starlette Paire de Requins pour m'installer, et j'écoute comme chuchote l'instinct Équipe en Décathlon, en coste-La pour braquer l'instant Y avait du bois sur ma route mais j'ai pas freiné quand même, j'étais détèr' au cas où, fallait rejoindre les comètes Tout est volé dans l'camion mais à bord, personne s'y connaît On oublie tous les KO, les tempêtes, les raclées qu'on met M'serre pas la main, t'es comme eux, beaucoup d'écarts on commet décoller, p'tit métisse de gare aux commandes 2.0.1.9., tu sais qu'c'est pour le Z, j'vise la boule à Z d'un keuf qui nous empêchera d'prendre de l'oseille Rodave ma gueule sur Booska-P, les mecs de Bondy tous palpés J'ai les gyrophares en traître, si j'crève, j'finis la course à pied Reste à ta place, faut pas ler-par, au départ, on y croyait pas On est r'passés par les bases, on décale, on renvoie les tass On trépasse, où t'es passé dis-moi, ils s'cassent tous tes gars sûr Mec du 93 dédicacé, savoure la vengeance déclassée Tous ces lâches sont dépassés, nous, sur les parts de-spi placé ZIKN sur l'cahier, venu pour marquer tout un siècle</t>
+          <t>Ze-Zeg P on the track beat 45.0.37, Get 27 Avec les mecs du cent moins sept, on comptait la recette 45.0.37, Get 27 Avec les mecs du cent moins sept, on comptait la recette Ça, ça va, j'tiens l'coup, sin-cou, encore un sale coup Le chien d'la stup', c'fils de pute, fait des saltos dans la salle d'eau J'suis squé-ma dans les toilettes du McDo' Envoie un charo, j'sais pas, qui fait semblant, qui fait l'char-clo Si si, poto, y a du te-shi, coca' et d'la matiti Batistuta, Roberto Carlos, oublie pas Maldini L rap, c'est magnifique, ça rappe pour du fric t des filles faciles Un gros charo comme moi, la tête de tata, c'est tout c'qui m'fascine Plata, plata, nouvelle saga, wAllah qu'on les assassine En esprit double platine, j'ai toujours pas changé ma team Raga, couscous, dagatine En esprit double platine et j'ai même pas changé ma team Bébé, c'est vrai qu'j'ai pas l'time, mais dis pas que j'ai pas d'âme À la base, j'ai pas d'madame, j'suis un charo du macadam 'dam, 'dam 45.0.37, Get 27 Avec les mecs du cent moins sept, on comptait la recette 45.0.37, Get 27 Avec les mecs du cent moins sept, on comptait la recette Ça, ça va, j'tiens l'coup, sin-cou, encore un sale coup Le chien d'la stup', c'fils de pute, fait des saltos dans la salle d'eau J'suis squé-ma dans les toilettes du McDo' Envoie un charo, j'sais pas, qui fait semblant, qui fait l'char-clo J'sais pas, si ça marche pas, t'auras qu'à faire la pute comme Zahia Tu peux chanter jusqu'à demain, tu seras jamais Aya J'écoute du Barry White à fond, des fois, j'écoute du IAM J'pars en couilles, c'est ça qu'ils disent Le succès, ça rend malade Que des scalapes sur scalapes, des kilos de patates Tu m'crois pas, viens sur Paname, c'est tonton qui paie la balade J'te baise chez oi-t, chez tata, où tu veux, même à la baraque J'représente Valenciennes, Marseille, Roubaix, Toulouse et Paname Paname, Paname 45.0.37, Get 27 Avec les mecs du cent moins sept, on comptait la recette 45.0.37, Get 27 Avec les mecs du cent moins sept, on comptait la recette Ça, ça va, j'tiens l'coup, sin-cou, encore un sale coup Le chien d'la stup', c'fils de pute, fait des saltos dans la salle d'eau J'suis squé-ma dans les toilettes du McDo' Envoie un charo, j'sais pas, qui fait semblant, qui fait l'char-clo Si si, poto, y a du te-shi, coca' et d'la matiti Batistuta, Roberto Carlos, oublie pas Maldini Maldini, Maldini</t>
         </is>
       </c>
     </row>
@@ -2141,12 +2141,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Get 27</t>
+          <t>Gucci Versace</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Ze-Zeg P on the track beat 45.0.37, Get 27 Avec les mecs du cent moins sept, on comptait la recette 45.0.37, Get 27 Avec les mecs du cent moins sept, on comptait la recette Ça, ça va, j'tiens l'coup, sin-cou, encore un sale coup Le chien d'la stup', c'fils de pute, fait des saltos dans la salle d'eau J'suis squé-ma dans les toilettes du McDo' Envoie un charo, j'sais pas, qui fait semblant, qui fait l'char-clo Si si, poto, y a du te-shi, coca' et d'la matiti Batistuta, Roberto Carlos, oublie pas Maldini L rap, c'est magnifique, ça rappe pour du fric t des filles faciles Un gros charo comme moi, la tête de tata, c'est tout c'qui m'fascine Plata, plata, nouvelle saga, wAllah qu'on les assassine En esprit double platine, j'ai toujours pas changé ma team Raga, couscous, dagatine En esprit double platine et j'ai même pas changé ma team Bébé, c'est vrai qu'j'ai pas l'time, mais dis pas que j'ai pas d'âme À la base, j'ai pas d'madame, j'suis un charo du macadam 'dam, 'dam 45.0.37, Get 27 Avec les mecs du cent moins sept, on comptait la recette 45.0.37, Get 27 Avec les mecs du cent moins sept, on comptait la recette Ça, ça va, j'tiens l'coup, sin-cou, encore un sale coup Le chien d'la stup', c'fils de pute, fait des saltos dans la salle d'eau J'suis squé-ma dans les toilettes du McDo' Envoie un charo, j'sais pas, qui fait semblant, qui fait l'char-clo J'sais pas, si ça marche pas, t'auras qu'à faire la pute comme Zahia Tu peux chanter jusqu'à demain, tu seras jamais Aya J'écoute du Barry White à fond, des fois, j'écoute du IAM J'pars en couilles, c'est ça qu'ils disent Le succès, ça rend malade Que des scalapes sur scalapes, des kilos de patates Tu m'crois pas, viens sur Paname, c'est tonton qui paie la balade J'te baise chez oi-t, chez tata, où tu veux, même à la baraque J'représente Valenciennes, Marseille, Roubaix, Toulouse et Paname Paname, Paname 45.0.37, Get 27 Avec les mecs du cent moins sept, on comptait la recette 45.0.37, Get 27 Avec les mecs du cent moins sept, on comptait la recette Ça, ça va, j'tiens l'coup, sin-cou, encore un sale coup Le chien d'la stup', c'fils de pute, fait des saltos dans la salle d'eau J'suis squé-ma dans les toilettes du McDo' Envoie un charo, j'sais pas, qui fait semblant, qui fait l'char-clo Si si, poto, y a du te-shi, coca' et d'la matiti Batistuta, Roberto Carlos, oublie pas Maldini Maldini, Maldini</t>
+          <t>AWA the mafia, my nigga Skich, skich, skich J'me lève à midi, gros, y a personne qui déjeune Té-ma nos gueules, mon cousin, jsuis pas tout jeune Quand j'ai la dalle, c'est là que jvois qu'j'suis tout seul Les carottes sont cuites, tous les billets sont purple La maxi kich' ne rentre pas dans le portefeuille J'embrasse les jaloux, tous les envieux qui portent l'il 92, Sablière, van Nistelrooy On v'-esqui la police, la fouille ministérielle Tu vux passer pper-cho, t'es n manque de pesos Cotise avec tes soss, monte une maxi assoc La moumou, Sinatra, Francky, Sinaloa Sinaloa Y a que des piranhas, serpents de Tijuana Ram-pam-pam-pam Ram-pam-pam Ram-pam-pam-pam du Gucci, Versace, Gucci, Versace Ram-pam-pam khapta bien corsée, jvais rentrer à pied Ram-pam-pam-pam Heuss L'enfoiré, bande denfoirés, j't'avais déjà dit, c'est carré ram-pam-pam On fait du bruit dans la soirée, cest impossible de foirer ram-pam-pam-pam J'suis trop filoché pour te fiancer pour te fiancer J'suis dans l'Kanye West, Jay-Z, Beyonce Ram-pam-pam-pam Ram-pam-pam Ram-pam-pam-pam du Gucci, Versace, Gucci, Versace Ram-pam-pam khapta bien corsée, j'vais rentrer à pied Ram-pam-pam-pam Ramène des meujs pour tous les nes-jeu Y a des charos qui s'font pousser les cheveux J'embrasse mon neveu, Gucci, Versace, et tout est fe-neu Viens pas en showcase ou tu perds ta fe-meu J'fais crisser les pneugeuh, même quand il pleugeuh Ouais, j'suis sous beugeuh, j'suis dans le buggy J'passe sur TF1, ça régale Nagui Ram-pam-pam-pam Ram-pam-pam Ram-pam-pam-pam du Gucci, Versace, Gucci, Versace Ram-pam-pam khapta bien corsée, j'vais rentrer à pied Ram-pam-pam-pam Ram-pam-pam-pam Ram-pam-pam-pam</t>
         </is>
       </c>
     </row>
@@ -2158,12 +2158,12 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Gucci Versace</t>
+          <t>Heuslaga</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>AWA the mafia, my nigga Skich, skich, skich J'me lève à midi, gros, y a personne qui déjeune Té-ma nos gueules, mon cousin, jsuis pas tout jeune Quand j'ai la dalle, c'est là que jvois qu'j'suis tout seul Les carottes sont cuites, tous les billets sont purple La maxi kich' ne rentre pas dans le portefeuille J'embrasse les jaloux, tous les envieux qui portent l'il 92, Sablière, van Nistelrooy On v'-esqui la police, la fouille ministérielle Tu vux passer pper-cho, t'es n manque de pesos Cotise avec tes soss, monte une maxi assoc La moumou, Sinatra, Francky, Sinaloa Sinaloa Y a que des piranhas, serpents de Tijuana Ram-pam-pam-pam Ram-pam-pam Ram-pam-pam-pam du Gucci, Versace, Gucci, Versace Ram-pam-pam khapta bien corsée, jvais rentrer à pied Ram-pam-pam-pam Heuss L'enfoiré, bande denfoirés, j't'avais déjà dit, c'est carré ram-pam-pam On fait du bruit dans la soirée, cest impossible de foirer ram-pam-pam-pam J'suis trop filoché pour te fiancer pour te fiancer J'suis dans l'Kanye West, Jay-Z, Beyonce Ram-pam-pam-pam Ram-pam-pam Ram-pam-pam-pam du Gucci, Versace, Gucci, Versace Ram-pam-pam khapta bien corsée, j'vais rentrer à pied Ram-pam-pam-pam Ramène des meujs pour tous les nes-jeu Y a des charos qui s'font pousser les cheveux J'embrasse mon neveu, Gucci, Versace, et tout est fe-neu Viens pas en showcase ou tu perds ta fe-meu J'fais crisser les pneugeuh, même quand il pleugeuh Ouais, j'suis sous beugeuh, j'suis dans le buggy J'passe sur TF1, ça régale Nagui Ram-pam-pam-pam Ram-pam-pam Ram-pam-pam-pam du Gucci, Versace, Gucci, Versace Ram-pam-pam khapta bien corsée, j'vais rentrer à pied Ram-pam-pam-pam Ram-pam-pam-pam Ram-pam-pam-pam</t>
+          <t>EN COURS DE RETRANSCRIPTION Là, c'est Heuslaga ouais, c'est la moulaga ouais Que des têtes de casseurs qui vendent la Là, c'est Heuslaga uh, ouais, c'est la moumou poh, poh C'est pas des traficante, eux, c'est des nounous Là, c'est Heuslaga waow, c'est la moulaga poh Que des têtes de casseurs qui vendent la poh Là, c'est Heuslaga ouais, ouais, c'est la moumou ouais C'est pas des traficante, eux, c'est des nounous Mon équipe de charos ouais, p'tite sacoche à carreaux no On remet tout à zéro ouais pour payer le tarot Pisté par Navarro wouh, des fois, j'suis trop paro Avec l'argent d'la musique, on a sauvé la daronne J'ai remis mes lacets, j'suis sorti relaxé J'ai dû tout khalasser, tous les dédicacer T'sais même pas c'qu'on a fait, tout c'qu'on a ramassé Là, c'est une bombe latine, j'vais la désamorcer Là, c'est Heuslaga ouais, c'est la moulaga ouais Que des têtes de casseurs qui vendent la Là, c'est Heuslaga uh, ouais, c'est la moumou poh, poh C'est pas des traficante, eux, c'est des nounous Là, c'est Heuslaga waow, c'est la moulaga poh Que des têtes de casseurs qui vendent la poh Là, c'est Heuslaga ouais, ouais, c'est la moumou ouais C'est pas des traficante, eux, c'est des nounous Tu sais bien qu'on est au culot, c'est la moula, j'bois au goulot Vafaculo, j'vais le boulot, j'traîne avec et Dans la boîte avec les moulas, rotte-ca à la Marco Mouly J'ai rendez-vous avec , c'est ma jolie qui a le colis C'est ma jolie qui l'a, c'est ma jolie qui l'fait Elle roule sur la Costa Brava toute la noche C'est ma jolie qui l'a, c'est ma jolie qui l'fait Elle a déjà benda Paris-Guadaloupe Là, c'est Heuslaga ouais, c'est la moulaga ouais Que des têtes de casseurs qui vendent la Là, c'est Heuslaga uh, ouais, c'est la moumou poh, poh C'est pas des traficante, eux, c'est des nounous Là, c'est Heuslaga waow, c'est la moulaga poh Que des têtes de casseurs qui vendent la poh Là, c'est Heuslaga ouais, ouais, c'est la moumou ouais C'est pas des traficante, eux, c'est des nounous</t>
         </is>
       </c>
     </row>
@@ -2175,12 +2175,12 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Heuslaga</t>
+          <t>Hommes de main</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>EN COURS DE RETRANSCRIPTION Là, c'est Heuslaga ouais, c'est la moulaga ouais Que des têtes de casseurs qui vendent la Là, c'est Heuslaga uh, ouais, c'est la moumou poh, poh C'est pas des traficante, eux, c'est des nounous Là, c'est Heuslaga waow, c'est la moulaga poh Que des têtes de casseurs qui vendent la poh Là, c'est Heuslaga ouais, ouais, c'est la moumou ouais C'est pas des traficante, eux, c'est des nounous Mon équipe de charos ouais, p'tite sacoche à carreaux no On remet tout à zéro ouais pour payer le tarot Pisté par Navarro wouh, des fois, j'suis trop paro Avec l'argent d'la musique, on a sauvé la daronne J'ai remis mes lacets, j'suis sorti relaxé J'ai dû tout khalasser, tous les dédicacer T'sais même pas c'qu'on a fait, tout c'qu'on a ramassé Là, c'est une bombe latine, j'vais la désamorcer Là, c'est Heuslaga ouais, c'est la moulaga ouais Que des têtes de casseurs qui vendent la Là, c'est Heuslaga uh, ouais, c'est la moumou poh, poh C'est pas des traficante, eux, c'est des nounous Là, c'est Heuslaga waow, c'est la moulaga poh Que des têtes de casseurs qui vendent la poh Là, c'est Heuslaga ouais, ouais, c'est la moumou ouais C'est pas des traficante, eux, c'est des nounous Tu sais bien qu'on est au culot, c'est la moula, j'bois au goulot Vafaculo, j'vais le boulot, j'traîne avec et Dans la boîte avec les moulas, rotte-ca à la Marco Mouly J'ai rendez-vous avec , c'est ma jolie qui a le colis C'est ma jolie qui l'a, c'est ma jolie qui l'fait Elle roule sur la Costa Brava toute la noche C'est ma jolie qui l'a, c'est ma jolie qui l'fait Elle a déjà benda Paris-Guadaloupe Là, c'est Heuslaga ouais, c'est la moulaga ouais Que des têtes de casseurs qui vendent la Là, c'est Heuslaga uh, ouais, c'est la moumou poh, poh C'est pas des traficante, eux, c'est des nounous Là, c'est Heuslaga waow, c'est la moulaga poh Que des têtes de casseurs qui vendent la poh Là, c'est Heuslaga ouais, ouais, c'est la moumou ouais C'est pas des traficante, eux, c'est des nounous</t>
+          <t>Y a plus d'principes dehors, ça t'fait la bise même si t'es une poucave Parce que tas des sous Faut qu'j'sois plus sérieux et qu'j'envoie des sons J'te l'ai déjà dit tout est noir mule ou dans l'cannasson Nafaz Beats C'est chacun sa part, chacun à sa place, masqué comme Banderas Top départ, y a quatre cents Tornado sous l'capot, jusqu'à Figueras Le cur fait de glace, c'est soit on passe l'éponge ou bien on t'efface Ça bosse comme le boss, RS4 dans le box 59.7.7, en bas du bloc, là, j'vois qu des tox' Des bandits, des ints-cli, des grossistes de stup' dans ma zone J'vois tous les p'tits d'ma tess sous protoxyde d'azote Et va la faire à d'autres, j'casse la SIM, 213, audition chez la crim' Algérien de Constantine, numéro d'écrou noté sur l'bon d'cantine Pas le même vécu, pas la même sécu', c'est pour ça djane ma ces go Ici, personne n'est pistonné, j'rentre chez toi, dans l'hanout avec un pistolet Ouais, c'est démodé, comme le PGP, comme un RS3 à Marbella plaqué polonais Cheval de Troie monte étalonné, N.Y.M.A sur la plaquette, c'est tamponné J'suis comme le boss, j'crois bien qu'j'me la pète J'mets pas d'capote, des fois, c'est la fête C'est pas ma faute si y a des putes qui mènent des enquêtes sur mes cotes Sur un yacht avec Ze Pek' mais pas sur la côte Au Mexique avec ta pute, on s'fait la Y a du rhum et d'la vodka, Jack Daniel J'suis pas fidèle, j'suis pas Faudel, on finit à l'hôtel Si c'est complet, j'te baise dans l'escalier ou bien l'Opel J'suis en mode Che Gue', rapide , appelle naoufen Tu pensais que j'faisais l'amoureux dans le Sofitel J't'ai donné ma bite, bienvenue sur la Tour Eiffel Mets-la pas sur Beurre FM parce que j'ai la flemme Dieu merci, j'ai la clim', j'ai aussi la fibre Lis un livre le Coran, la Torah ou la Bible Visionne les lignes, lis bien c'qui est écrit Remplis-moi bien l'sac et dis J'aime Jésus-Christ À la base, c'était pas écrit dans le manuscrit Comme la taule pour Brahim et mon gars Sbarosky Nique sa mère 9.2.9, 43 Maroki Cassage de ppe-f', tu connais l'chemin si c'est 96 Pour faire du sale, pas b'soin d'écrire plus d'quatre-vingts seizes Quatre-vingts zen coupés au kérosène, tard le zen ou élisene Cour d'Assisses, tout ça sans indice À la mosquée, le salafiste, c'est p't-être un indic Demi-tour, Berlingo Scénic Dans la cour, les poucaves, on nique, dans la tour, la gue-dro s'débite Sensation piquante, transaction, savon d'Alicante Grosses coupures quand ça fait les comptes Grosse bavure quand ça fait les cons Posé dans ma tess, le pied sur la , le billet m'apaise Buenos Aires, marqué comme Tevez, rentable comme tes fesses Dans l'appart' des Apes, j'fais que des mapess Des putes qui m'appellent, y a encore qui m'font des rappels Soixante mois fermes, ouais, c'est ça ma peine, tout ça, c'est réel Ouais, ma belle, j'compte ma paie et j'te baise à l'hôtel Et j'éteins mon tél' 59, Nord-Pas-de-Calais Arrêtez d'chanter, arrêtez d'parler, B.A.C Sur la , j'ressers mes Faut t'mettre à la page le Zodiac décharge sur la plage Change de livre, ne tourne pas la page Tu peux tout perdre du jour au lendemain Moi, j'demande à Dieu, Non non Malaga gère-moi ça là-bas comme un homme de main J'te rappe ma vie d'vant la caméra, j'la scénarise Bâti' Nord, que des scènes à risques Ramène un RS6 que j'la brutaliste Du shit des montagnes du Rif et d'la pure du Tenerife Le trajet, je schématise Ouais, j'me mets à tise quand j'suis chez Mathis Tout ça pour le biff, tout ça pour le bénéfice, si si Écoute, petit, comment j'suis précis comme un tir à Messi Savoure mon rap comme un tiramisu Rapper, c'est facile, comme tuer quelqu'un en Sicile, si si N.Y.M.A</t>
         </is>
       </c>
     </row>
@@ -2192,12 +2192,12 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Hommes de main</t>
+          <t>Intro</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Y a plus d'principes dehors, ça t'fait la bise même si t'es une poucave Parce que tas des sous Faut qu'j'sois plus sérieux et qu'j'envoie des sons J'te l'ai déjà dit tout est noir mule ou dans l'cannasson Nafaz Beats C'est chacun sa part, chacun à sa place, masqué comme Banderas Top départ, y a quatre cents Tornado sous l'capot, jusqu'à Figueras Le cur fait de glace, c'est soit on passe l'éponge ou bien on t'efface Ça bosse comme le boss, RS4 dans le box 59.7.7, en bas du bloc, là, j'vois qu des tox' Des bandits, des ints-cli, des grossistes de stup' dans ma zone J'vois tous les p'tits d'ma tess sous protoxyde d'azote Et va la faire à d'autres, j'casse la SIM, 213, audition chez la crim' Algérien de Constantine, numéro d'écrou noté sur l'bon d'cantine Pas le même vécu, pas la même sécu', c'est pour ça djane ma ces go Ici, personne n'est pistonné, j'rentre chez toi, dans l'hanout avec un pistolet Ouais, c'est démodé, comme le PGP, comme un RS3 à Marbella plaqué polonais Cheval de Troie monte étalonné, N.Y.M.A sur la plaquette, c'est tamponné J'suis comme le boss, j'crois bien qu'j'me la pète J'mets pas d'capote, des fois, c'est la fête C'est pas ma faute si y a des putes qui mènent des enquêtes sur mes cotes Sur un yacht avec Ze Pek' mais pas sur la côte Au Mexique avec ta pute, on s'fait la Y a du rhum et d'la vodka, Jack Daniel J'suis pas fidèle, j'suis pas Faudel, on finit à l'hôtel Si c'est complet, j'te baise dans l'escalier ou bien l'Opel J'suis en mode Che Gue', rapide , appelle naoufen Tu pensais que j'faisais l'amoureux dans le Sofitel J't'ai donné ma bite, bienvenue sur la Tour Eiffel Mets-la pas sur Beurre FM parce que j'ai la flemme Dieu merci, j'ai la clim', j'ai aussi la fibre Lis un livre le Coran, la Torah ou la Bible Visionne les lignes, lis bien c'qui est écrit Remplis-moi bien l'sac et dis J'aime Jésus-Christ À la base, c'était pas écrit dans le manuscrit Comme la taule pour Brahim et mon gars Sbarosky Nique sa mère 9.2.9, 43 Maroki Cassage de ppe-f', tu connais l'chemin si c'est 96 Pour faire du sale, pas b'soin d'écrire plus d'quatre-vingts seizes Quatre-vingts zen coupés au kérosène, tard le zen ou élisene Cour d'Assisses, tout ça sans indice À la mosquée, le salafiste, c'est p't-être un indic Demi-tour, Berlingo Scénic Dans la cour, les poucaves, on nique, dans la tour, la gue-dro s'débite Sensation piquante, transaction, savon d'Alicante Grosses coupures quand ça fait les comptes Grosse bavure quand ça fait les cons Posé dans ma tess, le pied sur la , le billet m'apaise Buenos Aires, marqué comme Tevez, rentable comme tes fesses Dans l'appart' des Apes, j'fais que des mapess Des putes qui m'appellent, y a encore qui m'font des rappels Soixante mois fermes, ouais, c'est ça ma peine, tout ça, c'est réel Ouais, ma belle, j'compte ma paie et j'te baise à l'hôtel Et j'éteins mon tél' 59, Nord-Pas-de-Calais Arrêtez d'chanter, arrêtez d'parler, B.A.C Sur la , j'ressers mes Faut t'mettre à la page le Zodiac décharge sur la plage Change de livre, ne tourne pas la page Tu peux tout perdre du jour au lendemain Moi, j'demande à Dieu, Non non Malaga gère-moi ça là-bas comme un homme de main J'te rappe ma vie d'vant la caméra, j'la scénarise Bâti' Nord, que des scènes à risques Ramène un RS6 que j'la brutaliste Du shit des montagnes du Rif et d'la pure du Tenerife Le trajet, je schématise Ouais, j'me mets à tise quand j'suis chez Mathis Tout ça pour le biff, tout ça pour le bénéfice, si si Écoute, petit, comment j'suis précis comme un tir à Messi Savoure mon rap comme un tiramisu Rapper, c'est facile, comme tuer quelqu'un en Sicile, si si N.Y.M.A</t>
+          <t>Chef d'orchestre volume 1, c'est pas du Philipp Plein, c'est la moula, j'ai pris du poids comme un républicain Skch Avant la vie d'Ronnie, j'ai bossé comme un mexicain, trop d'fierté, papa, j'bosserai jamais comme un p'tit chien La vie d'César ou rien, oublie pas le vin, le raisin, les tchoins et d'la résine, on aime l'argent facile, on bossera jamais à l'usine On fait d'la taule de temps à autre, les parents hallucinent, la frappe tah Medellin, des montagnes, ça vient ds Hauts-d'-Seine Le rap, c'st Formule One, les tits-pe m'appellent Räikkönen, j'veux que d'l'oseille à foison, j'm'en bats les couilles qu'tu m'aimes Ou qu'tu m'aimes pas, dans pas longtemps, j'dois benda, la khapta était stenda, la copine était sympa Eh Là, j'dois payer les impôts mais j'ai plus la vingtaine, j'dois monter dans l'bateau, récupère c'qui m'appartienne Juste pour Brigitte Bardot, j'arrête de baiser des chiennes, Bordeaux, Toulouse, Marseille, d'la région parisienne Argent, monnaie, sexe, drogue, trois mesures par hygiène, j'partirai d'ici comme Diam's, Salif, pas J'traîne avec des criminels, docteurs et des ayawns J'traîne avec des criminels, docteurs et des ayawns L'argent d'ta chatte, c'est interdit, tu manges du pain perdu, zone interdite, ça vend du shit pendant les interludes Reconnu de Fresnes à Fleury, de Nanterre à Orly, c'est illégal, six étoiles, bienvenue dans ma rue Pour ma part, j'ai fait le tour des prisons, garde-à-vue, en deux-mille seize, y avait encore la daronne au parlu C'est pour ça, chaque jour que Dieu fait, il faut qu'j'assure, wesh, coucou, salut, bien sûr, faut des sous-gou, Manny Ils s'rappellent de nous, un peu comme la Yougoslavie, tu joues au con, balle dans la tête, on t'appelle le SAMU Skch, skch Poto, qu'est-ce que tu croyais ? Tu pensais qu'la croisière s'amuse, on t'baise ta mère si t'as poucave, même si tes un frère mus' Dis pas qu'j'abuse, avant la Boulehya, tu faisais mu-muse, même pendant qu'il sait, t'façon, ici, y a qu'Dieu qui sait En attendant, tout doucement, j'enrichis que l'épicier, j'attends sagement l'ennemi avec un couteau aiguisé Heuss L'enfoiré, bande d'enfoirés De Suárez, Mahrez, James, skch, skch, skch Heuss L'enfoiré, bande d'enfoirés De Suárez, Mahrez, James, skch, skch, skch</t>
         </is>
       </c>
     </row>
@@ -2209,12 +2209,12 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Intro</t>
+          <t>J’fume la prod</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Chef d'orchestre volume 1, c'est pas du Philipp Plein, c'est la moula, j'ai pris du poids comme un républicain Skch Avant la vie d'Ronnie, j'ai bossé comme un mexicain, trop d'fierté, papa, j'bosserai jamais comme un p'tit chien La vie d'César ou rien, oublie pas le vin, le raisin, les tchoins et d'la résine, on aime l'argent facile, on bossera jamais à l'usine On fait d'la taule de temps à autre, les parents hallucinent, la frappe tah Medellin, des montagnes, ça vient ds Hauts-d'-Seine Le rap, c'st Formule One, les tits-pe m'appellent Räikkönen, j'veux que d'l'oseille à foison, j'm'en bats les couilles qu'tu m'aimes Ou qu'tu m'aimes pas, dans pas longtemps, j'dois benda, la khapta était stenda, la copine était sympa Eh Là, j'dois payer les impôts mais j'ai plus la vingtaine, j'dois monter dans l'bateau, récupère c'qui m'appartienne Juste pour Brigitte Bardot, j'arrête de baiser des chiennes, Bordeaux, Toulouse, Marseille, d'la région parisienne Argent, monnaie, sexe, drogue, trois mesures par hygiène, j'partirai d'ici comme Diam's, Salif, pas J'traîne avec des criminels, docteurs et des ayawns J'traîne avec des criminels, docteurs et des ayawns L'argent d'ta chatte, c'est interdit, tu manges du pain perdu, zone interdite, ça vend du shit pendant les interludes Reconnu de Fresnes à Fleury, de Nanterre à Orly, c'est illégal, six étoiles, bienvenue dans ma rue Pour ma part, j'ai fait le tour des prisons, garde-à-vue, en deux-mille seize, y avait encore la daronne au parlu C'est pour ça, chaque jour que Dieu fait, il faut qu'j'assure, wesh, coucou, salut, bien sûr, faut des sous-gou, Manny Ils s'rappellent de nous, un peu comme la Yougoslavie, tu joues au con, balle dans la tête, on t'appelle le SAMU Skch, skch Poto, qu'est-ce que tu croyais ? Tu pensais qu'la croisière s'amuse, on t'baise ta mère si t'as poucave, même si tes un frère mus' Dis pas qu'j'abuse, avant la Boulehya, tu faisais mu-muse, même pendant qu'il sait, t'façon, ici, y a qu'Dieu qui sait En attendant, tout doucement, j'enrichis que l'épicier, j'attends sagement l'ennemi avec un couteau aiguisé Heuss L'enfoiré, bande d'enfoirés De Suárez, Mahrez, James, skch, skch, skch Heuss L'enfoiré, bande d'enfoirés De Suárez, Mahrez, James, skch, skch, skch</t>
+          <t>16 mesures sous spliff de canna' La prochaine fois j'remets ça sur la prod de Bishop Montana J'oublie pas Tony à Fleury et Mehdi la yeuca, Mehdi la yeuca Que des vrais couplets comme le shit bien coupé dans la veuca Tah la Beussa, la Peuta, la beuh tah Meuda Rotter' ou Breda, j'suis parti la checheguère L'agamnégué elle est pagas cheguère, j'l'ai ragamenégué en 2015 J'vais graille à té-côt chez Kameguel, au Classico J'fais que des classiques, demande à Brahimko 3 heures du mat' avec Hak ou Sayko Quand on appelle Bico, j'ai un shlag au bigo On est pas des mythos Y'a peut-être ta sur dans la file d'attente Surveille ta fille, ta tante, ta femme Ils ont eu Oussama, Kadhafi, Saddam Comme d'hab' j'planifie ça, man De la Sablière jusqu'à la Banane C'est d'l'amnésia, nan c'est pas d'la locale J'te vi-ser à balle dans l'centre commercial J'te vi-ser à balle dans l'centre commercial x4 J'fume de la drogue pendant qu'j'encule la prod et la proc Pendant qu'j'encule la prod et la proc On les fuck, on les smoke dans le blunt Nique la funk et les punks H.E.U.S dollar, pour ta clique un gros molard Pour l'Afrique un XXX connard Bande de batards J'ai v'là les couplets que j'ai pas découpé Sur la vie d'ma mère que t'as rien écouté Tu veux d'la çégué, vas-y viens la gouter Le laboratoire est juste à côté 2012 j'ai né-tour pour d'la blanche à Villefranche En 2015, là j'vais prendre ma revanche Si tu veux des trucs on t'avance, on t'annonce Si tu payes pas, du toit on te balance Ici on nique les balances Qui nous envoient en taule passer nos vacances Nique sa mère à la chance, à la France Y'a les civils dans la ville et les shlags qui vomissent de la bile Villeneuve-la-Garenne et l'argent facile J'sais pas si t'imagines, on est plein comme en Chine Y'a d'la coke et du shit à la file J'sais pas si t'imagines, on est plein comme en Chine Y'a d'la coke et du shit à la file L'OPJ me soupçonne de vendre de la drogue Il sait qu'c'est la mort et qu'elle mène à la morgue On les fume, on les kill Dédicace à Many en Cisjordanie, survét' Armani x4 J'fume de la drogue pendant qu'j'encule la prod et la proc Pendant qu'j'encule la prod et la proc On les fuck, on les smoke dans le blunt Nique la funk et les punks J'encule la keuba, moi j'vends pas d'CD Mais des mmes-gra, là c'est Heusla Dis pas mon zeubla, j'ai du raisin coffré Et des grosses rrettes-ba, d'la beuh tah Meuda Demande à JB, consommateur d'amnésia S'il faut j'me barre au Tibet pour vesqui la hnoucha Ici que des mouchards, des micros dans des mouchoirs Des feukeus se faufilent comme des cafards Encore un coup d'fil, perquis' dans l'teum-appar Eh, j'oublie pas les mecs au plac' qui font gonfler les pecs J'ai reconnu la plaque, c'est pas la BAC c'est la dép' Eh, j'oublie pas les mecs au plac' qui font gonfler les pecs J'ai reconnu la plaque, c'est pas la BAC c'est la dép' x4 J'fume de la drogue pendant qu'j'encule la prod et la proc Pendant qu'j'encule la prod et la proc On les fuck, on les smoke dans le blunt Nique la funk et les punks2</t>
         </is>
       </c>
     </row>
@@ -2226,12 +2226,12 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>J’fume la prod</t>
+          <t>John Gotti</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>16 mesures sous spliff de canna' La prochaine fois j'remets ça sur la prod de Bishop Montana J'oublie pas Tony à Fleury et Mehdi la yeuca, Mehdi la yeuca Que des vrais couplets comme le shit bien coupé dans la veuca Tah la Beussa, la Peuta, la beuh tah Meuda Rotter' ou Breda, j'suis parti la checheguère L'agamnégué elle est pagas cheguère, j'l'ai ragamenégué en 2015 J'vais graille à té-côt chez Kameguel, au Classico J'fais que des classiques, demande à Brahimko 3 heures du mat' avec Hak ou Sayko Quand on appelle Bico, j'ai un shlag au bigo On est pas des mythos Y'a peut-être ta sur dans la file d'attente Surveille ta fille, ta tante, ta femme Ils ont eu Oussama, Kadhafi, Saddam Comme d'hab' j'planifie ça, man De la Sablière jusqu'à la Banane C'est d'l'amnésia, nan c'est pas d'la locale J'te vi-ser à balle dans l'centre commercial J'te vi-ser à balle dans l'centre commercial x4 J'fume de la drogue pendant qu'j'encule la prod et la proc Pendant qu'j'encule la prod et la proc On les fuck, on les smoke dans le blunt Nique la funk et les punks H.E.U.S dollar, pour ta clique un gros molard Pour l'Afrique un XXX connard Bande de batards J'ai v'là les couplets que j'ai pas découpé Sur la vie d'ma mère que t'as rien écouté Tu veux d'la çégué, vas-y viens la gouter Le laboratoire est juste à côté 2012 j'ai né-tour pour d'la blanche à Villefranche En 2015, là j'vais prendre ma revanche Si tu veux des trucs on t'avance, on t'annonce Si tu payes pas, du toit on te balance Ici on nique les balances Qui nous envoient en taule passer nos vacances Nique sa mère à la chance, à la France Y'a les civils dans la ville et les shlags qui vomissent de la bile Villeneuve-la-Garenne et l'argent facile J'sais pas si t'imagines, on est plein comme en Chine Y'a d'la coke et du shit à la file J'sais pas si t'imagines, on est plein comme en Chine Y'a d'la coke et du shit à la file L'OPJ me soupçonne de vendre de la drogue Il sait qu'c'est la mort et qu'elle mène à la morgue On les fume, on les kill Dédicace à Many en Cisjordanie, survét' Armani x4 J'fume de la drogue pendant qu'j'encule la prod et la proc Pendant qu'j'encule la prod et la proc On les fuck, on les smoke dans le blunt Nique la funk et les punks J'encule la keuba, moi j'vends pas d'CD Mais des mmes-gra, là c'est Heusla Dis pas mon zeubla, j'ai du raisin coffré Et des grosses rrettes-ba, d'la beuh tah Meuda Demande à JB, consommateur d'amnésia S'il faut j'me barre au Tibet pour vesqui la hnoucha Ici que des mouchards, des micros dans des mouchoirs Des feukeus se faufilent comme des cafards Encore un coup d'fil, perquis' dans l'teum-appar Eh, j'oublie pas les mecs au plac' qui font gonfler les pecs J'ai reconnu la plaque, c'est pas la BAC c'est la dép' Eh, j'oublie pas les mecs au plac' qui font gonfler les pecs J'ai reconnu la plaque, c'est pas la BAC c'est la dép' x4 J'fume de la drogue pendant qu'j'encule la prod et la proc Pendant qu'j'encule la prod et la proc On les fuck, on les smoke dans le blunt Nique la funk et les punks2</t>
+          <t>J'suis avec Heusslaga, on fume du bon taga À Marbella, on fini chez Carette, à Ollivier Valère J'suis vers Place du Trocadéro, j'suis en bas d'un tél-hô J'vais crosser deux boloss avec Baza et l'autre Appelle Jean, j'arrive au RDV en X-ADV Juste avant, j'suis au radar d'Clichy, j'bois un TGV Sur mon poignet, j'ai une Mercedes, BMW Pour l'espèce, y a des gens spéciaux qui viennent te soulever Les vendeurs sont dans la ville, les condés n'sont pas ravis Quttes-pla coupées, paraffine, argnt sale ou paradis ? D'mande à mon sin-c', d'mande à Bilal, on a r'tourné la capitale Avec Bourbier et BKR, bécane tu vas t'faire tirer d'ssus Pa-pa-paw Aujourd'hui, c'est VLG featuring Aragon Ouais Segel au mic', j'suis côté passager dans la va-go Y a d'la gue-dro et des mes-ar en bas du lavabo À cause de John Gotti, j'suis redevenu parano Paw-paw Bébé, mi corazón, elle a touché mon cur Paw-paw Bébé, mi corazón, elle a touché mon cur Paw-paw Les condés, à six heures, c'est pire qu'un film d'horreur Bébé, mi corazón, elle a touché mon cur, eh, eh J'arrive trop vite, appelez la police Connexion toxique, drogue dure et brolique Haute couture et grosse tre-mon, on roule souvent dans des stres-mon Pas possible de faire autrement, on a toujours l'comportement Si la tain-p', elle est enceinte, bah c'est direct l'avortement Paye cash le prix du mètre carré, poto, obligé d'être carré J'écris le texte, encore défoncé, j'ai pas décuvé Paw Gros bisou à vraiment toutes ces prostituées Elle m'excite tah les fous, la meuf qui bosse aux UV Eh Dis-moi qui te baise et on te dira qui tu es Libérez Yass à Villepinte, Lafel en mandât d'dépôt Des planques, des flingues, des autos, j'vais faire la guerre aux autres Pute, faut pointer, ennemis j'en ai plein sur mes cotes Si demain, j'me fais fumer, supprimez tous mes sons Insha'Allah, j'suis encore en vie pour la partie douze J'avais une puce qui fonctionnait déjà en 2012 Y a d'la gue-dro et des mes-ar en bas du lavabo À cause de John Gotti, j'suis redevenu parano Bébé, mi corazón, elle a touché mon cur Paw-paw Bébé, mi corazón, elle a touché mon cur Paw-paw Les condés, à six heures, c'est pire qu'un film d'horreur Bébé, mi corazón, elle a touché mon cur, eh, eh J'arrive trop vite, appelez la police Connexion toxique, drogue dure et brolique J'arrive trop vite, appelez la police Connexion toxique, drogue dure et brolique Eh, Gueule d'Ange</t>
         </is>
       </c>
     </row>
@@ -2243,12 +2243,12 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>John Gotti</t>
+          <t>Kalitada</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>J'suis avec Heusslaga, on fume du bon taga À Marbella, on fini chez Carette, à Ollivier Valère J'suis vers Place du Trocadéro, j'suis en bas d'un tél-hô J'vais crosser deux boloss avec Baza et l'autre Appelle Jean, j'arrive au RDV en X-ADV Juste avant, j'suis au radar d'Clichy, j'bois un TGV Sur mon poignet, j'ai une Mercedes, BMW Pour l'espèce, y a des gens spéciaux qui viennent te soulever Les vendeurs sont dans la ville, les condés n'sont pas ravis Quttes-pla coupées, paraffine, argnt sale ou paradis ? D'mande à mon sin-c', d'mande à Bilal, on a r'tourné la capitale Avec Bourbier et BKR, bécane tu vas t'faire tirer d'ssus Pa-pa-paw Aujourd'hui, c'est VLG featuring Aragon Ouais Segel au mic', j'suis côté passager dans la va-go Y a d'la gue-dro et des mes-ar en bas du lavabo À cause de John Gotti, j'suis redevenu parano Paw-paw Bébé, mi corazón, elle a touché mon cur Paw-paw Bébé, mi corazón, elle a touché mon cur Paw-paw Les condés, à six heures, c'est pire qu'un film d'horreur Bébé, mi corazón, elle a touché mon cur, eh, eh J'arrive trop vite, appelez la police Connexion toxique, drogue dure et brolique Haute couture et grosse tre-mon, on roule souvent dans des stres-mon Pas possible de faire autrement, on a toujours l'comportement Si la tain-p', elle est enceinte, bah c'est direct l'avortement Paye cash le prix du mètre carré, poto, obligé d'être carré J'écris le texte, encore défoncé, j'ai pas décuvé Paw Gros bisou à vraiment toutes ces prostituées Elle m'excite tah les fous, la meuf qui bosse aux UV Eh Dis-moi qui te baise et on te dira qui tu es Libérez Yass à Villepinte, Lafel en mandât d'dépôt Des planques, des flingues, des autos, j'vais faire la guerre aux autres Pute, faut pointer, ennemis j'en ai plein sur mes cotes Si demain, j'me fais fumer, supprimez tous mes sons Insha'Allah, j'suis encore en vie pour la partie douze J'avais une puce qui fonctionnait déjà en 2012 Y a d'la gue-dro et des mes-ar en bas du lavabo À cause de John Gotti, j'suis redevenu parano Bébé, mi corazón, elle a touché mon cur Paw-paw Bébé, mi corazón, elle a touché mon cur Paw-paw Les condés, à six heures, c'est pire qu'un film d'horreur Bébé, mi corazón, elle a touché mon cur, eh, eh J'arrive trop vite, appelez la police Connexion toxique, drogue dure et brolique J'arrive trop vite, appelez la police Connexion toxique, drogue dure et brolique Eh, Gueule d'Ange</t>
+          <t>Oh la la, la, la, la, la Hey LSB La mala est gangx Oh la la, la, la, la, la Ouais, ouais Hey, hey, ouh T'as l'seum, t'as l'seum Hey, j'suis sapé tout en Dior woaw J'vis seul, tout seul, tu m'dois, j'suis d'vant ta porte Hey, hey, hey J'sais qu'ils sont pas contents Hey, j'ai l'papier, j'ai pas l'temps Grr J'sais qu'ils sont pas contents Grr, grr, j'ai l'papier, j'ai pas l'temps Woah Ils veulent m'imiter Hey, c'est pas la même mélo' Hey, hey Ils veulent diviser Quoi ?, c'est pas le même réseau Hey, hey J'innove, j'innove, j'innove, j'ai du flow à l'unité J'fais qu'innover Qué-blo, qué-blo, qué-blo, on a frmé l'comité Hey, eh Sont devnus ches-lou, j'étais avec eux Pah Pour eux, j'suis équipé, bah ouais, va falloir m'éviter Grr, pah Tu traînais chez nous mais t'es avec eux Bitch Tu veux être invité ? Mais toi, t'es pas d'notre unité Hey, hey, eh Fini les blèmes-pro, c'est bon, j'ai payé mes impôts Fini les blèmes-pro J'suis dans le tempo, j't'ai donné ma parole d'escroc J'suis dans le tempo C'est la moulaga, c'est la moulaga Heuss la moula, c'est la remontada, sponsorisé Prada Hey, hey Faut pas s'inquiéter, on fait d'la qualité Qualité, quali', faut pas s'inquiéter, on fait d'la qualité Qualité Hey, tu t'f'ras bombarder si t'as trop tardé, bah ouais Grr, pah, tu t'f'ras bombarder si t'as trop tardé, bah ouais Grah Oh nan, pour avancer, j'ai dû barrer pas mal de gens Pas mal de gens Depuis qu'ça chante, j'ai d'l'argent, c'est alléchant C'est alléchant J'te calcule pas, j'suis pas gentil, j'suis pas méchant J'suis pas méchant, Bitch À tout moment, tu reviens comme Didier Deschamps À l'époque, j'demandais d'la force, ils m'disaient Nan, nan, nan, nan Hey Aujourd'hui, c'est moi qui rapporte, j'fais gonfler mon compte en banque Han À l'époque, j'demandais d'la force Hey, ils m'disaient Nan, nan, nan, nan Grr, grr Aujourd'hui, c'est moi qui rapporte, j'fais gonfler mon compte en banque Pa-pa-pa-pah Sont devenus ches-lou, j'étais avec eux Hey Pour eux, j'suis équipé, bah ouais, va falloir m'éviter Hey, hey, hey Tu traînais chez nous mais t'es avec eux Han, han Tu veux être invité ? Mais toi, t'es pas d'notre unité Grah Fini les blèmes-pro, c'est bon, j'ai payé mes impôts Payé mes impôts J'suis dans le tempo, j't'ai donné ma parole d'escroc J'suis dans le tempo C'est la moulaga, c'est la moulaga Hey, hey, c'est la remontada, sponsorisé Prada Grah, grr, pah Faut pas s'inquiéter, on fait d'la qualité Qualité, quali', faut pas s'inquiéter, on fait d'la qualité Qualité, quali' Hey, tu t'f'ras bombarder si t'as trop tardé, bah ouais Grr, pah, tu t'f'ras bombarder si t'as trop tardé, bah ouais Grah Qualité, quali' La mala est gangx Qualité, quali'</t>
         </is>
       </c>
     </row>
@@ -2260,12 +2260,12 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Kalitada</t>
+          <t>Kim Il Sung</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Oh la la, la, la, la, la Hey LSB La mala est gangx Oh la la, la, la, la, la Ouais, ouais Hey, hey, ouh T'as l'seum, t'as l'seum Hey, j'suis sapé tout en Dior woaw J'vis seul, tout seul, tu m'dois, j'suis d'vant ta porte Hey, hey, hey J'sais qu'ils sont pas contents Hey, j'ai l'papier, j'ai pas l'temps Grr J'sais qu'ils sont pas contents Grr, grr, j'ai l'papier, j'ai pas l'temps Woah Ils veulent m'imiter Hey, c'est pas la même mélo' Hey, hey Ils veulent diviser Quoi ?, c'est pas le même réseau Hey, hey J'innove, j'innove, j'innove, j'ai du flow à l'unité J'fais qu'innover Qué-blo, qué-blo, qué-blo, on a frmé l'comité Hey, eh Sont devnus ches-lou, j'étais avec eux Pah Pour eux, j'suis équipé, bah ouais, va falloir m'éviter Grr, pah Tu traînais chez nous mais t'es avec eux Bitch Tu veux être invité ? Mais toi, t'es pas d'notre unité Hey, hey, eh Fini les blèmes-pro, c'est bon, j'ai payé mes impôts Fini les blèmes-pro J'suis dans le tempo, j't'ai donné ma parole d'escroc J'suis dans le tempo C'est la moulaga, c'est la moulaga Heuss la moula, c'est la remontada, sponsorisé Prada Hey, hey Faut pas s'inquiéter, on fait d'la qualité Qualité, quali', faut pas s'inquiéter, on fait d'la qualité Qualité Hey, tu t'f'ras bombarder si t'as trop tardé, bah ouais Grr, pah, tu t'f'ras bombarder si t'as trop tardé, bah ouais Grah Oh nan, pour avancer, j'ai dû barrer pas mal de gens Pas mal de gens Depuis qu'ça chante, j'ai d'l'argent, c'est alléchant C'est alléchant J'te calcule pas, j'suis pas gentil, j'suis pas méchant J'suis pas méchant, Bitch À tout moment, tu reviens comme Didier Deschamps À l'époque, j'demandais d'la force, ils m'disaient Nan, nan, nan, nan Hey Aujourd'hui, c'est moi qui rapporte, j'fais gonfler mon compte en banque Han À l'époque, j'demandais d'la force Hey, ils m'disaient Nan, nan, nan, nan Grr, grr Aujourd'hui, c'est moi qui rapporte, j'fais gonfler mon compte en banque Pa-pa-pa-pah Sont devenus ches-lou, j'étais avec eux Hey Pour eux, j'suis équipé, bah ouais, va falloir m'éviter Hey, hey, hey Tu traînais chez nous mais t'es avec eux Han, han Tu veux être invité ? Mais toi, t'es pas d'notre unité Grah Fini les blèmes-pro, c'est bon, j'ai payé mes impôts Payé mes impôts J'suis dans le tempo, j't'ai donné ma parole d'escroc J'suis dans le tempo C'est la moulaga, c'est la moulaga Hey, hey, c'est la remontada, sponsorisé Prada Grah, grr, pah Faut pas s'inquiéter, on fait d'la qualité Qualité, quali', faut pas s'inquiéter, on fait d'la qualité Qualité, quali' Hey, tu t'f'ras bombarder si t'as trop tardé, bah ouais Grr, pah, tu t'f'ras bombarder si t'as trop tardé, bah ouais Grah Qualité, quali' La mala est gangx Qualité, quali'</t>
+          <t>J'suis l'genre de mec qui rattrape son sommeil en garde à vue son sommeil en garde à vue, garde à vue Eh Eh J'suis l'genre de mec qui rattrape son sommeil en garde à vue Il m'faut d'l'oseille pour ma bouteille, mon shit et mon baveux Oui Si tu m'vois, dis rien, fais comme si tu m'avais pas vu C'est vrai qu'j'me suis déjà mangé fantôme au parlu Skch, skch J'te laisse la bosseuse, j'm'en vais baiser la patronne Ska Qu Dieu m'pardonne d'être à l'affût du pactol À l'affût La vie d'ma mère, j'aurais dû finir dans la taxe carbone Putain À croire qu'j'ai fini l'jeu mais c'est que l'troisième album Tôt ou tard, j'savais qu'mon blase résonnerait comme Bruce Lee J'espère mourir à la fin du film comme Aniki C'est interdit que j'baise un truc qui sort du Babinski Fidèle à moi-même, pourtant, j'suis pas d'ici Laisse dont le déjeuner, c'qui importe, c'est le prix du blé Le fric Les mains dans l'feu, ici-bas, c'est l'Enfer qui t'fait du pied El Pablito Tu peux t'faire enculer par un mec comme Laurent Ruquier El Pablito C'est mérité, la vérité, en vrai, faut pas s'y fier Y a d'l'argent facile, du business, ouais, ça m'intéresse Ramenez-moi les conteneurs de Buenos Aires Ramène Ta mère la pute et la police, souvent, nous reconnaissent Les Le Mercedes, Guccigui, Versacce, v'là les Rolex Gros sac Mais j'préfère le cash, sac poubelle rempliegui d'espèce Gros coffre Finir obèse comme Gérard Depardieu et Pierre Ménès Gros sac Ramène d'la boisson, d'la salope et cent grammes de G13 D'la beuh Ramène d'la boisson, d'la salope et cent grammes de G13 D'la haze J'fume la kush, que d'la ppe-f', fais d'la monnaie cash Du cash Difficile de compter, comme le cash qu'on nique à 'kech Du cash Ça, c'est la vie d'César, Diego, Mario, Morientes J'pourrais baiser la comtesse, vider le tiroir-caisse Du cash Attends, j'ai pas fini, on peut continuer Jtraine où ya à boire, où ya v'là la fumée et les prostituées Toujours à Medellín, j'suis trop bien situé Wesh Avec Bandit et les esprits, on est habitués Appelle un sicario pour la distribuer Ramène Personne veut rentrer comme si on n'avait pas d'maison Argent comptant sur un plateau pendant les quatre saisons Pah La street de rue, c'est un vrai film de cul, un film d'action À la production, c'est Marc Dorcel avec Luc Besson Un rendez-vous bres-som la nuit à Plessis-Robinson Ici, les jaloux t'font la bise quand tu montes en grade Rah Y a pas qu'ta mère la pute qui sait la transformer en crack Ouais J'sors du sol, du sous-sol, j'ai perdu la boussole Quand j'ai la dalle pour de vrai, c'est là qu'j'vois qu'j'suis tout seul J'fais parler Bruxelles, chez moi, c'est Eindhoven C'est les cités, nan, c'est pas les Seychelles Eh, joue pas au con, s'te plaît, fais pas le coup du patron Comme Estelle, Michelle et Monique dans le camion Loro Piana, Louis Vuitton, j'reviens en Décathlon Nique sa mère le maire, le marathon, le Téléthon Sa mère, fils de pute Nomade et vagabond, qui v'-esqui les balles à plomb Vrai mec du 9.2 qui bosse pour zéro patron Monte sur tous les plavons, bé-tom pas pour un marron Enfoiré, c'est la rue, j'le connais bien, ton daron</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Kim Il Sung</t>
+          <t>La musique est bonne</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>J'suis l'genre de mec qui rattrape son sommeil en garde à vue son sommeil en garde à vue, garde à vue Eh Eh J'suis l'genre de mec qui rattrape son sommeil en garde à vue Il m'faut d'l'oseille pour ma bouteille, mon shit et mon baveux Oui Si tu m'vois, dis rien, fais comme si tu m'avais pas vu C'est vrai qu'j'me suis déjà mangé fantôme au parlu Skch, skch J'te laisse la bosseuse, j'm'en vais baiser la patronne Ska Qu Dieu m'pardonne d'être à l'affût du pactol À l'affût La vie d'ma mère, j'aurais dû finir dans la taxe carbone Putain À croire qu'j'ai fini l'jeu mais c'est que l'troisième album Tôt ou tard, j'savais qu'mon blase résonnerait comme Bruce Lee J'espère mourir à la fin du film comme Aniki C'est interdit que j'baise un truc qui sort du Babinski Fidèle à moi-même, pourtant, j'suis pas d'ici Laisse dont le déjeuner, c'qui importe, c'est le prix du blé Le fric Les mains dans l'feu, ici-bas, c'est l'Enfer qui t'fait du pied El Pablito Tu peux t'faire enculer par un mec comme Laurent Ruquier El Pablito C'est mérité, la vérité, en vrai, faut pas s'y fier Y a d'l'argent facile, du business, ouais, ça m'intéresse Ramenez-moi les conteneurs de Buenos Aires Ramène Ta mère la pute et la police, souvent, nous reconnaissent Les Le Mercedes, Guccigui, Versacce, v'là les Rolex Gros sac Mais j'préfère le cash, sac poubelle rempliegui d'espèce Gros coffre Finir obèse comme Gérard Depardieu et Pierre Ménès Gros sac Ramène d'la boisson, d'la salope et cent grammes de G13 D'la beuh Ramène d'la boisson, d'la salope et cent grammes de G13 D'la haze J'fume la kush, que d'la ppe-f', fais d'la monnaie cash Du cash Difficile de compter, comme le cash qu'on nique à 'kech Du cash Ça, c'est la vie d'César, Diego, Mario, Morientes J'pourrais baiser la comtesse, vider le tiroir-caisse Du cash Attends, j'ai pas fini, on peut continuer Jtraine où ya à boire, où ya v'là la fumée et les prostituées Toujours à Medellín, j'suis trop bien situé Wesh Avec Bandit et les esprits, on est habitués Appelle un sicario pour la distribuer Ramène Personne veut rentrer comme si on n'avait pas d'maison Argent comptant sur un plateau pendant les quatre saisons Pah La street de rue, c'est un vrai film de cul, un film d'action À la production, c'est Marc Dorcel avec Luc Besson Un rendez-vous bres-som la nuit à Plessis-Robinson Ici, les jaloux t'font la bise quand tu montes en grade Rah Y a pas qu'ta mère la pute qui sait la transformer en crack Ouais J'sors du sol, du sous-sol, j'ai perdu la boussole Quand j'ai la dalle pour de vrai, c'est là qu'j'vois qu'j'suis tout seul J'fais parler Bruxelles, chez moi, c'est Eindhoven C'est les cités, nan, c'est pas les Seychelles Eh, joue pas au con, s'te plaît, fais pas le coup du patron Comme Estelle, Michelle et Monique dans le camion Loro Piana, Louis Vuitton, j'reviens en Décathlon Nique sa mère le maire, le marathon, le Téléthon Sa mère, fils de pute Nomade et vagabond, qui v'-esqui les balles à plomb Vrai mec du 9.2 qui bosse pour zéro patron Monte sur tous les plavons, bé-tom pas pour un marron Enfoiré, c'est la rue, j'le connais bien, ton daron</t>
+          <t>Zeg P on the track, bitch! Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Ça bibi', ça bibi' dans l'bât' à Monica Ça bibi', ça bibi' dans l'bât' à Monica Ça joue d'l'harmonica dans l'bât' à Monica Ça bibi', ça bibi' dans l'bât' à Monica Verre de Jack Honey, mais qui se connait ? Et y a cette folle, celle qui michtonne Tu connais un mec qui m'connait et ça m'étonne Il vend des tonnes, j'crois qu'il mythonne Il a la Rolex tah son collègue Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Ça bibi', ça bibi' dans l'bât' à Monica Ça bibi', ça bibi' dans l'bât' à Monica Ça joue d'l'harmonica dans l'bât' à Monica Ça bibi', ça bibi' dans l'bât' à Monica J'suis défoncé dans le bât' à Monica Six heures du mat', j'ai v'-esqui tous les mbila Quand on arrive vite, ils demandent tous C'est qui là ? Ramène le Dom Pé', le Ruinart, la Tequila Là, c'est Heuss et Naza, la débauche, la moulaga Là, c'est Heuss et Naza, la débauche, la moulaga Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Ça bibi', ça bibi' dans l'bât' à Monica Ça bibi', ça bibi' dans l'bât' à Monica Ça joue d'l'harmonica dans l'bât' à Monica Ça bibi', ça bibi' dans l'bât' à Monica Si la khapta s'arrête, c'est qu'j'suis mort, vous le savez On revient foutre la merde et on la remet c'tt'année Si la khapta s'arrête, c'est qu'j'suis mort, vous le savez On revient foutre la merde et on la remet c'tt'année Ouais, ouais, on est en esprit vraiment, on est dans l'cartel Ouais, ouais, ouais</t>
         </is>
       </c>
     </row>
@@ -2294,12 +2294,12 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>La musique est bonne</t>
+          <t>La Raclure</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Zeg P on the track, bitch! Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Ça bibi', ça bibi' dans l'bât' à Monica Ça bibi', ça bibi' dans l'bât' à Monica Ça joue d'l'harmonica dans l'bât' à Monica Ça bibi', ça bibi' dans l'bât' à Monica Verre de Jack Honey, mais qui se connait ? Et y a cette folle, celle qui michtonne Tu connais un mec qui m'connait et ça m'étonne Il vend des tonnes, j'crois qu'il mythonne Il a la Rolex tah son collègue Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Ça bibi', ça bibi' dans l'bât' à Monica Ça bibi', ça bibi' dans l'bât' à Monica Ça joue d'l'harmonica dans l'bât' à Monica Ça bibi', ça bibi' dans l'bât' à Monica J'suis défoncé dans le bât' à Monica Six heures du mat', j'ai v'-esqui tous les mbila Quand on arrive vite, ils demandent tous C'est qui là ? Ramène le Dom Pé', le Ruinart, la Tequila Là, c'est Heuss et Naza, la débauche, la moulaga Là, c'est Heuss et Naza, la débauche, la moulaga Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Quand la musique est bonne et au-delà Ça bibi', ça bibi' dans l'bât' à Monica Ça bibi', ça bibi' dans l'bât' à Monica Ça joue d'l'harmonica dans l'bât' à Monica Ça bibi', ça bibi' dans l'bât' à Monica Si la khapta s'arrête, c'est qu'j'suis mort, vous le savez On revient foutre la merde et on la remet c'tt'année Si la khapta s'arrête, c'est qu'j'suis mort, vous le savez On revient foutre la merde et on la remet c'tt'année Ouais, ouais, on est en esprit vraiment, on est dans l'cartel Ouais, ouais, ouais</t>
+          <t>Il a plus d'amour, plus d'humour, pour toujours Skch, il fait d'la pub pour sa pute, vas-y, cours toujours Skch À l'époque, c'était un enfoiré, une genre d'enflure, maintenant qu'il a gé-man, c'est devenu une vraie ordure L'argent, la nourriture, la pointure de toutes les raclures Tiens, il a toutes les raclis mais il va baiser la Khalti Ouais Il paie pas les factures, il aime quand c'est gratuit Ouais, une vraie pourriture connue comme Berlusconi La vie d'Ronnie avant la saisie, les pâtes Butoni, il aim pas trop les réunions, leurs grandes cérémonis Il prend jamais d'parti, il a de l'amour que pour lui Ouais, il baise demain, hier, il s'la fait encore aujourd'hui Côté pass', il roule un teh, c'est pas lui qui conduit, il fait du bruit tous les jours, c'est la même qui reproduit Ouais Le p'tit Grande a bien grandi comme Salman Rushdide Avec les mêmes, ça recommence avec les mêmes pratiques Prend la route sans casques comme les putes qui baisent sans plastique, tous les jours sur l'terrain, il revit le même casting Il s'farcit des putes faciles qui portaient même pas d'string, quand il galère, il va boire à porte d'Auber' chez Braville Déjà adolescent, vraiment très mauvais élève, absent et turbulent, il bédave dès le collège Il fait tôt d'la GAV, la juge pour enfants s'énerve Skch, sa daronne en bave et son Pater lui pète les lèvres Tiens Mais rien à foutre, c'est dans la street de rue qu'il persévère Tiens, Valentini l'envoie dans un foyer très périlleux Quoi ? C'est une ficelle, le p'tit Rilès prend rien au sérieux, à peine seize ans et il commence déjà à s'faire vieux Connais les Vices d'la capitale du sud à l'ouest Du sud à l'ouest, raquette le D500 des boloss dans le RER À la sortie des écoles privées qui coûtent un peu cher, avec Zepek, il peut pas s'arrêter d'les raquetter La vie d'ma mère, j'te dis qu'il volait, dealait tout l'été, fumait très tôt, sur MSN, déjà déconnecté Deux fois qu'il fait d'la taule avant d's'acheter une carabine, dans l'hall, ça pue la pisse mélangée à la scarlatine Il boit pas d'Selecto, le poto préfère le Coca Coca, te-shi, vodka, tout ça toujours pas très loin d'la boca Boca Regarde toujours si y a bien la kippa sur l'avocat, prends-lui pas machin qui vend son âme au Diable Nan Si tu veux, c'est un malade, il est impardonnable Eh, la hess, la politique, c'est pas trop sa limonade Eh Il aime la ge-pla, piscine, grillades et citronnade, suppôt d'Satan, que pour l'argent, appelle-le come tu veux C'est vraiment ténébreux, t'façon, l'poto fait les deux, peu importe la provenance, tous les jours, il fait des eu' , du fils du pote, ça lé-par, , la raclure, c'est une ordure que sur la mauvaise pente Il reçoit un colis qui vient tout droit d'Alicante, que des offres alléchantes pendant qu'chez nous, Ali chante Que des putes sur putes, putain, c'est pas un exemple, c'est lui-même qui représente, il met rien à son blase Même pas le gosse, pas la gov', que des arobases, il est là à l'occas' quand y a un plan ou l'argent des showcases Nouvelle caisse, nouvelle montre, en plus, c'est pas d'l'occas' Nouvelle caisse, nouvelle montre, en plus, c'est pas d'l'occas'</t>
         </is>
       </c>
     </row>
@@ -2311,12 +2311,12 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>La Raclure</t>
+          <t>Le crime</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Il a plus d'amour, plus d'humour, pour toujours Skch, il fait d'la pub pour sa pute, vas-y, cours toujours Skch À l'époque, c'était un enfoiré, une genre d'enflure, maintenant qu'il a gé-man, c'est devenu une vraie ordure L'argent, la nourriture, la pointure de toutes les raclures Tiens, il a toutes les raclis mais il va baiser la Khalti Ouais Il paie pas les factures, il aime quand c'est gratuit Ouais, une vraie pourriture connue comme Berlusconi La vie d'Ronnie avant la saisie, les pâtes Butoni, il aim pas trop les réunions, leurs grandes cérémonis Il prend jamais d'parti, il a de l'amour que pour lui Ouais, il baise demain, hier, il s'la fait encore aujourd'hui Côté pass', il roule un teh, c'est pas lui qui conduit, il fait du bruit tous les jours, c'est la même qui reproduit Ouais Le p'tit Grande a bien grandi comme Salman Rushdide Avec les mêmes, ça recommence avec les mêmes pratiques Prend la route sans casques comme les putes qui baisent sans plastique, tous les jours sur l'terrain, il revit le même casting Il s'farcit des putes faciles qui portaient même pas d'string, quand il galère, il va boire à porte d'Auber' chez Braville Déjà adolescent, vraiment très mauvais élève, absent et turbulent, il bédave dès le collège Il fait tôt d'la GAV, la juge pour enfants s'énerve Skch, sa daronne en bave et son Pater lui pète les lèvres Tiens Mais rien à foutre, c'est dans la street de rue qu'il persévère Tiens, Valentini l'envoie dans un foyer très périlleux Quoi ? C'est une ficelle, le p'tit Rilès prend rien au sérieux, à peine seize ans et il commence déjà à s'faire vieux Connais les Vices d'la capitale du sud à l'ouest Du sud à l'ouest, raquette le D500 des boloss dans le RER À la sortie des écoles privées qui coûtent un peu cher, avec Zepek, il peut pas s'arrêter d'les raquetter La vie d'ma mère, j'te dis qu'il volait, dealait tout l'été, fumait très tôt, sur MSN, déjà déconnecté Deux fois qu'il fait d'la taule avant d's'acheter une carabine, dans l'hall, ça pue la pisse mélangée à la scarlatine Il boit pas d'Selecto, le poto préfère le Coca Coca, te-shi, vodka, tout ça toujours pas très loin d'la boca Boca Regarde toujours si y a bien la kippa sur l'avocat, prends-lui pas machin qui vend son âme au Diable Nan Si tu veux, c'est un malade, il est impardonnable Eh, la hess, la politique, c'est pas trop sa limonade Eh Il aime la ge-pla, piscine, grillades et citronnade, suppôt d'Satan, que pour l'argent, appelle-le come tu veux C'est vraiment ténébreux, t'façon, l'poto fait les deux, peu importe la provenance, tous les jours, il fait des eu' , du fils du pote, ça lé-par, , la raclure, c'est une ordure que sur la mauvaise pente Il reçoit un colis qui vient tout droit d'Alicante, que des offres alléchantes pendant qu'chez nous, Ali chante Que des putes sur putes, putain, c'est pas un exemple, c'est lui-même qui représente, il met rien à son blase Même pas le gosse, pas la gov', que des arobases, il est là à l'occas' quand y a un plan ou l'argent des showcases Nouvelle caisse, nouvelle montre, en plus, c'est pas d'l'occas' Nouvelle caisse, nouvelle montre, en plus, c'est pas d'l'occas'</t>
+          <t>Voluptyk, Voluptyk Zone 6 ou 13002 Zone 6 ou 13002, secteur tah les stupe', eh Zone 6 ou 13002, secteur tah les stupe', eh Zone 6 ou 13002, secteur tah les stupe' Dans l'que-tru de la zipette, et ça depuis tit-pe Que des manshugou, corde au cou Regard doux, on est partougou Dans la zone 6, rapzougou Y en a pour tous les nasaux, la frappe tah la NASA J'pose tout chez la nourrice, j'laisse rien à la casa J'appelle le maire quand j'vais au 129 Digestion avec un gros joint d'ppe-f' Le terrain tourne depuis 89 Eh, eh, arrête d'chanter et viens dans la zone 6, que des sicarios Y a même pas un grossiste, la nourrice nous garde tout gratos On gère le terrain, la musique, la gue-dro, les bastos Plein d'trucs dans la sacoche, regarde la gueule des gosses Dé-dé-décale, la bécane démarre pas, vas-y, viens faire les cosses On vient faire une razia complète, y aura aucune négoc' La moumou, vas-y, viens, si ça marche pas, ramène une citadine Fais conduire la p'tite Amandine, on revient d'Argentine Fais pas de vidéo, prends la photo et benda aussitôt Avant tout ça, j'faisais d'la taule et tous les comico Train d'vie tah les bâtards, j'claque les sous du Qatar Pour des potes qui m'enverront pas une seule recharge au mitard Il s'fait tard, j'roule un dernier tah, j'lui fais l'amour comme si j'sortais du shtar Elle m'dit bébé, j'prends mes affaires, j'me barre Dans l'appart', c'est l'Mexique, c'est l'Maroc, c'est l'Pérou Dans l'ghetto, vrai frérot se fait rare comme permis 2 roues Soit j'deviens une star ou soit j'finis au shtar ou T'étais pas là quand ça stagnait, fils de, m'dis pas On s'barre où ? Le malheur des uns fait le bonheur des fils de pute La réussite, ça attire les dou3as pour qu'tu chutes Ta passe, elle pue sa mère, comment tu veux qu'j'mette le but ? Comment prouver ? J'suis rentré, il reste deux minutes Ah, j'suis rentré, il reste deux minutes Il reste deux minutes Pff, j'ai envie d'mettre un putain d'but en lucarne, sa mère Pa-Pa-Pa-Paris la nuit, c'est la Californie Des moulaga encore en vie comme Annie Cordy Super dégourdi, j'te l'dis, j'te l'redis, on fait plus de crédit Les mauvais payeurs depuis l'époque, ça m'a vite refroidit É-é-écoute la mélodie de la Porte d'Aix à Porte de Clichy Fais pas de chichi, j'suis avec Cheche, remplis son flashy Y a v'là les trous de ballon, Gianni, Versacce, collection Gucci Dans l'compte nickel, y a tchi On fait que d'la magie, cerveau endommagé, ramène le Taittinger avec 25 g Un plavon avec zéro gros dangers On veut manger, p'tit bâtard, on veut manger Bipe le G, sur signal, gros, j'récupère le 200 g Livraison 30 minutes chrono, rapide, c'est léger Gestionnaire des bénéfices comme un PDG Zone 6 ou 13002, secteur tah les stupe' Dans l'que-tru de la zipette, et ça depuis tit-pe Que des manshugou, corde au cou Regard doux, on est partougou Dans la zone 6, rapzougou Y en a pour tous les nasaux, la frappe tah la NASA J'pose tout chez la nourrice, j'laisse rien à la casa J'appelle le maire quand j'vais au 129 Digestion avec un gros joint d'ppe-f' Le terrain tourne depuis 89 Zone 6 ou 13002, secteur tah les stupe' Dans l'que-tru de la zipette, et ça depuis tit-pe Que des manshugou, corde au cou Regard doux, on est partougou Dans la zone 6, rapzougou Y en a pour tous les nasaux, la frappe tah la NASA J'pose tout chez la nourrice, j'laisse rien à la casa J'appelle le maire quand j'vais au 129 Digestion avec un gros joint d'ppe-f' Le terrain tourne depuis 89 Le malheur des uns fait le bonheur des fils de pute La réussite, ça attire les dou3as pour qu'tu chutes Ta passe, elle pue sa mère, comment tu veux qu'j'mette le but ? Comment prouver ? J'suis rentré, il reste deux minutes Ah, j'suis rentré, il reste deux minutes Il reste deux minutes</t>
         </is>
       </c>
     </row>
@@ -2328,12 +2328,12 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Le crime</t>
+          <t>Les frères</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Voluptyk, Voluptyk Zone 6 ou 13002 Zone 6 ou 13002, secteur tah les stupe', eh Zone 6 ou 13002, secteur tah les stupe', eh Zone 6 ou 13002, secteur tah les stupe' Dans l'que-tru de la zipette, et ça depuis tit-pe Que des manshugou, corde au cou Regard doux, on est partougou Dans la zone 6, rapzougou Y en a pour tous les nasaux, la frappe tah la NASA J'pose tout chez la nourrice, j'laisse rien à la casa J'appelle le maire quand j'vais au 129 Digestion avec un gros joint d'ppe-f' Le terrain tourne depuis 89 Eh, eh, arrête d'chanter et viens dans la zone 6, que des sicarios Y a même pas un grossiste, la nourrice nous garde tout gratos On gère le terrain, la musique, la gue-dro, les bastos Plein d'trucs dans la sacoche, regarde la gueule des gosses Dé-dé-décale, la bécane démarre pas, vas-y, viens faire les cosses On vient faire une razia complète, y aura aucune négoc' La moumou, vas-y, viens, si ça marche pas, ramène une citadine Fais conduire la p'tite Amandine, on revient d'Argentine Fais pas de vidéo, prends la photo et benda aussitôt Avant tout ça, j'faisais d'la taule et tous les comico Train d'vie tah les bâtards, j'claque les sous du Qatar Pour des potes qui m'enverront pas une seule recharge au mitard Il s'fait tard, j'roule un dernier tah, j'lui fais l'amour comme si j'sortais du shtar Elle m'dit bébé, j'prends mes affaires, j'me barre Dans l'appart', c'est l'Mexique, c'est l'Maroc, c'est l'Pérou Dans l'ghetto, vrai frérot se fait rare comme permis 2 roues Soit j'deviens une star ou soit j'finis au shtar ou T'étais pas là quand ça stagnait, fils de, m'dis pas On s'barre où ? Le malheur des uns fait le bonheur des fils de pute La réussite, ça attire les dou3as pour qu'tu chutes Ta passe, elle pue sa mère, comment tu veux qu'j'mette le but ? Comment prouver ? J'suis rentré, il reste deux minutes Ah, j'suis rentré, il reste deux minutes Il reste deux minutes Pff, j'ai envie d'mettre un putain d'but en lucarne, sa mère Pa-Pa-Pa-Paris la nuit, c'est la Californie Des moulaga encore en vie comme Annie Cordy Super dégourdi, j'te l'dis, j'te l'redis, on fait plus de crédit Les mauvais payeurs depuis l'époque, ça m'a vite refroidit É-é-écoute la mélodie de la Porte d'Aix à Porte de Clichy Fais pas de chichi, j'suis avec Cheche, remplis son flashy Y a v'là les trous de ballon, Gianni, Versacce, collection Gucci Dans l'compte nickel, y a tchi On fait que d'la magie, cerveau endommagé, ramène le Taittinger avec 25 g Un plavon avec zéro gros dangers On veut manger, p'tit bâtard, on veut manger Bipe le G, sur signal, gros, j'récupère le 200 g Livraison 30 minutes chrono, rapide, c'est léger Gestionnaire des bénéfices comme un PDG Zone 6 ou 13002, secteur tah les stupe' Dans l'que-tru de la zipette, et ça depuis tit-pe Que des manshugou, corde au cou Regard doux, on est partougou Dans la zone 6, rapzougou Y en a pour tous les nasaux, la frappe tah la NASA J'pose tout chez la nourrice, j'laisse rien à la casa J'appelle le maire quand j'vais au 129 Digestion avec un gros joint d'ppe-f' Le terrain tourne depuis 89 Zone 6 ou 13002, secteur tah les stupe' Dans l'que-tru de la zipette, et ça depuis tit-pe Que des manshugou, corde au cou Regard doux, on est partougou Dans la zone 6, rapzougou Y en a pour tous les nasaux, la frappe tah la NASA J'pose tout chez la nourrice, j'laisse rien à la casa J'appelle le maire quand j'vais au 129 Digestion avec un gros joint d'ppe-f' Le terrain tourne depuis 89 Le malheur des uns fait le bonheur des fils de pute La réussite, ça attire les dou3as pour qu'tu chutes Ta passe, elle pue sa mère, comment tu veux qu'j'mette le but ? Comment prouver ? J'suis rentré, il reste deux minutes Ah, j'suis rentré, il reste deux minutes Il reste deux minutes</t>
+          <t>Gang, gang Keybee on the track M.I.G Moula RJacks Impossible d'arriver en retard, c'est mon reuf qui gère J'ai pris l'sac à midi, il m'a montré toutes les cachettes Impossible d'arriver en retard, c'est mon reuf qui gère Gang J'ai pris l'sac à midi Grr, il m'a montré toutes les cachettes Paw Tout l'monde en position, celui qui vend, celui qui guette Paw, paw Plusieurs bombonnes à vider, j'ai bien compris qu'la mort s'achète Gang Les p'tits d'viennent impolis Gang, les grands tapent dans la zip' Grr Le rspect s'perd dans les rulles, là où y a plus d'estime Paw J'veux plus jamais dormir en taule pour des stories bidons Nan Regarde ce mec qu'a perdu la vie pour moins d'un litron Gang C'est que d'la plata, me-chro, amnésia, cocaïne Couscous, tajine, riz, poulet-gué, dakatine Heuss L'enfoiré et M.I.G Moula, on assassine J'ai vu ma tête à la télé, dans tous les magazines 'zines J't'avais dit, c'était mon cousin dans le magasin 'sin C'est moi la moulaga, j'ai du vécu comme Joe Dassin Skch J'suis comme les autres, j'ai voyagé avec un faux vaccin Ils ont pété tous les bosseurs, faut un nouveau tartin C'est pour les frères d'en haut Grr, c'est pour les frères d'en bas Paw C'est pour les frères qui charbonnent, que ce soit propre ou sale C'est pour les frères au shtar Gang, Nanterre, Fleury, Bois d'Ar' Et tous les autres placards Grr, rah, t'inquiète, le temps, il passe Paw C'est pour les frères d'en haut Gang et les frères d'en bas, M.I.G Moula, Heuss la moula On fait ça carré, très bien installés Faut tout niquer c't'année Gang, on est bien installés C'est pour les frères d'en haut Paw et les frères d'en bas, M.I.G Moula Gang, Heuss la moula Grr On fait ça carré, très bien installés Faut tout niquer c't'année, on est bien installés Gang J'suis sorti tôt, l'célibataire Grr, le pote, il m'parle affaires Paw Ça laisse des corps à terre pour d'l'insolence ou pour du teh Gang Fin d'soirée-gué, ça va t'pister pour tirer ta mallette Gang Golf 8, y a les palettes Palettes, armes à feu, pas d'arbalète Gang Ça part en chasse, personne s'arrête, j'baisse la vitre, j'pète une cigarette Brr J'fais l'même salaire que Tavarez Gang, j'regrette pas ma vie d'avant Nan J'ai perdu des amis, des proches et un peu trop d'argent Merde J'ai compris p't-être un peu trop tard que les gens, c'est des putes Poh, poh Mon entourage à la con me dit que j'déconne En attendant, c'est showcases, concerts, gros album Tiens J'te mens pas, j'arrive plus à m'les voir Skch Heureusement qu'il m'reste encore à boire Comme un con, j'remets ça tous les soirs Pour la plupart, avant qu'ça part, on finira bus-bar mais là, j'ai bu tout l'bar J'suis pas un charlatan, challenger, évidemment qu'j'suis un Avengers Mon cousin demande l'heure, le salaire de Jean 2 Makoun Que des putes et d'la drogue à tous les carrefours Monte à bord, mon cousin savoure, surveillant ouvre la porte, j'crois bien qu'c'est mon tour Pour tous les mecs dans la cour, postés dans la tour Loin d'porter les courses à ta mère, fais la cour à ta sur, t'as pas vu qu'c'est la guerre ? Paris, c'est la merde, bah ouais, ça sent la gerbe Toi qui voulais manger, t'auras que des branches d'herbe C'est pour les frères d'en haut Gang, c'est pour les frères d'en bas Gang C'est pour les frères qui charbonnent, que ce soit propre ou sale Paw, paw, paw C'est pour les frères au shtar Nanterre, Fleury, Bois d'Ar' Grr Et tous les autres placards, t'inquiète, le temps, il passe Paw, paw, paw C'est pour les frères d'en haut Gang et les frères d'en bas, M.I.G Moula, Heuss la moula On fait ça carré, très bien installés Faut tout niquer c't'année, on est bien installés C'est pour les frères d'en haut et les frères d'en bas, M.I.G Moula, Heuss la moula On fait ça carré, très bien installés Faut tout niquer c't'année, on est bien installés Gang C'est pour les frères d'en haut et les frères d'en bas C'est pour les frères d'en haut et les frères d'en bas Grr, paw, paw C'est pour les frères d'en haut Gang et les frères d'en bas M.I.G Moula, Heuss la moula On fait ça carré, très bien installés</t>
         </is>
       </c>
     </row>
@@ -2345,12 +2345,12 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Les frères</t>
+          <t>Life</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Gang, gang Keybee on the track M.I.G Moula RJacks Impossible d'arriver en retard, c'est mon reuf qui gère J'ai pris l'sac à midi, il m'a montré toutes les cachettes Impossible d'arriver en retard, c'est mon reuf qui gère Gang J'ai pris l'sac à midi Grr, il m'a montré toutes les cachettes Paw Tout l'monde en position, celui qui vend, celui qui guette Paw, paw Plusieurs bombonnes à vider, j'ai bien compris qu'la mort s'achète Gang Les p'tits d'viennent impolis Gang, les grands tapent dans la zip' Grr Le rspect s'perd dans les rulles, là où y a plus d'estime Paw J'veux plus jamais dormir en taule pour des stories bidons Nan Regarde ce mec qu'a perdu la vie pour moins d'un litron Gang C'est que d'la plata, me-chro, amnésia, cocaïne Couscous, tajine, riz, poulet-gué, dakatine Heuss L'enfoiré et M.I.G Moula, on assassine J'ai vu ma tête à la télé, dans tous les magazines 'zines J't'avais dit, c'était mon cousin dans le magasin 'sin C'est moi la moulaga, j'ai du vécu comme Joe Dassin Skch J'suis comme les autres, j'ai voyagé avec un faux vaccin Ils ont pété tous les bosseurs, faut un nouveau tartin C'est pour les frères d'en haut Grr, c'est pour les frères d'en bas Paw C'est pour les frères qui charbonnent, que ce soit propre ou sale C'est pour les frères au shtar Gang, Nanterre, Fleury, Bois d'Ar' Et tous les autres placards Grr, rah, t'inquiète, le temps, il passe Paw C'est pour les frères d'en haut Gang et les frères d'en bas, M.I.G Moula, Heuss la moula On fait ça carré, très bien installés Faut tout niquer c't'année Gang, on est bien installés C'est pour les frères d'en haut Paw et les frères d'en bas, M.I.G Moula Gang, Heuss la moula Grr On fait ça carré, très bien installés Faut tout niquer c't'année, on est bien installés Gang J'suis sorti tôt, l'célibataire Grr, le pote, il m'parle affaires Paw Ça laisse des corps à terre pour d'l'insolence ou pour du teh Gang Fin d'soirée-gué, ça va t'pister pour tirer ta mallette Gang Golf 8, y a les palettes Palettes, armes à feu, pas d'arbalète Gang Ça part en chasse, personne s'arrête, j'baisse la vitre, j'pète une cigarette Brr J'fais l'même salaire que Tavarez Gang, j'regrette pas ma vie d'avant Nan J'ai perdu des amis, des proches et un peu trop d'argent Merde J'ai compris p't-être un peu trop tard que les gens, c'est des putes Poh, poh Mon entourage à la con me dit que j'déconne En attendant, c'est showcases, concerts, gros album Tiens J'te mens pas, j'arrive plus à m'les voir Skch Heureusement qu'il m'reste encore à boire Comme un con, j'remets ça tous les soirs Pour la plupart, avant qu'ça part, on finira bus-bar mais là, j'ai bu tout l'bar J'suis pas un charlatan, challenger, évidemment qu'j'suis un Avengers Mon cousin demande l'heure, le salaire de Jean 2 Makoun Que des putes et d'la drogue à tous les carrefours Monte à bord, mon cousin savoure, surveillant ouvre la porte, j'crois bien qu'c'est mon tour Pour tous les mecs dans la cour, postés dans la tour Loin d'porter les courses à ta mère, fais la cour à ta sur, t'as pas vu qu'c'est la guerre ? Paris, c'est la merde, bah ouais, ça sent la gerbe Toi qui voulais manger, t'auras que des branches d'herbe C'est pour les frères d'en haut Gang, c'est pour les frères d'en bas Gang C'est pour les frères qui charbonnent, que ce soit propre ou sale Paw, paw, paw C'est pour les frères au shtar Nanterre, Fleury, Bois d'Ar' Grr Et tous les autres placards, t'inquiète, le temps, il passe Paw, paw, paw C'est pour les frères d'en haut Gang et les frères d'en bas, M.I.G Moula, Heuss la moula On fait ça carré, très bien installés Faut tout niquer c't'année, on est bien installés C'est pour les frères d'en haut et les frères d'en bas, M.I.G Moula, Heuss la moula On fait ça carré, très bien installés Faut tout niquer c't'année, on est bien installés Gang C'est pour les frères d'en haut et les frères d'en bas C'est pour les frères d'en haut et les frères d'en bas Grr, paw, paw C'est pour les frères d'en haut Gang et les frères d'en bas M.I.G Moula, Heuss la moula On fait ça carré, très bien installés</t>
+          <t>À chaque fois, tu refais la même chose, j'me dis Laisse J'ai mis beaucoup d'élastiques autour d'ma liasse Elle boit d'la téquila, madame se met à l'aise À chaque fois qu'on baise, elle se transforme en tigresse En bas, c'est la loose, Hennessy, Jack Daniel's Ça t'vend d'la coca' blanche comme Eminem Elle sait que j'ai passé ma vie dans le bâtiment Life J'ai zoné, j'ai vendu, j'ai volé en bas d'chez moi Oh, mon dieu, j'redoute le châtiment C'est des mannequins qui défilent, ou c'est des clients Cramés sur Paname, viens, on s'fait la malle Aïe, aïe, aïe Laisse-moi faire ma life, laisse-moi faire ma maille Aïe, aïe, aïe Cramés sur Paname, viens, on s'fait la malle Aïe, aïe, aïe Laisse-moi faire ma life, laisse-moi faire ma maille Aïe, aïe, aïe J'suis dans mes pensées j'éclaircis ton beau visage J'ai tout dépensé mais j'me r'fais, tu connais l'bail J'm'en roule un dernier, j'm'endors dans le cinq étoiles J'repense au passé, défoncé vers la Eiffel Tower J'suis dans l'4x4 black, les vitres teintées, j'suis grillé, j'ai laissé aux hesses un billet Un tas d'mauvais j'sais plus à qui m'fier, un tas d'mauvais j'sais plus à qui m'fier RR 1000 pas très loin d'Guéliz, elle crie mon blase mais hier, j'ai niqué la valise Purple Haze, j'ai du mal à atterir, si tu m'suis, bébé, c'est à tes risques Elle sait que j'ai passé ma vie dans le bâtiment Life J'ai zoné, j'ai vendu, j'ai volé en bas d'chez moi Oh, mon dieu, j'redoute le châtiment C'est des mannequins qui défilent, Cramés sur Paname, viens, on s'fait la malle Aïe, aïe, aïe Laisse-moi faire ma life, laisse-moi faire ma maille Aïe, aïe, aïe Cramés sur Paname, viens, on s'fait la malle Aïe, aïe, aïe Laisse-moi faire ma life, laisse-moi faire ma maille Aïe, aïe, aïe J'suis dans mes pensées j'éclaircis ton beau visage J'ai tout dépensé mais j'me r'fais, tu connais l'bail J'm'en roule un dernier, j'm'endors dans le cinq étoiles J'repense au passé, défoncé vers la Eiffel Tower</t>
         </is>
       </c>
     </row>
@@ -2362,12 +2362,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Life</t>
+          <t>Localisé</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>À chaque fois, tu refais la même chose, j'me dis Laisse J'ai mis beaucoup d'élastiques autour d'ma liasse Elle boit d'la téquila, madame se met à l'aise À chaque fois qu'on baise, elle se transforme en tigresse En bas, c'est la loose, Hennessy, Jack Daniel's Ça t'vend d'la coca' blanche comme Eminem Elle sait que j'ai passé ma vie dans le bâtiment Life J'ai zoné, j'ai vendu, j'ai volé en bas d'chez moi Oh, mon dieu, j'redoute le châtiment C'est des mannequins qui défilent, ou c'est des clients Cramés sur Paname, viens, on s'fait la malle Aïe, aïe, aïe Laisse-moi faire ma life, laisse-moi faire ma maille Aïe, aïe, aïe Cramés sur Paname, viens, on s'fait la malle Aïe, aïe, aïe Laisse-moi faire ma life, laisse-moi faire ma maille Aïe, aïe, aïe J'suis dans mes pensées j'éclaircis ton beau visage J'ai tout dépensé mais j'me r'fais, tu connais l'bail J'm'en roule un dernier, j'm'endors dans le cinq étoiles J'repense au passé, défoncé vers la Eiffel Tower J'suis dans l'4x4 black, les vitres teintées, j'suis grillé, j'ai laissé aux hesses un billet Un tas d'mauvais j'sais plus à qui m'fier, un tas d'mauvais j'sais plus à qui m'fier RR 1000 pas très loin d'Guéliz, elle crie mon blase mais hier, j'ai niqué la valise Purple Haze, j'ai du mal à atterir, si tu m'suis, bébé, c'est à tes risques Elle sait que j'ai passé ma vie dans le bâtiment Life J'ai zoné, j'ai vendu, j'ai volé en bas d'chez moi Oh, mon dieu, j'redoute le châtiment C'est des mannequins qui défilent, Cramés sur Paname, viens, on s'fait la malle Aïe, aïe, aïe Laisse-moi faire ma life, laisse-moi faire ma maille Aïe, aïe, aïe Cramés sur Paname, viens, on s'fait la malle Aïe, aïe, aïe Laisse-moi faire ma life, laisse-moi faire ma maille Aïe, aïe, aïe J'suis dans mes pensées j'éclaircis ton beau visage J'ai tout dépensé mais j'me r'fais, tu connais l'bail J'm'en roule un dernier, j'm'endors dans le cinq étoiles J'repense au passé, défoncé vers la Eiffel Tower</t>
+          <t>Maximum Beats On déboule en Rolls devant l'Élysée, on arrive à sept au restau', tout l'monde capuché Évidemment, j'suis localisé, évidemment, j'suis localisé On déboule en Rolls devant l'Élysée, on arrive à sept au restau', tout l'monde capuché Évidemment, j'suis localisé, évidemment, j'suis localisé J'ai de l'inspi', avec un p'tit, midi-midi, c'est les assises J'fais danser la France, mon avocat et la police Ouais, je marche tout seul, j'ai pas d'sécu', j'les traumatises C'est Messire Moula, j'te tends la main, tu m'fais la bise J'me languis de te voir, c'est trop long, sérieux Tous les deux, ça devenait un peu trop périlleux J'te suivrai si seulement ça s'passe comme je veux, comme je veux Comme je veux On déboule en Rolls devant l'Élysée, on arrive à sept au restau', tout l'monde capuché Évidemment, j'suis localisé, évidemment, j'suis localisé On déboule en Rolls devant l'Élysée, on arrive à sept au restau', tout l'monde capuché Évidemment, j'suis localisé, évidemment, j'suis localisé Ouais, c'est c'bon vieux Gims, j'arrive sur un terrain conquis Ouais, balance le son, l'public est sous anesthésie Bref, j'arrive en ville avec une 'rrari rarissime Après ma cace-déci, y a plus rien à voir par ici Le rap game, je le prends même pas au sérieux Y a d'la fumée partout, j'vois plus rien, sérieux Si j'bé-tom, je ressors grâce à mon baveux, mon baveux Mon baveux On déboule en Rolls devant l'Élysée, on arrive à sept au restau', tout l'monde capuché Évidemment, j'suis localisé, évidemment, j'suis localisé On déboule en Rolls devant l'Élysée, on arrive à sept au restau', tout l'monde capuché Évidemment, j'suis localisé, évidemment, j'suis localisé</t>
         </is>
       </c>
     </row>
@@ -2379,12 +2379,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Localisé</t>
+          <t>LVDR</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Maximum Beats On déboule en Rolls devant l'Élysée, on arrive à sept au restau', tout l'monde capuché Évidemment, j'suis localisé, évidemment, j'suis localisé On déboule en Rolls devant l'Élysée, on arrive à sept au restau', tout l'monde capuché Évidemment, j'suis localisé, évidemment, j'suis localisé J'ai de l'inspi', avec un p'tit, midi-midi, c'est les assises J'fais danser la France, mon avocat et la police Ouais, je marche tout seul, j'ai pas d'sécu', j'les traumatises C'est Messire Moula, j'te tends la main, tu m'fais la bise J'me languis de te voir, c'est trop long, sérieux Tous les deux, ça devenait un peu trop périlleux J'te suivrai si seulement ça s'passe comme je veux, comme je veux Comme je veux On déboule en Rolls devant l'Élysée, on arrive à sept au restau', tout l'monde capuché Évidemment, j'suis localisé, évidemment, j'suis localisé On déboule en Rolls devant l'Élysée, on arrive à sept au restau', tout l'monde capuché Évidemment, j'suis localisé, évidemment, j'suis localisé Ouais, c'est c'bon vieux Gims, j'arrive sur un terrain conquis Ouais, balance le son, l'public est sous anesthésie Bref, j'arrive en ville avec une 'rrari rarissime Après ma cace-déci, y a plus rien à voir par ici Le rap game, je le prends même pas au sérieux Y a d'la fumée partout, j'vois plus rien, sérieux Si j'bé-tom, je ressors grâce à mon baveux, mon baveux Mon baveux On déboule en Rolls devant l'Élysée, on arrive à sept au restau', tout l'monde capuché Évidemment, j'suis localisé, évidemment, j'suis localisé On déboule en Rolls devant l'Élysée, on arrive à sept au restau', tout l'monde capuché Évidemment, j'suis localisé, évidemment, j'suis localisé</t>
+          <t>Eh, eh Okay, eh Eh Eh, eh C'est La Vie d'Roni, la vie, la vie d'ma mère C'est La Vie d'Roni, la vie, la vie d'ma mère Des fois, les coups partent mais t'façon, personne nous parle Jugé coupable à la barre d'avoir hagar un toubab Moi et les potes, on a la dalle, on prend l'argent tout-par Les meufs nous donnent pas l'heure alors on baise dans les touzes-par Depuis 2006, on a toujours été couche-tard À la fin d'l'histoire, on a vraiment fini au shtar La vie d'ma mère, ça fait un bail qu'on vit comme ds stars J'avais d'l'héro' et des dineros dans mon jan G-Star Avant d'palper, par les souvenirs, on s'est fait ber-bar Mais j'ai pas mal de souvenirs comme mon premier pétard Quand il s'fait tard, j'roule un tah, j'repense au mitard C'est Ricardo pas Rivaldo qui s'encule au ricard La vie d'Ronnie, la vie d'ma mère, on boit que du Ruinart C'est cher les raisins sans pépin, d'mande à César J'aime pas Arsène Lupin, j'préfère Narcos, Mexico Ramène du pain avec Armando en hélico' J'ai mérité Tulum avec un verre de Veuve Clicquot Ça va, ça roule pour moi et j'y vais pas en classe éco On boit des pornstars, on baise que des porno stars Appelle le mec aux cheveux blonds qui faisait Fréquenstar Eh Ton rappeur, il pue la merde, il va jamais percer Il est jamais bé-tom, il sait pas c'qu'on a traversé Il s'est pas fait tout seul, c'est vous qui l'avez engraissé C'est moi, j'ai tout baisé, tout ça sans faire exprès C'était la rue vraiment la taule à chaque premier extrait Carlos Gambino, midi-midi, en esprit Hash', kush, coffee, c'est la moula qu'on respire J'ai pas fini l'empire, bientôt fini d'investir J'suis un Algérien prometteur tout comme Boudaoui Vicieux comme un sur un Kawasaki J'suis comme Sefyu tah l'époque, j'ai l'flow du Malawi Bah oui, ma le-gueu, j'suis l'rebeu qui pèse ses klawis C'est la moumou toujours qui gère le bail, la tête de oi-m Parle pas d'ton rappeur tout flingué qui rapporte même pas one C'est mieux qu'il repart rechargé ou bien J'suis dans un film , né-tour à Brooklyn J'suis un précurseur qui baise leurs femmes et leurs surs À bon entendeur, j'ai laissé leurs chattes en pleurs Leur balle-trou en chou-fleur, reconnu comme Foot Locker Ça m'fait un truc au cur quand j'vois tout l'monde chanter en chur</t>
         </is>
       </c>
     </row>
@@ -2396,12 +2396,12 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>LVDR</t>
+          <t>Maison piégée</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Eh, eh Okay, eh Eh Eh, eh C'est La Vie d'Roni, la vie, la vie d'ma mère C'est La Vie d'Roni, la vie, la vie d'ma mère Des fois, les coups partent mais t'façon, personne nous parle Jugé coupable à la barre d'avoir hagar un toubab Moi et les potes, on a la dalle, on prend l'argent tout-par Les meufs nous donnent pas l'heure alors on baise dans les touzes-par Depuis 2006, on a toujours été couche-tard À la fin d'l'histoire, on a vraiment fini au shtar La vie d'ma mère, ça fait un bail qu'on vit comme ds stars J'avais d'l'héro' et des dineros dans mon jan G-Star Avant d'palper, par les souvenirs, on s'est fait ber-bar Mais j'ai pas mal de souvenirs comme mon premier pétard Quand il s'fait tard, j'roule un tah, j'repense au mitard C'est Ricardo pas Rivaldo qui s'encule au ricard La vie d'Ronnie, la vie d'ma mère, on boit que du Ruinart C'est cher les raisins sans pépin, d'mande à César J'aime pas Arsène Lupin, j'préfère Narcos, Mexico Ramène du pain avec Armando en hélico' J'ai mérité Tulum avec un verre de Veuve Clicquot Ça va, ça roule pour moi et j'y vais pas en classe éco On boit des pornstars, on baise que des porno stars Appelle le mec aux cheveux blonds qui faisait Fréquenstar Eh Ton rappeur, il pue la merde, il va jamais percer Il est jamais bé-tom, il sait pas c'qu'on a traversé Il s'est pas fait tout seul, c'est vous qui l'avez engraissé C'est moi, j'ai tout baisé, tout ça sans faire exprès C'était la rue vraiment la taule à chaque premier extrait Carlos Gambino, midi-midi, en esprit Hash', kush, coffee, c'est la moula qu'on respire J'ai pas fini l'empire, bientôt fini d'investir J'suis un Algérien prometteur tout comme Boudaoui Vicieux comme un sur un Kawasaki J'suis comme Sefyu tah l'époque, j'ai l'flow du Malawi Bah oui, ma le-gueu, j'suis l'rebeu qui pèse ses klawis C'est la moumou toujours qui gère le bail, la tête de oi-m Parle pas d'ton rappeur tout flingué qui rapporte même pas one C'est mieux qu'il repart rechargé ou bien J'suis dans un film , né-tour à Brooklyn J'suis un précurseur qui baise leurs femmes et leurs surs À bon entendeur, j'ai laissé leurs chattes en pleurs Leur balle-trou en chou-fleur, reconnu comme Foot Locker Ça m'fait un truc au cur quand j'vois tout l'monde chanter en chur</t>
+          <t>Ténébreuse Musique Maison piégée d'Anthrax Admire, 2023 piou, piou, piou, piou Encore Maison piégée d'Amiante cancérigène L'Empereur Maison piégée de crack salope à Stalingrad Vlan Toutes les étoiles s'alignent toutes et les comètes se heurtent piou Tu vois que j'possède le gun waow, le même que Joseph Goebbels click, boum J'fume un gros pét' de seum fume, et puis, j'observe le zbeul j'observe J'rentre dans vos belles demeures direct, je sais que vos chefs me veulent vos chefs Ils veulent que j'commettre le meurtre pah, que j'devienne obèse, qu'je meurs obèse Assemble nos pièces, puzzle nos pièces, nique les fourgonnettes de keufs Des pickpockets rebeus volent mangent des côtelettes de buf Tounsi Pé-cho une pochette de beuh d'la frappe, à chaque erreur, bubbles waow Dans mon lit, y a des vieilles amaigries, y a des Leïla Bekhti Tout l'oseille à becter me réveille l'appétit liasses La tchoin et le joint de la veille, j'apprécie J'paie pas d'crédit, j'veux toucher le salaire de Neymar, Messi Comme dans DBZ DBZ, mon appareil m'avertit De Marseille à Évry, j'émerveille ta chérie salope, salope, salope J'ai besoin d'une bouteille à ser-ti Une bouteille de Dom Pé' une bouteille de Dom Pé' Heuss L'enfoiré, Alkpote, LSDC Personne peut nous dompter personne peut nous dompter Maison piégée skch, skch On est toujours fonce-dé on est toujours fonce-dé Heuss L'enfoiré, indépendant, producteur anonyme skch Poto, ici, c'est de-s', oublie pas ta ventoline Jean-Louis Vitasse t'la met profond, là-haut sur la colline là-haut J'faisais d'la taule à l'époque où tu votais Ségolène Nique ton épaule, j'la vois jamais quand j'ai des vrais problèmes skch Ramène des pétasses, d'la drogue avec un sac d'oseille ramène Ramène des plans lovés, s'te plait, épargne-nous d'tes conseils Dès l'matin, j'suis défoncé, j'ai pas trop d'émotions skch J'sais même pas c'que j'ai dépensé, j'fais sauter la caution Ramène des plans, des pesetas, une 'tasse et d'la potion Dé-Dé-Dédicace aux mecs en rétention, en détention skch, skch Pour braquages en tous genres, trafics et extorsions Combien d'fois j'ai tourné, j'ai pas reçu un mandat ? Reçu un mandat ? Heureusement, j'connais Sauron, Bakari et Bakari et Qui m'envoient des pâtes et du shit sur un yoyo en drap un yoyo en drap Combien d'fois on m'a dit Un jour, tu comprendras ? Wesh, Alkpote, j'suis en Super Bock J'fais que baiser, traverser l'époque J'ai mon passeport, une pute et mon Glock Deux-trois sicarios qui m'escortent J't'ai d'jà dit avec Gueule d'Ange, j'vais pas au BDA Heuss L'enfoiré, j'suis trop connu comme PPDA Change de planque, change de plaque comme dans GTA Joue au blackjack au black, v'-esqui la TVA J'taffe comme un Pak-Pak, j'ai r'chargé mon Berreta Dans mes oreilles, les diables et les démons causent les démons Je bois le lait qu'il y a dans ses tétons roses ses tétons J'squatte les maisons piégées et les maisons closes boum Dès qu'on pose, les visages se décomposent décomposent J'suis dans un sale état, j'ai mal pute J'me sens comme un vétéran qui est passé par l'Vietnam pute L'visage marqué par l'Sheitan pute, avec le crâne sé-ra, j'les charme pute J'me régénère comme la chatte de Maeva Ghennam pute Allez, j'crache des flammes pute, maintenant, j'm'arrête pas, j'les crame pute J'fume de l'amné' d'Amsterdam pute, j'suis à Marbella et j'crâne j'crâne J'garde toujours le sourire avec ma vieille dame vieille pute Dans son nouveau soutif, on a ché-ca des grammes pute J'sors des marécages, fais gaffe pute, dans les favelas, j'débarque pute Gruyère, mozzarella, cheddar pute, je mange pas d'paëlla végan pute Il m'faut l'salaire à Beckham pute et que j'm'achète la bécane Sons of Anarchy, lunettes Cartier, Carrera, Ray-Ban pute De la drogue dans mes cellules, on va forcer les serrures Je vais m'occuper d'ces nuls, ils vont regretter, c'est sûr Je dois recruter des mules, elles vont panser mes blessures Si j'finis comme un légume, la carrosserie plein d'rayures La carrosserie plein d'rayures</t>
         </is>
       </c>
     </row>
@@ -2413,12 +2413,12 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Maison piégée</t>
+          <t>Mal à la tête</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Ténébreuse Musique Maison piégée d'Anthrax Admire, 2023 piou, piou, piou, piou Encore Maison piégée d'Amiante cancérigène L'Empereur Maison piégée de crack salope à Stalingrad Vlan Toutes les étoiles s'alignent toutes et les comètes se heurtent piou Tu vois que j'possède le gun waow, le même que Joseph Goebbels click, boum J'fume un gros pét' de seum fume, et puis, j'observe le zbeul j'observe J'rentre dans vos belles demeures direct, je sais que vos chefs me veulent vos chefs Ils veulent que j'commettre le meurtre pah, que j'devienne obèse, qu'je meurs obèse Assemble nos pièces, puzzle nos pièces, nique les fourgonnettes de keufs Des pickpockets rebeus volent mangent des côtelettes de buf Tounsi Pé-cho une pochette de beuh d'la frappe, à chaque erreur, bubbles waow Dans mon lit, y a des vieilles amaigries, y a des Leïla Bekhti Tout l'oseille à becter me réveille l'appétit liasses La tchoin et le joint de la veille, j'apprécie J'paie pas d'crédit, j'veux toucher le salaire de Neymar, Messi Comme dans DBZ DBZ, mon appareil m'avertit De Marseille à Évry, j'émerveille ta chérie salope, salope, salope J'ai besoin d'une bouteille à ser-ti Une bouteille de Dom Pé' une bouteille de Dom Pé' Heuss L'enfoiré, Alkpote, LSDC Personne peut nous dompter personne peut nous dompter Maison piégée skch, skch On est toujours fonce-dé on est toujours fonce-dé Heuss L'enfoiré, indépendant, producteur anonyme skch Poto, ici, c'est de-s', oublie pas ta ventoline Jean-Louis Vitasse t'la met profond, là-haut sur la colline là-haut J'faisais d'la taule à l'époque où tu votais Ségolène Nique ton épaule, j'la vois jamais quand j'ai des vrais problèmes skch Ramène des pétasses, d'la drogue avec un sac d'oseille ramène Ramène des plans lovés, s'te plait, épargne-nous d'tes conseils Dès l'matin, j'suis défoncé, j'ai pas trop d'émotions skch J'sais même pas c'que j'ai dépensé, j'fais sauter la caution Ramène des plans, des pesetas, une 'tasse et d'la potion Dé-Dé-Dédicace aux mecs en rétention, en détention skch, skch Pour braquages en tous genres, trafics et extorsions Combien d'fois j'ai tourné, j'ai pas reçu un mandat ? Reçu un mandat ? Heureusement, j'connais Sauron, Bakari et Bakari et Qui m'envoient des pâtes et du shit sur un yoyo en drap un yoyo en drap Combien d'fois on m'a dit Un jour, tu comprendras ? Wesh, Alkpote, j'suis en Super Bock J'fais que baiser, traverser l'époque J'ai mon passeport, une pute et mon Glock Deux-trois sicarios qui m'escortent J't'ai d'jà dit avec Gueule d'Ange, j'vais pas au BDA Heuss L'enfoiré, j'suis trop connu comme PPDA Change de planque, change de plaque comme dans GTA Joue au blackjack au black, v'-esqui la TVA J'taffe comme un Pak-Pak, j'ai r'chargé mon Berreta Dans mes oreilles, les diables et les démons causent les démons Je bois le lait qu'il y a dans ses tétons roses ses tétons J'squatte les maisons piégées et les maisons closes boum Dès qu'on pose, les visages se décomposent décomposent J'suis dans un sale état, j'ai mal pute J'me sens comme un vétéran qui est passé par l'Vietnam pute L'visage marqué par l'Sheitan pute, avec le crâne sé-ra, j'les charme pute J'me régénère comme la chatte de Maeva Ghennam pute Allez, j'crache des flammes pute, maintenant, j'm'arrête pas, j'les crame pute J'fume de l'amné' d'Amsterdam pute, j'suis à Marbella et j'crâne j'crâne J'garde toujours le sourire avec ma vieille dame vieille pute Dans son nouveau soutif, on a ché-ca des grammes pute J'sors des marécages, fais gaffe pute, dans les favelas, j'débarque pute Gruyère, mozzarella, cheddar pute, je mange pas d'paëlla végan pute Il m'faut l'salaire à Beckham pute et que j'm'achète la bécane Sons of Anarchy, lunettes Cartier, Carrera, Ray-Ban pute De la drogue dans mes cellules, on va forcer les serrures Je vais m'occuper d'ces nuls, ils vont regretter, c'est sûr Je dois recruter des mules, elles vont panser mes blessures Si j'finis comme un légume, la carrosserie plein d'rayures La carrosserie plein d'rayures</t>
+          <t>Bae, ne m'attends pas, j'me suis fait crever dans la bât', en bas bas C'est un vrai scandale, j'avais de la beuh, fumée de Atlanta J'suis un sica', comme ny-Ma, c'est Toto, ouais, Riinà J'suis un sica', comme ny-Ma, j'sors de chez Guccissima J'suis stenda en Hollanda, bébé, envoie les mandats Une fiche de recherche, un trafic en interne Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la J'suis dans une nouvelle ère, dans un nouvel art Dans une nouvelle ère, dans un nouvel art C'est le nouvel an et ça, tous les soirs C'est le nouvel an et ça, tous les soirs tous les soirs, tous les soirs J'fais pas semblant, tu m'as semblée belle mais trop bavarde Et personne va t'hagar, le DZ sait faire la bagarre Les p'tits savent cavaler, cache la zlatla dans la caille Bébé, tu sais t'pavaner, buenos dias et bonne année J'suis avec le V, tu m'as vu ? Toujours dans la rue Si j'me fais crever, oublie pas d'appeler mon baveux Tu connais déjà double kich', une nouvelle re-pai Mais n'oublie jamais, pour de vrai, c'est toujours la rre-gue J'suis stenda en Hollanda, bébé, envoie les mandats Une fiche de recherche, un trafic en interne Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la J'suis dans une nouvelle ère, dans un nouvel art Dans une nouvelle ère, dans un nouvel art C'est le nouvel an et ça, tous les soirs C'est le nouvel an et ça, tous les soirs tous les soirs, tous les soirs Elle est timide, j'suis tombé sous son charme Ensorcelé, elle me drague sous champagne Elle est timide, j'suis tombé sous son charme Ensorcelé, elle me drague sous champagne Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la</t>
         </is>
       </c>
     </row>
@@ -2430,12 +2430,12 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Mal à la tête</t>
+          <t>Marbella (Remix)</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Bae, ne m'attends pas, j'me suis fait crever dans la bât', en bas bas C'est un vrai scandale, j'avais de la beuh, fumée de Atlanta J'suis un sica', comme ny-Ma, c'est Toto, ouais, Riinà J'suis un sica', comme ny-Ma, j'sors de chez Guccissima J'suis stenda en Hollanda, bébé, envoie les mandats Une fiche de recherche, un trafic en interne Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la J'suis dans une nouvelle ère, dans un nouvel art Dans une nouvelle ère, dans un nouvel art C'est le nouvel an et ça, tous les soirs C'est le nouvel an et ça, tous les soirs tous les soirs, tous les soirs J'fais pas semblant, tu m'as semblée belle mais trop bavarde Et personne va t'hagar, le DZ sait faire la bagarre Les p'tits savent cavaler, cache la zlatla dans la caille Bébé, tu sais t'pavaner, buenos dias et bonne année J'suis avec le V, tu m'as vu ? Toujours dans la rue Si j'me fais crever, oublie pas d'appeler mon baveux Tu connais déjà double kich', une nouvelle re-pai Mais n'oublie jamais, pour de vrai, c'est toujours la rre-gue J'suis stenda en Hollanda, bébé, envoie les mandats Une fiche de recherche, un trafic en interne Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la J'suis dans une nouvelle ère, dans un nouvel art Dans une nouvelle ère, dans un nouvel art C'est le nouvel an et ça, tous les soirs C'est le nouvel an et ça, tous les soirs tous les soirs, tous les soirs Elle est timide, j'suis tombé sous son charme Ensorcelé, elle me drague sous champagne Elle est timide, j'suis tombé sous son charme Ensorcelé, elle me drague sous champagne Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la Mal à la tête, elle fait mal à la</t>
+          <t>Dalla zona, fra', alla Marbella Volo verso Malaga Penso a farmi una vacanza Mamma sì, pardonnez-moi Su uno scafo a Marbella A Marbella Su uno scafo a Marbella Cubi sopra la mia barca Soldi dentro al cellophanne À Marbella, passato par Marocco Remontada d'Italia, on finit à Marsiglia, yah, yah, yah Philip, TK, Heuss, monnaie Venga, venga, la monnaie Va fan culo, fils de pute J'm'arrache, j'vais claquer les sous des gues-sh' J'ai fini tout mon cash, Western, moi, si c'est la dèche Si c'est la dèche J'suis tout bronzé dans mes stories J'me prends l'il des gens, c'est la folie Volo verso Malaga Penso a farmi una vacanza Mamma sì, pardonnez-moi Su uno scafo a Marbella A Marbella A Marbella Su uno scafo a Marbella A Marbella A Marbella Su uno scafo a Marbella J'claque tout mon oseille, t'inquiète, il reviendra Il reviendra C'est encore moi, mon gars, c'est bien la moulaga La moulaga J'sors de chez Gucci, arrivederci Arrivederci, arrivederci Tu nous connais comme Francesco Totti Francesco Totti, yah, yah Si je n'te réponds pas, bébé, ne m'attends pas Nan, nan, nan J'benda à Marbella avec Philip, TK Nan, nan, nan J'suis à Marbe', j'vais la marbrer, j'suis à Marbella Marbella J'suis à Marbe', j'vais la marbrer, j'suis à Marbella Volo verso Malaga Penso a farmi una vacanza Mamma sì, pardonnez-moi Su uno scafo a Marbella A Marbella Su uno scafo a Marbella A Marbella Su uno scafo a Marbella À Marbella, c'est vodka, vodka, vodka Tous les jours, la fiesta, jamais, jamais basta À Marbella, c'est vodka, vodka, vodka Tous les jours, la fiesta, jamais, jamais basta Volo verso Malaga Penso a farmi una vacanza Mamma sì, pardonnez-moi Su uno scafo a Marbella A Marbella A Marbella Su uno scafo a Marbella aA Marbella A Marbella Su uno scafo a Marbella Fils de pute Fils de, fils de, fils de pute Fils de pute Fils de pute Fils de, fils de, fils de pute Fils de pute A Marbella Su uno scafo a Marbella A Marbella A Marbella Su uno scafo a Marbella A Marbella, a Marbella, a Marbella</t>
         </is>
       </c>
     </row>
@@ -2447,12 +2447,12 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Marbella (Remix)</t>
+          <t>Medellín</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Dalla zona, fra', alla Marbella Volo verso Malaga Penso a farmi una vacanza Mamma sì, pardonnez-moi Su uno scafo a Marbella A Marbella Su uno scafo a Marbella Cubi sopra la mia barca Soldi dentro al cellophanne À Marbella, passato par Marocco Remontada d'Italia, on finit à Marsiglia, yah, yah, yah Philip, TK, Heuss, monnaie Venga, venga, la monnaie Va fan culo, fils de pute J'm'arrache, j'vais claquer les sous des gues-sh' J'ai fini tout mon cash, Western, moi, si c'est la dèche Si c'est la dèche J'suis tout bronzé dans mes stories J'me prends l'il des gens, c'est la folie Volo verso Malaga Penso a farmi una vacanza Mamma sì, pardonnez-moi Su uno scafo a Marbella A Marbella A Marbella Su uno scafo a Marbella A Marbella A Marbella Su uno scafo a Marbella J'claque tout mon oseille, t'inquiète, il reviendra Il reviendra C'est encore moi, mon gars, c'est bien la moulaga La moulaga J'sors de chez Gucci, arrivederci Arrivederci, arrivederci Tu nous connais comme Francesco Totti Francesco Totti, yah, yah Si je n'te réponds pas, bébé, ne m'attends pas Nan, nan, nan J'benda à Marbella avec Philip, TK Nan, nan, nan J'suis à Marbe', j'vais la marbrer, j'suis à Marbella Marbella J'suis à Marbe', j'vais la marbrer, j'suis à Marbella Volo verso Malaga Penso a farmi una vacanza Mamma sì, pardonnez-moi Su uno scafo a Marbella A Marbella Su uno scafo a Marbella A Marbella Su uno scafo a Marbella À Marbella, c'est vodka, vodka, vodka Tous les jours, la fiesta, jamais, jamais basta À Marbella, c'est vodka, vodka, vodka Tous les jours, la fiesta, jamais, jamais basta Volo verso Malaga Penso a farmi una vacanza Mamma sì, pardonnez-moi Su uno scafo a Marbella A Marbella A Marbella Su uno scafo a Marbella aA Marbella A Marbella Su uno scafo a Marbella Fils de pute Fils de, fils de, fils de pute Fils de pute Fils de pute Fils de, fils de, fils de pute Fils de pute A Marbella Su uno scafo a Marbella A Marbella A Marbella Su uno scafo a Marbella A Marbella, a Marbella, a Marbella</t>
+          <t>Ah, ah, ah Ah, ah, ah Ah, ah, ah Ah, ah, ah Cartel, bandits, Medellín Medellín, localisé dans un modèle de berline La zone, on délimite On délimite, on t'élimine Aucun délit mineur, on arrive en king On arrive en king J'rallume un gros pét' à bord du vaisseau Vaisseau Mafia 9.2, réseau, envoie les pesos C'est ça toutes les saisons Toutes les saisons, toutes, toutes les saisons Tu peux perdre une grosse somme mais perds pas la raison J'roule un zoula bord de mer, j'ai mis heja dans la paire J'ai détour par BX, bien branché pour les affaires La dégaine tah les bandits, dis-moi, qu'est-ce que t'en dis ? Dans la zone, c'est tendu, faut mettre à l'heure les pendules Heuss L'enfoiré, mapessa, dans sa mmh, j'ai calé ça, ouais J'suis dans l'bar, whisky, j'attends l'top départ Elle donne le go, go, go, go, go J'suis calibré comme Joe, Joe, Joe, Joe, Joe Joe, Joe Cartel, bandits, Medellín Medellín, localisé dans un modèle de berline La zone, on délimite On délimite, on t'élimine Aucun délit mineur, on arrive en king On arrive en king J'rallume un gros pét' à bord du vaisseau Vaisseau Mafia 9.2, réseau, envoie les pesos C'est ça toutes les saisons Toutes les saisons, toutes, toutes les saisons Tu peux perdre une grosse somme mais perds pas la raison Encore un diamant d'plus, j'mets toute la foule en pétard J'fume la super frozen plus, c'est p't-être mon dernier pétard J'étais dans un autre état, ce soir, on va rentrer tard J'ai gaspillé tous les taffef mais té-ma la pétasse Heuss L'enfoiré, mapessa, dans sa mmh, j'ai calé ça, ouais J'suis dans l'bar, whisky, j'attends l'top départ Elle donne le go, go, go, go, go J'suis calibré comme Joe, Joe, Joe, Joe, Joe Joe, Joe Cartel, bandits, Medellín Medellín, localisé dans un modèle de berline La zone, on délimite On délimite, on t'élimine Aucun délit mineur, on arrive en king On arrive en king J'rallume un gros pét' à bord du vaisseau Vaisseau Mafia 9.2, réseau, envoie les pesos C'est ça toutes les saisons Toutes les saisons, toutes, toutes les saisons Tu peux perdre une grosse somme mais perds pas la raison Cartel, bandits, Medellín Bandits, Medellín Bandits, Medellín Bandits, Medellín Bandits, Medellín</t>
         </is>
       </c>
     </row>
@@ -2464,12 +2464,12 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Medellín</t>
+          <t>Mitterrand</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ah, ah, ah Ah, ah, ah Ah, ah, ah Ah, ah, ah Cartel, bandits, Medellín Medellín, localisé dans un modèle de berline La zone, on délimite On délimite, on t'élimine Aucun délit mineur, on arrive en king On arrive en king J'rallume un gros pét' à bord du vaisseau Vaisseau Mafia 9.2, réseau, envoie les pesos C'est ça toutes les saisons Toutes les saisons, toutes, toutes les saisons Tu peux perdre une grosse somme mais perds pas la raison J'roule un zoula bord de mer, j'ai mis heja dans la paire J'ai détour par BX, bien branché pour les affaires La dégaine tah les bandits, dis-moi, qu'est-ce que t'en dis ? Dans la zone, c'est tendu, faut mettre à l'heure les pendules Heuss L'enfoiré, mapessa, dans sa mmh, j'ai calé ça, ouais J'suis dans l'bar, whisky, j'attends l'top départ Elle donne le go, go, go, go, go J'suis calibré comme Joe, Joe, Joe, Joe, Joe Joe, Joe Cartel, bandits, Medellín Medellín, localisé dans un modèle de berline La zone, on délimite On délimite, on t'élimine Aucun délit mineur, on arrive en king On arrive en king J'rallume un gros pét' à bord du vaisseau Vaisseau Mafia 9.2, réseau, envoie les pesos C'est ça toutes les saisons Toutes les saisons, toutes, toutes les saisons Tu peux perdre une grosse somme mais perds pas la raison Encore un diamant d'plus, j'mets toute la foule en pétard J'fume la super frozen plus, c'est p't-être mon dernier pétard J'étais dans un autre état, ce soir, on va rentrer tard J'ai gaspillé tous les taffef mais té-ma la pétasse Heuss L'enfoiré, mapessa, dans sa mmh, j'ai calé ça, ouais J'suis dans l'bar, whisky, j'attends l'top départ Elle donne le go, go, go, go, go J'suis calibré comme Joe, Joe, Joe, Joe, Joe Joe, Joe Cartel, bandits, Medellín Medellín, localisé dans un modèle de berline La zone, on délimite On délimite, on t'élimine Aucun délit mineur, on arrive en king On arrive en king J'rallume un gros pét' à bord du vaisseau Vaisseau Mafia 9.2, réseau, envoie les pesos C'est ça toutes les saisons Toutes les saisons, toutes, toutes les saisons Tu peux perdre une grosse somme mais perds pas la raison Cartel, bandits, Medellín Bandits, Medellín Bandits, Medellín Bandits, Medellín Bandits, Medellín</t>
+          <t>Un sale matin, j'me réveille défoncé, j'écoute du Joe Dassin J'me rappelle de la veille j'plongeais mon bâton dans ses seins J'vais pas t'faire de dessin j'traîne à quatre dans l'viano, que des Nord-Coréens Bébé, pour toi, j'ai plus d'amour comme dans un bar à tains-p' Et l'OPJ, il croit m'la faire avec son baratin J'ai fait lever des foules, pénétré des foufs, fait rentrer des sous C'est Heusslaga, la moumou, rendez-vous Rentre pas dans ma tête, j'suis d'jà rentré dans sa schnk Sans latex, sous ballon, j'l'ai baisée dans la tess J'ai l'astuc pour qu'tu suces, Fernando Gomez Quand j'abuse, boisson russe, vodka polonaise Polonaise Lientenant-colonel, tiens, regarde nos honoraires Les mecs sont téméraires, un train d'vie accéléré Certifications, tout ça, j'ai pas l'temps d'célébrer D'ailleurs, viens, on va à me-da, là, j'suis déréglé L'impression qu'le temps s'arrête J'me refais l'film sans arrêt J'la baise, demain, j'disparais Envoie le compte, la mallette J'arrive en superstar, montre au poignet, veste en Louis Vui', là, j'vais rentrer tard, bébé Localisé dans un coupé noir, on a la meilleure, celle qui fait douter d'toi, J'aurais dû être dans la politique comme Mitterrand Avec un style de vie, des amis, avis différents J'veux pas mourir trop tard, fumant comme un vétéran Ni déléguer aux enfants tous mes ques-tru préférés J'suis même pas sûr d'arriver comme un produit dérivé Plus riche que demain, encore plus riche que hier Trop , papa fait la prière J'te laisse manger à ma table avec une p'tite cuillère L'argent fait pas l'bonheur, des menteurs comme la roue tourne Dieu merci, j'ai la forme, j'suis connu comme Jason Bourne J'reviens d'Marrakech, j'vais nehess à Middelbourg Bébé, faut d'la maille dehors, pas l'temps de faire l'amour Si tu veux, j'te baise en balle comme la femme de ménage Rendez-vous dans la cave ou bien au dernier étage C'est même possible que demain, le dealeur déménage Parce que l'poto s'est fait péter dans un gros pétage L'impression qu'le temps s'arrête J'me refais l'film sans arrêt J'la baise, demain, j'disparais Envoie le compte, la mallette J'arrive en superstar, montre au poignet, veste en Louis Vui', là, j'vais rentrer tard, bébé Localisé dans un coupé noir, on a la meilleure, celle qui fait douter d'toi, J'arrive en superstar, montre au poignet, veste en Louis Vui', là, j'vais rentrer tard, bébé Localisé dans un coupé noir, on a la meilleure, celle qui fait douter d'toi, J'aurais dû être dans la politique comme Mitterrand Avec un style de vie, des amis, avis différents J'veux pas mourir trop tard, fumant comme un vétéran Ni déléguer aux enfants tous mes ques-tru préférés J'arrive en superstar Localisé dans un coupé noir</t>
         </is>
       </c>
     </row>
@@ -2481,12 +2481,12 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Mitterrand</t>
+          <t>Mode S</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Un sale matin, j'me réveille défoncé, j'écoute du Joe Dassin J'me rappelle de la veille j'plongeais mon bâton dans ses seins J'vais pas t'faire de dessin j'traîne à quatre dans l'viano, que des Nord-Coréens Bébé, pour toi, j'ai plus d'amour comme dans un bar à tains-p' Et l'OPJ, il croit m'la faire avec son baratin J'ai fait lever des foules, pénétré des foufs, fait rentrer des sous C'est Heusslaga, la moumou, rendez-vous Rentre pas dans ma tête, j'suis d'jà rentré dans sa schnk Sans latex, sous ballon, j'l'ai baisée dans la tess J'ai l'astuc pour qu'tu suces, Fernando Gomez Quand j'abuse, boisson russe, vodka polonaise Polonaise Lientenant-colonel, tiens, regarde nos honoraires Les mecs sont téméraires, un train d'vie accéléré Certifications, tout ça, j'ai pas l'temps d'célébrer D'ailleurs, viens, on va à me-da, là, j'suis déréglé L'impression qu'le temps s'arrête J'me refais l'film sans arrêt J'la baise, demain, j'disparais Envoie le compte, la mallette J'arrive en superstar, montre au poignet, veste en Louis Vui', là, j'vais rentrer tard, bébé Localisé dans un coupé noir, on a la meilleure, celle qui fait douter d'toi, J'aurais dû être dans la politique comme Mitterrand Avec un style de vie, des amis, avis différents J'veux pas mourir trop tard, fumant comme un vétéran Ni déléguer aux enfants tous mes ques-tru préférés J'suis même pas sûr d'arriver comme un produit dérivé Plus riche que demain, encore plus riche que hier Trop , papa fait la prière J'te laisse manger à ma table avec une p'tite cuillère L'argent fait pas l'bonheur, des menteurs comme la roue tourne Dieu merci, j'ai la forme, j'suis connu comme Jason Bourne J'reviens d'Marrakech, j'vais nehess à Middelbourg Bébé, faut d'la maille dehors, pas l'temps de faire l'amour Si tu veux, j'te baise en balle comme la femme de ménage Rendez-vous dans la cave ou bien au dernier étage C'est même possible que demain, le dealeur déménage Parce que l'poto s'est fait péter dans un gros pétage L'impression qu'le temps s'arrête J'me refais l'film sans arrêt J'la baise, demain, j'disparais Envoie le compte, la mallette J'arrive en superstar, montre au poignet, veste en Louis Vui', là, j'vais rentrer tard, bébé Localisé dans un coupé noir, on a la meilleure, celle qui fait douter d'toi, J'arrive en superstar, montre au poignet, veste en Louis Vui', là, j'vais rentrer tard, bébé Localisé dans un coupé noir, on a la meilleure, celle qui fait douter d'toi, J'aurais dû être dans la politique comme Mitterrand Avec un style de vie, des amis, avis différents J'veux pas mourir trop tard, fumant comme un vétéran Ni déléguer aux enfants tous mes ques-tru préférés J'arrive en superstar Localisé dans un coupé noir</t>
+          <t>2.6.0, city gangsta Eh, Heuss L'enfoiré SHK SHK ISK, bande d'enfoirés Skch, skch, skch J'crois, c'est l'argent du hazi, cocaïna, extasy C'est tah les Wesh, mon cousin, prends le machin et vas-y J'traîne toujours avec des bougnoules, avec des 3azis Spah C'est comme les mafiosos, en ATH, les mêmes fusils Paris, c'est Alger-Centre, Casa', Brazza', Bamako L'argent, ça va, ça rentre, nique la balise à Monaco Skch Le terrain tourne à toute barzingue comme Roberto Baggio Skch, skch, skch, skch C'est pas la mêm rue, poto, c'est pas le mêm gâteau Le patron part en couille, il veut sa tête sur un plateau Skch Le p'tit sicar' va s'en occuper, il aime trop la taule Déjà aux arrivants du shit avec un téléphone Hier, j'ai pris vingt-deux balles dans les Bouches-du-Rhône Laisse pas traîner ton fils sur la route de Memphis Des fois, ça pue la pisse à l'arrière du Vel Satis Skch À dix dans les coulisses, à trente chez la nourrice Envoie le shooter, j'suis à Marrakech avec Viviche Écoute les conseils de Bachir ou Jean-Michel Bazire Ça fait plaisir quand y a Bazar, Gueule d'Ange et mon gars Pif Spah Ils ont relâché c'bar, on va niquer la mère à qui ? Écrasement d'tête, etcetera, y aura des pénaltys Mode S, j'prends la Sacem d'Aya Nakamura Mafieux comme Barksdale, à fond dans les virages Paname, c'est l'bordel, c'est pas les Émirats On achète sans compter, des broliques, du Dom Pé' Mode S, j'prends la Sacem d'Aya Nakamura Mafieux comme Barksdale, à fond dans les virages Paname, c'est l'bordel, c'est pas les Émirats On achète sans compter, des broliques, du Dom Pé' Ils sont traîtres comme le navet et la patata dans l'couscous Grr, rah Y a pas d'coup d'pouce, dans la roue, ça met qu'des bâtons J'ai un frère qui vient d'ber-tom Pah si tu m'croises à Décathlon Un p'tit polaire, une paire et du pollen pour rentrer au parlu Grr, rah Mes paroles sont tellement crues qu'tu l'as encore dans la ge-gor Tiens T'endors pas trop longtemps, ils inventeront qu't'es mort Si l'bosseur n'est pas d'ici, appelez-le par le nom d'sa ville Pah, pah Que ça tartine, ça roule des joints d'paki, à l'affût des civils Monte dans les affaires comme MH Tiens, khey, on a passé l'âge J'ai pas ché-lâ Asics mais bon, j'aime bien la maison Margiela Pah, pah La cité, d'mande à Heuss, le client veut un meuj' Avant, ils portaient tes courses, maintenant, les p'tits arrachent des ques-s' Rah Frérot, ne parle pas d'vécu, on sait qu'tu t'inventes une vie J'connais des mecs d'chez toi, ils m'ont dit Vas-y, lahuiss, c'est qui ? Dans nos quartiers, ça va péter comme lors du Printemps arabe On rêve de s'noyer dans l'paradis tout en nageant dans l'haram Et quand j'suis dans une salade, j'appelle mon avocat L'frérot veut bi3 son Clio 3 pour s'acheter un nouveau Toka' On va fermer des bocas, j'dehka d'vant leurs manières Tu veux nous faire le pack à quatre cinquante, l'ancien, j'suis pas né hier Mode S, j'prends la Sacem d'Aya Nakamura Mafieux comme Barksdale, à fond dans les virages Paname, c'est l'bordel, c'est pas les Émirats On achète sans compter, des broliques, du Dom Pé' Mode S, j'prends la Sacem d'Aya Nakamura Mafieux comme Barksdale, à fond dans les virages Paname, c'est l'bordel, c'est pas les Émirats On achète sans compter, des broliques, du Dom Pé' Mode S, j'prends la Sacem d'Aya Nakamura Mafieux comme Barksdale, à fond dans les virages Paname, c'est l'bordel, c'est pas les Émirats On achète sans compter, des broliques, du Dom Pé' On achète sans compter, des broliques, du Dom Pé 2.6.0, city gangsta</t>
         </is>
       </c>
     </row>
@@ -2498,12 +2498,12 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Mode S</t>
+          <t>Moneygram</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>2.6.0, city gangsta Eh, Heuss L'enfoiré SHK SHK ISK, bande d'enfoirés Skch, skch, skch J'crois, c'est l'argent du hazi, cocaïna, extasy C'est tah les Wesh, mon cousin, prends le machin et vas-y J'traîne toujours avec des bougnoules, avec des 3azis Spah C'est comme les mafiosos, en ATH, les mêmes fusils Paris, c'est Alger-Centre, Casa', Brazza', Bamako L'argent, ça va, ça rentre, nique la balise à Monaco Skch Le terrain tourne à toute barzingue comme Roberto Baggio Skch, skch, skch, skch C'est pas la mêm rue, poto, c'est pas le mêm gâteau Le patron part en couille, il veut sa tête sur un plateau Skch Le p'tit sicar' va s'en occuper, il aime trop la taule Déjà aux arrivants du shit avec un téléphone Hier, j'ai pris vingt-deux balles dans les Bouches-du-Rhône Laisse pas traîner ton fils sur la route de Memphis Des fois, ça pue la pisse à l'arrière du Vel Satis Skch À dix dans les coulisses, à trente chez la nourrice Envoie le shooter, j'suis à Marrakech avec Viviche Écoute les conseils de Bachir ou Jean-Michel Bazire Ça fait plaisir quand y a Bazar, Gueule d'Ange et mon gars Pif Spah Ils ont relâché c'bar, on va niquer la mère à qui ? Écrasement d'tête, etcetera, y aura des pénaltys Mode S, j'prends la Sacem d'Aya Nakamura Mafieux comme Barksdale, à fond dans les virages Paname, c'est l'bordel, c'est pas les Émirats On achète sans compter, des broliques, du Dom Pé' Mode S, j'prends la Sacem d'Aya Nakamura Mafieux comme Barksdale, à fond dans les virages Paname, c'est l'bordel, c'est pas les Émirats On achète sans compter, des broliques, du Dom Pé' Ils sont traîtres comme le navet et la patata dans l'couscous Grr, rah Y a pas d'coup d'pouce, dans la roue, ça met qu'des bâtons J'ai un frère qui vient d'ber-tom Pah si tu m'croises à Décathlon Un p'tit polaire, une paire et du pollen pour rentrer au parlu Grr, rah Mes paroles sont tellement crues qu'tu l'as encore dans la ge-gor Tiens T'endors pas trop longtemps, ils inventeront qu't'es mort Si l'bosseur n'est pas d'ici, appelez-le par le nom d'sa ville Pah, pah Que ça tartine, ça roule des joints d'paki, à l'affût des civils Monte dans les affaires comme MH Tiens, khey, on a passé l'âge J'ai pas ché-lâ Asics mais bon, j'aime bien la maison Margiela Pah, pah La cité, d'mande à Heuss, le client veut un meuj' Avant, ils portaient tes courses, maintenant, les p'tits arrachent des ques-s' Rah Frérot, ne parle pas d'vécu, on sait qu'tu t'inventes une vie J'connais des mecs d'chez toi, ils m'ont dit Vas-y, lahuiss, c'est qui ? Dans nos quartiers, ça va péter comme lors du Printemps arabe On rêve de s'noyer dans l'paradis tout en nageant dans l'haram Et quand j'suis dans une salade, j'appelle mon avocat L'frérot veut bi3 son Clio 3 pour s'acheter un nouveau Toka' On va fermer des bocas, j'dehka d'vant leurs manières Tu veux nous faire le pack à quatre cinquante, l'ancien, j'suis pas né hier Mode S, j'prends la Sacem d'Aya Nakamura Mafieux comme Barksdale, à fond dans les virages Paname, c'est l'bordel, c'est pas les Émirats On achète sans compter, des broliques, du Dom Pé' Mode S, j'prends la Sacem d'Aya Nakamura Mafieux comme Barksdale, à fond dans les virages Paname, c'est l'bordel, c'est pas les Émirats On achète sans compter, des broliques, du Dom Pé' Mode S, j'prends la Sacem d'Aya Nakamura Mafieux comme Barksdale, à fond dans les virages Paname, c'est l'bordel, c'est pas les Émirats On achète sans compter, des broliques, du Dom Pé' On achète sans compter, des broliques, du Dom Pé 2.6.0, city gangsta</t>
+          <t>KZA, you got the heat C't'année, j'ai voyagé, j'regarde côté passager C'est plus comme avant, mon cur a déménagé Il est menacé, cadenassé, relaxé skch, skch, skch, skch, skch, skch, skch Bébé, s'te plait, fais attention, j'habite juste à côté Oublie pas qu't'es mon bébé, jamais j'oublierai le passé Tout c'qu'on a traversé, malgré l'amour un peu dépassé tchou Amsterdam, Bruxelles, Rotterdam, ça va aller J't'ai pas donné d'nouvelles, t'sais, j'ai bossé toute l'année Arrête de chialer, sèche tes larmes, ça va aller J't'ai pas donné d'nouvelles, t'sais, j'ai bossé toute l'année Donner, donner, donner ça, j'fais les dernières connexions Gros bisous sur Alexa miou, miou, miou Donner, donner, donner ça, moula, zoula, j'connais qu'ça Prends les précoces protection Mais c'est l'anarchie eh, c'est pas d'la magie nan Y a rien de facile nan, l'argent nous fascine ah ouais Mais c'est l'anarchie ah ouais, c'est pas d'la magie nan Y a rien de facile nan, l'argent nous fascine Eh, Western Union, Moneygram J'veux six lourds dans l'compte-épargne C'est la moumou, faut qu'on sépare Casa de papel Western Union, Moneygram J'veux six lourds dans l'compte-épargne C'est la moumou, faut qu'on sépare Casa de papel Mais c'est l'anarchie, putain, quel gâchis Ils veulent que j'tartine, que j'fasse double platine J'suis déjà parti, bébé, t'es d'la partie J't'ai dit, t'es ma moitié, j'ai vu toutes les raclis Amsterdam, Bruxelles, Rotterdam, ça va aller J't'ai pas donné d'nouvelles, t'sais, j'ai bossé toute l'année Arrête de chialer, sèche tes larmes, ça va aller J't'ai pas donné d'nouvelles, t'sais, j'ai bossé toute l'année Donner, donner, donner ça, j'fais les dernières connexions Gros bisous sur Alexa miou, miou, miou Donner, donner, donner ça, moula, zoula, j'connais qu'ça Prends les précoces protection Mais c'est l'anarchie eh, c'est pas d'la magie nan Y a rien de facile nan, l'argent nous fascine ah ouais Mais c'est l'anarchie ah ouais, c'est pas d'la magie nan Y a rien de facile nan, l'argent nous fascine</t>
         </is>
       </c>
     </row>
@@ -2515,12 +2515,12 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Moneygram</t>
+          <t>Moulaga (Sped Up Version)</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>KZA, you got the heat C't'année, j'ai voyagé, j'regarde côté passager C'est plus comme avant, mon cur a déménagé Il est menacé, cadenassé, relaxé skch, skch, skch, skch, skch, skch, skch Bébé, s'te plait, fais attention, j'habite juste à côté Oublie pas qu't'es mon bébé, jamais j'oublierai le passé Tout c'qu'on a traversé, malgré l'amour un peu dépassé tchou Amsterdam, Bruxelles, Rotterdam, ça va aller J't'ai pas donné d'nouvelles, t'sais, j'ai bossé toute l'année Arrête de chialer, sèche tes larmes, ça va aller J't'ai pas donné d'nouvelles, t'sais, j'ai bossé toute l'année Donner, donner, donner ça, j'fais les dernières connexions Gros bisous sur Alexa miou, miou, miou Donner, donner, donner ça, moula, zoula, j'connais qu'ça Prends les précoces protection Mais c'est l'anarchie eh, c'est pas d'la magie nan Y a rien de facile nan, l'argent nous fascine ah ouais Mais c'est l'anarchie ah ouais, c'est pas d'la magie nan Y a rien de facile nan, l'argent nous fascine Eh, Western Union, Moneygram J'veux six lourds dans l'compte-épargne C'est la moumou, faut qu'on sépare Casa de papel Western Union, Moneygram J'veux six lourds dans l'compte-épargne C'est la moumou, faut qu'on sépare Casa de papel Mais c'est l'anarchie, putain, quel gâchis Ils veulent que j'tartine, que j'fasse double platine J'suis déjà parti, bébé, t'es d'la partie J't'ai dit, t'es ma moitié, j'ai vu toutes les raclis Amsterdam, Bruxelles, Rotterdam, ça va aller J't'ai pas donné d'nouvelles, t'sais, j'ai bossé toute l'année Arrête de chialer, sèche tes larmes, ça va aller J't'ai pas donné d'nouvelles, t'sais, j'ai bossé toute l'année Donner, donner, donner ça, j'fais les dernières connexions Gros bisous sur Alexa miou, miou, miou Donner, donner, donner ça, moula, zoula, j'connais qu'ça Prends les précoces protection Mais c'est l'anarchie eh, c'est pas d'la magie nan Y a rien de facile nan, l'argent nous fascine ah ouais Mais c'est l'anarchie ah ouais, c'est pas d'la magie nan Y a rien de facile nan, l'argent nous fascine</t>
+          <t>Zeg P on the track Wiils Productions D'la moulaga, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga D'la moulaga, eh, donnez moi d'la moulaga J'ai dit, j'ai dit Donnez-moi d'la moula Ouais la mou-mou J'ai dit, j'ai dit Donnez-moi d'la moula Ju-Ju-JuL Ganté comme Soulax En esprit, j'fume que d'la moulax En esprit BG sur T-Max En esprit, le rétro gauche nique ma Rolex En esprit J'suis tellement une moula qu'elle veut que j'la casse Cinq piges que j'nique le game, putain, le temps passe Checke, checke, checke Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga D'la moulaga, eh, donnez moi d'la moulaga J'me rallume un zoula, j'récupère d'la moula, j'ai même pas dé-saoulé Heuss L'enfoiré, les méchants, tu m'reconnois, les tes-boî, les showcases, les tain-p' et d'la monnaie Skch, skch Donnez-moi d'la moula, une bouteille de cool-al, j'ai même pas décollé Skch, skch Kichta compressée, c'est pour mieux décompresser, demande au V, c'est pas du rap de caissiers Les aristocrates sont là que pour encaisser, caissier encaissé, je sens qu'j'vais tout casser Totò Riina juste avant son décès, guitarisé comme un mec d'ACDC Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga D'la moulaga, eh, donnez moi d'la moulaga En survêt' dans l'carré, on est sous moulax Ju-JuL, Heuss L'enfoiré, que des grosses moulax En survêt' dans l'carré, on est sous moulax Ju-JuL, Heuss L'enfoiré, que des grosses moulax Eh, d'la moulaga, d'la moulaga Eh, d'la moulaga, donnez-moi d'la moulaga Eh, d'la moulaga, d'la moulaga Eh, d'la moulaga, donnez-moi d'la moulaga</t>
         </is>
       </c>
     </row>
@@ -2532,12 +2532,12 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Moulaga (Sped Up Version)</t>
+          <t>OLA OLA OLA</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Zeg P on the track Wiils Productions D'la moulaga, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga D'la moulaga, eh, donnez moi d'la moulaga J'ai dit, j'ai dit Donnez-moi d'la moula Ouais la mou-mou J'ai dit, j'ai dit Donnez-moi d'la moula Ju-Ju-JuL Ganté comme Soulax En esprit, j'fume que d'la moulax En esprit BG sur T-Max En esprit, le rétro gauche nique ma Rolex En esprit J'suis tellement une moula qu'elle veut que j'la casse Cinq piges que j'nique le game, putain, le temps passe Checke, checke, checke Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga D'la moulaga, eh, donnez moi d'la moulaga J'me rallume un zoula, j'récupère d'la moula, j'ai même pas dé-saoulé Heuss L'enfoiré, les méchants, tu m'reconnois, les tes-boî, les showcases, les tain-p' et d'la monnaie Skch, skch Donnez-moi d'la moula, une bouteille de cool-al, j'ai même pas décollé Skch, skch Kichta compressée, c'est pour mieux décompresser, demande au V, c'est pas du rap de caissiers Les aristocrates sont là que pour encaisser, caissier encaissé, je sens qu'j'vais tout casser Totò Riina juste avant son décès, guitarisé comme un mec d'ACDC Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Donnez, do-do-donnez, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga Eh, d'la moulaga, eh, donnez-moi d'la moulaga D'la moulaga, eh, donnez moi d'la moulaga En survêt' dans l'carré, on est sous moulax Ju-JuL, Heuss L'enfoiré, que des grosses moulax En survêt' dans l'carré, on est sous moulax Ju-JuL, Heuss L'enfoiré, que des grosses moulax Eh, d'la moulaga, d'la moulaga Eh, d'la moulaga, donnez-moi d'la moulaga Eh, d'la moulaga, d'la moulaga Eh, d'la moulaga, donnez-moi d'la moulaga</t>
+          <t>Wiils Production On est dans l'bend' d'puis l'époque ça date, on connaît la valeur du biff, nous on claque bah ouais Musique à fond dans le RS black ça pète, les cités d'France sortent du bloc sous Jack On danse le mia quand ça sonne un peu funk, jamais sans verre ou sans skunk J'arrive du futur comme Arnold, bats les c' d'être à la mode, j'casse les codes Pour faire du biff, on n'a pas changé d'méthode, la kichta est large comme la jante Bendo et studio, ça reste d'la vente, connexion fibre, y a pas d'latence Bébé, t's bien installée ? T'en fais pas, y aura pas d'malais Dans la suite, on va s'mettre à l'aise, j'ai d'la filtrée, j'ai d'l'amnés' Elle m'a déjà travaillé, elle peut compter ma maille Elle m'a déjà travaillé ola, ola, ola, bah ouais Elle m'a déjà travaillé, elle peut compter ma maille Elle m'a déjà travaillé ola, ola, ola, bah ouais J'ai ma kichta, ce soir on crame ça ah, carré VIP, on allume un feu d'camp ouh Trafiquant, c'est la calle ouh, full LV ola, ola, ola, bah ouais J'ai ma kichta, ce soir on crame ça ah, carré VIP, on allume un feu d'camp ouh Trafiquant, c'est la calle ouh, full LV ola, ola, ola, bah ouais Algérie, Oran, Congo, Kinshasa, faire d'la moula, toute façon, j'suis bon qu'ça Classe A, RS3, ma chérie, elle reste calme, garage, Clara je l'ai zappé c'est bon Tu peux Shazam Frappe de Lewandowski, grosse frappe de Zlatan, j'préfère quand tu achètes, j'aime pas quand tu jactes Fais du biff au black, ça finit au plac', v'-esqui l'bât, la coke s'transforme en crack J'suis comme un tartin d'Zippo, là ça va tarpin vite, mon cousin, bois un coup, c'est moi qui t'invite Jamais d'la vie, j'repartirai d'ici le ventre vide, j'prends des sous pendant, avant, après l'COVID Bébé, t'es bien installée ? T'en fais pas, y aura pas d'malaise Dans la suite, on va s'mettre à l'aise, j'ai d'la filtrée, j'ai d'l'amnés' Elle m'a déjà travaillé, elle peut compter ma maille Elle m'a déjà travaillé ola, ola, ola, bah ouais Elle m'a déjà travaillé, elle peut compter ma maille Elle m'a déjà travaillé ola, ola, ola, bah ouais J'ai ma kichta, ce soir on crame ça ah, carré VIP, on allume un feu d'camp ouh Trafiquant, c'est la calle ouh, full LV ola, ola, ola, bah ouais J'ai ma kichta, ce soir on crame ça ah, carré VIP, on allume un feu d'camp ouh Trafiquant, c'est la calle ouh, full LV ola, ola, ola, bah ouais Et j'prends la gov', j'descends sur Cannes, hier, j'étais à Amsterdam J'fais un bisou à madame ola, ola, ola, bah ouais Et j'prends la gov', j'descends sur Cannes, hier, j'étais à Amsterdam J'fais un bisou à madame ola, ola, ola, bah ouais</t>
         </is>
       </c>
     </row>
@@ -2549,12 +2549,12 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Ne reviens pas (Remix)</t>
+          <t>On te sert la frappe</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE Février - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 2906 8ruki - Nou Ja Sa</t>
+          <t>Préparez le shit, préparez le bloc Ramenez-moi la sacoche, crie akha si y'a les schmits Aujourd'hui je ferai temps plein Aujourd'hui je ferai temps plein A Air Bel, on te sert la frappe La Caste', on te sert la frappe XXX, on te sert la frappe Au Plan d'Aou, on te sert la, on te sert la On te sert la frappe, on te sert la frappe On te sert la frappe, on te sert la, on te sert la Vite passe Caprisun Posé, je suis seul Sacoche, que du seum Parle sur moi j'te baise ta mère, je coince ta sur Fils de pute, je me marre et pas toi Fais pas l'plein, va régler ton ardoise Parle sur moi, le petit Kofs se déter' Pépère mais-mais j'te nique ta mère si j'trace T'inquiète, je sais très bien où tu es J'porte mes couilles, demande à la Mucho Nique tes morts, toi et ton amitié J'vous baise sur conseil de RG Mon équipe est a jeun, oui la tienne est perchée Arrête de faire chier, oui arrête de faire chier Arrête de faire chier, tu pourras plus marcher Posé dans le bloc et j'attends les clients J'm'invente pas une vie, moi je roule en Clio J'pense à l'argent et même en priant a'oudoubiLlah ! XXX Préparez le shit, préparez le bloc Ramenez-moi la sacoche, crie akha si y'a les schmits Aujourd'hui je ferai temps plein Aujourd'hui je ferai temps plein A Air Bel, on te sert la frappe La Caste', on te sert la frappe XXX, on te sert la frappe Au Plan d'Aou, on te sert la, on te sert la On te sert la frappe, on te sert la frappe On te sert la frappe, on te sert la, on te sert la Tous comme JR dans Dallas Ils s'prennent tous pour Tony Montana On fait l'hala, on va khalass Ma belle il faut causer pour avoir son palace Tu fais rien si t'as pas de connaissance Mort dans le casting, c'est la renaissance Pas de morale, on est sourds, affolés par les sous On est fous, fourbes, on prend le mauvais sens Est-ce que je fais du mauvais son ? Franco, franco, dis moi le si t'aimes, ton père le XXX J'suis pas blanco, cramé comme les Black Panthers Là c'est Ouss' dans les ondes, dégun qui me raisonne J'baise tout dans les parages J'veux le coffre dans la maison avec la combinaison On a la belle vie le zin, vatch fouder, caralho Coup d'crosse dans la ganache Cicatrices et points de suture Kalash dans le garage, shit dans l'emballage KofsOussagaza, c'est la soudure Jarrose mes boutures, bientôt on va les fumer Haute couture, on attire les femelles Ne fais pas le fou, t'es foutu Fils de pute, tu ne pourras pas assumer J'fume la frappe dans le semi Un peu plus de 100 grammes dans la semaine Celui qui tassomme si tu n'as pas sommeil Dors toujours pas la nuit, récolte ce qu'on a semé Trop de 3ein, all eyes on me Les gens me dévisagent de la tête à la semelle Pire XXX 300 000 Touche à un de mon équipe et tu te feras harceler Préparez le shit, préparez le bloc Ramenez-moi la sacoche, crie akha si y'a les schmits Aujourd'hui je ferai temps plein Aujourd'hui je ferai temps plein A Paname, on te sert la frappe Dans l'9.3, on te sert la frappe Ou l'9.2, on te sert la frappe Les Boute-en-train, on te sert la, on te sert la On te sert la frappe, on te sert la frappe On te sert la frappe, on te sert la, on te sert la T'as rien écouté, j'vais tout découper Tu veux d'la çéqué, vas-y viens la goûter Elle est pas coupée, c'est d'la nouveauté T'façon tu connais, tout est cellophané La nuit, la journée, tous les mois, toute l'année La keuba s'est garée, le dealer s'est barré Là c'est Heuss L'enfoiré, impossible de foirer J'suis un putain d'buteur à la Suarez Les euros, d'la gue-dro, les feukeus dans l'rétro J'les vi-ser dans l'métro, iencli au bigo, on est pas des mythos J'ai un Pass Navigo, on arrive aussitôt, j'décolle de la cité On refait la déco', j'ai la mentalité, celle de Zé pequeno La moralité c'est que Bene s'est fait berner par un clito, par un clito Ça prépare le shit mais vas-y chut N'ouvre pas ta chatte ou j'planifie ta chute Nique la BAC et tous ces fils de pute J'suis dans mon kartel, j'vais graille chez Kamel J'bois du Jack miel et j'écoute du Jacques Brel Heuss L'enfoiré, j'suis opérationnel Nouveaux 16, nouveaux flows, nouveaux ienclis Là c'est Heuss L'enfoiré dans les amplis Aujourd'hui j'vi-ser encore un nouveau iencli A l'ancienne comme Del Piero, le terrain d'héro' Jusqu'à Valenciennes j'ai ramené le sirop comme Robert De Niro Appelle-moi surement si tu veux pécho mais t'auras pas d'échant' Les mans sont qués-cho, dédicace à Malsain, j'suis dans le magasin J'oublie pas Many en Cisjordanie, le meilleur pour la fin K-K-K.O.F.S, ma gueule Oussagaza, Heuss L'enfoiré Marseille, Paname Wesh Terro, wesh Malsain 9.3 ma gueule, 9.2, 1.3 On te sert la frappe, on te sert la frappe Viens au rrainté ma gueule hein, dans l'9.3 et on te sert la frappe Préparez le shit, préparez le bloc Ramenez-moi la sacoche, crie akha si y'a les schmits Aujourd'hui je ferai temps plein Aujourd'hui je ferai temps plein A Air Bel, on te sert la frappe La Caste', on te sert la frappe XXX, on te sert la frappe Au Plan d'Aou, on te sert la, on te sert la On te sert la frappe, on te sert la frappe On te sert la frappe, on te sert la, on te sert la1</t>
         </is>
       </c>
     </row>
@@ -2566,12 +2566,12 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>OLA OLA OLA</t>
+          <t>Palette</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Wiils Production On est dans l'bend' d'puis l'époque ça date, on connaît la valeur du biff, nous on claque bah ouais Musique à fond dans le RS black ça pète, les cités d'France sortent du bloc sous Jack On danse le mia quand ça sonne un peu funk, jamais sans verre ou sans skunk J'arrive du futur comme Arnold, bats les c' d'être à la mode, j'casse les codes Pour faire du biff, on n'a pas changé d'méthode, la kichta est large comme la jante Bendo et studio, ça reste d'la vente, connexion fibre, y a pas d'latence Bébé, t's bien installée ? T'en fais pas, y aura pas d'malais Dans la suite, on va s'mettre à l'aise, j'ai d'la filtrée, j'ai d'l'amnés' Elle m'a déjà travaillé, elle peut compter ma maille Elle m'a déjà travaillé ola, ola, ola, bah ouais Elle m'a déjà travaillé, elle peut compter ma maille Elle m'a déjà travaillé ola, ola, ola, bah ouais J'ai ma kichta, ce soir on crame ça ah, carré VIP, on allume un feu d'camp ouh Trafiquant, c'est la calle ouh, full LV ola, ola, ola, bah ouais J'ai ma kichta, ce soir on crame ça ah, carré VIP, on allume un feu d'camp ouh Trafiquant, c'est la calle ouh, full LV ola, ola, ola, bah ouais Algérie, Oran, Congo, Kinshasa, faire d'la moula, toute façon, j'suis bon qu'ça Classe A, RS3, ma chérie, elle reste calme, garage, Clara je l'ai zappé c'est bon Tu peux Shazam Frappe de Lewandowski, grosse frappe de Zlatan, j'préfère quand tu achètes, j'aime pas quand tu jactes Fais du biff au black, ça finit au plac', v'-esqui l'bât, la coke s'transforme en crack J'suis comme un tartin d'Zippo, là ça va tarpin vite, mon cousin, bois un coup, c'est moi qui t'invite Jamais d'la vie, j'repartirai d'ici le ventre vide, j'prends des sous pendant, avant, après l'COVID Bébé, t'es bien installée ? T'en fais pas, y aura pas d'malaise Dans la suite, on va s'mettre à l'aise, j'ai d'la filtrée, j'ai d'l'amnés' Elle m'a déjà travaillé, elle peut compter ma maille Elle m'a déjà travaillé ola, ola, ola, bah ouais Elle m'a déjà travaillé, elle peut compter ma maille Elle m'a déjà travaillé ola, ola, ola, bah ouais J'ai ma kichta, ce soir on crame ça ah, carré VIP, on allume un feu d'camp ouh Trafiquant, c'est la calle ouh, full LV ola, ola, ola, bah ouais J'ai ma kichta, ce soir on crame ça ah, carré VIP, on allume un feu d'camp ouh Trafiquant, c'est la calle ouh, full LV ola, ola, ola, bah ouais Et j'prends la gov', j'descends sur Cannes, hier, j'étais à Amsterdam J'fais un bisou à madame ola, ola, ola, bah ouais Et j'prends la gov', j'descends sur Cannes, hier, j'étais à Amsterdam J'fais un bisou à madame ola, ola, ola, bah ouais</t>
+          <t>Oui oui, si si Pro-Pro-Professor Skch C'est pas Zampa mais c'est qu'ont fermé la pharma eh Ça, c'est une lance-ba qui les a super bien informé eh Tu la fermes, tu finis infirme à l'infirmerie la street L'OPJ raconte sa vie, moi, j'ai des barres de riz Maman m'a vu faire du sale, papa m'a vu breliqué Pour la moula, tu peux tout niquer, les murs, on les aurait Ça sort direct du comico, l'baveux lui a fait d'l'aïkido C'est d'la re-pu d'Amazonie et tu m'arranges pas, Sur l'retour d'Rotter' en bolide wouh, l'habitacl est parfumé Toi, tu t'réveilles dans ton vomi, t'as trop bu, tu fais ds ballons En plus, y avait d'la meuf à fouet, d'la patate à tartiner Y a du étiré, comme Heuss, j'ai fait l'enfoiré, putain Remets rien à plus tard, j'suis plus déter' qu'un buteur Sur la , j'ai mis deux pleins, j'te fais d'la dinguerie pour deux plots Les traîtres ont l'il du cyclope, à Puerto Banús , y a l'Oclo Boy, des îles, déter' comme un mec du J'rappe pas pour vous remplir la tête Faut qu'j'arrête la cigarette J'rappe pas pour vous remplir la tête La galette ou la plaquette J'rappe pas pour vous remplir la tête Grosse kichta sur la palette J'rappe pas pour vous remplir la tête Une grosse kichta sur la palette J'rappe pas pour vous remplir la tête, de l'oseille plein les poches Fini les tête-à-tête, c'est la Kalashnikov juste pour faire la guerre Eh eh, eh, eh, de l'oseille plein les poches Fini les tête-à-tête, c'est la Kalashnikov juste pour faire la guerre Passe-leur le selem, fais-leur un coucou d'la part du Général et d'la moumou Double GG, Christian Loubou', touche pas la recette, ça, c'est à nougous D'l'est à l'ouest, tu sais qu'on est beaucoup, j'follow que ny-Ma, c'est mon sin-cou skch, skch, skch, skch J'follow que ny-Ma, c'est mon sin-cou En c'moment, j'mène la vie de Zizou, ta salope me fait les bisous D'mande à mon gars bandit Bantou, dans la zone 6, on la vend tous vend tous, vend tous C'est la street, mon pote, on est 112 112, 112, c'est la street, mon pote Sur Paris, j'suis comme sur un Grand Prix, j'arrive plus à dormir Le sac n'est pas rempli et pour les , coups d'shlass dans l'bide Histoire splendide, ticket d'cantine, Plus rien à graille, ça va s'faire la J'rappe pas pour vous remplir la tête Faut qu'j'arrête la cigarette J'rappe pas pour vous remplir la tête La galette ou la plaquette J'rappe pas pour vous remplir la tête Grosse kichta sur la palette J'rappe pas pour vous remplir la tête Une grosse kichta sur la palette J'rappe pas pour vous remplir la tête, de l'oseille plein les poches Fini les tête-à-tête, c'est la Kalashnikov juste pour faire la guerre Eh eh, eh, eh, de l'oseille plein les poches Fini les tête-à-tête, c'est la Kalashnikov juste pour faire la guerre C'est pas Zampa mais c'est qu'ont fermé la pharma eh Ça, c'est une lance-ba qui les a super bien informé eh Tu la fermes, tu finis infirme à l'infirmerie skch, skch, eh L'OPJ raconte sa vie, moi, j'ai des barres de riz eh Heuss L'enfoiré c'est la street, mon pote Faut qu'j'arrête la cigarette La galette ou la plaquette Grosse kichta sur la palette Une grosse kichta sur la palette Faut qu'j'arrête la cigarette La galette ou la plaquette Grosse kichta sur la palette Une grosse kichta sur la palette Faut qu'j'arrête la cigarette La galette ou la plaquette Grosse kichta sur la palette Une grosse kichta sur la palette</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>On te sert la frappe</t>
+          <t>Pimpon</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Préparez le shit, préparez le bloc Ramenez-moi la sacoche, crie akha si y'a les schmits Aujourd'hui je ferai temps plein Aujourd'hui je ferai temps plein A Air Bel, on te sert la frappe La Caste', on te sert la frappe XXX, on te sert la frappe Au Plan d'Aou, on te sert la, on te sert la On te sert la frappe, on te sert la frappe On te sert la frappe, on te sert la, on te sert la Vite passe Caprisun Posé, je suis seul Sacoche, que du seum Parle sur moi j'te baise ta mère, je coince ta sur Fils de pute, je me marre et pas toi Fais pas l'plein, va régler ton ardoise Parle sur moi, le petit Kofs se déter' Pépère mais-mais j'te nique ta mère si j'trace T'inquiète, je sais très bien où tu es J'porte mes couilles, demande à la Mucho Nique tes morts, toi et ton amitié J'vous baise sur conseil de RG Mon équipe est a jeun, oui la tienne est perchée Arrête de faire chier, oui arrête de faire chier Arrête de faire chier, tu pourras plus marcher Posé dans le bloc et j'attends les clients J'm'invente pas une vie, moi je roule en Clio J'pense à l'argent et même en priant a'oudoubiLlah ! XXX Préparez le shit, préparez le bloc Ramenez-moi la sacoche, crie akha si y'a les schmits Aujourd'hui je ferai temps plein Aujourd'hui je ferai temps plein A Air Bel, on te sert la frappe La Caste', on te sert la frappe XXX, on te sert la frappe Au Plan d'Aou, on te sert la, on te sert la On te sert la frappe, on te sert la frappe On te sert la frappe, on te sert la, on te sert la Tous comme JR dans Dallas Ils s'prennent tous pour Tony Montana On fait l'hala, on va khalass Ma belle il faut causer pour avoir son palace Tu fais rien si t'as pas de connaissance Mort dans le casting, c'est la renaissance Pas de morale, on est sourds, affolés par les sous On est fous, fourbes, on prend le mauvais sens Est-ce que je fais du mauvais son ? Franco, franco, dis moi le si t'aimes, ton père le XXX J'suis pas blanco, cramé comme les Black Panthers Là c'est Ouss' dans les ondes, dégun qui me raisonne J'baise tout dans les parages J'veux le coffre dans la maison avec la combinaison On a la belle vie le zin, vatch fouder, caralho Coup d'crosse dans la ganache Cicatrices et points de suture Kalash dans le garage, shit dans l'emballage KofsOussagaza, c'est la soudure Jarrose mes boutures, bientôt on va les fumer Haute couture, on attire les femelles Ne fais pas le fou, t'es foutu Fils de pute, tu ne pourras pas assumer J'fume la frappe dans le semi Un peu plus de 100 grammes dans la semaine Celui qui tassomme si tu n'as pas sommeil Dors toujours pas la nuit, récolte ce qu'on a semé Trop de 3ein, all eyes on me Les gens me dévisagent de la tête à la semelle Pire XXX 300 000 Touche à un de mon équipe et tu te feras harceler Préparez le shit, préparez le bloc Ramenez-moi la sacoche, crie akha si y'a les schmits Aujourd'hui je ferai temps plein Aujourd'hui je ferai temps plein A Paname, on te sert la frappe Dans l'9.3, on te sert la frappe Ou l'9.2, on te sert la frappe Les Boute-en-train, on te sert la, on te sert la On te sert la frappe, on te sert la frappe On te sert la frappe, on te sert la, on te sert la T'as rien écouté, j'vais tout découper Tu veux d'la çéqué, vas-y viens la goûter Elle est pas coupée, c'est d'la nouveauté T'façon tu connais, tout est cellophané La nuit, la journée, tous les mois, toute l'année La keuba s'est garée, le dealer s'est barré Là c'est Heuss L'enfoiré, impossible de foirer J'suis un putain d'buteur à la Suarez Les euros, d'la gue-dro, les feukeus dans l'rétro J'les vi-ser dans l'métro, iencli au bigo, on est pas des mythos J'ai un Pass Navigo, on arrive aussitôt, j'décolle de la cité On refait la déco', j'ai la mentalité, celle de Zé pequeno La moralité c'est que Bene s'est fait berner par un clito, par un clito Ça prépare le shit mais vas-y chut N'ouvre pas ta chatte ou j'planifie ta chute Nique la BAC et tous ces fils de pute J'suis dans mon kartel, j'vais graille chez Kamel J'bois du Jack miel et j'écoute du Jacques Brel Heuss L'enfoiré, j'suis opérationnel Nouveaux 16, nouveaux flows, nouveaux ienclis Là c'est Heuss L'enfoiré dans les amplis Aujourd'hui j'vi-ser encore un nouveau iencli A l'ancienne comme Del Piero, le terrain d'héro' Jusqu'à Valenciennes j'ai ramené le sirop comme Robert De Niro Appelle-moi surement si tu veux pécho mais t'auras pas d'échant' Les mans sont qués-cho, dédicace à Malsain, j'suis dans le magasin J'oublie pas Many en Cisjordanie, le meilleur pour la fin K-K-K.O.F.S, ma gueule Oussagaza, Heuss L'enfoiré Marseille, Paname Wesh Terro, wesh Malsain 9.3 ma gueule, 9.2, 1.3 On te sert la frappe, on te sert la frappe Viens au rrainté ma gueule hein, dans l'9.3 et on te sert la frappe Préparez le shit, préparez le bloc Ramenez-moi la sacoche, crie akha si y'a les schmits Aujourd'hui je ferai temps plein Aujourd'hui je ferai temps plein A Air Bel, on te sert la frappe La Caste', on te sert la frappe XXX, on te sert la frappe Au Plan d'Aou, on te sert la, on te sert la On te sert la frappe, on te sert la frappe On te sert la frappe, on te sert la, on te sert la1</t>
+          <t>N.A.Z.A, tu connais le name C'est la mou'-mou' Eh, skush Sur la vie d'ma mère Sur la vie d'ma mère, j'ai vue sur la mer Han Sur la vie d'ma mère Sur la vie d'ma mère, j'ai vue sur la mer Han J'ai deux putes et un pit, comme un commandant qui va commander J'ai d'l'argent comptant, est-ce que tu m'entends ? J'sors du comico, j'refais mes lacets Relaxé, j'fonce au thalasso, j'crois qu'j'vais m'faire masser Pas l'temps, délire pas, j'ai pas l'temps J'suis dans l'établissement, dans ton arrondissement, han-han J'suis squé-ma dans l'appart', Manny est dans la vague Ta racli dans l'Abarth, on récupèr ta part Et on v'-esqui les pimpons, Schwarzengger sort le pe-pom Et on v'-esqui les pimpons, Schwarzenegger sort le pe-pom Sur la vie d'ma mère Sur la vie d'ma mère, j'ai vue sur la mer Han Sur la vie d'ma mère Sur la vie d'ma mère, j'ai vue sur la mer Han J'sors du Bella, pas de mitard, renvoie mes lards, j'sors la guitare Stop Y a les métaux dans le Vitto, pas de lève-tôt dans le Merco Stop On sait jamais, on la remet désormais J'étais chez toi pendant qu'tu dormais, 3.5.7, on sait jamais Pas l'temps, délire pas, j'ai pas l'temps J'suis dans l'établissement, dans ton arrondissement, han-han J'suis squé-ma dans l'appart', Manny est dans la vague Ta racli dans l'Abarth, on récupère ta part Et on v'-esqui les pimpons, Schwarzenegger sort le pe-pom Et on v'-esqui les pimpons, Schwarzenegger sort le pe-pom Sur la vie d'ma mère Sur la vie d'ma mère, j'ai vue sur la mer Han Sur la vie d'ma mère Sur la vie d'ma mère, j'ai vue sur la mer Han Mana-mana-mana-ma Mana-mana-mana-mana-mana-mana-ma Mana-mana-mana-ma Mana-mana-mana-mana-mana-mana-ma</t>
         </is>
       </c>
     </row>
@@ -2600,12 +2600,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Palette</t>
+          <t>Reste</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Oui oui, si si Pro-Pro-Professor Skch C'est pas Zampa mais c'est qu'ont fermé la pharma eh Ça, c'est une lance-ba qui les a super bien informé eh Tu la fermes, tu finis infirme à l'infirmerie la street L'OPJ raconte sa vie, moi, j'ai des barres de riz Maman m'a vu faire du sale, papa m'a vu breliqué Pour la moula, tu peux tout niquer, les murs, on les aurait Ça sort direct du comico, l'baveux lui a fait d'l'aïkido C'est d'la re-pu d'Amazonie et tu m'arranges pas, Sur l'retour d'Rotter' en bolide wouh, l'habitacl est parfumé Toi, tu t'réveilles dans ton vomi, t'as trop bu, tu fais ds ballons En plus, y avait d'la meuf à fouet, d'la patate à tartiner Y a du étiré, comme Heuss, j'ai fait l'enfoiré, putain Remets rien à plus tard, j'suis plus déter' qu'un buteur Sur la , j'ai mis deux pleins, j'te fais d'la dinguerie pour deux plots Les traîtres ont l'il du cyclope, à Puerto Banús , y a l'Oclo Boy, des îles, déter' comme un mec du J'rappe pas pour vous remplir la tête Faut qu'j'arrête la cigarette J'rappe pas pour vous remplir la tête La galette ou la plaquette J'rappe pas pour vous remplir la tête Grosse kichta sur la palette J'rappe pas pour vous remplir la tête Une grosse kichta sur la palette J'rappe pas pour vous remplir la tête, de l'oseille plein les poches Fini les tête-à-tête, c'est la Kalashnikov juste pour faire la guerre Eh eh, eh, eh, de l'oseille plein les poches Fini les tête-à-tête, c'est la Kalashnikov juste pour faire la guerre Passe-leur le selem, fais-leur un coucou d'la part du Général et d'la moumou Double GG, Christian Loubou', touche pas la recette, ça, c'est à nougous D'l'est à l'ouest, tu sais qu'on est beaucoup, j'follow que ny-Ma, c'est mon sin-cou skch, skch, skch, skch J'follow que ny-Ma, c'est mon sin-cou En c'moment, j'mène la vie de Zizou, ta salope me fait les bisous D'mande à mon gars bandit Bantou, dans la zone 6, on la vend tous vend tous, vend tous C'est la street, mon pote, on est 112 112, 112, c'est la street, mon pote Sur Paris, j'suis comme sur un Grand Prix, j'arrive plus à dormir Le sac n'est pas rempli et pour les , coups d'shlass dans l'bide Histoire splendide, ticket d'cantine, Plus rien à graille, ça va s'faire la J'rappe pas pour vous remplir la tête Faut qu'j'arrête la cigarette J'rappe pas pour vous remplir la tête La galette ou la plaquette J'rappe pas pour vous remplir la tête Grosse kichta sur la palette J'rappe pas pour vous remplir la tête Une grosse kichta sur la palette J'rappe pas pour vous remplir la tête, de l'oseille plein les poches Fini les tête-à-tête, c'est la Kalashnikov juste pour faire la guerre Eh eh, eh, eh, de l'oseille plein les poches Fini les tête-à-tête, c'est la Kalashnikov juste pour faire la guerre C'est pas Zampa mais c'est qu'ont fermé la pharma eh Ça, c'est une lance-ba qui les a super bien informé eh Tu la fermes, tu finis infirme à l'infirmerie skch, skch, eh L'OPJ raconte sa vie, moi, j'ai des barres de riz eh Heuss L'enfoiré c'est la street, mon pote Faut qu'j'arrête la cigarette La galette ou la plaquette Grosse kichta sur la palette Une grosse kichta sur la palette Faut qu'j'arrête la cigarette La galette ou la plaquette Grosse kichta sur la palette Une grosse kichta sur la palette Faut qu'j'arrête la cigarette La galette ou la plaquette Grosse kichta sur la palette Une grosse kichta sur la palette</t>
+          <t>Bébé, ils sont pas de taille, j'finis le tour de la Terre Il y a trop de gens qui braillent mais on va les faire taire En tournée tout l'été, ma chérie s'inquiétait J'dépose plus de CV, je mets que des coups de CB J'vais pas la quitter, elle me voit partout J'ai pas hésité, c'était le mektoub J'ai pas jalousé, gros, chacun son tour Moi, j'fais que m'amuser, mes sons ils cassent tout Elle s'est entêtée mais elle pense à nous Ils ont enquêté, y avait trop de jaloux Je t'ai fait plurer, ma chérie, j'avoue J'ai tout rgretté, je t'aime comme un fou Reste à mes côtés, pour toi, mon cur il bat Ouais, j'ai déconné, je prends un nouveau départ Laisse-moi mieux t'aimer, me dit pas C'est trop tard Laisse-moi mieux t'aimer, y a rien qui nous sépare Reste à mes côtés, pour toi, mon cur il bat Ouais, j'ai déconné, je prends un nouveau départ Laisse-moi mieux t'aimer, me dit pas C'est trop tard Laisse-moi mieux t'aimer, y a rien qui nous sépare Mon bébé, tes sexy, j'vois notre avenir qui se dessine On a eu des soucis, ton parfum me rappelle le Mexique J'me fais seul comme Pequeño mais j'ai grandi trop vite Moi, j'ai vu des choses ignobles juste avant la perquise Là, j'me sens capable, aujourd'hui, ça va Inséparables comme Pablo et Tata Là, j'me sens capable, aujourd'hui, ça va Inséparables comme Pablo et Tata Elle s'est entêtée mais elle pense à nous Ils ont enquêté, y avait trop de jaloux Je t'ai fait pleurer, ma chérie, j'avoue J'ai tout regretté, je t'aime comme un fou Reste à mes côtés, pour toi, mon cur il bat Ouais, j'ai déconné, je prends un nouveau départ Laisse-moi mieux t'aimer, me dit pas C'est trop tard Laisse-moi mieux t'aimer, y a rien qui nous sépare Reste à mes côtés, pour toi, mon cur il bat J'ai trop déconné, je prends un nouveau départ Laisse-moi mieux t'aimer, me dit pas C'est trop tard Laisse-moi mieux t'aimer, y a rien qui nous sépare</t>
         </is>
       </c>
     </row>
@@ -2617,12 +2617,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Parano</t>
+          <t>Santafe</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Lemon Haze - Freestyle AK 47 - 0101 MIG - Pas de ralentir 3 - 0401 3arbi - Cali Co Freestyle 0401 Blasko - Addition ft. Kai du M - 0401 Dika - Youleuh 9 ft. Zikxo, TK Sasso - 0401 Kepler - Havana - 0401 Leo Roi - Hentai - 0401 ULQUI - SIDE - 0401 YL - Larlar 7 Hollandia - 0501 Favé - Toxic - 0501 Fresh LaDouille - La Douille 7 0501 Gotti Maras - Siglo 0501 Kaneki - Power - 0501 Maes - Galactic - 0501 Peet - Ok Ok - 0601 23 Megabits - MEGASPHERE ft. KronoMuzik - 0601 404Billy - CASSIUS - 0601 Allebou - Prélude. - 0601 Caballero JeanJass - Béatrice ft. So La Lune - 0601 Dabs - Besoin de ça ft. SenSey - 0601 Houdi - CALMITO - 0601 Kamas Skuh - Mental Business ft. Malty 2BZ - 0601 Kofs - Bang Bang Bang ft. Lacrim 0601 Lrk - Pharmacie - 0601 Luv Resval - AZNVR Une minute de musique - 0601 Stony Stone - Step 9 - Clio 2 - 0601 Vves - Message groupé - 0601 YG Pablo - Qustions - 0801 Lazer MMZ - MARK LANDERS - 0901 The Free - Phénix - 1101 Dajak - BLEU ÉLECTRIQUE - 1101 Malty 2BZ - TN ft. Kerchak 1101 Ol Zico - L gun et les épines - 1101 web7 - wifi - 1101 Zeu - RARE - 1201 Alkpote - Chargé ft. Kai du M - 1201 Costa - Tactique - 1201 Dosseh - Haï - 1201 DTF - G.A.G - 1201 Enima - 1942 - 1201 Hamza - Introduction - 1201 Jones Cruipy - Convoi ft. Tyger Stone - 1201 mademoiselle lou - Zénith ft. Booba - 1201 nelick - patoketchup - 1201 PRIME - BERNABÉU - 1201 Sadek - Changement de propriétaire - 1201 Vin's - D.A - 1201 Yvnnis - WASHINGTON - 1301 ASHE 22 - Distance - 1301 Benab - Royal - 1301 Chanje - HEKLA 1301 Dadinho - Dans le mouv ft. Elams - 1301 Dandyguel - Chapitre 1 lhistoire continue - 1301 Doria - T'es fou ou quoi ft. RK - 1301 Elams - All in - 1301 Georgio - Esprit libre - 1301 H. La Drogue - H 1301 Hös Copperfield - Garer - 1301 i300 - Robbery Racket - 1301 J2LASTEU - C'est encore J2 - 1301 Kayna Samet - Au naturel - 1301 Kekra - Nuit et jour - 1301 Kodes - Mourir - 1301 La Kadrilla - Djossi - 1301 Landy - Viral - 1301 Leone - BILLET DE 5 ft. So La Lune - 1301 LVZ - Southside - 1301 Many Santana - AR - 1301 Myth Syzer - Chamaille - 1301 Novy - GRTZKY 1301 Shaz Alex Grox - Morphée 808CLUB ft. EDGE 1301 Slim Lessio - Fausse Force - 1301 Sper-K - TUDOBANG 3 - 1301 Suspect 95 - Société Suspecte ft. Youssoupha - 1301 Upsilon - Ma vie en vaut deux - 1501 Elso - Come On - 1501 Tisco - Dis-moi - 1601 Iss - Libre - 1601 ZKR - Philly ft. SDM - 1801 BinksBeatz 8Ruki - LUNE ft. So La Lune - 1801 Black D - Sauvage ft. Leto - 1801 Gambino La MG - DSQUARED2 - 1801 ISK - Irish Mob - 1801 Keroué - Pablo 1801 Lamatrix - Nkunku - 1801 Lord Esperanza - Caméléon - 1801 MAPESS - DANS LE THÈME - 1801 Sir Reda - Sin City - 1801 Wallace Cleaver - benelli828 ft. Django - 1901 BEN plg Lujipeka - Victor Osimhen 1901 DJ Weedim - Gang Gang ft. Jarod - 1901 Jey Brownie - Grizbi - 1901 Nunca - AHOE - 2001 2TH - J'ai des - 2001 Allebou - Quidam - 2001 Bakari - BakaTsuki ft. So La Lune - 2001 Beateljouss - Casse Tête ft. Hugo TSR Noss - 2001 Beendo Z - . INSPIRÉ DE FAITS RÉELS 5 - 2001 Buds Di-Meh - Salle du temps - 2001 Houdi - EN DIDI Freestyle - 2001 Kaza - HRTBRK 6 2001 Kozi - APRÈS MINUIT ft. Bolémvn - 2001 L'As - O.G - 2001 Lossa2Squa - Jack Honey Oshey3 2001 Lyms - Pluie - 2001 Marjinal - Kamikaze ft. Zed Stavo - 2001 Nakry - Comme avant - 2001 Nusky Vaati - Tech-Deck - 2001 Rafal - Ouu! - 2001 Rapi Sati - Brocolis - 2001 Sobre - Rust - 2001 Tsew The Kid - Fou Malade - 2001 Waïv - M'EN VEUX PAS - 2001 Yuzmv - Mémoire d'un presque rien - 2001 Ziak - Même pas un grincement - 2201 Bigflo - 30 ans - 2301 Achim - Aquarium - 2301 DJ Kayz - Pochette ft. Lybro - 2301 i300 - TOURS - 2301 ULQUI - VICTOR NEWMAN intro - 2401 Rocca DJ Duke - RELATIF ft. Benjamin Epps - 2401 Sadandsolo - Ping - 2501 arøne - novembre - 2501 Celestino - OKOCHA - 2501 GS - Mal au crâne - 2501 Hayce Lemsi - nikola tesla - 2501 Josas - Eh Oh - 2501 Magnim - Kanji commun - 2601 Arthur Qwest - Génie Gazeux - 2601 FouKi - 80's - 2601 Fresh LaDouille - Booska Voltaire - 2601 Le Rain-T - Matrixé ft. GAZY MP - 2601 MAPESS - HASSAL 5 - 2601 Princesse - Gare du Nord - 2601 Vacra - Moto - 2701 Akan - Jazzman - 2701 Atro Boi - SEUL AU MONDE - 2701 Absolem - MYDLY 2701 Alpha Zeleph - PDL, Pt. 2 2701 BAG Jeune B - SMART - 2701 Boub'z - Élastique Freestyle BDLB 1 2701 Drismer PCN - Superstar - 2701 Dr. Yaro La Folie - Garçons - 2701 Gatchete - CHANGER DE DÉCOR - 2701 Genezio - G'en reviens pas ft. Leto - 2701 Heuss L'enfoiré - Chef d'orchestre - 2701 Hornet La Frappe - Hasni - 2701 Josas - Tchikitilla - 2701 Jonjo - Solo - 2701 KeBlack - SALE 2701 KR Malsain - Gros contrat - 2701 La Plaie - Dans l'speed - 2701 La Rumeur - Comment rester propre ? - 2701 L'Don - Rachida Dati 2701 Lemon Haze - Freestyle Traficante - 2701 Lost - Malsain et sauf - 2701 Lybro - Helsinski ft. Captaine Roshi - 2701 Malko - Vis ou meurs - 2701 Maxi Jay - ASHANTI - 2701 MEGA, So La Lune Au6i - BERGER - 2701 Mister V - Match ft. Kerchak - 2701 Moha MMZ - LIBRE - 2701 Negrito - Jeune OG ft. Kodes - 2701 Niro - C'est pas assez - 2701 Princesse - On s'aime - 2701 RD - Dans le noir 2701 SAF - S O L O - 2701 SHAIM - JONAS 2701 Shaz Alex Grox - Langage Codé 808CLUB ft. robdbloc - 2701 Skia - RÉSURRECTION - 2701 Softo - Instinct - 2701 Tengo John - Déluge - 2701 Varnish La Piscine - Ring Island - 2701 Yamê - Call of Valhalla - 2701 Yonidas - Aton - 3001 Le Rain-T - Filon ft - 3101 Achim - Aquarium II - 3101 Pbl - Avec le cur ft. Chanceko - 3101 Ucyll Ryo - GRIS VILLAGE Février - 0102 313 - Petit cur - 0102 Karmen - CASCADE - 0102 Leo SVR - Gin ou Génépi - 0102 Nono La Grinta - Kim K - 0102 rad cartier - MAGNETO 0102 Thabiti - M.A.R.S - 0202 AnNie .Adaa - Appartement 12 - 0202 Benny Adam - Pigalle - 0202 GAZY MP - Batcha - 0202 JEUNESAINT - PuY Tsunami - 0202 Nunca - MILONGA - 0202 Stony Stone - Step 10 - Mystère et suspens - 0202 TIF - AMNESIA - 0202 Yaro - MBC - 0302 Abah - Changer - 0302 Allebou - en vie - 0302 Bramisto - Tous les mêmes - 0302 Bunshiin - Koopa - 0302 Captaine Roshi - Ulyss - 0302 Charles BDL - Sniper 0302 Cikey - DMD - 0302 Compilation Bendo - M'en aller 2 ft. L'Allemand Stef Becker 0302 Elh Kmer - Old Boy En attendant Vivaldi - 0302 Emkal - J'la connais, Pt. 2 0302 Hoody Lando - Bitch Dont Kill My Vibe - 0302 Hös Copperfield - Franklin 0302 La MG - Coco Acai - 0302 Le Risque - Go - 0302 L'Hexaler - Archimede 0302 Lorage - Un peu plus fort - 0302 LP2.0 - Mentale 2 Batard 3 - 0302 Mecra - Faites percer Mecra - 0302 Mougli - Jungle 4 0302 Ol Zico - Évidemment - 0302 Rhemaboy - Renoncé ft. LDV - 0302 Rim'K - Metaverse ft. Freeze Corleone - 0302 SLK - Vie de bandit ft. Kerchak - 0302 Sokra - Rüdiger - 0302 Soso Maness Sat - DLB 17 Amazon Original - 0302 Sultan - Lahuiss - 0302 Zitoune - Freestyle Mackik - 0302 Zola - TOUTE LA JOURNÉE ft. Tiakola - 0502 Laws Babyface - LES MAUX - 0602 Ekloz - Après l'hiver ft. Gris Anthracite - 0702 Bekar - L'album est terminé - 0702 Kamas Skuh - Citroën - 0702 Zamdane - Poussière Affamé 14 - 0702 Recklessboise - BOTCH MODE ft. Realo - 0802 BUHI - Booska Mysterio 0802 Don Milli - Violence gratuite 0802 Lamatrix - Rusé - 0802 Peet - Déjà fait ft. JeanJass 0802 Nadjee - Bien bon - 0802 Oumar - GOAT ft. Souffrance - 0802 Tenn - MONEYTALK ft. Jeune Producer - 0902 47ter - Feeling - 0902 A2H - Paradis - 0902 Beendo Z - Nature morte - 0902 FullBaz - Logiciel 5 - City Run - 0902 Hyacinthe - 10 piges - 0902 J2LASTEU Beyazz - Tiki Taka - 0902 Klem Schen - Clément - 0902 L'Allemand - Véritable - 0902 Loto - Liars - 0902 Malty 2BZ - Booska EDM - 0902 M le Maudit - HANK - 0902 Shaim - JAMAIS DE LA VIE! - 0902 ShuriGuzman - Demain ft. Slimka - 0902 The Free - Quarantièmes rugissants - 0902 web7 - intact - 1002 Absolem - Bougies ft. Limsa d'Aulnay - 1002 AKISSI - FAKE REALITY - 1002 Benjamin Epps - police à ma porte - 1002 Captaine Roshi - Ebola Pt.2 ft. Norsacce - 1002 Deadi - Brazil - 1002 JOON - L'averse - 1002 Josas - Abusadora - 1002 L2B - 5 Étoiles - 1002 La F - Kimbo - 1002 Leto - PSO BOP - 1002 Liim's - L'Dose 5 - 1002 M.A.M - La Prise La Chèvre ft. Makala - 1002 Nia - Vendetta - 1002 Novy - RACK ON - 1002 Sabuu - rien dperso - 1002 Sobre - Takeover - 1002 Tengo John - La Peau dun Monstre - 1002 Werenoi - 3 singes ft. Ninho - 1002 Zbig - Zbigopaïne 1 - 1302 Bné - Control Remix ft. Rsko - 1402 Criminls - Nouvel ordre ft. Freeze Corleone - 1602 Gemen - 2TEMPS2MAISONS - 1502 Blue Sky - Booska Bleu pt. 2 - 1502 Bupropion. - Pourquoi - 1502 Keroué - Cette shit - 1502 Key Largo - Black Dragon NoFake1 - 1502 Landy - Maybach ft. Gazo - 1502 Maes - Opaque - 1502 Michou - B22 ft. Gueule d'Ange - 1502 YL - Dounia - 1602 Achim - Aquarium III - 1602 Bigflo Oli - Tandem - 1602 GEAVN - JET SCOOTER - 1602 Houdi - LE 12ÈME - 1602 ISK - Dublin - 1602 Jones Cruipy - Avec toi 1602 Mayo - Sous pression - 1602 Momsii - Libérable - 1702 Alien - L'orage - 1702 Allebou - jusqu'à - 1702 Ateyaba - ALC - 1702 Axelence - Chérie ft. Tawsen Dima Dima - 1702 Bilk - T'étais où ft. Alonzo - 1702 Bné - Tuer l'ennui - 1702 Boub'z - Tu mérites pas Freestyle BDLB 2 - 1702 Bunshiin - La rivière - 1702 Couli B - Chez moi - 1702 Dandyguel - Fly - 1702 Davodka - Fantômes - 1702 Demi Portion - Microphone ft. Deadi - 1702 Djadja Dinaz - La Force Tranquille - 1702 Draviss - Ballon d'or 1 - 1702 Elams - Histoire de Love 2.0 - 1702 Mapess - CARRÉ Freestyle - 1702 Mara - La revanche - 1702 Max D. Carter - Maillot Bleu - 1702 Negrito - BALA BALA ft. Stavo - 1702 Ol' Kainry - BANG - 1702 Princesse - Skyclub - 1702 Saisai - Crackland 2 ft. La F 1702 Shaz Alex Grox - Chaque Jour 808CLUB ft. Cinco - 1702 SNSET - UNKWOWN - 1702 Sultan - Lahuiss - Remix ft. Six, MC Mays, Nadji Dinero, Leck AMD - 1702 Waïv - GOD'S PLAN - 1702 Walid - Empire 1702 Yaro - Ethanol 1902 Kai du M - Toujours - 1902 Zé - Temps additionnel - 2002 Dalienski - Lunaire - 2002 Hayce Lemsi - JPLM FREESTYLE - 2102 Afro S - Le bon prix ft. Enima - 2102 Celestino - UMA - 2102 Hayce Lemsi - Santana - 2102 Kamas Skuh - Chez Orange - 2102 Zamdane - Affamé 15 - Conditionnés à décevoir - 2102 Ziak - Chrome - 2202 Balafré - JARRIVE TOQUER CHEZ TOI - 2202 Carbonne - Valhalla 2202 Doulkha - RENOUVEAUX - 2202 HD La Relève - Cache cache - 2202 Kepler - Bouge Baby 2202 KR Malsain - Viens voir Freestyle Raplume - 2202 L'As - EGAN - 2202 Lord Esperanza - Paradis ft. Nemir - 2202 MadeInParis - Auto ft. Maureen - 2202 mademoiselle lou - Petit cur - 2202 Ucyll Ryo - NASUBI - 2302 Bilton - Les filles d'à côté ft. SDM - 2302 Damlif - Mentir ah ça jaime - 2302 Hös Copperfield - À LAUBE ft. Ninho 2302 I.K - C'est la Rue ft. Couli B - 2302 L'Don - Walter White - 2302 Lost - Tout ou rien De lautre côté ft. Negrito - 2302 Werenoi - 10.03.2023 - 2302 winnterzuko - GEARLESS - 2402 Dinos - Burn Out Creed III 2402 Djeffi - Le même 2402 Elh Kmer - Apnée En attendant Vivaldi - 2402 Flynt - OEUVRESDART - 2402 Gatchete - FENÊTRE - 2402 Gips - J'suis Stone 2402 Gueule d'Ange - Jimi Hendrix - 2402 Hatik - niyya - 2402 HMZ - Pegasus - 2402 Jayel - Dis moi - 2402 Josman - Tulum, México ft. Sofiane Pamart - 2402 Kaaris - Double K ft. Kerchak - 2402 Kaneki - Déterminé 2402 khazy - CRASH - 2402 LaF - Donne-moi tout - 2402 Larry - TCMV - 2402 Lyre - SOURIRE - 2402 Pins Dimeh - Gamberge - 2402 Rocca DJ Duke - CRIMINEL ft. Youssoupha - 2402 Slayeur Slace - RAPPEL ULTIMATE - 2402 Still Fresh - 20ème symphonie - 2402 Thaubi - RÊVE DE ROBOT 2402 Tissmey - Q7 - 2402 Tyranik - Légendaire 2402 I2S - Arkham 6 - 2602 Akkai - L U M I N O L 2702 Ben.C - BAW - 2702 Keeqaid - Dumb - 2702 PLK - Décembre - 2802 Bekar - Razorlight - 2802 Bené - Marbella 2802 Kamas Skuh - N7 Mars - 0103 Bné - Freestyle Zone 4 - 0103 Diddi Trix - Fondu - 0103 Djadja Dinaz - BooskAlpha - 0103 Gambino - Ghetto - 0103 Heskis - Printemps - 0103 JMK - DSF 0103 La MG - L'époque des cahiers - 0103 LauCarré - 1 freestyle 2 - 0103 Manny - 10h10 ft. Stavo - 0103 M le Maudit - Arnaque au C02 - 0103 Stutt - Santé Famille - 0103 Zokush - A45 - 0203 34murphy - cal.50 - 0203 DavidDeuxFois - Ayia Napa - 0203 Empty7 - Averse Nuit - 0203 Houdi - SOUS LE MANTEAU - 0203 J9ueve - DIAMANT - 0203 Josué - Chic rebelle - 0203 JuL - Keyser Söze - 0203 Lazer MMZ - SERGIO THANOS - 0203 Nessbeal - 212 Africa 0203 Shaz Alex Grox - SkyDweller 808CLUB ft. KR Malsain - 0203 TripleGo - Désert - 0303 Absolem - Grand Méchant Loup Serre Les Dents ft. Caballero - 0303 Allebou - quand ? 0303 Bakhaw - Piñata - 0303 Bedjik - C'est Mort - 0303 BEN plg - Marquer l'histoire Freestyle - 0303 Black Jack - Maille - 0303 Bramsito - Gucci bae 0303 Compilation Bendo - Cité ft. Sadek Bénef - 0303 D. Ace - Eveil 0303 Demszer - KATA 0303 Djel - TIC TAC ft. ISHA 0303 Dwen - Deux temps - 0303 Gambi - ILS ONT PÉTÉ - 0303 GreenWoodz - Friday night - 0303 JOON - LA CALLE ft. Hayce Lemsi - 0303 joysad - Remède ft. LVZ - 0303 JuL - Bobo au Corazon - 0303 L'Algérino - AYÉ AYO ft. Skalpovich - 0303 L'As - COMPTER - 0303 Lemon Haze - Draco - 0303 Leonis - Zakaria - 0303 L'Hexaler - Coronarien ft. Souffrance - 0303 Mécra - Faites percer Mecra 2 - 0303 PHLP - DOULEUR 0303 Reda - Le R 6 - 0303 Rsko - Clio 2 - 0303 Rsko - Elles aiment les OG'S 0303 Ruff - Confidences - 0303 Shay - Jolie Go - 0303 Sokra - Mbappé - 0303 Tunisiano - Melodrame - 0303 USKY - Donatello - 0303 Vin's - Galerie - 0403 JuL - Tu me connais moi - 0503 JuL - Electrique - 0603 Falcko - Dans leur cur - 0603 Implaccable - D Bla ma accueilli à PSO ft. Black D - 0603 JuL - Ça va chérie ça va - 0603 Primero - Vie de chien - 0603 Tisco - J'crime ft. ISS - 0703 Bekar - Plus fort que l'orage - 0703 JuL - Ounanana 0703 Kamas Skuh - Hardy Jeff - 0703 Theodora - C TROP LA LOOSE 3 - 0703 Toam - Répondeur - 0703 Zamdane - Triste mais elle aime ça Affamé 16 - 0803 Celestino - SUNGLASSES ft. Leo SVR - 0803 JuL - Monstro - 0803 KR l'espèce - Espèce 3 0803 La Place - Mauvais sang ft. Beeby, Anglade Berry - 0803 Wallace Cleaver - déconnecté - 0803 ULQUI - CLYDE BONNIE - 0803 YUNG POOR ALO - Malade mon sourire 0903 BKR - EN VITE FAIT 0903 Doulkha - PARKINSON - 0903 Glauque - Pas le choix - 0903 JuL - Kusher Kush - 0903 Maes - Malembé ft. Gims 0903 Shaz Alex Grox - Aller retour 808CLUB ft. Pirate - 0903 Sheldon - Aéroport - 0903 Sheldon - Mars - 0903 thaHomey - RARE GLORY - 0903 TIF - SHADOW BOXING - 1003 Akan - tlmt down - 1003 Atro Boi - La meuf du bâtiment 4 - 1003 CAPUH - BURNING TEARS - 1003 Chat noir - Tous les soirs - 1003 Cikey - Amiri - 1003 Dabs - Paranoïaque - 1003 Doria - C'est fini - 1003 Gemroz - DNB - 1003 Hornet La Frappe - WAX - 1003 JSX - YAKO - 1003 JuL - Petit cur - 1003 La Famax - Ben Affleck ft. BEN plg - 1003 Lapostroz - BLEU - 1003 LauCarré - Carrépisode 6 - 1003 Lucio Bukowski - Animal Forever - 1003 Luni Sacks - Chamailler - 1003 Marjinal - States ft. Kalash Criminel - 1003 Moka K - Premier amour - 1003 Naps - Purple ft. Gambi - 1003 Rvzmo - Kiri Village ft. So La Lune 1003 Saamou Skuu - 2 ROUES Freestyle 1003 Skia - Tout seul - 1003 Tiitof - Riposte - 1103 23wa - FAREWELL - 1103 JuL - Scar et Mufasa - 1203 23wa - FAREWELL - 1203 DMS - APRILIA ft. Rounhaa - 1303 ISK - Vérité 6 - 1303 JuL - Mes affaires - 1303 Leo SVR - Mont Ventoux - 1303 Zéphir - Zéro - 1403 Elams - Fait divers - 1403 Gambino - Honda - 1403 JuL - Messes basses - 1503 AM La Scampia - Nostra - 1503 Deelee S - SPAS 12 - 1503 Django - Arès - 1503 Gazo - NO LÈCHE ft. Leto, Kerchak Favé - 1503 Geeeko - Diamant - 1503 HIMRA - INCHALLAH - 1503 JuL - Paranoïaque 1503 Lp2.0 - Manchester - 1503 LUMJR - ADRIANO - 1503 Mougli - Jungle 5 - 1503 Simony - TECHNOFRAPPE - 1503 Swift Guad - Batterie faible - 1503 Vilk - Nuage 1503 YPN - Jeu de Dames ft. 26Keuss 1603 3arbi - Jingle Bell ft. Amine Farsi - 1603 FullBaz - Logiciel 6 - Appels Manqué - 1603 Guy2Bezbar - La Calle 5 - 1603 HVmanyy - TMAX 1603 I.K - Trahison ft. Le Rat Luciano - 1603 JuL - Je kiff ma life - 1603 L'Don - Spider-Man 1603 Liim's - Freestyle La Foudre 1603 Shaz Alex Grox - Desiiigner 808CLUB ft. 8Ruki 1603 Thabiti - Minuit 1603 TLZ Clan - CHAQUE JOUR - 1703 2TH - 1 fois 2 fois mais pas 15 fois - 1703 47ter - JAD - 1703 Allebou - Les phares éteints - 1703 ASHE 22 - Je visser ft. Mig - 1703 Beendo Z - Nouvelle ère ft. Kerchak - 1703 Benjamin Epps - vivre 1703 Bolémvn - La cité ft. TK - 1703 Cheu-B - TsuSky ft. So La Lune 1703 Couli B - Nasser Al-Khelaifi 1703 Don Milli - Bohème - 1703 Draviss - Ballon d'or 2 - 1703 Elh Kmer - 400m - 1703 Fabio - POISON - 1703 Freeze Corleone - Iniesta ft. Alonzo - 1703 Gutta - Sur moi - 1703 Jarod - Start 2023 - 1703 Jeune Lion - SOUL - 1703 JYEUHAIR - Ciel - 1703 Kaaris - Le Roi des Ombres - 1703 Keus GTHM - 17 - 1703 L2B - Dans La Chambre Money ft. Franglish - 1703 Lascaar - Moi-même - 1703 Lost - Pont Champlain - 1703 Lucio Bukowski - Et le prestidigitateur ivre manqua son tour - 1703 Many Santana - Qatari 1703 Mayo - Fête 1703 Momsii - Polaroïd - 1703 Nakry - Nananère - 1703 Ormaz - Bulldog - 1703 OSO - Vibrer - 1703 Prototype - Slidy 3 4x4 - 1703 Rim'K - Loup blanc - 1703 Rouge Carmin - Flou - 1703 Sadek - DANOIS Freestyle - 1703 Still Fresh - Maman prie pour moi 1703 Trixxo - Teh 4 - 1703 UZI - Joe Frazier - 1703 Wood - Sévère - 1703 Zed - Mélodies et Pensées - 1703 Zidi - MODEL ft. Sirap - 1803 RAS - Diamants - 1803 SOPA - ASUNA - 1903 Lazer MMZ - La Plume 2003 Key Largo - Screen NoFake2 - 2003 Le Risque - J'ai pas taillé ft. Fresh LaDouille - 2103 Sheng - QLT - 2103 Zamdane - Angels Affamé 17 - 2103 Ziak - Pistol Zamal - 2203 313 - Ecchymoses, pt. II - 2203 Dabs - Je pense à toi ft. Moona - 2203 DA Uzi - C'est la rue - 2203 Fresh - 32 - 2203 JNR - Mérité - 2203 L'Allemand - La Masia - 2303 Croma619 - Attaquant sérieux - 2303 Damlif - Carmageddon - 2303 Enfantdepauvres - Mon amour - 2303 Jay Jay - Millionnaire 2303 Shaz Alex Grox - Jutsu 808CLUB ft. Beeby - 2303 Waltmann - B.O.M.B - 2403 528ron Lovarran - 0 Confiance En La Chance - 2403 Alien - Plus de soleil sous les nuages - 2403 Allebou - J'essaie - 2403 Cellulaire - ÇA SERAIT MENTIR ft. Sno3 - 2403 Charles BDL - Allo Charlie - 2403 Fresh - FAM - 2403 GRËJ - SINIK EN 2006 - 2403 Hatik - shoot - 2403 HD La Relève - C'est le binks - 2403 Jwles - Rubans ft. Le Lij - 2403 Kerchak - JFLM JMR - 2403 Kobo - Terrain - 2403 Lestin - Tout peut s'effacer - 2403 Lord Esperanza - Solitaire - 2403 L'uZine - Or - 2403 Moji x Sboy - LA LUNE À DÉCROCHER 2403 Nyda - Briques - 2403 RD - Trop tard 2403 Selby - BLACK 2403 Sokra - Davies - 2503 Antoniucci - DÉSERT - 2803 Bekar - Coloris 2803 Sto - Jersey Drill 5 ft. GAZY MP J2LASTEU - 2903 Django - Sur un fil ft. Empty7 - 2903 Doxx - Une chose à te dire - 2903 NeS - LE SOURIRE D'UNE TOMBE - 2903 Shien - Ghost Dog Freestyle - 2903 Wheeps - Krack ft. Gama Boonta - 3003 Coyote Jo Bastard - Royal Cheese Baby Bando 1 - 3003 Meryl - Ghost 3003 Shaz Alex Grox - Vinci park 808CLUB ft. Slkrack - 3003 T.I.S Kaer MKS - Western - 3103 404Billy - Sociologue Sociopathe - 3103 47ter - Si j'avais ft. La Fouine - 3103 AAMO - VISION SML Freestyle - 3103 Allebou - oui mais, ... 3103 anaïs, 2TH Majeur-Mineur - Do it anyway - 3103 Baby Gang - Mentalité RMX ft. ASHE 22 - 3103 Cellulaire - EST-CE QUE CEST DU FLEX ? ft. Sno3 - 3103 Dasuun - DaAp - 3103 Dr. Yaro La Folie - On sen fout - 3103 Engal Sama - Tu flippes - 3103 FullBaz - Logiciel 7 - Atmosphère - 3103 Gambino LaMG - La calle - 3103 GAZY MP - Movie - 3103 Lossa2Squa - Paramour Oshey4 3103 Louis Aoda - Fausses promesses - 3103 Prototype - Mood Rockstar - 3103 Samayusi - Loin de là 3103 Skefre - Puissant - 3103 Surprise - Angèle Pomme - 3103 Theodore - 2012 Balotelli ft. S.Téban - 3103 Tunisiano - Mektoub ft. Nemir - 3103 Yonidas - CFA 3103 Zidi - FONCTIONNER ft. Mona San Avril - 0404 Kaba Hyas - SPEED UP - 0404 Zamdane - Bataille Affamé 18 - 0405 Zoomy - un, dos, tres - 0504 Bluume - NUUEVE ft. Triple Nine - 0504 Cyrious - Bandits - 0504 Douze Déluge - SUBUTEX - 0504 rad cartier - FRANC JEU - 0504 Urde - Radeau - 0604 Costa - Toc Toc - 0604 Kik - Chaud - 0604 Skia - Devant ta porte - 0604 Souldia - Le vide - 0604 Yome - 200 - 0704 34murphy - cash - 0704 Bambino47 - .LUNE NOIRE. 0704 Bhk220 - C'est moi - 0704 Ghetto Phénomène - C'est mon année ft. Soprano - 0704 L'Don - Maradona sous zipette Remix ft. Double Zulu, Papi TeddyBear, Ya, Donk, GRËJ, NDrick, Batel OG Kedy - 0704 Lybro - What's love - 0704 Rémy - Viking - 0704 SDM - Nous deux - 0704 Starski - CLOUD 9 - 0904 Beeby - ON VERRA DEMAIN - 1204 Heuss L'enfoiré - Moulaga Sped up ft. JuL - 1204 Svudvde - Chargeur - 1304 47ter - Où tu voudras ft. Tayc - 1304 Gims - HERNAN CORTÉS - 1304 Le Juiice - BOO 1304 Shaz Alex Grox - VAR 808CLUB ft. Negrito - 1304 Slkrack - Goal - 1404 Allebou - M'attends pas. - 1404 Atro Boi - Mes 2 yeux sur ton bassin ft. OSO - 1404 Benash - On Monte - 1404 Bob Marlich - Tout - 1404 Cashmire - 16 appels manqués - 1404 Elh Kmer - Nouvelle Map - 1404 Fiji God - Messi - 1404 James Loup - TÉMÉCHÉMOA 1404 Jolagreen23 - MADMAX1 Freestyle - 1404 Mac Seamus - HUMAIN - 1404 Mister V - Bootleg - 1404 Riski - Chemtext - 1404 SOPA - ICE - 1404 Yanns - Prisonnier - 1504 wasting shit - RedddHoT - 1604 Lil Zamm - Name - 1704 Henri Bleu - On s'adore - 1804 Makala - Lettre dun Yonko - 1804 Zamdane - Ma réalité Affamé 19 - 1904 Douze Déluge - BAMBI - 1904 H JeuneCrack - Présidentiel flow - 1904 USKY - Rétina ft. SDM - 1904 Wallace Cleaver - est-ce que je laime ? - 2004 Stony Stone Houdi - BOOSKAVANT LES YEUX - 2004 Le Risque - Aggravage 3 ft. Mig Zokush - 2004 Mairo - nouvelle écriture - 2104 34murphy - kino der toten - 2104 Achim - SPRING - 2104 Dau - 22H22 - 2104 Doria - JUSQU'ICI TOUT VA BIEN ft. Nahir 2104 Koffi Lossa - Okay - 2104 La Famax - Fetty Wap 2104 L'As - Jamais Freestyle - 2104 Linton - After Life - 2104 Osmoz - Regarde-les ft. OB - 2104 Rémy - Larmes - 2104 Reynz - UN PEU DE PEINE - 2104 Yuzmv - J'oublie 2604 Araujo - BORDEL - 2604 Arsaphe - PLAQUÉ L - 2604 Enock - DANS LE MAL 2604 KLS Le Rat Luciano - A FORCE DE VIVRE ft. JuL - 2604 Peka59 - Plan C - 2604 rad cartier - NOCTUZOOK ft. Vacra 2604 Rouge Carmin - La tache - 2604 Sheldon - Brouillard 2604 Sicario - C.E.R - 2704 Glauque - Noir - 2704 HK La Paille - Ambiance d'hiver - 2704 Jnr Slice - Booska Denzel Jr North Slice Freestyle 5 - 2704 Magnim - BURN OUT ! - 2704 Shaz Alex Grox - INTACT 808CLUB ft. Zikxo - 2704 Sheng - Infini 2704 Zek - Plus l'temps - 2804 Aketo - Pot de départ - 2804 Allebou - Travail 2804 Elams - Les braisés - 2804 Fresh - Célèbre ft. Frenetik - 2804 Gemen - Je t' 2804 Ghetto Phénomène - La Corniche - 2804 Ibé - Chez Moi ft. Kerchak - 2804 JMK - PRÊT À GAGNER 2804 Junior Bvndo - Kuibazo 2804 Kingzer - César - 2804 Koba LaD - Ténébreux 6 - 2804 LauCarré - Mehdi Maïzi - 2804 Lil Zamm - Seul - 2804 L'uZine - Réunion - 2804 Makala - Ensemble Baby 2804 Maska - Abîmes 2804 OldPee - Gali - 2804 Soleil Noir - Lunettes Cartier - 2804 St. Jimmy - READY AS FCK - 2804 Zokush - Pas là Mai - 0205 Chaax - Le Code ft. Booba - 0205 Ninho - Freestyle LVL UP 1 0205 Slkrack - Hasbullah - 0305 Diddi Trix - Trix Interlude - 0305 Hakai - PERDU D'AVANCE - 0305 Kik - Adieu - 0305 luvumaxx - fly away 0305 TK - Heffrite - 0405 Fabio - SUPERSONIQUE 0405 Jolagreen23 - DEFCON - 0405 Lazer MMZ - INTRO RAGNAR - 0405 Nahir - POV - 0405 Raous Gang - Terrain miné 10 ft. Fresh LaDouille - 0405 Ratu - Grillade 4 ft. HoussBad - 0405 Slkrack - Virée Nocture ft. Doums EDGE - 0505 34murphy - cavale - 0505 Alonzo - J'avais besoin d'un père Bonus track 0505 Arka - Let's go - 0505 Benab - 6 Coups - 0505 Gambino La MG - Eyes contact ft. Franglish - 0505 GAZY MP - OPTION - 0505 Hatik - amnezia - 0505 Jayel - Dans ma ville - 0505 Kaaris - Pena Duro - 0505 Kaza - Douleur - 0505 L'Allemand - Remontada - 0505 Larry - INDICA - 0505 Leto - ZAZA - 0505 Luv Resval - Jeune Vador - 0505 Malo - MÉDICATION - 0505 Moji x Sboy - LA FIN DE L'HISTOIRE 0505 Negrito - Folie - 0505 Nyda - Mauvais mélange ft. Osirus Jack 0505 Sicario78 - Guitare triste ft. Kalash Criminel 0505 Still Fresh - Sentiments - 0505 St. Jimmy - paceMAK3R - 0505 thaHomey - BLVD.HAUSSMANN - 0505 Vadek - PERDU - 0705 Mortalla - Calibré - 0805 Lybro - Booska Oozaru 0905 Ormaz - Mia ft. AK - 0905 Vink - Comeback - 0905 T.I.S Dysflow - Lycanthropie 1005 Couli B - Ambiance Joviale 1005 Lpee - 1010 ft. Moken, Capou, Aketo, Lucci, Chanje, D6, Hash24, Chatnoir Celestino - 1005 Soso Maness - Le Haqq - 1105 Bavar - MAUVAIS MONDE - 1105 Gambi - GUETTE - 1105 Ninho - Freestyle LVL UP 2 - 1105 No Limit - LA RUE ft. Gazo Damso - 1105 Sto - Grand bain - 1105 Zamdane - Affamé 20 - Mob - 1205 313 - Personne ft. Jadana - 1205 404Billy - Enfant Éternel - 1205 BLOODYANJI spookyghost333 - CYBERPUNK - 1205 Cashmire - RIP VIRGIL - 1205 Chanje - MONSTRE - 1205 GLK - Essaye - 1205 Heuss L'enfoiré - Get 27 1205 JSX - Sans peine - 1205 JuL - La faille - 1205 La Pépite - NO PRAY ft. AAMO - 1205 Lp 2.0 - Franck Lucas - 1205 Moha MMZ - HABITUÉ - 1205 Moms - Backflip - 1205 Nakry - Règlement de compte - 1205 Sadek - Le zin - 1205 Savage Toddy - Tout s'en va sauf les souvenirs - 1205 SNSET - TOUTROULE! - 1205 Thabiti - All eyes on me ft. Youssoupha - 1505 Coelho - Parapluie 1705 3arbi - Freestyle Interlope - 1705 Django - Sobre - 1705 Gen - GULLIVER - 1805 HK La Paille - Comme Rosa - 1805 L'uZine - On va les pendre ft. Onyx - 1805 Ol' Kainry - Valar Morghulis ft. A2H, Alkpote, Kai du M, Sadek, Testos, Souffrance, Alonzo, Kamnouze, Horseck Mac Tyer - 1805 Zamdane - Formidable Affamé 21 - 1905 323madon - ADAM EVEUU - 1905 Beendo Z - Mbappé - 1905 Black Jack - Intro - 1905 Bob Marlich - Maison d'arrêt - 1905 Deadi - OD 1905 DIL - C'ÉTAIT UNE HISTOIRE ft. Chakir 1905 Dwen - Toutes les couleurs - 1905 Emkal - Zina - 1905 Fadah - Le dernier - 1905 Fik's Niavo - Stockholm ft. Rocé JP Manova - 1905 Gambino - Batman - 1905 Georgio - Avant l'été - 1905 Jeune Ras - New slime ft. Kalibre - 1905 JMK - Extendo ft. ASHE 22 - 1905 Kalash Criminel - This is Oim - 1905 Karmen - UN PEU PLUS SIMPLE - 1905 KronoMuzik - Boulot ft. Maxime Biaggi, Houdi web7 - 1905 KT Gorique - Papier - 1905 Lil Zamm - Pürple - 1905 Linton - Le jour se lève ft. Eline - 1905 Rimkus - Ali ft. Lacrim, Werenoi Mac Tyer - 1905 Roméo Elvis - Iggy Pop - 1905 Rouge Carmin - La Villa - 1905 Saamou Skuu - Matic - 1905 Zeu - ONYX - 2105 Rethno - Meilleur - 2205 Mig - Okok - 2205 Ndoba - 3B ft. Gama Boonta - 2205 Ninho - Freestyle LVL UP 3 - 2405 Bluume - RESTERSAIN - 2405 Coelho - Soundcheck - 2405 Daejmiy - Le 5 Étoiles ft. Slimka - 2405 Disiz - midnight - 2405 Draviss - Ballon d'or 3 - 2405 Gemroz - Plus Tard - 2405 GRËJ - Le Restaurant - 2405 ISK - Freestyle Italie - 2405 Kay The Prodigy - Combien ? - 2405 Lpee - East London Nouvelle École - 2405 Vilk - Tsunami - 2405 Yuz Boy - Baby Mama - 2505 FullBaz - Logiciel 9 - Toplines 2505 Madrane - Vaillant ft. Fresh la Douille - 2505 RD - Paranoïaque - 2505 Sheng - FROID - 2505 Vin's - Asphalte - 2605 Achim - feugréjoi - 2605 Allebou - Constance - 2605 Double Zulu - C'est mort - 2605 Dri-i - Donnie - 2605 Fanny's Station - 2e Station - 2605 Favé - J'aime pas perdre Freestyle - 2605 Kobo - Horizon - 2605 Ghetto Phénomène - Patek ft. RAF Camora - 2605 Guy2Bezbar - Guapa - 2605 Huntrill - JE PRÉFÈRE ÊTRE TRISTE - 2605 Joé Dwèt Filé - Délire ft. Tiakola - 2605 JuL - Ragnar - 2605 Lacrim Mister You - GOGETA - 2605 LaHasba22 - 22 ft. Nono La Grinta - 2605 Mayo - Mauvais ft. Niska - 2605 Nahir - Piranha ft. Vacra - 2605 Nayra - Sharnaqa - 2605 Rim'K - Cicatrice ft. Zamdane - 2605 Sasso - Tour du monde - 2605 Sazamyzy - Cash ft. ASHE 22 - 2605 WarEnd - No Signal - 2605 YG Pablo Sofiane Pamart - Magie - 2805 Seyté - J'marche - 2905 Doxx - Une Chose A Te Dire - 2905 Ormaz - Détroit - 2905 Slkrack - Booska Kunta Kinté - 3005 Magnim - Lullaby - 3005 Yassin - ONE KISS RMX - 3105 Bekar - A minuit - 3105 Coelho - AMF - 3105 Dau - Finale - 3105 Esso Luxueux - HILLS - 3105 Kold Vizion - RACKS ft. Gama Boonta Iburaa - 3105 Magnim - Lullaby - 3105 Yuz Boy - Yafama ft. Bassey Kone Juin 0106 3arbi - Roosevelt - 0106 6rano - sous-côté - 0106 Allebou - Shine - 0106 Liim's - 1ère sommation ft. Gazo - 0106 mademoiselle lou - Mélange - 0106 Malty 2BZ - Push it - 0106 rad cartier - CARTIER ROUGE - 0106 Yamê - Bécane - 0206 Alien - Comme avant - 0206 AM La Scampia - IMSI CATCHER - 0206 babyxi - I MISS U ft. Wandenn - 0206 Butter Bullets - Message personnel - 0206 Cellulaire - POURQUOI ON NE S'AIME PAS? 0206 Chad de la Cour - putain d'écran - 0206 Cheu-B - Guitarisé ft. SDM 0206 Coyote Jo Bastard - Brrr Baby Bando 2 - 0206 Dinor Rdt - SOUS PIAV ft. Inoxtag 0206 Doria - Cristal 0206 Drismer PCN - Afro Jersey 2 - 0206 Heuss L'enfoiré - Saiyan ft. Gazo - 0206 Kerchak - Salement ft. Alonzo - 0206 Le 3ème il - Braquage à la Marseillaise ft. JuL - 0206 Lucci - Réflexion 0206 MadLvL - NOUVELLE ÈRE - 0206 Magnar - INFINI VIBE 0206 Momsii - Mondeo - 0206 Negrito - T'es bête ou quoi ? - 0206 Novy - FEAT DIPSET - 0206 okis - Textile - 0206 Pirate - Gervonta Davis Freestyle - 0206 Prototype - Le Donneur 0206 RR - IMMORTEL - 0206 Selug - Pas clair - 0206 Sto - Work - 0206 Yanso - Bx Capitale 7 ft. ZKR - 0406 Adæb - Ma3lich - 0606 JuL - Entraînement - 0706 ANTHA - JAI DEMANDÉ AU SOLEIL - 0706 Femtogo - MKII - 0706 Ninho - 25 G - 0706 Sir Reda - Jardin Secret - 0706 Wallace Cleaver - dans ma tête - 0806 AAMO - TRAGIQUE - 0806 ASHE 22 - Pull Up - 0806 Shaz Alex Grox - SGG 2 808CLUB ft. Slimka - 0906 404Billy - Title Shot - 0906 Farlot - FIFA STREET - 0906 GEAVN - BALAYER - 0906 GLK - 140k - 0906 Heykel - H17 - 0906 HK La Paille - Chance - 0906 JRK 19 - Mec de Panam 0906 Lartiste - Geto ft. 1da Banton - 0906 LauCarré - Bieber - 0906 Limsa d'Aulnay - Tout simplement - 0906 Lpee - All Night - 0906 Maydo - Ziyech - 0906 Mougli - Me3hna - 0906 Naza KeBlack - 1,2,3 Soleil - 0906 NDO Runway - Juste Parler 0906 Norsacce - Drill Bolywood - 0906 Pharoa - 555 - 0906 Princesse - Mélo triste - 0906 Sadek - Plug ft. Nordo - 0906 SAF - PLAVON - 0906 Tengo John - Komdanzunrêve Sincèrement Désolé 0906 Tiitof - Sheriff - 0906 Uzi - Pélican - 1006 Leys - Si cétait le premier Intro - 1106 Seyté - Zitoun - 1206 Ratu - Ange Démon 1206 Sper-K - REVENANT 1 - 1206 Voleur2Voleur - Mentalité - 1306 Big Ben - Plus qu'un Ballon d'or - 1406 Jayel - Qué pasa - 1406 Nayra - le nord - 1406 So La Zone - Pare-balles - 1406 Svudvde - Dis-moi tout 1506 Chich - Byzantin ft. Le Juiice - 1506 Esso Luxueux - 10 Grammes - 1506 Glauque - Bleu.e - 1506 FullBaz - Logiciel 10 - DEEPSIDE - 1506 ISK - La mia vita - 1506 Juice - Le Plan - 1506 Many Santana - 5 AM - 1506 Nahir - BooskAraï 3 - 1506 Prototype - LE SOLEIL EST LEVE 1506 TLZ Clan - VINI - 1606 ADÉS THE PLANET - MILLIONS - 1606 Arka - Le jour se lève ft. Lpee 1606 Ashh - Pulpeuse - 1606 Ateyaba - Shenron - 1606 Booba - Signé - 1606 Butter Bullets - Le Score ft. Tedax Max - 1606 Coelho - Donner ft. Slkrack - 1606 Du Nord au Sud - Glock 17 ft. Kerchak RK - 1606 Elso - Let's Get It - 1606 Gradur - Mon BB ft. Hamza - 1606 Kaaris - BORZ - 1606 Karmen - NIGO - 1606 KIK - La vibe - 1606 Krisy - Et si ? 1606 Lamatrix - Magot - 1606 Le Rat Luciano - Z - 1606 Lotus - Les larmes coulent à lintérieur - 1606 Magnar - LE CIEL EST DEVANT TOI - 1606 Ptite Soeur - nepas cliquer - 1606 Soso Maness - Favel ft. Leto - 1806 Adæb - Gucci ft. Chad de la Cour Souhail - 1906 Gama Boonta - FRIED BARZ CHICKEN - 1906 Gapman - Crazy Story 1906 Ormaz - M.P.R, Pt. 1 - 1906 Peka59 - Là-bas 2106 Diddi Trix - Tomber pour mieux se relever - 2106 Dosseh - Macabre ft. Josman - 2106 Mazoo - Charmed - 2106 Rohff - NotoriHous ft. Big Ali - 2106 Sasso - Redémarrer - 2206 Asinine - Demi Moore - 2206 Asinine - Vivement quoi - 2206 Jwles Mad Rey - Je Fais le Coq - 2206 Lartiste - Zarzour - 2206 Mécra - Haut de gamme - 2206 Moha K - Chouffo w Goulo - 2206 Saamou Skuu - Dans ça - 2306 2TH - Développe ft. Majeur-Mineur - 2306 Alonzo - Guadalajara - 2306 Deelee S - Jeune Garçon - 2306 Demi Portion - Mon dico royal - 2306 Ether - AMADEUS - 2306 Favé - Vibes - 2306 Hornet La Frappe - Eyes Contact - 2306 Iron Sy - Narcocorrido 2306 Kepler - Trop canon ft. Gambino La MG Negrito - 2306 L'Allemand - K-LIBRÉ - 2306 Jeebs - LIM - 2306 Maes - Méchant - 2306 Matou - La prod me casse la tête ft. BEN plg 2306 Moubarak - Moral par terre 2306 Nyma - La Mañana - 2306 RR - CARLITO 2306 Sazamyzy - KICHTA ft. Rim'K 2306 Shotas - Mange - 2306 Stony Stone - Évidemment ft. Skary Wysko - 2306 Vicky R - Yeah ft. Chilla 2306 Volts Face - Dis Le - 2306 YUNG POOR ALO - Système D - 2506 Osirus Jack - Nautilus ft. Lesram - 2506 Zeu - CAPTAIN TSUBASA ft. Venom Cz - 2706 Douze Déluge - TENDANCES HEROÏQUES - 2806 Benjamin Epps - Capitaine Flamme Remix ft. Veerus, Le Juiice Vicky R - 2806 Leto - Mozart Capitaine Jackson Épisode 3 - 2806 robdbloc - Pourquoi - 2806 Sofiane - JeSuisPasséChezSo2023 - 2806 Warlock - Freestyle Parachute - 2906 8ruki - Nou Ja Sa</t>
+          <t>Ola chica, qu'est-ce t'as fait ? ouh, j'ai tout caché à Santafe wAllah Y a les képis dans l'estafette ouh, j'sors du ballon donc j'fais la fête sku, sku On fait remplir les narines à Maradona J'ramène le machin qui vient du Maracana J't'ai pas vu tourner en promenade avec Nyma Soolking, Heuss et ma-Ny, c'est un assassinat Dame-me-me Elle est bonne mais y a toujours un mais Dame-me-me Faut les lovés pour la calmer Laï, laï, laï, laï GP-800 et casque Araï Laï, laï, laï, laï On a fait tout ça pour d'la maille Elle arrive en te-boî, les seins siliconés Tout l'mond la connait, elle a cent mill abonnés Fallait pas faire le con, fallait pas tout lui donner Elle t'a fait du s'hour, tu lui as tout pardonné Dame-me-me Elle est bonne mais y a toujours un mais Dame-me-me Faut les lovés pour la calmer Tu connais mon sin-c', on l'appelle Le Heuss Maintenant, tu la 7ess, j'démarre la RS Malaga, Boumerdes, Buenos Aires Grosse brigade, c'est l'OCTRIS, pas les CRS J'la sens pas, j'ai benda en Hollanda Ma-Ny envoie les mandats, j'suis posé avec Anita Et fallait pas libérer Nyma, c'est un assassinat J'fonce au Panama, j'travaille en famille, c'est pas du cinéma Laï, laï, laï, laï GP-800 et casque Araï Laï, laï, laï, laï On a fait tout ça pour d'la maille Elle arrive en te-boî, les seins siliconés Tout l'monde la connait, elle a cent mille abonnés Fallait pas faire le con, fallait pas tout lui donner Elle t'a fait du s'hour, tu lui as tout pardonné Dame-me-me Elle est bonne mais y a toujours un mais Dame-me-me Faut les lovés pour la calmer Aristocrate mais sans la canne C'est pour la gratte qu'on a démarré la bécane Aristocrate mais sans la canne Sur un coup d'tête, on met les voiles à Manhattan Oui, wAllah Nyma, Heuss, Soolking, ouh Nyma, Heuss, Soolking Nyma, Heuss, Soolking WAllah, ouh, ouh, ouh</t>
         </is>
       </c>
     </row>
@@ -2634,12 +2634,12 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Pimpon</t>
+          <t>Shayo</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>N.A.Z.A, tu connais le name C'est la mou'-mou' Eh, skush Sur la vie d'ma mère Sur la vie d'ma mère, j'ai vue sur la mer Han Sur la vie d'ma mère Sur la vie d'ma mère, j'ai vue sur la mer Han J'ai deux putes et un pit, comme un commandant qui va commander J'ai d'l'argent comptant, est-ce que tu m'entends ? J'sors du comico, j'refais mes lacets Relaxé, j'fonce au thalasso, j'crois qu'j'vais m'faire masser Pas l'temps, délire pas, j'ai pas l'temps J'suis dans l'établissement, dans ton arrondissement, han-han J'suis squé-ma dans l'appart', Manny est dans la vague Ta racli dans l'Abarth, on récupèr ta part Et on v'-esqui les pimpons, Schwarzengger sort le pe-pom Et on v'-esqui les pimpons, Schwarzenegger sort le pe-pom Sur la vie d'ma mère Sur la vie d'ma mère, j'ai vue sur la mer Han Sur la vie d'ma mère Sur la vie d'ma mère, j'ai vue sur la mer Han J'sors du Bella, pas de mitard, renvoie mes lards, j'sors la guitare Stop Y a les métaux dans le Vitto, pas de lève-tôt dans le Merco Stop On sait jamais, on la remet désormais J'étais chez toi pendant qu'tu dormais, 3.5.7, on sait jamais Pas l'temps, délire pas, j'ai pas l'temps J'suis dans l'établissement, dans ton arrondissement, han-han J'suis squé-ma dans l'appart', Manny est dans la vague Ta racli dans l'Abarth, on récupère ta part Et on v'-esqui les pimpons, Schwarzenegger sort le pe-pom Et on v'-esqui les pimpons, Schwarzenegger sort le pe-pom Sur la vie d'ma mère Sur la vie d'ma mère, j'ai vue sur la mer Han Sur la vie d'ma mère Sur la vie d'ma mère, j'ai vue sur la mer Han Mana-mana-mana-ma Mana-mana-mana-mana-mana-mana-ma Mana-mana-mana-ma Mana-mana-mana-mana-mana-mana-ma</t>
+          <t>J'suis à l'hivernage, dans le casino On a fait le ménage, rentré des palos Elle veut un bandit, le regard en dit long Du rouge sous les Fendis, ça fume la beuh citron J'ai gardé toutes mes parts N'attends pas qu'on t'épargne J'ai gardé mes réflexes de bandit Toujours en jet lag Restau' cinq étoiles Le nouvel empire s'agrandit Ça, c'est la vie qu'on mène, la vie qu'on aime Quoi qu'il arrive toujours en shayo Ah, c'est la vie qu'on aim, la vie qu'on mène Quoi qu'il arrive toujours n shayo J'suis en shayo Elle voulait l'anneau Mais j'suis qu'un salaud Tous nos plans tombent à l'eau Ce soir, j'ai bu la teille en shayo shayo, shayo shayo, shayo Ce soir, j'ai bu la teille en shayo shayo, shayo shayo, shayo Plus grand débat et bizarre, toujours en shayo On a quitté la rue, aujourd'hui ça finit chez Chanel Plus dans des sales d'histoire, madame s'est faite toute belle La main sur la cuisse, j'ai le cur qui palpite Gang, gang, gang, chérie faut qu'tu le saches Que noir sentiment en faillite Dring, dring, dring, j'te réponds plus tard J'suis avec une autre belle, ça se dit pas Ça, c'est la vie qu'on mène, la vie qu'on aime Quoi qu'il arrive toujours en shayo Ah, c'est la vie qu'on aime, la vie qu'on mène Quoi qu'il arrive toujours en shayo J'suis en shayo Elle voulait l'anneau Mais j'suis qu'un salaud Tous nos plans tombent à l'eau Ce soir, j'ai bu la teille en shayo shayo, shayo shayo, shayo Ce soir, j'ai bu la teille en shayo shayo, shayo shayo, shayo J'suis en shayo Elle voulait l'anneau Mais j'suis qu'un salaud Tous nos plans tombent à l'eau Ce soir, j'ai bu la teille en shayo shayo, shayo shayo, shayo Ce soir, j'ai bu la teille en shayo shayo, shayo shayo, shayo Ce soir, j'ai bu la teille en shayo shayo Shayo, shayo, han-han Shayo, shayo, shayo, shayo, han-han, han-han</t>
         </is>
       </c>
     </row>
@@ -2651,12 +2651,12 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Reste</t>
+          <t>Sous Pillave</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Bébé, ils sont pas de taille, j'finis le tour de la Terre Il y a trop de gens qui braillent mais on va les faire taire En tournée tout l'été, ma chérie s'inquiétait J'dépose plus de CV, je mets que des coups de CB J'vais pas la quitter, elle me voit partout J'ai pas hésité, c'était le mektoub J'ai pas jalousé, gros, chacun son tour Moi, j'fais que m'amuser, mes sons ils cassent tout Elle s'est entêtée mais elle pense à nous Ils ont enquêté, y avait trop de jaloux Je t'ai fait plurer, ma chérie, j'avoue J'ai tout rgretté, je t'aime comme un fou Reste à mes côtés, pour toi, mon cur il bat Ouais, j'ai déconné, je prends un nouveau départ Laisse-moi mieux t'aimer, me dit pas C'est trop tard Laisse-moi mieux t'aimer, y a rien qui nous sépare Reste à mes côtés, pour toi, mon cur il bat Ouais, j'ai déconné, je prends un nouveau départ Laisse-moi mieux t'aimer, me dit pas C'est trop tard Laisse-moi mieux t'aimer, y a rien qui nous sépare Mon bébé, tes sexy, j'vois notre avenir qui se dessine On a eu des soucis, ton parfum me rappelle le Mexique J'me fais seul comme Pequeño mais j'ai grandi trop vite Moi, j'ai vu des choses ignobles juste avant la perquise Là, j'me sens capable, aujourd'hui, ça va Inséparables comme Pablo et Tata Là, j'me sens capable, aujourd'hui, ça va Inséparables comme Pablo et Tata Elle s'est entêtée mais elle pense à nous Ils ont enquêté, y avait trop de jaloux Je t'ai fait pleurer, ma chérie, j'avoue J'ai tout regretté, je t'aime comme un fou Reste à mes côtés, pour toi, mon cur il bat Ouais, j'ai déconné, je prends un nouveau départ Laisse-moi mieux t'aimer, me dit pas C'est trop tard Laisse-moi mieux t'aimer, y a rien qui nous sépare Reste à mes côtés, pour toi, mon cur il bat J'ai trop déconné, je prends un nouveau départ Laisse-moi mieux t'aimer, me dit pas C'est trop tard Laisse-moi mieux t'aimer, y a rien qui nous sépare</t>
+          <t>Oh oh, oh oh Oh oh, oh oh Oooh, ooh Paname Mexico Yah J'ai trainé dans l'bât', zéro déguaine ah ouais mais j'gérer des fes-meu Elle a un pétard de fou quand elle déguaine ah ouais, entouré de moula, j'me demande qui fait mieux ? Elle veut mon cur, elle l'aura même pas même pas, j'reste en esprit, avec Heuss L'aga' L'aga' Rolex au poignet, j'sais pas lire l'heure, cartel de Mexico du Baga Tu parle chinois señorita, la sortie elle est derrière Chemise ouverte, gros décolleté, y a trop d'choix, j'sais plus quoi faire C'est Paname, Mexico Tant qu'y a d'l'oseille, nous on a tous c'qu'il faut Sa mère, j'suis sous pillave Elle veut que j'la casse mais j'ai pas le time, eh Sa mère, j'suis sous pillave Elle veut que j'la casse mais j'ai pas le time Elle veut rentrer avec moi, elle reconnaît les moulas Elle veut rentrer avec moi, elle reconnaît les moulas Eh, sa mère, j'suis sous pillave Elle veut que j'la casse mais j'ai pas le time Bébé, attend, crois-même pas j'suis épaté Faut de l'argent comptant, tous les jours, sur un plateau Quatre cent sicarios qui sse-bo pour Pablo, la moulaga, chicos, bien sûr qu'elle me rend beau En classe affaire, ou en bisness, j'fait Paris-Mexico J'veux une villa, bordel de merde, avec un hélico' J'arrive, j'appelle un cuisto', le meilleur de Mexico Ressers moi du Veuve Clicquot, j'vais vous refaire la déco' C'est Paname, Mexico Tant qu'y a d'l'oseille, nous on a tous c'qu'il faut Sa mère, j'suis sous pillave Elle veut que j'la casse mais j'ai pas le time, eh Sa mère, j'suis sous pillave Elle veut que j'la casse mais j'ai pas le time Elle veut rentrer avec moi, elle reconnaît les moulas Elle veut rentrer avec moi, elle reconnaît les moulas Eh, sa mère, j'suis sous pillave Elle veut que j'la casse mais j'ai pas le time1</t>
         </is>
       </c>
     </row>
@@ -2668,12 +2668,12 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Santafe</t>
+          <t>Soutien</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Ola chica, qu'est-ce t'as fait ? ouh, j'ai tout caché à Santafe wAllah Y a les képis dans l'estafette ouh, j'sors du ballon donc j'fais la fête sku, sku On fait remplir les narines à Maradona J'ramène le machin qui vient du Maracana J't'ai pas vu tourner en promenade avec Nyma Soolking, Heuss et ma-Ny, c'est un assassinat Dame-me-me Elle est bonne mais y a toujours un mais Dame-me-me Faut les lovés pour la calmer Laï, laï, laï, laï GP-800 et casque Araï Laï, laï, laï, laï On a fait tout ça pour d'la maille Elle arrive en te-boî, les seins siliconés Tout l'mond la connait, elle a cent mill abonnés Fallait pas faire le con, fallait pas tout lui donner Elle t'a fait du s'hour, tu lui as tout pardonné Dame-me-me Elle est bonne mais y a toujours un mais Dame-me-me Faut les lovés pour la calmer Tu connais mon sin-c', on l'appelle Le Heuss Maintenant, tu la 7ess, j'démarre la RS Malaga, Boumerdes, Buenos Aires Grosse brigade, c'est l'OCTRIS, pas les CRS J'la sens pas, j'ai benda en Hollanda Ma-Ny envoie les mandats, j'suis posé avec Anita Et fallait pas libérer Nyma, c'est un assassinat J'fonce au Panama, j'travaille en famille, c'est pas du cinéma Laï, laï, laï, laï GP-800 et casque Araï Laï, laï, laï, laï On a fait tout ça pour d'la maille Elle arrive en te-boî, les seins siliconés Tout l'monde la connait, elle a cent mille abonnés Fallait pas faire le con, fallait pas tout lui donner Elle t'a fait du s'hour, tu lui as tout pardonné Dame-me-me Elle est bonne mais y a toujours un mais Dame-me-me Faut les lovés pour la calmer Aristocrate mais sans la canne C'est pour la gratte qu'on a démarré la bécane Aristocrate mais sans la canne Sur un coup d'tête, on met les voiles à Manhattan Oui, wAllah Nyma, Heuss, Soolking, ouh Nyma, Heuss, Soolking Nyma, Heuss, Soolking WAllah, ouh, ouh, ouh</t>
+          <t>Zeg P on the track, bitch Y a qu'à mes potos, les vrais, que j'prête la bagnole, voir les petits en Thaïlande, ça me régale waow Les mecs de chez moi, gros, c'est biz' illégal ouais, ça nique toute la logistique tah Ronald Reggan waow Ça compte des milliers d'euros devant le chicken wouh, r'marque, ils nous traitent comme du bétail chh Nos daronnes en bonne santé, ça me régale, sur les plages de Tunisie, du Sénégal top J'ai vu c'condé qui tournait dans le quartier top, il a fini par t'embarquer waow Au moment de partir avec ta bécane, il s'est éclaté au sol, ça me régale nion J'en ai rien à foutre d'connaître les détails rien, quand ça parle des autres, frérot, j'décale On est tous rentrés, personne s'fait recal' rien, maintenant, ça pète les Magnum et ça se régale ouf Eh, j'entends plus rien, rien de rien, rien, ouais Mais j'suis bien, ouais J'entends plus rien, rien de rien, rien, ouais Mais là j'suis bien J'te soutiens moralement Physiquement, psychologiquement J'te soutiens moralement Physiquement, psychologiquement Heuss L'enfoiré, j'suis connu dans ton village, Sadek nous invite, forcément, ça nous régale On fait du sale, c'est légal et illégal, écoute, ferme ta gueule, te-ma comment j'les régale N.Y.M.A ah, Rotterdam et Rosendael 'dael Et demande à So' So', j'ai la kichta dans l'futal Les chacaux, les chacals, transac' dans l'futsal dans l'futsal Ismaël Bennacer juste avant la finale la grosse finale J'suis dans Youcef Atal, Arturo Vidal vraiment en finale Grosse dégaine d'hooligan, j'ai viré la gitane la gitane Eh, j'entends plus rien, rien de rien, rien, ouais Mais j'suis bien, ouais J'entends plus rien, rien de rien, rien, ouais Mais là j'suis bien J'te soutiens moralement Physiquement, psychologiquement J'te soutiens moralement Physiquement, psychologiquement Rotary Club, diner du siècle ouais, options d'achat au style, j'attaque à l'arrière J'ai la recette, bois, c'est cool cette fois mais bon, renseigne-toi, j'ai p't-être racheté ta carrière Affranchis En full Hermès, on va pas s'battre ouais, à la Volvica ou khabat J'suis au Fouquet's à mes 100 ans, j'suis en showcase pendant shabbat Mon reuf, ils ont même pas fait c'que j'ai fait sans faire exprès ouais M'en veux pas mais si j'suis à-l paw, paw, paw, paw, tu joueras pas la finale J'te-ma leur clip, j'crois qu'j'vais rer-pleu hein, des Colombiennes de Colombe dans l'9.2 J'suis dans l'cockpit, j'suis chez Dassault, bon au porteur signé Fianso Eh, j'entends plus rien, rien de rien, rien, ouais Mais j'suis bien, ouais J'entends plus rien, rien de rien, rien, ouais Mais là j'suis bien J'te soutiens moralement Physiquement, psychologiquement J'te soutiens moralement Physiquement, psychologiquement</t>
         </is>
       </c>
     </row>
@@ -2685,12 +2685,12 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Shayo</t>
+          <t>Souvenir</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>J'suis à l'hivernage, dans le casino On a fait le ménage, rentré des palos Elle veut un bandit, le regard en dit long Du rouge sous les Fendis, ça fume la beuh citron J'ai gardé toutes mes parts N'attends pas qu'on t'épargne J'ai gardé mes réflexes de bandit Toujours en jet lag Restau' cinq étoiles Le nouvel empire s'agrandit Ça, c'est la vie qu'on mène, la vie qu'on aime Quoi qu'il arrive toujours en shayo Ah, c'est la vie qu'on aim, la vie qu'on mène Quoi qu'il arrive toujours n shayo J'suis en shayo Elle voulait l'anneau Mais j'suis qu'un salaud Tous nos plans tombent à l'eau Ce soir, j'ai bu la teille en shayo shayo, shayo shayo, shayo Ce soir, j'ai bu la teille en shayo shayo, shayo shayo, shayo Plus grand débat et bizarre, toujours en shayo On a quitté la rue, aujourd'hui ça finit chez Chanel Plus dans des sales d'histoire, madame s'est faite toute belle La main sur la cuisse, j'ai le cur qui palpite Gang, gang, gang, chérie faut qu'tu le saches Que noir sentiment en faillite Dring, dring, dring, j'te réponds plus tard J'suis avec une autre belle, ça se dit pas Ça, c'est la vie qu'on mène, la vie qu'on aime Quoi qu'il arrive toujours en shayo Ah, c'est la vie qu'on aime, la vie qu'on mène Quoi qu'il arrive toujours en shayo J'suis en shayo Elle voulait l'anneau Mais j'suis qu'un salaud Tous nos plans tombent à l'eau Ce soir, j'ai bu la teille en shayo shayo, shayo shayo, shayo Ce soir, j'ai bu la teille en shayo shayo, shayo shayo, shayo J'suis en shayo Elle voulait l'anneau Mais j'suis qu'un salaud Tous nos plans tombent à l'eau Ce soir, j'ai bu la teille en shayo shayo, shayo shayo, shayo Ce soir, j'ai bu la teille en shayo shayo, shayo shayo, shayo Ce soir, j'ai bu la teille en shayo shayo Shayo, shayo, han-han Shayo, shayo, shayo, shayo, han-han, han-han</t>
+          <t>Unleaded Un souvenir de plus et des problèmes en moins Et comme d'habitude, demain, tu t'en vas Des problèmes en moins, ça fait du bien, j'ai plus mal Zehma tu m'oublies, mais au fond, j't'ai fait du mal On s'est perdus dans la ni-i-i-i-ight, j'te voyais plus dans ma li-i-i-i-ife On s'est perdus dans la ni-i-i-i-ight, j'te voyais plus dans ma li-i-i-i-ife Elle veut que j'arrête la callé, moi, j'sais plus sur quel pied danser Le cur finit accidenté, toi, envoie la facture, j'vais la financer J't'offrirais c'que tu n'as pas, pour les autres, aucune attache Comment j'peux tourner la page ? Y a ton parfum dans l'appart' Des fois, j'suis bon, des fois, j'suis bancal, on s'fait la guerre au Continental Des fois, j'regrette, j'reviens sur mes pas, elle a changé, j'la reconnais pas Un souvenir de plus et des problèmes en moins Et comme d'habitude, demain tu t'en vas Des problèmes en moins, ça fait du bien, j'ai plus mal Zehma tu m'oublies, mais au fond, j't'ai fait du mal On s'est perdus dans la ni-i-i-i-ight, j'te voyais plus dans ma li-i-i-i-ife On s'est perdus dans la ni-i-i-i-ight, j'te voyais plus dans ma li-i-i-i-ife Mchi , maintenant, j'suis à l'aise C'est pas la peine que tu fasses un malaise Mazel, mazel, Jamais , 9adiya Ouais, ça fait aïe, aïe, aïe Aïe, aïe, aïe, aïe, aïe, aïe, aïe Aïe, aïe Oui, j't'ai fait du mal Oh, oh, oh, oh Ouais, ça fait aïe, aïe, aïe Aïe, aïe, aïe, aïe, aïe, aïe, aïe Aïe, aïe Te revoir encore un dimanche Un souvenir de plus et des problèmes en moins Et comme d'habitude, demain, tu t'en vas Des problèmes en moins, ça fait du bien, j'ai plus mal Zehma tu m'oublies, mais au fond, j't'ai fait du mal On s'est perdus dans la ni-i-i-i-ight, j'te voyais plus dans ma li-i-i-i-ife On s'est perdus dans la ni-i-i-i-ight, j'te voyais plus dans ma li-i-i-i-ife</t>
         </is>
       </c>
     </row>
@@ -2702,12 +2702,12 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Sous Pillave</t>
+          <t>Spiderman</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Oh oh, oh oh Oh oh, oh oh Oooh, ooh Paname Mexico Yah J'ai trainé dans l'bât', zéro déguaine ah ouais mais j'gérer des fes-meu Elle a un pétard de fou quand elle déguaine ah ouais, entouré de moula, j'me demande qui fait mieux ? Elle veut mon cur, elle l'aura même pas même pas, j'reste en esprit, avec Heuss L'aga' L'aga' Rolex au poignet, j'sais pas lire l'heure, cartel de Mexico du Baga Tu parle chinois señorita, la sortie elle est derrière Chemise ouverte, gros décolleté, y a trop d'choix, j'sais plus quoi faire C'est Paname, Mexico Tant qu'y a d'l'oseille, nous on a tous c'qu'il faut Sa mère, j'suis sous pillave Elle veut que j'la casse mais j'ai pas le time, eh Sa mère, j'suis sous pillave Elle veut que j'la casse mais j'ai pas le time Elle veut rentrer avec moi, elle reconnaît les moulas Elle veut rentrer avec moi, elle reconnaît les moulas Eh, sa mère, j'suis sous pillave Elle veut que j'la casse mais j'ai pas le time Bébé, attend, crois-même pas j'suis épaté Faut de l'argent comptant, tous les jours, sur un plateau Quatre cent sicarios qui sse-bo pour Pablo, la moulaga, chicos, bien sûr qu'elle me rend beau En classe affaire, ou en bisness, j'fait Paris-Mexico J'veux une villa, bordel de merde, avec un hélico' J'arrive, j'appelle un cuisto', le meilleur de Mexico Ressers moi du Veuve Clicquot, j'vais vous refaire la déco' C'est Paname, Mexico Tant qu'y a d'l'oseille, nous on a tous c'qu'il faut Sa mère, j'suis sous pillave Elle veut que j'la casse mais j'ai pas le time, eh Sa mère, j'suis sous pillave Elle veut que j'la casse mais j'ai pas le time Elle veut rentrer avec moi, elle reconnaît les moulas Elle veut rentrer avec moi, elle reconnaît les moulas Eh, sa mère, j'suis sous pillave Elle veut que j'la casse mais j'ai pas le time1</t>
+          <t>Zeg P on the track beat Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Ça a pris du temps mais tu m'as quitté C'est vrai, j'te comprends, j'étais pas impliqué Mais là, j'me reprends, même si c'est risqué J'esquive les méchants pour pas finir de l'autre côté Une fois menotté, pense à tout c'que t'as mis C'est les cités, c'est risqué, faut pas déconner J'suis dans l'illégal, j'ai ds idées sales Elle coll au mur comme Spiderman J'suis dans l'illégal, j'ai des idées sales Elle colle au mur comme Spiderman Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Comme Zé Pequeno d'Rio de Janeiro J'entends le bruit des gyros des fédéraux Et dire qu'y a pas longtemps, j'vendais des jets d'héro' Bébé, vas-y, viens, on change de météo Mon bébé, tu me connais J'ai foiré, j'ai déconné, faut pas t'aboner J'suis dans l'illégal, j'ai des idées sales Elle colle au mur comme Spiderman J'suis dans l'illégal, j'ai des idées sales Elle colle au mur comme Spiderman Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané</t>
         </is>
       </c>
     </row>
@@ -2719,12 +2719,12 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Soutien</t>
+          <t>Suarez</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Zeg P on the track, bitch Y a qu'à mes potos, les vrais, que j'prête la bagnole, voir les petits en Thaïlande, ça me régale waow Les mecs de chez moi, gros, c'est biz' illégal ouais, ça nique toute la logistique tah Ronald Reggan waow Ça compte des milliers d'euros devant le chicken wouh, r'marque, ils nous traitent comme du bétail chh Nos daronnes en bonne santé, ça me régale, sur les plages de Tunisie, du Sénégal top J'ai vu c'condé qui tournait dans le quartier top, il a fini par t'embarquer waow Au moment de partir avec ta bécane, il s'est éclaté au sol, ça me régale nion J'en ai rien à foutre d'connaître les détails rien, quand ça parle des autres, frérot, j'décale On est tous rentrés, personne s'fait recal' rien, maintenant, ça pète les Magnum et ça se régale ouf Eh, j'entends plus rien, rien de rien, rien, ouais Mais j'suis bien, ouais J'entends plus rien, rien de rien, rien, ouais Mais là j'suis bien J'te soutiens moralement Physiquement, psychologiquement J'te soutiens moralement Physiquement, psychologiquement Heuss L'enfoiré, j'suis connu dans ton village, Sadek nous invite, forcément, ça nous régale On fait du sale, c'est légal et illégal, écoute, ferme ta gueule, te-ma comment j'les régale N.Y.M.A ah, Rotterdam et Rosendael 'dael Et demande à So' So', j'ai la kichta dans l'futal Les chacaux, les chacals, transac' dans l'futsal dans l'futsal Ismaël Bennacer juste avant la finale la grosse finale J'suis dans Youcef Atal, Arturo Vidal vraiment en finale Grosse dégaine d'hooligan, j'ai viré la gitane la gitane Eh, j'entends plus rien, rien de rien, rien, ouais Mais j'suis bien, ouais J'entends plus rien, rien de rien, rien, ouais Mais là j'suis bien J'te soutiens moralement Physiquement, psychologiquement J'te soutiens moralement Physiquement, psychologiquement Rotary Club, diner du siècle ouais, options d'achat au style, j'attaque à l'arrière J'ai la recette, bois, c'est cool cette fois mais bon, renseigne-toi, j'ai p't-être racheté ta carrière Affranchis En full Hermès, on va pas s'battre ouais, à la Volvica ou khabat J'suis au Fouquet's à mes 100 ans, j'suis en showcase pendant shabbat Mon reuf, ils ont même pas fait c'que j'ai fait sans faire exprès ouais M'en veux pas mais si j'suis à-l paw, paw, paw, paw, tu joueras pas la finale J'te-ma leur clip, j'crois qu'j'vais rer-pleu hein, des Colombiennes de Colombe dans l'9.2 J'suis dans l'cockpit, j'suis chez Dassault, bon au porteur signé Fianso Eh, j'entends plus rien, rien de rien, rien, ouais Mais j'suis bien, ouais J'entends plus rien, rien de rien, rien, ouais Mais là j'suis bien J'te soutiens moralement Physiquement, psychologiquement J'te soutiens moralement Physiquement, psychologiquement</t>
+          <t>Heuss L'enfoiré, S.T Clan Ok, eh Moi c'est Heuss, j'kick à la vitesse d'un bolide allemand Efficace, normalement tous mes gars j'les dédicace BX Land, deuxième round, j'sais combien ça coûte Demande à Many, le salaire de Jean II Makoun Que d'la drogue dans les alentours, à tous les carrefours Christophe Rocancourt, joublie pas Medlar au placard Les feukeus s'faufilent comme des cafards Un coup d'fil, perquis' dans ton pavtar, j'ai des lyrics de bâtard T'as ma parole, on t'coupe la langue si t'es trop bavard Le rainté cimenté, voiture accidentée Aller-retour Bruxelles, ma gueule j'ai jamais plaisanté La keuba est dépassée, la dép' s'est déplacée Ils veulent qu'on arrête de bosser mais ils rêvent ces enculés Bref, si demain j'ressors du hebs j'vais voir Heks Ou le S qui me pousse d'la ess, slata hollandaise J'découpe la Marlboro, j'vesqui les Navarro, les Camaro Les Colombo, comme d'hab' j'ai une grosse envie d'taro J'prends l'gent-ar tel un charo, sans m'tenir à carreau C'est l'argent d'la gue-dro, ici personne me ralentie Soyez attentifs, Zepek XXX Obligé d'faire la diff', comme le RSA déf' Grâce aux ienclis j'suis en bénéf', j'les vi-ser à bonne adresse Le truc entre les fesses, tous les jours j'vesqui la hess Tous les jours j'vesqui la hess, ouais tous les jours j'vesqui la hess Hey, Heuss L'enfoiré, bande d'enfoirés J'mets des buts à la Suarez, rancunier envers les douaniers Hey, Heuss L'enfoiré, bande d'enfoirés J'mets des buts à la Suarez, rancunier envers les douaniers Jordan Michael, Jackson Michael Ou George Michael, bah ouais ma gueule Heuss L'enfoiré, bande d'enfoirés J'mets toujours des buts à la Suarez Grand gringalet, le jeton fallait parce qu'il le fallait, 22 balais Comme ST j'ai l'flow qui balaye tiens l'ingé', j'te rends l'appareil Les kilos, les péages, le tel-hô, la dame de ménage The Wire, les pétages, les dealers dans les étages A la Sablière, y'a plus d'temps dans l'sablier D'la gue-dro, des mes-ar, tout y est, on va tout piller Gros faut des billets, spliff caramélisé Jack D j'ai tisé, forcément j'ai envie d'pisser Thierry Henry à l'ancienne, j'troue les filets Cherche pas la merde ou j'appelle Souley' Deuxième couplet très salé, faut pas vous affoler Faut pas m'voler des affaires d'voitures volées J'préfère passer d'la C dans l'cul d'un poney Soyez pas étonnés, la rue, la prison, le cash money Heuss L'enfoiré, bande d'enfoirés Hey, Heuss L'enfoiré, bande d'enfoirés J'mets des buts à la Suarez, rancunier envers les douaniers Hey, Heuss L'enfoiré, bande d'enfoirés J'mets des buts à la Suarez, rancunier envers les douaniers Jordan Michael, Jackson Michael Ou George Michael, bah ouais ma gueule Heuss L'enfoiré, bande d'enfoirés J'mets toujours des buts à la Suarez1</t>
         </is>
       </c>
     </row>
@@ -2736,12 +2736,12 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Souvenir</t>
+          <t>Sur les champs</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Unleaded Un souvenir de plus et des problèmes en moins Et comme d'habitude, demain, tu t'en vas Des problèmes en moins, ça fait du bien, j'ai plus mal Zehma tu m'oublies, mais au fond, j't'ai fait du mal On s'est perdus dans la ni-i-i-i-ight, j'te voyais plus dans ma li-i-i-i-ife On s'est perdus dans la ni-i-i-i-ight, j'te voyais plus dans ma li-i-i-i-ife Elle veut que j'arrête la callé, moi, j'sais plus sur quel pied danser Le cur finit accidenté, toi, envoie la facture, j'vais la financer J't'offrirais c'que tu n'as pas, pour les autres, aucune attache Comment j'peux tourner la page ? Y a ton parfum dans l'appart' Des fois, j'suis bon, des fois, j'suis bancal, on s'fait la guerre au Continental Des fois, j'regrette, j'reviens sur mes pas, elle a changé, j'la reconnais pas Un souvenir de plus et des problèmes en moins Et comme d'habitude, demain tu t'en vas Des problèmes en moins, ça fait du bien, j'ai plus mal Zehma tu m'oublies, mais au fond, j't'ai fait du mal On s'est perdus dans la ni-i-i-i-ight, j'te voyais plus dans ma li-i-i-i-ife On s'est perdus dans la ni-i-i-i-ight, j'te voyais plus dans ma li-i-i-i-ife Mchi , maintenant, j'suis à l'aise C'est pas la peine que tu fasses un malaise Mazel, mazel, Jamais , 9adiya Ouais, ça fait aïe, aïe, aïe Aïe, aïe, aïe, aïe, aïe, aïe, aïe Aïe, aïe Oui, j't'ai fait du mal Oh, oh, oh, oh Ouais, ça fait aïe, aïe, aïe Aïe, aïe, aïe, aïe, aïe, aïe, aïe Aïe, aïe Te revoir encore un dimanche Un souvenir de plus et des problèmes en moins Et comme d'habitude, demain, tu t'en vas Des problèmes en moins, ça fait du bien, j'ai plus mal Zehma tu m'oublies, mais au fond, j't'ai fait du mal On s'est perdus dans la ni-i-i-i-ight, j'te voyais plus dans ma li-i-i-i-ife On s'est perdus dans la ni-i-i-i-ight, j'te voyais plus dans ma li-i-i-i-ife</t>
+          <t>En virée sur les Champs Encore une légende, j'rallume un zoula sur le champ Tu connais, jamais on ger-chan J'suis dans les bails, le transac' Dans les bails, y a les Champs J'pète la cool sur un transat, les verres pour la raison On est cramés, tu connais déjà l'équipage On veut tout graille, y a pas de paris qui tape J'ai tout fait de mes mains, j'ai pas touché d'héritage Envoie la rançon, j'ai pris l'monde en otage Tu peux m'voir dans un château, tu peux m'voir dans la zone C'est l'aristocratie, la moula, qu'on m'appelle Principes, t'es Monaco, j'pose mes couilles sur le trône C'est le nord d'la Corée, c'est Barksdale, Stringer Bell Ouais, Ouais, Ouais, Ouais J'branche les filles d'à côté J'suis vers le Dakota Wah, wah J'fume et j'baise Californiennes L'âge de remplir mon quotas En virée sur les Champs, elle a gueuté les jantes J'ai chanté Les Méchants, elle m'a donné ses jambes Elle aime charmer les gens, fait des passes comme Roni au camp Elle a aucun talent, les hommes sous ses talons Elle veut la parure Van Klimt Le sac Louis V' Toujours du khedma, des showcases tout l'été J'vois ton cur qui s'en balle, mais j'suis pas pressé Comportement j'vais pas laisser tomber J'baigne encore dans l'illégal moi et tous mes gars J'me suis mis à l'écart, j'étais le bon candidat J'fume la frappe, c'est médical Ouais-Ouais c'est médical Les yeux rouges sous les Tjita J'branche les filles d'à côté J'suis vers le Dakota Wah, wah J'fume et j'baise Californiennes L'âge de remplir mon quotas En virée sur les Champs, elle a gueuté les jantes J'ai chanté Les Méchants, elle m'a donné ses jambes Elle aime charmer les gens, fait des passes comme Roni au camp Elle a aucun talent, les hommes sous ses talons</t>
         </is>
       </c>
     </row>
@@ -2753,12 +2753,12 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Spiderman</t>
+          <t>Sur un pied</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Zeg P on the track beat Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Ça a pris du temps mais tu m'as quitté C'est vrai, j'te comprends, j'étais pas impliqué Mais là, j'me reprends, même si c'est risqué J'esquive les méchants pour pas finir de l'autre côté Une fois menotté, pense à tout c'que t'as mis C'est les cités, c'est risqué, faut pas déconner J'suis dans l'illégal, j'ai ds idées sales Elle coll au mur comme Spiderman J'suis dans l'illégal, j'ai des idées sales Elle colle au mur comme Spiderman Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Comme Zé Pequeno d'Rio de Janeiro J'entends le bruit des gyros des fédéraux Et dire qu'y a pas longtemps, j'vendais des jets d'héro' Bébé, vas-y, viens, on change de météo Mon bébé, tu me connais J'ai foiré, j'ai déconné, faut pas t'aboner J'suis dans l'illégal, j'ai des idées sales Elle colle au mur comme Spiderman J'suis dans l'illégal, j'ai des idées sales Elle colle au mur comme Spiderman Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané Et depuis l'temps, on est acquittés Maxi kichta, maxi cellophané</t>
+          <t>Wiils Production Skch Bisous à tous mes frelons qui cantinent Spah J'y vais tranquille comme un gars d'Argentine J'ai rien sur moi comme un professionnel Skch J'v'-esqui toujours la fouille ministérielle Spah Père de famille vise la conditionnelle Skch Criminel redescend en correctionnelle Skch Les indigents qui retapent la gamelle Dix grammes de filtré dans l'cul à Kamel Pah Demande à Perkiz Demande à Perkiz, ça pue la mort Ça pue la mort Ça sent la perquise Ça sent la perquise, ça fume encore Ça fume encore Demande à Perkiz La directrice, ça pue la mort Vroum, vroum Ça sent la perquise Skch, skch, ça fume encore Envoyez-moi au pays des merveilles Bigo, frigo, par la fenêtre Envoyez-moi au pays des merveilles Bigo, frigo, par la fenêtre On l'a fait sur un pied À Fleury, on l'a fait sur un pied Aux Baumettes On l'a fait sur un pied Bois d'Arcy, on l'a fait sur un pied La Farlède Tu l'as fait sur un pied Bobigny, ça l'a fait sur un pied La Santé Ils la font sur un pied Val-de-Reuil, on l'a fait sur un pied Villepinte, Fresnes On l'a fait sur une be-j' Ouais, une be-j' Ouais, une be-j' Okay On l'a fait sur une be-j' Ouais, ouais, une be-j' Ouais, ouais, une be-j' Ouais, ouais Ça m'ouvre les portes dedans ou dehors, du D1 au D3, ça deal au DD J'ai piqué la matonne, elle m'charme, mon bébé, si tu gardes la pêche, y aura pas d'pépin Grosse moula qui sort du fourgon Bang, bang, t'as pris dix mois, fais-les et fous l'camp Casse-toi J'veux l'infirmière, pas les médocs, mon co, il galère, il s'fait un TikTok J'pète pas d'gel, y a qu'mes Asics qui en ont, d'après la SPIP, j'en ai plus pour longtemps Mais j'la fais sur une be-j', une be-j', une be-j' Demande à Perkiz Demande à Perkiz, ça pue la mort Ça pue la mort Ça sent la perquise Ça sent la perquise, ça fume encore Ça fume encore Demande à Perkiz La directrice, ça pue la mort Vroum, vroum Ça sent la perquise Skch, skch, ça fume encore Envoyez-moi au pays des merveilles Bigo, frigo, par la fenêtre Envoyez-moi au pays des merveilles Bigo, frigo, par la fenêtre On l'a fait sur un pied À Fleury, on l'a fait sur un pied Aux Baumettes On l'a fait sur un pied Bois d'Arcy, on l'a fait sur un pied La Farlède Tu l'as fait sur un pied Bobigny, ça l'a fait sur un pied La Santé Ils la font sur un pied Val-de-Reuil, on l'a fait sur un pied Villepinte, Fresnes T'as fait rentrer mon bédo, aquarium dans la cellule Condamné, mandat d'dépôt, que sur l'banc des accusés Eh, oh, en promenade comme dans l'ghetto Philip, OCB, bédo, cafouillage, violeur, pédo On l'a fait sur un pied À Fleury, on l'a fait sur un pied Aux Baumettes On l'a fait sur un pied Bois d'Arcy, on l'a fait sur un pied La Farlède Tu l'as fait sur un pied Bobigny, ça l'a fait sur un pied La Santé Ils la font sur un pied Val-de-Reuil, on l'a fait sur un pied Villepinte, Fresnes</t>
         </is>
       </c>
     </row>
@@ -2770,12 +2770,12 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Suarez</t>
+          <t>Symphonie du bendo</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Heuss L'enfoiré, S.T Clan Ok, eh Moi c'est Heuss, j'kick à la vitesse d'un bolide allemand Efficace, normalement tous mes gars j'les dédicace BX Land, deuxième round, j'sais combien ça coûte Demande à Many, le salaire de Jean II Makoun Que d'la drogue dans les alentours, à tous les carrefours Christophe Rocancourt, joublie pas Medlar au placard Les feukeus s'faufilent comme des cafards Un coup d'fil, perquis' dans ton pavtar, j'ai des lyrics de bâtard T'as ma parole, on t'coupe la langue si t'es trop bavard Le rainté cimenté, voiture accidentée Aller-retour Bruxelles, ma gueule j'ai jamais plaisanté La keuba est dépassée, la dép' s'est déplacée Ils veulent qu'on arrête de bosser mais ils rêvent ces enculés Bref, si demain j'ressors du hebs j'vais voir Heks Ou le S qui me pousse d'la ess, slata hollandaise J'découpe la Marlboro, j'vesqui les Navarro, les Camaro Les Colombo, comme d'hab' j'ai une grosse envie d'taro J'prends l'gent-ar tel un charo, sans m'tenir à carreau C'est l'argent d'la gue-dro, ici personne me ralentie Soyez attentifs, Zepek XXX Obligé d'faire la diff', comme le RSA déf' Grâce aux ienclis j'suis en bénéf', j'les vi-ser à bonne adresse Le truc entre les fesses, tous les jours j'vesqui la hess Tous les jours j'vesqui la hess, ouais tous les jours j'vesqui la hess Hey, Heuss L'enfoiré, bande d'enfoirés J'mets des buts à la Suarez, rancunier envers les douaniers Hey, Heuss L'enfoiré, bande d'enfoirés J'mets des buts à la Suarez, rancunier envers les douaniers Jordan Michael, Jackson Michael Ou George Michael, bah ouais ma gueule Heuss L'enfoiré, bande d'enfoirés J'mets toujours des buts à la Suarez Grand gringalet, le jeton fallait parce qu'il le fallait, 22 balais Comme ST j'ai l'flow qui balaye tiens l'ingé', j'te rends l'appareil Les kilos, les péages, le tel-hô, la dame de ménage The Wire, les pétages, les dealers dans les étages A la Sablière, y'a plus d'temps dans l'sablier D'la gue-dro, des mes-ar, tout y est, on va tout piller Gros faut des billets, spliff caramélisé Jack D j'ai tisé, forcément j'ai envie d'pisser Thierry Henry à l'ancienne, j'troue les filets Cherche pas la merde ou j'appelle Souley' Deuxième couplet très salé, faut pas vous affoler Faut pas m'voler des affaires d'voitures volées J'préfère passer d'la C dans l'cul d'un poney Soyez pas étonnés, la rue, la prison, le cash money Heuss L'enfoiré, bande d'enfoirés Hey, Heuss L'enfoiré, bande d'enfoirés J'mets des buts à la Suarez, rancunier envers les douaniers Hey, Heuss L'enfoiré, bande d'enfoirés J'mets des buts à la Suarez, rancunier envers les douaniers Jordan Michael, Jackson Michael Ou George Michael, bah ouais ma gueule Heuss L'enfoiré, bande d'enfoirés J'mets toujours des buts à la Suarez1</t>
+          <t>Elle me dit d'arrêter la bibi Bébé j'ai pas le temps Aujourdhui le four ouvre à midi ouvre à midi Bébé j'ai pas le temps Je suis K.O hein, je suis K.O hein Mais je dois visser Je suis K.O hein, je suis K.O hein Mais je dois visser En direct du bendo, ce soir, la khapta sera sévère Elle a voulu refaire sa vie, mais moi j'ai pas changé d'avis Tu préfères le JD d'avant, je préfère le Naza d'après Je sais ce que la vie m'a pris, dans le fond j'ai vaincu ma peine vaincu ma peine C'est l'bendo, y a que l'sale qui m'appelle Je l'aime trop, ce qui causera ma perte Elle me dit d'arrêter la bibi Bébé j'ai pas le temps Aujourdhui le four ouvre à midi ouvre à midi Bébé j'ai pas le temps Je suis K.O hein, je suis K.O hein Mais je dois visser Je suis K.O hein, je suis K.O hein Mais je dois visser Alpha Roméo, Batman, Mondéo Eté comme hiver, peu importe la météo météo Alpha Roméo, Batman, Mondéo Eté comme hiver, peu importe la météo météo Elle s'abonne, se désabonne, elle écoute tous mes albums Mais c'est vraiment pas la bonne, nan c'est pas toi la patronne La vérité si je mens, j'bédave dans l'établissement Dans tous les arrondissements, précieux comme un talisman On pourra s'en aller, mais pour le moment reste loin de moi Moi son cur j'l'ai volé, elle aura que des souvenirs de moi Elle me dit d'arrêter la bibi Bébé j'ai pas le temps Aujourdhui le four ouvre à midi ouvre à midi Bébé j'ai pas le temps Je suis K.O hein, je suis K.O hein Mais je dois visser Je suis K.O hein, je suis K.O hein Mais je dois visser Alpha Roméo, Batman, Mondéo Eté comme hiver, peu importe la météo Alpha Roméo, Batman, Mondéo Eté comme hiver, peu importe la météo La, la, la-la, la-la-la La, la, la-la, la-la-la La, la, la-la, la-la-la La, la, la-la, la-la-la</t>
         </is>
       </c>
     </row>
@@ -2787,12 +2787,12 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Sur les champs</t>
+          <t>Tête cramée</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>En virée sur les Champs Encore une légende, j'rallume un zoula sur le champ Tu connais, jamais on ger-chan J'suis dans les bails, le transac' Dans les bails, y a les Champs J'pète la cool sur un transat, les verres pour la raison On est cramés, tu connais déjà l'équipage On veut tout graille, y a pas de paris qui tape J'ai tout fait de mes mains, j'ai pas touché d'héritage Envoie la rançon, j'ai pris l'monde en otage Tu peux m'voir dans un château, tu peux m'voir dans la zone C'est l'aristocratie, la moula, qu'on m'appelle Principes, t'es Monaco, j'pose mes couilles sur le trône C'est le nord d'la Corée, c'est Barksdale, Stringer Bell Ouais, Ouais, Ouais, Ouais J'branche les filles d'à côté J'suis vers le Dakota Wah, wah J'fume et j'baise Californiennes L'âge de remplir mon quotas En virée sur les Champs, elle a gueuté les jantes J'ai chanté Les Méchants, elle m'a donné ses jambes Elle aime charmer les gens, fait des passes comme Roni au camp Elle a aucun talent, les hommes sous ses talons Elle veut la parure Van Klimt Le sac Louis V' Toujours du khedma, des showcases tout l'été J'vois ton cur qui s'en balle, mais j'suis pas pressé Comportement j'vais pas laisser tomber J'baigne encore dans l'illégal moi et tous mes gars J'me suis mis à l'écart, j'étais le bon candidat J'fume la frappe, c'est médical Ouais-Ouais c'est médical Les yeux rouges sous les Tjita J'branche les filles d'à côté J'suis vers le Dakota Wah, wah J'fume et j'baise Californiennes L'âge de remplir mon quotas En virée sur les Champs, elle a gueuté les jantes J'ai chanté Les Méchants, elle m'a donné ses jambes Elle aime charmer les gens, fait des passes comme Roni au camp Elle a aucun talent, les hommes sous ses talons</t>
+          <t>Oh RJacks Prodz Oh, oh, oh Masta explicit on the beat Hey La cons' callée dans l'jean Jean, j'écoute pas les on dit On dit À c'qui p', on est maudits 'dits, l'OPJ me l'a dit Dit L'hiver, ça sort la parka, les keufs veulent nous embarquer J'aime pas trop la patinoire, failli glisser sur l'parquet J'ai noirci mon cur à vendre du jaune, j'en ai vu de toutes les couleurs Ici, c'est torride, la vie n'est pas rose, la rue ne veut pas me faire de fleur Bonbonne callée, trop égaré, il le fallait, j'baise tout c'tte année, oh La gadji voudrait mon cur mais je suis rempli que de haine Je suis rempli de haine J'ai d'la rancur envers ceux qui veulent pas que j'm'en sorte quand même Mais bon, c'est la vie Je suis pas béni, i m'faut des sous, j'viens rafaler tout Fuck la sère-mi, j'm'en bats les couilles, j'sens même plus les coups Tu tournes ta veste, c'est plus pareil, j'fais tourner la roue Trop acharné, déterminé, on s'envole du zoo Fidèle sont nos clients, d'la puff, on ramène En espérant que ça marche, on a dû ramer Ceux qui ont côtoyé le four, ont fini cramer Et la plupart qui ont parlé, se sont fait caner Tous les matins quand j'me ver-le, faut que j'marque un but Spartacus en 2016, la daronne au parlu Il va pleuvoir, on t'achètera p't-être un parapluie Au téléphone, rien qu'tu parles, rien qu'tu baragouines Dans un bar à putes Ouais, dans un bar à gouines Non Bienvenue à Medellin, cartel et y aura pas d'quartier Héroïne, crack et cocaïne revendus en sachet Dans la rue méchante, ton sac-à-main, souvent, s'fait arracher La vie d'ma mère, la zone à Seille', c'est vraiment l'anarchie Wawa, la taule, Doudou, Sankhara, feront pas d'gâchis Le surveillant a compris, okay, ok sakamashi Doudou, la taule, l'a v'-esqui cent fois, Je suis pas béni, il m'faut des sous, j'viens rafaler tout Fuck la sère-mi, j'm'en bats les couilles, j'sens même plus les coups Tu tournes ta veste, c'est plus pareil, j'fais tourner la roue Trop acharné, déterminé, on s'envole du zoo Fidèle sont nos clients, d'la puff, on ramène En espérant que ça marche, on a dû ramer Ceux qui ont côtoyé le four, ont fini cramer Et la plupart qui ont parlé, se sont fait caner</t>
         </is>
       </c>
     </row>
@@ -2804,12 +2804,12 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Sur un pied</t>
+          <t>Tous les jours*</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Wiils Production Skch Bisous à tous mes frelons qui cantinent Spah J'y vais tranquille comme un gars d'Argentine J'ai rien sur moi comme un professionnel Skch J'v'-esqui toujours la fouille ministérielle Spah Père de famille vise la conditionnelle Skch Criminel redescend en correctionnelle Skch Les indigents qui retapent la gamelle Dix grammes de filtré dans l'cul à Kamel Pah Demande à Perkiz Demande à Perkiz, ça pue la mort Ça pue la mort Ça sent la perquise Ça sent la perquise, ça fume encore Ça fume encore Demande à Perkiz La directrice, ça pue la mort Vroum, vroum Ça sent la perquise Skch, skch, ça fume encore Envoyez-moi au pays des merveilles Bigo, frigo, par la fenêtre Envoyez-moi au pays des merveilles Bigo, frigo, par la fenêtre On l'a fait sur un pied À Fleury, on l'a fait sur un pied Aux Baumettes On l'a fait sur un pied Bois d'Arcy, on l'a fait sur un pied La Farlède Tu l'as fait sur un pied Bobigny, ça l'a fait sur un pied La Santé Ils la font sur un pied Val-de-Reuil, on l'a fait sur un pied Villepinte, Fresnes On l'a fait sur une be-j' Ouais, une be-j' Ouais, une be-j' Okay On l'a fait sur une be-j' Ouais, ouais, une be-j' Ouais, ouais, une be-j' Ouais, ouais Ça m'ouvre les portes dedans ou dehors, du D1 au D3, ça deal au DD J'ai piqué la matonne, elle m'charme, mon bébé, si tu gardes la pêche, y aura pas d'pépin Grosse moula qui sort du fourgon Bang, bang, t'as pris dix mois, fais-les et fous l'camp Casse-toi J'veux l'infirmière, pas les médocs, mon co, il galère, il s'fait un TikTok J'pète pas d'gel, y a qu'mes Asics qui en ont, d'après la SPIP, j'en ai plus pour longtemps Mais j'la fais sur une be-j', une be-j', une be-j' Demande à Perkiz Demande à Perkiz, ça pue la mort Ça pue la mort Ça sent la perquise Ça sent la perquise, ça fume encore Ça fume encore Demande à Perkiz La directrice, ça pue la mort Vroum, vroum Ça sent la perquise Skch, skch, ça fume encore Envoyez-moi au pays des merveilles Bigo, frigo, par la fenêtre Envoyez-moi au pays des merveilles Bigo, frigo, par la fenêtre On l'a fait sur un pied À Fleury, on l'a fait sur un pied Aux Baumettes On l'a fait sur un pied Bois d'Arcy, on l'a fait sur un pied La Farlède Tu l'as fait sur un pied Bobigny, ça l'a fait sur un pied La Santé Ils la font sur un pied Val-de-Reuil, on l'a fait sur un pied Villepinte, Fresnes T'as fait rentrer mon bédo, aquarium dans la cellule Condamné, mandat d'dépôt, que sur l'banc des accusés Eh, oh, en promenade comme dans l'ghetto Philip, OCB, bédo, cafouillage, violeur, pédo On l'a fait sur un pied À Fleury, on l'a fait sur un pied Aux Baumettes On l'a fait sur un pied Bois d'Arcy, on l'a fait sur un pied La Farlède Tu l'as fait sur un pied Bobigny, ça l'a fait sur un pied La Santé Ils la font sur un pied Val-de-Reuil, on l'a fait sur un pied Villepinte, Fresnes</t>
+          <t>f'rais mieux d'me barrer Quitter la France, quitter Paris Des fois, j'me demande qu'est-ce qui m'arrive Tout ça m'a rendu complètement taré Tous les jours, j'crois qu'c'est mon annif' Tous les jours, j'crois qu'c'est mon annif'</t>
         </is>
       </c>
     </row>
@@ -2821,12 +2821,12 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Symphonie du bendo</t>
+          <t>Train de vie</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Elle me dit d'arrêter la bibi Bébé j'ai pas le temps Aujourdhui le four ouvre à midi ouvre à midi Bébé j'ai pas le temps Je suis K.O hein, je suis K.O hein Mais je dois visser Je suis K.O hein, je suis K.O hein Mais je dois visser En direct du bendo, ce soir, la khapta sera sévère Elle a voulu refaire sa vie, mais moi j'ai pas changé d'avis Tu préfères le JD d'avant, je préfère le Naza d'après Je sais ce que la vie m'a pris, dans le fond j'ai vaincu ma peine vaincu ma peine C'est l'bendo, y a que l'sale qui m'appelle Je l'aime trop, ce qui causera ma perte Elle me dit d'arrêter la bibi Bébé j'ai pas le temps Aujourdhui le four ouvre à midi ouvre à midi Bébé j'ai pas le temps Je suis K.O hein, je suis K.O hein Mais je dois visser Je suis K.O hein, je suis K.O hein Mais je dois visser Alpha Roméo, Batman, Mondéo Eté comme hiver, peu importe la météo météo Alpha Roméo, Batman, Mondéo Eté comme hiver, peu importe la météo météo Elle s'abonne, se désabonne, elle écoute tous mes albums Mais c'est vraiment pas la bonne, nan c'est pas toi la patronne La vérité si je mens, j'bédave dans l'établissement Dans tous les arrondissements, précieux comme un talisman On pourra s'en aller, mais pour le moment reste loin de moi Moi son cur j'l'ai volé, elle aura que des souvenirs de moi Elle me dit d'arrêter la bibi Bébé j'ai pas le temps Aujourdhui le four ouvre à midi ouvre à midi Bébé j'ai pas le temps Je suis K.O hein, je suis K.O hein Mais je dois visser Je suis K.O hein, je suis K.O hein Mais je dois visser Alpha Roméo, Batman, Mondéo Eté comme hiver, peu importe la météo Alpha Roméo, Batman, Mondéo Eté comme hiver, peu importe la météo La, la, la-la, la-la-la La, la, la-la, la-la-la La, la, la-la, la-la-la La, la, la-la, la-la-la</t>
+          <t>Ah, ah, ah Ah, ah, ah J'imagine pas vivre sans toi Envoie des snap sans aucun effet C'est une bombe, un attentat Pour toi, j'arrête le trois fois filtré Et tu m'dis que tu mens Et que pour moi, t'as des sentiments La vie de Ronnie provoque des insomnies Du mal à suivre le train d'vie Un excès qu'on a banalisé J'suis une moula incomprise incomprise Petit cur a été vandalisé Ah, ah, ah Ah, ah, ah Toi et moi, c'est sans aucun effort Si tu tombes, je tombe, à deux, on est plus forts Toi et moi, c'est sans aucun effort Si tu tombes, je tombe, à deux, on est plus forts T'imagines, t'es tout pour moi La vérité, c'est trop pour toi Encore des années à tes côtés Et j'passe mes soirées à t'écouter Là, j'sens qu'c'est trop, qu'un jour, tu vas m'lâcher Toi, tu veux partir quand j'me suis attachée C'est vrai qu'c'est chaud et qu'on s'est fâchés Mais si on s'perd de vue, on aura tout perdu Du mal à suivre le train d'vie Un excès qu'on a banalisé J'suis une moula incomprise incomprise Petit cur a été vandalisé Ah, ah, ah Ah, ah, ah Toi et moi, c'est sans aucun effort Si tu tombes, je tombe, à deux, on est plus forts Toi et moi, c'est sans aucun effort Si tu tombes, je tombe, à deux, on est plus forts</t>
         </is>
       </c>
     </row>
@@ -2838,12 +2838,12 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Tête cramée</t>
+          <t>Vie d’malade</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Oh RJacks Prodz Oh, oh, oh Masta explicit on the beat Hey La cons' callée dans l'jean Jean, j'écoute pas les on dit On dit À c'qui p', on est maudits 'dits, l'OPJ me l'a dit Dit L'hiver, ça sort la parka, les keufs veulent nous embarquer J'aime pas trop la patinoire, failli glisser sur l'parquet J'ai noirci mon cur à vendre du jaune, j'en ai vu de toutes les couleurs Ici, c'est torride, la vie n'est pas rose, la rue ne veut pas me faire de fleur Bonbonne callée, trop égaré, il le fallait, j'baise tout c'tte année, oh La gadji voudrait mon cur mais je suis rempli que de haine Je suis rempli de haine J'ai d'la rancur envers ceux qui veulent pas que j'm'en sorte quand même Mais bon, c'est la vie Je suis pas béni, i m'faut des sous, j'viens rafaler tout Fuck la sère-mi, j'm'en bats les couilles, j'sens même plus les coups Tu tournes ta veste, c'est plus pareil, j'fais tourner la roue Trop acharné, déterminé, on s'envole du zoo Fidèle sont nos clients, d'la puff, on ramène En espérant que ça marche, on a dû ramer Ceux qui ont côtoyé le four, ont fini cramer Et la plupart qui ont parlé, se sont fait caner Tous les matins quand j'me ver-le, faut que j'marque un but Spartacus en 2016, la daronne au parlu Il va pleuvoir, on t'achètera p't-être un parapluie Au téléphone, rien qu'tu parles, rien qu'tu baragouines Dans un bar à putes Ouais, dans un bar à gouines Non Bienvenue à Medellin, cartel et y aura pas d'quartier Héroïne, crack et cocaïne revendus en sachet Dans la rue méchante, ton sac-à-main, souvent, s'fait arracher La vie d'ma mère, la zone à Seille', c'est vraiment l'anarchie Wawa, la taule, Doudou, Sankhara, feront pas d'gâchis Le surveillant a compris, okay, ok sakamashi Doudou, la taule, l'a v'-esqui cent fois, Je suis pas béni, il m'faut des sous, j'viens rafaler tout Fuck la sère-mi, j'm'en bats les couilles, j'sens même plus les coups Tu tournes ta veste, c'est plus pareil, j'fais tourner la roue Trop acharné, déterminé, on s'envole du zoo Fidèle sont nos clients, d'la puff, on ramène En espérant que ça marche, on a dû ramer Ceux qui ont côtoyé le four, ont fini cramer Et la plupart qui ont parlé, se sont fait caner</t>
+          <t>J'commence à gratter dans l'train, j'vais feat avec demain Ouais, ouais, ouais, ouais Heuss et moi en feat', c'est comme se prendre une grosse claque à deux mains Ouais, ouais, ouais, ouais La street de rue, c'est vrai, ici, y a pas Félix Gallardo skch Mais y a la Sablière, le maille, le blanc, les bouts à ragot J'encule les balivernes, les bitches qui racontent des ragots J'ai passé quatre hivers dans l'four à bosser comme un charo Le seize est salé, salé, emballé et cellophané paw, wow, wow J'm'en bats les couilles d'gagner si j'ai ramassé assez c'tte année Mais j'oublie pas qu'j'ai bossé vraiment comme un Pakistanais J'fais d'la khapta, la zeb, la pélo nous prend pour un trip pané Il s'coupe les couilles sur moi, la kich' arrive en simultané C'est Heuss L'enfoiré, gangz, j'bombarde comme Gareth Bale hey La drogue est bolivienne, tu veux t'emparer d'elle J'fais visiter la Tour Eiffel à Paredes Ah, j'veux la vie d'malade avec une chica-liente Ciao, hasta siempre Pas facile, j'ai mes bails là-bas Passer du Chica cuento à la vie chic et côté Olala, elle me suivrait pour une vie d'malade woh woh Olala, oublier tout pour une vie d'malade ouais, ouais, ouais, ouais Dans l'appart', j'recompte la kichta, j'roule un teh ouais, ouais, ouais, ouais J'prends ma part comme Balavoine ou comme Sinatra woh J'commence à gratter dans l'train, jai feat avec laga à demain Heuss et moi en feat', c'est comme se prendre une grosse claque à deux mains 9.2.2.4 tout pour 1, du rap çais-fran, c'est pas cain-'ri Ci-mer Karim pour le so-per de Mexico, tout est carré, hein J'traîne dans la tess Réda Murad dans la caisse Une seule teil Réda bois pas trois Capri-Sun, un pneu à plat haha Nerveux sur la prod comme le deux temps que j'comptais m'acheter J'ai les condés d'chez moi au cul comme s'ils étaient scratchés La neuvième line, le joint d'l'enfoiré, j'viens d'écraser J'ai rien ramassé du tout, j'veux tout niquer, j'veux tracer Hyperactif dans la cabine, fuck un docteur et son cabinet J'ai ma beuh et mon inspi' pour brasser mes billets Ah, j'veux la vie d'malade avec une chica-liente Ciao, hasta siempre Pas facile, j'ai mes bails là-bas Passer de la Chica cuento à la vie chic et côté Olala, elle me suivrait pour une vie d'malade ouais, ouais, ouais, ouais Olala, oublier tout pour une vie d'malade ouais, ouais, ouais, ouais Dans l'appart', j'recompte la kichta, j'roule un tah ouais, ouais, ouais, ouais J'prends ma part comme Balavoine ou comme Sinatra ouais, ouais, ouais, ouais Olala, elle me suivrait pour une vie d'malade ouais, ouais, ouais, ouais Olala, oublier tout pour une vie d'malade ouais, ouais, ouais, ouais Dans l'appart', j'recompte la kichta, j'roule un teh ouais, ouais, ouais, ouais J'prends ma part comme Balavoine ou comme Sinatra ouais, ouais, ouais, ouais Ouais, ouais, ouais, ouais Ouais, ouais, ouais, ouais</t>
         </is>
       </c>
     </row>
@@ -2855,12 +2855,12 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Tous les jours*</t>
+          <t>Yes We Can</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>f'rais mieux d'me barrer Quitter la France, quitter Paris Des fois, j'me demande qu'est-ce qui m'arrive Tout ça m'a rendu complètement taré Tous les jours, j'crois qu'c'est mon annif' Tous les jours, j'crois qu'c'est mon annif'</t>
+          <t>Yes, we can, on s'en va tout lweek-end Où tu veux, yes, we can J'ai assez d'tickets, dans les îles mexicaines Que jarrache ta ficelle Bébé, yes, we can, on s'en va tout l'week-end Où tu veux, yes, we can J'ai assez d'tickets, dans les îles mexicaines J'connais son tarot, le LV carreaux, elle m'a mis la migraine Elle s'pose des questions, pas à la maison, Lenfoiré, un mystère Tsais qu'je pnse Je pens à toi sur la piste de danse Sur la piste de danse Tu mas donné ton cur Cur, tu m'as fait des avances J'suis dans l'fond du bar, elle veut quon décale mais là, j'suis trop défoncé C'est ça tous les soirs, oui, je la déçois, j't'avais dit d'laisser tomber 'ber Yes, we can, on s'en va tout l'week-end Où tu veux, yes, we can J'ai assez d'tickets, dans les îles mexicaines Que j'arrache ta ficelle Bébé, yes, we can, on s'en va tout l'week-end Où tu veux, yes, we can J'ai assez d'tickets, dans les îles mexicaines Que j'arrache ta ficelle Bébé, yes, we can C'est la zone à , c'est pas les Feux d'l'Amour, j'suis pas love, j'veux des lovés Parle en business plan, j'suis dans l'cinq étoiles, j'mange du buf de Kobe Bébé, faut pas Pas que tu vois loin Loin J'te veux maintenant 'nant , jamais demain Mais c'est une catin dans les draps en satin Des fois, ça m'tente, balle dans la tempe Mais j'ai pas l'temps, j'modifie les passe-temps Idéalement, j'roule un p'tit qui calme Évidemment, j'arrive comme un Allemand Cent K dans l'sac, Yes, we can, on s'en va tout l'week-end Où tu veux, yes, we can J'ai assez d'tickets, dans les îles mexicaines Que j'arrache ta ficelle Bébé, yes, we can, on s'en va tout l'week-end Où tu veux, yes, we can J'ai assez d'tickets, dans les îles mexicaines Que j'arrache ta ficelle Bébé, yes, we can Dans les îles mexicaines Que j'arrache ta ficelle Bébé, yes, we can Où tu veux, yes, we can J'ai assez d'tickets</t>
         </is>
       </c>
     </row>
@@ -2872,61 +2872,10 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Train de vie</t>
+          <t>Zone 6 ou 13002</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
-        <is>
-          <t>Ah, ah, ah Ah, ah, ah J'imagine pas vivre sans toi Envoie des snap sans aucun effet C'est une bombe, un attentat Pour toi, j'arrête le trois fois filtré Et tu m'dis que tu mens Et que pour moi, t'as des sentiments La vie de Ronnie provoque des insomnies Du mal à suivre le train d'vie Un excès qu'on a banalisé J'suis une moula incomprise incomprise Petit cur a été vandalisé Ah, ah, ah Ah, ah, ah Toi et moi, c'est sans aucun effort Si tu tombes, je tombe, à deux, on est plus forts Toi et moi, c'est sans aucun effort Si tu tombes, je tombe, à deux, on est plus forts T'imagines, t'es tout pour moi La vérité, c'est trop pour toi Encore des années à tes côtés Et j'passe mes soirées à t'écouter Là, j'sens qu'c'est trop, qu'un jour, tu vas m'lâcher Toi, tu veux partir quand j'me suis attachée C'est vrai qu'c'est chaud et qu'on s'est fâchés Mais si on s'perd de vue, on aura tout perdu Du mal à suivre le train d'vie Un excès qu'on a banalisé J'suis une moula incomprise incomprise Petit cur a été vandalisé Ah, ah, ah Ah, ah, ah Toi et moi, c'est sans aucun effort Si tu tombes, je tombe, à deux, on est plus forts Toi et moi, c'est sans aucun effort Si tu tombes, je tombe, à deux, on est plus forts</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Heuss l'Enfoiré</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Vie d’malade</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>J'commence à gratter dans l'train, j'vais feat avec demain Ouais, ouais, ouais, ouais Heuss et moi en feat', c'est comme se prendre une grosse claque à deux mains Ouais, ouais, ouais, ouais La street de rue, c'est vrai, ici, y a pas Félix Gallardo skch Mais y a la Sablière, le maille, le blanc, les bouts à ragot J'encule les balivernes, les bitches qui racontent des ragots J'ai passé quatre hivers dans l'four à bosser comme un charo Le seize est salé, salé, emballé et cellophané paw, wow, wow J'm'en bats les couilles d'gagner si j'ai ramassé assez c'tte année Mais j'oublie pas qu'j'ai bossé vraiment comme un Pakistanais J'fais d'la khapta, la zeb, la pélo nous prend pour un trip pané Il s'coupe les couilles sur moi, la kich' arrive en simultané C'est Heuss L'enfoiré, gangz, j'bombarde comme Gareth Bale hey La drogue est bolivienne, tu veux t'emparer d'elle J'fais visiter la Tour Eiffel à Paredes Ah, j'veux la vie d'malade avec une chica-liente Ciao, hasta siempre Pas facile, j'ai mes bails là-bas Passer du Chica cuento à la vie chic et côté Olala, elle me suivrait pour une vie d'malade woh woh Olala, oublier tout pour une vie d'malade ouais, ouais, ouais, ouais Dans l'appart', j'recompte la kichta, j'roule un teh ouais, ouais, ouais, ouais J'prends ma part comme Balavoine ou comme Sinatra woh J'commence à gratter dans l'train, jai feat avec laga à demain Heuss et moi en feat', c'est comme se prendre une grosse claque à deux mains 9.2.2.4 tout pour 1, du rap çais-fran, c'est pas cain-'ri Ci-mer Karim pour le so-per de Mexico, tout est carré, hein J'traîne dans la tess Réda Murad dans la caisse Une seule teil Réda bois pas trois Capri-Sun, un pneu à plat haha Nerveux sur la prod comme le deux temps que j'comptais m'acheter J'ai les condés d'chez moi au cul comme s'ils étaient scratchés La neuvième line, le joint d'l'enfoiré, j'viens d'écraser J'ai rien ramassé du tout, j'veux tout niquer, j'veux tracer Hyperactif dans la cabine, fuck un docteur et son cabinet J'ai ma beuh et mon inspi' pour brasser mes billets Ah, j'veux la vie d'malade avec une chica-liente Ciao, hasta siempre Pas facile, j'ai mes bails là-bas Passer de la Chica cuento à la vie chic et côté Olala, elle me suivrait pour une vie d'malade ouais, ouais, ouais, ouais Olala, oublier tout pour une vie d'malade ouais, ouais, ouais, ouais Dans l'appart', j'recompte la kichta, j'roule un tah ouais, ouais, ouais, ouais J'prends ma part comme Balavoine ou comme Sinatra ouais, ouais, ouais, ouais Olala, elle me suivrait pour une vie d'malade ouais, ouais, ouais, ouais Olala, oublier tout pour une vie d'malade ouais, ouais, ouais, ouais Dans l'appart', j'recompte la kichta, j'roule un teh ouais, ouais, ouais, ouais J'prends ma part comme Balavoine ou comme Sinatra ouais, ouais, ouais, ouais Ouais, ouais, ouais, ouais Ouais, ouais, ouais, ouais</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Heuss l'Enfoiré</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Yes We Can</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Yes, we can, on s'en va tout lweek-end Où tu veux, yes, we can J'ai assez d'tickets, dans les îles mexicaines Que jarrache ta ficelle Bébé, yes, we can, on s'en va tout l'week-end Où tu veux, yes, we can J'ai assez d'tickets, dans les îles mexicaines J'connais son tarot, le LV carreaux, elle m'a mis la migraine Elle s'pose des questions, pas à la maison, Lenfoiré, un mystère Tsais qu'je pnse Je pens à toi sur la piste de danse Sur la piste de danse Tu mas donné ton cur Cur, tu m'as fait des avances J'suis dans l'fond du bar, elle veut quon décale mais là, j'suis trop défoncé C'est ça tous les soirs, oui, je la déçois, j't'avais dit d'laisser tomber 'ber Yes, we can, on s'en va tout l'week-end Où tu veux, yes, we can J'ai assez d'tickets, dans les îles mexicaines Que j'arrache ta ficelle Bébé, yes, we can, on s'en va tout l'week-end Où tu veux, yes, we can J'ai assez d'tickets, dans les îles mexicaines Que j'arrache ta ficelle Bébé, yes, we can C'est la zone à , c'est pas les Feux d'l'Amour, j'suis pas love, j'veux des lovés Parle en business plan, j'suis dans l'cinq étoiles, j'mange du buf de Kobe Bébé, faut pas Pas que tu vois loin Loin J'te veux maintenant 'nant , jamais demain Mais c'est une catin dans les draps en satin Des fois, ça m'tente, balle dans la tempe Mais j'ai pas l'temps, j'modifie les passe-temps Idéalement, j'roule un p'tit qui calme Évidemment, j'arrive comme un Allemand Cent K dans l'sac, Yes, we can, on s'en va tout l'week-end Où tu veux, yes, we can J'ai assez d'tickets, dans les îles mexicaines Que j'arrache ta ficelle Bébé, yes, we can, on s'en va tout l'week-end Où tu veux, yes, we can J'ai assez d'tickets, dans les îles mexicaines Que j'arrache ta ficelle Bébé, yes, we can Dans les îles mexicaines Que j'arrache ta ficelle Bébé, yes, we can Où tu veux, yes, we can J'ai assez d'tickets</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>Heuss l'Enfoiré</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>Zone 6 ou 13002</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
         <is>
           <t>Voluptyk, Voluptyk Zone 6 ou 13002 Zone 6 ou 13002, secteur tah les stupe', eh Zone 6 ou 13002, secteur tah les stupe', eh Zone 6 ou 13002, secteur tah les stupe' Dans l'que-tru de la zipette, et ça depuis tit-pe Que des manshugou, corde au cou Regard doux, on est partougou Dans la zone 6, rapzougou Y en a pour tous les nasaux, la frappe tah la NASA J'pose tout chez la nourrice, j'laisse rien à la casa J'appelle le mair quand j'vais au 129 Digestion avec un gros joint d'ppe-f' L terrain tourne depuis 89 Eh, eh, arrête d'chanter et viens dans la zone 6, que des sicarios Y a même pas un grossiste, la nourrice nous garde tout gratos On gère le terrain, la musique, la gue-dro, les bastos Plein d'trucs dans la sacoche, regarde la gueule des gosses Dé-dé-décale, la bécane démarre pas, vas-y, viens faire les cosses On vient faire une razia complète, y aura aucune négoc' La moumou, vas-y, viens, si ça marche pas, ramène une citadine Fais conduire la p'tite Amandine, on revient d'Argentine Fais pas de vidéo, prends la photo et benda aussitôt Avant tout ça, j'faisais d'la taule et tous les comico Train d'vie tah les bâtards, j'claque les sous du Qatar Pour des potes qui m'enverront pas une seule recharge au mitard Il s'fait tard, j'roule un dernier tah, j'lui fais l'amour comme si j'sortais du shtar Elle m'dit bébé, j'prends mes affaires, j'me barre Dans l'appart', c'est l'Mexique, c'est l'Maroc, c'est l'Pérou Dans l'ghetto, vrai frérot se fait rare comme permis 2 roues Soit j'deviens une star ou soit j'finis au shtar ou T'étais pas là quand ça stagnait, fils de, m'dis pas On s'barre où ? Le malheur des uns fait le bonheur des fils de pute La réussite, ça attire les dou3as pour qu'tu chutes Ta passe, elle pue sa mère, comment tu veux qu'j'mette le but ? Comment prouver ? J'suis rentré, il reste deux minutes Ah, j'suis rentré, il reste deux minutes Il reste deux minutes Pff, j'ai envie d'mettre un putain d'but en lucarne, sa mère Pa-Pa-Pa-Paris la nuit, c'est la Californie Des moulaga encore en vie comme Annie Cordy Super dégourdi, j'te l'dis, j'te l'redis, on fait plus de crédit Les mauvais payeurs depuis l'époque, ça m'a vite refroidit É-é-écoute la mélodie de la Porte d'Aix à Porte de Clichy Fais pas de chichi, j'suis avec Cheche, remplis son flashy Y a v'là les trous de ballon, Gianni, Versacce, collection Gucci Dans l'compte nickel, y a tchi On fait que d'la magie, cerveau endommagé, ramène le Taittinger avec 25 g Un plavon avec zéro gros dangers On veut manger, p'tit bâtard, on veut manger Bipe le G, sur signal, gros, j'récupère le 200 g Livraison 30 minutes chrono, rapide, c'est léger Gestionnaire des bénéfices comme un PDG Zone 6 ou 13002, secteur tah les stupe' Dans l'que-tru de la zipette, et ça depuis tit-pe Que des manshugou, corde au cou Regard doux, on est partougou Dans la zone 6, rapzougou Y en a pour tous les nasaux, la frappe tah la NASA J'pose tout chez la nourrice, j'laisse rien à la casa J'appelle le maire quand j'vais au 129 Digestion avec un gros joint d'ppe-f' Le terrain tourne depuis 89 Zone 6 ou 13002, secteur tah les stupe' Dans l'que-tru de la zipette, et ça depuis tit-pe Que des manshugou, corde au cou Regard doux, on est partougou Dans la zone 6, rapzougou Y en a pour tous les nasaux, la frappe tah la NASA J'pose tout chez la nourrice, j'laisse rien à la casa J'appelle le maire quand j'vais au 129 Digestion avec un gros joint d'ppe-f' Le terrain tourne depuis 89 Le malheur des uns fait le bonheur des fils de pute La réussite, ça attire les dou3as pour qu'tu chutes Ta passe, elle pue sa mère, comment tu veux qu'j'mette le but ? Comment prouver ? J'suis rentré, il reste deux minutes Ah, j'suis rentré, il reste deux minutes Il reste deux minutes</t>
         </is>
